--- a/QuantLibXL/Data2/XLS/EUR_YC3MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YC3MBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="12300"/>
+    <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -309,7 +309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="192">
   <si>
     <t>Error</t>
   </si>
@@ -883,6 +883,9 @@
   <si>
     <t>EUR_YCRH_SwapsFromBasis</t>
   </si>
+  <si>
+    <t>incorrectly selected in old build because of bug in setting futures quotes</t>
+  </si>
 </sst>
 </file>
 
@@ -1031,7 +1034,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1090,6 +1093,12 @@
       <patternFill patternType="gray0625">
         <fgColor indexed="22"/>
         <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1559,7 +1568,7 @@
     <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2029,6 +2038,13 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2038,13 +2054,6 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2060,6 +2069,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2605,7 +2618,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AG95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2630,19 +2643,19 @@
       </c>
     </row>
     <row r="2" spans="1:33" s="53" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="217" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="222"/>
-      <c r="K2" s="217" t="s">
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="219"/>
+      <c r="K2" s="220" t="s">
         <v>163</v>
       </c>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="219"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="222"/>
     </row>
     <row r="3" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
@@ -3000,7 +3013,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="86">
-        <v>41646.136203703703</v>
+        <v>41646.188391203701</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
@@ -3047,12 +3060,12 @@
       <c r="H12" s="53"/>
       <c r="I12" s="53"/>
       <c r="J12" s="53"/>
-      <c r="K12" s="217" t="s">
+      <c r="K12" s="220" t="s">
         <v>159</v>
       </c>
-      <c r="L12" s="218"/>
-      <c r="M12" s="218"/>
-      <c r="N12" s="219"/>
+      <c r="L12" s="221"/>
+      <c r="M12" s="221"/>
+      <c r="N12" s="222"/>
       <c r="O12" s="53"/>
       <c r="P12" s="53"/>
       <c r="Q12" s="53"/>
@@ -3116,7 +3129,7 @@
       </c>
       <c r="D14" s="83" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYC3M#0000</v>
+        <v>_EURYC3M#0008</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="57"/>
@@ -3331,12 +3344,12 @@
       <c r="H19" s="53"/>
       <c r="I19" s="53"/>
       <c r="J19" s="53"/>
-      <c r="K19" s="217" t="s">
+      <c r="K19" s="220" t="s">
         <v>163</v>
       </c>
-      <c r="L19" s="218"/>
-      <c r="M19" s="218"/>
-      <c r="N19" s="219"/>
+      <c r="L19" s="221"/>
+      <c r="M19" s="221"/>
+      <c r="N19" s="222"/>
       <c r="O19" s="53"/>
       <c r="P19" s="53"/>
       <c r="Q19" s="53"/>
@@ -3752,7 +3765,7 @@
       </c>
       <c r="D29" s="59" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(Selected!I1)</f>
-        <v>qlPiecewiseYieldCurveData - 1st instrument (maturity: January 23rd, 2014) has an invalid quote</v>
+        <v>qlPiecewiseYieldCurveData - 13th instrument (maturity: January 9th, 2017) has an invalid quote</v>
       </c>
       <c r="E29" s="58"/>
       <c r="F29" s="57"/>
@@ -3760,12 +3773,12 @@
       <c r="H29" s="53"/>
       <c r="I29" s="53"/>
       <c r="J29" s="53"/>
-      <c r="K29" s="217" t="s">
+      <c r="K29" s="220" t="s">
         <v>159</v>
       </c>
-      <c r="L29" s="218"/>
-      <c r="M29" s="218"/>
-      <c r="N29" s="219"/>
+      <c r="L29" s="221"/>
+      <c r="M29" s="221"/>
+      <c r="N29" s="222"/>
       <c r="O29" s="53"/>
       <c r="P29" s="53"/>
       <c r="Q29" s="53"/>
@@ -4019,12 +4032,12 @@
       <c r="H36" s="53"/>
       <c r="I36" s="53"/>
       <c r="J36" s="53"/>
-      <c r="K36" s="217" t="s">
+      <c r="K36" s="220" t="s">
         <v>163</v>
       </c>
-      <c r="L36" s="218"/>
-      <c r="M36" s="218"/>
-      <c r="N36" s="219"/>
+      <c r="L36" s="221"/>
+      <c r="M36" s="221"/>
+      <c r="N36" s="222"/>
       <c r="O36" s="53"/>
       <c r="P36" s="53"/>
       <c r="Q36" s="53"/>
@@ -4394,12 +4407,12 @@
       <c r="H46" s="53"/>
       <c r="I46" s="53"/>
       <c r="J46" s="53"/>
-      <c r="K46" s="217" t="s">
+      <c r="K46" s="220" t="s">
         <v>159</v>
       </c>
-      <c r="L46" s="218"/>
-      <c r="M46" s="218"/>
-      <c r="N46" s="219"/>
+      <c r="L46" s="221"/>
+      <c r="M46" s="221"/>
+      <c r="N46" s="222"/>
       <c r="O46" s="53"/>
       <c r="P46" s="53"/>
       <c r="Q46" s="53"/>
@@ -4653,12 +4666,12 @@
       <c r="H53" s="53"/>
       <c r="I53" s="53"/>
       <c r="J53" s="53"/>
-      <c r="K53" s="217" t="s">
+      <c r="K53" s="220" t="s">
         <v>163</v>
       </c>
-      <c r="L53" s="218"/>
-      <c r="M53" s="218"/>
-      <c r="N53" s="219"/>
+      <c r="L53" s="221"/>
+      <c r="M53" s="221"/>
+      <c r="N53" s="222"/>
       <c r="O53" s="53"/>
       <c r="P53" s="53"/>
       <c r="Q53" s="53"/>
@@ -5028,12 +5041,12 @@
       <c r="H63" s="53"/>
       <c r="I63" s="53"/>
       <c r="J63" s="53"/>
-      <c r="K63" s="217" t="s">
+      <c r="K63" s="220" t="s">
         <v>159</v>
       </c>
-      <c r="L63" s="218"/>
-      <c r="M63" s="218"/>
-      <c r="N63" s="219"/>
+      <c r="L63" s="221"/>
+      <c r="M63" s="221"/>
+      <c r="N63" s="222"/>
       <c r="O63" s="53"/>
       <c r="P63" s="53"/>
       <c r="Q63" s="53"/>
@@ -5295,12 +5308,12 @@
     </row>
     <row r="74" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K75" s="217" t="s">
+      <c r="K75" s="220" t="s">
         <v>163</v>
       </c>
-      <c r="L75" s="218"/>
-      <c r="M75" s="218"/>
-      <c r="N75" s="219"/>
+      <c r="L75" s="221"/>
+      <c r="M75" s="221"/>
+      <c r="N75" s="222"/>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="K76" s="136"/>
@@ -5380,12 +5393,12 @@
       <c r="N84" s="121"/>
     </row>
     <row r="85" spans="11:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K85" s="217" t="s">
+      <c r="K85" s="220" t="s">
         <v>159</v>
       </c>
-      <c r="L85" s="218"/>
-      <c r="M85" s="218"/>
-      <c r="N85" s="219"/>
+      <c r="L85" s="221"/>
+      <c r="M85" s="221"/>
+      <c r="N85" s="222"/>
     </row>
     <row r="86" spans="11:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K86" s="128"/>
@@ -5483,17 +5496,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K29:N29"/>
     <mergeCell ref="K85:N85"/>
     <mergeCell ref="K36:N36"/>
     <mergeCell ref="K46:N46"/>
     <mergeCell ref="K53:N53"/>
     <mergeCell ref="K63:N63"/>
     <mergeCell ref="K75:N75"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K29:N29"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25 IZ25 SV25 ACR25 AMN25 AWJ25 BGF25 BQB25 BZX25 CJT25 CTP25 DDL25 DNH25 DXD25 EGZ25 EQV25 FAR25 FKN25 FUJ25 GEF25 GOB25 GXX25 HHT25 HRP25 IBL25 ILH25 IVD25 JEZ25 JOV25 JYR25 KIN25 KSJ25 LCF25 LMB25 LVX25 MFT25 MPP25 MZL25 NJH25 NTD25 OCZ25 OMV25 OWR25 PGN25 PQJ25 QAF25 QKB25 QTX25 RDT25 RNP25 RXL25 SHH25 SRD25 TAZ25 TKV25 TUR25 UEN25 UOJ25 UYF25 VIB25 VRX25 WBT25 WLP25 WVL25 D65561 IZ65561 SV65561 ACR65561 AMN65561 AWJ65561 BGF65561 BQB65561 BZX65561 CJT65561 CTP65561 DDL65561 DNH65561 DXD65561 EGZ65561 EQV65561 FAR65561 FKN65561 FUJ65561 GEF65561 GOB65561 GXX65561 HHT65561 HRP65561 IBL65561 ILH65561 IVD65561 JEZ65561 JOV65561 JYR65561 KIN65561 KSJ65561 LCF65561 LMB65561 LVX65561 MFT65561 MPP65561 MZL65561 NJH65561 NTD65561 OCZ65561 OMV65561 OWR65561 PGN65561 PQJ65561 QAF65561 QKB65561 QTX65561 RDT65561 RNP65561 RXL65561 SHH65561 SRD65561 TAZ65561 TKV65561 TUR65561 UEN65561 UOJ65561 UYF65561 VIB65561 VRX65561 WBT65561 WLP65561 WVL65561 D131097 IZ131097 SV131097 ACR131097 AMN131097 AWJ131097 BGF131097 BQB131097 BZX131097 CJT131097 CTP131097 DDL131097 DNH131097 DXD131097 EGZ131097 EQV131097 FAR131097 FKN131097 FUJ131097 GEF131097 GOB131097 GXX131097 HHT131097 HRP131097 IBL131097 ILH131097 IVD131097 JEZ131097 JOV131097 JYR131097 KIN131097 KSJ131097 LCF131097 LMB131097 LVX131097 MFT131097 MPP131097 MZL131097 NJH131097 NTD131097 OCZ131097 OMV131097 OWR131097 PGN131097 PQJ131097 QAF131097 QKB131097 QTX131097 RDT131097 RNP131097 RXL131097 SHH131097 SRD131097 TAZ131097 TKV131097 TUR131097 UEN131097 UOJ131097 UYF131097 VIB131097 VRX131097 WBT131097 WLP131097 WVL131097 D196633 IZ196633 SV196633 ACR196633 AMN196633 AWJ196633 BGF196633 BQB196633 BZX196633 CJT196633 CTP196633 DDL196633 DNH196633 DXD196633 EGZ196633 EQV196633 FAR196633 FKN196633 FUJ196633 GEF196633 GOB196633 GXX196633 HHT196633 HRP196633 IBL196633 ILH196633 IVD196633 JEZ196633 JOV196633 JYR196633 KIN196633 KSJ196633 LCF196633 LMB196633 LVX196633 MFT196633 MPP196633 MZL196633 NJH196633 NTD196633 OCZ196633 OMV196633 OWR196633 PGN196633 PQJ196633 QAF196633 QKB196633 QTX196633 RDT196633 RNP196633 RXL196633 SHH196633 SRD196633 TAZ196633 TKV196633 TUR196633 UEN196633 UOJ196633 UYF196633 VIB196633 VRX196633 WBT196633 WLP196633 WVL196633 D262169 IZ262169 SV262169 ACR262169 AMN262169 AWJ262169 BGF262169 BQB262169 BZX262169 CJT262169 CTP262169 DDL262169 DNH262169 DXD262169 EGZ262169 EQV262169 FAR262169 FKN262169 FUJ262169 GEF262169 GOB262169 GXX262169 HHT262169 HRP262169 IBL262169 ILH262169 IVD262169 JEZ262169 JOV262169 JYR262169 KIN262169 KSJ262169 LCF262169 LMB262169 LVX262169 MFT262169 MPP262169 MZL262169 NJH262169 NTD262169 OCZ262169 OMV262169 OWR262169 PGN262169 PQJ262169 QAF262169 QKB262169 QTX262169 RDT262169 RNP262169 RXL262169 SHH262169 SRD262169 TAZ262169 TKV262169 TUR262169 UEN262169 UOJ262169 UYF262169 VIB262169 VRX262169 WBT262169 WLP262169 WVL262169 D327705 IZ327705 SV327705 ACR327705 AMN327705 AWJ327705 BGF327705 BQB327705 BZX327705 CJT327705 CTP327705 DDL327705 DNH327705 DXD327705 EGZ327705 EQV327705 FAR327705 FKN327705 FUJ327705 GEF327705 GOB327705 GXX327705 HHT327705 HRP327705 IBL327705 ILH327705 IVD327705 JEZ327705 JOV327705 JYR327705 KIN327705 KSJ327705 LCF327705 LMB327705 LVX327705 MFT327705 MPP327705 MZL327705 NJH327705 NTD327705 OCZ327705 OMV327705 OWR327705 PGN327705 PQJ327705 QAF327705 QKB327705 QTX327705 RDT327705 RNP327705 RXL327705 SHH327705 SRD327705 TAZ327705 TKV327705 TUR327705 UEN327705 UOJ327705 UYF327705 VIB327705 VRX327705 WBT327705 WLP327705 WVL327705 D393241 IZ393241 SV393241 ACR393241 AMN393241 AWJ393241 BGF393241 BQB393241 BZX393241 CJT393241 CTP393241 DDL393241 DNH393241 DXD393241 EGZ393241 EQV393241 FAR393241 FKN393241 FUJ393241 GEF393241 GOB393241 GXX393241 HHT393241 HRP393241 IBL393241 ILH393241 IVD393241 JEZ393241 JOV393241 JYR393241 KIN393241 KSJ393241 LCF393241 LMB393241 LVX393241 MFT393241 MPP393241 MZL393241 NJH393241 NTD393241 OCZ393241 OMV393241 OWR393241 PGN393241 PQJ393241 QAF393241 QKB393241 QTX393241 RDT393241 RNP393241 RXL393241 SHH393241 SRD393241 TAZ393241 TKV393241 TUR393241 UEN393241 UOJ393241 UYF393241 VIB393241 VRX393241 WBT393241 WLP393241 WVL393241 D458777 IZ458777 SV458777 ACR458777 AMN458777 AWJ458777 BGF458777 BQB458777 BZX458777 CJT458777 CTP458777 DDL458777 DNH458777 DXD458777 EGZ458777 EQV458777 FAR458777 FKN458777 FUJ458777 GEF458777 GOB458777 GXX458777 HHT458777 HRP458777 IBL458777 ILH458777 IVD458777 JEZ458777 JOV458777 JYR458777 KIN458777 KSJ458777 LCF458777 LMB458777 LVX458777 MFT458777 MPP458777 MZL458777 NJH458777 NTD458777 OCZ458777 OMV458777 OWR458777 PGN458777 PQJ458777 QAF458777 QKB458777 QTX458777 RDT458777 RNP458777 RXL458777 SHH458777 SRD458777 TAZ458777 TKV458777 TUR458777 UEN458777 UOJ458777 UYF458777 VIB458777 VRX458777 WBT458777 WLP458777 WVL458777 D524313 IZ524313 SV524313 ACR524313 AMN524313 AWJ524313 BGF524313 BQB524313 BZX524313 CJT524313 CTP524313 DDL524313 DNH524313 DXD524313 EGZ524313 EQV524313 FAR524313 FKN524313 FUJ524313 GEF524313 GOB524313 GXX524313 HHT524313 HRP524313 IBL524313 ILH524313 IVD524313 JEZ524313 JOV524313 JYR524313 KIN524313 KSJ524313 LCF524313 LMB524313 LVX524313 MFT524313 MPP524313 MZL524313 NJH524313 NTD524313 OCZ524313 OMV524313 OWR524313 PGN524313 PQJ524313 QAF524313 QKB524313 QTX524313 RDT524313 RNP524313 RXL524313 SHH524313 SRD524313 TAZ524313 TKV524313 TUR524313 UEN524313 UOJ524313 UYF524313 VIB524313 VRX524313 WBT524313 WLP524313 WVL524313 D589849 IZ589849 SV589849 ACR589849 AMN589849 AWJ589849 BGF589849 BQB589849 BZX589849 CJT589849 CTP589849 DDL589849 DNH589849 DXD589849 EGZ589849 EQV589849 FAR589849 FKN589849 FUJ589849 GEF589849 GOB589849 GXX589849 HHT589849 HRP589849 IBL589849 ILH589849 IVD589849 JEZ589849 JOV589849 JYR589849 KIN589849 KSJ589849 LCF589849 LMB589849 LVX589849 MFT589849 MPP589849 MZL589849 NJH589849 NTD589849 OCZ589849 OMV589849 OWR589849 PGN589849 PQJ589849 QAF589849 QKB589849 QTX589849 RDT589849 RNP589849 RXL589849 SHH589849 SRD589849 TAZ589849 TKV589849 TUR589849 UEN589849 UOJ589849 UYF589849 VIB589849 VRX589849 WBT589849 WLP589849 WVL589849 D655385 IZ655385 SV655385 ACR655385 AMN655385 AWJ655385 BGF655385 BQB655385 BZX655385 CJT655385 CTP655385 DDL655385 DNH655385 DXD655385 EGZ655385 EQV655385 FAR655385 FKN655385 FUJ655385 GEF655385 GOB655385 GXX655385 HHT655385 HRP655385 IBL655385 ILH655385 IVD655385 JEZ655385 JOV655385 JYR655385 KIN655385 KSJ655385 LCF655385 LMB655385 LVX655385 MFT655385 MPP655385 MZL655385 NJH655385 NTD655385 OCZ655385 OMV655385 OWR655385 PGN655385 PQJ655385 QAF655385 QKB655385 QTX655385 RDT655385 RNP655385 RXL655385 SHH655385 SRD655385 TAZ655385 TKV655385 TUR655385 UEN655385 UOJ655385 UYF655385 VIB655385 VRX655385 WBT655385 WLP655385 WVL655385 D720921 IZ720921 SV720921 ACR720921 AMN720921 AWJ720921 BGF720921 BQB720921 BZX720921 CJT720921 CTP720921 DDL720921 DNH720921 DXD720921 EGZ720921 EQV720921 FAR720921 FKN720921 FUJ720921 GEF720921 GOB720921 GXX720921 HHT720921 HRP720921 IBL720921 ILH720921 IVD720921 JEZ720921 JOV720921 JYR720921 KIN720921 KSJ720921 LCF720921 LMB720921 LVX720921 MFT720921 MPP720921 MZL720921 NJH720921 NTD720921 OCZ720921 OMV720921 OWR720921 PGN720921 PQJ720921 QAF720921 QKB720921 QTX720921 RDT720921 RNP720921 RXL720921 SHH720921 SRD720921 TAZ720921 TKV720921 TUR720921 UEN720921 UOJ720921 UYF720921 VIB720921 VRX720921 WBT720921 WLP720921 WVL720921 D786457 IZ786457 SV786457 ACR786457 AMN786457 AWJ786457 BGF786457 BQB786457 BZX786457 CJT786457 CTP786457 DDL786457 DNH786457 DXD786457 EGZ786457 EQV786457 FAR786457 FKN786457 FUJ786457 GEF786457 GOB786457 GXX786457 HHT786457 HRP786457 IBL786457 ILH786457 IVD786457 JEZ786457 JOV786457 JYR786457 KIN786457 KSJ786457 LCF786457 LMB786457 LVX786457 MFT786457 MPP786457 MZL786457 NJH786457 NTD786457 OCZ786457 OMV786457 OWR786457 PGN786457 PQJ786457 QAF786457 QKB786457 QTX786457 RDT786457 RNP786457 RXL786457 SHH786457 SRD786457 TAZ786457 TKV786457 TUR786457 UEN786457 UOJ786457 UYF786457 VIB786457 VRX786457 WBT786457 WLP786457 WVL786457 D851993 IZ851993 SV851993 ACR851993 AMN851993 AWJ851993 BGF851993 BQB851993 BZX851993 CJT851993 CTP851993 DDL851993 DNH851993 DXD851993 EGZ851993 EQV851993 FAR851993 FKN851993 FUJ851993 GEF851993 GOB851993 GXX851993 HHT851993 HRP851993 IBL851993 ILH851993 IVD851993 JEZ851993 JOV851993 JYR851993 KIN851993 KSJ851993 LCF851993 LMB851993 LVX851993 MFT851993 MPP851993 MZL851993 NJH851993 NTD851993 OCZ851993 OMV851993 OWR851993 PGN851993 PQJ851993 QAF851993 QKB851993 QTX851993 RDT851993 RNP851993 RXL851993 SHH851993 SRD851993 TAZ851993 TKV851993 TUR851993 UEN851993 UOJ851993 UYF851993 VIB851993 VRX851993 WBT851993 WLP851993 WVL851993 D917529 IZ917529 SV917529 ACR917529 AMN917529 AWJ917529 BGF917529 BQB917529 BZX917529 CJT917529 CTP917529 DDL917529 DNH917529 DXD917529 EGZ917529 EQV917529 FAR917529 FKN917529 FUJ917529 GEF917529 GOB917529 GXX917529 HHT917529 HRP917529 IBL917529 ILH917529 IVD917529 JEZ917529 JOV917529 JYR917529 KIN917529 KSJ917529 LCF917529 LMB917529 LVX917529 MFT917529 MPP917529 MZL917529 NJH917529 NTD917529 OCZ917529 OMV917529 OWR917529 PGN917529 PQJ917529 QAF917529 QKB917529 QTX917529 RDT917529 RNP917529 RXL917529 SHH917529 SRD917529 TAZ917529 TKV917529 TUR917529 UEN917529 UOJ917529 UYF917529 VIB917529 VRX917529 WBT917529 WLP917529 WVL917529 D983065 IZ983065 SV983065 ACR983065 AMN983065 AWJ983065 BGF983065 BQB983065 BZX983065 CJT983065 CTP983065 DDL983065 DNH983065 DXD983065 EGZ983065 EQV983065 FAR983065 FKN983065 FUJ983065 GEF983065 GOB983065 GXX983065 HHT983065 HRP983065 IBL983065 ILH983065 IVD983065 JEZ983065 JOV983065 JYR983065 KIN983065 KSJ983065 LCF983065 LMB983065 LVX983065 MFT983065 MPP983065 MZL983065 NJH983065 NTD983065 OCZ983065 OMV983065 OWR983065 PGN983065 PQJ983065 QAF983065 QKB983065 QTX983065 RDT983065 RNP983065 RXL983065 SHH983065 SRD983065 TAZ983065 TKV983065 TUR983065 UEN983065 UOJ983065 UYF983065 VIB983065 VRX983065 WBT983065 WLP983065 WVL983065">
@@ -5537,7 +5550,7 @@
   <dimension ref="A1:N169"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5679,9 +5692,9 @@
         <f t="shared" si="0"/>
         <v>EUR_YC3MRH_SND</v>
       </c>
-      <c r="F4" s="33" t="e">
+      <c r="F4" s="33">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.8940000000000001E-3</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="32" t="b">
@@ -5718,9 +5731,9 @@
         <f t="shared" si="0"/>
         <v>EUR_YC3MRH_SWD</v>
       </c>
-      <c r="F5" s="33" t="e">
+      <c r="F5" s="33">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.9819999999999998E-3</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="32" t="b">
@@ -5757,9 +5770,9 @@
         <f t="shared" si="0"/>
         <v>EUR_YC3MRH_2WD</v>
       </c>
-      <c r="F6" s="33" t="e">
+      <c r="F6" s="33">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.977E-3</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="32" t="b">
@@ -5796,9 +5809,9 @@
         <f t="shared" si="0"/>
         <v>EUR_YC3MRH_3WD</v>
       </c>
-      <c r="F7" s="33" t="e">
+      <c r="F7" s="33">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.9919999999999998E-3</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="32" t="b">
@@ -5835,9 +5848,9 @@
         <f t="shared" si="0"/>
         <v>EUR_YC3MRH_1MD</v>
       </c>
-      <c r="F8" s="33" t="e">
+      <c r="F8" s="33">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.013E-3</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="32" t="b">
@@ -5874,9 +5887,9 @@
         <f t="shared" si="0"/>
         <v>EUR_YC3MRH_2MD</v>
       </c>
-      <c r="F9" s="33" t="e">
+      <c r="F9" s="33">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.1280000000000001E-3</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="32" t="b">
@@ -5907,9 +5920,9 @@
         <f t="shared" si="0"/>
         <v>EUR_YC3MRH_3MD</v>
       </c>
-      <c r="F10" s="33" t="e">
+      <c r="F10" s="33">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.2360000000000001E-3</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="32" t="b">
@@ -6113,9 +6126,9 @@
         <f t="shared" si="0"/>
         <v>EUR_YC3MRH_T3F1</v>
       </c>
-      <c r="F16" s="41" t="e">
+      <c r="F16" s="41">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.2500000000000003E-3</v>
       </c>
       <c r="G16" s="41"/>
       <c r="H16" s="40" t="b">
@@ -6151,9 +6164,9 @@
         <f t="shared" si="0"/>
         <v>EUR_YC3MRH_TOM3F1</v>
       </c>
-      <c r="F17" s="26" t="e">
+      <c r="F17" s="26">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.2500000000000003E-3</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="25" t="b">
@@ -6189,9 +6202,9 @@
         <f t="shared" si="0"/>
         <v>EUR_YC3MRH_1x4F</v>
       </c>
-      <c r="F18" s="33" t="e">
+      <c r="F18" s="33">
         <f>_xll.qlRateHelperQuoteValue($E18,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.4499999999999999E-3</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="32" t="b">
@@ -6227,9 +6240,9 @@
         <f t="shared" si="0"/>
         <v>EUR_YC3MRH_2x5F</v>
       </c>
-      <c r="F19" s="33" t="e">
+      <c r="F19" s="33">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.6800000000000001E-3</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="32" t="b">
@@ -6265,9 +6278,9 @@
         <f t="shared" si="0"/>
         <v>EUR_YC3MRH_3x6F</v>
       </c>
-      <c r="F20" s="33" t="e">
+      <c r="F20" s="33">
         <f>_xll.qlRateHelperQuoteValue($E20,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.9400000000000003E-3</v>
       </c>
       <c r="G20" s="33"/>
       <c r="H20" s="32" t="b">
@@ -6303,9 +6316,9 @@
         <f t="shared" si="0"/>
         <v>EUR_YC3MRH_4x7F</v>
       </c>
-      <c r="F21" s="33" t="e">
+      <c r="F21" s="33">
         <f>_xll.qlRateHelperQuoteValue($E21,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.1099999999999999E-3</v>
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="32" t="b">
@@ -6341,9 +6354,9 @@
         <f t="shared" si="0"/>
         <v>EUR_YC3MRH_5x8F</v>
       </c>
-      <c r="F22" s="33" t="e">
+      <c r="F22" s="33">
         <f>_xll.qlRateHelperQuoteValue($E22,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.3199999999999996E-3</v>
       </c>
       <c r="G22" s="33"/>
       <c r="H22" s="32" t="b">
@@ -6379,9 +6392,9 @@
         <f t="shared" si="0"/>
         <v>EUR_YC3MRH_6x9F</v>
       </c>
-      <c r="F23" s="33" t="e">
+      <c r="F23" s="33">
         <f>_xll.qlRateHelperQuoteValue($E23,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.5199999999999997E-3</v>
       </c>
       <c r="G23" s="33"/>
       <c r="H23" s="32" t="b">
@@ -6744,7 +6757,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B33" s="36">
         <v>16</v>
       </c>
@@ -6782,7 +6795,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B34" s="36">
         <v>17</v>
       </c>
@@ -6820,7 +6833,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B35" s="29">
         <v>18</v>
       </c>
@@ -6858,7 +6871,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="43" t="b">
         <v>0</v>
       </c>
@@ -6901,7 +6914,7 @@
         <v>41744</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="35" t="b">
         <v>0</v>
       </c>
@@ -6943,7 +6956,7 @@
         <v>41778</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="35" t="b">
         <v>0</v>
       </c>
@@ -6985,7 +6998,7 @@
         <v>41809</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="35" t="b">
         <v>0</v>
       </c>
@@ -7009,8 +7022,8 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E39,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H39" s="32" t="b">
-        <v>1</v>
+      <c r="H39" s="228" t="b">
+        <v>0</v>
       </c>
       <c r="I39" s="32">
         <v>60</v>
@@ -7026,8 +7039,11 @@
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
         <v>41836</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N39" s="229" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="b">
         <v>0</v>
       </c>
@@ -7069,7 +7085,7 @@
         <v>41872</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="35" t="b">
         <v>0</v>
       </c>
@@ -7093,8 +7109,8 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E41,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H41" s="32" t="b">
-        <v>1</v>
+      <c r="H41" s="228" t="b">
+        <v>0</v>
       </c>
       <c r="I41" s="32">
         <v>60</v>
@@ -7111,7 +7127,7 @@
         <v>41900</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="b">
         <v>0</v>
       </c>
@@ -7135,8 +7151,8 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E42,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H42" s="32" t="b">
-        <v>1</v>
+      <c r="H42" s="228" t="b">
+        <v>0</v>
       </c>
       <c r="I42" s="32">
         <v>60</v>
@@ -7153,7 +7169,7 @@
         <v>41928</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="35" t="b">
         <v>0</v>
       </c>
@@ -7195,7 +7211,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="35" t="b">
         <v>0</v>
       </c>
@@ -7219,8 +7235,8 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E44,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H44" s="32" t="b">
-        <v>1</v>
+      <c r="H44" s="228" t="b">
+        <v>0</v>
       </c>
       <c r="I44" s="32">
         <v>60</v>
@@ -7237,7 +7253,7 @@
         <v>41990</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="35" t="b">
         <v>0</v>
       </c>
@@ -7261,8 +7277,8 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H45" s="32" t="b">
-        <v>1</v>
+      <c r="H45" s="228" t="b">
+        <v>0</v>
       </c>
       <c r="I45" s="32">
         <v>60</v>
@@ -7279,7 +7295,7 @@
         <v>42019</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="35" t="b">
         <v>0</v>
       </c>
@@ -7321,7 +7337,7 @@
         <v>42054</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="35" t="b">
         <v>0</v>
       </c>
@@ -7345,8 +7361,8 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H47" s="32" t="b">
-        <v>1</v>
+      <c r="H47" s="228" t="b">
+        <v>0</v>
       </c>
       <c r="I47" s="32">
         <v>60</v>
@@ -7363,7 +7379,7 @@
         <v>42080</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="35" t="b">
         <v>1</v>
       </c>
@@ -12582,7 +12598,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -12635,9 +12651,9 @@
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
         <v>EUR_YC3MRH_2WD</v>
       </c>
-      <c r="E2" s="10" t="e">
+      <c r="E2" s="10">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>#NUM!</v>
+        <v>1.977E-3</v>
       </c>
       <c r="F2" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -12671,9 +12687,9 @@
       <c r="D3" s="11" t="str">
         <v>EUR_YC3MRH_3WD</v>
       </c>
-      <c r="E3" s="10" t="e">
+      <c r="E3" s="10">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>#NUM!</v>
+        <v>1.9919999999999998E-3</v>
       </c>
       <c r="F3" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -12707,9 +12723,9 @@
       <c r="D4" s="11" t="str">
         <v>EUR_YC3MRH_1MD</v>
       </c>
-      <c r="E4" s="10" t="e">
+      <c r="E4" s="10">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>#NUM!</v>
+        <v>2.013E-3</v>
       </c>
       <c r="F4" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -12743,9 +12759,9 @@
       <c r="D5" s="11" t="str">
         <v>EUR_YC3MRH_2MD</v>
       </c>
-      <c r="E5" s="10" t="e">
+      <c r="E5" s="10">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>#NUM!</v>
+        <v>2.1280000000000001E-3</v>
       </c>
       <c r="F5" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -12780,9 +12796,9 @@
       <c r="D6" s="11" t="str">
         <v>EUR_YC3MRH_TOM3F1</v>
       </c>
-      <c r="E6" s="10" t="e">
+      <c r="E6" s="10">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>#NUM!</v>
+        <v>2.2500000000000003E-3</v>
       </c>
       <c r="F6" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -12809,7 +12825,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="str">
         <f>_xll.ohGroup(,_xll.ohPack(D2:D126),Permanent,,ObjectOverwrite)</f>
-        <v>obj_0065a#0000</v>
+        <v>obj_0065a#0008</v>
       </c>
       <c r="B7" s="12" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -12846,28 +12862,28 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MM4</v>
-      </c>
-      <c r="E8" s="10" t="e">
+        <v>EUR_YC3MRH_FUT3MH5</v>
+      </c>
+      <c r="E8" s="10">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F8" s="10" t="str">
+        <v>5.1250000000000462E-3</v>
+      </c>
+      <c r="F8" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
-        <v>--</v>
+        <v>0</v>
       </c>
       <c r="G8" s="9">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41808</v>
+        <v>42081</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41900</v>
+        <v>42173</v>
       </c>
       <c r="I8" s="3" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="229" t="s">
         <v>122</v>
       </c>
       <c r="L8" s="46">
@@ -12876,28 +12892,28 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MU4</v>
-      </c>
-      <c r="E9" s="10" t="e">
+        <v>EUR_YC3MRH_FUT3MM5</v>
+      </c>
+      <c r="E9" s="10">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F9" s="10" t="str">
+        <v>5.8249999999999691E-3</v>
+      </c>
+      <c r="F9" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
-        <v>--</v>
+        <v>0</v>
       </c>
       <c r="G9" s="9">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41899</v>
+        <v>42172</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41990</v>
+        <v>42264</v>
       </c>
       <c r="I9" s="3" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="229" t="s">
         <v>123</v>
       </c>
       <c r="L9" s="46">
@@ -12906,28 +12922,28 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D10" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MZ4</v>
-      </c>
-      <c r="E10" s="10" t="e">
+        <v>EUR_YC3MRH_FUT3MU5</v>
+      </c>
+      <c r="E10" s="10">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F10" s="10" t="str">
+        <v>6.525000000000003E-3</v>
+      </c>
+      <c r="F10" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
-        <v>--</v>
+        <v>0</v>
       </c>
       <c r="G10" s="9">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41990</v>
+        <v>42263</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42080</v>
+        <v>42354</v>
       </c>
       <c r="I10" s="3" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="229" t="s">
         <v>124</v>
       </c>
       <c r="L10" s="46">
@@ -12936,11 +12952,11 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D11" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MH5</v>
+        <v>EUR_YC3MRH_FUT3MZ5</v>
       </c>
       <c r="E11" s="10">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>5.1250000000000462E-3</v>
+        <v>7.3250000000000259E-3</v>
       </c>
       <c r="F11" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -12948,11 +12964,11 @@
       </c>
       <c r="G11" s="9">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42081</v>
+        <v>42354</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42173</v>
+        <v>42445</v>
       </c>
       <c r="I11" s="3" t="e">
         <v>#NUM!</v>
@@ -12966,11 +12982,11 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D12" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MM5</v>
+        <v>EUR_YC3MRH_FUT3MH6</v>
       </c>
       <c r="E12" s="10">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>5.8249999999999691E-3</v>
+        <v>8.1749999999999323E-3</v>
       </c>
       <c r="F12" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -12978,11 +12994,11 @@
       </c>
       <c r="G12" s="9">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42172</v>
+        <v>42445</v>
       </c>
       <c r="H12" s="8">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42264</v>
+        <v>42537</v>
       </c>
       <c r="I12" s="3" t="e">
         <v>#NUM!</v>
@@ -12996,11 +13012,11 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D13" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MU5</v>
+        <v>EUR_YC3MRH_FUT3MM6</v>
       </c>
       <c r="E13" s="10">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>6.525000000000003E-3</v>
+        <v>9.2500000000000915E-3</v>
       </c>
       <c r="F13" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -13008,11 +13024,11 @@
       </c>
       <c r="G13" s="9">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>42263</v>
+        <v>42536</v>
       </c>
       <c r="H13" s="8">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42354</v>
+        <v>42628</v>
       </c>
       <c r="I13" s="3" t="e">
         <v>#NUM!</v>
@@ -13026,11 +13042,11 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D14" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MZ5</v>
-      </c>
-      <c r="E14" s="10">
+        <v>EUR_YC3MRH_AB3E3Y</v>
+      </c>
+      <c r="E14" s="10" t="e">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>7.3250000000000259E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="F14" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -13038,11 +13054,11 @@
       </c>
       <c r="G14" s="9">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>42354</v>
+        <v>41648</v>
       </c>
       <c r="H14" s="8">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42445</v>
+        <v>42744</v>
       </c>
       <c r="I14" s="3" t="e">
         <v>#NUM!</v>
@@ -13056,7 +13072,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E3Y</v>
+        <v>EUR_YC3MRH_AB3E4Y</v>
       </c>
       <c r="E15" s="10" t="e">
         <f>_xll.qlRateHelperRate($D15)</f>
@@ -13072,7 +13088,7 @@
       </c>
       <c r="H15" s="8">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42744</v>
+        <v>43109</v>
       </c>
       <c r="I15" s="3" t="e">
         <v>#NUM!</v>
@@ -13086,7 +13102,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E4Y</v>
+        <v>EUR_YC3MRH_AB3E5Y</v>
       </c>
       <c r="E16" s="10" t="e">
         <f>_xll.qlRateHelperRate($D16)</f>
@@ -13102,7 +13118,7 @@
       </c>
       <c r="H16" s="8">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43109</v>
+        <v>43474</v>
       </c>
       <c r="I16" s="3" t="e">
         <v>#NUM!</v>
@@ -13116,7 +13132,7 @@
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D17" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E5Y</v>
+        <v>EUR_YC3MRH_AB3E6Y</v>
       </c>
       <c r="E17" s="10" t="e">
         <f>_xll.qlRateHelperRate($D17)</f>
@@ -13132,7 +13148,7 @@
       </c>
       <c r="H17" s="8">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43474</v>
+        <v>43839</v>
       </c>
       <c r="I17" s="3" t="e">
         <v>#NUM!</v>
@@ -13146,7 +13162,7 @@
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D18" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E6Y</v>
+        <v>EUR_YC3MRH_AB3E7Y</v>
       </c>
       <c r="E18" s="10" t="e">
         <f>_xll.qlRateHelperRate($D18)</f>
@@ -13162,7 +13178,7 @@
       </c>
       <c r="H18" s="8">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>43839</v>
+        <v>44207</v>
       </c>
       <c r="I18" s="3" t="e">
         <v>#NUM!</v>
@@ -13176,7 +13192,7 @@
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D19" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E7Y</v>
+        <v>EUR_YC3MRH_AB3E8Y</v>
       </c>
       <c r="E19" s="10" t="e">
         <f>_xll.qlRateHelperRate($D19)</f>
@@ -13192,7 +13208,7 @@
       </c>
       <c r="H19" s="8">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44207</v>
+        <v>44571</v>
       </c>
       <c r="I19" s="3" t="e">
         <v>#NUM!</v>
@@ -13206,7 +13222,7 @@
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D20" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E8Y</v>
+        <v>EUR_YC3MRH_AB3E9Y</v>
       </c>
       <c r="E20" s="10" t="e">
         <f>_xll.qlRateHelperRate($D20)</f>
@@ -13222,7 +13238,7 @@
       </c>
       <c r="H20" s="8">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>44571</v>
+        <v>44935</v>
       </c>
       <c r="I20" s="3" t="e">
         <v>#NUM!</v>
@@ -13236,7 +13252,7 @@
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D21" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E9Y</v>
+        <v>EUR_YC3MRH_AB3E10Y</v>
       </c>
       <c r="E21" s="10" t="e">
         <f>_xll.qlRateHelperRate($D21)</f>
@@ -13252,7 +13268,7 @@
       </c>
       <c r="H21" s="8">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>44935</v>
+        <v>45300</v>
       </c>
       <c r="I21" s="3" t="e">
         <v>#NUM!</v>
@@ -13266,7 +13282,7 @@
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D22" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E10Y</v>
+        <v>EUR_YC3MRH_AB3E12Y</v>
       </c>
       <c r="E22" s="10" t="e">
         <f>_xll.qlRateHelperRate($D22)</f>
@@ -13282,7 +13298,7 @@
       </c>
       <c r="H22" s="8">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>45300</v>
+        <v>46031</v>
       </c>
       <c r="I22" s="3" t="e">
         <v>#NUM!</v>
@@ -13296,7 +13312,7 @@
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D23" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E12Y</v>
+        <v>EUR_YC3MRH_AB3E15Y</v>
       </c>
       <c r="E23" s="10" t="e">
         <f>_xll.qlRateHelperRate($D23)</f>
@@ -13312,7 +13328,7 @@
       </c>
       <c r="H23" s="8">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>46031</v>
+        <v>47127</v>
       </c>
       <c r="I23" s="3" t="e">
         <v>#NUM!</v>
@@ -13326,7 +13342,7 @@
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D24" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E15Y</v>
+        <v>EUR_YC3MRH_AB3E20Y</v>
       </c>
       <c r="E24" s="10" t="e">
         <f>_xll.qlRateHelperRate($D24)</f>
@@ -13342,7 +13358,7 @@
       </c>
       <c r="H24" s="8">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>47127</v>
+        <v>48953</v>
       </c>
       <c r="I24" s="3" t="e">
         <v>#NUM!</v>
@@ -13356,7 +13372,7 @@
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D25" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E20Y</v>
+        <v>EUR_YC3MRH_AB3E25Y</v>
       </c>
       <c r="E25" s="10" t="e">
         <f>_xll.qlRateHelperRate($D25)</f>
@@ -13372,7 +13388,7 @@
       </c>
       <c r="H25" s="8">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>48953</v>
+        <v>50780</v>
       </c>
       <c r="I25" s="3" t="e">
         <v>#NUM!</v>
@@ -13386,7 +13402,7 @@
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D26" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E25Y</v>
+        <v>EUR_YC3MRH_AB3E30Y</v>
       </c>
       <c r="E26" s="10" t="e">
         <f>_xll.qlRateHelperRate($D26)</f>
@@ -13402,7 +13418,7 @@
       </c>
       <c r="H26" s="8">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>50780</v>
+        <v>52607</v>
       </c>
       <c r="I26" s="3" t="e">
         <v>#NUM!</v>
@@ -13416,11 +13432,11 @@
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D27" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E30Y</v>
-      </c>
-      <c r="E27" s="10" t="e">
+        <v>EUR_YC3MRH_AB3EBASIS35Y</v>
+      </c>
+      <c r="E27" s="10">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>#NUM!</v>
+        <v>2.4505000000000002E-2</v>
       </c>
       <c r="F27" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -13432,7 +13448,7 @@
       </c>
       <c r="H27" s="8">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>52607</v>
+        <v>54434</v>
       </c>
       <c r="I27" s="3" t="e">
         <v>#NUM!</v>
@@ -13446,11 +13462,11 @@
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D28" s="11" t="str">
-        <v>EUR_YC3MRH_AB3EBASIS35Y</v>
+        <v>EUR_YC3MRH_AB3EBASIS40Y</v>
       </c>
       <c r="E28" s="10">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.4505000000000002E-2</v>
+        <v>2.4820000000000002E-2</v>
       </c>
       <c r="F28" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -13462,7 +13478,7 @@
       </c>
       <c r="H28" s="8">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>54434</v>
+        <v>56258</v>
       </c>
       <c r="I28" s="3" t="e">
         <v>#NUM!</v>
@@ -13476,11 +13492,11 @@
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D29" s="11" t="str">
-        <v>EUR_YC3MRH_AB3EBASIS40Y</v>
+        <v>EUR_YC3MRH_AB3EBASIS50Y</v>
       </c>
       <c r="E29" s="10">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.4820000000000002E-2</v>
+        <v>2.5305000000000001E-2</v>
       </c>
       <c r="F29" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -13492,7 +13508,7 @@
       </c>
       <c r="H29" s="8">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>56258</v>
+        <v>59910</v>
       </c>
       <c r="I29" s="3" t="e">
         <v>#NUM!</v>
@@ -13506,11 +13522,11 @@
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D30" s="11" t="str">
-        <v>EUR_YC3MRH_AB3EBASIS50Y</v>
+        <v>EUR_YC3MRH_AB3EBASIS60Y</v>
       </c>
       <c r="E30" s="10">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.5305000000000001E-2</v>
+        <v>2.564E-2</v>
       </c>
       <c r="F30" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -13522,7 +13538,7 @@
       </c>
       <c r="H30" s="8">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>59910</v>
+        <v>63563</v>
       </c>
       <c r="I30" s="3" t="e">
         <v>#NUM!</v>
@@ -13535,24 +13551,24 @@
       </c>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D31" s="11" t="str">
-        <v>EUR_YC3MRH_AB3EBASIS60Y</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="D31" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E31" s="10" t="e">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>2.564E-2</v>
-      </c>
-      <c r="F31" s="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F31" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="9">
+        <v>--</v>
+      </c>
+      <c r="G31" s="9" t="e">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41648</v>
-      </c>
-      <c r="H31" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H31" s="8" t="e">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>63563</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I31" s="3" t="e">
         <v>#NUM!</v>
@@ -15936,7 +15952,7 @@
       </c>
       <c r="F3" s="109" t="str">
         <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_SND#0001</v>
+        <v>EUR_YC3MRH_SND#0002</v>
       </c>
       <c r="G3" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -15963,7 +15979,7 @@
       </c>
       <c r="F4" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_SWD#0001</v>
+        <v>EUR_YC3MRH_SWD#0002</v>
       </c>
       <c r="G4" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -15990,7 +16006,7 @@
       </c>
       <c r="F5" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2WD#0001</v>
+        <v>EUR_YC3MRH_2WD#0002</v>
       </c>
       <c r="G5" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -16017,7 +16033,7 @@
       </c>
       <c r="F6" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3WD#0001</v>
+        <v>EUR_YC3MRH_3WD#0002</v>
       </c>
       <c r="G6" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -16044,7 +16060,7 @@
       </c>
       <c r="F7" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1MD#0001</v>
+        <v>EUR_YC3MRH_1MD#0002</v>
       </c>
       <c r="G7" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -16071,7 +16087,7 @@
       </c>
       <c r="F8" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2MD#0001</v>
+        <v>EUR_YC3MRH_2MD#0002</v>
       </c>
       <c r="G8" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -16098,7 +16114,7 @@
       </c>
       <c r="F9" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3MD#0001</v>
+        <v>EUR_YC3MRH_3MD#0002</v>
       </c>
       <c r="G9" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -16217,7 +16233,7 @@
       </c>
       <c r="H3" s="152" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_T3F1#0001</v>
+        <v>EUR_YC3MRH_T3F1#0002</v>
       </c>
       <c r="I3" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -16251,7 +16267,7 @@
       </c>
       <c r="H4" s="144" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_TOM3F1#0001</v>
+        <v>EUR_YC3MRH_TOM3F1#0002</v>
       </c>
       <c r="I4" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -16286,7 +16302,7 @@
       </c>
       <c r="H5" s="147" t="str">
         <f>_xll.qlFraRateHelper(G5,F5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1x4F#0001</v>
+        <v>EUR_YC3MRH_1x4F#0002</v>
       </c>
       <c r="I5" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -16321,7 +16337,7 @@
       </c>
       <c r="H6" s="147" t="str">
         <f>_xll.qlFraRateHelper(G6,F6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2x5F#0001</v>
+        <v>EUR_YC3MRH_2x5F#0002</v>
       </c>
       <c r="I6" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -16356,7 +16372,7 @@
       </c>
       <c r="H7" s="147" t="str">
         <f>_xll.qlFraRateHelper(G7,F7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3x6F#0001</v>
+        <v>EUR_YC3MRH_3x6F#0002</v>
       </c>
       <c r="I7" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -16391,7 +16407,7 @@
       </c>
       <c r="H8" s="147" t="str">
         <f>_xll.qlFraRateHelper(G8,F8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_4x7F#0001</v>
+        <v>EUR_YC3MRH_4x7F#0002</v>
       </c>
       <c r="I8" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -16426,7 +16442,7 @@
       </c>
       <c r="H9" s="147" t="str">
         <f>_xll.qlFraRateHelper(G9,F9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_5x8F#0001</v>
+        <v>EUR_YC3MRH_5x8F#0002</v>
       </c>
       <c r="I9" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -16461,7 +16477,7 @@
       </c>
       <c r="H10" s="144" t="str">
         <f>_xll.qlFraRateHelper(G10,F10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_6x9F#0001</v>
+        <v>EUR_YC3MRH_6x9F#0002</v>
       </c>
       <c r="I10" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -16600,7 +16616,7 @@
       </c>
       <c r="I3" s="174" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MF4#0001</v>
+        <v>EUR_YC3MRH_FUT3MF4#0002</v>
       </c>
       <c r="J3" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -16638,7 +16654,7 @@
       </c>
       <c r="I4" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MG4#0001</v>
+        <v>EUR_YC3MRH_FUT3MG4#0002</v>
       </c>
       <c r="J4" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -16676,7 +16692,7 @@
       </c>
       <c r="I5" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH4#0001</v>
+        <v>EUR_YC3MRH_FUT3MH4#0002</v>
       </c>
       <c r="J5" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -16714,7 +16730,7 @@
       </c>
       <c r="I6" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MJ4#0001</v>
+        <v>EUR_YC3MRH_FUT3MJ4#0002</v>
       </c>
       <c r="J6" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -16752,7 +16768,7 @@
       </c>
       <c r="I7" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MK4#0001</v>
+        <v>EUR_YC3MRH_FUT3MK4#0002</v>
       </c>
       <c r="J7" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -16790,7 +16806,7 @@
       </c>
       <c r="I8" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM4#0001</v>
+        <v>EUR_YC3MRH_FUT3MM4#0002</v>
       </c>
       <c r="J8" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -16828,7 +16844,7 @@
       </c>
       <c r="I9" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MN4#0001</v>
+        <v>EUR_YC3MRH_FUT3MN4#0002</v>
       </c>
       <c r="J9" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -16866,7 +16882,7 @@
       </c>
       <c r="I10" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MQ4#0001</v>
+        <v>EUR_YC3MRH_FUT3MQ4#0002</v>
       </c>
       <c r="J10" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -16904,7 +16920,7 @@
       </c>
       <c r="I11" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU4#0001</v>
+        <v>EUR_YC3MRH_FUT3MU4#0002</v>
       </c>
       <c r="J11" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -16942,7 +16958,7 @@
       </c>
       <c r="I12" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MV4#0001</v>
+        <v>EUR_YC3MRH_FUT3MV4#0002</v>
       </c>
       <c r="J12" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -16980,7 +16996,7 @@
       </c>
       <c r="I13" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MX4#0001</v>
+        <v>EUR_YC3MRH_FUT3MX4#0002</v>
       </c>
       <c r="J13" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -17018,7 +17034,7 @@
       </c>
       <c r="I14" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ4#0001</v>
+        <v>EUR_YC3MRH_FUT3MZ4#0002</v>
       </c>
       <c r="J14" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -17132,7 +17148,7 @@
       </c>
       <c r="I17" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH5#0001</v>
+        <v>EUR_YC3MRH_FUT3MH5#0002</v>
       </c>
       <c r="J17" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -17246,7 +17262,7 @@
       </c>
       <c r="I20" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM5#0001</v>
+        <v>EUR_YC3MRH_FUT3MM5#0002</v>
       </c>
       <c r="J20" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -17360,7 +17376,7 @@
       </c>
       <c r="I23" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU5#0001</v>
+        <v>EUR_YC3MRH_FUT3MU5#0002</v>
       </c>
       <c r="J23" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -17474,7 +17490,7 @@
       </c>
       <c r="I26" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ5#0001</v>
+        <v>EUR_YC3MRH_FUT3MZ5#0002</v>
       </c>
       <c r="J26" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -17588,7 +17604,7 @@
       </c>
       <c r="I29" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH6#0001</v>
+        <v>EUR_YC3MRH_FUT3MH6#0002</v>
       </c>
       <c r="J29" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -17702,7 +17718,7 @@
       </c>
       <c r="I32" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM6#0001</v>
+        <v>EUR_YC3MRH_FUT3MM6#0002</v>
       </c>
       <c r="J32" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -17816,7 +17832,7 @@
       </c>
       <c r="I35" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU6#0001</v>
+        <v>EUR_YC3MRH_FUT3MU6#0002</v>
       </c>
       <c r="J35" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -17930,7 +17946,7 @@
       </c>
       <c r="I38" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ6#0001</v>
+        <v>EUR_YC3MRH_FUT3MZ6#0002</v>
       </c>
       <c r="J38" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -18043,7 +18059,7 @@
       </c>
       <c r="I41" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH7#0001</v>
+        <v>EUR_YC3MRH_FUT3MH7#0002</v>
       </c>
       <c r="J41" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -18154,7 +18170,7 @@
       </c>
       <c r="I44" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM7#0001</v>
+        <v>EUR_YC3MRH_FUT3MM7#0002</v>
       </c>
       <c r="J44" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -18265,7 +18281,7 @@
       </c>
       <c r="I47" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H47,$F47,$D47,$E47,$G47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU7#0001</v>
+        <v>EUR_YC3MRH_FUT3MU7#0002</v>
       </c>
       <c r="J47" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I47)</f>
@@ -18376,7 +18392,7 @@
       </c>
       <c r="I50" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H50,$F50,$D50,$E50,$G50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ7#0001</v>
+        <v>EUR_YC3MRH_FUT3MZ7#0002</v>
       </c>
       <c r="J50" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I50)</f>
@@ -18487,7 +18503,7 @@
       </c>
       <c r="I53" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H53,$F53,$D53,$E53,$G53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH8#0001</v>
+        <v>EUR_YC3MRH_FUT3MH8#0002</v>
       </c>
       <c r="J53" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I53)</f>
@@ -18598,7 +18614,7 @@
       </c>
       <c r="I56" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H56,$F56,$D56,$E56,$G56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM8#0001</v>
+        <v>EUR_YC3MRH_FUT3MM8#0002</v>
       </c>
       <c r="J56" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I56)</f>
@@ -18709,7 +18725,7 @@
       </c>
       <c r="I59" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H59,$F59,$D59,$E59,$G59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU8#0001</v>
+        <v>EUR_YC3MRH_FUT3MU8#0002</v>
       </c>
       <c r="J59" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I59)</f>
@@ -18820,7 +18836,7 @@
       </c>
       <c r="I62" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H62,$F62,$D62,$E62,$G62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ8#0001</v>
+        <v>EUR_YC3MRH_FUT3MZ8#0002</v>
       </c>
       <c r="J62" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I62)</f>
@@ -18931,7 +18947,7 @@
       </c>
       <c r="I65" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H65,$F65,$D65,$E65,$G65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH9#0001</v>
+        <v>EUR_YC3MRH_FUT3MH9#0002</v>
       </c>
       <c r="J65" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I65)</f>
@@ -19042,7 +19058,7 @@
       </c>
       <c r="I68" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H68,$F68,$D68,$E68,$G68,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM9#0001</v>
+        <v>EUR_YC3MRH_FUT3MM9#0002</v>
       </c>
       <c r="J68" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I68)</f>
@@ -19153,7 +19169,7 @@
       </c>
       <c r="I71" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H71,$F71,$D71,$E71,$G71,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU9#0001</v>
+        <v>EUR_YC3MRH_FUT3MU9#0002</v>
       </c>
       <c r="J71" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I71)</f>
@@ -19264,7 +19280,7 @@
       </c>
       <c r="I74" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H74,$F74,$D74,$E74,$G74,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ9#0001</v>
+        <v>EUR_YC3MRH_FUT3MZ9#0002</v>
       </c>
       <c r="J74" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I74)</f>
@@ -19375,7 +19391,7 @@
       </c>
       <c r="I77" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H77,$F77,$D77,$E77,$G77,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH0#0001</v>
+        <v>EUR_YC3MRH_FUT3MH0#0002</v>
       </c>
       <c r="J77" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I77)</f>
@@ -19486,7 +19502,7 @@
       </c>
       <c r="I80" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H80,$F80,$D80,$E80,$G80,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM0#0001</v>
+        <v>EUR_YC3MRH_FUT3MM0#0002</v>
       </c>
       <c r="J80" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I80)</f>
@@ -19597,7 +19613,7 @@
       </c>
       <c r="I83" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H83,$F83,$D83,$E83,$G83,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU0#0001</v>
+        <v>EUR_YC3MRH_FUT3MU0#0002</v>
       </c>
       <c r="J83" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I83)</f>
@@ -19708,7 +19724,7 @@
       </c>
       <c r="I86" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H86,$F86,$D86,$E86,$G86,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ0#0001</v>
+        <v>EUR_YC3MRH_FUT3MZ0#0002</v>
       </c>
       <c r="J86" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I86)</f>
@@ -19819,7 +19835,7 @@
       </c>
       <c r="I89" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H89,$F89,$D89,$E89,$G89,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH1#0001</v>
+        <v>EUR_YC3MRH_FUT3MH1#0002</v>
       </c>
       <c r="J89" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I89)</f>
@@ -19930,7 +19946,7 @@
       </c>
       <c r="I92" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H92,$F92,$D92,$E92,$G92,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM1#0001</v>
+        <v>EUR_YC3MRH_FUT3MM1#0002</v>
       </c>
       <c r="J92" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I92)</f>
@@ -20041,7 +20057,7 @@
       </c>
       <c r="I95" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H95,$F95,$D95,$E95,$G95,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU1#0001</v>
+        <v>EUR_YC3MRH_FUT3MU1#0002</v>
       </c>
       <c r="J95" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I95)</f>
@@ -20152,7 +20168,7 @@
       </c>
       <c r="I98" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H98,$F98,$D98,$E98,$G98,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ1#0001</v>
+        <v>EUR_YC3MRH_FUT3MZ1#0002</v>
       </c>
       <c r="J98" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I98)</f>
@@ -20263,7 +20279,7 @@
       </c>
       <c r="I101" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H101,$F101,$D101,$E101,$G101,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH2#0001</v>
+        <v>EUR_YC3MRH_FUT3MH2#0002</v>
       </c>
       <c r="J101" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I101)</f>
@@ -20374,7 +20390,7 @@
       </c>
       <c r="I104" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H104,$F104,$D104,$E104,$G104,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM2#0001</v>
+        <v>EUR_YC3MRH_FUT3MM2#0002</v>
       </c>
       <c r="J104" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I104)</f>
@@ -21194,7 +21210,7 @@
       </c>
       <c r="L4" s="204" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC3MRH_AB3E_ibor3M#0001</v>
+        <v>EUR_YC3MRH_AB3E_ibor3M#0002</v>
       </c>
       <c r="M4" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -21258,7 +21274,7 @@
       </c>
       <c r="L6" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E1Y#0001</v>
+        <v>EUR_YC3MRH_AB3E1Y#0002</v>
       </c>
       <c r="M6" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -21313,7 +21329,7 @@
       </c>
       <c r="L7" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E15M#0001</v>
+        <v>EUR_YC3MRH_AB3E15M#0002</v>
       </c>
       <c r="M7" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -21368,7 +21384,7 @@
       </c>
       <c r="L8" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E18M#0001</v>
+        <v>EUR_YC3MRH_AB3E18M#0002</v>
       </c>
       <c r="M8" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -21423,7 +21439,7 @@
       </c>
       <c r="L9" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E21M#0001</v>
+        <v>EUR_YC3MRH_AB3E21M#0002</v>
       </c>
       <c r="M9" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -21478,7 +21494,7 @@
       </c>
       <c r="L10" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E2Y#0001</v>
+        <v>EUR_YC3MRH_AB3E2Y#0002</v>
       </c>
       <c r="M10" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -21533,7 +21549,7 @@
       </c>
       <c r="L11" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E3Y#0001</v>
+        <v>EUR_YC3MRH_AB3E3Y#0002</v>
       </c>
       <c r="M11" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -21579,7 +21595,7 @@
       </c>
       <c r="L12" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E4Y#0001</v>
+        <v>EUR_YC3MRH_AB3E4Y#0002</v>
       </c>
       <c r="M12" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -21625,7 +21641,7 @@
       </c>
       <c r="L13" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E5Y#0001</v>
+        <v>EUR_YC3MRH_AB3E5Y#0002</v>
       </c>
       <c r="M13" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -21671,7 +21687,7 @@
       </c>
       <c r="L14" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E6Y#0001</v>
+        <v>EUR_YC3MRH_AB3E6Y#0002</v>
       </c>
       <c r="M14" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -21717,7 +21733,7 @@
       </c>
       <c r="L15" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E7Y#0001</v>
+        <v>EUR_YC3MRH_AB3E7Y#0002</v>
       </c>
       <c r="M15" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -21763,7 +21779,7 @@
       </c>
       <c r="L16" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E8Y#0001</v>
+        <v>EUR_YC3MRH_AB3E8Y#0002</v>
       </c>
       <c r="M16" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -21809,7 +21825,7 @@
       </c>
       <c r="L17" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E9Y#0001</v>
+        <v>EUR_YC3MRH_AB3E9Y#0002</v>
       </c>
       <c r="M17" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -21855,7 +21871,7 @@
       </c>
       <c r="L18" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E10Y#0001</v>
+        <v>EUR_YC3MRH_AB3E10Y#0002</v>
       </c>
       <c r="M18" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -21901,7 +21917,7 @@
       </c>
       <c r="L19" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E11Y#0001</v>
+        <v>EUR_YC3MRH_AB3E11Y#0002</v>
       </c>
       <c r="M19" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -21947,7 +21963,7 @@
       </c>
       <c r="L20" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E12Y#0001</v>
+        <v>EUR_YC3MRH_AB3E12Y#0002</v>
       </c>
       <c r="M20" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -21993,7 +22009,7 @@
       </c>
       <c r="L21" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E13Y#0001</v>
+        <v>EUR_YC3MRH_AB3E13Y#0002</v>
       </c>
       <c r="M21" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -22039,7 +22055,7 @@
       </c>
       <c r="L22" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E14Y#0001</v>
+        <v>EUR_YC3MRH_AB3E14Y#0002</v>
       </c>
       <c r="M22" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -22085,7 +22101,7 @@
       </c>
       <c r="L23" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E15Y#0001</v>
+        <v>EUR_YC3MRH_AB3E15Y#0002</v>
       </c>
       <c r="M23" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -22131,7 +22147,7 @@
       </c>
       <c r="L24" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E16Y#0001</v>
+        <v>EUR_YC3MRH_AB3E16Y#0002</v>
       </c>
       <c r="M24" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -22177,7 +22193,7 @@
       </c>
       <c r="L25" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E17Y#0001</v>
+        <v>EUR_YC3MRH_AB3E17Y#0002</v>
       </c>
       <c r="M25" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -22223,7 +22239,7 @@
       </c>
       <c r="L26" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E18Y#0001</v>
+        <v>EUR_YC3MRH_AB3E18Y#0002</v>
       </c>
       <c r="M26" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -22269,7 +22285,7 @@
       </c>
       <c r="L27" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E19Y#0001</v>
+        <v>EUR_YC3MRH_AB3E19Y#0002</v>
       </c>
       <c r="M27" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -22315,7 +22331,7 @@
       </c>
       <c r="L28" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E20Y#0001</v>
+        <v>EUR_YC3MRH_AB3E20Y#0002</v>
       </c>
       <c r="M28" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -22361,7 +22377,7 @@
       </c>
       <c r="L29" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E21Y#0001</v>
+        <v>EUR_YC3MRH_AB3E21Y#0002</v>
       </c>
       <c r="M29" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -22407,7 +22423,7 @@
       </c>
       <c r="L30" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E22Y#0001</v>
+        <v>EUR_YC3MRH_AB3E22Y#0002</v>
       </c>
       <c r="M30" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -22453,7 +22469,7 @@
       </c>
       <c r="L31" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E23Y#0001</v>
+        <v>EUR_YC3MRH_AB3E23Y#0002</v>
       </c>
       <c r="M31" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -22499,7 +22515,7 @@
       </c>
       <c r="L32" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E24Y#0001</v>
+        <v>EUR_YC3MRH_AB3E24Y#0002</v>
       </c>
       <c r="M32" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -22545,7 +22561,7 @@
       </c>
       <c r="L33" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E25Y#0001</v>
+        <v>EUR_YC3MRH_AB3E25Y#0002</v>
       </c>
       <c r="M33" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -22591,7 +22607,7 @@
       </c>
       <c r="L34" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E26Y#0001</v>
+        <v>EUR_YC3MRH_AB3E26Y#0002</v>
       </c>
       <c r="M34" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -22637,7 +22653,7 @@
       </c>
       <c r="L35" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E27Y#0001</v>
+        <v>EUR_YC3MRH_AB3E27Y#0002</v>
       </c>
       <c r="M35" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -22683,7 +22699,7 @@
       </c>
       <c r="L36" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E28Y#0001</v>
+        <v>EUR_YC3MRH_AB3E28Y#0002</v>
       </c>
       <c r="M36" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -22729,7 +22745,7 @@
       </c>
       <c r="L37" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E29Y#0001</v>
+        <v>EUR_YC3MRH_AB3E29Y#0002</v>
       </c>
       <c r="M37" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -22775,7 +22791,7 @@
       </c>
       <c r="L38" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E30Y#0001</v>
+        <v>EUR_YC3MRH_AB3E30Y#0002</v>
       </c>
       <c r="M38" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -22821,7 +22837,7 @@
       </c>
       <c r="L39" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E35Y#0001</v>
+        <v>EUR_YC3MRH_AB3E35Y#0002</v>
       </c>
       <c r="M39" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -22867,7 +22883,7 @@
       </c>
       <c r="L40" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E40Y#0001</v>
+        <v>EUR_YC3MRH_AB3E40Y#0002</v>
       </c>
       <c r="M40" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -22913,7 +22929,7 @@
       </c>
       <c r="L41" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E50Y#0001</v>
+        <v>EUR_YC3MRH_AB3E50Y#0002</v>
       </c>
       <c r="M41" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -22959,7 +22975,7 @@
       </c>
       <c r="L42" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E60Y#0001</v>
+        <v>EUR_YC3MRH_AB3E60Y#0002</v>
       </c>
       <c r="M42" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -23017,7 +23033,7 @@
       </c>
       <c r="L44" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K44,$J44,$E44&amp;"M",Calendar,$F44,$G44,$H44,$L$4,$I44,B44,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S12#0001</v>
+        <v>EUR_YC3MRH_1S12#0002</v>
       </c>
       <c r="M44" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -23062,7 +23078,7 @@
       </c>
       <c r="L45" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K45,$J45,$E45&amp;"M",Calendar,$F45,$G45,$H45,$L$4,$I45,B45,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2S12#0001</v>
+        <v>EUR_YC3MRH_2S12#0002</v>
       </c>
       <c r="M45" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -23107,7 +23123,7 @@
       </c>
       <c r="L46" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K46,$J46,$E46&amp;"M",Calendar,$F46,$G46,$H46,$L$4,$I46,B46,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3S12#0001</v>
+        <v>EUR_YC3MRH_3S12#0002</v>
       </c>
       <c r="M46" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -23152,7 +23168,7 @@
       </c>
       <c r="L47" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K47,$J47,$E47&amp;"M",Calendar,$F47,$G47,$H47,$L$4,$I47,B47,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_4S12#0001</v>
+        <v>EUR_YC3MRH_4S12#0002</v>
       </c>
       <c r="M47" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -23197,7 +23213,7 @@
       </c>
       <c r="L48" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K48,$J48,$E48&amp;"M",Calendar,$F48,$G48,$H48,$L$4,$I48,B48,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S24#0001</v>
+        <v>EUR_YC3MRH_1S24#0002</v>
       </c>
       <c r="M48" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -23242,7 +23258,7 @@
       </c>
       <c r="L49" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K49,$J49,$E49&amp;"M",Calendar,$F49,$G49,$H49,$L$4,$I49,B49,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2S24#0001</v>
+        <v>EUR_YC3MRH_2S24#0002</v>
       </c>
       <c r="M49" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -23287,7 +23303,7 @@
       </c>
       <c r="L50" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K50,$J50,$E50&amp;"M",Calendar,$F50,$G50,$H50,$L$4,$I50,B50,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S36#0001</v>
+        <v>EUR_YC3MRH_1S36#0002</v>
       </c>
       <c r="M50" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -23461,7 +23477,7 @@
       </c>
       <c r="L4" s="204" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC3MRH_AB3EBASIS_ibor3M#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS_ibor3M#0002</v>
       </c>
       <c r="M4" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -23525,7 +23541,7 @@
       </c>
       <c r="L6" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS1Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS1Y#0001</v>
       </c>
       <c r="M6" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -23574,7 +23590,7 @@
       </c>
       <c r="L7" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS15M#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS15M#0001</v>
       </c>
       <c r="M7" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -23623,7 +23639,7 @@
       </c>
       <c r="L8" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS18M#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS18M#0001</v>
       </c>
       <c r="M8" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -23672,7 +23688,7 @@
       </c>
       <c r="L9" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS21M#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS21M#0001</v>
       </c>
       <c r="M9" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -23721,7 +23737,7 @@
       </c>
       <c r="L10" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS2Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS2Y#0001</v>
       </c>
       <c r="M10" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -23779,7 +23795,7 @@
       </c>
       <c r="L11" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS3Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS3Y#0001</v>
       </c>
       <c r="M11" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -23837,7 +23853,7 @@
       </c>
       <c r="L12" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS4Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS4Y#0001</v>
       </c>
       <c r="M12" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -23895,7 +23911,7 @@
       </c>
       <c r="L13" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS5Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS5Y#0001</v>
       </c>
       <c r="M13" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -23953,7 +23969,7 @@
       </c>
       <c r="L14" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS6Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS6Y#0001</v>
       </c>
       <c r="M14" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -24011,7 +24027,7 @@
       </c>
       <c r="L15" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS7Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS7Y#0001</v>
       </c>
       <c r="M15" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -24063,7 +24079,7 @@
       </c>
       <c r="L16" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS8Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS8Y#0001</v>
       </c>
       <c r="M16" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -24112,7 +24128,7 @@
       </c>
       <c r="L17" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS9Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS9Y#0001</v>
       </c>
       <c r="M17" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -24161,7 +24177,7 @@
       </c>
       <c r="L18" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS10Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS10Y#0001</v>
       </c>
       <c r="M18" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -24210,7 +24226,7 @@
       </c>
       <c r="L19" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS11Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS11Y#0001</v>
       </c>
       <c r="M19" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -24259,7 +24275,7 @@
       </c>
       <c r="L20" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS12Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS12Y#0001</v>
       </c>
       <c r="M20" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -24308,7 +24324,7 @@
       </c>
       <c r="L21" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS13Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS13Y#0001</v>
       </c>
       <c r="M21" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -24357,7 +24373,7 @@
       </c>
       <c r="L22" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS14Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS14Y#0001</v>
       </c>
       <c r="M22" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -24406,7 +24422,7 @@
       </c>
       <c r="L23" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS15Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS15Y#0001</v>
       </c>
       <c r="M23" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -24455,7 +24471,7 @@
       </c>
       <c r="L24" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS16Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS16Y#0001</v>
       </c>
       <c r="M24" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -24504,7 +24520,7 @@
       </c>
       <c r="L25" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS17Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS17Y#0001</v>
       </c>
       <c r="M25" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -24553,7 +24569,7 @@
       </c>
       <c r="L26" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS18Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS18Y#0001</v>
       </c>
       <c r="M26" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -24602,7 +24618,7 @@
       </c>
       <c r="L27" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS19Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS19Y#0001</v>
       </c>
       <c r="M27" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -24651,7 +24667,7 @@
       </c>
       <c r="L28" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS20Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS20Y#0001</v>
       </c>
       <c r="M28" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -24700,7 +24716,7 @@
       </c>
       <c r="L29" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS21Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS21Y#0001</v>
       </c>
       <c r="M29" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -24749,7 +24765,7 @@
       </c>
       <c r="L30" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS22Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS22Y#0001</v>
       </c>
       <c r="M30" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -24798,7 +24814,7 @@
       </c>
       <c r="L31" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS23Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS23Y#0001</v>
       </c>
       <c r="M31" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -24847,7 +24863,7 @@
       </c>
       <c r="L32" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS24Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS24Y#0001</v>
       </c>
       <c r="M32" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -24896,7 +24912,7 @@
       </c>
       <c r="L33" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS25Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS25Y#0001</v>
       </c>
       <c r="M33" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -24945,7 +24961,7 @@
       </c>
       <c r="L34" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS26Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS26Y#0001</v>
       </c>
       <c r="M34" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -24994,7 +25010,7 @@
       </c>
       <c r="L35" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS27Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS27Y#0001</v>
       </c>
       <c r="M35" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -25043,7 +25059,7 @@
       </c>
       <c r="L36" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS28Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS28Y#0001</v>
       </c>
       <c r="M36" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -25092,7 +25108,7 @@
       </c>
       <c r="L37" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS29Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS29Y#0001</v>
       </c>
       <c r="M37" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -25141,7 +25157,7 @@
       </c>
       <c r="L38" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS30Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS30Y#0001</v>
       </c>
       <c r="M38" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -25190,7 +25206,7 @@
       </c>
       <c r="L39" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS35Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS35Y#0001</v>
       </c>
       <c r="M39" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -25239,7 +25255,7 @@
       </c>
       <c r="L40" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS40Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS40Y#0001</v>
       </c>
       <c r="M40" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -25288,7 +25304,7 @@
       </c>
       <c r="L41" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS50Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS50Y#0001</v>
       </c>
       <c r="M41" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -25337,7 +25353,7 @@
       </c>
       <c r="L42" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS60Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS60Y#0001</v>
       </c>
       <c r="M42" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/EUR_YC3MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YC3MBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -309,7 +309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="191">
   <si>
     <t>Error</t>
   </si>
@@ -882,9 +882,6 @@
   </si>
   <si>
     <t>EUR_YCRH_SwapsFromBasis</t>
-  </si>
-  <si>
-    <t>incorrectly selected in old build because of bug in setting futures quotes</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1565,7 @@
     <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2038,13 +2035,7 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2054,6 +2045,13 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2069,10 +2067,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2618,7 +2612,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AG95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2643,19 +2637,19 @@
       </c>
     </row>
     <row r="2" spans="1:33" s="53" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="221" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
-      <c r="K2" s="220" t="s">
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="223"/>
+      <c r="K2" s="218" t="s">
         <v>163</v>
       </c>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="222"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="219"/>
+      <c r="N2" s="220"/>
     </row>
     <row r="3" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
@@ -3013,7 +3007,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="86">
-        <v>41646.188391203701</v>
+        <v>41646.210173611114</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
@@ -3060,12 +3054,12 @@
       <c r="H12" s="53"/>
       <c r="I12" s="53"/>
       <c r="J12" s="53"/>
-      <c r="K12" s="220" t="s">
+      <c r="K12" s="218" t="s">
         <v>159</v>
       </c>
-      <c r="L12" s="221"/>
-      <c r="M12" s="221"/>
-      <c r="N12" s="222"/>
+      <c r="L12" s="219"/>
+      <c r="M12" s="219"/>
+      <c r="N12" s="220"/>
       <c r="O12" s="53"/>
       <c r="P12" s="53"/>
       <c r="Q12" s="53"/>
@@ -3129,7 +3123,7 @@
       </c>
       <c r="D14" s="83" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYC3M#0008</v>
+        <v>_EURYC3M#0005</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="57"/>
@@ -3344,12 +3338,12 @@
       <c r="H19" s="53"/>
       <c r="I19" s="53"/>
       <c r="J19" s="53"/>
-      <c r="K19" s="220" t="s">
+      <c r="K19" s="218" t="s">
         <v>163</v>
       </c>
-      <c r="L19" s="221"/>
-      <c r="M19" s="221"/>
-      <c r="N19" s="222"/>
+      <c r="L19" s="219"/>
+      <c r="M19" s="219"/>
+      <c r="N19" s="220"/>
       <c r="O19" s="53"/>
       <c r="P19" s="53"/>
       <c r="Q19" s="53"/>
@@ -3682,9 +3676,9 @@
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
         <v>41648</v>
       </c>
-      <c r="D27" s="64" t="e">
+      <c r="D27" s="64">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="E27" s="58"/>
       <c r="F27" s="57"/>
@@ -3723,9 +3717,9 @@
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
         <v>63563</v>
       </c>
-      <c r="D28" s="62" t="e">
+      <c r="D28" s="62">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>#NUM!</v>
+        <v>0.20246286490853307</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="57"/>
@@ -3764,8 +3758,8 @@
         <v>0</v>
       </c>
       <c r="D29" s="59" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(Selected!I1)</f>
-        <v>qlPiecewiseYieldCurveData - 13th instrument (maturity: January 9th, 2017) has an invalid quote</v>
+        <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
+        <v/>
       </c>
       <c r="E29" s="58"/>
       <c r="F29" s="57"/>
@@ -3773,12 +3767,12 @@
       <c r="H29" s="53"/>
       <c r="I29" s="53"/>
       <c r="J29" s="53"/>
-      <c r="K29" s="220" t="s">
+      <c r="K29" s="218" t="s">
         <v>159</v>
       </c>
-      <c r="L29" s="221"/>
-      <c r="M29" s="221"/>
-      <c r="N29" s="222"/>
+      <c r="L29" s="219"/>
+      <c r="M29" s="219"/>
+      <c r="N29" s="220"/>
       <c r="O29" s="53"/>
       <c r="P29" s="53"/>
       <c r="Q29" s="53"/>
@@ -4032,12 +4026,12 @@
       <c r="H36" s="53"/>
       <c r="I36" s="53"/>
       <c r="J36" s="53"/>
-      <c r="K36" s="220" t="s">
+      <c r="K36" s="218" t="s">
         <v>163</v>
       </c>
-      <c r="L36" s="221"/>
-      <c r="M36" s="221"/>
-      <c r="N36" s="222"/>
+      <c r="L36" s="219"/>
+      <c r="M36" s="219"/>
+      <c r="N36" s="220"/>
       <c r="O36" s="53"/>
       <c r="P36" s="53"/>
       <c r="Q36" s="53"/>
@@ -4407,12 +4401,12 @@
       <c r="H46" s="53"/>
       <c r="I46" s="53"/>
       <c r="J46" s="53"/>
-      <c r="K46" s="220" t="s">
+      <c r="K46" s="218" t="s">
         <v>159</v>
       </c>
-      <c r="L46" s="221"/>
-      <c r="M46" s="221"/>
-      <c r="N46" s="222"/>
+      <c r="L46" s="219"/>
+      <c r="M46" s="219"/>
+      <c r="N46" s="220"/>
       <c r="O46" s="53"/>
       <c r="P46" s="53"/>
       <c r="Q46" s="53"/>
@@ -4666,12 +4660,12 @@
       <c r="H53" s="53"/>
       <c r="I53" s="53"/>
       <c r="J53" s="53"/>
-      <c r="K53" s="220" t="s">
+      <c r="K53" s="218" t="s">
         <v>163</v>
       </c>
-      <c r="L53" s="221"/>
-      <c r="M53" s="221"/>
-      <c r="N53" s="222"/>
+      <c r="L53" s="219"/>
+      <c r="M53" s="219"/>
+      <c r="N53" s="220"/>
       <c r="O53" s="53"/>
       <c r="P53" s="53"/>
       <c r="Q53" s="53"/>
@@ -5041,12 +5035,12 @@
       <c r="H63" s="53"/>
       <c r="I63" s="53"/>
       <c r="J63" s="53"/>
-      <c r="K63" s="220" t="s">
+      <c r="K63" s="218" t="s">
         <v>159</v>
       </c>
-      <c r="L63" s="221"/>
-      <c r="M63" s="221"/>
-      <c r="N63" s="222"/>
+      <c r="L63" s="219"/>
+      <c r="M63" s="219"/>
+      <c r="N63" s="220"/>
       <c r="O63" s="53"/>
       <c r="P63" s="53"/>
       <c r="Q63" s="53"/>
@@ -5308,12 +5302,12 @@
     </row>
     <row r="74" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K75" s="220" t="s">
+      <c r="K75" s="218" t="s">
         <v>163</v>
       </c>
-      <c r="L75" s="221"/>
-      <c r="M75" s="221"/>
-      <c r="N75" s="222"/>
+      <c r="L75" s="219"/>
+      <c r="M75" s="219"/>
+      <c r="N75" s="220"/>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="K76" s="136"/>
@@ -5393,12 +5387,12 @@
       <c r="N84" s="121"/>
     </row>
     <row r="85" spans="11:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K85" s="220" t="s">
+      <c r="K85" s="218" t="s">
         <v>159</v>
       </c>
-      <c r="L85" s="221"/>
-      <c r="M85" s="221"/>
-      <c r="N85" s="222"/>
+      <c r="L85" s="219"/>
+      <c r="M85" s="219"/>
+      <c r="N85" s="220"/>
     </row>
     <row r="86" spans="11:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K86" s="128"/>
@@ -5496,17 +5490,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K29:N29"/>
     <mergeCell ref="K85:N85"/>
     <mergeCell ref="K36:N36"/>
     <mergeCell ref="K46:N46"/>
     <mergeCell ref="K53:N53"/>
     <mergeCell ref="K63:N63"/>
     <mergeCell ref="K75:N75"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K29:N29"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25 IZ25 SV25 ACR25 AMN25 AWJ25 BGF25 BQB25 BZX25 CJT25 CTP25 DDL25 DNH25 DXD25 EGZ25 EQV25 FAR25 FKN25 FUJ25 GEF25 GOB25 GXX25 HHT25 HRP25 IBL25 ILH25 IVD25 JEZ25 JOV25 JYR25 KIN25 KSJ25 LCF25 LMB25 LVX25 MFT25 MPP25 MZL25 NJH25 NTD25 OCZ25 OMV25 OWR25 PGN25 PQJ25 QAF25 QKB25 QTX25 RDT25 RNP25 RXL25 SHH25 SRD25 TAZ25 TKV25 TUR25 UEN25 UOJ25 UYF25 VIB25 VRX25 WBT25 WLP25 WVL25 D65561 IZ65561 SV65561 ACR65561 AMN65561 AWJ65561 BGF65561 BQB65561 BZX65561 CJT65561 CTP65561 DDL65561 DNH65561 DXD65561 EGZ65561 EQV65561 FAR65561 FKN65561 FUJ65561 GEF65561 GOB65561 GXX65561 HHT65561 HRP65561 IBL65561 ILH65561 IVD65561 JEZ65561 JOV65561 JYR65561 KIN65561 KSJ65561 LCF65561 LMB65561 LVX65561 MFT65561 MPP65561 MZL65561 NJH65561 NTD65561 OCZ65561 OMV65561 OWR65561 PGN65561 PQJ65561 QAF65561 QKB65561 QTX65561 RDT65561 RNP65561 RXL65561 SHH65561 SRD65561 TAZ65561 TKV65561 TUR65561 UEN65561 UOJ65561 UYF65561 VIB65561 VRX65561 WBT65561 WLP65561 WVL65561 D131097 IZ131097 SV131097 ACR131097 AMN131097 AWJ131097 BGF131097 BQB131097 BZX131097 CJT131097 CTP131097 DDL131097 DNH131097 DXD131097 EGZ131097 EQV131097 FAR131097 FKN131097 FUJ131097 GEF131097 GOB131097 GXX131097 HHT131097 HRP131097 IBL131097 ILH131097 IVD131097 JEZ131097 JOV131097 JYR131097 KIN131097 KSJ131097 LCF131097 LMB131097 LVX131097 MFT131097 MPP131097 MZL131097 NJH131097 NTD131097 OCZ131097 OMV131097 OWR131097 PGN131097 PQJ131097 QAF131097 QKB131097 QTX131097 RDT131097 RNP131097 RXL131097 SHH131097 SRD131097 TAZ131097 TKV131097 TUR131097 UEN131097 UOJ131097 UYF131097 VIB131097 VRX131097 WBT131097 WLP131097 WVL131097 D196633 IZ196633 SV196633 ACR196633 AMN196633 AWJ196633 BGF196633 BQB196633 BZX196633 CJT196633 CTP196633 DDL196633 DNH196633 DXD196633 EGZ196633 EQV196633 FAR196633 FKN196633 FUJ196633 GEF196633 GOB196633 GXX196633 HHT196633 HRP196633 IBL196633 ILH196633 IVD196633 JEZ196633 JOV196633 JYR196633 KIN196633 KSJ196633 LCF196633 LMB196633 LVX196633 MFT196633 MPP196633 MZL196633 NJH196633 NTD196633 OCZ196633 OMV196633 OWR196633 PGN196633 PQJ196633 QAF196633 QKB196633 QTX196633 RDT196633 RNP196633 RXL196633 SHH196633 SRD196633 TAZ196633 TKV196633 TUR196633 UEN196633 UOJ196633 UYF196633 VIB196633 VRX196633 WBT196633 WLP196633 WVL196633 D262169 IZ262169 SV262169 ACR262169 AMN262169 AWJ262169 BGF262169 BQB262169 BZX262169 CJT262169 CTP262169 DDL262169 DNH262169 DXD262169 EGZ262169 EQV262169 FAR262169 FKN262169 FUJ262169 GEF262169 GOB262169 GXX262169 HHT262169 HRP262169 IBL262169 ILH262169 IVD262169 JEZ262169 JOV262169 JYR262169 KIN262169 KSJ262169 LCF262169 LMB262169 LVX262169 MFT262169 MPP262169 MZL262169 NJH262169 NTD262169 OCZ262169 OMV262169 OWR262169 PGN262169 PQJ262169 QAF262169 QKB262169 QTX262169 RDT262169 RNP262169 RXL262169 SHH262169 SRD262169 TAZ262169 TKV262169 TUR262169 UEN262169 UOJ262169 UYF262169 VIB262169 VRX262169 WBT262169 WLP262169 WVL262169 D327705 IZ327705 SV327705 ACR327705 AMN327705 AWJ327705 BGF327705 BQB327705 BZX327705 CJT327705 CTP327705 DDL327705 DNH327705 DXD327705 EGZ327705 EQV327705 FAR327705 FKN327705 FUJ327705 GEF327705 GOB327705 GXX327705 HHT327705 HRP327705 IBL327705 ILH327705 IVD327705 JEZ327705 JOV327705 JYR327705 KIN327705 KSJ327705 LCF327705 LMB327705 LVX327705 MFT327705 MPP327705 MZL327705 NJH327705 NTD327705 OCZ327705 OMV327705 OWR327705 PGN327705 PQJ327705 QAF327705 QKB327705 QTX327705 RDT327705 RNP327705 RXL327705 SHH327705 SRD327705 TAZ327705 TKV327705 TUR327705 UEN327705 UOJ327705 UYF327705 VIB327705 VRX327705 WBT327705 WLP327705 WVL327705 D393241 IZ393241 SV393241 ACR393241 AMN393241 AWJ393241 BGF393241 BQB393241 BZX393241 CJT393241 CTP393241 DDL393241 DNH393241 DXD393241 EGZ393241 EQV393241 FAR393241 FKN393241 FUJ393241 GEF393241 GOB393241 GXX393241 HHT393241 HRP393241 IBL393241 ILH393241 IVD393241 JEZ393241 JOV393241 JYR393241 KIN393241 KSJ393241 LCF393241 LMB393241 LVX393241 MFT393241 MPP393241 MZL393241 NJH393241 NTD393241 OCZ393241 OMV393241 OWR393241 PGN393241 PQJ393241 QAF393241 QKB393241 QTX393241 RDT393241 RNP393241 RXL393241 SHH393241 SRD393241 TAZ393241 TKV393241 TUR393241 UEN393241 UOJ393241 UYF393241 VIB393241 VRX393241 WBT393241 WLP393241 WVL393241 D458777 IZ458777 SV458777 ACR458777 AMN458777 AWJ458777 BGF458777 BQB458777 BZX458777 CJT458777 CTP458777 DDL458777 DNH458777 DXD458777 EGZ458777 EQV458777 FAR458777 FKN458777 FUJ458777 GEF458777 GOB458777 GXX458777 HHT458777 HRP458777 IBL458777 ILH458777 IVD458777 JEZ458777 JOV458777 JYR458777 KIN458777 KSJ458777 LCF458777 LMB458777 LVX458777 MFT458777 MPP458777 MZL458777 NJH458777 NTD458777 OCZ458777 OMV458777 OWR458777 PGN458777 PQJ458777 QAF458777 QKB458777 QTX458777 RDT458777 RNP458777 RXL458777 SHH458777 SRD458777 TAZ458777 TKV458777 TUR458777 UEN458777 UOJ458777 UYF458777 VIB458777 VRX458777 WBT458777 WLP458777 WVL458777 D524313 IZ524313 SV524313 ACR524313 AMN524313 AWJ524313 BGF524313 BQB524313 BZX524313 CJT524313 CTP524313 DDL524313 DNH524313 DXD524313 EGZ524313 EQV524313 FAR524313 FKN524313 FUJ524313 GEF524313 GOB524313 GXX524313 HHT524313 HRP524313 IBL524313 ILH524313 IVD524313 JEZ524313 JOV524313 JYR524313 KIN524313 KSJ524313 LCF524313 LMB524313 LVX524313 MFT524313 MPP524313 MZL524313 NJH524313 NTD524313 OCZ524313 OMV524313 OWR524313 PGN524313 PQJ524313 QAF524313 QKB524313 QTX524313 RDT524313 RNP524313 RXL524313 SHH524313 SRD524313 TAZ524313 TKV524313 TUR524313 UEN524313 UOJ524313 UYF524313 VIB524313 VRX524313 WBT524313 WLP524313 WVL524313 D589849 IZ589849 SV589849 ACR589849 AMN589849 AWJ589849 BGF589849 BQB589849 BZX589849 CJT589849 CTP589849 DDL589849 DNH589849 DXD589849 EGZ589849 EQV589849 FAR589849 FKN589849 FUJ589849 GEF589849 GOB589849 GXX589849 HHT589849 HRP589849 IBL589849 ILH589849 IVD589849 JEZ589849 JOV589849 JYR589849 KIN589849 KSJ589849 LCF589849 LMB589849 LVX589849 MFT589849 MPP589849 MZL589849 NJH589849 NTD589849 OCZ589849 OMV589849 OWR589849 PGN589849 PQJ589849 QAF589849 QKB589849 QTX589849 RDT589849 RNP589849 RXL589849 SHH589849 SRD589849 TAZ589849 TKV589849 TUR589849 UEN589849 UOJ589849 UYF589849 VIB589849 VRX589849 WBT589849 WLP589849 WVL589849 D655385 IZ655385 SV655385 ACR655385 AMN655385 AWJ655385 BGF655385 BQB655385 BZX655385 CJT655385 CTP655385 DDL655385 DNH655385 DXD655385 EGZ655385 EQV655385 FAR655385 FKN655385 FUJ655385 GEF655385 GOB655385 GXX655385 HHT655385 HRP655385 IBL655385 ILH655385 IVD655385 JEZ655385 JOV655385 JYR655385 KIN655385 KSJ655385 LCF655385 LMB655385 LVX655385 MFT655385 MPP655385 MZL655385 NJH655385 NTD655385 OCZ655385 OMV655385 OWR655385 PGN655385 PQJ655385 QAF655385 QKB655385 QTX655385 RDT655385 RNP655385 RXL655385 SHH655385 SRD655385 TAZ655385 TKV655385 TUR655385 UEN655385 UOJ655385 UYF655385 VIB655385 VRX655385 WBT655385 WLP655385 WVL655385 D720921 IZ720921 SV720921 ACR720921 AMN720921 AWJ720921 BGF720921 BQB720921 BZX720921 CJT720921 CTP720921 DDL720921 DNH720921 DXD720921 EGZ720921 EQV720921 FAR720921 FKN720921 FUJ720921 GEF720921 GOB720921 GXX720921 HHT720921 HRP720921 IBL720921 ILH720921 IVD720921 JEZ720921 JOV720921 JYR720921 KIN720921 KSJ720921 LCF720921 LMB720921 LVX720921 MFT720921 MPP720921 MZL720921 NJH720921 NTD720921 OCZ720921 OMV720921 OWR720921 PGN720921 PQJ720921 QAF720921 QKB720921 QTX720921 RDT720921 RNP720921 RXL720921 SHH720921 SRD720921 TAZ720921 TKV720921 TUR720921 UEN720921 UOJ720921 UYF720921 VIB720921 VRX720921 WBT720921 WLP720921 WVL720921 D786457 IZ786457 SV786457 ACR786457 AMN786457 AWJ786457 BGF786457 BQB786457 BZX786457 CJT786457 CTP786457 DDL786457 DNH786457 DXD786457 EGZ786457 EQV786457 FAR786457 FKN786457 FUJ786457 GEF786457 GOB786457 GXX786457 HHT786457 HRP786457 IBL786457 ILH786457 IVD786457 JEZ786457 JOV786457 JYR786457 KIN786457 KSJ786457 LCF786457 LMB786457 LVX786457 MFT786457 MPP786457 MZL786457 NJH786457 NTD786457 OCZ786457 OMV786457 OWR786457 PGN786457 PQJ786457 QAF786457 QKB786457 QTX786457 RDT786457 RNP786457 RXL786457 SHH786457 SRD786457 TAZ786457 TKV786457 TUR786457 UEN786457 UOJ786457 UYF786457 VIB786457 VRX786457 WBT786457 WLP786457 WVL786457 D851993 IZ851993 SV851993 ACR851993 AMN851993 AWJ851993 BGF851993 BQB851993 BZX851993 CJT851993 CTP851993 DDL851993 DNH851993 DXD851993 EGZ851993 EQV851993 FAR851993 FKN851993 FUJ851993 GEF851993 GOB851993 GXX851993 HHT851993 HRP851993 IBL851993 ILH851993 IVD851993 JEZ851993 JOV851993 JYR851993 KIN851993 KSJ851993 LCF851993 LMB851993 LVX851993 MFT851993 MPP851993 MZL851993 NJH851993 NTD851993 OCZ851993 OMV851993 OWR851993 PGN851993 PQJ851993 QAF851993 QKB851993 QTX851993 RDT851993 RNP851993 RXL851993 SHH851993 SRD851993 TAZ851993 TKV851993 TUR851993 UEN851993 UOJ851993 UYF851993 VIB851993 VRX851993 WBT851993 WLP851993 WVL851993 D917529 IZ917529 SV917529 ACR917529 AMN917529 AWJ917529 BGF917529 BQB917529 BZX917529 CJT917529 CTP917529 DDL917529 DNH917529 DXD917529 EGZ917529 EQV917529 FAR917529 FKN917529 FUJ917529 GEF917529 GOB917529 GXX917529 HHT917529 HRP917529 IBL917529 ILH917529 IVD917529 JEZ917529 JOV917529 JYR917529 KIN917529 KSJ917529 LCF917529 LMB917529 LVX917529 MFT917529 MPP917529 MZL917529 NJH917529 NTD917529 OCZ917529 OMV917529 OWR917529 PGN917529 PQJ917529 QAF917529 QKB917529 QTX917529 RDT917529 RNP917529 RXL917529 SHH917529 SRD917529 TAZ917529 TKV917529 TUR917529 UEN917529 UOJ917529 UYF917529 VIB917529 VRX917529 WBT917529 WLP917529 WVL917529 D983065 IZ983065 SV983065 ACR983065 AMN983065 AWJ983065 BGF983065 BQB983065 BZX983065 CJT983065 CTP983065 DDL983065 DNH983065 DXD983065 EGZ983065 EQV983065 FAR983065 FKN983065 FUJ983065 GEF983065 GOB983065 GXX983065 HHT983065 HRP983065 IBL983065 ILH983065 IVD983065 JEZ983065 JOV983065 JYR983065 KIN983065 KSJ983065 LCF983065 LMB983065 LVX983065 MFT983065 MPP983065 MZL983065 NJH983065 NTD983065 OCZ983065 OMV983065 OWR983065 PGN983065 PQJ983065 QAF983065 QKB983065 QTX983065 RDT983065 RNP983065 RXL983065 SHH983065 SRD983065 TAZ983065 TKV983065 TUR983065 UEN983065 UOJ983065 UYF983065 VIB983065 VRX983065 WBT983065 WLP983065 WVL983065">
@@ -5574,11 +5568,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="223" t="s">
+      <c r="B1" s="224" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="224"/>
-      <c r="D1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="226"/>
       <c r="E1" s="51" t="s">
         <v>83</v>
       </c>
@@ -6757,7 +6751,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B33" s="36">
         <v>16</v>
       </c>
@@ -6795,7 +6789,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B34" s="36">
         <v>17</v>
       </c>
@@ -6833,7 +6827,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B35" s="29">
         <v>18</v>
       </c>
@@ -6871,7 +6865,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="43" t="b">
         <v>0</v>
       </c>
@@ -6914,7 +6908,7 @@
         <v>41744</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="35" t="b">
         <v>0</v>
       </c>
@@ -6956,7 +6950,7 @@
         <v>41778</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="35" t="b">
         <v>0</v>
       </c>
@@ -6998,7 +6992,7 @@
         <v>41809</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="35" t="b">
         <v>0</v>
       </c>
@@ -7022,8 +7016,8 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E39,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H39" s="228" t="b">
-        <v>0</v>
+      <c r="H39" s="32" t="b">
+        <v>1</v>
       </c>
       <c r="I39" s="32">
         <v>60</v>
@@ -7039,11 +7033,8 @@
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
         <v>41836</v>
       </c>
-      <c r="N39" s="229" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="b">
         <v>0</v>
       </c>
@@ -7061,7 +7052,7 @@
       </c>
       <c r="F40" s="48">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
-        <v>99.677500000000009</v>
+        <v>99.677499999999995</v>
       </c>
       <c r="G40" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E40,Trigger)</f>
@@ -7085,7 +7076,7 @@
         <v>41872</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="35" t="b">
         <v>0</v>
       </c>
@@ -7101,16 +7092,16 @@
         <f t="shared" si="2"/>
         <v>EUR_YC3MRH_FUT3MM4</v>
       </c>
-      <c r="F41" s="48" t="e">
+      <c r="F41" s="48">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G41" s="33" t="e">
+        <v>99.547499999999999</v>
+      </c>
+      <c r="G41" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E41,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H41" s="228" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H41" s="32" t="b">
+        <v>1</v>
       </c>
       <c r="I41" s="32">
         <v>60</v>
@@ -7127,7 +7118,7 @@
         <v>41900</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="b">
         <v>0</v>
       </c>
@@ -7151,8 +7142,8 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E42,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H42" s="228" t="b">
-        <v>0</v>
+      <c r="H42" s="32" t="b">
+        <v>1</v>
       </c>
       <c r="I42" s="32">
         <v>60</v>
@@ -7169,7 +7160,7 @@
         <v>41928</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="35" t="b">
         <v>0</v>
       </c>
@@ -7211,7 +7202,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="35" t="b">
         <v>0</v>
       </c>
@@ -7227,16 +7218,16 @@
         <f t="shared" si="2"/>
         <v>EUR_YC3MRH_FUT3MU4</v>
       </c>
-      <c r="F44" s="48" t="e">
+      <c r="F44" s="48">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G44" s="33" t="e">
+        <v>99.487499999999997</v>
+      </c>
+      <c r="G44" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E44,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H44" s="228" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H44" s="32" t="b">
+        <v>1</v>
       </c>
       <c r="I44" s="32">
         <v>60</v>
@@ -7253,7 +7244,7 @@
         <v>41990</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="35" t="b">
         <v>0</v>
       </c>
@@ -7277,8 +7268,8 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H45" s="228" t="b">
-        <v>0</v>
+      <c r="H45" s="32" t="b">
+        <v>1</v>
       </c>
       <c r="I45" s="32">
         <v>60</v>
@@ -7295,7 +7286,7 @@
         <v>42019</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="35" t="b">
         <v>0</v>
       </c>
@@ -7337,7 +7328,7 @@
         <v>42054</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="35" t="b">
         <v>0</v>
       </c>
@@ -7353,16 +7344,16 @@
         <f t="shared" si="2"/>
         <v>EUR_YC3MRH_FUT3MZ4</v>
       </c>
-      <c r="F47" s="48" t="e">
+      <c r="F47" s="48">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G47" s="33" t="e">
+        <v>99.417500000000004</v>
+      </c>
+      <c r="G47" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H47" s="228" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H47" s="32" t="b">
+        <v>1</v>
       </c>
       <c r="I47" s="32">
         <v>60</v>
@@ -7379,7 +7370,7 @@
         <v>42080</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="35" t="b">
         <v>1</v>
       </c>
@@ -7607,7 +7598,7 @@
       </c>
       <c r="F53" s="48">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>99.074999999999989</v>
+        <v>99.075000000000003</v>
       </c>
       <c r="G53" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E53,Trigger)</f>
@@ -7649,7 +7640,7 @@
       </c>
       <c r="F54" s="48">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>98.949999999999989</v>
+        <v>98.95</v>
       </c>
       <c r="G54" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E54,Trigger)</f>
@@ -7691,7 +7682,7 @@
       </c>
       <c r="F55" s="48">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>98.802500000000009</v>
+        <v>98.802499999999995</v>
       </c>
       <c r="G55" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E55,Trigger)</f>
@@ -7817,7 +7808,7 @@
       </c>
       <c r="F58" s="48">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>98.38</v>
+        <v>98.385000000000005</v>
       </c>
       <c r="G58" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E58,Trigger)</f>
@@ -7859,7 +7850,7 @@
       </c>
       <c r="F59" s="48">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>98.245000000000005</v>
+        <v>98.25</v>
       </c>
       <c r="G59" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E59,Trigger)</f>
@@ -7901,7 +7892,7 @@
       </c>
       <c r="F60" s="48">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>98.122500000000002</v>
+        <v>98.125</v>
       </c>
       <c r="G60" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E60,Trigger)</f>
@@ -7943,7 +7934,7 @@
       </c>
       <c r="F61" s="48">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>98.004999999999995</v>
+        <v>98.01</v>
       </c>
       <c r="G61" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E61,Trigger)</f>
@@ -7985,7 +7976,7 @@
       </c>
       <c r="F62" s="48">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
-        <v>97.91749999999999</v>
+        <v>97.922499999999999</v>
       </c>
       <c r="G62" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E62,Trigger)</f>
@@ -8027,7 +8018,7 @@
       </c>
       <c r="F63" s="48">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>97.83250000000001</v>
+        <v>97.834999999999994</v>
       </c>
       <c r="G63" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E63,Trigger)</f>
@@ -8069,7 +8060,7 @@
       </c>
       <c r="F64" s="48">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
-        <v>97.757499999999993</v>
+        <v>97.76</v>
       </c>
       <c r="G64" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E64,Trigger)</f>
@@ -8111,7 +8102,7 @@
       </c>
       <c r="F65" s="48">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>97.67</v>
+        <v>97.672499999999999</v>
       </c>
       <c r="G65" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E65,Trigger)</f>
@@ -9342,9 +9333,9 @@
         <f t="shared" si="4"/>
         <v>EUR_YC3MRH_AB3E1Y</v>
       </c>
-      <c r="F96" s="33" t="e">
+      <c r="F96" s="33">
         <f>_xll.qlRateHelperQuoteValue($E96,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.2699999999999995E-3</v>
       </c>
       <c r="G96" s="33">
         <f>_xll.qlSwapRateHelperSpread($E96,Trigger)</f>
@@ -9367,9 +9358,9 @@
         <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
         <v>42013</v>
       </c>
-      <c r="N96" s="37" t="e">
+      <c r="N96" s="37">
         <f t="shared" ref="N96:N132" si="7">IF(G96=G133,F96-F133,"--")</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.2">
@@ -9388,9 +9379,9 @@
         <f t="shared" si="4"/>
         <v>EUR_YC3MRH_AB3E15M</v>
       </c>
-      <c r="F97" s="33" t="e">
+      <c r="F97" s="33">
         <f>_xll.qlRateHelperQuoteValue($E97,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.5899999999999999E-3</v>
       </c>
       <c r="G97" s="33">
         <f>_xll.qlSwapRateHelperSpread($E97,Trigger)</f>
@@ -9413,9 +9404,9 @@
         <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
         <v>42103</v>
       </c>
-      <c r="N97" s="37" t="e">
+      <c r="N97" s="37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.4100000000000007E-4</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.2">
@@ -9434,9 +9425,9 @@
         <f t="shared" ref="E98:E129" si="8">RateHelperPrefix&amp;"_"&amp;$B98&amp;$C98&amp;$D98</f>
         <v>EUR_YC3MRH_AB3E18M</v>
       </c>
-      <c r="F98" s="33" t="e">
+      <c r="F98" s="33">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.9199999999999999E-3</v>
       </c>
       <c r="G98" s="33">
         <f>_xll.qlSwapRateHelperSpread($E98,Trigger)</f>
@@ -9459,9 +9450,9 @@
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
         <v>42194</v>
       </c>
-      <c r="N98" s="37" t="e">
+      <c r="N98" s="37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>9.9999999999995925E-6</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.2">
@@ -9480,9 +9471,9 @@
         <f t="shared" si="8"/>
         <v>EUR_YC3MRH_AB3E21M</v>
       </c>
-      <c r="F99" s="33" t="e">
+      <c r="F99" s="33">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.2300000000000003E-3</v>
       </c>
       <c r="G99" s="33">
         <f>_xll.qlSwapRateHelperSpread($E99,Trigger)</f>
@@ -9505,9 +9496,9 @@
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
         <v>42286</v>
       </c>
-      <c r="N99" s="37" t="e">
+      <c r="N99" s="37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.0999999999999985E-4</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.2">
@@ -9526,9 +9517,9 @@
         <f t="shared" si="8"/>
         <v>EUR_YC3MRH_AB3E2Y</v>
       </c>
-      <c r="F100" s="33" t="e">
+      <c r="F100" s="33">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.5699999999999994E-3</v>
       </c>
       <c r="G100" s="33">
         <f>_xll.qlSwapRateHelperSpread($E100,Trigger)</f>
@@ -9551,9 +9542,9 @@
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
         <v>42380</v>
       </c>
-      <c r="N100" s="37" t="e">
+      <c r="N100" s="37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>4.9999999999989289E-6</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.2">
@@ -9572,9 +9563,9 @@
         <f t="shared" si="8"/>
         <v>EUR_YC3MRH_AB3E3Y</v>
       </c>
-      <c r="F101" s="33" t="e">
+      <c r="F101" s="33">
         <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
-        <v>#NUM!</v>
+        <v>6.2100000000000002E-3</v>
       </c>
       <c r="G101" s="33">
         <f>_xll.qlSwapRateHelperSpread($E101,Trigger)</f>
@@ -9597,9 +9588,9 @@
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
         <v>42744</v>
       </c>
-      <c r="N101" s="37" t="e">
+      <c r="N101" s="37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.2">
@@ -9618,9 +9609,9 @@
         <f t="shared" si="8"/>
         <v>EUR_YC3MRH_AB3E4Y</v>
       </c>
-      <c r="F102" s="33" t="e">
+      <c r="F102" s="33">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
-        <v>#NUM!</v>
+        <v>8.3800000000000003E-3</v>
       </c>
       <c r="G102" s="33">
         <f>_xll.qlSwapRateHelperSpread($E102,Trigger)</f>
@@ -9643,9 +9634,9 @@
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
         <v>43109</v>
       </c>
-      <c r="N102" s="37" t="e">
+      <c r="N102" s="37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>4.9999999999997963E-6</v>
       </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.2">
@@ -9664,9 +9655,9 @@
         <f t="shared" si="8"/>
         <v>EUR_YC3MRH_AB3E5Y</v>
       </c>
-      <c r="F103" s="33" t="e">
+      <c r="F103" s="33">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.065E-2</v>
       </c>
       <c r="G103" s="33">
         <f>_xll.qlSwapRateHelperSpread($E103,Trigger)</f>
@@ -9689,9 +9680,9 @@
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
         <v>43474</v>
       </c>
-      <c r="N103" s="37" t="e">
+      <c r="N103" s="37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-1.7347234759768071E-18</v>
       </c>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.2">
@@ -9710,9 +9701,9 @@
         <f t="shared" si="8"/>
         <v>EUR_YC3MRH_AB3E6Y</v>
       </c>
-      <c r="F104" s="33" t="e">
+      <c r="F104" s="33">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.2629999999999999E-2</v>
       </c>
       <c r="G104" s="33">
         <f>_xll.qlSwapRateHelperSpread($E104,Trigger)</f>
@@ -9735,9 +9726,9 @@
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
         <v>43839</v>
       </c>
-      <c r="N104" s="37" t="e">
+      <c r="N104" s="37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>4.9999999999997963E-6</v>
       </c>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.2">
@@ -9756,9 +9747,9 @@
         <f t="shared" si="8"/>
         <v>EUR_YC3MRH_AB3E7Y</v>
       </c>
-      <c r="F105" s="33" t="e">
+      <c r="F105" s="33">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.439E-2</v>
       </c>
       <c r="G105" s="33">
         <f>_xll.qlSwapRateHelperSpread($E105,Trigger)</f>
@@ -9781,9 +9772,9 @@
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
         <v>44207</v>
       </c>
-      <c r="N105" s="37" t="e">
+      <c r="N105" s="37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.7347234759768071E-18</v>
       </c>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.2">
@@ -9802,9 +9793,9 @@
         <f t="shared" si="8"/>
         <v>EUR_YC3MRH_AB3E8Y</v>
       </c>
-      <c r="F106" s="33" t="e">
+      <c r="F106" s="33">
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.5950000000000002E-2</v>
       </c>
       <c r="G106" s="33">
         <f>_xll.qlSwapRateHelperSpread($E106,Trigger)</f>
@@ -9827,9 +9818,9 @@
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
         <v>44571</v>
       </c>
-      <c r="N106" s="37" t="e">
+      <c r="N106" s="37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>3.4694469519536142E-18</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.2">
@@ -9848,9 +9839,9 @@
         <f t="shared" si="8"/>
         <v>EUR_YC3MRH_AB3E9Y</v>
       </c>
-      <c r="F107" s="33" t="e">
+      <c r="F107" s="33">
         <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="G107" s="33">
         <f>_xll.qlSwapRateHelperSpread($E107,Trigger)</f>
@@ -9873,9 +9864,9 @@
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
         <v>44935</v>
       </c>
-      <c r="N107" s="37" t="e">
+      <c r="N107" s="37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>4.9999999999980616E-6</v>
       </c>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.2">
@@ -9894,9 +9885,9 @@
         <f t="shared" si="8"/>
         <v>EUR_YC3MRH_AB3E10Y</v>
       </c>
-      <c r="F108" s="33" t="e">
+      <c r="F108" s="33">
         <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.8710000000000001E-2</v>
       </c>
       <c r="G108" s="33">
         <f>_xll.qlSwapRateHelperSpread($E108,Trigger)</f>
@@ -9919,9 +9910,9 @@
         <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
         <v>45300</v>
       </c>
-      <c r="N108" s="37" t="e">
+      <c r="N108" s="37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.2">
@@ -9940,9 +9931,9 @@
         <f t="shared" si="8"/>
         <v>EUR_YC3MRH_AB3E11Y</v>
       </c>
-      <c r="F109" s="33" t="e">
+      <c r="F109" s="33">
         <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.9860000000000003E-2</v>
       </c>
       <c r="G109" s="33">
         <f>_xll.qlSwapRateHelperSpread($E109,Trigger)</f>
@@ -9965,9 +9956,9 @@
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
         <v>45666</v>
       </c>
-      <c r="N109" s="37" t="e">
+      <c r="N109" s="37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-4.9999999999980616E-6</v>
       </c>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.2">
@@ -9986,9 +9977,9 @@
         <f t="shared" si="8"/>
         <v>EUR_YC3MRH_AB3E12Y</v>
       </c>
-      <c r="F110" s="33" t="e">
+      <c r="F110" s="33">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.0840000000000001E-2</v>
       </c>
       <c r="G110" s="33">
         <f>_xll.qlSwapRateHelperSpread($E110,Trigger)</f>
@@ -10011,9 +10002,9 @@
         <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
         <v>46031</v>
       </c>
-      <c r="N110" s="37" t="e">
+      <c r="N110" s="37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-4.9999999999980616E-6</v>
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.2">
@@ -10124,9 +10115,9 @@
         <f t="shared" si="8"/>
         <v>EUR_YC3MRH_AB3E15Y</v>
       </c>
-      <c r="F113" s="33" t="e">
+      <c r="F113" s="33">
         <f>_xll.qlRateHelperQuoteValue($E113,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.2889999999999997E-2</v>
       </c>
       <c r="G113" s="33">
         <f>_xll.qlSwapRateHelperSpread($E113,Trigger)</f>
@@ -10149,9 +10140,9 @@
         <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
         <v>47127</v>
       </c>
-      <c r="N113" s="37" t="e">
+      <c r="N113" s="37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-1.0000000000003062E-5</v>
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.2">
@@ -10354,9 +10345,9 @@
         <f t="shared" si="8"/>
         <v>EUR_YC3MRH_AB3E20Y</v>
       </c>
-      <c r="F118" s="33" t="e">
+      <c r="F118" s="33">
         <f>_xll.qlRateHelperQuoteValue($E118,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.4119999999999999E-2</v>
       </c>
       <c r="G118" s="33">
         <f>_xll.qlSwapRateHelperSpread($E118,Trigger)</f>
@@ -10379,9 +10370,9 @@
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
         <v>48953</v>
       </c>
-      <c r="N118" s="37" t="e">
+      <c r="N118" s="37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.2">
@@ -10584,9 +10575,9 @@
         <f t="shared" si="8"/>
         <v>EUR_YC3MRH_AB3E25Y</v>
       </c>
-      <c r="F123" s="33" t="e">
+      <c r="F123" s="33">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.4340000000000001E-2</v>
       </c>
       <c r="G123" s="33">
         <f>_xll.qlSwapRateHelperSpread($E123,Trigger)</f>
@@ -10609,9 +10600,9 @@
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
         <v>50780</v>
       </c>
-      <c r="N123" s="37" t="e">
+      <c r="N123" s="37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-4.9999999999980616E-6</v>
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.2">
@@ -10814,9 +10805,9 @@
         <f t="shared" si="8"/>
         <v>EUR_YC3MRH_AB3E30Y</v>
       </c>
-      <c r="F128" s="33" t="e">
+      <c r="F128" s="33">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.4310000000000002E-2</v>
       </c>
       <c r="G128" s="33">
         <f>_xll.qlSwapRateHelperSpread($E128,Trigger)</f>
@@ -10839,9 +10830,9 @@
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
         <v>52607</v>
       </c>
-      <c r="N128" s="37" t="e">
+      <c r="N128" s="37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-9.9999999999961231E-6</v>
       </c>
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.2">
@@ -10906,9 +10897,9 @@
         <f t="shared" ref="E130:E161" si="10">RateHelperPrefix&amp;"_"&amp;$B130&amp;$C130&amp;$D130</f>
         <v>EUR_YC3MRH_AB3E40Y</v>
       </c>
-      <c r="F130" s="33" t="e">
+      <c r="F130" s="33">
         <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.4809999999999999E-2</v>
       </c>
       <c r="G130" s="33">
         <f>_xll.qlSwapRateHelperSpread($E130,Trigger)</f>
@@ -10931,9 +10922,9 @@
         <f>_xll.qlRateHelperLatestDate($E130,Trigger)</f>
         <v>56258</v>
       </c>
-      <c r="N130" s="37" t="e">
+      <c r="N130" s="37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-1.0000000000003062E-5</v>
       </c>
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.2">
@@ -10952,9 +10943,9 @@
         <f t="shared" si="10"/>
         <v>EUR_YC3MRH_AB3E50Y</v>
       </c>
-      <c r="F131" s="33" t="e">
+      <c r="F131" s="33">
         <f>_xll.qlRateHelperQuoteValue($E131,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.5300000000000003E-2</v>
       </c>
       <c r="G131" s="33">
         <f>_xll.qlSwapRateHelperSpread($E131,Trigger)</f>
@@ -10977,9 +10968,9 @@
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
         <v>59910</v>
       </c>
-      <c r="N131" s="37" t="e">
+      <c r="N131" s="37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-4.9999999999980616E-6</v>
       </c>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.2">
@@ -10998,9 +10989,9 @@
         <f t="shared" si="10"/>
         <v>EUR_YC3MRH_AB3E60Y</v>
       </c>
-      <c r="F132" s="26" t="e">
+      <c r="F132" s="26">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.564E-2</v>
       </c>
       <c r="G132" s="26">
         <f>_xll.qlSwapRateHelperSpread($E132,Trigger)</f>
@@ -11023,9 +11014,9 @@
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
         <v>63563</v>
       </c>
-      <c r="N132" s="37" t="e">
+      <c r="N132" s="37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.2">
@@ -12598,7 +12589,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -12618,10 +12609,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="227"/>
+      <c r="B1" s="228"/>
       <c r="D1" s="22" t="s">
         <v>9</v>
       </c>
@@ -12635,9 +12626,9 @@
       <c r="H1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="e">
+      <c r="I1" s="3">
         <f t="array" ref="I1:I126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -12667,8 +12658,8 @@
         <f>_xll.qlRateHelperLatestDate($D2)</f>
         <v>41662</v>
       </c>
-      <c r="I2" s="3" t="e">
-        <v>#NUM!</v>
+      <c r="I2" s="3">
+        <v>0.99992312257724181</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>116</v>
@@ -12703,8 +12694,8 @@
         <f>_xll.qlRateHelperLatestDate($D3)</f>
         <v>41669</v>
       </c>
-      <c r="I3" s="3" t="e">
-        <v>#NUM!</v>
+      <c r="I3" s="3">
+        <v>0.99988381350087097</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>117</v>
@@ -12739,8 +12730,8 @@
         <f>_xll.qlRateHelperLatestDate($D4)</f>
         <v>41680</v>
       </c>
-      <c r="I4" s="3" t="e">
-        <v>#NUM!</v>
+      <c r="I4" s="3">
+        <v>0.99982109867807345</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>118</v>
@@ -12775,8 +12766,8 @@
         <f>_xll.qlRateHelperLatestDate($D5)</f>
         <v>41708</v>
       </c>
-      <c r="I5" s="3" t="e">
-        <v>#NUM!</v>
+      <c r="I5" s="3">
+        <v>0.99964545907718061</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>119</v>
@@ -12812,8 +12803,8 @@
         <f>_xll.qlRateHelperLatestDate($D6)</f>
         <v>41739</v>
       </c>
-      <c r="I6" s="3" t="e">
-        <v>#NUM!</v>
+      <c r="I6" s="3">
+        <v>0.99943236937651492</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>120</v>
@@ -12825,7 +12816,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="str">
         <f>_xll.ohGroup(,_xll.ohPack(D2:D126),Permanent,,ObjectOverwrite)</f>
-        <v>obj_0065a#0008</v>
+        <v>obj_0065a#0005</v>
       </c>
       <c r="B7" s="12" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -12850,8 +12841,8 @@
         <f>_xll.qlRateHelperLatestDate($D7)</f>
         <v>41809</v>
       </c>
-      <c r="I7" s="3" t="e">
-        <v>#NUM!</v>
+      <c r="I7" s="3">
+        <v>0.99885756504830558</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>121</v>
@@ -12862,11 +12853,11 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MH5</v>
+        <v>EUR_YC3MRH_FUT3MM4</v>
       </c>
       <c r="E8" s="10">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>5.1250000000000462E-3</v>
+        <v>4.5250000000000012E-3</v>
       </c>
       <c r="F8" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -12874,16 +12865,16 @@
       </c>
       <c r="G8" s="9">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>42081</v>
+        <v>41808</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42173</v>
-      </c>
-      <c r="I8" s="3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K8" s="229" t="s">
+        <v>41900</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.99771397583391219</v>
+      </c>
+      <c r="K8" s="217" t="s">
         <v>122</v>
       </c>
       <c r="L8" s="46">
@@ -12892,11 +12883,11 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MM5</v>
+        <v>EUR_YC3MRH_FUT3MU4</v>
       </c>
       <c r="E9" s="10">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>5.8249999999999691E-3</v>
+        <v>5.1250000000000462E-3</v>
       </c>
       <c r="F9" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -12904,16 +12895,16 @@
       </c>
       <c r="G9" s="9">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>42172</v>
+        <v>41899</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42264</v>
-      </c>
-      <c r="I9" s="3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K9" s="229" t="s">
+        <v>41990</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.99643674809953053</v>
+      </c>
+      <c r="K9" s="217" t="s">
         <v>123</v>
       </c>
       <c r="L9" s="46">
@@ -12922,11 +12913,11 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D10" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MU5</v>
+        <v>EUR_YC3MRH_FUT3MZ4</v>
       </c>
       <c r="E10" s="10">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>6.525000000000003E-3</v>
+        <v>5.8249999999999691E-3</v>
       </c>
       <c r="F10" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -12934,16 +12925,16 @@
       </c>
       <c r="G10" s="9">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42263</v>
+        <v>41990</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42354</v>
-      </c>
-      <c r="I10" s="3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K10" s="229" t="s">
+        <v>42080</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.99498779711997465</v>
+      </c>
+      <c r="K10" s="217" t="s">
         <v>124</v>
       </c>
       <c r="L10" s="46">
@@ -12952,11 +12943,11 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D11" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MZ5</v>
+        <v>EUR_YC3MRH_FUT3MH5</v>
       </c>
       <c r="E11" s="10">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>7.3250000000000259E-3</v>
+        <v>5.1250000000000462E-3</v>
       </c>
       <c r="F11" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -12964,14 +12955,14 @@
       </c>
       <c r="G11" s="9">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42354</v>
+        <v>42081</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42445</v>
-      </c>
-      <c r="I11" s="3" t="e">
-        <v>#NUM!</v>
+        <v>42173</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.99367121095164468</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>125</v>
@@ -12982,11 +12973,11 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D12" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MH6</v>
+        <v>EUR_YC3MRH_FUT3MM5</v>
       </c>
       <c r="E12" s="10">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>8.1749999999999323E-3</v>
+        <v>5.8249999999999691E-3</v>
       </c>
       <c r="F12" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -12994,14 +12985,14 @@
       </c>
       <c r="G12" s="9">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42445</v>
+        <v>42172</v>
       </c>
       <c r="H12" s="8">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42537</v>
-      </c>
-      <c r="I12" s="3" t="e">
-        <v>#NUM!</v>
+        <v>42264</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.99220879012734486</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>126</v>
@@ -13012,11 +13003,11 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D13" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MM6</v>
+        <v>EUR_YC3MRH_FUT3MU5</v>
       </c>
       <c r="E13" s="10">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>9.2500000000000915E-3</v>
+        <v>6.525000000000003E-3</v>
       </c>
       <c r="F13" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -13024,14 +13015,14 @@
       </c>
       <c r="G13" s="9">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>42536</v>
+        <v>42263</v>
       </c>
       <c r="H13" s="8">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42628</v>
-      </c>
-      <c r="I13" s="3" t="e">
-        <v>#NUM!</v>
+        <v>42354</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.99059202119743606</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>127</v>
@@ -13042,11 +13033,11 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D14" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E3Y</v>
-      </c>
-      <c r="E14" s="10" t="e">
+        <v>EUR_YC3MRH_FUT3MZ5</v>
+      </c>
+      <c r="E14" s="10">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>#NUM!</v>
+        <v>7.3250000000000259E-3</v>
       </c>
       <c r="F14" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -13054,14 +13045,14 @@
       </c>
       <c r="G14" s="9">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41648</v>
+        <v>42354</v>
       </c>
       <c r="H14" s="8">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42744</v>
-      </c>
-      <c r="I14" s="3" t="e">
-        <v>#NUM!</v>
+        <v>42445</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.98876123364378021</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>128</v>
@@ -13072,11 +13063,11 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E4Y</v>
-      </c>
-      <c r="E15" s="10" t="e">
+        <v>EUR_YC3MRH_AB3E3Y</v>
+      </c>
+      <c r="E15" s="10">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>#NUM!</v>
+        <v>6.2100000000000002E-3</v>
       </c>
       <c r="F15" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -13088,10 +13079,10 @@
       </c>
       <c r="H15" s="8">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>43109</v>
-      </c>
-      <c r="I15" s="3" t="e">
-        <v>#NUM!</v>
+        <v>42744</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.98157013253261871</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>129</v>
@@ -13102,11 +13093,11 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E5Y</v>
-      </c>
-      <c r="E16" s="10" t="e">
+        <v>EUR_YC3MRH_AB3E4Y</v>
+      </c>
+      <c r="E16" s="10">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>#NUM!</v>
+        <v>8.3800000000000003E-3</v>
       </c>
       <c r="F16" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -13118,10 +13109,10 @@
       </c>
       <c r="H16" s="8">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43474</v>
-      </c>
-      <c r="I16" s="3" t="e">
-        <v>#NUM!</v>
+        <v>43109</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.96702638501648219</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>130</v>
@@ -13132,11 +13123,11 @@
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D17" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E6Y</v>
-      </c>
-      <c r="E17" s="10" t="e">
+        <v>EUR_YC3MRH_AB3E5Y</v>
+      </c>
+      <c r="E17" s="10">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>#NUM!</v>
+        <v>1.065E-2</v>
       </c>
       <c r="F17" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -13148,10 +13139,10 @@
       </c>
       <c r="H17" s="8">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43839</v>
-      </c>
-      <c r="I17" s="3" t="e">
-        <v>#NUM!</v>
+        <v>43474</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.94799821051689015</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>131</v>
@@ -13162,11 +13153,11 @@
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D18" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E7Y</v>
-      </c>
-      <c r="E18" s="10" t="e">
+        <v>EUR_YC3MRH_AB3E6Y</v>
+      </c>
+      <c r="E18" s="10">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>#NUM!</v>
+        <v>1.2629999999999999E-2</v>
       </c>
       <c r="F18" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -13178,10 +13169,10 @@
       </c>
       <c r="H18" s="8">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>44207</v>
-      </c>
-      <c r="I18" s="3" t="e">
-        <v>#NUM!</v>
+        <v>43839</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.92662697351495837</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>132</v>
@@ -13192,11 +13183,11 @@
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D19" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E8Y</v>
-      </c>
-      <c r="E19" s="10" t="e">
+        <v>EUR_YC3MRH_AB3E7Y</v>
+      </c>
+      <c r="E19" s="10">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>#NUM!</v>
+        <v>1.439E-2</v>
       </c>
       <c r="F19" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -13208,10 +13199,10 @@
       </c>
       <c r="H19" s="8">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44571</v>
-      </c>
-      <c r="I19" s="3" t="e">
-        <v>#NUM!</v>
+        <v>44207</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.90333123430935147</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>133</v>
@@ -13222,11 +13213,11 @@
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D20" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E9Y</v>
-      </c>
-      <c r="E20" s="10" t="e">
+        <v>EUR_YC3MRH_AB3E8Y</v>
+      </c>
+      <c r="E20" s="10">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>#NUM!</v>
+        <v>1.5950000000000002E-2</v>
       </c>
       <c r="F20" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -13238,10 +13229,10 @@
       </c>
       <c r="H20" s="8">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>44935</v>
-      </c>
-      <c r="I20" s="3" t="e">
-        <v>#NUM!</v>
+        <v>44571</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.87887243076614874</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>134</v>
@@ -13252,11 +13243,11 @@
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D21" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E10Y</v>
-      </c>
-      <c r="E21" s="10" t="e">
+        <v>EUR_YC3MRH_AB3E9Y</v>
+      </c>
+      <c r="E21" s="10">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>#NUM!</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="F21" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -13268,10 +13259,10 @@
       </c>
       <c r="H21" s="8">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>45300</v>
-      </c>
-      <c r="I21" s="3" t="e">
-        <v>#NUM!</v>
+        <v>44935</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.85305884090859074</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>135</v>
@@ -13282,11 +13273,11 @@
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D22" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E12Y</v>
-      </c>
-      <c r="E22" s="10" t="e">
+        <v>EUR_YC3MRH_AB3E10Y</v>
+      </c>
+      <c r="E22" s="10">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>#NUM!</v>
+        <v>1.8710000000000001E-2</v>
       </c>
       <c r="F22" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -13298,10 +13289,10 @@
       </c>
       <c r="H22" s="8">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>46031</v>
-      </c>
-      <c r="I22" s="3" t="e">
-        <v>#NUM!</v>
+        <v>45300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.8265316228423667</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>136</v>
@@ -13312,11 +13303,11 @@
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D23" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E15Y</v>
-      </c>
-      <c r="E23" s="10" t="e">
+        <v>EUR_YC3MRH_AB3E12Y</v>
+      </c>
+      <c r="E23" s="10">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>#NUM!</v>
+        <v>2.0840000000000001E-2</v>
       </c>
       <c r="F23" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -13328,10 +13319,10 @@
       </c>
       <c r="H23" s="8">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>47127</v>
-      </c>
-      <c r="I23" s="3" t="e">
-        <v>#NUM!</v>
+        <v>46031</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.77398207320333701</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>137</v>
@@ -13342,11 +13333,11 @@
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D24" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E20Y</v>
-      </c>
-      <c r="E24" s="10" t="e">
+        <v>EUR_YC3MRH_AB3E15Y</v>
+      </c>
+      <c r="E24" s="10">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>#NUM!</v>
+        <v>2.2889999999999997E-2</v>
       </c>
       <c r="F24" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -13358,10 +13349,10 @@
       </c>
       <c r="H24" s="8">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>48953</v>
-      </c>
-      <c r="I24" s="3" t="e">
-        <v>#NUM!</v>
+        <v>47127</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.70195267593278343</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>138</v>
@@ -13372,11 +13363,11 @@
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D25" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E25Y</v>
-      </c>
-      <c r="E25" s="10" t="e">
+        <v>EUR_YC3MRH_AB3E20Y</v>
+      </c>
+      <c r="E25" s="10">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>#NUM!</v>
+        <v>2.4119999999999999E-2</v>
       </c>
       <c r="F25" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -13388,10 +13379,10 @@
       </c>
       <c r="H25" s="8">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>50780</v>
-      </c>
-      <c r="I25" s="3" t="e">
-        <v>#NUM!</v>
+        <v>48953</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.60833147378291885</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>139</v>
@@ -13402,11 +13393,11 @@
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D26" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E30Y</v>
-      </c>
-      <c r="E26" s="10" t="e">
+        <v>EUR_YC3MRH_AB3E25Y</v>
+      </c>
+      <c r="E26" s="10">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>#NUM!</v>
+        <v>2.4340000000000001E-2</v>
       </c>
       <c r="F26" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -13418,10 +13409,10 @@
       </c>
       <c r="H26" s="8">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>52607</v>
-      </c>
-      <c r="I26" s="3" t="e">
-        <v>#NUM!</v>
+        <v>50780</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.53612052213363737</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>140</v>
@@ -13432,11 +13423,11 @@
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D27" s="11" t="str">
-        <v>EUR_YC3MRH_AB3EBASIS35Y</v>
+        <v>EUR_YC3MRH_AB3E30Y</v>
       </c>
       <c r="E27" s="10">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.4505000000000002E-2</v>
+        <v>2.4310000000000002E-2</v>
       </c>
       <c r="F27" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -13448,10 +13439,10 @@
       </c>
       <c r="H27" s="8">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>54434</v>
-      </c>
-      <c r="I27" s="3" t="e">
-        <v>#NUM!</v>
+        <v>52607</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.47593975963723573</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>141</v>
@@ -13462,11 +13453,11 @@
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D28" s="11" t="str">
-        <v>EUR_YC3MRH_AB3EBASIS40Y</v>
+        <v>EUR_YC3MRH_AB3EBASIS35Y</v>
       </c>
       <c r="E28" s="10">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.4820000000000002E-2</v>
+        <v>2.4505000000000002E-2</v>
       </c>
       <c r="F28" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -13478,10 +13469,10 @@
       </c>
       <c r="H28" s="8">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>56258</v>
-      </c>
-      <c r="I28" s="3" t="e">
-        <v>#NUM!</v>
+        <v>54434</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.41771217357978524</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>142</v>
@@ -13492,11 +13483,11 @@
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D29" s="11" t="str">
-        <v>EUR_YC3MRH_AB3EBASIS50Y</v>
+        <v>EUR_YC3MRH_AB3EBASIS40Y</v>
       </c>
       <c r="E29" s="10">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.5305000000000001E-2</v>
+        <v>2.4820000000000002E-2</v>
       </c>
       <c r="F29" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -13508,10 +13499,10 @@
       </c>
       <c r="H29" s="8">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>59910</v>
-      </c>
-      <c r="I29" s="3" t="e">
-        <v>#NUM!</v>
+        <v>56258</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.3625977530257124</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>143</v>
@@ -13522,11 +13513,11 @@
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D30" s="11" t="str">
-        <v>EUR_YC3MRH_AB3EBASIS60Y</v>
+        <v>EUR_YC3MRH_AB3EBASIS50Y</v>
       </c>
       <c r="E30" s="10">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.564E-2</v>
+        <v>2.5305000000000001E-2</v>
       </c>
       <c r="F30" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -13538,10 +13529,10 @@
       </c>
       <c r="H30" s="8">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>63563</v>
-      </c>
-      <c r="I30" s="3" t="e">
-        <v>#NUM!</v>
+        <v>59910</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.27157930902452659</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>144</v>
@@ -13551,27 +13542,27 @@
       </c>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D31" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E31" s="10" t="e">
+      <c r="D31" s="11" t="str">
+        <v>EUR_YC3MRH_AB3EBASIS60Y</v>
+      </c>
+      <c r="E31" s="10">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F31" s="10" t="str">
+        <v>2.564E-2</v>
+      </c>
+      <c r="F31" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
-        <v>--</v>
-      </c>
-      <c r="G31" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H31" s="8" t="e">
+        <v>41648</v>
+      </c>
+      <c r="H31" s="8">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I31" s="3" t="e">
-        <v>#NUM!</v>
+        <v>63563</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.20246286490853307</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>145</v>
@@ -13601,7 +13592,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I32" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.2">
@@ -13625,7 +13616,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I33" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.2">
@@ -13649,7 +13640,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I34" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.2">
@@ -13673,7 +13664,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I35" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.2">
@@ -13697,7 +13688,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I36" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.2">
@@ -13721,7 +13712,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I37" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.2">
@@ -13745,7 +13736,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I38" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
@@ -13769,7 +13760,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I39" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.2">
@@ -13793,7 +13784,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I40" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.2">
@@ -13817,7 +13808,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I41" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.2">
@@ -13841,7 +13832,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I42" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.2">
@@ -13865,7 +13856,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I43" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.2">
@@ -13889,7 +13880,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I44" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.2">
@@ -13913,7 +13904,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I45" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.2">
@@ -13937,7 +13928,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I46" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.2">
@@ -13961,7 +13952,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I47" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.2">
@@ -13985,7 +13976,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I48" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.2">
@@ -14009,7 +14000,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I49" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.2">
@@ -14033,7 +14024,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I50" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.2">
@@ -14057,7 +14048,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I51" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.2">
@@ -14081,7 +14072,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I52" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.2">
@@ -14105,7 +14096,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I53" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.2">
@@ -14129,7 +14120,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I54" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.2">
@@ -14153,7 +14144,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I55" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.2">
@@ -14177,7 +14168,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I56" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.2">
@@ -14201,7 +14192,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I57" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.2">
@@ -14225,7 +14216,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I58" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.2">
@@ -14249,7 +14240,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I59" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.2">
@@ -14273,7 +14264,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I60" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.2">
@@ -14297,7 +14288,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I61" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.2">
@@ -14321,7 +14312,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I62" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.2">
@@ -14345,7 +14336,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I63" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.2">
@@ -14369,7 +14360,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I64" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.2">
@@ -14393,7 +14384,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I65" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.2">
@@ -14417,7 +14408,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I66" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.2">
@@ -14441,7 +14432,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I67" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.2">
@@ -14465,7 +14456,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I68" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.2">
@@ -14489,7 +14480,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I69" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.2">
@@ -14513,7 +14504,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I70" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.2">
@@ -14537,7 +14528,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I71" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="4:9" x14ac:dyDescent="0.2">
@@ -14561,7 +14552,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I72" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.2">
@@ -14585,7 +14576,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I73" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.2">
@@ -14609,7 +14600,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I74" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.2">
@@ -14633,7 +14624,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I75" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.2">
@@ -14657,7 +14648,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I76" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.2">
@@ -14681,7 +14672,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I77" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.2">
@@ -14705,7 +14696,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I78" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.2">
@@ -14729,7 +14720,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I79" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.2">
@@ -14753,7 +14744,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.2">
@@ -14777,7 +14768,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I81" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.2">
@@ -14801,7 +14792,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I82" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.2">
@@ -14825,7 +14816,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I83" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.2">
@@ -14849,7 +14840,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I84" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.2">
@@ -14873,7 +14864,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I85" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.2">
@@ -14897,7 +14888,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I86" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.2">
@@ -14921,7 +14912,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I87" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.2">
@@ -14945,7 +14936,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I88" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.2">
@@ -14969,7 +14960,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I89" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="4:9" x14ac:dyDescent="0.2">
@@ -14993,7 +14984,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I90" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="4:9" x14ac:dyDescent="0.2">
@@ -15017,7 +15008,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I91" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="4:9" x14ac:dyDescent="0.2">
@@ -15041,7 +15032,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I92" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.2">
@@ -15065,7 +15056,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I93" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.2">
@@ -15089,7 +15080,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I94" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.2">
@@ -15113,7 +15104,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I95" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.2">
@@ -15137,7 +15128,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I96" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="4:9" x14ac:dyDescent="0.2">
@@ -15161,7 +15152,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I97" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="4:9" x14ac:dyDescent="0.2">
@@ -15185,7 +15176,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I98" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.2">
@@ -15209,7 +15200,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I99" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.2">
@@ -15233,7 +15224,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I100" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.2">
@@ -15257,7 +15248,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I101" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="4:9" x14ac:dyDescent="0.2">
@@ -15281,7 +15272,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I102" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="4:9" x14ac:dyDescent="0.2">
@@ -15305,7 +15296,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I103" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="4:9" x14ac:dyDescent="0.2">
@@ -15329,7 +15320,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I104" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="4:9" x14ac:dyDescent="0.2">
@@ -15353,7 +15344,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I105" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="4:9" x14ac:dyDescent="0.2">
@@ -15377,7 +15368,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I106" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="4:9" x14ac:dyDescent="0.2">
@@ -15401,7 +15392,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I107" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="4:9" x14ac:dyDescent="0.2">
@@ -15425,7 +15416,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I108" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="4:9" x14ac:dyDescent="0.2">
@@ -15449,7 +15440,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I109" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="4:9" x14ac:dyDescent="0.2">
@@ -15473,7 +15464,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I110" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="4:9" x14ac:dyDescent="0.2">
@@ -15497,7 +15488,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I111" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="4:9" x14ac:dyDescent="0.2">
@@ -15521,7 +15512,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I112" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="4:9" x14ac:dyDescent="0.2">
@@ -15545,7 +15536,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I113" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="4:9" x14ac:dyDescent="0.2">
@@ -15569,7 +15560,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I114" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="4:9" x14ac:dyDescent="0.2">
@@ -15593,7 +15584,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I115" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="4:9" x14ac:dyDescent="0.2">
@@ -15617,7 +15608,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I116" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="4:9" x14ac:dyDescent="0.2">
@@ -15641,7 +15632,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I117" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="4:9" x14ac:dyDescent="0.2">
@@ -15665,7 +15656,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I118" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="4:9" x14ac:dyDescent="0.2">
@@ -15689,7 +15680,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I119" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="4:9" x14ac:dyDescent="0.2">
@@ -15713,7 +15704,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I120" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="4:9" x14ac:dyDescent="0.2">
@@ -15737,7 +15728,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I121" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="4:9" x14ac:dyDescent="0.2">
@@ -15761,7 +15752,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I122" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="4:9" x14ac:dyDescent="0.2">
@@ -15785,7 +15776,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I123" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="4:9" x14ac:dyDescent="0.2">
@@ -15809,7 +15800,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I124" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="4:9" x14ac:dyDescent="0.2">
@@ -15833,7 +15824,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I125" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="4:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -15857,7 +15848,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I126" s="3" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -15952,7 +15943,7 @@
       </c>
       <c r="F3" s="109" t="str">
         <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_SND#0002</v>
+        <v>EUR_YC3MRH_SND#0005</v>
       </c>
       <c r="G3" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -15979,7 +15970,7 @@
       </c>
       <c r="F4" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_SWD#0002</v>
+        <v>EUR_YC3MRH_SWD#0005</v>
       </c>
       <c r="G4" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -16006,7 +15997,7 @@
       </c>
       <c r="F5" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2WD#0002</v>
+        <v>EUR_YC3MRH_2WD#0005</v>
       </c>
       <c r="G5" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -16033,7 +16024,7 @@
       </c>
       <c r="F6" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3WD#0002</v>
+        <v>EUR_YC3MRH_3WD#0005</v>
       </c>
       <c r="G6" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -16060,7 +16051,7 @@
       </c>
       <c r="F7" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1MD#0002</v>
+        <v>EUR_YC3MRH_1MD#0005</v>
       </c>
       <c r="G7" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -16087,7 +16078,7 @@
       </c>
       <c r="F8" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2MD#0002</v>
+        <v>EUR_YC3MRH_2MD#0005</v>
       </c>
       <c r="G8" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -16114,7 +16105,7 @@
       </c>
       <c r="F9" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3MD#0002</v>
+        <v>EUR_YC3MRH_3MD#0005</v>
       </c>
       <c r="G9" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -16233,7 +16224,7 @@
       </c>
       <c r="H3" s="152" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_T3F1#0002</v>
+        <v>EUR_YC3MRH_T3F1#0005</v>
       </c>
       <c r="I3" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -16267,7 +16258,7 @@
       </c>
       <c r="H4" s="144" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_TOM3F1#0002</v>
+        <v>EUR_YC3MRH_TOM3F1#0005</v>
       </c>
       <c r="I4" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -16302,7 +16293,7 @@
       </c>
       <c r="H5" s="147" t="str">
         <f>_xll.qlFraRateHelper(G5,F5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1x4F#0002</v>
+        <v>EUR_YC3MRH_1x4F#0005</v>
       </c>
       <c r="I5" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -16337,7 +16328,7 @@
       </c>
       <c r="H6" s="147" t="str">
         <f>_xll.qlFraRateHelper(G6,F6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2x5F#0002</v>
+        <v>EUR_YC3MRH_2x5F#0005</v>
       </c>
       <c r="I6" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -16372,7 +16363,7 @@
       </c>
       <c r="H7" s="147" t="str">
         <f>_xll.qlFraRateHelper(G7,F7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3x6F#0002</v>
+        <v>EUR_YC3MRH_3x6F#0005</v>
       </c>
       <c r="I7" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -16407,7 +16398,7 @@
       </c>
       <c r="H8" s="147" t="str">
         <f>_xll.qlFraRateHelper(G8,F8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_4x7F#0002</v>
+        <v>EUR_YC3MRH_4x7F#0005</v>
       </c>
       <c r="I8" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -16442,7 +16433,7 @@
       </c>
       <c r="H9" s="147" t="str">
         <f>_xll.qlFraRateHelper(G9,F9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_5x8F#0002</v>
+        <v>EUR_YC3MRH_5x8F#0005</v>
       </c>
       <c r="I9" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -16477,7 +16468,7 @@
       </c>
       <c r="H10" s="144" t="str">
         <f>_xll.qlFraRateHelper(G10,F10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_6x9F#0002</v>
+        <v>EUR_YC3MRH_6x9F#0005</v>
       </c>
       <c r="I10" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -16616,7 +16607,7 @@
       </c>
       <c r="I3" s="174" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MF4#0002</v>
+        <v>EUR_YC3MRH_FUT3MF4#0005</v>
       </c>
       <c r="J3" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -16654,7 +16645,7 @@
       </c>
       <c r="I4" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MG4#0002</v>
+        <v>EUR_YC3MRH_FUT3MG4#0005</v>
       </c>
       <c r="J4" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -16692,7 +16683,7 @@
       </c>
       <c r="I5" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH4#0002</v>
+        <v>EUR_YC3MRH_FUT3MH4#0005</v>
       </c>
       <c r="J5" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -16730,7 +16721,7 @@
       </c>
       <c r="I6" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MJ4#0002</v>
+        <v>EUR_YC3MRH_FUT3MJ4#0005</v>
       </c>
       <c r="J6" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -16768,7 +16759,7 @@
       </c>
       <c r="I7" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MK4#0002</v>
+        <v>EUR_YC3MRH_FUT3MK4#0005</v>
       </c>
       <c r="J7" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -16806,7 +16797,7 @@
       </c>
       <c r="I8" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM4#0002</v>
+        <v>EUR_YC3MRH_FUT3MM4#0005</v>
       </c>
       <c r="J8" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -16844,7 +16835,7 @@
       </c>
       <c r="I9" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MN4#0002</v>
+        <v>EUR_YC3MRH_FUT3MN4#0005</v>
       </c>
       <c r="J9" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -16882,7 +16873,7 @@
       </c>
       <c r="I10" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MQ4#0002</v>
+        <v>EUR_YC3MRH_FUT3MQ4#0005</v>
       </c>
       <c r="J10" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -16920,7 +16911,7 @@
       </c>
       <c r="I11" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU4#0002</v>
+        <v>EUR_YC3MRH_FUT3MU4#0005</v>
       </c>
       <c r="J11" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -16958,7 +16949,7 @@
       </c>
       <c r="I12" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MV4#0002</v>
+        <v>EUR_YC3MRH_FUT3MV4#0005</v>
       </c>
       <c r="J12" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -16996,7 +16987,7 @@
       </c>
       <c r="I13" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MX4#0002</v>
+        <v>EUR_YC3MRH_FUT3MX4#0005</v>
       </c>
       <c r="J13" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -17034,7 +17025,7 @@
       </c>
       <c r="I14" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ4#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ4#0005</v>
       </c>
       <c r="J14" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -17148,7 +17139,7 @@
       </c>
       <c r="I17" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH5#0002</v>
+        <v>EUR_YC3MRH_FUT3MH5#0005</v>
       </c>
       <c r="J17" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -17262,7 +17253,7 @@
       </c>
       <c r="I20" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM5#0002</v>
+        <v>EUR_YC3MRH_FUT3MM5#0005</v>
       </c>
       <c r="J20" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -17376,7 +17367,7 @@
       </c>
       <c r="I23" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU5#0002</v>
+        <v>EUR_YC3MRH_FUT3MU5#0005</v>
       </c>
       <c r="J23" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -17490,7 +17481,7 @@
       </c>
       <c r="I26" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ5#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ5#0005</v>
       </c>
       <c r="J26" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -17604,7 +17595,7 @@
       </c>
       <c r="I29" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH6#0002</v>
+        <v>EUR_YC3MRH_FUT3MH6#0005</v>
       </c>
       <c r="J29" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -17718,7 +17709,7 @@
       </c>
       <c r="I32" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM6#0002</v>
+        <v>EUR_YC3MRH_FUT3MM6#0005</v>
       </c>
       <c r="J32" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -17832,7 +17823,7 @@
       </c>
       <c r="I35" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU6#0002</v>
+        <v>EUR_YC3MRH_FUT3MU6#0005</v>
       </c>
       <c r="J35" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -17946,7 +17937,7 @@
       </c>
       <c r="I38" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ6#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ6#0005</v>
       </c>
       <c r="J38" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -18059,7 +18050,7 @@
       </c>
       <c r="I41" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH7#0002</v>
+        <v>EUR_YC3MRH_FUT3MH7#0005</v>
       </c>
       <c r="J41" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -18170,7 +18161,7 @@
       </c>
       <c r="I44" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM7#0002</v>
+        <v>EUR_YC3MRH_FUT3MM7#0005</v>
       </c>
       <c r="J44" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -18281,7 +18272,7 @@
       </c>
       <c r="I47" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H47,$F47,$D47,$E47,$G47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU7#0002</v>
+        <v>EUR_YC3MRH_FUT3MU7#0005</v>
       </c>
       <c r="J47" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I47)</f>
@@ -18392,7 +18383,7 @@
       </c>
       <c r="I50" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H50,$F50,$D50,$E50,$G50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ7#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ7#0005</v>
       </c>
       <c r="J50" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I50)</f>
@@ -18503,7 +18494,7 @@
       </c>
       <c r="I53" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H53,$F53,$D53,$E53,$G53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH8#0002</v>
+        <v>EUR_YC3MRH_FUT3MH8#0005</v>
       </c>
       <c r="J53" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I53)</f>
@@ -18614,7 +18605,7 @@
       </c>
       <c r="I56" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H56,$F56,$D56,$E56,$G56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM8#0002</v>
+        <v>EUR_YC3MRH_FUT3MM8#0005</v>
       </c>
       <c r="J56" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I56)</f>
@@ -18725,7 +18716,7 @@
       </c>
       <c r="I59" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H59,$F59,$D59,$E59,$G59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU8#0002</v>
+        <v>EUR_YC3MRH_FUT3MU8#0005</v>
       </c>
       <c r="J59" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I59)</f>
@@ -18836,7 +18827,7 @@
       </c>
       <c r="I62" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H62,$F62,$D62,$E62,$G62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ8#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ8#0005</v>
       </c>
       <c r="J62" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I62)</f>
@@ -18947,7 +18938,7 @@
       </c>
       <c r="I65" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H65,$F65,$D65,$E65,$G65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH9#0002</v>
+        <v>EUR_YC3MRH_FUT3MH9#0005</v>
       </c>
       <c r="J65" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I65)</f>
@@ -19058,7 +19049,7 @@
       </c>
       <c r="I68" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H68,$F68,$D68,$E68,$G68,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM9#0002</v>
+        <v>EUR_YC3MRH_FUT3MM9#0005</v>
       </c>
       <c r="J68" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I68)</f>
@@ -19169,7 +19160,7 @@
       </c>
       <c r="I71" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H71,$F71,$D71,$E71,$G71,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU9#0002</v>
+        <v>EUR_YC3MRH_FUT3MU9#0005</v>
       </c>
       <c r="J71" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I71)</f>
@@ -19280,7 +19271,7 @@
       </c>
       <c r="I74" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H74,$F74,$D74,$E74,$G74,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ9#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ9#0005</v>
       </c>
       <c r="J74" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I74)</f>
@@ -19391,7 +19382,7 @@
       </c>
       <c r="I77" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H77,$F77,$D77,$E77,$G77,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH0#0002</v>
+        <v>EUR_YC3MRH_FUT3MH0#0005</v>
       </c>
       <c r="J77" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I77)</f>
@@ -19502,7 +19493,7 @@
       </c>
       <c r="I80" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H80,$F80,$D80,$E80,$G80,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM0#0002</v>
+        <v>EUR_YC3MRH_FUT3MM0#0005</v>
       </c>
       <c r="J80" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I80)</f>
@@ -19613,7 +19604,7 @@
       </c>
       <c r="I83" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H83,$F83,$D83,$E83,$G83,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU0#0002</v>
+        <v>EUR_YC3MRH_FUT3MU0#0005</v>
       </c>
       <c r="J83" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I83)</f>
@@ -19724,7 +19715,7 @@
       </c>
       <c r="I86" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H86,$F86,$D86,$E86,$G86,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ0#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ0#0005</v>
       </c>
       <c r="J86" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I86)</f>
@@ -19835,7 +19826,7 @@
       </c>
       <c r="I89" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H89,$F89,$D89,$E89,$G89,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH1#0002</v>
+        <v>EUR_YC3MRH_FUT3MH1#0005</v>
       </c>
       <c r="J89" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I89)</f>
@@ -19946,7 +19937,7 @@
       </c>
       <c r="I92" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H92,$F92,$D92,$E92,$G92,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM1#0002</v>
+        <v>EUR_YC3MRH_FUT3MM1#0005</v>
       </c>
       <c r="J92" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I92)</f>
@@ -20057,7 +20048,7 @@
       </c>
       <c r="I95" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H95,$F95,$D95,$E95,$G95,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU1#0002</v>
+        <v>EUR_YC3MRH_FUT3MU1#0005</v>
       </c>
       <c r="J95" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I95)</f>
@@ -20168,7 +20159,7 @@
       </c>
       <c r="I98" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H98,$F98,$D98,$E98,$G98,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ1#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ1#0005</v>
       </c>
       <c r="J98" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I98)</f>
@@ -20279,7 +20270,7 @@
       </c>
       <c r="I101" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H101,$F101,$D101,$E101,$G101,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH2#0002</v>
+        <v>EUR_YC3MRH_FUT3MH2#0005</v>
       </c>
       <c r="J101" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I101)</f>
@@ -20390,7 +20381,7 @@
       </c>
       <c r="I104" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H104,$F104,$D104,$E104,$G104,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM2#0002</v>
+        <v>EUR_YC3MRH_FUT3MM2#0005</v>
       </c>
       <c r="J104" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I104)</f>
@@ -21210,7 +21201,7 @@
       </c>
       <c r="L4" s="204" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC3MRH_AB3E_ibor3M#0002</v>
+        <v>EUR_YC3MRH_AB3E_ibor3M#0005</v>
       </c>
       <c r="M4" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -21274,7 +21265,7 @@
       </c>
       <c r="L6" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E1Y#0002</v>
+        <v>EUR_YC3MRH_AB3E1Y#0005</v>
       </c>
       <c r="M6" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -21329,7 +21320,7 @@
       </c>
       <c r="L7" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E15M#0002</v>
+        <v>EUR_YC3MRH_AB3E15M#0005</v>
       </c>
       <c r="M7" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -21384,7 +21375,7 @@
       </c>
       <c r="L8" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E18M#0002</v>
+        <v>EUR_YC3MRH_AB3E18M#0005</v>
       </c>
       <c r="M8" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -21439,7 +21430,7 @@
       </c>
       <c r="L9" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E21M#0002</v>
+        <v>EUR_YC3MRH_AB3E21M#0005</v>
       </c>
       <c r="M9" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -21494,7 +21485,7 @@
       </c>
       <c r="L10" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E2Y#0002</v>
+        <v>EUR_YC3MRH_AB3E2Y#0005</v>
       </c>
       <c r="M10" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -21549,7 +21540,7 @@
       </c>
       <c r="L11" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E3Y#0002</v>
+        <v>EUR_YC3MRH_AB3E3Y#0005</v>
       </c>
       <c r="M11" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -21595,7 +21586,7 @@
       </c>
       <c r="L12" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E4Y#0002</v>
+        <v>EUR_YC3MRH_AB3E4Y#0005</v>
       </c>
       <c r="M12" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -21641,7 +21632,7 @@
       </c>
       <c r="L13" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E5Y#0002</v>
+        <v>EUR_YC3MRH_AB3E5Y#0005</v>
       </c>
       <c r="M13" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -21687,7 +21678,7 @@
       </c>
       <c r="L14" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E6Y#0002</v>
+        <v>EUR_YC3MRH_AB3E6Y#0005</v>
       </c>
       <c r="M14" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -21733,7 +21724,7 @@
       </c>
       <c r="L15" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E7Y#0002</v>
+        <v>EUR_YC3MRH_AB3E7Y#0005</v>
       </c>
       <c r="M15" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -21779,7 +21770,7 @@
       </c>
       <c r="L16" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E8Y#0002</v>
+        <v>EUR_YC3MRH_AB3E8Y#0005</v>
       </c>
       <c r="M16" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -21825,7 +21816,7 @@
       </c>
       <c r="L17" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E9Y#0002</v>
+        <v>EUR_YC3MRH_AB3E9Y#0005</v>
       </c>
       <c r="M17" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -21871,7 +21862,7 @@
       </c>
       <c r="L18" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E10Y#0002</v>
+        <v>EUR_YC3MRH_AB3E10Y#0005</v>
       </c>
       <c r="M18" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -21917,7 +21908,7 @@
       </c>
       <c r="L19" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E11Y#0002</v>
+        <v>EUR_YC3MRH_AB3E11Y#0005</v>
       </c>
       <c r="M19" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -21963,7 +21954,7 @@
       </c>
       <c r="L20" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E12Y#0002</v>
+        <v>EUR_YC3MRH_AB3E12Y#0005</v>
       </c>
       <c r="M20" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -22009,7 +22000,7 @@
       </c>
       <c r="L21" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E13Y#0002</v>
+        <v>EUR_YC3MRH_AB3E13Y#0005</v>
       </c>
       <c r="M21" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -22055,7 +22046,7 @@
       </c>
       <c r="L22" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E14Y#0002</v>
+        <v>EUR_YC3MRH_AB3E14Y#0005</v>
       </c>
       <c r="M22" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -22101,7 +22092,7 @@
       </c>
       <c r="L23" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E15Y#0002</v>
+        <v>EUR_YC3MRH_AB3E15Y#0005</v>
       </c>
       <c r="M23" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -22147,7 +22138,7 @@
       </c>
       <c r="L24" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E16Y#0002</v>
+        <v>EUR_YC3MRH_AB3E16Y#0005</v>
       </c>
       <c r="M24" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -22193,7 +22184,7 @@
       </c>
       <c r="L25" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E17Y#0002</v>
+        <v>EUR_YC3MRH_AB3E17Y#0005</v>
       </c>
       <c r="M25" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -22239,7 +22230,7 @@
       </c>
       <c r="L26" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E18Y#0002</v>
+        <v>EUR_YC3MRH_AB3E18Y#0005</v>
       </c>
       <c r="M26" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -22285,7 +22276,7 @@
       </c>
       <c r="L27" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E19Y#0002</v>
+        <v>EUR_YC3MRH_AB3E19Y#0005</v>
       </c>
       <c r="M27" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -22331,7 +22322,7 @@
       </c>
       <c r="L28" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E20Y#0002</v>
+        <v>EUR_YC3MRH_AB3E20Y#0005</v>
       </c>
       <c r="M28" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -22377,7 +22368,7 @@
       </c>
       <c r="L29" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E21Y#0002</v>
+        <v>EUR_YC3MRH_AB3E21Y#0005</v>
       </c>
       <c r="M29" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -22423,7 +22414,7 @@
       </c>
       <c r="L30" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E22Y#0002</v>
+        <v>EUR_YC3MRH_AB3E22Y#0005</v>
       </c>
       <c r="M30" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -22469,7 +22460,7 @@
       </c>
       <c r="L31" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E23Y#0002</v>
+        <v>EUR_YC3MRH_AB3E23Y#0005</v>
       </c>
       <c r="M31" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -22515,7 +22506,7 @@
       </c>
       <c r="L32" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E24Y#0002</v>
+        <v>EUR_YC3MRH_AB3E24Y#0005</v>
       </c>
       <c r="M32" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -22561,7 +22552,7 @@
       </c>
       <c r="L33" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E25Y#0002</v>
+        <v>EUR_YC3MRH_AB3E25Y#0005</v>
       </c>
       <c r="M33" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -22607,7 +22598,7 @@
       </c>
       <c r="L34" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E26Y#0002</v>
+        <v>EUR_YC3MRH_AB3E26Y#0005</v>
       </c>
       <c r="M34" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -22653,7 +22644,7 @@
       </c>
       <c r="L35" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E27Y#0002</v>
+        <v>EUR_YC3MRH_AB3E27Y#0005</v>
       </c>
       <c r="M35" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -22699,7 +22690,7 @@
       </c>
       <c r="L36" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E28Y#0002</v>
+        <v>EUR_YC3MRH_AB3E28Y#0005</v>
       </c>
       <c r="M36" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -22745,7 +22736,7 @@
       </c>
       <c r="L37" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E29Y#0002</v>
+        <v>EUR_YC3MRH_AB3E29Y#0005</v>
       </c>
       <c r="M37" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -22791,7 +22782,7 @@
       </c>
       <c r="L38" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E30Y#0002</v>
+        <v>EUR_YC3MRH_AB3E30Y#0005</v>
       </c>
       <c r="M38" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -22837,7 +22828,7 @@
       </c>
       <c r="L39" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E35Y#0002</v>
+        <v>EUR_YC3MRH_AB3E35Y#0005</v>
       </c>
       <c r="M39" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -22883,7 +22874,7 @@
       </c>
       <c r="L40" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E40Y#0002</v>
+        <v>EUR_YC3MRH_AB3E40Y#0005</v>
       </c>
       <c r="M40" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -22929,7 +22920,7 @@
       </c>
       <c r="L41" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E50Y#0002</v>
+        <v>EUR_YC3MRH_AB3E50Y#0005</v>
       </c>
       <c r="M41" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -22975,7 +22966,7 @@
       </c>
       <c r="L42" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E60Y#0002</v>
+        <v>EUR_YC3MRH_AB3E60Y#0005</v>
       </c>
       <c r="M42" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -23033,7 +23024,7 @@
       </c>
       <c r="L44" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K44,$J44,$E44&amp;"M",Calendar,$F44,$G44,$H44,$L$4,$I44,B44,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S12#0002</v>
+        <v>EUR_YC3MRH_1S12#0005</v>
       </c>
       <c r="M44" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -23078,7 +23069,7 @@
       </c>
       <c r="L45" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K45,$J45,$E45&amp;"M",Calendar,$F45,$G45,$H45,$L$4,$I45,B45,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2S12#0002</v>
+        <v>EUR_YC3MRH_2S12#0005</v>
       </c>
       <c r="M45" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -23123,7 +23114,7 @@
       </c>
       <c r="L46" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K46,$J46,$E46&amp;"M",Calendar,$F46,$G46,$H46,$L$4,$I46,B46,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3S12#0002</v>
+        <v>EUR_YC3MRH_3S12#0005</v>
       </c>
       <c r="M46" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -23168,7 +23159,7 @@
       </c>
       <c r="L47" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K47,$J47,$E47&amp;"M",Calendar,$F47,$G47,$H47,$L$4,$I47,B47,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_4S12#0002</v>
+        <v>EUR_YC3MRH_4S12#0005</v>
       </c>
       <c r="M47" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -23213,7 +23204,7 @@
       </c>
       <c r="L48" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K48,$J48,$E48&amp;"M",Calendar,$F48,$G48,$H48,$L$4,$I48,B48,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S24#0002</v>
+        <v>EUR_YC3MRH_1S24#0005</v>
       </c>
       <c r="M48" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -23258,7 +23249,7 @@
       </c>
       <c r="L49" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K49,$J49,$E49&amp;"M",Calendar,$F49,$G49,$H49,$L$4,$I49,B49,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2S24#0002</v>
+        <v>EUR_YC3MRH_2S24#0005</v>
       </c>
       <c r="M49" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -23303,7 +23294,7 @@
       </c>
       <c r="L50" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K50,$J50,$E50&amp;"M",Calendar,$F50,$G50,$H50,$L$4,$I50,B50,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S36#0002</v>
+        <v>EUR_YC3MRH_1S36#0005</v>
       </c>
       <c r="M50" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -23477,7 +23468,7 @@
       </c>
       <c r="L4" s="204" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC3MRH_AB3EBASIS_ibor3M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS_ibor3M#0005</v>
       </c>
       <c r="M4" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -23541,7 +23532,7 @@
       </c>
       <c r="L6" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS1Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS1Y#0004</v>
       </c>
       <c r="M6" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -23590,7 +23581,7 @@
       </c>
       <c r="L7" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS15M#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS15M#0004</v>
       </c>
       <c r="M7" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -23639,7 +23630,7 @@
       </c>
       <c r="L8" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS18M#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS18M#0004</v>
       </c>
       <c r="M8" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -23688,7 +23679,7 @@
       </c>
       <c r="L9" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS21M#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS21M#0004</v>
       </c>
       <c r="M9" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -23737,7 +23728,7 @@
       </c>
       <c r="L10" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS2Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS2Y#0004</v>
       </c>
       <c r="M10" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -23795,7 +23786,7 @@
       </c>
       <c r="L11" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS3Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS3Y#0004</v>
       </c>
       <c r="M11" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -23853,7 +23844,7 @@
       </c>
       <c r="L12" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS4Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS4Y#0004</v>
       </c>
       <c r="M12" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -23911,7 +23902,7 @@
       </c>
       <c r="L13" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS5Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS5Y#0004</v>
       </c>
       <c r="M13" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -23969,7 +23960,7 @@
       </c>
       <c r="L14" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS6Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS6Y#0004</v>
       </c>
       <c r="M14" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -24027,7 +24018,7 @@
       </c>
       <c r="L15" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS7Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS7Y#0004</v>
       </c>
       <c r="M15" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -24079,7 +24070,7 @@
       </c>
       <c r="L16" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS8Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS8Y#0004</v>
       </c>
       <c r="M16" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -24128,7 +24119,7 @@
       </c>
       <c r="L17" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS9Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS9Y#0004</v>
       </c>
       <c r="M17" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -24177,7 +24168,7 @@
       </c>
       <c r="L18" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS10Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS10Y#0004</v>
       </c>
       <c r="M18" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -24226,7 +24217,7 @@
       </c>
       <c r="L19" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS11Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS11Y#0004</v>
       </c>
       <c r="M19" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -24275,7 +24266,7 @@
       </c>
       <c r="L20" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS12Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS12Y#0004</v>
       </c>
       <c r="M20" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -24324,7 +24315,7 @@
       </c>
       <c r="L21" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS13Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS13Y#0004</v>
       </c>
       <c r="M21" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -24373,7 +24364,7 @@
       </c>
       <c r="L22" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS14Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS14Y#0004</v>
       </c>
       <c r="M22" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -24422,7 +24413,7 @@
       </c>
       <c r="L23" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS15Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS15Y#0004</v>
       </c>
       <c r="M23" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -24471,7 +24462,7 @@
       </c>
       <c r="L24" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS16Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS16Y#0004</v>
       </c>
       <c r="M24" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -24520,7 +24511,7 @@
       </c>
       <c r="L25" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS17Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS17Y#0004</v>
       </c>
       <c r="M25" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -24569,7 +24560,7 @@
       </c>
       <c r="L26" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS18Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS18Y#0004</v>
       </c>
       <c r="M26" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -24618,7 +24609,7 @@
       </c>
       <c r="L27" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS19Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS19Y#0004</v>
       </c>
       <c r="M27" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -24667,7 +24658,7 @@
       </c>
       <c r="L28" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS20Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS20Y#0004</v>
       </c>
       <c r="M28" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -24716,7 +24707,7 @@
       </c>
       <c r="L29" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS21Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS21Y#0004</v>
       </c>
       <c r="M29" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -24765,7 +24756,7 @@
       </c>
       <c r="L30" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS22Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS22Y#0004</v>
       </c>
       <c r="M30" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -24814,7 +24805,7 @@
       </c>
       <c r="L31" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS23Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS23Y#0004</v>
       </c>
       <c r="M31" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -24863,7 +24854,7 @@
       </c>
       <c r="L32" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS24Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS24Y#0004</v>
       </c>
       <c r="M32" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -24912,7 +24903,7 @@
       </c>
       <c r="L33" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS25Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS25Y#0004</v>
       </c>
       <c r="M33" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -24961,7 +24952,7 @@
       </c>
       <c r="L34" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS26Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS26Y#0004</v>
       </c>
       <c r="M34" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -25010,7 +25001,7 @@
       </c>
       <c r="L35" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS27Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS27Y#0004</v>
       </c>
       <c r="M35" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -25059,7 +25050,7 @@
       </c>
       <c r="L36" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS28Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS28Y#0004</v>
       </c>
       <c r="M36" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -25108,7 +25099,7 @@
       </c>
       <c r="L37" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS29Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS29Y#0004</v>
       </c>
       <c r="M37" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -25157,7 +25148,7 @@
       </c>
       <c r="L38" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS30Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS30Y#0004</v>
       </c>
       <c r="M38" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -25206,7 +25197,7 @@
       </c>
       <c r="L39" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS35Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS35Y#0004</v>
       </c>
       <c r="M39" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -25255,7 +25246,7 @@
       </c>
       <c r="L40" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS40Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS40Y#0004</v>
       </c>
       <c r="M40" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -25304,7 +25295,7 @@
       </c>
       <c r="L41" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS50Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS50Y#0004</v>
       </c>
       <c r="M41" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -25353,7 +25344,7 @@
       </c>
       <c r="L42" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS60Y#0001</v>
+        <v>EUR_YC3MRH_AB3EBASIS60Y#0004</v>
       </c>
       <c r="M42" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/EUR_YC3MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YC3MBootstrapping.xlsx
@@ -1565,7 +1565,7 @@
     <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2036,6 +2036,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2637,19 +2643,19 @@
       </c>
     </row>
     <row r="2" spans="1:33" s="53" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="223" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="223"/>
-      <c r="K2" s="218" t="s">
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="225"/>
+      <c r="K2" s="220" t="s">
         <v>163</v>
       </c>
-      <c r="L2" s="219"/>
-      <c r="M2" s="219"/>
-      <c r="N2" s="220"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="222"/>
     </row>
     <row r="3" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
@@ -3007,7 +3013,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="86">
-        <v>41646.210173611114</v>
+        <v>41646.242615740739</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
@@ -3054,12 +3060,12 @@
       <c r="H12" s="53"/>
       <c r="I12" s="53"/>
       <c r="J12" s="53"/>
-      <c r="K12" s="218" t="s">
+      <c r="K12" s="220" t="s">
         <v>159</v>
       </c>
-      <c r="L12" s="219"/>
-      <c r="M12" s="219"/>
-      <c r="N12" s="220"/>
+      <c r="L12" s="221"/>
+      <c r="M12" s="221"/>
+      <c r="N12" s="222"/>
       <c r="O12" s="53"/>
       <c r="P12" s="53"/>
       <c r="Q12" s="53"/>
@@ -3123,7 +3129,7 @@
       </c>
       <c r="D14" s="83" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYC3M#0005</v>
+        <v>_EURYC3M#0007</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="57"/>
@@ -3338,12 +3344,12 @@
       <c r="H19" s="53"/>
       <c r="I19" s="53"/>
       <c r="J19" s="53"/>
-      <c r="K19" s="218" t="s">
+      <c r="K19" s="220" t="s">
         <v>163</v>
       </c>
-      <c r="L19" s="219"/>
-      <c r="M19" s="219"/>
-      <c r="N19" s="220"/>
+      <c r="L19" s="221"/>
+      <c r="M19" s="221"/>
+      <c r="N19" s="222"/>
       <c r="O19" s="53"/>
       <c r="P19" s="53"/>
       <c r="Q19" s="53"/>
@@ -3767,12 +3773,12 @@
       <c r="H29" s="53"/>
       <c r="I29" s="53"/>
       <c r="J29" s="53"/>
-      <c r="K29" s="218" t="s">
+      <c r="K29" s="220" t="s">
         <v>159</v>
       </c>
-      <c r="L29" s="219"/>
-      <c r="M29" s="219"/>
-      <c r="N29" s="220"/>
+      <c r="L29" s="221"/>
+      <c r="M29" s="221"/>
+      <c r="N29" s="222"/>
       <c r="O29" s="53"/>
       <c r="P29" s="53"/>
       <c r="Q29" s="53"/>
@@ -4026,12 +4032,12 @@
       <c r="H36" s="53"/>
       <c r="I36" s="53"/>
       <c r="J36" s="53"/>
-      <c r="K36" s="218" t="s">
+      <c r="K36" s="220" t="s">
         <v>163</v>
       </c>
-      <c r="L36" s="219"/>
-      <c r="M36" s="219"/>
-      <c r="N36" s="220"/>
+      <c r="L36" s="221"/>
+      <c r="M36" s="221"/>
+      <c r="N36" s="222"/>
       <c r="O36" s="53"/>
       <c r="P36" s="53"/>
       <c r="Q36" s="53"/>
@@ -4401,12 +4407,12 @@
       <c r="H46" s="53"/>
       <c r="I46" s="53"/>
       <c r="J46" s="53"/>
-      <c r="K46" s="218" t="s">
+      <c r="K46" s="220" t="s">
         <v>159</v>
       </c>
-      <c r="L46" s="219"/>
-      <c r="M46" s="219"/>
-      <c r="N46" s="220"/>
+      <c r="L46" s="221"/>
+      <c r="M46" s="221"/>
+      <c r="N46" s="222"/>
       <c r="O46" s="53"/>
       <c r="P46" s="53"/>
       <c r="Q46" s="53"/>
@@ -4660,12 +4666,12 @@
       <c r="H53" s="53"/>
       <c r="I53" s="53"/>
       <c r="J53" s="53"/>
-      <c r="K53" s="218" t="s">
+      <c r="K53" s="220" t="s">
         <v>163</v>
       </c>
-      <c r="L53" s="219"/>
-      <c r="M53" s="219"/>
-      <c r="N53" s="220"/>
+      <c r="L53" s="221"/>
+      <c r="M53" s="221"/>
+      <c r="N53" s="222"/>
       <c r="O53" s="53"/>
       <c r="P53" s="53"/>
       <c r="Q53" s="53"/>
@@ -5035,12 +5041,12 @@
       <c r="H63" s="53"/>
       <c r="I63" s="53"/>
       <c r="J63" s="53"/>
-      <c r="K63" s="218" t="s">
+      <c r="K63" s="220" t="s">
         <v>159</v>
       </c>
-      <c r="L63" s="219"/>
-      <c r="M63" s="219"/>
-      <c r="N63" s="220"/>
+      <c r="L63" s="221"/>
+      <c r="M63" s="221"/>
+      <c r="N63" s="222"/>
       <c r="O63" s="53"/>
       <c r="P63" s="53"/>
       <c r="Q63" s="53"/>
@@ -5302,12 +5308,12 @@
     </row>
     <row r="74" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K75" s="218" t="s">
+      <c r="K75" s="220" t="s">
         <v>163</v>
       </c>
-      <c r="L75" s="219"/>
-      <c r="M75" s="219"/>
-      <c r="N75" s="220"/>
+      <c r="L75" s="221"/>
+      <c r="M75" s="221"/>
+      <c r="N75" s="222"/>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="K76" s="136"/>
@@ -5387,12 +5393,12 @@
       <c r="N84" s="121"/>
     </row>
     <row r="85" spans="11:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K85" s="218" t="s">
+      <c r="K85" s="220" t="s">
         <v>159</v>
       </c>
-      <c r="L85" s="219"/>
-      <c r="M85" s="219"/>
-      <c r="N85" s="220"/>
+      <c r="L85" s="221"/>
+      <c r="M85" s="221"/>
+      <c r="N85" s="222"/>
     </row>
     <row r="86" spans="11:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K86" s="128"/>
@@ -5553,7 +5559,7 @@
     <col min="2" max="2" width="5" style="2" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="2" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="4.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" style="2" customWidth="1"/>
@@ -5568,11 +5574,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="226" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="226"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="228"/>
       <c r="E1" s="51" t="s">
         <v>83</v>
       </c>
@@ -5683,8 +5689,8 @@
         <v>73</v>
       </c>
       <c r="E4" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR_YC3MRH_SND</v>
+        <f>Deposits_3M!F3</f>
+        <v>EUR_YC3MRH_SND#0002</v>
       </c>
       <c r="F4" s="33">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
@@ -5722,8 +5728,8 @@
         <v>71</v>
       </c>
       <c r="E5" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR_YC3MRH_SWD</v>
+        <f>Deposits_3M!F4</f>
+        <v>EUR_YC3MRH_SWD#0002</v>
       </c>
       <c r="F5" s="33">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
@@ -5761,8 +5767,8 @@
         <v>69</v>
       </c>
       <c r="E6" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR_YC3MRH_2WD</v>
+        <f>Deposits_3M!F5</f>
+        <v>EUR_YC3MRH_2WD#0002</v>
       </c>
       <c r="F6" s="33">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
@@ -5800,8 +5806,8 @@
         <v>67</v>
       </c>
       <c r="E7" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR_YC3MRH_3WD</v>
+        <f>Deposits_3M!F6</f>
+        <v>EUR_YC3MRH_3WD#0002</v>
       </c>
       <c r="F7" s="33">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
@@ -5839,8 +5845,8 @@
         <v>65</v>
       </c>
       <c r="E8" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR_YC3MRH_1MD</v>
+        <f>Deposits_3M!F7</f>
+        <v>EUR_YC3MRH_1MD#0002</v>
       </c>
       <c r="F8" s="33">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
@@ -5878,8 +5884,8 @@
         <v>63</v>
       </c>
       <c r="E9" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR_YC3MRH_2MD</v>
+        <f>Deposits_3M!F8</f>
+        <v>EUR_YC3MRH_2MD#0002</v>
       </c>
       <c r="F9" s="33">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
@@ -5911,8 +5917,8 @@
         <v>62</v>
       </c>
       <c r="E10" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR_YC3MRH_3MD</v>
+        <f>Deposits_3M!F9</f>
+        <v>EUR_YC3MRH_3MD#0002</v>
       </c>
       <c r="F10" s="33">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
@@ -6117,8 +6123,8 @@
         <v>54</v>
       </c>
       <c r="E16" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR_YC3MRH_T3F1</v>
+        <f>FRAs_3M!H3</f>
+        <v>EUR_YC3MRH_T3F1#0002</v>
       </c>
       <c r="F16" s="41">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
@@ -6155,8 +6161,8 @@
         <v>54</v>
       </c>
       <c r="E17" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR_YC3MRH_TOM3F1</v>
+        <f>FRAs_3M!H4</f>
+        <v>EUR_YC3MRH_TOM3F1#0002</v>
       </c>
       <c r="F17" s="26">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
@@ -6879,8 +6885,8 @@
         <v>F4</v>
       </c>
       <c r="E36" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MF4</v>
+        <f>Futures_3M!I3</f>
+        <v>EUR_YC3MRH_FUT3MF4#0002</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -6921,8 +6927,8 @@
         <v>G4</v>
       </c>
       <c r="E37" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MG4</v>
+        <f>Futures_3M!I4</f>
+        <v>EUR_YC3MRH_FUT3MG4#0002</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -6963,8 +6969,8 @@
         <v>H4</v>
       </c>
       <c r="E38" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MH4</v>
+        <f>Futures_3M!I5</f>
+        <v>EUR_YC3MRH_FUT3MH4#0002</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -7005,8 +7011,8 @@
         <v>J4</v>
       </c>
       <c r="E39" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MJ4</v>
+        <f>Futures_3M!I6</f>
+        <v>EUR_YC3MRH_FUT3MJ4#0002</v>
       </c>
       <c r="F39" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -7047,8 +7053,8 @@
         <v>K4</v>
       </c>
       <c r="E40" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MK4</v>
+        <f>Futures_3M!I7</f>
+        <v>EUR_YC3MRH_FUT3MK4#0002</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -7089,8 +7095,8 @@
         <v>M4</v>
       </c>
       <c r="E41" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MM4</v>
+        <f>Futures_3M!I8</f>
+        <v>EUR_YC3MRH_FUT3MM4#0002</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -7131,8 +7137,8 @@
         <v>N4</v>
       </c>
       <c r="E42" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MN4</v>
+        <f>Futures_3M!I9</f>
+        <v>EUR_YC3MRH_FUT3MN4#0002</v>
       </c>
       <c r="F42" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -7173,8 +7179,8 @@
         <v>Q4</v>
       </c>
       <c r="E43" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MQ4</v>
+        <f>Futures_3M!I10</f>
+        <v>EUR_YC3MRH_FUT3MQ4#0002</v>
       </c>
       <c r="F43" s="48">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -7215,8 +7221,8 @@
         <v>U4</v>
       </c>
       <c r="E44" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MU4</v>
+        <f>Futures_3M!I11</f>
+        <v>EUR_YC3MRH_FUT3MU4#0002</v>
       </c>
       <c r="F44" s="48">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -7257,8 +7263,8 @@
         <v>V4</v>
       </c>
       <c r="E45" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MV4</v>
+        <f>Futures_3M!I12</f>
+        <v>EUR_YC3MRH_FUT3MV4#0002</v>
       </c>
       <c r="F45" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -7299,8 +7305,8 @@
         <v>X4</v>
       </c>
       <c r="E46" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MX4</v>
+        <f>Futures_3M!I13</f>
+        <v>EUR_YC3MRH_FUT3MX4#0002</v>
       </c>
       <c r="F46" s="48">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -7341,8 +7347,8 @@
         <v>Z4</v>
       </c>
       <c r="E47" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MZ4</v>
+        <f>Futures_3M!I14</f>
+        <v>EUR_YC3MRH_FUT3MZ4#0002</v>
       </c>
       <c r="F47" s="48">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -7383,8 +7389,8 @@
         <v>H5</v>
       </c>
       <c r="E48" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MH5</v>
+        <f>Futures_3M!I15</f>
+        <v>EUR_YC3MRH_FUT3MH5#0002</v>
       </c>
       <c r="F48" s="48">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
@@ -7425,8 +7431,8 @@
         <v>M5</v>
       </c>
       <c r="E49" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MM5</v>
+        <f>Futures_3M!I16</f>
+        <v>EUR_YC3MRH_FUT3MM5#0002</v>
       </c>
       <c r="F49" s="48">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -7467,8 +7473,8 @@
         <v>U5</v>
       </c>
       <c r="E50" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MU5</v>
+        <f>Futures_3M!I17</f>
+        <v>EUR_YC3MRH_FUT3MU5#0002</v>
       </c>
       <c r="F50" s="48">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
@@ -7509,8 +7515,8 @@
         <v>Z5</v>
       </c>
       <c r="E51" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MZ5</v>
+        <f>Futures_3M!I18</f>
+        <v>EUR_YC3MRH_FUT3MZ5#0002</v>
       </c>
       <c r="F51" s="48">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
@@ -7551,8 +7557,8 @@
         <v>H6</v>
       </c>
       <c r="E52" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MH6</v>
+        <f>Futures_3M!I19</f>
+        <v>EUR_YC3MRH_FUT3MH6#0002</v>
       </c>
       <c r="F52" s="48">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
@@ -7593,8 +7599,8 @@
         <v>M6</v>
       </c>
       <c r="E53" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MM6</v>
+        <f>Futures_3M!I20</f>
+        <v>EUR_YC3MRH_FUT3MM6#0002</v>
       </c>
       <c r="F53" s="48">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
@@ -7635,8 +7641,8 @@
         <v>U6</v>
       </c>
       <c r="E54" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MU6</v>
+        <f>Futures_3M!I21</f>
+        <v>EUR_YC3MRH_FUT3MU6#0002</v>
       </c>
       <c r="F54" s="48">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
@@ -7677,8 +7683,8 @@
         <v>Z6</v>
       </c>
       <c r="E55" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MZ6</v>
+        <f>Futures_3M!I22</f>
+        <v>EUR_YC3MRH_FUT3MZ6#0002</v>
       </c>
       <c r="F55" s="48">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
@@ -7719,8 +7725,8 @@
         <v>H7</v>
       </c>
       <c r="E56" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MH7</v>
+        <f>Futures_3M!I23</f>
+        <v>EUR_YC3MRH_FUT3MH7#0002</v>
       </c>
       <c r="F56" s="48">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
@@ -7761,8 +7767,8 @@
         <v>M7</v>
       </c>
       <c r="E57" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MM7</v>
+        <f>Futures_3M!I24</f>
+        <v>EUR_YC3MRH_FUT3MM7#0002</v>
       </c>
       <c r="F57" s="48">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
@@ -7803,8 +7809,8 @@
         <v>U7</v>
       </c>
       <c r="E58" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MU7</v>
+        <f>Futures_3M!I25</f>
+        <v>EUR_YC3MRH_FUT3MU7#0002</v>
       </c>
       <c r="F58" s="48">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
@@ -7845,8 +7851,8 @@
         <v>Z7</v>
       </c>
       <c r="E59" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MZ7</v>
+        <f>Futures_3M!I26</f>
+        <v>EUR_YC3MRH_FUT3MZ7#0002</v>
       </c>
       <c r="F59" s="48">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
@@ -7887,8 +7893,8 @@
         <v>H8</v>
       </c>
       <c r="E60" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MH8</v>
+        <f>Futures_3M!I27</f>
+        <v>EUR_YC3MRH_FUT3MH8#0002</v>
       </c>
       <c r="F60" s="48">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
@@ -7929,8 +7935,8 @@
         <v>M8</v>
       </c>
       <c r="E61" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MM8</v>
+        <f>Futures_3M!I28</f>
+        <v>EUR_YC3MRH_FUT3MM8#0002</v>
       </c>
       <c r="F61" s="48">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
@@ -7971,8 +7977,8 @@
         <v>U8</v>
       </c>
       <c r="E62" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MU8</v>
+        <f>Futures_3M!I29</f>
+        <v>EUR_YC3MRH_FUT3MU8#0002</v>
       </c>
       <c r="F62" s="48">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
@@ -8013,8 +8019,8 @@
         <v>Z8</v>
       </c>
       <c r="E63" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MZ8</v>
+        <f>Futures_3M!I30</f>
+        <v>EUR_YC3MRH_FUT3MZ8#0002</v>
       </c>
       <c r="F63" s="48">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
@@ -8055,8 +8061,8 @@
         <v>H9</v>
       </c>
       <c r="E64" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MH9</v>
+        <f>Futures_3M!I31</f>
+        <v>EUR_YC3MRH_FUT3MH9#0002</v>
       </c>
       <c r="F64" s="48">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
@@ -8097,8 +8103,8 @@
         <v>M9</v>
       </c>
       <c r="E65" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>EUR_YC3MRH_FUT3MM9</v>
+        <f>Futures_3M!I32</f>
+        <v>EUR_YC3MRH_FUT3MM9#0002</v>
       </c>
       <c r="F65" s="48">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
@@ -8139,8 +8145,8 @@
         <v>U9</v>
       </c>
       <c r="E66" s="34" t="str">
-        <f t="shared" ref="E66:E97" si="4">RateHelperPrefix&amp;"_"&amp;$B66&amp;$C66&amp;$D66</f>
-        <v>EUR_YC3MRH_FUT3MU9</v>
+        <f>Futures_3M!I33</f>
+        <v>EUR_YC3MRH_FUT3MU9#0002</v>
       </c>
       <c r="F66" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
@@ -8181,8 +8187,8 @@
         <v>Z9</v>
       </c>
       <c r="E67" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v>EUR_YC3MRH_FUT3MZ9</v>
+        <f>Futures_3M!I34</f>
+        <v>EUR_YC3MRH_FUT3MZ9#0002</v>
       </c>
       <c r="F67" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
@@ -8223,8 +8229,8 @@
         <v>H0</v>
       </c>
       <c r="E68" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v>EUR_YC3MRH_FUT3MH0</v>
+        <f>Futures_3M!I35</f>
+        <v>EUR_YC3MRH_FUT3MH0#0002</v>
       </c>
       <c r="F68" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
@@ -8265,8 +8271,8 @@
         <v>M0</v>
       </c>
       <c r="E69" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v>EUR_YC3MRH_FUT3MM0</v>
+        <f>Futures_3M!I36</f>
+        <v>EUR_YC3MRH_FUT3MM0#0002</v>
       </c>
       <c r="F69" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
@@ -8307,8 +8313,8 @@
         <v>U0</v>
       </c>
       <c r="E70" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v>EUR_YC3MRH_FUT3MU0</v>
+        <f>Futures_3M!I37</f>
+        <v>EUR_YC3MRH_FUT3MU0#0002</v>
       </c>
       <c r="F70" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
@@ -8349,8 +8355,8 @@
         <v>Z0</v>
       </c>
       <c r="E71" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v>EUR_YC3MRH_FUT3MZ0</v>
+        <f>Futures_3M!I38</f>
+        <v>EUR_YC3MRH_FUT3MZ0#0002</v>
       </c>
       <c r="F71" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
@@ -8391,8 +8397,8 @@
         <v>H1</v>
       </c>
       <c r="E72" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v>EUR_YC3MRH_FUT3MH1</v>
+        <f>Futures_3M!I39</f>
+        <v>EUR_YC3MRH_FUT3MH1#0002</v>
       </c>
       <c r="F72" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
@@ -8433,8 +8439,8 @@
         <v>M1</v>
       </c>
       <c r="E73" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v>EUR_YC3MRH_FUT3MM1</v>
+        <f>Futures_3M!I40</f>
+        <v>EUR_YC3MRH_FUT3MM1#0002</v>
       </c>
       <c r="F73" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
@@ -8475,8 +8481,8 @@
         <v>U1</v>
       </c>
       <c r="E74" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v>EUR_YC3MRH_FUT3MU1</v>
+        <f>Futures_3M!I41</f>
+        <v>EUR_YC3MRH_FUT3MU1#0002</v>
       </c>
       <c r="F74" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
@@ -8517,8 +8523,8 @@
         <v>Z1</v>
       </c>
       <c r="E75" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v>EUR_YC3MRH_FUT3MZ1</v>
+        <f>Futures_3M!I42</f>
+        <v>EUR_YC3MRH_FUT3MZ1#0002</v>
       </c>
       <c r="F75" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
@@ -8559,8 +8565,8 @@
         <v>H2</v>
       </c>
       <c r="E76" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v>EUR_YC3MRH_FUT3MH2</v>
+        <f>Futures_3M!I43</f>
+        <v>EUR_YC3MRH_FUT3MH2#0002</v>
       </c>
       <c r="F76" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
@@ -8601,8 +8607,8 @@
         <v>M2</v>
       </c>
       <c r="E77" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>EUR_YC3MRH_FUT3MM2</v>
+        <f>Futures_3M!I44</f>
+        <v>EUR_YC3MRH_FUT3MM2#0002</v>
       </c>
       <c r="F77" s="47" t="e">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
@@ -8640,7 +8646,7 @@
         <v>52</v>
       </c>
       <c r="E78" s="42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E66:E97" si="4">RateHelperPrefix&amp;"_"&amp;$B78&amp;$C78&amp;$D78</f>
         <v>EUR_YC3MRH_2X1S</v>
       </c>
       <c r="F78" s="41" t="e">
@@ -9330,8 +9336,8 @@
         <v>47</v>
       </c>
       <c r="E96" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v>EUR_YC3MRH_AB3E1Y</v>
+        <f>Swaps_3M!L6</f>
+        <v>EUR_YC3MRH_AB3E1Y#0002</v>
       </c>
       <c r="F96" s="33">
         <f>_xll.qlRateHelperQuoteValue($E96,Trigger)</f>
@@ -9376,8 +9382,8 @@
         <v>46</v>
       </c>
       <c r="E97" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v>EUR_YC3MRH_AB3E15M</v>
+        <f>Swaps_3M!L7</f>
+        <v>EUR_YC3MRH_AB3E15M#0002</v>
       </c>
       <c r="F97" s="33">
         <f>_xll.qlRateHelperQuoteValue($E97,Trigger)</f>
@@ -9422,8 +9428,8 @@
         <v>45</v>
       </c>
       <c r="E98" s="34" t="str">
-        <f t="shared" ref="E98:E129" si="8">RateHelperPrefix&amp;"_"&amp;$B98&amp;$C98&amp;$D98</f>
-        <v>EUR_YC3MRH_AB3E18M</v>
+        <f>Swaps_3M!L8</f>
+        <v>EUR_YC3MRH_AB3E18M#0002</v>
       </c>
       <c r="F98" s="33">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
@@ -9468,8 +9474,8 @@
         <v>44</v>
       </c>
       <c r="E99" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E21M</v>
+        <f>Swaps_3M!L9</f>
+        <v>EUR_YC3MRH_AB3E21M#0002</v>
       </c>
       <c r="F99" s="33">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
@@ -9514,8 +9520,8 @@
         <v>43</v>
       </c>
       <c r="E100" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E2Y</v>
+        <f>Swaps_3M!L10</f>
+        <v>EUR_YC3MRH_AB3E2Y#0002</v>
       </c>
       <c r="F100" s="33">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
@@ -9560,8 +9566,8 @@
         <v>42</v>
       </c>
       <c r="E101" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E3Y</v>
+        <f>Swaps_3M!L11</f>
+        <v>EUR_YC3MRH_AB3E3Y#0002</v>
       </c>
       <c r="F101" s="33">
         <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
@@ -9606,8 +9612,8 @@
         <v>41</v>
       </c>
       <c r="E102" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E4Y</v>
+        <f>Swaps_3M!L12</f>
+        <v>EUR_YC3MRH_AB3E4Y#0002</v>
       </c>
       <c r="F102" s="33">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
@@ -9652,8 +9658,8 @@
         <v>40</v>
       </c>
       <c r="E103" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E5Y</v>
+        <f>Swaps_3M!L13</f>
+        <v>EUR_YC3MRH_AB3E5Y#0002</v>
       </c>
       <c r="F103" s="33">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
@@ -9698,8 +9704,8 @@
         <v>39</v>
       </c>
       <c r="E104" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E6Y</v>
+        <f>Swaps_3M!L14</f>
+        <v>EUR_YC3MRH_AB3E6Y#0002</v>
       </c>
       <c r="F104" s="33">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
@@ -9744,8 +9750,8 @@
         <v>38</v>
       </c>
       <c r="E105" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E7Y</v>
+        <f>Swaps_3M!L15</f>
+        <v>EUR_YC3MRH_AB3E7Y#0002</v>
       </c>
       <c r="F105" s="33">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
@@ -9790,8 +9796,8 @@
         <v>37</v>
       </c>
       <c r="E106" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E8Y</v>
+        <f>Swaps_3M!L16</f>
+        <v>EUR_YC3MRH_AB3E8Y#0002</v>
       </c>
       <c r="F106" s="33">
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
@@ -9836,8 +9842,8 @@
         <v>36</v>
       </c>
       <c r="E107" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E9Y</v>
+        <f>Swaps_3M!L17</f>
+        <v>EUR_YC3MRH_AB3E9Y#0002</v>
       </c>
       <c r="F107" s="33">
         <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
@@ -9882,8 +9888,8 @@
         <v>35</v>
       </c>
       <c r="E108" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E10Y</v>
+        <f>Swaps_3M!L18</f>
+        <v>EUR_YC3MRH_AB3E10Y#0002</v>
       </c>
       <c r="F108" s="33">
         <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
@@ -9928,8 +9934,8 @@
         <v>34</v>
       </c>
       <c r="E109" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E11Y</v>
+        <f>Swaps_3M!L19</f>
+        <v>EUR_YC3MRH_AB3E11Y#0002</v>
       </c>
       <c r="F109" s="33">
         <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
@@ -9974,8 +9980,8 @@
         <v>33</v>
       </c>
       <c r="E110" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E12Y</v>
+        <f>Swaps_3M!L20</f>
+        <v>EUR_YC3MRH_AB3E12Y#0002</v>
       </c>
       <c r="F110" s="33">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
@@ -10020,8 +10026,8 @@
         <v>32</v>
       </c>
       <c r="E111" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E13Y</v>
+        <f>Swaps_3M!L21</f>
+        <v>EUR_YC3MRH_AB3E13Y#0002</v>
       </c>
       <c r="F111" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E111,Trigger)</f>
@@ -10066,8 +10072,8 @@
         <v>31</v>
       </c>
       <c r="E112" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E14Y</v>
+        <f>Swaps_3M!L22</f>
+        <v>EUR_YC3MRH_AB3E14Y#0002</v>
       </c>
       <c r="F112" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
@@ -10112,8 +10118,8 @@
         <v>30</v>
       </c>
       <c r="E113" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E15Y</v>
+        <f>Swaps_3M!L23</f>
+        <v>EUR_YC3MRH_AB3E15Y#0002</v>
       </c>
       <c r="F113" s="33">
         <f>_xll.qlRateHelperQuoteValue($E113,Trigger)</f>
@@ -10158,8 +10164,8 @@
         <v>29</v>
       </c>
       <c r="E114" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E16Y</v>
+        <f>Swaps_3M!L24</f>
+        <v>EUR_YC3MRH_AB3E16Y#0002</v>
       </c>
       <c r="F114" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E114,Trigger)</f>
@@ -10204,8 +10210,8 @@
         <v>28</v>
       </c>
       <c r="E115" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E17Y</v>
+        <f>Swaps_3M!L25</f>
+        <v>EUR_YC3MRH_AB3E17Y#0002</v>
       </c>
       <c r="F115" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
@@ -10250,8 +10256,8 @@
         <v>27</v>
       </c>
       <c r="E116" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E18Y</v>
+        <f>Swaps_3M!L26</f>
+        <v>EUR_YC3MRH_AB3E18Y#0002</v>
       </c>
       <c r="F116" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E116,Trigger)</f>
@@ -10296,8 +10302,8 @@
         <v>26</v>
       </c>
       <c r="E117" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E19Y</v>
+        <f>Swaps_3M!L27</f>
+        <v>EUR_YC3MRH_AB3E19Y#0002</v>
       </c>
       <c r="F117" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E117,Trigger)</f>
@@ -10342,8 +10348,8 @@
         <v>25</v>
       </c>
       <c r="E118" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E20Y</v>
+        <f>Swaps_3M!L28</f>
+        <v>EUR_YC3MRH_AB3E20Y#0002</v>
       </c>
       <c r="F118" s="33">
         <f>_xll.qlRateHelperQuoteValue($E118,Trigger)</f>
@@ -10388,8 +10394,8 @@
         <v>24</v>
       </c>
       <c r="E119" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E21Y</v>
+        <f>Swaps_3M!L29</f>
+        <v>EUR_YC3MRH_AB3E21Y#0002</v>
       </c>
       <c r="F119" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E119,Trigger)</f>
@@ -10434,8 +10440,8 @@
         <v>23</v>
       </c>
       <c r="E120" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E22Y</v>
+        <f>Swaps_3M!L30</f>
+        <v>EUR_YC3MRH_AB3E22Y#0002</v>
       </c>
       <c r="F120" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
@@ -10480,8 +10486,8 @@
         <v>22</v>
       </c>
       <c r="E121" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E23Y</v>
+        <f>Swaps_3M!L31</f>
+        <v>EUR_YC3MRH_AB3E23Y#0002</v>
       </c>
       <c r="F121" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
@@ -10526,8 +10532,8 @@
         <v>21</v>
       </c>
       <c r="E122" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E24Y</v>
+        <f>Swaps_3M!L32</f>
+        <v>EUR_YC3MRH_AB3E24Y#0002</v>
       </c>
       <c r="F122" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
@@ -10572,8 +10578,8 @@
         <v>20</v>
       </c>
       <c r="E123" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E25Y</v>
+        <f>Swaps_3M!L33</f>
+        <v>EUR_YC3MRH_AB3E25Y#0002</v>
       </c>
       <c r="F123" s="33">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
@@ -10618,8 +10624,8 @@
         <v>19</v>
       </c>
       <c r="E124" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E26Y</v>
+        <f>Swaps_3M!L34</f>
+        <v>EUR_YC3MRH_AB3E26Y#0002</v>
       </c>
       <c r="F124" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E124,Trigger)</f>
@@ -10664,8 +10670,8 @@
         <v>18</v>
       </c>
       <c r="E125" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E27Y</v>
+        <f>Swaps_3M!L35</f>
+        <v>EUR_YC3MRH_AB3E27Y#0002</v>
       </c>
       <c r="F125" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
@@ -10710,8 +10716,8 @@
         <v>17</v>
       </c>
       <c r="E126" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E28Y</v>
+        <f>Swaps_3M!L36</f>
+        <v>EUR_YC3MRH_AB3E28Y#0002</v>
       </c>
       <c r="F126" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
@@ -10756,8 +10762,8 @@
         <v>16</v>
       </c>
       <c r="E127" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E29Y</v>
+        <f>Swaps_3M!L37</f>
+        <v>EUR_YC3MRH_AB3E29Y#0002</v>
       </c>
       <c r="F127" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
@@ -10791,7 +10797,7 @@
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B128" s="36" t="str">
-        <f t="shared" ref="B128:B159" si="9">SwapFixedFreq</f>
+        <f t="shared" ref="B128:B159" si="8">SwapFixedFreq</f>
         <v>AB</v>
       </c>
       <c r="C128" s="35" t="str">
@@ -10802,8 +10808,8 @@
         <v>15</v>
       </c>
       <c r="E128" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E30Y</v>
+        <f>Swaps_3M!L38</f>
+        <v>EUR_YC3MRH_AB3E30Y#0002</v>
       </c>
       <c r="F128" s="33">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
@@ -10837,7 +10843,7 @@
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B129" s="36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>AB</v>
       </c>
       <c r="C129" s="35" t="str">
@@ -10848,8 +10854,8 @@
         <v>14</v>
       </c>
       <c r="E129" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>EUR_YC3MRH_AB3E35Y</v>
+        <f>Swaps_3M!L39</f>
+        <v>EUR_YC3MRH_AB3E35Y#0002</v>
       </c>
       <c r="F129" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
@@ -10883,7 +10889,7 @@
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B130" s="36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>AB</v>
       </c>
       <c r="C130" s="35" t="str">
@@ -10894,8 +10900,8 @@
         <v>13</v>
       </c>
       <c r="E130" s="34" t="str">
-        <f t="shared" ref="E130:E161" si="10">RateHelperPrefix&amp;"_"&amp;$B130&amp;$C130&amp;$D130</f>
-        <v>EUR_YC3MRH_AB3E40Y</v>
+        <f>Swaps_3M!L40</f>
+        <v>EUR_YC3MRH_AB3E40Y#0002</v>
       </c>
       <c r="F130" s="33">
         <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
@@ -10929,7 +10935,7 @@
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B131" s="36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>AB</v>
       </c>
       <c r="C131" s="35" t="str">
@@ -10940,8 +10946,8 @@
         <v>12</v>
       </c>
       <c r="E131" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3E50Y</v>
+        <f>Swaps_3M!L41</f>
+        <v>EUR_YC3MRH_AB3E50Y#0002</v>
       </c>
       <c r="F131" s="33">
         <f>_xll.qlRateHelperQuoteValue($E131,Trigger)</f>
@@ -10975,7 +10981,7 @@
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B132" s="29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>AB</v>
       </c>
       <c r="C132" s="28" t="str">
@@ -10986,8 +10992,8 @@
         <v>11</v>
       </c>
       <c r="E132" s="27" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3E60Y</v>
+        <f>Swaps_3M!L42</f>
+        <v>EUR_YC3MRH_AB3E60Y#0002</v>
       </c>
       <c r="F132" s="26">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
@@ -11021,19 +11027,19 @@
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B133" s="36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>AB</v>
       </c>
       <c r="C133" s="35" t="str">
-        <f t="shared" ref="C133:C169" si="11">IborType&amp;"BASIS"</f>
+        <f t="shared" ref="C133:C169" si="9">IborType&amp;"BASIS"</f>
         <v>3EBASIS</v>
       </c>
       <c r="D133" s="34" t="s">
         <v>47</v>
       </c>
       <c r="E133" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS1Y</v>
+        <f>SwapsFromBasis_3M!L6</f>
+        <v>EUR_YC3MRH_AB3EBASIS1Y#0001</v>
       </c>
       <c r="F133" s="33">
         <f>_xll.qlRateHelperQuoteValue($E133,Trigger)</f>
@@ -11063,19 +11069,19 @@
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B134" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C134" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C134" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D134" s="34" t="s">
         <v>46</v>
       </c>
       <c r="E134" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS15M</v>
+        <f>SwapsFromBasis_3M!L7</f>
+        <v>EUR_YC3MRH_AB3EBASIS15M#0001</v>
       </c>
       <c r="F134" s="33">
         <f>_xll.qlRateHelperQuoteValue($E134,Trigger)</f>
@@ -11105,19 +11111,19 @@
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B135" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C135" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C135" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D135" s="34" t="s">
         <v>45</v>
       </c>
       <c r="E135" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS18M</v>
+        <f>SwapsFromBasis_3M!L8</f>
+        <v>EUR_YC3MRH_AB3EBASIS18M#0001</v>
       </c>
       <c r="F135" s="33">
         <f>_xll.qlRateHelperQuoteValue($E135,Trigger)</f>
@@ -11147,19 +11153,19 @@
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B136" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C136" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C136" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D136" s="34" t="s">
         <v>44</v>
       </c>
       <c r="E136" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS21M</v>
+        <f>SwapsFromBasis_3M!L9</f>
+        <v>EUR_YC3MRH_AB3EBASIS21M#0001</v>
       </c>
       <c r="F136" s="33">
         <f>_xll.qlRateHelperQuoteValue($E136,Trigger)</f>
@@ -11189,19 +11195,19 @@
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B137" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C137" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C137" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D137" s="34" t="s">
         <v>43</v>
       </c>
       <c r="E137" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS2Y</v>
+        <f>SwapsFromBasis_3M!L10</f>
+        <v>EUR_YC3MRH_AB3EBASIS2Y#0001</v>
       </c>
       <c r="F137" s="33">
         <f>_xll.qlRateHelperQuoteValue($E137,Trigger)</f>
@@ -11231,19 +11237,19 @@
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B138" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C138" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C138" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D138" s="34" t="s">
         <v>42</v>
       </c>
       <c r="E138" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS3Y</v>
+        <f>SwapsFromBasis_3M!L11</f>
+        <v>EUR_YC3MRH_AB3EBASIS3Y#0001</v>
       </c>
       <c r="F138" s="33">
         <f>_xll.qlRateHelperQuoteValue($E138,Trigger)</f>
@@ -11273,19 +11279,19 @@
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B139" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C139" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C139" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D139" s="34" t="s">
         <v>41</v>
       </c>
       <c r="E139" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS4Y</v>
+        <f>SwapsFromBasis_3M!L12</f>
+        <v>EUR_YC3MRH_AB3EBASIS4Y#0001</v>
       </c>
       <c r="F139" s="33">
         <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
@@ -11315,19 +11321,19 @@
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B140" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C140" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C140" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D140" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E140" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS5Y</v>
+        <f>SwapsFromBasis_3M!L13</f>
+        <v>EUR_YC3MRH_AB3EBASIS5Y#0001</v>
       </c>
       <c r="F140" s="33">
         <f>_xll.qlRateHelperQuoteValue($E140,Trigger)</f>
@@ -11357,19 +11363,19 @@
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B141" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C141" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C141" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D141" s="34" t="s">
         <v>39</v>
       </c>
       <c r="E141" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS6Y</v>
+        <f>SwapsFromBasis_3M!L14</f>
+        <v>EUR_YC3MRH_AB3EBASIS6Y#0001</v>
       </c>
       <c r="F141" s="33">
         <f>_xll.qlRateHelperQuoteValue($E141,Trigger)</f>
@@ -11399,19 +11405,19 @@
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B142" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C142" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C142" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D142" s="34" t="s">
         <v>38</v>
       </c>
       <c r="E142" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS7Y</v>
+        <f>SwapsFromBasis_3M!L15</f>
+        <v>EUR_YC3MRH_AB3EBASIS7Y#0001</v>
       </c>
       <c r="F142" s="33">
         <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
@@ -11441,19 +11447,19 @@
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B143" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C143" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C143" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D143" s="34" t="s">
         <v>37</v>
       </c>
       <c r="E143" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS8Y</v>
+        <f>SwapsFromBasis_3M!L16</f>
+        <v>EUR_YC3MRH_AB3EBASIS8Y#0001</v>
       </c>
       <c r="F143" s="33">
         <f>_xll.qlRateHelperQuoteValue($E143,Trigger)</f>
@@ -11483,19 +11489,19 @@
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B144" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C144" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C144" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D144" s="34" t="s">
         <v>36</v>
       </c>
       <c r="E144" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS9Y</v>
+        <f>SwapsFromBasis_3M!L17</f>
+        <v>EUR_YC3MRH_AB3EBASIS9Y#0001</v>
       </c>
       <c r="F144" s="33">
         <f>_xll.qlRateHelperQuoteValue($E144,Trigger)</f>
@@ -11525,19 +11531,19 @@
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B145" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C145" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C145" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D145" s="34" t="s">
         <v>35</v>
       </c>
       <c r="E145" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS10Y</v>
+        <f>SwapsFromBasis_3M!L18</f>
+        <v>EUR_YC3MRH_AB3EBASIS10Y#0001</v>
       </c>
       <c r="F145" s="33">
         <f>_xll.qlRateHelperQuoteValue($E145,Trigger)</f>
@@ -11567,19 +11573,19 @@
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B146" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C146" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C146" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D146" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E146" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS11Y</v>
+        <f>SwapsFromBasis_3M!L19</f>
+        <v>EUR_YC3MRH_AB3EBASIS11Y#0001</v>
       </c>
       <c r="F146" s="33">
         <f>_xll.qlRateHelperQuoteValue($E146,Trigger)</f>
@@ -11609,19 +11615,19 @@
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B147" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C147" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C147" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D147" s="34" t="s">
         <v>33</v>
       </c>
       <c r="E147" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS12Y</v>
+        <f>SwapsFromBasis_3M!L20</f>
+        <v>EUR_YC3MRH_AB3EBASIS12Y#0001</v>
       </c>
       <c r="F147" s="33">
         <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
@@ -11651,19 +11657,19 @@
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B148" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C148" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C148" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D148" s="34" t="s">
         <v>32</v>
       </c>
       <c r="E148" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS13Y</v>
+        <f>SwapsFromBasis_3M!L21</f>
+        <v>EUR_YC3MRH_AB3EBASIS13Y#0001</v>
       </c>
       <c r="F148" s="33">
         <f>_xll.qlRateHelperQuoteValue($E148,Trigger)</f>
@@ -11693,19 +11699,19 @@
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B149" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C149" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C149" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D149" s="34" t="s">
         <v>31</v>
       </c>
       <c r="E149" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS14Y</v>
+        <f>SwapsFromBasis_3M!L22</f>
+        <v>EUR_YC3MRH_AB3EBASIS14Y#0001</v>
       </c>
       <c r="F149" s="33">
         <f>_xll.qlRateHelperQuoteValue($E149,Trigger)</f>
@@ -11735,19 +11741,19 @@
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B150" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C150" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C150" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D150" s="34" t="s">
         <v>30</v>
       </c>
       <c r="E150" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS15Y</v>
+        <f>SwapsFromBasis_3M!L23</f>
+        <v>EUR_YC3MRH_AB3EBASIS15Y#0001</v>
       </c>
       <c r="F150" s="33">
         <f>_xll.qlRateHelperQuoteValue($E150,Trigger)</f>
@@ -11777,19 +11783,19 @@
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B151" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C151" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C151" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D151" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E151" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS16Y</v>
+        <f>SwapsFromBasis_3M!L24</f>
+        <v>EUR_YC3MRH_AB3EBASIS16Y#0001</v>
       </c>
       <c r="F151" s="33">
         <f>_xll.qlRateHelperQuoteValue($E151,Trigger)</f>
@@ -11819,19 +11825,19 @@
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B152" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C152" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C152" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D152" s="34" t="s">
         <v>28</v>
       </c>
       <c r="E152" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS17Y</v>
+        <f>SwapsFromBasis_3M!L25</f>
+        <v>EUR_YC3MRH_AB3EBASIS17Y#0001</v>
       </c>
       <c r="F152" s="33">
         <f>_xll.qlRateHelperQuoteValue($E152,Trigger)</f>
@@ -11861,19 +11867,19 @@
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B153" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C153" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C153" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D153" s="34" t="s">
         <v>27</v>
       </c>
       <c r="E153" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS18Y</v>
+        <f>SwapsFromBasis_3M!L26</f>
+        <v>EUR_YC3MRH_AB3EBASIS18Y#0001</v>
       </c>
       <c r="F153" s="33">
         <f>_xll.qlRateHelperQuoteValue($E153,Trigger)</f>
@@ -11903,19 +11909,19 @@
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B154" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C154" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C154" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D154" s="34" t="s">
         <v>26</v>
       </c>
       <c r="E154" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS19Y</v>
+        <f>SwapsFromBasis_3M!L27</f>
+        <v>EUR_YC3MRH_AB3EBASIS19Y#0001</v>
       </c>
       <c r="F154" s="33">
         <f>_xll.qlRateHelperQuoteValue($E154,Trigger)</f>
@@ -11945,19 +11951,19 @@
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B155" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C155" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C155" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D155" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E155" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS20Y</v>
+        <f>SwapsFromBasis_3M!L28</f>
+        <v>EUR_YC3MRH_AB3EBASIS20Y#0001</v>
       </c>
       <c r="F155" s="33">
         <f>_xll.qlRateHelperQuoteValue($E155,Trigger)</f>
@@ -11987,19 +11993,19 @@
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B156" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C156" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C156" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D156" s="34" t="s">
         <v>24</v>
       </c>
       <c r="E156" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS21Y</v>
+        <f>SwapsFromBasis_3M!L29</f>
+        <v>EUR_YC3MRH_AB3EBASIS21Y#0001</v>
       </c>
       <c r="F156" s="33">
         <f>_xll.qlRateHelperQuoteValue($E156,Trigger)</f>
@@ -12029,19 +12035,19 @@
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B157" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C157" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C157" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D157" s="34" t="s">
         <v>23</v>
       </c>
       <c r="E157" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS22Y</v>
+        <f>SwapsFromBasis_3M!L30</f>
+        <v>EUR_YC3MRH_AB3EBASIS22Y#0001</v>
       </c>
       <c r="F157" s="33">
         <f>_xll.qlRateHelperQuoteValue($E157,Trigger)</f>
@@ -12071,19 +12077,19 @@
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B158" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C158" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C158" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D158" s="34" t="s">
         <v>22</v>
       </c>
       <c r="E158" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS23Y</v>
+        <f>SwapsFromBasis_3M!L31</f>
+        <v>EUR_YC3MRH_AB3EBASIS23Y#0001</v>
       </c>
       <c r="F158" s="33">
         <f>_xll.qlRateHelperQuoteValue($E158,Trigger)</f>
@@ -12113,19 +12119,19 @@
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B159" s="36" t="str">
+        <f t="shared" si="8"/>
+        <v>AB</v>
+      </c>
+      <c r="C159" s="35" t="str">
         <f t="shared" si="9"/>
-        <v>AB</v>
-      </c>
-      <c r="C159" s="35" t="str">
-        <f t="shared" si="11"/>
         <v>3EBASIS</v>
       </c>
       <c r="D159" s="34" t="s">
         <v>21</v>
       </c>
       <c r="E159" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS24Y</v>
+        <f>SwapsFromBasis_3M!L32</f>
+        <v>EUR_YC3MRH_AB3EBASIS24Y#0001</v>
       </c>
       <c r="F159" s="33">
         <f>_xll.qlRateHelperQuoteValue($E159,Trigger)</f>
@@ -12155,19 +12161,19 @@
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B160" s="36" t="str">
-        <f t="shared" ref="B160:B169" si="12">SwapFixedFreq</f>
+        <f t="shared" ref="B160:B169" si="10">SwapFixedFreq</f>
         <v>AB</v>
       </c>
       <c r="C160" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3EBASIS</v>
       </c>
       <c r="D160" s="34" t="s">
         <v>20</v>
       </c>
       <c r="E160" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS25Y</v>
+        <f>SwapsFromBasis_3M!L33</f>
+        <v>EUR_YC3MRH_AB3EBASIS25Y#0001</v>
       </c>
       <c r="F160" s="33">
         <f>_xll.qlRateHelperQuoteValue($E160,Trigger)</f>
@@ -12197,19 +12203,19 @@
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B161" s="36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>AB</v>
       </c>
       <c r="C161" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3EBASIS</v>
       </c>
       <c r="D161" s="34" t="s">
         <v>19</v>
       </c>
       <c r="E161" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>EUR_YC3MRH_AB3EBASIS26Y</v>
+        <f>SwapsFromBasis_3M!L34</f>
+        <v>EUR_YC3MRH_AB3EBASIS26Y#0001</v>
       </c>
       <c r="F161" s="33">
         <f>_xll.qlRateHelperQuoteValue($E161,Trigger)</f>
@@ -12239,19 +12245,19 @@
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B162" s="36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>AB</v>
       </c>
       <c r="C162" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3EBASIS</v>
       </c>
       <c r="D162" s="34" t="s">
         <v>18</v>
       </c>
       <c r="E162" s="34" t="str">
-        <f t="shared" ref="E162:E169" si="13">RateHelperPrefix&amp;"_"&amp;$B162&amp;$C162&amp;$D162</f>
-        <v>EUR_YC3MRH_AB3EBASIS27Y</v>
+        <f>SwapsFromBasis_3M!L35</f>
+        <v>EUR_YC3MRH_AB3EBASIS27Y#0001</v>
       </c>
       <c r="F162" s="33">
         <f>_xll.qlRateHelperQuoteValue($E162,Trigger)</f>
@@ -12281,19 +12287,19 @@
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B163" s="36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>AB</v>
       </c>
       <c r="C163" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3EBASIS</v>
       </c>
       <c r="D163" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E163" s="34" t="str">
-        <f t="shared" si="13"/>
-        <v>EUR_YC3MRH_AB3EBASIS28Y</v>
+        <f>SwapsFromBasis_3M!L36</f>
+        <v>EUR_YC3MRH_AB3EBASIS28Y#0001</v>
       </c>
       <c r="F163" s="33">
         <f>_xll.qlRateHelperQuoteValue($E163,Trigger)</f>
@@ -12323,19 +12329,19 @@
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B164" s="36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>AB</v>
       </c>
       <c r="C164" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3EBASIS</v>
       </c>
       <c r="D164" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E164" s="34" t="str">
-        <f t="shared" si="13"/>
-        <v>EUR_YC3MRH_AB3EBASIS29Y</v>
+        <f>SwapsFromBasis_3M!L37</f>
+        <v>EUR_YC3MRH_AB3EBASIS29Y#0001</v>
       </c>
       <c r="F164" s="33">
         <f>_xll.qlRateHelperQuoteValue($E164,Trigger)</f>
@@ -12365,19 +12371,19 @@
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B165" s="36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>AB</v>
       </c>
       <c r="C165" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3EBASIS</v>
       </c>
       <c r="D165" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E165" s="34" t="str">
-        <f t="shared" si="13"/>
-        <v>EUR_YC3MRH_AB3EBASIS30Y</v>
+        <f>SwapsFromBasis_3M!L38</f>
+        <v>EUR_YC3MRH_AB3EBASIS30Y#0001</v>
       </c>
       <c r="F165" s="33">
         <f>_xll.qlRateHelperQuoteValue($E165,Trigger)</f>
@@ -12407,19 +12413,19 @@
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B166" s="36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>AB</v>
       </c>
       <c r="C166" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3EBASIS</v>
       </c>
       <c r="D166" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E166" s="34" t="str">
-        <f t="shared" si="13"/>
-        <v>EUR_YC3MRH_AB3EBASIS35Y</v>
+        <f>SwapsFromBasis_3M!L39</f>
+        <v>EUR_YC3MRH_AB3EBASIS35Y#0001</v>
       </c>
       <c r="F166" s="33">
         <f>_xll.qlRateHelperQuoteValue($E166,Trigger)</f>
@@ -12449,19 +12455,19 @@
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B167" s="36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>AB</v>
       </c>
       <c r="C167" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3EBASIS</v>
       </c>
       <c r="D167" s="34" t="s">
         <v>13</v>
       </c>
       <c r="E167" s="34" t="str">
-        <f t="shared" si="13"/>
-        <v>EUR_YC3MRH_AB3EBASIS40Y</v>
+        <f>SwapsFromBasis_3M!L40</f>
+        <v>EUR_YC3MRH_AB3EBASIS40Y#0001</v>
       </c>
       <c r="F167" s="33">
         <f>_xll.qlRateHelperQuoteValue($E167,Trigger)</f>
@@ -12491,19 +12497,19 @@
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B168" s="36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>AB</v>
       </c>
       <c r="C168" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3EBASIS</v>
       </c>
       <c r="D168" s="34" t="s">
         <v>12</v>
       </c>
       <c r="E168" s="34" t="str">
-        <f t="shared" si="13"/>
-        <v>EUR_YC3MRH_AB3EBASIS50Y</v>
+        <f>SwapsFromBasis_3M!L41</f>
+        <v>EUR_YC3MRH_AB3EBASIS50Y#0001</v>
       </c>
       <c r="F168" s="33">
         <f>_xll.qlRateHelperQuoteValue($E168,Trigger)</f>
@@ -12533,19 +12539,19 @@
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B169" s="29" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>AB</v>
       </c>
       <c r="C169" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3EBASIS</v>
       </c>
       <c r="D169" s="27" t="s">
         <v>11</v>
       </c>
       <c r="E169" s="27" t="str">
-        <f t="shared" si="13"/>
-        <v>EUR_YC3MRH_AB3EBASIS60Y</v>
+        <f>SwapsFromBasis_3M!L42</f>
+        <v>EUR_YC3MRH_AB3EBASIS60Y#0001</v>
       </c>
       <c r="F169" s="26">
         <f>_xll.qlRateHelperQuoteValue($E169,Trigger)</f>
@@ -12609,10 +12615,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="229" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="228"/>
+      <c r="B1" s="230"/>
       <c r="D1" s="22" t="s">
         <v>9</v>
       </c>
@@ -12816,7 +12822,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="str">
         <f>_xll.ohGroup(,_xll.ohPack(D2:D126),Permanent,,ObjectOverwrite)</f>
-        <v>obj_0065a#0005</v>
+        <v>obj_0065a#0007</v>
       </c>
       <c r="B7" s="12" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -15943,7 +15949,7 @@
       </c>
       <c r="F3" s="109" t="str">
         <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_SND#0005</v>
+        <v>EUR_YC3MRH_SND#0002</v>
       </c>
       <c r="G3" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -15970,7 +15976,7 @@
       </c>
       <c r="F4" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_SWD#0005</v>
+        <v>EUR_YC3MRH_SWD#0002</v>
       </c>
       <c r="G4" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -15997,7 +16003,7 @@
       </c>
       <c r="F5" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2WD#0005</v>
+        <v>EUR_YC3MRH_2WD#0002</v>
       </c>
       <c r="G5" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -16024,7 +16030,7 @@
       </c>
       <c r="F6" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3WD#0005</v>
+        <v>EUR_YC3MRH_3WD#0002</v>
       </c>
       <c r="G6" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -16051,7 +16057,7 @@
       </c>
       <c r="F7" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1MD#0005</v>
+        <v>EUR_YC3MRH_1MD#0002</v>
       </c>
       <c r="G7" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -16078,7 +16084,7 @@
       </c>
       <c r="F8" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2MD#0005</v>
+        <v>EUR_YC3MRH_2MD#0002</v>
       </c>
       <c r="G8" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -16105,7 +16111,7 @@
       </c>
       <c r="F9" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3MD#0005</v>
+        <v>EUR_YC3MRH_3MD#0002</v>
       </c>
       <c r="G9" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -16224,7 +16230,7 @@
       </c>
       <c r="H3" s="152" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_T3F1#0005</v>
+        <v>EUR_YC3MRH_T3F1#0002</v>
       </c>
       <c r="I3" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -16258,7 +16264,7 @@
       </c>
       <c r="H4" s="144" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_TOM3F1#0005</v>
+        <v>EUR_YC3MRH_TOM3F1#0002</v>
       </c>
       <c r="I4" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -16293,7 +16299,7 @@
       </c>
       <c r="H5" s="147" t="str">
         <f>_xll.qlFraRateHelper(G5,F5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1x4F#0005</v>
+        <v>EUR_YC3MRH_1x4F#0002</v>
       </c>
       <c r="I5" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -16328,7 +16334,7 @@
       </c>
       <c r="H6" s="147" t="str">
         <f>_xll.qlFraRateHelper(G6,F6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2x5F#0005</v>
+        <v>EUR_YC3MRH_2x5F#0002</v>
       </c>
       <c r="I6" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -16363,7 +16369,7 @@
       </c>
       <c r="H7" s="147" t="str">
         <f>_xll.qlFraRateHelper(G7,F7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3x6F#0005</v>
+        <v>EUR_YC3MRH_3x6F#0002</v>
       </c>
       <c r="I7" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -16398,7 +16404,7 @@
       </c>
       <c r="H8" s="147" t="str">
         <f>_xll.qlFraRateHelper(G8,F8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_4x7F#0005</v>
+        <v>EUR_YC3MRH_4x7F#0002</v>
       </c>
       <c r="I8" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -16433,7 +16439,7 @@
       </c>
       <c r="H9" s="147" t="str">
         <f>_xll.qlFraRateHelper(G9,F9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_5x8F#0005</v>
+        <v>EUR_YC3MRH_5x8F#0002</v>
       </c>
       <c r="I9" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -16468,7 +16474,7 @@
       </c>
       <c r="H10" s="144" t="str">
         <f>_xll.qlFraRateHelper(G10,F10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_6x9F#0005</v>
+        <v>EUR_YC3MRH_6x9F#0002</v>
       </c>
       <c r="I10" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -16503,7 +16509,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:L123"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16568,7 +16574,7 @@
         <v>EUR_YC3MRH_Futures3M.xml</v>
       </c>
       <c r="I2" s="113" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I44,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
         <v>#VALUE!</v>
       </c>
       <c r="J2" s="112" t="str">
@@ -16585,8 +16591,8 @@
       <c r="C3" s="169" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="169" t="str">
-        <f t="array" ref="D3:D122">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C122)</f>
+      <c r="D3" s="218" t="str">
+        <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C122)</f>
         <v>F4</v>
       </c>
       <c r="E3" s="169" t="str">
@@ -16607,7 +16613,7 @@
       </c>
       <c r="I3" s="174" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MF4#0005</v>
+        <v>EUR_YC3MRH_FUT3MF4#0002</v>
       </c>
       <c r="J3" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -16624,7 +16630,7 @@
       <c r="C4" s="170" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="170" t="str">
+      <c r="D4" s="219" t="str">
         <v>G4</v>
       </c>
       <c r="E4" s="169" t="str">
@@ -16645,7 +16651,7 @@
       </c>
       <c r="I4" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MG4#0005</v>
+        <v>EUR_YC3MRH_FUT3MG4#0002</v>
       </c>
       <c r="J4" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -16662,7 +16668,7 @@
       <c r="C5" s="170" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="170" t="str">
+      <c r="D5" s="219" t="str">
         <v>H4</v>
       </c>
       <c r="E5" s="169" t="str">
@@ -16683,7 +16689,7 @@
       </c>
       <c r="I5" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH4#0005</v>
+        <v>EUR_YC3MRH_FUT3MH4#0002</v>
       </c>
       <c r="J5" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -16700,7 +16706,7 @@
       <c r="C6" s="170" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="170" t="str">
+      <c r="D6" s="219" t="str">
         <v>J4</v>
       </c>
       <c r="E6" s="169" t="str">
@@ -16721,7 +16727,7 @@
       </c>
       <c r="I6" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MJ4#0005</v>
+        <v>EUR_YC3MRH_FUT3MJ4#0002</v>
       </c>
       <c r="J6" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -16738,7 +16744,7 @@
       <c r="C7" s="170" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="170" t="str">
+      <c r="D7" s="219" t="str">
         <v>K4</v>
       </c>
       <c r="E7" s="169" t="str">
@@ -16759,7 +16765,7 @@
       </c>
       <c r="I7" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MK4#0005</v>
+        <v>EUR_YC3MRH_FUT3MK4#0002</v>
       </c>
       <c r="J7" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -16776,7 +16782,7 @@
       <c r="C8" s="170" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="170" t="str">
+      <c r="D8" s="219" t="str">
         <v>M4</v>
       </c>
       <c r="E8" s="169" t="str">
@@ -16797,7 +16803,7 @@
       </c>
       <c r="I8" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM4#0005</v>
+        <v>EUR_YC3MRH_FUT3MM4#0002</v>
       </c>
       <c r="J8" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -16814,7 +16820,7 @@
       <c r="C9" s="170" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="170" t="str">
+      <c r="D9" s="219" t="str">
         <v>N4</v>
       </c>
       <c r="E9" s="169" t="str">
@@ -16835,7 +16841,7 @@
       </c>
       <c r="I9" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MN4#0005</v>
+        <v>EUR_YC3MRH_FUT3MN4#0002</v>
       </c>
       <c r="J9" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -16852,7 +16858,7 @@
       <c r="C10" s="170" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="170" t="str">
+      <c r="D10" s="219" t="str">
         <v>Q4</v>
       </c>
       <c r="E10" s="169" t="str">
@@ -16873,7 +16879,7 @@
       </c>
       <c r="I10" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MQ4#0005</v>
+        <v>EUR_YC3MRH_FUT3MQ4#0002</v>
       </c>
       <c r="J10" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -16890,7 +16896,7 @@
       <c r="C11" s="170" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="170" t="str">
+      <c r="D11" s="219" t="str">
         <v>U4</v>
       </c>
       <c r="E11" s="169" t="str">
@@ -16911,7 +16917,7 @@
       </c>
       <c r="I11" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU4#0005</v>
+        <v>EUR_YC3MRH_FUT3MU4#0002</v>
       </c>
       <c r="J11" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -16928,7 +16934,7 @@
       <c r="C12" s="170" t="b">
         <v>0</v>
       </c>
-      <c r="D12" s="170" t="str">
+      <c r="D12" s="219" t="str">
         <v>V4</v>
       </c>
       <c r="E12" s="169" t="str">
@@ -16949,7 +16955,7 @@
       </c>
       <c r="I12" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MV4#0005</v>
+        <v>EUR_YC3MRH_FUT3MV4#0002</v>
       </c>
       <c r="J12" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -16966,7 +16972,7 @@
       <c r="C13" s="170" t="b">
         <v>0</v>
       </c>
-      <c r="D13" s="170" t="str">
+      <c r="D13" s="219" t="str">
         <v>X4</v>
       </c>
       <c r="E13" s="169" t="str">
@@ -16987,7 +16993,7 @@
       </c>
       <c r="I13" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MX4#0005</v>
+        <v>EUR_YC3MRH_FUT3MX4#0002</v>
       </c>
       <c r="J13" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -17004,7 +17010,7 @@
       <c r="C14" s="170" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="170" t="str">
+      <c r="D14" s="219" t="str">
         <v>Z4</v>
       </c>
       <c r="E14" s="169" t="str">
@@ -17025,7 +17031,7 @@
       </c>
       <c r="I14" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ4#0005</v>
+        <v>EUR_YC3MRH_FUT3MZ4#0002</v>
       </c>
       <c r="J14" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -17040,10 +17046,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="170" t="str">
-        <v>F5</v>
+        <v>1</v>
+      </c>
+      <c r="D15" s="219" t="str">
+        <v>H5</v>
       </c>
       <c r="E15" s="169" t="str">
         <f t="shared" si="0"/>
@@ -17051,23 +17057,23 @@
       </c>
       <c r="F15" s="168" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MF5_Quote</v>
+        <v>EURFUT3MH5_Quote</v>
       </c>
       <c r="G15" s="168" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MF5ConvAdj_Quote</v>
+        <v>EURFUT3MH5ConvAdj_Quote</v>
       </c>
       <c r="H15" s="168" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MF5</v>
-      </c>
-      <c r="I15" s="167" t="e">
+        <v>EUR_YC3MRH_FUT3MH5</v>
+      </c>
+      <c r="I15" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC3MRH_FUT3MH5#0002</v>
       </c>
       <c r="J15" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I15)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF5_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I15)</f>
+        <v/>
       </c>
       <c r="K15" s="101"/>
       <c r="L15" s="172"/>
@@ -17078,10 +17084,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" s="170" t="str">
-        <v>G5</v>
+        <v>1</v>
+      </c>
+      <c r="D16" s="219" t="str">
+        <v>M5</v>
       </c>
       <c r="E16" s="169" t="str">
         <f t="shared" si="0"/>
@@ -17089,23 +17095,23 @@
       </c>
       <c r="F16" s="168" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MG5_Quote</v>
+        <v>EURFUT3MM5_Quote</v>
       </c>
       <c r="G16" s="168" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MG5ConvAdj_Quote</v>
+        <v>EURFUT3MM5ConvAdj_Quote</v>
       </c>
       <c r="H16" s="168" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MG5</v>
-      </c>
-      <c r="I16" s="167" t="e">
+        <v>EUR_YC3MRH_FUT3MM5</v>
+      </c>
+      <c r="I16" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC3MRH_FUT3MM5#0002</v>
       </c>
       <c r="J16" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I16)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG5_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I16)</f>
+        <v/>
       </c>
       <c r="K16" s="101"/>
       <c r="L16" s="172"/>
@@ -17116,10 +17122,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" s="170" t="str">
-        <v>H5</v>
+        <v>1</v>
+      </c>
+      <c r="D17" s="219" t="str">
+        <v>U5</v>
       </c>
       <c r="E17" s="169" t="str">
         <f t="shared" si="0"/>
@@ -17127,19 +17133,19 @@
       </c>
       <c r="F17" s="168" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH5_Quote</v>
+        <v>EURFUT3MU5_Quote</v>
       </c>
       <c r="G17" s="168" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH5ConvAdj_Quote</v>
+        <v>EURFUT3MU5ConvAdj_Quote</v>
       </c>
       <c r="H17" s="168" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MH5</v>
+        <v>EUR_YC3MRH_FUT3MU5</v>
       </c>
       <c r="I17" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH5#0005</v>
+        <v>EUR_YC3MRH_FUT3MU5#0002</v>
       </c>
       <c r="J17" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -17154,10 +17160,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" s="170" t="str">
-        <v>J5</v>
+        <v>1</v>
+      </c>
+      <c r="D18" s="219" t="str">
+        <v>Z5</v>
       </c>
       <c r="E18" s="169" t="str">
         <f t="shared" si="0"/>
@@ -17165,23 +17171,23 @@
       </c>
       <c r="F18" s="168" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MJ5_Quote</v>
+        <v>EURFUT3MZ5_Quote</v>
       </c>
       <c r="G18" s="168" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MJ5ConvAdj_Quote</v>
+        <v>EURFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="H18" s="168" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MJ5</v>
-      </c>
-      <c r="I18" s="167" t="e">
+        <v>EUR_YC3MRH_FUT3MZ5</v>
+      </c>
+      <c r="I18" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC3MRH_FUT3MZ5#0002</v>
       </c>
       <c r="J18" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I18)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ5_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I18)</f>
+        <v/>
       </c>
       <c r="K18" s="101"/>
       <c r="L18" s="172"/>
@@ -17192,10 +17198,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" s="170" t="str">
-        <v>K5</v>
+        <v>1</v>
+      </c>
+      <c r="D19" s="219" t="str">
+        <v>H6</v>
       </c>
       <c r="E19" s="169" t="str">
         <f t="shared" si="0"/>
@@ -17203,23 +17209,23 @@
       </c>
       <c r="F19" s="168" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MK5_Quote</v>
+        <v>EURFUT3MH6_Quote</v>
       </c>
       <c r="G19" s="168" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MK5ConvAdj_Quote</v>
+        <v>EURFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="H19" s="168" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MK5</v>
-      </c>
-      <c r="I19" s="167" t="e">
+        <v>EUR_YC3MRH_FUT3MH6</v>
+      </c>
+      <c r="I19" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC3MRH_FUT3MH6#0002</v>
       </c>
       <c r="J19" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I19)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK5_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I19)</f>
+        <v/>
       </c>
       <c r="K19" s="101"/>
       <c r="L19" s="172"/>
@@ -17230,10 +17236,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" s="170" t="str">
-        <v>M5</v>
+        <v>1</v>
+      </c>
+      <c r="D20" s="219" t="str">
+        <v>M6</v>
       </c>
       <c r="E20" s="169" t="str">
         <f t="shared" si="0"/>
@@ -17241,19 +17247,19 @@
       </c>
       <c r="F20" s="168" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM5_Quote</v>
+        <v>EURFUT3MM6_Quote</v>
       </c>
       <c r="G20" s="168" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM5ConvAdj_Quote</v>
+        <v>EURFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="H20" s="168" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MM5</v>
+        <v>EUR_YC3MRH_FUT3MM6</v>
       </c>
       <c r="I20" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM5#0005</v>
+        <v>EUR_YC3MRH_FUT3MM6#0002</v>
       </c>
       <c r="J20" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -17268,10 +17274,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" s="170" t="str">
-        <v>N5</v>
+        <v>1</v>
+      </c>
+      <c r="D21" s="219" t="str">
+        <v>U6</v>
       </c>
       <c r="E21" s="169" t="str">
         <f t="shared" si="0"/>
@@ -17279,23 +17285,23 @@
       </c>
       <c r="F21" s="168" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MN5_Quote</v>
+        <v>EURFUT3MU6_Quote</v>
       </c>
       <c r="G21" s="168" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MN5ConvAdj_Quote</v>
+        <v>EURFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="H21" s="168" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MN5</v>
-      </c>
-      <c r="I21" s="167" t="e">
+        <v>EUR_YC3MRH_FUT3MU6</v>
+      </c>
+      <c r="I21" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC3MRH_FUT3MU6#0002</v>
       </c>
       <c r="J21" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I21)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN5_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I21)</f>
+        <v/>
       </c>
       <c r="K21" s="101"/>
       <c r="L21" s="172"/>
@@ -17306,10 +17312,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" s="170" t="str">
-        <v>Q5</v>
+        <v>1</v>
+      </c>
+      <c r="D22" s="219" t="str">
+        <v>Z6</v>
       </c>
       <c r="E22" s="169" t="str">
         <f t="shared" si="0"/>
@@ -17317,23 +17323,23 @@
       </c>
       <c r="F22" s="168" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MQ5_Quote</v>
+        <v>EURFUT3MZ6_Quote</v>
       </c>
       <c r="G22" s="168" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MQ5ConvAdj_Quote</v>
+        <v>EURFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="H22" s="168" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MQ5</v>
-      </c>
-      <c r="I22" s="167" t="e">
+        <v>EUR_YC3MRH_FUT3MZ6</v>
+      </c>
+      <c r="I22" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC3MRH_FUT3MZ6#0002</v>
       </c>
       <c r="J22" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I22)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ5_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I22)</f>
+        <v/>
       </c>
       <c r="K22" s="101"/>
       <c r="L22" s="172"/>
@@ -17344,10 +17350,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="170" t="str">
-        <v>U5</v>
+        <v>1</v>
+      </c>
+      <c r="D23" s="219" t="str">
+        <v>H7</v>
       </c>
       <c r="E23" s="169" t="str">
         <f t="shared" si="0"/>
@@ -17355,19 +17361,19 @@
       </c>
       <c r="F23" s="168" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU5_Quote</v>
+        <v>EURFUT3MH7_Quote</v>
       </c>
       <c r="G23" s="168" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU5ConvAdj_Quote</v>
+        <v>EURFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="H23" s="168" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MU5</v>
+        <v>EUR_YC3MRH_FUT3MH7</v>
       </c>
       <c r="I23" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU5#0005</v>
+        <v>EUR_YC3MRH_FUT3MH7#0002</v>
       </c>
       <c r="J23" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -17382,10 +17388,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="170" t="str">
-        <v>V5</v>
+        <v>1</v>
+      </c>
+      <c r="D24" s="219" t="str">
+        <v>M7</v>
       </c>
       <c r="E24" s="169" t="str">
         <f t="shared" si="0"/>
@@ -17393,23 +17399,23 @@
       </c>
       <c r="F24" s="168" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MV5_Quote</v>
+        <v>EURFUT3MM7_Quote</v>
       </c>
       <c r="G24" s="168" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MV5ConvAdj_Quote</v>
+        <v>EURFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="H24" s="168" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MV5</v>
-      </c>
-      <c r="I24" s="167" t="e">
+        <v>EUR_YC3MRH_FUT3MM7</v>
+      </c>
+      <c r="I24" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC3MRH_FUT3MM7#0002</v>
       </c>
       <c r="J24" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I24)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV5_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I24)</f>
+        <v/>
       </c>
       <c r="K24" s="101"/>
       <c r="L24" s="172"/>
@@ -17420,10 +17426,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" s="170" t="str">
-        <v>X5</v>
+        <v>1</v>
+      </c>
+      <c r="D25" s="219" t="str">
+        <v>U7</v>
       </c>
       <c r="E25" s="169" t="str">
         <f t="shared" si="0"/>
@@ -17431,23 +17437,23 @@
       </c>
       <c r="F25" s="168" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MX5_Quote</v>
+        <v>EURFUT3MU7_Quote</v>
       </c>
       <c r="G25" s="168" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MX5ConvAdj_Quote</v>
+        <v>EURFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="H25" s="168" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MX5</v>
-      </c>
-      <c r="I25" s="167" t="e">
+        <v>EUR_YC3MRH_FUT3MU7</v>
+      </c>
+      <c r="I25" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC3MRH_FUT3MU7#0002</v>
       </c>
       <c r="J25" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I25)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX5_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I25)</f>
+        <v/>
       </c>
       <c r="K25" s="101"/>
       <c r="L25" s="172"/>
@@ -17458,10 +17464,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" s="170" t="str">
-        <v>Z5</v>
+        <v>1</v>
+      </c>
+      <c r="D26" s="219" t="str">
+        <v>Z7</v>
       </c>
       <c r="E26" s="169" t="str">
         <f t="shared" si="0"/>
@@ -17469,19 +17475,19 @@
       </c>
       <c r="F26" s="168" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ5_Quote</v>
+        <v>EURFUT3MZ7_Quote</v>
       </c>
       <c r="G26" s="168" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ5ConvAdj_Quote</v>
+        <v>EURFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="H26" s="168" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MZ5</v>
+        <v>EUR_YC3MRH_FUT3MZ7</v>
       </c>
       <c r="I26" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ5#0005</v>
+        <v>EUR_YC3MRH_FUT3MZ7#0002</v>
       </c>
       <c r="J26" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -17496,10 +17502,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" s="170" t="str">
-        <v>F6</v>
+        <v>1</v>
+      </c>
+      <c r="D27" s="219" t="str">
+        <v>H8</v>
       </c>
       <c r="E27" s="169" t="str">
         <f t="shared" si="0"/>
@@ -17507,23 +17513,23 @@
       </c>
       <c r="F27" s="168" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MF6_Quote</v>
+        <v>EURFUT3MH8_Quote</v>
       </c>
       <c r="G27" s="168" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MF6ConvAdj_Quote</v>
+        <v>EURFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="H27" s="168" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MF6</v>
-      </c>
-      <c r="I27" s="167" t="e">
+        <v>EUR_YC3MRH_FUT3MH8</v>
+      </c>
+      <c r="I27" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC3MRH_FUT3MH8#0002</v>
       </c>
       <c r="J27" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I27)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF6_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I27)</f>
+        <v/>
       </c>
       <c r="K27" s="101"/>
       <c r="L27" s="172"/>
@@ -17534,10 +17540,10 @@
         <v>26</v>
       </c>
       <c r="C28" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" s="170" t="str">
-        <v>G6</v>
+        <v>1</v>
+      </c>
+      <c r="D28" s="219" t="str">
+        <v>M8</v>
       </c>
       <c r="E28" s="169" t="str">
         <f t="shared" si="0"/>
@@ -17545,23 +17551,23 @@
       </c>
       <c r="F28" s="168" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MG6_Quote</v>
+        <v>EURFUT3MM8_Quote</v>
       </c>
       <c r="G28" s="168" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MG6ConvAdj_Quote</v>
+        <v>EURFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="H28" s="168" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MG6</v>
-      </c>
-      <c r="I28" s="167" t="e">
+        <v>EUR_YC3MRH_FUT3MM8</v>
+      </c>
+      <c r="I28" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC3MRH_FUT3MM8#0002</v>
       </c>
       <c r="J28" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I28)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG6_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I28)</f>
+        <v/>
       </c>
       <c r="K28" s="101"/>
       <c r="L28" s="172"/>
@@ -17572,10 +17578,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" s="170" t="str">
-        <v>H6</v>
+        <v>1</v>
+      </c>
+      <c r="D29" s="219" t="str">
+        <v>U8</v>
       </c>
       <c r="E29" s="169" t="str">
         <f t="shared" si="0"/>
@@ -17583,19 +17589,19 @@
       </c>
       <c r="F29" s="168" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH6_Quote</v>
+        <v>EURFUT3MU8_Quote</v>
       </c>
       <c r="G29" s="168" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH6ConvAdj_Quote</v>
+        <v>EURFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="H29" s="168" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MH6</v>
+        <v>EUR_YC3MRH_FUT3MU8</v>
       </c>
       <c r="I29" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH6#0005</v>
+        <v>EUR_YC3MRH_FUT3MU8#0002</v>
       </c>
       <c r="J29" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -17610,10 +17616,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" s="170" t="str">
-        <v>J6</v>
+        <v>1</v>
+      </c>
+      <c r="D30" s="219" t="str">
+        <v>Z8</v>
       </c>
       <c r="E30" s="169" t="str">
         <f t="shared" si="0"/>
@@ -17621,23 +17627,23 @@
       </c>
       <c r="F30" s="168" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MJ6_Quote</v>
+        <v>EURFUT3MZ8_Quote</v>
       </c>
       <c r="G30" s="168" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MJ6ConvAdj_Quote</v>
+        <v>EURFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="H30" s="168" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MJ6</v>
-      </c>
-      <c r="I30" s="167" t="e">
+        <v>EUR_YC3MRH_FUT3MZ8</v>
+      </c>
+      <c r="I30" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC3MRH_FUT3MZ8#0002</v>
       </c>
       <c r="J30" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I30)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ6_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I30)</f>
+        <v/>
       </c>
       <c r="K30" s="101"/>
       <c r="L30" s="172"/>
@@ -17648,10 +17654,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" s="170" t="str">
-        <v>K6</v>
+        <v>1</v>
+      </c>
+      <c r="D31" s="219" t="str">
+        <v>H9</v>
       </c>
       <c r="E31" s="169" t="str">
         <f t="shared" si="0"/>
@@ -17659,23 +17665,23 @@
       </c>
       <c r="F31" s="168" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MK6_Quote</v>
+        <v>EURFUT3MH9_Quote</v>
       </c>
       <c r="G31" s="168" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MK6ConvAdj_Quote</v>
+        <v>EURFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="H31" s="168" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MK6</v>
-      </c>
-      <c r="I31" s="167" t="e">
+        <v>EUR_YC3MRH_FUT3MH9</v>
+      </c>
+      <c r="I31" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC3MRH_FUT3MH9#0002</v>
       </c>
       <c r="J31" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I31)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK6_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I31)</f>
+        <v/>
       </c>
       <c r="K31" s="101"/>
       <c r="L31" s="172"/>
@@ -17686,10 +17692,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" s="170" t="str">
-        <v>M6</v>
+        <v>1</v>
+      </c>
+      <c r="D32" s="219" t="str">
+        <v>M9</v>
       </c>
       <c r="E32" s="169" t="str">
         <f t="shared" si="0"/>
@@ -17697,19 +17703,19 @@
       </c>
       <c r="F32" s="168" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM6_Quote</v>
+        <v>EURFUT3MM9_Quote</v>
       </c>
       <c r="G32" s="168" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM6ConvAdj_Quote</v>
+        <v>EURFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="H32" s="168" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MM6</v>
+        <v>EUR_YC3MRH_FUT3MM9</v>
       </c>
       <c r="I32" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM6#0005</v>
+        <v>EUR_YC3MRH_FUT3MM9#0002</v>
       </c>
       <c r="J32" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -17724,10 +17730,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" s="170" t="str">
-        <v>N6</v>
+        <v>1</v>
+      </c>
+      <c r="D33" s="219" t="str">
+        <v>U9</v>
       </c>
       <c r="E33" s="169" t="str">
         <f t="shared" si="0"/>
@@ -17735,23 +17741,23 @@
       </c>
       <c r="F33" s="168" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MN6_Quote</v>
+        <v>EURFUT3MU9_Quote</v>
       </c>
       <c r="G33" s="168" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MN6ConvAdj_Quote</v>
+        <v>EURFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="H33" s="168" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MN6</v>
-      </c>
-      <c r="I33" s="167" t="e">
+        <v>EUR_YC3MRH_FUT3MU9</v>
+      </c>
+      <c r="I33" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC3MRH_FUT3MU9#0002</v>
       </c>
       <c r="J33" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I33)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN6_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I33)</f>
+        <v/>
       </c>
       <c r="K33" s="101"/>
       <c r="L33" s="172"/>
@@ -17762,10 +17768,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" s="170" t="str">
-        <v>Q6</v>
+        <v>1</v>
+      </c>
+      <c r="D34" s="219" t="str">
+        <v>Z9</v>
       </c>
       <c r="E34" s="169" t="str">
         <f t="shared" si="0"/>
@@ -17773,23 +17779,23 @@
       </c>
       <c r="F34" s="168" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MQ6_Quote</v>
+        <v>EURFUT3MZ9_Quote</v>
       </c>
       <c r="G34" s="168" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MQ6ConvAdj_Quote</v>
+        <v>EURFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="H34" s="168" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MQ6</v>
-      </c>
-      <c r="I34" s="167" t="e">
+        <v>EUR_YC3MRH_FUT3MZ9</v>
+      </c>
+      <c r="I34" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC3MRH_FUT3MZ9#0002</v>
       </c>
       <c r="J34" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I34)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ6_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I34)</f>
+        <v/>
       </c>
       <c r="K34" s="101"/>
       <c r="L34" s="172"/>
@@ -17800,30 +17806,30 @@
         <v>33</v>
       </c>
       <c r="C35" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" s="170" t="str">
-        <v>U6</v>
+        <v>1</v>
+      </c>
+      <c r="D35" s="219" t="str">
+        <v>H0</v>
       </c>
       <c r="E35" s="169" t="str">
-        <f t="shared" ref="E35:E66" si="4">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
+        <f t="shared" ref="E35:E44" si="4">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
         <v>Euribor3M</v>
       </c>
       <c r="F35" s="168" t="str">
-        <f t="shared" ref="F35:F66" si="5">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
-        <v>EURFUT3MU6_Quote</v>
+        <f t="shared" ref="F35:F44" si="5">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
+        <v>EURFUT3MH0_Quote</v>
       </c>
       <c r="G35" s="168" t="str">
-        <f t="shared" ref="G35:G66" si="6">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MU6ConvAdj_Quote</v>
+        <f t="shared" ref="G35:G44" si="6">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <v>EURFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="H35" s="168" t="str">
-        <f t="shared" ref="H35:H66" si="7">$H$1&amp;"_FUT"&amp;$E$1&amp;$D35</f>
-        <v>EUR_YC3MRH_FUT3MU6</v>
+        <f t="shared" ref="H35:H44" si="7">$H$1&amp;"_FUT"&amp;$E$1&amp;$D35</f>
+        <v>EUR_YC3MRH_FUT3MH0</v>
       </c>
       <c r="I35" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU6#0005</v>
+        <v>EUR_YC3MRH_FUT3MH0#0002</v>
       </c>
       <c r="J35" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -17838,10 +17844,10 @@
         <v>34</v>
       </c>
       <c r="C36" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" s="170" t="str">
-        <v>V6</v>
+        <v>1</v>
+      </c>
+      <c r="D36" s="219" t="str">
+        <v>M0</v>
       </c>
       <c r="E36" s="169" t="str">
         <f t="shared" si="4"/>
@@ -17849,23 +17855,23 @@
       </c>
       <c r="F36" s="168" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MV6_Quote</v>
+        <v>EURFUT3MM0_Quote</v>
       </c>
       <c r="G36" s="168" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MV6ConvAdj_Quote</v>
+        <v>EURFUT3MM0ConvAdj_Quote</v>
       </c>
       <c r="H36" s="168" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MV6</v>
-      </c>
-      <c r="I36" s="167" t="e">
+        <v>EUR_YC3MRH_FUT3MM0</v>
+      </c>
+      <c r="I36" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC3MRH_FUT3MM0#0002</v>
       </c>
       <c r="J36" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I36)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV6_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I36)</f>
+        <v/>
       </c>
       <c r="K36" s="101"/>
       <c r="L36" s="172"/>
@@ -17876,10 +17882,10 @@
         <v>35</v>
       </c>
       <c r="C37" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" s="170" t="str">
-        <v>X6</v>
+        <v>1</v>
+      </c>
+      <c r="D37" s="219" t="str">
+        <v>U0</v>
       </c>
       <c r="E37" s="169" t="str">
         <f t="shared" si="4"/>
@@ -17887,23 +17893,23 @@
       </c>
       <c r="F37" s="168" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MX6_Quote</v>
+        <v>EURFUT3MU0_Quote</v>
       </c>
       <c r="G37" s="168" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MX6ConvAdj_Quote</v>
+        <v>EURFUT3MU0ConvAdj_Quote</v>
       </c>
       <c r="H37" s="168" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MX6</v>
-      </c>
-      <c r="I37" s="167" t="e">
+        <v>EUR_YC3MRH_FUT3MU0</v>
+      </c>
+      <c r="I37" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC3MRH_FUT3MU0#0002</v>
       </c>
       <c r="J37" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I37)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX6_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I37)</f>
+        <v/>
       </c>
       <c r="K37" s="101"/>
       <c r="L37" s="172"/>
@@ -17914,10 +17920,10 @@
         <v>36</v>
       </c>
       <c r="C38" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" s="170" t="str">
-        <v>Z6</v>
+        <v>1</v>
+      </c>
+      <c r="D38" s="219" t="str">
+        <v>Z0</v>
       </c>
       <c r="E38" s="169" t="str">
         <f t="shared" si="4"/>
@@ -17925,19 +17931,19 @@
       </c>
       <c r="F38" s="168" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MZ6_Quote</v>
+        <v>EURFUT3MZ0_Quote</v>
       </c>
       <c r="G38" s="168" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MZ6ConvAdj_Quote</v>
+        <v>EURFUT3MZ0ConvAdj_Quote</v>
       </c>
       <c r="H38" s="168" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MZ6</v>
+        <v>EUR_YC3MRH_FUT3MZ0</v>
       </c>
       <c r="I38" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ6#0005</v>
+        <v>EUR_YC3MRH_FUT3MZ0#0002</v>
       </c>
       <c r="J38" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -17952,10 +17958,10 @@
         <v>37</v>
       </c>
       <c r="C39" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" s="170" t="str">
-        <v>F7</v>
+        <v>1</v>
+      </c>
+      <c r="D39" s="219" t="str">
+        <v>H1</v>
       </c>
       <c r="E39" s="169" t="str">
         <f t="shared" si="4"/>
@@ -17963,23 +17969,23 @@
       </c>
       <c r="F39" s="168" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MF7_Quote</v>
+        <v>EURFUT3MH1_Quote</v>
       </c>
       <c r="G39" s="168" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MF7ConvAdj_Quote</v>
+        <v>EURFUT3MH1ConvAdj_Quote</v>
       </c>
       <c r="H39" s="168" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MF7</v>
-      </c>
-      <c r="I39" s="167" t="e">
+        <v>EUR_YC3MRH_FUT3MH1</v>
+      </c>
+      <c r="I39" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC3MRH_FUT3MH1#0002</v>
       </c>
       <c r="J39" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I39)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF7_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I39)</f>
+        <v/>
       </c>
       <c r="K39" s="101"/>
       <c r="L39" s="172"/>
@@ -17990,10 +17996,10 @@
         <v>38</v>
       </c>
       <c r="C40" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D40" s="170" t="str">
-        <v>G7</v>
+        <v>1</v>
+      </c>
+      <c r="D40" s="219" t="str">
+        <v>M1</v>
       </c>
       <c r="E40" s="169" t="str">
         <f t="shared" si="4"/>
@@ -18001,23 +18007,23 @@
       </c>
       <c r="F40" s="168" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MG7_Quote</v>
+        <v>EURFUT3MM1_Quote</v>
       </c>
       <c r="G40" s="168" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MG7ConvAdj_Quote</v>
+        <v>EURFUT3MM1ConvAdj_Quote</v>
       </c>
       <c r="H40" s="168" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MG7</v>
-      </c>
-      <c r="I40" s="167" t="e">
+        <v>EUR_YC3MRH_FUT3MM1</v>
+      </c>
+      <c r="I40" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC3MRH_FUT3MM1#0002</v>
       </c>
       <c r="J40" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I40)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG7_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I40)</f>
+        <v/>
       </c>
       <c r="K40" s="101"/>
     </row>
@@ -18027,10 +18033,10 @@
         <v>39</v>
       </c>
       <c r="C41" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" s="170" t="str">
-        <v>H7</v>
+        <v>1</v>
+      </c>
+      <c r="D41" s="219" t="str">
+        <v>U1</v>
       </c>
       <c r="E41" s="169" t="str">
         <f t="shared" si="4"/>
@@ -18038,19 +18044,19 @@
       </c>
       <c r="F41" s="168" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MH7_Quote</v>
+        <v>EURFUT3MU1_Quote</v>
       </c>
       <c r="G41" s="168" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MH7ConvAdj_Quote</v>
+        <v>EURFUT3MU1ConvAdj_Quote</v>
       </c>
       <c r="H41" s="168" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MH7</v>
+        <v>EUR_YC3MRH_FUT3MU1</v>
       </c>
       <c r="I41" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH7#0005</v>
+        <v>EUR_YC3MRH_FUT3MU1#0002</v>
       </c>
       <c r="J41" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -18064,10 +18070,10 @@
         <v>40</v>
       </c>
       <c r="C42" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" s="170" t="str">
-        <v>J7</v>
+        <v>1</v>
+      </c>
+      <c r="D42" s="219" t="str">
+        <v>Z1</v>
       </c>
       <c r="E42" s="169" t="str">
         <f t="shared" si="4"/>
@@ -18075,23 +18081,23 @@
       </c>
       <c r="F42" s="168" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MJ7_Quote</v>
+        <v>EURFUT3MZ1_Quote</v>
       </c>
       <c r="G42" s="168" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MJ7ConvAdj_Quote</v>
+        <v>EURFUT3MZ1ConvAdj_Quote</v>
       </c>
       <c r="H42" s="168" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MJ7</v>
-      </c>
-      <c r="I42" s="167" t="e">
+        <v>EUR_YC3MRH_FUT3MZ1</v>
+      </c>
+      <c r="I42" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC3MRH_FUT3MZ1#0002</v>
       </c>
       <c r="J42" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I42)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ7_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I42)</f>
+        <v/>
       </c>
       <c r="K42" s="101"/>
     </row>
@@ -18101,10 +18107,10 @@
         <v>41</v>
       </c>
       <c r="C43" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" s="170" t="str">
-        <v>K7</v>
+        <v>1</v>
+      </c>
+      <c r="D43" s="219" t="str">
+        <v>H2</v>
       </c>
       <c r="E43" s="169" t="str">
         <f t="shared" si="4"/>
@@ -18112,23 +18118,23 @@
       </c>
       <c r="F43" s="168" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MK7_Quote</v>
+        <v>EURFUT3MH2_Quote</v>
       </c>
       <c r="G43" s="168" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MK7ConvAdj_Quote</v>
+        <v>EURFUT3MH2ConvAdj_Quote</v>
       </c>
       <c r="H43" s="168" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MK7</v>
-      </c>
-      <c r="I43" s="167" t="e">
+        <v>EUR_YC3MRH_FUT3MH2</v>
+      </c>
+      <c r="I43" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>EUR_YC3MRH_FUT3MH2#0002</v>
       </c>
       <c r="J43" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I43)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK7_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I43)</f>
+        <v/>
       </c>
       <c r="K43" s="101"/>
     </row>
@@ -18138,10 +18144,10 @@
         <v>42</v>
       </c>
       <c r="C44" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" s="170" t="str">
-        <v>M7</v>
+        <v>1</v>
+      </c>
+      <c r="D44" s="219" t="str">
+        <v>M2</v>
       </c>
       <c r="E44" s="169" t="str">
         <f t="shared" si="4"/>
@@ -18149,19 +18155,19 @@
       </c>
       <c r="F44" s="168" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MM7_Quote</v>
+        <v>EURFUT3MM2_Quote</v>
       </c>
       <c r="G44" s="168" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MM7ConvAdj_Quote</v>
+        <v>EURFUT3MM2ConvAdj_Quote</v>
       </c>
       <c r="H44" s="168" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MM7</v>
+        <v>EUR_YC3MRH_FUT3MM2</v>
       </c>
       <c r="I44" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM7#0005</v>
+        <v>EUR_YC3MRH_FUT3MM2#0002</v>
       </c>
       <c r="J44" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -18169,2904 +18175,18 @@
       </c>
       <c r="K44" s="101"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="171"/>
-      <c r="B45" s="107">
-        <v>43</v>
-      </c>
-      <c r="C45" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" s="170" t="str">
-        <v>N7</v>
-      </c>
-      <c r="E45" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F45" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MN7_Quote</v>
-      </c>
-      <c r="G45" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MN7ConvAdj_Quote</v>
-      </c>
-      <c r="H45" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MN7</v>
-      </c>
-      <c r="I45" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H45,$F45,$D45,$E45,$G45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J45" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I45)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN7_Quote'</v>
-      </c>
-      <c r="K45" s="101"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="171"/>
-      <c r="B46" s="107">
-        <v>44</v>
-      </c>
-      <c r="C46" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" s="170" t="str">
-        <v>Q7</v>
-      </c>
-      <c r="E46" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F46" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MQ7_Quote</v>
-      </c>
-      <c r="G46" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MQ7ConvAdj_Quote</v>
-      </c>
-      <c r="H46" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MQ7</v>
-      </c>
-      <c r="I46" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H46,$F46,$D46,$E46,$G46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J46" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I46)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ7_Quote'</v>
-      </c>
-      <c r="K46" s="101"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="171"/>
-      <c r="B47" s="107">
-        <v>45</v>
-      </c>
-      <c r="C47" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" s="170" t="str">
-        <v>U7</v>
-      </c>
-      <c r="E47" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F47" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MU7_Quote</v>
-      </c>
-      <c r="G47" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MU7ConvAdj_Quote</v>
-      </c>
-      <c r="H47" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MU7</v>
-      </c>
-      <c r="I47" s="167" t="str">
-        <f>_xll.qlFuturesRateHelper(H47,$F47,$D47,$E47,$G47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU7#0005</v>
-      </c>
-      <c r="J47" s="102" t="str">
-        <f>_xll.ohRangeRetrieveError(I47)</f>
-        <v/>
-      </c>
-      <c r="K47" s="101"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="171"/>
-      <c r="B48" s="107">
-        <v>46</v>
-      </c>
-      <c r="C48" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D48" s="170" t="str">
-        <v>V7</v>
-      </c>
-      <c r="E48" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F48" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MV7_Quote</v>
-      </c>
-      <c r="G48" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MV7ConvAdj_Quote</v>
-      </c>
-      <c r="H48" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MV7</v>
-      </c>
-      <c r="I48" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H48,$F48,$D48,$E48,$G48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J48" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I48)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV7_Quote'</v>
-      </c>
-      <c r="K48" s="101"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="171"/>
-      <c r="B49" s="107">
-        <v>47</v>
-      </c>
-      <c r="C49" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" s="170" t="str">
-        <v>X7</v>
-      </c>
-      <c r="E49" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F49" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MX7_Quote</v>
-      </c>
-      <c r="G49" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MX7ConvAdj_Quote</v>
-      </c>
-      <c r="H49" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MX7</v>
-      </c>
-      <c r="I49" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H49,$F49,$D49,$E49,$G49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J49" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I49)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX7_Quote'</v>
-      </c>
-      <c r="K49" s="101"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="171"/>
-      <c r="B50" s="107">
-        <v>48</v>
-      </c>
-      <c r="C50" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" s="170" t="str">
-        <v>Z7</v>
-      </c>
-      <c r="E50" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F50" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MZ7_Quote</v>
-      </c>
-      <c r="G50" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MZ7ConvAdj_Quote</v>
-      </c>
-      <c r="H50" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MZ7</v>
-      </c>
-      <c r="I50" s="167" t="str">
-        <f>_xll.qlFuturesRateHelper(H50,$F50,$D50,$E50,$G50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ7#0005</v>
-      </c>
-      <c r="J50" s="102" t="str">
-        <f>_xll.ohRangeRetrieveError(I50)</f>
-        <v/>
-      </c>
-      <c r="K50" s="101"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="171"/>
-      <c r="B51" s="107">
-        <v>49</v>
-      </c>
-      <c r="C51" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D51" s="170" t="str">
-        <v>F8</v>
-      </c>
-      <c r="E51" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F51" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MF8_Quote</v>
-      </c>
-      <c r="G51" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MF8ConvAdj_Quote</v>
-      </c>
-      <c r="H51" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MF8</v>
-      </c>
-      <c r="I51" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H51,$F51,$D51,$E51,$G51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J51" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I51)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF8_Quote'</v>
-      </c>
-      <c r="K51" s="101"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="171"/>
-      <c r="B52" s="107">
-        <v>50</v>
-      </c>
-      <c r="C52" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D52" s="170" t="str">
-        <v>G8</v>
-      </c>
-      <c r="E52" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F52" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MG8_Quote</v>
-      </c>
-      <c r="G52" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MG8ConvAdj_Quote</v>
-      </c>
-      <c r="H52" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MG8</v>
-      </c>
-      <c r="I52" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H52,$F52,$D52,$E52,$G52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J52" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I52)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG8_Quote'</v>
-      </c>
-      <c r="K52" s="101"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="171"/>
-      <c r="B53" s="107">
-        <v>51</v>
-      </c>
-      <c r="C53" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53" s="170" t="str">
-        <v>H8</v>
-      </c>
-      <c r="E53" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F53" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MH8_Quote</v>
-      </c>
-      <c r="G53" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MH8ConvAdj_Quote</v>
-      </c>
-      <c r="H53" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MH8</v>
-      </c>
-      <c r="I53" s="167" t="str">
-        <f>_xll.qlFuturesRateHelper(H53,$F53,$D53,$E53,$G53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH8#0005</v>
-      </c>
-      <c r="J53" s="102" t="str">
-        <f>_xll.ohRangeRetrieveError(I53)</f>
-        <v/>
-      </c>
-      <c r="K53" s="101"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="171"/>
-      <c r="B54" s="107">
-        <v>52</v>
-      </c>
-      <c r="C54" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D54" s="170" t="str">
-        <v>J8</v>
-      </c>
-      <c r="E54" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F54" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MJ8_Quote</v>
-      </c>
-      <c r="G54" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MJ8ConvAdj_Quote</v>
-      </c>
-      <c r="H54" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MJ8</v>
-      </c>
-      <c r="I54" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H54,$F54,$D54,$E54,$G54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J54" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I54)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ8_Quote'</v>
-      </c>
-      <c r="K54" s="101"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="171"/>
-      <c r="B55" s="107">
-        <v>53</v>
-      </c>
-      <c r="C55" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55" s="170" t="str">
-        <v>K8</v>
-      </c>
-      <c r="E55" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F55" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MK8_Quote</v>
-      </c>
-      <c r="G55" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MK8ConvAdj_Quote</v>
-      </c>
-      <c r="H55" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MK8</v>
-      </c>
-      <c r="I55" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H55,$F55,$D55,$E55,$G55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J55" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I55)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK8_Quote'</v>
-      </c>
-      <c r="K55" s="101"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="171"/>
-      <c r="B56" s="107">
-        <v>54</v>
-      </c>
-      <c r="C56" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D56" s="170" t="str">
-        <v>M8</v>
-      </c>
-      <c r="E56" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F56" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MM8_Quote</v>
-      </c>
-      <c r="G56" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MM8ConvAdj_Quote</v>
-      </c>
-      <c r="H56" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MM8</v>
-      </c>
-      <c r="I56" s="167" t="str">
-        <f>_xll.qlFuturesRateHelper(H56,$F56,$D56,$E56,$G56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM8#0005</v>
-      </c>
-      <c r="J56" s="102" t="str">
-        <f>_xll.ohRangeRetrieveError(I56)</f>
-        <v/>
-      </c>
-      <c r="K56" s="101"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="171"/>
-      <c r="B57" s="107">
-        <v>55</v>
-      </c>
-      <c r="C57" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D57" s="170" t="str">
-        <v>N8</v>
-      </c>
-      <c r="E57" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F57" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MN8_Quote</v>
-      </c>
-      <c r="G57" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MN8ConvAdj_Quote</v>
-      </c>
-      <c r="H57" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MN8</v>
-      </c>
-      <c r="I57" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H57,$F57,$D57,$E57,$G57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J57" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I57)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN8_Quote'</v>
-      </c>
-      <c r="K57" s="101"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="171"/>
-      <c r="B58" s="107">
-        <v>56</v>
-      </c>
-      <c r="C58" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58" s="170" t="str">
-        <v>Q8</v>
-      </c>
-      <c r="E58" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F58" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MQ8_Quote</v>
-      </c>
-      <c r="G58" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MQ8ConvAdj_Quote</v>
-      </c>
-      <c r="H58" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MQ8</v>
-      </c>
-      <c r="I58" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H58,$F58,$D58,$E58,$G58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J58" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I58)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ8_Quote'</v>
-      </c>
-      <c r="K58" s="101"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="171"/>
-      <c r="B59" s="107">
-        <v>57</v>
-      </c>
-      <c r="C59" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D59" s="170" t="str">
-        <v>U8</v>
-      </c>
-      <c r="E59" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F59" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MU8_Quote</v>
-      </c>
-      <c r="G59" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MU8ConvAdj_Quote</v>
-      </c>
-      <c r="H59" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MU8</v>
-      </c>
-      <c r="I59" s="167" t="str">
-        <f>_xll.qlFuturesRateHelper(H59,$F59,$D59,$E59,$G59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU8#0005</v>
-      </c>
-      <c r="J59" s="102" t="str">
-        <f>_xll.ohRangeRetrieveError(I59)</f>
-        <v/>
-      </c>
-      <c r="K59" s="101"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="171"/>
-      <c r="B60" s="107">
-        <v>58</v>
-      </c>
-      <c r="C60" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D60" s="170" t="str">
-        <v>V8</v>
-      </c>
-      <c r="E60" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F60" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MV8_Quote</v>
-      </c>
-      <c r="G60" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MV8ConvAdj_Quote</v>
-      </c>
-      <c r="H60" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MV8</v>
-      </c>
-      <c r="I60" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H60,$F60,$D60,$E60,$G60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J60" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I60)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV8_Quote'</v>
-      </c>
-      <c r="K60" s="101"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="171"/>
-      <c r="B61" s="107">
-        <v>59</v>
-      </c>
-      <c r="C61" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D61" s="170" t="str">
-        <v>X8</v>
-      </c>
-      <c r="E61" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F61" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MX8_Quote</v>
-      </c>
-      <c r="G61" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MX8ConvAdj_Quote</v>
-      </c>
-      <c r="H61" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MX8</v>
-      </c>
-      <c r="I61" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H61,$F61,$D61,$E61,$G61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J61" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I61)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX8_Quote'</v>
-      </c>
-      <c r="K61" s="101"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="171"/>
-      <c r="B62" s="107">
-        <v>60</v>
-      </c>
-      <c r="C62" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D62" s="170" t="str">
-        <v>Z8</v>
-      </c>
-      <c r="E62" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F62" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MZ8_Quote</v>
-      </c>
-      <c r="G62" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MZ8ConvAdj_Quote</v>
-      </c>
-      <c r="H62" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MZ8</v>
-      </c>
-      <c r="I62" s="167" t="str">
-        <f>_xll.qlFuturesRateHelper(H62,$F62,$D62,$E62,$G62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ8#0005</v>
-      </c>
-      <c r="J62" s="102" t="str">
-        <f>_xll.ohRangeRetrieveError(I62)</f>
-        <v/>
-      </c>
-      <c r="K62" s="101"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="171"/>
-      <c r="B63" s="107">
-        <v>61</v>
-      </c>
-      <c r="C63" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D63" s="170" t="str">
-        <v>F9</v>
-      </c>
-      <c r="E63" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F63" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MF9_Quote</v>
-      </c>
-      <c r="G63" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MF9ConvAdj_Quote</v>
-      </c>
-      <c r="H63" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MF9</v>
-      </c>
-      <c r="I63" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H63,$F63,$D63,$E63,$G63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J63" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I63)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF9_Quote'</v>
-      </c>
-      <c r="K63" s="101"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="171"/>
-      <c r="B64" s="107">
-        <v>62</v>
-      </c>
-      <c r="C64" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D64" s="170" t="str">
-        <v>G9</v>
-      </c>
-      <c r="E64" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F64" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MG9_Quote</v>
-      </c>
-      <c r="G64" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MG9ConvAdj_Quote</v>
-      </c>
-      <c r="H64" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MG9</v>
-      </c>
-      <c r="I64" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H64,$F64,$D64,$E64,$G64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J64" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I64)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG9_Quote'</v>
-      </c>
-      <c r="K64" s="101"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="171"/>
-      <c r="B65" s="107">
-        <v>63</v>
-      </c>
-      <c r="C65" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D65" s="170" t="str">
-        <v>H9</v>
-      </c>
-      <c r="E65" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F65" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MH9_Quote</v>
-      </c>
-      <c r="G65" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MH9ConvAdj_Quote</v>
-      </c>
-      <c r="H65" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MH9</v>
-      </c>
-      <c r="I65" s="167" t="str">
-        <f>_xll.qlFuturesRateHelper(H65,$F65,$D65,$E65,$G65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH9#0005</v>
-      </c>
-      <c r="J65" s="102" t="str">
-        <f>_xll.ohRangeRetrieveError(I65)</f>
-        <v/>
-      </c>
-      <c r="K65" s="101"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="171"/>
-      <c r="B66" s="107">
-        <v>64</v>
-      </c>
-      <c r="C66" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D66" s="170" t="str">
-        <v>J9</v>
-      </c>
-      <c r="E66" s="169" t="str">
-        <f t="shared" si="4"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F66" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>EURFUT3MJ9_Quote</v>
-      </c>
-      <c r="G66" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MJ9ConvAdj_Quote</v>
-      </c>
-      <c r="H66" s="168" t="str">
-        <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MJ9</v>
-      </c>
-      <c r="I66" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H66,$F66,$D66,$E66,$G66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J66" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I66)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ9_Quote'</v>
-      </c>
-      <c r="K66" s="101"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="171"/>
-      <c r="B67" s="107">
-        <v>65</v>
-      </c>
-      <c r="C67" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D67" s="170" t="str">
-        <v>K9</v>
-      </c>
-      <c r="E67" s="169" t="str">
-        <f t="shared" ref="E67:E98" si="8">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F67" s="168" t="str">
-        <f t="shared" ref="F67:F98" si="9">Currency&amp;"FUT"&amp;$E$1&amp;$D67&amp;QuoteSuffix</f>
-        <v>EURFUT3MK9_Quote</v>
-      </c>
-      <c r="G67" s="168" t="str">
-        <f t="shared" ref="G67:G98" si="10">Currency&amp;"FUT"&amp;$E$1&amp;$D67&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MK9ConvAdj_Quote</v>
-      </c>
-      <c r="H67" s="168" t="str">
-        <f t="shared" ref="H67:H98" si="11">$H$1&amp;"_FUT"&amp;$E$1&amp;$D67</f>
-        <v>EUR_YC3MRH_FUT3MK9</v>
-      </c>
-      <c r="I67" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H67,$F67,$D67,$E67,$G67,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J67" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I67)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK9_Quote'</v>
-      </c>
-      <c r="K67" s="101"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="171"/>
-      <c r="B68" s="107">
-        <v>66</v>
-      </c>
-      <c r="C68" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D68" s="170" t="str">
-        <v>M9</v>
-      </c>
-      <c r="E68" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F68" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MM9_Quote</v>
-      </c>
-      <c r="G68" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MM9ConvAdj_Quote</v>
-      </c>
-      <c r="H68" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MM9</v>
-      </c>
-      <c r="I68" s="167" t="str">
-        <f>_xll.qlFuturesRateHelper(H68,$F68,$D68,$E68,$G68,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM9#0005</v>
-      </c>
-      <c r="J68" s="102" t="str">
-        <f>_xll.ohRangeRetrieveError(I68)</f>
-        <v/>
-      </c>
-      <c r="K68" s="101"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="171"/>
-      <c r="B69" s="107">
-        <v>67</v>
-      </c>
-      <c r="C69" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D69" s="170" t="str">
-        <v>N9</v>
-      </c>
-      <c r="E69" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F69" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MN9_Quote</v>
-      </c>
-      <c r="G69" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MN9ConvAdj_Quote</v>
-      </c>
-      <c r="H69" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MN9</v>
-      </c>
-      <c r="I69" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H69,$F69,$D69,$E69,$G69,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J69" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I69)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN9_Quote'</v>
-      </c>
-      <c r="K69" s="101"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="171"/>
-      <c r="B70" s="107">
-        <v>68</v>
-      </c>
-      <c r="C70" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D70" s="170" t="str">
-        <v>Q9</v>
-      </c>
-      <c r="E70" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F70" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MQ9_Quote</v>
-      </c>
-      <c r="G70" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MQ9ConvAdj_Quote</v>
-      </c>
-      <c r="H70" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MQ9</v>
-      </c>
-      <c r="I70" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H70,$F70,$D70,$E70,$G70,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J70" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I70)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ9_Quote'</v>
-      </c>
-      <c r="K70" s="101"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="171"/>
-      <c r="B71" s="107">
-        <v>69</v>
-      </c>
-      <c r="C71" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D71" s="170" t="str">
-        <v>U9</v>
-      </c>
-      <c r="E71" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F71" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MU9_Quote</v>
-      </c>
-      <c r="G71" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MU9ConvAdj_Quote</v>
-      </c>
-      <c r="H71" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MU9</v>
-      </c>
-      <c r="I71" s="167" t="str">
-        <f>_xll.qlFuturesRateHelper(H71,$F71,$D71,$E71,$G71,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU9#0005</v>
-      </c>
-      <c r="J71" s="102" t="str">
-        <f>_xll.ohRangeRetrieveError(I71)</f>
-        <v/>
-      </c>
-      <c r="K71" s="101"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="171"/>
-      <c r="B72" s="107">
-        <v>70</v>
-      </c>
-      <c r="C72" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D72" s="170" t="str">
-        <v>V9</v>
-      </c>
-      <c r="E72" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F72" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MV9_Quote</v>
-      </c>
-      <c r="G72" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MV9ConvAdj_Quote</v>
-      </c>
-      <c r="H72" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MV9</v>
-      </c>
-      <c r="I72" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H72,$F72,$D72,$E72,$G72,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J72" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I72)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV9_Quote'</v>
-      </c>
-      <c r="K72" s="101"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="171"/>
-      <c r="B73" s="107">
-        <v>71</v>
-      </c>
-      <c r="C73" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D73" s="170" t="str">
-        <v>X9</v>
-      </c>
-      <c r="E73" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F73" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MX9_Quote</v>
-      </c>
-      <c r="G73" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MX9ConvAdj_Quote</v>
-      </c>
-      <c r="H73" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MX9</v>
-      </c>
-      <c r="I73" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H73,$F73,$D73,$E73,$G73,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J73" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I73)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX9_Quote'</v>
-      </c>
-      <c r="K73" s="101"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="171"/>
-      <c r="B74" s="107">
-        <v>72</v>
-      </c>
-      <c r="C74" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D74" s="170" t="str">
-        <v>Z9</v>
-      </c>
-      <c r="E74" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F74" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MZ9_Quote</v>
-      </c>
-      <c r="G74" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MZ9ConvAdj_Quote</v>
-      </c>
-      <c r="H74" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MZ9</v>
-      </c>
-      <c r="I74" s="167" t="str">
-        <f>_xll.qlFuturesRateHelper(H74,$F74,$D74,$E74,$G74,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ9#0005</v>
-      </c>
-      <c r="J74" s="102" t="str">
-        <f>_xll.ohRangeRetrieveError(I74)</f>
-        <v/>
-      </c>
-      <c r="K74" s="101"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="171"/>
-      <c r="B75" s="107">
-        <v>73</v>
-      </c>
-      <c r="C75" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D75" s="170" t="str">
-        <v>F0</v>
-      </c>
-      <c r="E75" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F75" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MF0_Quote</v>
-      </c>
-      <c r="G75" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MF0ConvAdj_Quote</v>
-      </c>
-      <c r="H75" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MF0</v>
-      </c>
-      <c r="I75" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H75,$F75,$D75,$E75,$G75,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J75" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I75)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF0_Quote'</v>
-      </c>
-      <c r="K75" s="101"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="171"/>
-      <c r="B76" s="107">
-        <v>74</v>
-      </c>
-      <c r="C76" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D76" s="170" t="str">
-        <v>G0</v>
-      </c>
-      <c r="E76" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F76" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MG0_Quote</v>
-      </c>
-      <c r="G76" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MG0ConvAdj_Quote</v>
-      </c>
-      <c r="H76" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MG0</v>
-      </c>
-      <c r="I76" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H76,$F76,$D76,$E76,$G76,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J76" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I76)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG0_Quote'</v>
-      </c>
-      <c r="K76" s="101"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="171"/>
-      <c r="B77" s="107">
-        <v>75</v>
-      </c>
-      <c r="C77" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D77" s="170" t="str">
-        <v>H0</v>
-      </c>
-      <c r="E77" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F77" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MH0_Quote</v>
-      </c>
-      <c r="G77" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MH0ConvAdj_Quote</v>
-      </c>
-      <c r="H77" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MH0</v>
-      </c>
-      <c r="I77" s="167" t="str">
-        <f>_xll.qlFuturesRateHelper(H77,$F77,$D77,$E77,$G77,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH0#0005</v>
-      </c>
-      <c r="J77" s="102" t="str">
-        <f>_xll.ohRangeRetrieveError(I77)</f>
-        <v/>
-      </c>
-      <c r="K77" s="101"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="171"/>
-      <c r="B78" s="107">
-        <v>76</v>
-      </c>
-      <c r="C78" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D78" s="170" t="str">
-        <v>J0</v>
-      </c>
-      <c r="E78" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F78" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MJ0_Quote</v>
-      </c>
-      <c r="G78" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MJ0ConvAdj_Quote</v>
-      </c>
-      <c r="H78" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MJ0</v>
-      </c>
-      <c r="I78" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H78,$F78,$D78,$E78,$G78,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J78" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I78)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ0_Quote'</v>
-      </c>
-      <c r="K78" s="101"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="171"/>
-      <c r="B79" s="107">
-        <v>77</v>
-      </c>
-      <c r="C79" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D79" s="170" t="str">
-        <v>K0</v>
-      </c>
-      <c r="E79" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F79" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MK0_Quote</v>
-      </c>
-      <c r="G79" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MK0ConvAdj_Quote</v>
-      </c>
-      <c r="H79" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MK0</v>
-      </c>
-      <c r="I79" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H79,$F79,$D79,$E79,$G79,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J79" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I79)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK0_Quote'</v>
-      </c>
-      <c r="K79" s="101"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="171"/>
-      <c r="B80" s="107">
-        <v>78</v>
-      </c>
-      <c r="C80" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D80" s="170" t="str">
-        <v>M0</v>
-      </c>
-      <c r="E80" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F80" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MM0_Quote</v>
-      </c>
-      <c r="G80" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MM0ConvAdj_Quote</v>
-      </c>
-      <c r="H80" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MM0</v>
-      </c>
-      <c r="I80" s="167" t="str">
-        <f>_xll.qlFuturesRateHelper(H80,$F80,$D80,$E80,$G80,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM0#0005</v>
-      </c>
-      <c r="J80" s="102" t="str">
-        <f>_xll.ohRangeRetrieveError(I80)</f>
-        <v/>
-      </c>
-      <c r="K80" s="101"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="171"/>
-      <c r="B81" s="107">
-        <v>79</v>
-      </c>
-      <c r="C81" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D81" s="170" t="str">
-        <v>N0</v>
-      </c>
-      <c r="E81" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F81" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MN0_Quote</v>
-      </c>
-      <c r="G81" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MN0ConvAdj_Quote</v>
-      </c>
-      <c r="H81" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MN0</v>
-      </c>
-      <c r="I81" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H81,$F81,$D81,$E81,$G81,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J81" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I81)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN0_Quote'</v>
-      </c>
-      <c r="K81" s="101"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="171"/>
-      <c r="B82" s="107">
-        <v>80</v>
-      </c>
-      <c r="C82" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D82" s="170" t="str">
-        <v>Q0</v>
-      </c>
-      <c r="E82" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F82" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MQ0_Quote</v>
-      </c>
-      <c r="G82" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MQ0ConvAdj_Quote</v>
-      </c>
-      <c r="H82" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MQ0</v>
-      </c>
-      <c r="I82" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H82,$F82,$D82,$E82,$G82,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J82" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I82)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ0_Quote'</v>
-      </c>
-      <c r="K82" s="101"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="171"/>
-      <c r="B83" s="107">
-        <v>81</v>
-      </c>
-      <c r="C83" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D83" s="170" t="str">
-        <v>U0</v>
-      </c>
-      <c r="E83" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F83" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MU0_Quote</v>
-      </c>
-      <c r="G83" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MU0ConvAdj_Quote</v>
-      </c>
-      <c r="H83" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MU0</v>
-      </c>
-      <c r="I83" s="167" t="str">
-        <f>_xll.qlFuturesRateHelper(H83,$F83,$D83,$E83,$G83,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU0#0005</v>
-      </c>
-      <c r="J83" s="102" t="str">
-        <f>_xll.ohRangeRetrieveError(I83)</f>
-        <v/>
-      </c>
-      <c r="K83" s="101"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="171"/>
-      <c r="B84" s="107">
-        <v>82</v>
-      </c>
-      <c r="C84" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D84" s="170" t="str">
-        <v>V0</v>
-      </c>
-      <c r="E84" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F84" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MV0_Quote</v>
-      </c>
-      <c r="G84" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MV0ConvAdj_Quote</v>
-      </c>
-      <c r="H84" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MV0</v>
-      </c>
-      <c r="I84" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H84,$F84,$D84,$E84,$G84,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J84" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I84)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV0_Quote'</v>
-      </c>
-      <c r="K84" s="101"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="171"/>
-      <c r="B85" s="107">
-        <v>83</v>
-      </c>
-      <c r="C85" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D85" s="170" t="str">
-        <v>X0</v>
-      </c>
-      <c r="E85" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F85" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MX0_Quote</v>
-      </c>
-      <c r="G85" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MX0ConvAdj_Quote</v>
-      </c>
-      <c r="H85" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MX0</v>
-      </c>
-      <c r="I85" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H85,$F85,$D85,$E85,$G85,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J85" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I85)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX0_Quote'</v>
-      </c>
-      <c r="K85" s="101"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="171"/>
-      <c r="B86" s="107">
-        <v>84</v>
-      </c>
-      <c r="C86" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D86" s="170" t="str">
-        <v>Z0</v>
-      </c>
-      <c r="E86" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F86" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MZ0_Quote</v>
-      </c>
-      <c r="G86" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MZ0ConvAdj_Quote</v>
-      </c>
-      <c r="H86" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MZ0</v>
-      </c>
-      <c r="I86" s="167" t="str">
-        <f>_xll.qlFuturesRateHelper(H86,$F86,$D86,$E86,$G86,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ0#0005</v>
-      </c>
-      <c r="J86" s="102" t="str">
-        <f>_xll.ohRangeRetrieveError(I86)</f>
-        <v/>
-      </c>
-      <c r="K86" s="101"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="171"/>
-      <c r="B87" s="107">
-        <v>85</v>
-      </c>
-      <c r="C87" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D87" s="170" t="str">
-        <v>F1</v>
-      </c>
-      <c r="E87" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F87" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MF1_Quote</v>
-      </c>
-      <c r="G87" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MF1ConvAdj_Quote</v>
-      </c>
-      <c r="H87" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MF1</v>
-      </c>
-      <c r="I87" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H87,$F87,$D87,$E87,$G87,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J87" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I87)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF1_Quote'</v>
-      </c>
-      <c r="K87" s="101"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="171"/>
-      <c r="B88" s="107">
-        <v>86</v>
-      </c>
-      <c r="C88" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D88" s="170" t="str">
-        <v>G1</v>
-      </c>
-      <c r="E88" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F88" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MG1_Quote</v>
-      </c>
-      <c r="G88" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MG1ConvAdj_Quote</v>
-      </c>
-      <c r="H88" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MG1</v>
-      </c>
-      <c r="I88" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H88,$F88,$D88,$E88,$G88,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J88" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I88)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG1_Quote'</v>
-      </c>
-      <c r="K88" s="101"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="171"/>
-      <c r="B89" s="107">
-        <v>87</v>
-      </c>
-      <c r="C89" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D89" s="170" t="str">
-        <v>H1</v>
-      </c>
-      <c r="E89" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F89" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MH1_Quote</v>
-      </c>
-      <c r="G89" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MH1ConvAdj_Quote</v>
-      </c>
-      <c r="H89" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MH1</v>
-      </c>
-      <c r="I89" s="167" t="str">
-        <f>_xll.qlFuturesRateHelper(H89,$F89,$D89,$E89,$G89,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH1#0005</v>
-      </c>
-      <c r="J89" s="102" t="str">
-        <f>_xll.ohRangeRetrieveError(I89)</f>
-        <v/>
-      </c>
-      <c r="K89" s="101"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="171"/>
-      <c r="B90" s="107">
-        <v>88</v>
-      </c>
-      <c r="C90" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D90" s="170" t="str">
-        <v>J1</v>
-      </c>
-      <c r="E90" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F90" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MJ1_Quote</v>
-      </c>
-      <c r="G90" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MJ1ConvAdj_Quote</v>
-      </c>
-      <c r="H90" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MJ1</v>
-      </c>
-      <c r="I90" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H90,$F90,$D90,$E90,$G90,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J90" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I90)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ1_Quote'</v>
-      </c>
-      <c r="K90" s="101"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="171"/>
-      <c r="B91" s="107">
-        <v>89</v>
-      </c>
-      <c r="C91" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D91" s="170" t="str">
-        <v>K1</v>
-      </c>
-      <c r="E91" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F91" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MK1_Quote</v>
-      </c>
-      <c r="G91" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MK1ConvAdj_Quote</v>
-      </c>
-      <c r="H91" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MK1</v>
-      </c>
-      <c r="I91" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H91,$F91,$D91,$E91,$G91,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J91" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I91)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK1_Quote'</v>
-      </c>
-      <c r="K91" s="101"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="171"/>
-      <c r="B92" s="107">
-        <v>90</v>
-      </c>
-      <c r="C92" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D92" s="170" t="str">
-        <v>M1</v>
-      </c>
-      <c r="E92" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F92" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MM1_Quote</v>
-      </c>
-      <c r="G92" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MM1ConvAdj_Quote</v>
-      </c>
-      <c r="H92" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MM1</v>
-      </c>
-      <c r="I92" s="167" t="str">
-        <f>_xll.qlFuturesRateHelper(H92,$F92,$D92,$E92,$G92,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM1#0005</v>
-      </c>
-      <c r="J92" s="102" t="str">
-        <f>_xll.ohRangeRetrieveError(I92)</f>
-        <v/>
-      </c>
-      <c r="K92" s="101"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="171"/>
-      <c r="B93" s="107">
-        <v>91</v>
-      </c>
-      <c r="C93" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D93" s="170" t="str">
-        <v>N1</v>
-      </c>
-      <c r="E93" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F93" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MN1_Quote</v>
-      </c>
-      <c r="G93" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MN1ConvAdj_Quote</v>
-      </c>
-      <c r="H93" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MN1</v>
-      </c>
-      <c r="I93" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H93,$F93,$D93,$E93,$G93,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J93" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I93)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN1_Quote'</v>
-      </c>
-      <c r="K93" s="101"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="171"/>
-      <c r="B94" s="107">
-        <v>92</v>
-      </c>
-      <c r="C94" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D94" s="170" t="str">
-        <v>Q1</v>
-      </c>
-      <c r="E94" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F94" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MQ1_Quote</v>
-      </c>
-      <c r="G94" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MQ1ConvAdj_Quote</v>
-      </c>
-      <c r="H94" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MQ1</v>
-      </c>
-      <c r="I94" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H94,$F94,$D94,$E94,$G94,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J94" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I94)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ1_Quote'</v>
-      </c>
-      <c r="K94" s="101"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="171"/>
-      <c r="B95" s="107">
-        <v>93</v>
-      </c>
-      <c r="C95" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D95" s="170" t="str">
-        <v>U1</v>
-      </c>
-      <c r="E95" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F95" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MU1_Quote</v>
-      </c>
-      <c r="G95" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MU1ConvAdj_Quote</v>
-      </c>
-      <c r="H95" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MU1</v>
-      </c>
-      <c r="I95" s="167" t="str">
-        <f>_xll.qlFuturesRateHelper(H95,$F95,$D95,$E95,$G95,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU1#0005</v>
-      </c>
-      <c r="J95" s="102" t="str">
-        <f>_xll.ohRangeRetrieveError(I95)</f>
-        <v/>
-      </c>
-      <c r="K95" s="101"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="171"/>
-      <c r="B96" s="107">
-        <v>94</v>
-      </c>
-      <c r="C96" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D96" s="170" t="str">
-        <v>V1</v>
-      </c>
-      <c r="E96" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F96" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MV1_Quote</v>
-      </c>
-      <c r="G96" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MV1ConvAdj_Quote</v>
-      </c>
-      <c r="H96" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MV1</v>
-      </c>
-      <c r="I96" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H96,$F96,$D96,$E96,$G96,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J96" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I96)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV1_Quote'</v>
-      </c>
-      <c r="K96" s="101"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="171"/>
-      <c r="B97" s="107">
-        <v>95</v>
-      </c>
-      <c r="C97" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D97" s="170" t="str">
-        <v>X1</v>
-      </c>
-      <c r="E97" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F97" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MX1_Quote</v>
-      </c>
-      <c r="G97" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MX1ConvAdj_Quote</v>
-      </c>
-      <c r="H97" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MX1</v>
-      </c>
-      <c r="I97" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H97,$F97,$D97,$E97,$G97,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J97" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I97)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX1_Quote'</v>
-      </c>
-      <c r="K97" s="101"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="171"/>
-      <c r="B98" s="107">
-        <v>96</v>
-      </c>
-      <c r="C98" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D98" s="170" t="str">
-        <v>Z1</v>
-      </c>
-      <c r="E98" s="169" t="str">
-        <f t="shared" si="8"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F98" s="168" t="str">
-        <f t="shared" si="9"/>
-        <v>EURFUT3MZ1_Quote</v>
-      </c>
-      <c r="G98" s="168" t="str">
-        <f t="shared" si="10"/>
-        <v>EURFUT3MZ1ConvAdj_Quote</v>
-      </c>
-      <c r="H98" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>EUR_YC3MRH_FUT3MZ1</v>
-      </c>
-      <c r="I98" s="167" t="str">
-        <f>_xll.qlFuturesRateHelper(H98,$F98,$D98,$E98,$G98,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ1#0005</v>
-      </c>
-      <c r="J98" s="102" t="str">
-        <f>_xll.ohRangeRetrieveError(I98)</f>
-        <v/>
-      </c>
-      <c r="K98" s="101"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="171"/>
-      <c r="B99" s="107">
-        <v>97</v>
-      </c>
-      <c r="C99" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D99" s="170" t="str">
-        <v>F2</v>
-      </c>
-      <c r="E99" s="169" t="str">
-        <f t="shared" ref="E99:E122" si="12">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F99" s="168" t="str">
-        <f t="shared" ref="F99:F122" si="13">Currency&amp;"FUT"&amp;$E$1&amp;$D99&amp;QuoteSuffix</f>
-        <v>EURFUT3MF2_Quote</v>
-      </c>
-      <c r="G99" s="168" t="str">
-        <f t="shared" ref="G99:G122" si="14">Currency&amp;"FUT"&amp;$E$1&amp;$D99&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MF2ConvAdj_Quote</v>
-      </c>
-      <c r="H99" s="168" t="str">
-        <f t="shared" ref="H99:H122" si="15">$H$1&amp;"_FUT"&amp;$E$1&amp;$D99</f>
-        <v>EUR_YC3MRH_FUT3MF2</v>
-      </c>
-      <c r="I99" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H99,$F99,$D99,$E99,$G99,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J99" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I99)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF2_Quote'</v>
-      </c>
-      <c r="K99" s="101"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="171"/>
-      <c r="B100" s="107">
-        <v>98</v>
-      </c>
-      <c r="C100" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D100" s="170" t="str">
-        <v>G2</v>
-      </c>
-      <c r="E100" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F100" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MG2_Quote</v>
-      </c>
-      <c r="G100" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MG2ConvAdj_Quote</v>
-      </c>
-      <c r="H100" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MG2</v>
-      </c>
-      <c r="I100" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H100,$F100,$D100,$E100,$G100,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J100" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I100)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG2_Quote'</v>
-      </c>
-      <c r="K100" s="101"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="171"/>
-      <c r="B101" s="107">
-        <v>99</v>
-      </c>
-      <c r="C101" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D101" s="170" t="str">
-        <v>H2</v>
-      </c>
-      <c r="E101" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F101" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MH2_Quote</v>
-      </c>
-      <c r="G101" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MH2ConvAdj_Quote</v>
-      </c>
-      <c r="H101" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MH2</v>
-      </c>
-      <c r="I101" s="167" t="str">
-        <f>_xll.qlFuturesRateHelper(H101,$F101,$D101,$E101,$G101,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH2#0005</v>
-      </c>
-      <c r="J101" s="102" t="str">
-        <f>_xll.ohRangeRetrieveError(I101)</f>
-        <v/>
-      </c>
-      <c r="K101" s="101"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="171"/>
-      <c r="B102" s="107">
-        <v>100</v>
-      </c>
-      <c r="C102" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D102" s="170" t="str">
-        <v>J2</v>
-      </c>
-      <c r="E102" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F102" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MJ2_Quote</v>
-      </c>
-      <c r="G102" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MJ2ConvAdj_Quote</v>
-      </c>
-      <c r="H102" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MJ2</v>
-      </c>
-      <c r="I102" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H102,$F102,$D102,$E102,$G102,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J102" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I102)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ2_Quote'</v>
-      </c>
-      <c r="K102" s="101"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="171"/>
-      <c r="B103" s="107">
-        <v>101</v>
-      </c>
-      <c r="C103" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D103" s="170" t="str">
-        <v>K2</v>
-      </c>
-      <c r="E103" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F103" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MK2_Quote</v>
-      </c>
-      <c r="G103" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MK2ConvAdj_Quote</v>
-      </c>
-      <c r="H103" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MK2</v>
-      </c>
-      <c r="I103" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H103,$F103,$D103,$E103,$G103,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J103" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I103)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK2_Quote'</v>
-      </c>
-      <c r="K103" s="101"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="171"/>
-      <c r="B104" s="107">
-        <v>102</v>
-      </c>
-      <c r="C104" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D104" s="170" t="str">
-        <v>M2</v>
-      </c>
-      <c r="E104" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F104" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MM2_Quote</v>
-      </c>
-      <c r="G104" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MM2ConvAdj_Quote</v>
-      </c>
-      <c r="H104" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MM2</v>
-      </c>
-      <c r="I104" s="167" t="str">
-        <f>_xll.qlFuturesRateHelper(H104,$F104,$D104,$E104,$G104,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM2#0005</v>
-      </c>
-      <c r="J104" s="102" t="str">
-        <f>_xll.ohRangeRetrieveError(I104)</f>
-        <v/>
-      </c>
-      <c r="K104" s="101"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="171"/>
-      <c r="B105" s="107">
-        <v>103</v>
-      </c>
-      <c r="C105" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D105" s="170" t="str">
-        <v>N2</v>
-      </c>
-      <c r="E105" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F105" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MN2_Quote</v>
-      </c>
-      <c r="G105" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MN2ConvAdj_Quote</v>
-      </c>
-      <c r="H105" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MN2</v>
-      </c>
-      <c r="I105" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H105,$F105,$D105,$E105,$G105,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J105" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I105)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN2_Quote'</v>
-      </c>
-      <c r="K105" s="101"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="171"/>
-      <c r="B106" s="107">
-        <v>104</v>
-      </c>
-      <c r="C106" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D106" s="170" t="str">
-        <v>Q2</v>
-      </c>
-      <c r="E106" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F106" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MQ2_Quote</v>
-      </c>
-      <c r="G106" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MQ2ConvAdj_Quote</v>
-      </c>
-      <c r="H106" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MQ2</v>
-      </c>
-      <c r="I106" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H106,$F106,$D106,$E106,$G106,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J106" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I106)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ2_Quote'</v>
-      </c>
-      <c r="K106" s="101"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="171"/>
-      <c r="B107" s="107">
-        <v>105</v>
-      </c>
-      <c r="C107" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D107" s="170" t="str">
-        <v>U2</v>
-      </c>
-      <c r="E107" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F107" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MU2_Quote</v>
-      </c>
-      <c r="G107" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MU2ConvAdj_Quote</v>
-      </c>
-      <c r="H107" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MU2</v>
-      </c>
-      <c r="I107" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H107,$F107,$D107,$E107,$G107,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J107" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I107)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MU2_Quote'</v>
-      </c>
-      <c r="K107" s="101"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="171"/>
-      <c r="B108" s="107">
-        <v>106</v>
-      </c>
-      <c r="C108" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D108" s="170" t="str">
-        <v>V2</v>
-      </c>
-      <c r="E108" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F108" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MV2_Quote</v>
-      </c>
-      <c r="G108" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MV2ConvAdj_Quote</v>
-      </c>
-      <c r="H108" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MV2</v>
-      </c>
-      <c r="I108" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H108,$F108,$D108,$E108,$G108,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J108" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I108)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV2_Quote'</v>
-      </c>
-      <c r="K108" s="101"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="171"/>
-      <c r="B109" s="107">
-        <v>107</v>
-      </c>
-      <c r="C109" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D109" s="170" t="str">
-        <v>X2</v>
-      </c>
-      <c r="E109" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F109" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MX2_Quote</v>
-      </c>
-      <c r="G109" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MX2ConvAdj_Quote</v>
-      </c>
-      <c r="H109" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MX2</v>
-      </c>
-      <c r="I109" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H109,$F109,$D109,$E109,$G109,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J109" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I109)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX2_Quote'</v>
-      </c>
-      <c r="K109" s="101"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="171"/>
-      <c r="B110" s="107">
-        <v>108</v>
-      </c>
-      <c r="C110" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D110" s="170" t="str">
-        <v>Z2</v>
-      </c>
-      <c r="E110" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F110" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MZ2_Quote</v>
-      </c>
-      <c r="G110" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MZ2ConvAdj_Quote</v>
-      </c>
-      <c r="H110" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MZ2</v>
-      </c>
-      <c r="I110" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H110,$F110,$D110,$E110,$G110,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J110" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I110)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MZ2_Quote'</v>
-      </c>
-      <c r="K110" s="101"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="171"/>
-      <c r="B111" s="107">
-        <v>109</v>
-      </c>
-      <c r="C111" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D111" s="170" t="str">
-        <v>F3</v>
-      </c>
-      <c r="E111" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F111" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MF3_Quote</v>
-      </c>
-      <c r="G111" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MF3ConvAdj_Quote</v>
-      </c>
-      <c r="H111" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MF3</v>
-      </c>
-      <c r="I111" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H111,$F111,$D111,$E111,$G111,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J111" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I111)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MF3_Quote'</v>
-      </c>
-      <c r="K111" s="101"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="171"/>
-      <c r="B112" s="107">
-        <v>110</v>
-      </c>
-      <c r="C112" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D112" s="170" t="str">
-        <v>G3</v>
-      </c>
-      <c r="E112" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F112" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MG3_Quote</v>
-      </c>
-      <c r="G112" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MG3ConvAdj_Quote</v>
-      </c>
-      <c r="H112" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MG3</v>
-      </c>
-      <c r="I112" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H112,$F112,$D112,$E112,$G112,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J112" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I112)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MG3_Quote'</v>
-      </c>
-      <c r="K112" s="101"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="171"/>
-      <c r="B113" s="107">
-        <v>111</v>
-      </c>
-      <c r="C113" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D113" s="170" t="str">
-        <v>H3</v>
-      </c>
-      <c r="E113" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F113" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MH3_Quote</v>
-      </c>
-      <c r="G113" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MH3ConvAdj_Quote</v>
-      </c>
-      <c r="H113" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MH3</v>
-      </c>
-      <c r="I113" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H113,$F113,$D113,$E113,$G113,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J113" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I113)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MH3_Quote'</v>
-      </c>
-      <c r="K113" s="101"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="171"/>
-      <c r="B114" s="107">
-        <v>112</v>
-      </c>
-      <c r="C114" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D114" s="170" t="str">
-        <v>J3</v>
-      </c>
-      <c r="E114" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F114" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MJ3_Quote</v>
-      </c>
-      <c r="G114" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MJ3ConvAdj_Quote</v>
-      </c>
-      <c r="H114" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MJ3</v>
-      </c>
-      <c r="I114" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H114,$F114,$D114,$E114,$G114,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J114" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I114)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MJ3_Quote'</v>
-      </c>
-      <c r="K114" s="101"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="171"/>
-      <c r="B115" s="107">
-        <v>113</v>
-      </c>
-      <c r="C115" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D115" s="170" t="str">
-        <v>K3</v>
-      </c>
-      <c r="E115" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F115" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MK3_Quote</v>
-      </c>
-      <c r="G115" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MK3ConvAdj_Quote</v>
-      </c>
-      <c r="H115" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MK3</v>
-      </c>
-      <c r="I115" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H115,$F115,$D115,$E115,$G115,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J115" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I115)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MK3_Quote'</v>
-      </c>
-      <c r="K115" s="101"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="171"/>
-      <c r="B116" s="107">
-        <v>114</v>
-      </c>
-      <c r="C116" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D116" s="170" t="str">
-        <v>M3</v>
-      </c>
-      <c r="E116" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F116" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MM3_Quote</v>
-      </c>
-      <c r="G116" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MM3ConvAdj_Quote</v>
-      </c>
-      <c r="H116" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MM3</v>
-      </c>
-      <c r="I116" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H116,$F116,$D116,$E116,$G116,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J116" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I116)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MM3_Quote'</v>
-      </c>
-      <c r="K116" s="101"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="171"/>
-      <c r="B117" s="107">
-        <v>115</v>
-      </c>
-      <c r="C117" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D117" s="170" t="str">
-        <v>N3</v>
-      </c>
-      <c r="E117" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F117" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MN3_Quote</v>
-      </c>
-      <c r="G117" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MN3ConvAdj_Quote</v>
-      </c>
-      <c r="H117" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MN3</v>
-      </c>
-      <c r="I117" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H117,$F117,$D117,$E117,$G117,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J117" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I117)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MN3_Quote'</v>
-      </c>
-      <c r="K117" s="101"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="171"/>
-      <c r="B118" s="107">
-        <v>116</v>
-      </c>
-      <c r="C118" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D118" s="170" t="str">
-        <v>Q3</v>
-      </c>
-      <c r="E118" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F118" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MQ3_Quote</v>
-      </c>
-      <c r="G118" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MQ3ConvAdj_Quote</v>
-      </c>
-      <c r="H118" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MQ3</v>
-      </c>
-      <c r="I118" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H118,$F118,$D118,$E118,$G118,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J118" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I118)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MQ3_Quote'</v>
-      </c>
-      <c r="K118" s="101"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119" s="171"/>
-      <c r="B119" s="107">
-        <v>117</v>
-      </c>
-      <c r="C119" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D119" s="170" t="str">
-        <v>U3</v>
-      </c>
-      <c r="E119" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F119" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MU3_Quote</v>
-      </c>
-      <c r="G119" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MU3ConvAdj_Quote</v>
-      </c>
-      <c r="H119" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MU3</v>
-      </c>
-      <c r="I119" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H119,$F119,$D119,$E119,$G119,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J119" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I119)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MU3_Quote'</v>
-      </c>
-      <c r="K119" s="101"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="171"/>
-      <c r="B120" s="107">
-        <v>118</v>
-      </c>
-      <c r="C120" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D120" s="170" t="str">
-        <v>V3</v>
-      </c>
-      <c r="E120" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F120" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MV3_Quote</v>
-      </c>
-      <c r="G120" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MV3ConvAdj_Quote</v>
-      </c>
-      <c r="H120" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MV3</v>
-      </c>
-      <c r="I120" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H120,$F120,$D120,$E120,$G120,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J120" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I120)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MV3_Quote'</v>
-      </c>
-      <c r="K120" s="101"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="171"/>
-      <c r="B121" s="107">
-        <v>119</v>
-      </c>
-      <c r="C121" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D121" s="170" t="str">
-        <v>X3</v>
-      </c>
-      <c r="E121" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F121" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MX3_Quote</v>
-      </c>
-      <c r="G121" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MX3ConvAdj_Quote</v>
-      </c>
-      <c r="H121" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MX3</v>
-      </c>
-      <c r="I121" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H121,$F121,$D121,$E121,$G121,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J121" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I121)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MX3_Quote'</v>
-      </c>
-      <c r="K121" s="101"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="171"/>
-      <c r="B122" s="107">
-        <v>120</v>
-      </c>
-      <c r="C122" s="170" t="b">
-        <v>0</v>
-      </c>
-      <c r="D122" s="170" t="str">
-        <v>Z3</v>
-      </c>
-      <c r="E122" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="F122" s="168" t="str">
-        <f t="shared" si="13"/>
-        <v>EURFUT3MZ3_Quote</v>
-      </c>
-      <c r="G122" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>EURFUT3MZ3ConvAdj_Quote</v>
-      </c>
-      <c r="H122" s="168" t="str">
-        <f t="shared" si="15"/>
-        <v>EUR_YC3MRH_FUT3MZ3</v>
-      </c>
-      <c r="I122" s="167" t="e">
-        <f>_xll.qlFuturesRateHelper(H122,$F122,$D122,$E122,$G122,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J122" s="102" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I122)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'EURFUT3MZ3_Quote'</v>
-      </c>
-      <c r="K122" s="101"/>
-    </row>
-    <row r="123" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="166"/>
-      <c r="B123" s="165"/>
-      <c r="C123" s="165"/>
-      <c r="D123" s="165"/>
-      <c r="E123" s="165"/>
-      <c r="F123" s="165"/>
-      <c r="G123" s="165"/>
-      <c r="H123" s="165"/>
-      <c r="I123" s="165"/>
-      <c r="J123" s="165"/>
-      <c r="K123" s="164"/>
+    <row r="45" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="166"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="165"/>
+      <c r="F45" s="165"/>
+      <c r="G45" s="165"/>
+      <c r="H45" s="165"/>
+      <c r="I45" s="165"/>
+      <c r="J45" s="165"/>
+      <c r="K45" s="164"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21201,7 +18321,7 @@
       </c>
       <c r="L4" s="204" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC3MRH_AB3E_ibor3M#0005</v>
+        <v>EUR_YC3MRH_AB3E_ibor3M#0002</v>
       </c>
       <c r="M4" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -21265,7 +18385,7 @@
       </c>
       <c r="L6" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E1Y#0005</v>
+        <v>EUR_YC3MRH_AB3E1Y#0002</v>
       </c>
       <c r="M6" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -21320,7 +18440,7 @@
       </c>
       <c r="L7" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E15M#0005</v>
+        <v>EUR_YC3MRH_AB3E15M#0002</v>
       </c>
       <c r="M7" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -21375,7 +18495,7 @@
       </c>
       <c r="L8" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E18M#0005</v>
+        <v>EUR_YC3MRH_AB3E18M#0002</v>
       </c>
       <c r="M8" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -21430,7 +18550,7 @@
       </c>
       <c r="L9" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E21M#0005</v>
+        <v>EUR_YC3MRH_AB3E21M#0002</v>
       </c>
       <c r="M9" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -21485,7 +18605,7 @@
       </c>
       <c r="L10" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E2Y#0005</v>
+        <v>EUR_YC3MRH_AB3E2Y#0002</v>
       </c>
       <c r="M10" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -21540,7 +18660,7 @@
       </c>
       <c r="L11" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E3Y#0005</v>
+        <v>EUR_YC3MRH_AB3E3Y#0002</v>
       </c>
       <c r="M11" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -21586,7 +18706,7 @@
       </c>
       <c r="L12" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E4Y#0005</v>
+        <v>EUR_YC3MRH_AB3E4Y#0002</v>
       </c>
       <c r="M12" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -21632,7 +18752,7 @@
       </c>
       <c r="L13" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E5Y#0005</v>
+        <v>EUR_YC3MRH_AB3E5Y#0002</v>
       </c>
       <c r="M13" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -21678,7 +18798,7 @@
       </c>
       <c r="L14" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E6Y#0005</v>
+        <v>EUR_YC3MRH_AB3E6Y#0002</v>
       </c>
       <c r="M14" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -21724,7 +18844,7 @@
       </c>
       <c r="L15" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E7Y#0005</v>
+        <v>EUR_YC3MRH_AB3E7Y#0002</v>
       </c>
       <c r="M15" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -21770,7 +18890,7 @@
       </c>
       <c r="L16" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E8Y#0005</v>
+        <v>EUR_YC3MRH_AB3E8Y#0002</v>
       </c>
       <c r="M16" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -21816,7 +18936,7 @@
       </c>
       <c r="L17" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E9Y#0005</v>
+        <v>EUR_YC3MRH_AB3E9Y#0002</v>
       </c>
       <c r="M17" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -21862,7 +18982,7 @@
       </c>
       <c r="L18" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E10Y#0005</v>
+        <v>EUR_YC3MRH_AB3E10Y#0002</v>
       </c>
       <c r="M18" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -21908,7 +19028,7 @@
       </c>
       <c r="L19" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E11Y#0005</v>
+        <v>EUR_YC3MRH_AB3E11Y#0002</v>
       </c>
       <c r="M19" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -21954,7 +19074,7 @@
       </c>
       <c r="L20" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E12Y#0005</v>
+        <v>EUR_YC3MRH_AB3E12Y#0002</v>
       </c>
       <c r="M20" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -22000,7 +19120,7 @@
       </c>
       <c r="L21" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E13Y#0005</v>
+        <v>EUR_YC3MRH_AB3E13Y#0002</v>
       </c>
       <c r="M21" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -22046,7 +19166,7 @@
       </c>
       <c r="L22" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E14Y#0005</v>
+        <v>EUR_YC3MRH_AB3E14Y#0002</v>
       </c>
       <c r="M22" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -22092,7 +19212,7 @@
       </c>
       <c r="L23" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E15Y#0005</v>
+        <v>EUR_YC3MRH_AB3E15Y#0002</v>
       </c>
       <c r="M23" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -22138,7 +19258,7 @@
       </c>
       <c r="L24" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E16Y#0005</v>
+        <v>EUR_YC3MRH_AB3E16Y#0002</v>
       </c>
       <c r="M24" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -22184,7 +19304,7 @@
       </c>
       <c r="L25" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E17Y#0005</v>
+        <v>EUR_YC3MRH_AB3E17Y#0002</v>
       </c>
       <c r="M25" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -22230,7 +19350,7 @@
       </c>
       <c r="L26" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E18Y#0005</v>
+        <v>EUR_YC3MRH_AB3E18Y#0002</v>
       </c>
       <c r="M26" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -22276,7 +19396,7 @@
       </c>
       <c r="L27" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E19Y#0005</v>
+        <v>EUR_YC3MRH_AB3E19Y#0002</v>
       </c>
       <c r="M27" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -22322,7 +19442,7 @@
       </c>
       <c r="L28" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E20Y#0005</v>
+        <v>EUR_YC3MRH_AB3E20Y#0002</v>
       </c>
       <c r="M28" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -22368,7 +19488,7 @@
       </c>
       <c r="L29" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E21Y#0005</v>
+        <v>EUR_YC3MRH_AB3E21Y#0002</v>
       </c>
       <c r="M29" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -22414,7 +19534,7 @@
       </c>
       <c r="L30" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E22Y#0005</v>
+        <v>EUR_YC3MRH_AB3E22Y#0002</v>
       </c>
       <c r="M30" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -22460,7 +19580,7 @@
       </c>
       <c r="L31" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E23Y#0005</v>
+        <v>EUR_YC3MRH_AB3E23Y#0002</v>
       </c>
       <c r="M31" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -22506,7 +19626,7 @@
       </c>
       <c r="L32" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E24Y#0005</v>
+        <v>EUR_YC3MRH_AB3E24Y#0002</v>
       </c>
       <c r="M32" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -22552,7 +19672,7 @@
       </c>
       <c r="L33" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E25Y#0005</v>
+        <v>EUR_YC3MRH_AB3E25Y#0002</v>
       </c>
       <c r="M33" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -22598,7 +19718,7 @@
       </c>
       <c r="L34" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E26Y#0005</v>
+        <v>EUR_YC3MRH_AB3E26Y#0002</v>
       </c>
       <c r="M34" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -22644,7 +19764,7 @@
       </c>
       <c r="L35" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E27Y#0005</v>
+        <v>EUR_YC3MRH_AB3E27Y#0002</v>
       </c>
       <c r="M35" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -22690,7 +19810,7 @@
       </c>
       <c r="L36" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E28Y#0005</v>
+        <v>EUR_YC3MRH_AB3E28Y#0002</v>
       </c>
       <c r="M36" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -22736,7 +19856,7 @@
       </c>
       <c r="L37" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E29Y#0005</v>
+        <v>EUR_YC3MRH_AB3E29Y#0002</v>
       </c>
       <c r="M37" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -22782,7 +19902,7 @@
       </c>
       <c r="L38" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E30Y#0005</v>
+        <v>EUR_YC3MRH_AB3E30Y#0002</v>
       </c>
       <c r="M38" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -22828,7 +19948,7 @@
       </c>
       <c r="L39" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E35Y#0005</v>
+        <v>EUR_YC3MRH_AB3E35Y#0002</v>
       </c>
       <c r="M39" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -22874,7 +19994,7 @@
       </c>
       <c r="L40" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E40Y#0005</v>
+        <v>EUR_YC3MRH_AB3E40Y#0002</v>
       </c>
       <c r="M40" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -22920,7 +20040,7 @@
       </c>
       <c r="L41" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E50Y#0005</v>
+        <v>EUR_YC3MRH_AB3E50Y#0002</v>
       </c>
       <c r="M41" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -22966,7 +20086,7 @@
       </c>
       <c r="L42" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E60Y#0005</v>
+        <v>EUR_YC3MRH_AB3E60Y#0002</v>
       </c>
       <c r="M42" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -23024,7 +20144,7 @@
       </c>
       <c r="L44" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K44,$J44,$E44&amp;"M",Calendar,$F44,$G44,$H44,$L$4,$I44,B44,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S12#0005</v>
+        <v>EUR_YC3MRH_1S12#0002</v>
       </c>
       <c r="M44" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -23069,7 +20189,7 @@
       </c>
       <c r="L45" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K45,$J45,$E45&amp;"M",Calendar,$F45,$G45,$H45,$L$4,$I45,B45,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2S12#0005</v>
+        <v>EUR_YC3MRH_2S12#0002</v>
       </c>
       <c r="M45" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -23114,7 +20234,7 @@
       </c>
       <c r="L46" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K46,$J46,$E46&amp;"M",Calendar,$F46,$G46,$H46,$L$4,$I46,B46,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3S12#0005</v>
+        <v>EUR_YC3MRH_3S12#0002</v>
       </c>
       <c r="M46" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -23159,7 +20279,7 @@
       </c>
       <c r="L47" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K47,$J47,$E47&amp;"M",Calendar,$F47,$G47,$H47,$L$4,$I47,B47,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_4S12#0005</v>
+        <v>EUR_YC3MRH_4S12#0002</v>
       </c>
       <c r="M47" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -23204,7 +20324,7 @@
       </c>
       <c r="L48" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K48,$J48,$E48&amp;"M",Calendar,$F48,$G48,$H48,$L$4,$I48,B48,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S24#0005</v>
+        <v>EUR_YC3MRH_1S24#0002</v>
       </c>
       <c r="M48" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -23249,7 +20369,7 @@
       </c>
       <c r="L49" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K49,$J49,$E49&amp;"M",Calendar,$F49,$G49,$H49,$L$4,$I49,B49,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2S24#0005</v>
+        <v>EUR_YC3MRH_2S24#0002</v>
       </c>
       <c r="M49" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -23294,7 +20414,7 @@
       </c>
       <c r="L50" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K50,$J50,$E50&amp;"M",Calendar,$F50,$G50,$H50,$L$4,$I50,B50,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S36#0005</v>
+        <v>EUR_YC3MRH_1S36#0002</v>
       </c>
       <c r="M50" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -23468,7 +20588,7 @@
       </c>
       <c r="L4" s="204" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC3MRH_AB3EBASIS_ibor3M#0005</v>
+        <v>EUR_YC3MRH_AB3EBASIS_ibor3M#0002</v>
       </c>
       <c r="M4" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -23532,7 +20652,7 @@
       </c>
       <c r="L6" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS1Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS1Y#0001</v>
       </c>
       <c r="M6" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -23581,7 +20701,7 @@
       </c>
       <c r="L7" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS15M#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS15M#0001</v>
       </c>
       <c r="M7" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -23630,7 +20750,7 @@
       </c>
       <c r="L8" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS18M#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS18M#0001</v>
       </c>
       <c r="M8" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -23679,7 +20799,7 @@
       </c>
       <c r="L9" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS21M#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS21M#0001</v>
       </c>
       <c r="M9" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -23728,7 +20848,7 @@
       </c>
       <c r="L10" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS2Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS2Y#0001</v>
       </c>
       <c r="M10" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -23786,7 +20906,7 @@
       </c>
       <c r="L11" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS3Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS3Y#0001</v>
       </c>
       <c r="M11" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -23844,7 +20964,7 @@
       </c>
       <c r="L12" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS4Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS4Y#0001</v>
       </c>
       <c r="M12" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -23902,7 +21022,7 @@
       </c>
       <c r="L13" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS5Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS5Y#0001</v>
       </c>
       <c r="M13" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -23960,7 +21080,7 @@
       </c>
       <c r="L14" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS6Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS6Y#0001</v>
       </c>
       <c r="M14" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -24018,7 +21138,7 @@
       </c>
       <c r="L15" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS7Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS7Y#0001</v>
       </c>
       <c r="M15" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -24070,7 +21190,7 @@
       </c>
       <c r="L16" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS8Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS8Y#0001</v>
       </c>
       <c r="M16" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -24119,7 +21239,7 @@
       </c>
       <c r="L17" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS9Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS9Y#0001</v>
       </c>
       <c r="M17" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -24168,7 +21288,7 @@
       </c>
       <c r="L18" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS10Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS10Y#0001</v>
       </c>
       <c r="M18" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -24217,7 +21337,7 @@
       </c>
       <c r="L19" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS11Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS11Y#0001</v>
       </c>
       <c r="M19" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -24266,7 +21386,7 @@
       </c>
       <c r="L20" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS12Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS12Y#0001</v>
       </c>
       <c r="M20" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -24315,7 +21435,7 @@
       </c>
       <c r="L21" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS13Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS13Y#0001</v>
       </c>
       <c r="M21" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -24364,7 +21484,7 @@
       </c>
       <c r="L22" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS14Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS14Y#0001</v>
       </c>
       <c r="M22" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -24413,7 +21533,7 @@
       </c>
       <c r="L23" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS15Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS15Y#0001</v>
       </c>
       <c r="M23" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -24462,7 +21582,7 @@
       </c>
       <c r="L24" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS16Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS16Y#0001</v>
       </c>
       <c r="M24" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -24511,7 +21631,7 @@
       </c>
       <c r="L25" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS17Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS17Y#0001</v>
       </c>
       <c r="M25" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -24560,7 +21680,7 @@
       </c>
       <c r="L26" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS18Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS18Y#0001</v>
       </c>
       <c r="M26" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -24609,7 +21729,7 @@
       </c>
       <c r="L27" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS19Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS19Y#0001</v>
       </c>
       <c r="M27" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -24658,7 +21778,7 @@
       </c>
       <c r="L28" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS20Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS20Y#0001</v>
       </c>
       <c r="M28" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -24707,7 +21827,7 @@
       </c>
       <c r="L29" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS21Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS21Y#0001</v>
       </c>
       <c r="M29" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -24756,7 +21876,7 @@
       </c>
       <c r="L30" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS22Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS22Y#0001</v>
       </c>
       <c r="M30" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -24805,7 +21925,7 @@
       </c>
       <c r="L31" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS23Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS23Y#0001</v>
       </c>
       <c r="M31" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -24854,7 +21974,7 @@
       </c>
       <c r="L32" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS24Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS24Y#0001</v>
       </c>
       <c r="M32" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -24903,7 +22023,7 @@
       </c>
       <c r="L33" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS25Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS25Y#0001</v>
       </c>
       <c r="M33" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -24952,7 +22072,7 @@
       </c>
       <c r="L34" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS26Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS26Y#0001</v>
       </c>
       <c r="M34" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -25001,7 +22121,7 @@
       </c>
       <c r="L35" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS27Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS27Y#0001</v>
       </c>
       <c r="M35" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -25050,7 +22170,7 @@
       </c>
       <c r="L36" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS28Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS28Y#0001</v>
       </c>
       <c r="M36" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -25099,7 +22219,7 @@
       </c>
       <c r="L37" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS29Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS29Y#0001</v>
       </c>
       <c r="M37" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -25148,7 +22268,7 @@
       </c>
       <c r="L38" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS30Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS30Y#0001</v>
       </c>
       <c r="M38" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -25197,7 +22317,7 @@
       </c>
       <c r="L39" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS35Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS35Y#0001</v>
       </c>
       <c r="M39" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -25246,7 +22366,7 @@
       </c>
       <c r="L40" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS40Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS40Y#0001</v>
       </c>
       <c r="M40" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -25295,7 +22415,7 @@
       </c>
       <c r="L41" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS50Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS50Y#0001</v>
       </c>
       <c r="M41" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -25344,7 +22464,7 @@
       </c>
       <c r="L42" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS60Y#0004</v>
+        <v>EUR_YC3MRH_AB3EBASIS60Y#0001</v>
       </c>
       <c r="M42" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/EUR_YC3MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YC3MBootstrapping.xlsx
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="189">
   <si>
     <t>Error</t>
   </si>
@@ -580,9 +580,6 @@
     <t>EUR_YC3MRH_2MD</t>
   </si>
   <si>
-    <t>EUR_YC3MRH_TOM3F1</t>
-  </si>
-  <si>
     <t>EUR_YC3MRH_FUT3MH4</t>
   </si>
   <si>
@@ -602,9 +599,6 @@
   </si>
   <si>
     <t>EUR_YC3MRH_FUT3MU5</t>
-  </si>
-  <si>
-    <t>EUR_YC3MRH_FUT3MZ5</t>
   </si>
   <si>
     <t>EUR_YC3MRH_AB3E3Y</t>
@@ -792,6 +786,9 @@
   <si>
     <t>EUR_YCRH_SwapsFromBasis</t>
   </si>
+  <si>
+    <t>EUR_YC3MRH_FUT3MZ3</t>
+  </si>
 </sst>
 </file>
 
@@ -935,7 +932,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -988,12 +985,6 @@
       <patternFill patternType="gray0625">
         <fgColor indexed="22"/>
         <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1930,13 +1921,27 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1961,21 +1966,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2293,40 +2284,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="219" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="219" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" style="219" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="219" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.7109375" style="219" customWidth="1"/>
-    <col min="8" max="8" width="4" style="219" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3" style="219" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="2.7109375" style="219" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="219" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="219" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="219" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="219"/>
+    <col min="1" max="2" width="2.7109375" style="210" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="210" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" style="210" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="210" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="210" customWidth="1"/>
+    <col min="8" max="8" width="4" style="210" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" style="210" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="2.7109375" style="210" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="210" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="210" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="210" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="210"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="219" t="str">
+      <c r="B1" s="210" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="227" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="229"/>
-      <c r="K2" s="211" t="s">
-        <v>162</v>
-      </c>
-      <c r="L2" s="212"/>
-      <c r="M2" s="212"/>
-      <c r="N2" s="213"/>
+      <c r="B2" s="218" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="220"/>
+      <c r="K2" s="221" t="s">
+        <v>160</v>
+      </c>
+      <c r="L2" s="222"/>
+      <c r="M2" s="222"/>
+      <c r="N2" s="223"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="59"/>
@@ -2349,13 +2340,13 @@
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="55"/>
-      <c r="H4" s="222" t="s">
+      <c r="H4" s="213" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="223"/>
+      <c r="I4" s="214"/>
       <c r="K4" s="127"/>
       <c r="L4" s="126" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M4" s="120" t="b">
         <v>1</v>
@@ -2372,15 +2363,15 @@
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="55"/>
-      <c r="H5" s="220" t="s">
+      <c r="H5" s="211" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="221" t="s">
+      <c r="I5" s="212" t="s">
         <v>110</v>
       </c>
       <c r="K5" s="127"/>
       <c r="L5" s="126" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M5" s="128" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
@@ -2399,13 +2390,13 @@
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="55"/>
-      <c r="H6" s="220" t="s">
+      <c r="H6" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="221"/>
+      <c r="I6" s="212"/>
       <c r="K6" s="127"/>
       <c r="L6" s="126" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M6" s="117" t="b">
         <v>1</v>
@@ -2423,10 +2414,10 @@
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="55"/>
-      <c r="H7" s="220" t="s">
+      <c r="H7" s="211" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="221"/>
+      <c r="I7" s="212"/>
       <c r="K7" s="124"/>
       <c r="L7" s="123"/>
       <c r="M7" s="123"/>
@@ -2443,16 +2434,16 @@
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="55"/>
-      <c r="H8" s="224" t="s">
+      <c r="H8" s="215" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="225" t="s">
+      <c r="I8" s="216" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="226"/>
-      <c r="L8" s="226"/>
-      <c r="M8" s="226"/>
-      <c r="N8" s="226"/>
+      <c r="K8" s="217"/>
+      <c r="L8" s="217"/>
+      <c r="M8" s="217"/>
+      <c r="N8" s="217"/>
     </row>
     <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="59"/>
@@ -2465,12 +2456,12 @@
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="55"/>
-      <c r="K9" s="211" t="s">
-        <v>158</v>
-      </c>
-      <c r="L9" s="212"/>
-      <c r="M9" s="212"/>
-      <c r="N9" s="213"/>
+      <c r="K9" s="221" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" s="222"/>
+      <c r="M9" s="222"/>
+      <c r="N9" s="223"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="59"/>
@@ -2493,16 +2484,16 @@
         <v>100</v>
       </c>
       <c r="D11" s="84">
-        <v>41646.247465277775</v>
+        <v>41662.585173611114</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="55"/>
       <c r="K11" s="119"/>
       <c r="L11" s="118" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M11" s="120" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N11" s="116"/>
     </row>
@@ -2518,10 +2509,10 @@
       <c r="F12" s="55"/>
       <c r="K12" s="119"/>
       <c r="L12" s="118" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M12" s="117" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N12" s="116"/>
     </row>
@@ -2533,10 +2524,10 @@
       <c r="F13" s="55"/>
       <c r="K13" s="119"/>
       <c r="L13" s="118" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M13" s="120" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N13" s="116"/>
     </row>
@@ -2547,16 +2538,16 @@
       </c>
       <c r="D14" s="81" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYC3M#0010</v>
+        <v>_EURYC3M#0000</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="55"/>
       <c r="K14" s="119"/>
       <c r="L14" s="118" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M14" s="120" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N14" s="116"/>
     </row>
@@ -2573,7 +2564,7 @@
       <c r="F15" s="55"/>
       <c r="K15" s="119"/>
       <c r="L15" s="118" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M15" s="120" t="str">
         <f>PROPER(Currency)&amp;"YC"</f>
@@ -2594,7 +2585,7 @@
       <c r="F16" s="55"/>
       <c r="K16" s="119"/>
       <c r="L16" s="118" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M16" s="120" t="str">
         <f>PROPER(Currency)&amp;"YCSTD"</f>
@@ -2727,7 +2718,7 @@
       <c r="B27" s="59"/>
       <c r="C27" s="63">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="D27" s="62">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2740,11 +2731,11 @@
       <c r="B28" s="59"/>
       <c r="C28" s="61">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63563</v>
+        <v>63576</v>
       </c>
       <c r="D28" s="60">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.20246286490853307</v>
+        <v>0.20243670511240297</v>
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="55"/>
@@ -2837,11 +2828,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="214" t="s">
+      <c r="B1" s="224" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="215"/>
-      <c r="D1" s="216"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="226"/>
       <c r="E1" s="51" t="s">
         <v>83</v>
       </c>
@@ -2953,7 +2944,7 @@
       </c>
       <c r="E4" s="34" t="str">
         <f>Deposits_3M!F3</f>
-        <v>EUR_YC3MRH_SND#0011</v>
+        <v>EUR_YC3MRH_SND#0000</v>
       </c>
       <c r="F4" s="33">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
@@ -2971,11 +2962,11 @@
       </c>
       <c r="K4" s="31">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L4" s="30">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41649</v>
+        <v>41661</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>
@@ -2992,7 +2983,7 @@
       </c>
       <c r="E5" s="34" t="str">
         <f>Deposits_3M!F4</f>
-        <v>EUR_YC3MRH_SWD#0011</v>
+        <v>EUR_YC3MRH_SWD#0000</v>
       </c>
       <c r="F5" s="33">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
@@ -3010,11 +3001,11 @@
       </c>
       <c r="K5" s="31">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L5" s="30">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41655</v>
+        <v>41667</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -3031,7 +3022,7 @@
       </c>
       <c r="E6" s="34" t="str">
         <f>Deposits_3M!F5</f>
-        <v>EUR_YC3MRH_2WD#0011</v>
+        <v>EUR_YC3MRH_2WD#0000</v>
       </c>
       <c r="F6" s="33">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
@@ -3049,11 +3040,11 @@
       </c>
       <c r="K6" s="31">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L6" s="30">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41662</v>
+        <v>41674</v>
       </c>
       <c r="M6" s="1">
         <v>50</v>
@@ -3070,7 +3061,7 @@
       </c>
       <c r="E7" s="34" t="str">
         <f>Deposits_3M!F6</f>
-        <v>EUR_YC3MRH_3WD#0011</v>
+        <v>EUR_YC3MRH_3WD#0000</v>
       </c>
       <c r="F7" s="33">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
@@ -3088,11 +3079,11 @@
       </c>
       <c r="K7" s="31">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L7" s="30">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41669</v>
+        <v>41681</v>
       </c>
       <c r="M7" s="1">
         <v>60</v>
@@ -3109,7 +3100,7 @@
       </c>
       <c r="E8" s="34" t="str">
         <f>Deposits_3M!F7</f>
-        <v>EUR_YC3MRH_1MD#0011</v>
+        <v>EUR_YC3MRH_1MD#0000</v>
       </c>
       <c r="F8" s="33">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
@@ -3127,11 +3118,11 @@
       </c>
       <c r="K8" s="31">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L8" s="30">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41680</v>
+        <v>41691</v>
       </c>
       <c r="M8" s="1">
         <v>70</v>
@@ -3148,7 +3139,7 @@
       </c>
       <c r="E9" s="34" t="str">
         <f>Deposits_3M!F8</f>
-        <v>EUR_YC3MRH_2MD#0011</v>
+        <v>EUR_YC3MRH_2MD#0000</v>
       </c>
       <c r="F9" s="33">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
@@ -3166,11 +3157,11 @@
       </c>
       <c r="K9" s="31">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L9" s="30">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41708</v>
+        <v>41719</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -3181,7 +3172,7 @@
       </c>
       <c r="E10" s="34" t="str">
         <f>Deposits_3M!F9</f>
-        <v>EUR_YC3MRH_3MD#0011</v>
+        <v>EUR_YC3MRH_3MD#0000</v>
       </c>
       <c r="F10" s="33">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
@@ -3199,11 +3190,11 @@
       </c>
       <c r="K10" s="31">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L10" s="30">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41738</v>
+        <v>41751</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -3387,7 +3378,7 @@
       </c>
       <c r="E16" s="42" t="str">
         <f>FRAs_3M!H3</f>
-        <v>EUR_YC3MRH_T3F1#0011</v>
+        <v>EUR_YC3MRH_T3F1#0000</v>
       </c>
       <c r="F16" s="41">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
@@ -3405,11 +3396,11 @@
       </c>
       <c r="K16" s="39">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L16" s="38">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>41738</v>
+        <v>41751</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
@@ -3425,7 +3416,7 @@
       </c>
       <c r="E17" s="27" t="str">
         <f>FRAs_3M!H4</f>
-        <v>EUR_YC3MRH_TOM3F1#0011</v>
+        <v>EUR_YC3MRH_TOM3F1#0000</v>
       </c>
       <c r="F17" s="26">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
@@ -3443,11 +3434,11 @@
       </c>
       <c r="K17" s="24">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>41649</v>
+        <v>41661</v>
       </c>
       <c r="L17" s="23">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>41739</v>
+        <v>41751</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
@@ -3481,11 +3472,11 @@
       </c>
       <c r="K18" s="31">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>41680</v>
+        <v>41691</v>
       </c>
       <c r="L18" s="30">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>41771</v>
+        <v>41780</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
@@ -3519,11 +3510,11 @@
       </c>
       <c r="K19" s="31">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>41708</v>
+        <v>41719</v>
       </c>
       <c r="L19" s="30">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>41800</v>
+        <v>41813</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -3557,11 +3548,11 @@
       </c>
       <c r="K20" s="31">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>41738</v>
+        <v>41751</v>
       </c>
       <c r="L20" s="30">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>41829</v>
+        <v>41842</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
@@ -3595,11 +3586,11 @@
       </c>
       <c r="K21" s="31">
         <f>_xll.qlRateHelperEarliestDate($E21,Trigger)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="L21" s="30">
         <f>_xll.qlRateHelperLatestDate($E21,Trigger)</f>
-        <v>41862</v>
+        <v>41872</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
@@ -3633,11 +3624,11 @@
       </c>
       <c r="K22" s="31">
         <f>_xll.qlRateHelperEarliestDate($E22,Trigger)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="L22" s="30">
         <f>_xll.qlRateHelperLatestDate($E22,Trigger)</f>
-        <v>41891</v>
+        <v>41905</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -3671,11 +3662,11 @@
       </c>
       <c r="K23" s="31">
         <f>_xll.qlRateHelperEarliestDate($E23,Trigger)</f>
-        <v>41829</v>
+        <v>41841</v>
       </c>
       <c r="L23" s="30">
         <f>_xll.qlRateHelperLatestDate($E23,Trigger)</f>
-        <v>41921</v>
+        <v>41933</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -4145,11 +4136,11 @@
       </c>
       <c r="D36" s="34" t="str">
         <f t="array" ref="D36:D77">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A36:$A77)</f>
-        <v>F4</v>
+        <v>G4</v>
       </c>
       <c r="E36" s="34" t="str">
         <f>Futures_3M!I3</f>
-        <v>EUR_YC3MRH_FUT3MF4#0011</v>
+        <v>EUR_YC3MRH_FUT3MG4#0000</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -4170,11 +4161,11 @@
       </c>
       <c r="K36" s="31">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>41654</v>
+        <v>41689</v>
       </c>
       <c r="L36" s="30">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>41744</v>
+        <v>41778</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -4187,11 +4178,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D37" s="34" t="str">
-        <v>G4</v>
+        <v>H4</v>
       </c>
       <c r="E37" s="34" t="str">
         <f>Futures_3M!I4</f>
-        <v>EUR_YC3MRH_FUT3MG4#0011</v>
+        <v>EUR_YC3MRH_FUT3MH4#0000</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -4212,11 +4203,11 @@
       </c>
       <c r="K37" s="31">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>41689</v>
+        <v>41717</v>
       </c>
       <c r="L37" s="30">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>41778</v>
+        <v>41809</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -4229,11 +4220,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D38" s="34" t="str">
-        <v>H4</v>
+        <v>J4</v>
       </c>
       <c r="E38" s="34" t="str">
         <f>Futures_3M!I5</f>
-        <v>EUR_YC3MRH_FUT3MH4#0011</v>
+        <v>EUR_YC3MRH_FUT3MJ4#0000</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4254,11 +4245,11 @@
       </c>
       <c r="K38" s="31">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>41717</v>
+        <v>41745</v>
       </c>
       <c r="L38" s="30">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>41809</v>
+        <v>41836</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -4271,11 +4262,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D39" s="34" t="str">
-        <v>J4</v>
+        <v>K4</v>
       </c>
       <c r="E39" s="34" t="str">
         <f>Futures_3M!I6</f>
-        <v>EUR_YC3MRH_FUT3MJ4#0011</v>
+        <v>EUR_YC3MRH_FUT3MK4#0000</v>
       </c>
       <c r="F39" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4296,11 +4287,11 @@
       </c>
       <c r="K39" s="31">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>41745</v>
+        <v>41780</v>
       </c>
       <c r="L39" s="30">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>41836</v>
+        <v>41872</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -4313,11 +4304,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D40" s="34" t="str">
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E40" s="34" t="str">
         <f>Futures_3M!I7</f>
-        <v>EUR_YC3MRH_FUT3MK4#0011</v>
+        <v>EUR_YC3MRH_FUT3MM4#0000</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4338,11 +4329,11 @@
       </c>
       <c r="K40" s="31">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
       <c r="L40" s="30">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -4355,11 +4346,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D41" s="34" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E41" s="34" t="str">
         <f>Futures_3M!I8</f>
-        <v>EUR_YC3MRH_FUT3MM4#0011</v>
+        <v>EUR_YC3MRH_FUT3MN4#0000</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4380,11 +4371,11 @@
       </c>
       <c r="K41" s="31">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
-        <v>41808</v>
+        <v>41836</v>
       </c>
       <c r="L41" s="30">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
-        <v>41900</v>
+        <v>41928</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -4397,11 +4388,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D42" s="34" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E42" s="34" t="str">
         <f>Futures_3M!I9</f>
-        <v>EUR_YC3MRH_FUT3MN4#0011</v>
+        <v>EUR_YC3MRH_FUT3MQ4#0000</v>
       </c>
       <c r="F42" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4422,11 +4413,11 @@
       </c>
       <c r="K42" s="31">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
-        <v>41836</v>
+        <v>41871</v>
       </c>
       <c r="L42" s="30">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
-        <v>41928</v>
+        <v>41963</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -4439,11 +4430,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D43" s="34" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E43" s="34" t="str">
         <f>Futures_3M!I10</f>
-        <v>EUR_YC3MRH_FUT3MQ4#0011</v>
+        <v>EUR_YC3MRH_FUT3MU4#0000</v>
       </c>
       <c r="F43" s="48">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4464,11 +4455,11 @@
       </c>
       <c r="K43" s="31">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
-        <v>41871</v>
+        <v>41899</v>
       </c>
       <c r="L43" s="30">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
-        <v>41963</v>
+        <v>41990</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -4481,11 +4472,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D44" s="34" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E44" s="34" t="str">
         <f>Futures_3M!I11</f>
-        <v>EUR_YC3MRH_FUT3MU4#0011</v>
+        <v>EUR_YC3MRH_FUT3MV4#0000</v>
       </c>
       <c r="F44" s="48">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4506,11 +4497,11 @@
       </c>
       <c r="K44" s="31">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
-        <v>41899</v>
+        <v>41927</v>
       </c>
       <c r="L44" s="30">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
-        <v>41990</v>
+        <v>42019</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -4523,11 +4514,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D45" s="34" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E45" s="34" t="str">
         <f>Futures_3M!I12</f>
-        <v>EUR_YC3MRH_FUT3MV4#0011</v>
+        <v>EUR_YC3MRH_FUT3MX4#0000</v>
       </c>
       <c r="F45" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4548,11 +4539,11 @@
       </c>
       <c r="K45" s="31">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
-        <v>41927</v>
+        <v>41962</v>
       </c>
       <c r="L45" s="30">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
-        <v>42019</v>
+        <v>42054</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -4565,11 +4556,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D46" s="34" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E46" s="34" t="str">
         <f>Futures_3M!I13</f>
-        <v>EUR_YC3MRH_FUT3MX4#0011</v>
+        <v>EUR_YC3MRH_FUT3MZ4#0000</v>
       </c>
       <c r="F46" s="48">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4590,11 +4581,11 @@
       </c>
       <c r="K46" s="31">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
-        <v>41962</v>
+        <v>41990</v>
       </c>
       <c r="L46" s="30">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
-        <v>42054</v>
+        <v>42080</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -4607,11 +4598,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D47" s="34" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E47" s="34" t="str">
         <f>Futures_3M!I14</f>
-        <v>EUR_YC3MRH_FUT3MZ4#0011</v>
+        <v>EUR_YC3MRH_FUT3MF5#0000</v>
       </c>
       <c r="F47" s="48">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -4632,11 +4623,11 @@
       </c>
       <c r="K47" s="31">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
-        <v>41990</v>
+        <v>42025</v>
       </c>
       <c r="L47" s="30">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
-        <v>42080</v>
+        <v>42115</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -4653,7 +4644,7 @@
       </c>
       <c r="E48" s="34" t="str">
         <f>Futures_3M!I15</f>
-        <v>EUR_YC3MRH_FUT3MH5#0011</v>
+        <v>EUR_YC3MRH_FUT3MH5#0000</v>
       </c>
       <c r="F48" s="48">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
@@ -4695,7 +4686,7 @@
       </c>
       <c r="E49" s="34" t="str">
         <f>Futures_3M!I16</f>
-        <v>EUR_YC3MRH_FUT3MM5#0011</v>
+        <v>EUR_YC3MRH_FUT3MM5#0000</v>
       </c>
       <c r="F49" s="48">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -4737,7 +4728,7 @@
       </c>
       <c r="E50" s="34" t="str">
         <f>Futures_3M!I17</f>
-        <v>EUR_YC3MRH_FUT3MU5#0011</v>
+        <v>EUR_YC3MRH_FUT3MU5#0000</v>
       </c>
       <c r="F50" s="48">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
@@ -4779,7 +4770,7 @@
       </c>
       <c r="E51" s="34" t="str">
         <f>Futures_3M!I18</f>
-        <v>EUR_YC3MRH_FUT3MZ5#0011</v>
+        <v>EUR_YC3MRH_FUT3MZ5#0000</v>
       </c>
       <c r="F51" s="48">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
@@ -4821,7 +4812,7 @@
       </c>
       <c r="E52" s="34" t="str">
         <f>Futures_3M!I19</f>
-        <v>EUR_YC3MRH_FUT3MH6#0011</v>
+        <v>EUR_YC3MRH_FUT3MH6#0000</v>
       </c>
       <c r="F52" s="48">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
@@ -4863,7 +4854,7 @@
       </c>
       <c r="E53" s="34" t="str">
         <f>Futures_3M!I20</f>
-        <v>EUR_YC3MRH_FUT3MM6#0011</v>
+        <v>EUR_YC3MRH_FUT3MM6#0000</v>
       </c>
       <c r="F53" s="48">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
@@ -4905,7 +4896,7 @@
       </c>
       <c r="E54" s="34" t="str">
         <f>Futures_3M!I21</f>
-        <v>EUR_YC3MRH_FUT3MU6#0011</v>
+        <v>EUR_YC3MRH_FUT3MU6#0000</v>
       </c>
       <c r="F54" s="48">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
@@ -4947,7 +4938,7 @@
       </c>
       <c r="E55" s="34" t="str">
         <f>Futures_3M!I22</f>
-        <v>EUR_YC3MRH_FUT3MZ6#0011</v>
+        <v>EUR_YC3MRH_FUT3MZ6#0000</v>
       </c>
       <c r="F55" s="48">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
@@ -4989,7 +4980,7 @@
       </c>
       <c r="E56" s="34" t="str">
         <f>Futures_3M!I23</f>
-        <v>EUR_YC3MRH_FUT3MH7#0011</v>
+        <v>EUR_YC3MRH_FUT3MH7#0000</v>
       </c>
       <c r="F56" s="48">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
@@ -5031,7 +5022,7 @@
       </c>
       <c r="E57" s="34" t="str">
         <f>Futures_3M!I24</f>
-        <v>EUR_YC3MRH_FUT3MM7#0011</v>
+        <v>EUR_YC3MRH_FUT3MM7#0000</v>
       </c>
       <c r="F57" s="48">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
@@ -5073,7 +5064,7 @@
       </c>
       <c r="E58" s="34" t="str">
         <f>Futures_3M!I25</f>
-        <v>EUR_YC3MRH_FUT3MU7#0011</v>
+        <v>EUR_YC3MRH_FUT3MU7#0000</v>
       </c>
       <c r="F58" s="48">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
@@ -5115,7 +5106,7 @@
       </c>
       <c r="E59" s="34" t="str">
         <f>Futures_3M!I26</f>
-        <v>EUR_YC3MRH_FUT3MZ7#0011</v>
+        <v>EUR_YC3MRH_FUT3MZ7#0000</v>
       </c>
       <c r="F59" s="48">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
@@ -5157,7 +5148,7 @@
       </c>
       <c r="E60" s="34" t="str">
         <f>Futures_3M!I27</f>
-        <v>EUR_YC3MRH_FUT3MH8#0011</v>
+        <v>EUR_YC3MRH_FUT3MH8#0000</v>
       </c>
       <c r="F60" s="48">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
@@ -5199,7 +5190,7 @@
       </c>
       <c r="E61" s="34" t="str">
         <f>Futures_3M!I28</f>
-        <v>EUR_YC3MRH_FUT3MM8#0011</v>
+        <v>EUR_YC3MRH_FUT3MM8#0000</v>
       </c>
       <c r="F61" s="48">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
@@ -5241,7 +5232,7 @@
       </c>
       <c r="E62" s="34" t="str">
         <f>Futures_3M!I29</f>
-        <v>EUR_YC3MRH_FUT3MU8#0011</v>
+        <v>EUR_YC3MRH_FUT3MU8#0000</v>
       </c>
       <c r="F62" s="48">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
@@ -5283,7 +5274,7 @@
       </c>
       <c r="E63" s="34" t="str">
         <f>Futures_3M!I30</f>
-        <v>EUR_YC3MRH_FUT3MZ8#0011</v>
+        <v>EUR_YC3MRH_FUT3MZ8#0000</v>
       </c>
       <c r="F63" s="48">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
@@ -5325,7 +5316,7 @@
       </c>
       <c r="E64" s="34" t="str">
         <f>Futures_3M!I31</f>
-        <v>EUR_YC3MRH_FUT3MH9#0011</v>
+        <v>EUR_YC3MRH_FUT3MH9#0000</v>
       </c>
       <c r="F64" s="48">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
@@ -5367,7 +5358,7 @@
       </c>
       <c r="E65" s="34" t="str">
         <f>Futures_3M!I32</f>
-        <v>EUR_YC3MRH_FUT3MM9#0011</v>
+        <v>EUR_YC3MRH_FUT3MM9#0000</v>
       </c>
       <c r="F65" s="48">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
@@ -5409,7 +5400,7 @@
       </c>
       <c r="E66" s="34" t="str">
         <f>Futures_3M!I33</f>
-        <v>EUR_YC3MRH_FUT3MU9#0011</v>
+        <v>EUR_YC3MRH_FUT3MU9#0000</v>
       </c>
       <c r="F66" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
@@ -5451,7 +5442,7 @@
       </c>
       <c r="E67" s="34" t="str">
         <f>Futures_3M!I34</f>
-        <v>EUR_YC3MRH_FUT3MZ9#0011</v>
+        <v>EUR_YC3MRH_FUT3MZ9#0000</v>
       </c>
       <c r="F67" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
@@ -5493,7 +5484,7 @@
       </c>
       <c r="E68" s="34" t="str">
         <f>Futures_3M!I35</f>
-        <v>EUR_YC3MRH_FUT3MH0#0011</v>
+        <v>EUR_YC3MRH_FUT3MH0#0000</v>
       </c>
       <c r="F68" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
@@ -5535,7 +5526,7 @@
       </c>
       <c r="E69" s="34" t="str">
         <f>Futures_3M!I36</f>
-        <v>EUR_YC3MRH_FUT3MM0#0011</v>
+        <v>EUR_YC3MRH_FUT3MM0#0000</v>
       </c>
       <c r="F69" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
@@ -5577,7 +5568,7 @@
       </c>
       <c r="E70" s="34" t="str">
         <f>Futures_3M!I37</f>
-        <v>EUR_YC3MRH_FUT3MU0#0011</v>
+        <v>EUR_YC3MRH_FUT3MU0#0000</v>
       </c>
       <c r="F70" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
@@ -5619,7 +5610,7 @@
       </c>
       <c r="E71" s="34" t="str">
         <f>Futures_3M!I38</f>
-        <v>EUR_YC3MRH_FUT3MZ0#0011</v>
+        <v>EUR_YC3MRH_FUT3MZ0#0000</v>
       </c>
       <c r="F71" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
@@ -5661,7 +5652,7 @@
       </c>
       <c r="E72" s="34" t="str">
         <f>Futures_3M!I39</f>
-        <v>EUR_YC3MRH_FUT3MH1#0011</v>
+        <v>EUR_YC3MRH_FUT3MH1#0000</v>
       </c>
       <c r="F72" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
@@ -5703,7 +5694,7 @@
       </c>
       <c r="E73" s="34" t="str">
         <f>Futures_3M!I40</f>
-        <v>EUR_YC3MRH_FUT3MM1#0011</v>
+        <v>EUR_YC3MRH_FUT3MM1#0000</v>
       </c>
       <c r="F73" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
@@ -5745,7 +5736,7 @@
       </c>
       <c r="E74" s="34" t="str">
         <f>Futures_3M!I41</f>
-        <v>EUR_YC3MRH_FUT3MU1#0011</v>
+        <v>EUR_YC3MRH_FUT3MU1#0000</v>
       </c>
       <c r="F74" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
@@ -5787,7 +5778,7 @@
       </c>
       <c r="E75" s="34" t="str">
         <f>Futures_3M!I42</f>
-        <v>EUR_YC3MRH_FUT3MZ1#0011</v>
+        <v>EUR_YC3MRH_FUT3MZ1#0000</v>
       </c>
       <c r="F75" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
@@ -5829,7 +5820,7 @@
       </c>
       <c r="E76" s="34" t="str">
         <f>Futures_3M!I43</f>
-        <v>EUR_YC3MRH_FUT3MH2#0011</v>
+        <v>EUR_YC3MRH_FUT3MH2#0000</v>
       </c>
       <c r="F76" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
@@ -5871,7 +5862,7 @@
       </c>
       <c r="E77" s="27" t="str">
         <f>Futures_3M!I44</f>
-        <v>EUR_YC3MRH_FUT3MM2#0011</v>
+        <v>EUR_YC3MRH_FUT3MM2#0000</v>
       </c>
       <c r="F77" s="47" t="e">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
@@ -6351,11 +6342,11 @@
       </c>
       <c r="K89" s="39">
         <f>_xll.qlRateHelperEarliestDate($E89,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L89" s="38">
         <f>_xll.qlRateHelperLatestDate($E89,Trigger)</f>
-        <v>42013</v>
+        <v>42025</v>
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.2">
@@ -6389,11 +6380,11 @@
       </c>
       <c r="K90" s="31">
         <f>_xll.qlRateHelperEarliestDate($E90,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L90" s="30">
         <f>_xll.qlRateHelperLatestDate($E90,Trigger)</f>
-        <v>42013</v>
+        <v>42025</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.2">
@@ -6427,11 +6418,11 @@
       </c>
       <c r="K91" s="31">
         <f>_xll.qlRateHelperEarliestDate($E91,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L91" s="30">
         <f>_xll.qlRateHelperLatestDate($E91,Trigger)</f>
-        <v>42013</v>
+        <v>42025</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.2">
@@ -6465,11 +6456,11 @@
       </c>
       <c r="K92" s="31">
         <f>_xll.qlRateHelperEarliestDate($E92,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L92" s="30">
         <f>_xll.qlRateHelperLatestDate($E92,Trigger)</f>
-        <v>42013</v>
+        <v>42025</v>
       </c>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.2">
@@ -6503,11 +6494,11 @@
       </c>
       <c r="K93" s="31">
         <f>_xll.qlRateHelperEarliestDate($E93,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L93" s="30">
         <f>_xll.qlRateHelperLatestDate($E93,Trigger)</f>
-        <v>42380</v>
+        <v>42390</v>
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.2">
@@ -6541,11 +6532,11 @@
       </c>
       <c r="K94" s="31">
         <f>_xll.qlRateHelperEarliestDate($E94,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L94" s="30">
         <f>_xll.qlRateHelperLatestDate($E94,Trigger)</f>
-        <v>42380</v>
+        <v>42390</v>
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.2">
@@ -6579,11 +6570,11 @@
       </c>
       <c r="K95" s="24">
         <f>_xll.qlRateHelperEarliestDate($E95,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L95" s="23">
         <f>_xll.qlRateHelperLatestDate($E95,Trigger)</f>
-        <v>42744</v>
+        <v>42758</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.2">
@@ -6600,7 +6591,7 @@
       </c>
       <c r="E96" s="34" t="str">
         <f>Swaps_3M!L6</f>
-        <v>EUR_YC3MRH_AB3E1Y#0011</v>
+        <v>EUR_YC3MRH_AB3E1Y#0000</v>
       </c>
       <c r="F96" s="33">
         <f>_xll.qlRateHelperQuoteValue($E96,Trigger)</f>
@@ -6621,11 +6612,11 @@
       </c>
       <c r="K96" s="31">
         <f>_xll.qlRateHelperEarliestDate($E96,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L96" s="30">
         <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
-        <v>42013</v>
+        <v>42025</v>
       </c>
       <c r="N96" s="37">
         <f t="shared" ref="N96:N132" si="7">IF(G96=G133,F96-F133,"--")</f>
@@ -6646,7 +6637,7 @@
       </c>
       <c r="E97" s="34" t="str">
         <f>Swaps_3M!L7</f>
-        <v>EUR_YC3MRH_AB3E15M#0011</v>
+        <v>EUR_YC3MRH_AB3E15M#0000</v>
       </c>
       <c r="F97" s="33">
         <f>_xll.qlRateHelperQuoteValue($E97,Trigger)</f>
@@ -6667,11 +6658,11 @@
       </c>
       <c r="K97" s="31">
         <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L97" s="30">
         <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
-        <v>42103</v>
+        <v>42115</v>
       </c>
       <c r="N97" s="37">
         <f t="shared" si="7"/>
@@ -6692,7 +6683,7 @@
       </c>
       <c r="E98" s="34" t="str">
         <f>Swaps_3M!L8</f>
-        <v>EUR_YC3MRH_AB3E18M#0011</v>
+        <v>EUR_YC3MRH_AB3E18M#0000</v>
       </c>
       <c r="F98" s="33">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
@@ -6713,11 +6704,11 @@
       </c>
       <c r="K98" s="31">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L98" s="30">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>42194</v>
+        <v>42206</v>
       </c>
       <c r="N98" s="37">
         <f t="shared" si="7"/>
@@ -6738,7 +6729,7 @@
       </c>
       <c r="E99" s="34" t="str">
         <f>Swaps_3M!L9</f>
-        <v>EUR_YC3MRH_AB3E21M#0011</v>
+        <v>EUR_YC3MRH_AB3E21M#0000</v>
       </c>
       <c r="F99" s="33">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
@@ -6759,11 +6750,11 @@
       </c>
       <c r="K99" s="31">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L99" s="30">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>42286</v>
+        <v>42298</v>
       </c>
       <c r="N99" s="37">
         <f t="shared" si="7"/>
@@ -6784,7 +6775,7 @@
       </c>
       <c r="E100" s="34" t="str">
         <f>Swaps_3M!L10</f>
-        <v>EUR_YC3MRH_AB3E2Y#0011</v>
+        <v>EUR_YC3MRH_AB3E2Y#0000</v>
       </c>
       <c r="F100" s="33">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
@@ -6805,11 +6796,11 @@
       </c>
       <c r="K100" s="31">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L100" s="30">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
-        <v>42380</v>
+        <v>42390</v>
       </c>
       <c r="N100" s="37">
         <f t="shared" si="7"/>
@@ -6830,7 +6821,7 @@
       </c>
       <c r="E101" s="34" t="str">
         <f>Swaps_3M!L11</f>
-        <v>EUR_YC3MRH_AB3E3Y#0011</v>
+        <v>EUR_YC3MRH_AB3E3Y#0000</v>
       </c>
       <c r="F101" s="33">
         <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
@@ -6851,11 +6842,11 @@
       </c>
       <c r="K101" s="31">
         <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L101" s="30">
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>42744</v>
+        <v>42758</v>
       </c>
       <c r="N101" s="37">
         <f t="shared" si="7"/>
@@ -6876,7 +6867,7 @@
       </c>
       <c r="E102" s="34" t="str">
         <f>Swaps_3M!L12</f>
-        <v>EUR_YC3MRH_AB3E4Y#0011</v>
+        <v>EUR_YC3MRH_AB3E4Y#0000</v>
       </c>
       <c r="F102" s="33">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
@@ -6897,11 +6888,11 @@
       </c>
       <c r="K102" s="31">
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L102" s="30">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>43109</v>
+        <v>43122</v>
       </c>
       <c r="N102" s="37">
         <f t="shared" si="7"/>
@@ -6922,7 +6913,7 @@
       </c>
       <c r="E103" s="34" t="str">
         <f>Swaps_3M!L13</f>
-        <v>EUR_YC3MRH_AB3E5Y#0011</v>
+        <v>EUR_YC3MRH_AB3E5Y#0000</v>
       </c>
       <c r="F103" s="33">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
@@ -6943,11 +6934,11 @@
       </c>
       <c r="K103" s="31">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L103" s="30">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>43474</v>
+        <v>43486</v>
       </c>
       <c r="N103" s="37">
         <f t="shared" si="7"/>
@@ -6968,7 +6959,7 @@
       </c>
       <c r="E104" s="34" t="str">
         <f>Swaps_3M!L14</f>
-        <v>EUR_YC3MRH_AB3E6Y#0011</v>
+        <v>EUR_YC3MRH_AB3E6Y#0000</v>
       </c>
       <c r="F104" s="33">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
@@ -6989,11 +6980,11 @@
       </c>
       <c r="K104" s="31">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L104" s="30">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>43839</v>
+        <v>43851</v>
       </c>
       <c r="N104" s="37">
         <f t="shared" si="7"/>
@@ -7014,7 +7005,7 @@
       </c>
       <c r="E105" s="34" t="str">
         <f>Swaps_3M!L15</f>
-        <v>EUR_YC3MRH_AB3E7Y#0011</v>
+        <v>EUR_YC3MRH_AB3E7Y#0000</v>
       </c>
       <c r="F105" s="33">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
@@ -7035,11 +7026,11 @@
       </c>
       <c r="K105" s="31">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L105" s="30">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>44207</v>
+        <v>44217</v>
       </c>
       <c r="N105" s="37">
         <f t="shared" si="7"/>
@@ -7060,7 +7051,7 @@
       </c>
       <c r="E106" s="34" t="str">
         <f>Swaps_3M!L16</f>
-        <v>EUR_YC3MRH_AB3E8Y#0011</v>
+        <v>EUR_YC3MRH_AB3E8Y#0000</v>
       </c>
       <c r="F106" s="33">
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
@@ -7081,11 +7072,11 @@
       </c>
       <c r="K106" s="31">
         <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L106" s="30">
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>44571</v>
+        <v>44582</v>
       </c>
       <c r="N106" s="37">
         <f t="shared" si="7"/>
@@ -7106,7 +7097,7 @@
       </c>
       <c r="E107" s="34" t="str">
         <f>Swaps_3M!L17</f>
-        <v>EUR_YC3MRH_AB3E9Y#0011</v>
+        <v>EUR_YC3MRH_AB3E9Y#0000</v>
       </c>
       <c r="F107" s="33">
         <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
@@ -7127,11 +7118,11 @@
       </c>
       <c r="K107" s="31">
         <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L107" s="30">
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>44935</v>
+        <v>44949</v>
       </c>
       <c r="N107" s="37">
         <f t="shared" si="7"/>
@@ -7152,7 +7143,7 @@
       </c>
       <c r="E108" s="34" t="str">
         <f>Swaps_3M!L18</f>
-        <v>EUR_YC3MRH_AB3E10Y#0011</v>
+        <v>EUR_YC3MRH_AB3E10Y#0000</v>
       </c>
       <c r="F108" s="33">
         <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
@@ -7173,11 +7164,11 @@
       </c>
       <c r="K108" s="31">
         <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L108" s="30">
         <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
-        <v>45300</v>
+        <v>45313</v>
       </c>
       <c r="N108" s="37">
         <f t="shared" si="7"/>
@@ -7198,7 +7189,7 @@
       </c>
       <c r="E109" s="34" t="str">
         <f>Swaps_3M!L19</f>
-        <v>EUR_YC3MRH_AB3E11Y#0011</v>
+        <v>EUR_YC3MRH_AB3E11Y#0000</v>
       </c>
       <c r="F109" s="33">
         <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
@@ -7219,11 +7210,11 @@
       </c>
       <c r="K109" s="31">
         <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L109" s="30">
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
-        <v>45666</v>
+        <v>45678</v>
       </c>
       <c r="N109" s="37">
         <f t="shared" si="7"/>
@@ -7244,7 +7235,7 @@
       </c>
       <c r="E110" s="34" t="str">
         <f>Swaps_3M!L20</f>
-        <v>EUR_YC3MRH_AB3E12Y#0011</v>
+        <v>EUR_YC3MRH_AB3E12Y#0000</v>
       </c>
       <c r="F110" s="33">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
@@ -7265,11 +7256,11 @@
       </c>
       <c r="K110" s="31">
         <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L110" s="30">
         <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>46031</v>
+        <v>46043</v>
       </c>
       <c r="N110" s="37">
         <f t="shared" si="7"/>
@@ -7290,7 +7281,7 @@
       </c>
       <c r="E111" s="34" t="str">
         <f>Swaps_3M!L21</f>
-        <v>EUR_YC3MRH_AB3E13Y#0011</v>
+        <v>EUR_YC3MRH_AB3E13Y#0000</v>
       </c>
       <c r="F111" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E111,Trigger)</f>
@@ -7311,11 +7302,11 @@
       </c>
       <c r="K111" s="31">
         <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L111" s="30">
         <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>46398</v>
+        <v>46408</v>
       </c>
       <c r="N111" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7336,7 +7327,7 @@
       </c>
       <c r="E112" s="34" t="str">
         <f>Swaps_3M!L22</f>
-        <v>EUR_YC3MRH_AB3E14Y#0011</v>
+        <v>EUR_YC3MRH_AB3E14Y#0000</v>
       </c>
       <c r="F112" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
@@ -7357,11 +7348,11 @@
       </c>
       <c r="K112" s="31">
         <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L112" s="30">
         <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>46762</v>
+        <v>46773</v>
       </c>
       <c r="N112" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7382,7 +7373,7 @@
       </c>
       <c r="E113" s="34" t="str">
         <f>Swaps_3M!L23</f>
-        <v>EUR_YC3MRH_AB3E15Y#0011</v>
+        <v>EUR_YC3MRH_AB3E15Y#0000</v>
       </c>
       <c r="F113" s="33">
         <f>_xll.qlRateHelperQuoteValue($E113,Trigger)</f>
@@ -7403,11 +7394,11 @@
       </c>
       <c r="K113" s="31">
         <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L113" s="30">
         <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
-        <v>47127</v>
+        <v>47140</v>
       </c>
       <c r="N113" s="37">
         <f t="shared" si="7"/>
@@ -7428,7 +7419,7 @@
       </c>
       <c r="E114" s="34" t="str">
         <f>Swaps_3M!L24</f>
-        <v>EUR_YC3MRH_AB3E16Y#0011</v>
+        <v>EUR_YC3MRH_AB3E16Y#0000</v>
       </c>
       <c r="F114" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E114,Trigger)</f>
@@ -7449,11 +7440,11 @@
       </c>
       <c r="K114" s="31">
         <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L114" s="30">
         <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
-        <v>47492</v>
+        <v>47504</v>
       </c>
       <c r="N114" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7474,7 +7465,7 @@
       </c>
       <c r="E115" s="34" t="str">
         <f>Swaps_3M!L25</f>
-        <v>EUR_YC3MRH_AB3E17Y#0011</v>
+        <v>EUR_YC3MRH_AB3E17Y#0000</v>
       </c>
       <c r="F115" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
@@ -7495,11 +7486,11 @@
       </c>
       <c r="K115" s="31">
         <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L115" s="30">
         <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
-        <v>47857</v>
+        <v>47869</v>
       </c>
       <c r="N115" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7520,7 +7511,7 @@
       </c>
       <c r="E116" s="34" t="str">
         <f>Swaps_3M!L26</f>
-        <v>EUR_YC3MRH_AB3E18Y#0011</v>
+        <v>EUR_YC3MRH_AB3E18Y#0000</v>
       </c>
       <c r="F116" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E116,Trigger)</f>
@@ -7541,11 +7532,11 @@
       </c>
       <c r="K116" s="31">
         <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L116" s="30">
         <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>48222</v>
+        <v>48234</v>
       </c>
       <c r="N116" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7566,7 +7557,7 @@
       </c>
       <c r="E117" s="34" t="str">
         <f>Swaps_3M!L27</f>
-        <v>EUR_YC3MRH_AB3E19Y#0011</v>
+        <v>EUR_YC3MRH_AB3E19Y#0000</v>
       </c>
       <c r="F117" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E117,Trigger)</f>
@@ -7587,11 +7578,11 @@
       </c>
       <c r="K117" s="31">
         <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L117" s="30">
         <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>48589</v>
+        <v>48600</v>
       </c>
       <c r="N117" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7612,7 +7603,7 @@
       </c>
       <c r="E118" s="34" t="str">
         <f>Swaps_3M!L28</f>
-        <v>EUR_YC3MRH_AB3E20Y#0011</v>
+        <v>EUR_YC3MRH_AB3E20Y#0000</v>
       </c>
       <c r="F118" s="33">
         <f>_xll.qlRateHelperQuoteValue($E118,Trigger)</f>
@@ -7633,11 +7624,11 @@
       </c>
       <c r="K118" s="31">
         <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L118" s="30">
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>48953</v>
+        <v>48967</v>
       </c>
       <c r="N118" s="37">
         <f t="shared" si="7"/>
@@ -7658,7 +7649,7 @@
       </c>
       <c r="E119" s="34" t="str">
         <f>Swaps_3M!L29</f>
-        <v>EUR_YC3MRH_AB3E21Y#0011</v>
+        <v>EUR_YC3MRH_AB3E21Y#0000</v>
       </c>
       <c r="F119" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E119,Trigger)</f>
@@ -7679,11 +7670,11 @@
       </c>
       <c r="K119" s="31">
         <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L119" s="30">
         <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
-        <v>49318</v>
+        <v>49331</v>
       </c>
       <c r="N119" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7704,7 +7695,7 @@
       </c>
       <c r="E120" s="34" t="str">
         <f>Swaps_3M!L30</f>
-        <v>EUR_YC3MRH_AB3E22Y#0011</v>
+        <v>EUR_YC3MRH_AB3E22Y#0000</v>
       </c>
       <c r="F120" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
@@ -7725,11 +7716,11 @@
       </c>
       <c r="K120" s="31">
         <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L120" s="30">
         <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
-        <v>49683</v>
+        <v>49695</v>
       </c>
       <c r="N120" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7750,7 +7741,7 @@
       </c>
       <c r="E121" s="34" t="str">
         <f>Swaps_3M!L31</f>
-        <v>EUR_YC3MRH_AB3E23Y#0011</v>
+        <v>EUR_YC3MRH_AB3E23Y#0000</v>
       </c>
       <c r="F121" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
@@ -7771,11 +7762,11 @@
       </c>
       <c r="K121" s="31">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L121" s="30">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>50049</v>
+        <v>50061</v>
       </c>
       <c r="N121" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7796,7 +7787,7 @@
       </c>
       <c r="E122" s="34" t="str">
         <f>Swaps_3M!L32</f>
-        <v>EUR_YC3MRH_AB3E24Y#0011</v>
+        <v>EUR_YC3MRH_AB3E24Y#0000</v>
       </c>
       <c r="F122" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
@@ -7817,11 +7808,11 @@
       </c>
       <c r="K122" s="31">
         <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L122" s="30">
         <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>50416</v>
+        <v>50426</v>
       </c>
       <c r="N122" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7842,7 +7833,7 @@
       </c>
       <c r="E123" s="34" t="str">
         <f>Swaps_3M!L33</f>
-        <v>EUR_YC3MRH_AB3E25Y#0011</v>
+        <v>EUR_YC3MRH_AB3E25Y#0000</v>
       </c>
       <c r="F123" s="33">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
@@ -7863,11 +7854,11 @@
       </c>
       <c r="K123" s="31">
         <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L123" s="30">
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>50780</v>
+        <v>50791</v>
       </c>
       <c r="N123" s="37">
         <f t="shared" si="7"/>
@@ -7888,7 +7879,7 @@
       </c>
       <c r="E124" s="34" t="str">
         <f>Swaps_3M!L34</f>
-        <v>EUR_YC3MRH_AB3E26Y#0011</v>
+        <v>EUR_YC3MRH_AB3E26Y#0000</v>
       </c>
       <c r="F124" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E124,Trigger)</f>
@@ -7909,11 +7900,11 @@
       </c>
       <c r="K124" s="31">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L124" s="30">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
-        <v>51144</v>
+        <v>51158</v>
       </c>
       <c r="N124" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7934,7 +7925,7 @@
       </c>
       <c r="E125" s="34" t="str">
         <f>Swaps_3M!L35</f>
-        <v>EUR_YC3MRH_AB3E27Y#0011</v>
+        <v>EUR_YC3MRH_AB3E27Y#0000</v>
       </c>
       <c r="F125" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
@@ -7955,11 +7946,11 @@
       </c>
       <c r="K125" s="31">
         <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L125" s="30">
         <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
-        <v>51510</v>
+        <v>51522</v>
       </c>
       <c r="N125" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7980,7 +7971,7 @@
       </c>
       <c r="E126" s="34" t="str">
         <f>Swaps_3M!L36</f>
-        <v>EUR_YC3MRH_AB3E28Y#0011</v>
+        <v>EUR_YC3MRH_AB3E28Y#0000</v>
       </c>
       <c r="F126" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
@@ -8001,11 +7992,11 @@
       </c>
       <c r="K126" s="31">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L126" s="30">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>51875</v>
+        <v>51887</v>
       </c>
       <c r="N126" s="37" t="e">
         <f t="shared" si="7"/>
@@ -8026,7 +8017,7 @@
       </c>
       <c r="E127" s="34" t="str">
         <f>Swaps_3M!L37</f>
-        <v>EUR_YC3MRH_AB3E29Y#0011</v>
+        <v>EUR_YC3MRH_AB3E29Y#0000</v>
       </c>
       <c r="F127" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
@@ -8047,11 +8038,11 @@
       </c>
       <c r="K127" s="31">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L127" s="30">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>52240</v>
+        <v>52252</v>
       </c>
       <c r="N127" s="37" t="e">
         <f t="shared" si="7"/>
@@ -8072,7 +8063,7 @@
       </c>
       <c r="E128" s="34" t="str">
         <f>Swaps_3M!L38</f>
-        <v>EUR_YC3MRH_AB3E30Y#0011</v>
+        <v>EUR_YC3MRH_AB3E30Y#0000</v>
       </c>
       <c r="F128" s="33">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
@@ -8093,11 +8084,11 @@
       </c>
       <c r="K128" s="31">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L128" s="30">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>52607</v>
+        <v>52617</v>
       </c>
       <c r="N128" s="37">
         <f t="shared" si="7"/>
@@ -8118,7 +8109,7 @@
       </c>
       <c r="E129" s="34" t="str">
         <f>Swaps_3M!L39</f>
-        <v>EUR_YC3MRH_AB3E35Y#0011</v>
+        <v>EUR_YC3MRH_AB3E35Y#0000</v>
       </c>
       <c r="F129" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
@@ -8139,11 +8130,11 @@
       </c>
       <c r="K129" s="31">
         <f>_xll.qlRateHelperEarliestDate($E129,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L129" s="30">
         <f>_xll.qlRateHelperLatestDate($E129,Trigger)</f>
-        <v>54434</v>
+        <v>54444</v>
       </c>
       <c r="N129" s="37" t="e">
         <f t="shared" si="7"/>
@@ -8164,7 +8155,7 @@
       </c>
       <c r="E130" s="34" t="str">
         <f>Swaps_3M!L40</f>
-        <v>EUR_YC3MRH_AB3E40Y#0011</v>
+        <v>EUR_YC3MRH_AB3E40Y#0000</v>
       </c>
       <c r="F130" s="33">
         <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
@@ -8185,11 +8176,11 @@
       </c>
       <c r="K130" s="31">
         <f>_xll.qlRateHelperEarliestDate($E130,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L130" s="30">
         <f>_xll.qlRateHelperLatestDate($E130,Trigger)</f>
-        <v>56258</v>
+        <v>56270</v>
       </c>
       <c r="N130" s="37">
         <f t="shared" si="7"/>
@@ -8210,7 +8201,7 @@
       </c>
       <c r="E131" s="34" t="str">
         <f>Swaps_3M!L41</f>
-        <v>EUR_YC3MRH_AB3E50Y#0011</v>
+        <v>EUR_YC3MRH_AB3E50Y#0000</v>
       </c>
       <c r="F131" s="33">
         <f>_xll.qlRateHelperQuoteValue($E131,Trigger)</f>
@@ -8231,11 +8222,11 @@
       </c>
       <c r="K131" s="31">
         <f>_xll.qlRateHelperEarliestDate($E131,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L131" s="30">
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
-        <v>59910</v>
+        <v>59922</v>
       </c>
       <c r="N131" s="37">
         <f t="shared" si="7"/>
@@ -8256,7 +8247,7 @@
       </c>
       <c r="E132" s="27" t="str">
         <f>Swaps_3M!L42</f>
-        <v>EUR_YC3MRH_AB3E60Y#0011</v>
+        <v>EUR_YC3MRH_AB3E60Y#0000</v>
       </c>
       <c r="F132" s="26">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
@@ -8277,11 +8268,11 @@
       </c>
       <c r="K132" s="24">
         <f>_xll.qlRateHelperEarliestDate($E132,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L132" s="23">
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>63563</v>
+        <v>63576</v>
       </c>
       <c r="N132" s="37">
         <f t="shared" si="7"/>
@@ -8302,7 +8293,7 @@
       </c>
       <c r="E133" s="34" t="str">
         <f>SwapsFromBasis_3M!L6</f>
-        <v>EUR_YC3MRH_AB3EBASIS1Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS1Y#0000</v>
       </c>
       <c r="F133" s="33">
         <f>_xll.qlRateHelperQuoteValue($E133,Trigger)</f>
@@ -8323,11 +8314,11 @@
       </c>
       <c r="K133" s="31">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L133" s="30">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>42013</v>
+        <v>42025</v>
       </c>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.2">
@@ -8344,7 +8335,7 @@
       </c>
       <c r="E134" s="34" t="str">
         <f>SwapsFromBasis_3M!L7</f>
-        <v>EUR_YC3MRH_AB3EBASIS15M#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS15M#0000</v>
       </c>
       <c r="F134" s="33">
         <f>_xll.qlRateHelperQuoteValue($E134,Trigger)</f>
@@ -8365,11 +8356,11 @@
       </c>
       <c r="K134" s="31">
         <f>_xll.qlRateHelperEarliestDate($E134,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L134" s="30">
         <f>_xll.qlRateHelperLatestDate($E134,Trigger)</f>
-        <v>42103</v>
+        <v>42115</v>
       </c>
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.2">
@@ -8386,7 +8377,7 @@
       </c>
       <c r="E135" s="34" t="str">
         <f>SwapsFromBasis_3M!L8</f>
-        <v>EUR_YC3MRH_AB3EBASIS18M#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS18M#0000</v>
       </c>
       <c r="F135" s="33">
         <f>_xll.qlRateHelperQuoteValue($E135,Trigger)</f>
@@ -8407,11 +8398,11 @@
       </c>
       <c r="K135" s="31">
         <f>_xll.qlRateHelperEarliestDate($E135,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L135" s="30">
         <f>_xll.qlRateHelperLatestDate($E135,Trigger)</f>
-        <v>42194</v>
+        <v>42206</v>
       </c>
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.2">
@@ -8428,7 +8419,7 @@
       </c>
       <c r="E136" s="34" t="str">
         <f>SwapsFromBasis_3M!L9</f>
-        <v>EUR_YC3MRH_AB3EBASIS21M#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS21M#0000</v>
       </c>
       <c r="F136" s="33">
         <f>_xll.qlRateHelperQuoteValue($E136,Trigger)</f>
@@ -8449,11 +8440,11 @@
       </c>
       <c r="K136" s="31">
         <f>_xll.qlRateHelperEarliestDate($E136,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L136" s="30">
         <f>_xll.qlRateHelperLatestDate($E136,Trigger)</f>
-        <v>42286</v>
+        <v>42298</v>
       </c>
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.2">
@@ -8470,7 +8461,7 @@
       </c>
       <c r="E137" s="34" t="str">
         <f>SwapsFromBasis_3M!L10</f>
-        <v>EUR_YC3MRH_AB3EBASIS2Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS2Y#0000</v>
       </c>
       <c r="F137" s="33">
         <f>_xll.qlRateHelperQuoteValue($E137,Trigger)</f>
@@ -8491,11 +8482,11 @@
       </c>
       <c r="K137" s="31">
         <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L137" s="30">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>42380</v>
+        <v>42390</v>
       </c>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.2">
@@ -8512,7 +8503,7 @@
       </c>
       <c r="E138" s="34" t="str">
         <f>SwapsFromBasis_3M!L11</f>
-        <v>EUR_YC3MRH_AB3EBASIS3Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS3Y#0000</v>
       </c>
       <c r="F138" s="33">
         <f>_xll.qlRateHelperQuoteValue($E138,Trigger)</f>
@@ -8533,11 +8524,11 @@
       </c>
       <c r="K138" s="31">
         <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L138" s="30">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>42744</v>
+        <v>42758</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.2">
@@ -8554,7 +8545,7 @@
       </c>
       <c r="E139" s="34" t="str">
         <f>SwapsFromBasis_3M!L12</f>
-        <v>EUR_YC3MRH_AB3EBASIS4Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS4Y#0000</v>
       </c>
       <c r="F139" s="33">
         <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
@@ -8575,11 +8566,11 @@
       </c>
       <c r="K139" s="31">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L139" s="30">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>43109</v>
+        <v>43122</v>
       </c>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.2">
@@ -8596,7 +8587,7 @@
       </c>
       <c r="E140" s="34" t="str">
         <f>SwapsFromBasis_3M!L13</f>
-        <v>EUR_YC3MRH_AB3EBASIS5Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS5Y#0000</v>
       </c>
       <c r="F140" s="33">
         <f>_xll.qlRateHelperQuoteValue($E140,Trigger)</f>
@@ -8617,11 +8608,11 @@
       </c>
       <c r="K140" s="31">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L140" s="30">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>43474</v>
+        <v>43486</v>
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.2">
@@ -8638,7 +8629,7 @@
       </c>
       <c r="E141" s="34" t="str">
         <f>SwapsFromBasis_3M!L14</f>
-        <v>EUR_YC3MRH_AB3EBASIS6Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS6Y#0000</v>
       </c>
       <c r="F141" s="33">
         <f>_xll.qlRateHelperQuoteValue($E141,Trigger)</f>
@@ -8659,11 +8650,11 @@
       </c>
       <c r="K141" s="31">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L141" s="30">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>43839</v>
+        <v>43851</v>
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.2">
@@ -8680,7 +8671,7 @@
       </c>
       <c r="E142" s="34" t="str">
         <f>SwapsFromBasis_3M!L15</f>
-        <v>EUR_YC3MRH_AB3EBASIS7Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS7Y#0000</v>
       </c>
       <c r="F142" s="33">
         <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
@@ -8701,11 +8692,11 @@
       </c>
       <c r="K142" s="31">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L142" s="30">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>44207</v>
+        <v>44217</v>
       </c>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.2">
@@ -8722,7 +8713,7 @@
       </c>
       <c r="E143" s="34" t="str">
         <f>SwapsFromBasis_3M!L16</f>
-        <v>EUR_YC3MRH_AB3EBASIS8Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS8Y#0000</v>
       </c>
       <c r="F143" s="33">
         <f>_xll.qlRateHelperQuoteValue($E143,Trigger)</f>
@@ -8743,11 +8734,11 @@
       </c>
       <c r="K143" s="31">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L143" s="30">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>44571</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.2">
@@ -8764,7 +8755,7 @@
       </c>
       <c r="E144" s="34" t="str">
         <f>SwapsFromBasis_3M!L17</f>
-        <v>EUR_YC3MRH_AB3EBASIS9Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS9Y#0000</v>
       </c>
       <c r="F144" s="33">
         <f>_xll.qlRateHelperQuoteValue($E144,Trigger)</f>
@@ -8785,11 +8776,11 @@
       </c>
       <c r="K144" s="31">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L144" s="30">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>44935</v>
+        <v>44949</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8806,7 +8797,7 @@
       </c>
       <c r="E145" s="34" t="str">
         <f>SwapsFromBasis_3M!L18</f>
-        <v>EUR_YC3MRH_AB3EBASIS10Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS10Y#0000</v>
       </c>
       <c r="F145" s="33">
         <f>_xll.qlRateHelperQuoteValue($E145,Trigger)</f>
@@ -8827,11 +8818,11 @@
       </c>
       <c r="K145" s="31">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L145" s="30">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>45300</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -8848,7 +8839,7 @@
       </c>
       <c r="E146" s="34" t="str">
         <f>SwapsFromBasis_3M!L19</f>
-        <v>EUR_YC3MRH_AB3EBASIS11Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS11Y#0000</v>
       </c>
       <c r="F146" s="33">
         <f>_xll.qlRateHelperQuoteValue($E146,Trigger)</f>
@@ -8869,11 +8860,11 @@
       </c>
       <c r="K146" s="31">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L146" s="30">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>45666</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8890,7 +8881,7 @@
       </c>
       <c r="E147" s="34" t="str">
         <f>SwapsFromBasis_3M!L20</f>
-        <v>EUR_YC3MRH_AB3EBASIS12Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS12Y#0000</v>
       </c>
       <c r="F147" s="33">
         <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
@@ -8911,11 +8902,11 @@
       </c>
       <c r="K147" s="31">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L147" s="30">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>46031</v>
+        <v>46043</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8932,7 +8923,7 @@
       </c>
       <c r="E148" s="34" t="str">
         <f>SwapsFromBasis_3M!L21</f>
-        <v>EUR_YC3MRH_AB3EBASIS13Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS13Y#0000</v>
       </c>
       <c r="F148" s="33">
         <f>_xll.qlRateHelperQuoteValue($E148,Trigger)</f>
@@ -8953,11 +8944,11 @@
       </c>
       <c r="K148" s="31">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L148" s="30">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>46398</v>
+        <v>46408</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
@@ -8974,7 +8965,7 @@
       </c>
       <c r="E149" s="34" t="str">
         <f>SwapsFromBasis_3M!L22</f>
-        <v>EUR_YC3MRH_AB3EBASIS14Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS14Y#0000</v>
       </c>
       <c r="F149" s="33">
         <f>_xll.qlRateHelperQuoteValue($E149,Trigger)</f>
@@ -8995,11 +8986,11 @@
       </c>
       <c r="K149" s="31">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L149" s="30">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>46762</v>
+        <v>46773</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -9016,7 +9007,7 @@
       </c>
       <c r="E150" s="34" t="str">
         <f>SwapsFromBasis_3M!L23</f>
-        <v>EUR_YC3MRH_AB3EBASIS15Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS15Y#0000</v>
       </c>
       <c r="F150" s="33">
         <f>_xll.qlRateHelperQuoteValue($E150,Trigger)</f>
@@ -9037,11 +9028,11 @@
       </c>
       <c r="K150" s="31">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L150" s="30">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>47127</v>
+        <v>47140</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
@@ -9058,7 +9049,7 @@
       </c>
       <c r="E151" s="34" t="str">
         <f>SwapsFromBasis_3M!L24</f>
-        <v>EUR_YC3MRH_AB3EBASIS16Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS16Y#0000</v>
       </c>
       <c r="F151" s="33">
         <f>_xll.qlRateHelperQuoteValue($E151,Trigger)</f>
@@ -9079,11 +9070,11 @@
       </c>
       <c r="K151" s="31">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L151" s="30">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>47492</v>
+        <v>47504</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -9100,7 +9091,7 @@
       </c>
       <c r="E152" s="34" t="str">
         <f>SwapsFromBasis_3M!L25</f>
-        <v>EUR_YC3MRH_AB3EBASIS17Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS17Y#0000</v>
       </c>
       <c r="F152" s="33">
         <f>_xll.qlRateHelperQuoteValue($E152,Trigger)</f>
@@ -9121,11 +9112,11 @@
       </c>
       <c r="K152" s="31">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L152" s="30">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>47857</v>
+        <v>47869</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -9142,7 +9133,7 @@
       </c>
       <c r="E153" s="34" t="str">
         <f>SwapsFromBasis_3M!L26</f>
-        <v>EUR_YC3MRH_AB3EBASIS18Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS18Y#0000</v>
       </c>
       <c r="F153" s="33">
         <f>_xll.qlRateHelperQuoteValue($E153,Trigger)</f>
@@ -9163,11 +9154,11 @@
       </c>
       <c r="K153" s="31">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L153" s="30">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>48222</v>
+        <v>48234</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
@@ -9184,7 +9175,7 @@
       </c>
       <c r="E154" s="34" t="str">
         <f>SwapsFromBasis_3M!L27</f>
-        <v>EUR_YC3MRH_AB3EBASIS19Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS19Y#0000</v>
       </c>
       <c r="F154" s="33">
         <f>_xll.qlRateHelperQuoteValue($E154,Trigger)</f>
@@ -9205,11 +9196,11 @@
       </c>
       <c r="K154" s="31">
         <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L154" s="30">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>48589</v>
+        <v>48600</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -9226,7 +9217,7 @@
       </c>
       <c r="E155" s="34" t="str">
         <f>SwapsFromBasis_3M!L28</f>
-        <v>EUR_YC3MRH_AB3EBASIS20Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS20Y#0000</v>
       </c>
       <c r="F155" s="33">
         <f>_xll.qlRateHelperQuoteValue($E155,Trigger)</f>
@@ -9247,11 +9238,11 @@
       </c>
       <c r="K155" s="31">
         <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L155" s="30">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>48953</v>
+        <v>48967</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -9268,7 +9259,7 @@
       </c>
       <c r="E156" s="34" t="str">
         <f>SwapsFromBasis_3M!L29</f>
-        <v>EUR_YC3MRH_AB3EBASIS21Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS21Y#0000</v>
       </c>
       <c r="F156" s="33">
         <f>_xll.qlRateHelperQuoteValue($E156,Trigger)</f>
@@ -9289,11 +9280,11 @@
       </c>
       <c r="K156" s="31">
         <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L156" s="30">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>49318</v>
+        <v>49331</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
@@ -9310,7 +9301,7 @@
       </c>
       <c r="E157" s="34" t="str">
         <f>SwapsFromBasis_3M!L30</f>
-        <v>EUR_YC3MRH_AB3EBASIS22Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS22Y#0000</v>
       </c>
       <c r="F157" s="33">
         <f>_xll.qlRateHelperQuoteValue($E157,Trigger)</f>
@@ -9331,11 +9322,11 @@
       </c>
       <c r="K157" s="31">
         <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L157" s="30">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>49683</v>
+        <v>49695</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
@@ -9352,7 +9343,7 @@
       </c>
       <c r="E158" s="34" t="str">
         <f>SwapsFromBasis_3M!L31</f>
-        <v>EUR_YC3MRH_AB3EBASIS23Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS23Y#0000</v>
       </c>
       <c r="F158" s="33">
         <f>_xll.qlRateHelperQuoteValue($E158,Trigger)</f>
@@ -9373,11 +9364,11 @@
       </c>
       <c r="K158" s="31">
         <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L158" s="30">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>50049</v>
+        <v>50061</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
@@ -9394,7 +9385,7 @@
       </c>
       <c r="E159" s="34" t="str">
         <f>SwapsFromBasis_3M!L32</f>
-        <v>EUR_YC3MRH_AB3EBASIS24Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS24Y#0000</v>
       </c>
       <c r="F159" s="33">
         <f>_xll.qlRateHelperQuoteValue($E159,Trigger)</f>
@@ -9415,11 +9406,11 @@
       </c>
       <c r="K159" s="31">
         <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L159" s="30">
         <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>50416</v>
+        <v>50426</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
@@ -9436,7 +9427,7 @@
       </c>
       <c r="E160" s="34" t="str">
         <f>SwapsFromBasis_3M!L33</f>
-        <v>EUR_YC3MRH_AB3EBASIS25Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS25Y#0000</v>
       </c>
       <c r="F160" s="33">
         <f>_xll.qlRateHelperQuoteValue($E160,Trigger)</f>
@@ -9457,11 +9448,11 @@
       </c>
       <c r="K160" s="31">
         <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L160" s="30">
         <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>50780</v>
+        <v>50791</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
@@ -9478,7 +9469,7 @@
       </c>
       <c r="E161" s="34" t="str">
         <f>SwapsFromBasis_3M!L34</f>
-        <v>EUR_YC3MRH_AB3EBASIS26Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS26Y#0000</v>
       </c>
       <c r="F161" s="33">
         <f>_xll.qlRateHelperQuoteValue($E161,Trigger)</f>
@@ -9499,11 +9490,11 @@
       </c>
       <c r="K161" s="31">
         <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L161" s="30">
         <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
-        <v>51144</v>
+        <v>51158</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.2">
@@ -9520,7 +9511,7 @@
       </c>
       <c r="E162" s="34" t="str">
         <f>SwapsFromBasis_3M!L35</f>
-        <v>EUR_YC3MRH_AB3EBASIS27Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS27Y#0000</v>
       </c>
       <c r="F162" s="33">
         <f>_xll.qlRateHelperQuoteValue($E162,Trigger)</f>
@@ -9541,11 +9532,11 @@
       </c>
       <c r="K162" s="31">
         <f>_xll.qlRateHelperEarliestDate($E162,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L162" s="30">
         <f>_xll.qlRateHelperLatestDate($E162,Trigger)</f>
-        <v>51510</v>
+        <v>51522</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.2">
@@ -9562,7 +9553,7 @@
       </c>
       <c r="E163" s="34" t="str">
         <f>SwapsFromBasis_3M!L36</f>
-        <v>EUR_YC3MRH_AB3EBASIS28Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS28Y#0000</v>
       </c>
       <c r="F163" s="33">
         <f>_xll.qlRateHelperQuoteValue($E163,Trigger)</f>
@@ -9583,11 +9574,11 @@
       </c>
       <c r="K163" s="31">
         <f>_xll.qlRateHelperEarliestDate($E163,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L163" s="30">
         <f>_xll.qlRateHelperLatestDate($E163,Trigger)</f>
-        <v>51875</v>
+        <v>51887</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.2">
@@ -9604,7 +9595,7 @@
       </c>
       <c r="E164" s="34" t="str">
         <f>SwapsFromBasis_3M!L37</f>
-        <v>EUR_YC3MRH_AB3EBASIS29Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS29Y#0000</v>
       </c>
       <c r="F164" s="33">
         <f>_xll.qlRateHelperQuoteValue($E164,Trigger)</f>
@@ -9625,11 +9616,11 @@
       </c>
       <c r="K164" s="31">
         <f>_xll.qlRateHelperEarliestDate($E164,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L164" s="30">
         <f>_xll.qlRateHelperLatestDate($E164,Trigger)</f>
-        <v>52240</v>
+        <v>52252</v>
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.2">
@@ -9646,7 +9637,7 @@
       </c>
       <c r="E165" s="34" t="str">
         <f>SwapsFromBasis_3M!L38</f>
-        <v>EUR_YC3MRH_AB3EBASIS30Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS30Y#0000</v>
       </c>
       <c r="F165" s="33">
         <f>_xll.qlRateHelperQuoteValue($E165,Trigger)</f>
@@ -9667,11 +9658,11 @@
       </c>
       <c r="K165" s="31">
         <f>_xll.qlRateHelperEarliestDate($E165,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L165" s="30">
         <f>_xll.qlRateHelperLatestDate($E165,Trigger)</f>
-        <v>52607</v>
+        <v>52617</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.2">
@@ -9688,7 +9679,7 @@
       </c>
       <c r="E166" s="34" t="str">
         <f>SwapsFromBasis_3M!L39</f>
-        <v>EUR_YC3MRH_AB3EBASIS35Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS35Y#0000</v>
       </c>
       <c r="F166" s="33">
         <f>_xll.qlRateHelperQuoteValue($E166,Trigger)</f>
@@ -9709,11 +9700,11 @@
       </c>
       <c r="K166" s="31">
         <f>_xll.qlRateHelperEarliestDate($E166,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L166" s="30">
         <f>_xll.qlRateHelperLatestDate($E166,Trigger)</f>
-        <v>54434</v>
+        <v>54444</v>
       </c>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.2">
@@ -9730,7 +9721,7 @@
       </c>
       <c r="E167" s="34" t="str">
         <f>SwapsFromBasis_3M!L40</f>
-        <v>EUR_YC3MRH_AB3EBASIS40Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS40Y#0000</v>
       </c>
       <c r="F167" s="33">
         <f>_xll.qlRateHelperQuoteValue($E167,Trigger)</f>
@@ -9751,11 +9742,11 @@
       </c>
       <c r="K167" s="31">
         <f>_xll.qlRateHelperEarliestDate($E167,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L167" s="30">
         <f>_xll.qlRateHelperLatestDate($E167,Trigger)</f>
-        <v>56258</v>
+        <v>56270</v>
       </c>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.2">
@@ -9772,7 +9763,7 @@
       </c>
       <c r="E168" s="34" t="str">
         <f>SwapsFromBasis_3M!L41</f>
-        <v>EUR_YC3MRH_AB3EBASIS50Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS50Y#0000</v>
       </c>
       <c r="F168" s="33">
         <f>_xll.qlRateHelperQuoteValue($E168,Trigger)</f>
@@ -9793,11 +9784,11 @@
       </c>
       <c r="K168" s="31">
         <f>_xll.qlRateHelperEarliestDate($E168,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L168" s="30">
         <f>_xll.qlRateHelperLatestDate($E168,Trigger)</f>
-        <v>59910</v>
+        <v>59922</v>
       </c>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.2">
@@ -9814,7 +9805,7 @@
       </c>
       <c r="E169" s="27" t="str">
         <f>SwapsFromBasis_3M!L42</f>
-        <v>EUR_YC3MRH_AB3EBASIS60Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS60Y#0000</v>
       </c>
       <c r="F169" s="26">
         <f>_xll.qlRateHelperQuoteValue($E169,Trigger)</f>
@@ -9835,11 +9826,11 @@
       </c>
       <c r="K169" s="24">
         <f>_xll.qlRateHelperEarliestDate($E169,Trigger)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="L169" s="23">
         <f>_xll.qlRateHelperLatestDate($E169,Trigger)</f>
-        <v>63563</v>
+        <v>63576</v>
       </c>
     </row>
   </sheetData>
@@ -9878,10 +9869,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="218"/>
+      <c r="B1" s="228"/>
       <c r="D1" s="22" t="s">
         <v>9</v>
       </c>
@@ -9921,11 +9912,11 @@
       </c>
       <c r="G2" s="9">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41662</v>
+        <v>41674</v>
       </c>
       <c r="I2" s="3">
         <v>0.99992312257724181</v>
@@ -9934,7 +9925,7 @@
         <v>115</v>
       </c>
       <c r="L2" s="46">
-        <v>1.977E-3</v>
+        <v>2.1610000000000002E-3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -9957,11 +9948,11 @@
       </c>
       <c r="G3" s="9">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41669</v>
+        <v>41681</v>
       </c>
       <c r="I3" s="3">
         <v>0.99988381350087097</v>
@@ -9970,7 +9961,7 @@
         <v>116</v>
       </c>
       <c r="L3" s="46">
-        <v>1.9919999999999998E-3</v>
+        <v>2.1159999999999998E-3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -9993,20 +9984,20 @@
       </c>
       <c r="G4" s="9">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41680</v>
+        <v>41691</v>
       </c>
       <c r="I4" s="3">
-        <v>0.99982109867807345</v>
+        <v>0.99982668837545674</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>117</v>
       </c>
       <c r="L4" s="46">
-        <v>2.013E-3</v>
+        <v>2.1389999999999998E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -10029,20 +10020,20 @@
       </c>
       <c r="G5" s="9">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41708</v>
+        <v>41719</v>
       </c>
       <c r="I5" s="3">
-        <v>0.99964545907718061</v>
+        <v>0.9996513660324774</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>118</v>
       </c>
       <c r="L5" s="46">
-        <v>2.1280000000000001E-3</v>
+        <v>2.2430000000000002E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -10066,26 +10057,26 @@
       </c>
       <c r="G6" s="9">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41649</v>
+        <v>41661</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41739</v>
+        <v>41751</v>
       </c>
       <c r="I6" s="3">
-        <v>0.99943236937651492</v>
+        <v>0.99943236814422309</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="L6" s="46">
-        <v>2.2499999999999998E-3</v>
+        <v>2.1749999999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="str">
         <f>_xll.ohGroup(,_xll.ohPack(D2:D126),Permanent,,ObjectOverwrite)</f>
-        <v>obj_0065a#0010</v>
+        <v>obj_0064f#0000</v>
       </c>
       <c r="B7" s="12" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -10096,7 +10087,7 @@
       </c>
       <c r="E7" s="10">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>2.8500000000000192E-3</v>
+        <v>2.6249999999999885E-3</v>
       </c>
       <c r="F7" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -10111,13 +10102,13 @@
         <v>41809</v>
       </c>
       <c r="I7" s="3">
-        <v>0.99885756504830558</v>
+        <v>0.99899434962002354</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L7" s="46">
-        <v>2.8500000000000001E-3</v>
+        <v>2.2750000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -10126,7 +10117,7 @@
       </c>
       <c r="E8" s="10">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>4.5250000000000012E-3</v>
+        <v>3.2250000000000334E-3</v>
       </c>
       <c r="F8" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -10141,13 +10132,13 @@
         <v>41900</v>
       </c>
       <c r="I8" s="3">
-        <v>0.99771397583391219</v>
-      </c>
-      <c r="K8" s="208" t="s">
-        <v>121</v>
+        <v>0.99817972183892234</v>
+      </c>
+      <c r="K8" s="229" t="s">
+        <v>120</v>
       </c>
       <c r="L8" s="46">
-        <v>4.5250000000000004E-3</v>
+        <v>2.575E-3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -10156,7 +10147,7 @@
       </c>
       <c r="E9" s="10">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>5.1250000000000462E-3</v>
+        <v>3.9249999999999563E-3</v>
       </c>
       <c r="F9" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -10171,13 +10162,13 @@
         <v>41990</v>
       </c>
       <c r="I9" s="3">
-        <v>0.99643674809953053</v>
-      </c>
-      <c r="K9" s="208" t="s">
-        <v>122</v>
+        <v>0.99720026523898653</v>
+      </c>
+      <c r="K9" s="229" t="s">
+        <v>121</v>
       </c>
       <c r="L9" s="46">
-        <v>5.1250000000000002E-3</v>
+        <v>2.8249999999999998E-3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -10186,7 +10177,7 @@
       </c>
       <c r="E10" s="10">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>5.8249999999999691E-3</v>
+        <v>4.5250000000000012E-3</v>
       </c>
       <c r="F10" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -10201,13 +10192,13 @@
         <v>42080</v>
       </c>
       <c r="I10" s="3">
-        <v>0.99498779711997465</v>
-      </c>
-      <c r="K10" s="208" t="s">
-        <v>123</v>
+        <v>0.99607345714086848</v>
+      </c>
+      <c r="K10" s="229" t="s">
+        <v>122</v>
       </c>
       <c r="L10" s="46">
-        <v>5.8250000000000003E-3</v>
+        <v>3.225E-3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -10231,13 +10222,13 @@
         <v>42173</v>
       </c>
       <c r="I11" s="3">
-        <v>0.99367121095164468</v>
+        <v>0.99475730809870633</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L11" s="46">
-        <v>5.1250000000000002E-3</v>
+        <v>3.6749999999999999E-3</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -10261,13 +10252,13 @@
         <v>42264</v>
       </c>
       <c r="I12" s="3">
-        <v>0.99220879012734486</v>
+        <v>0.9932937722117462</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L12" s="46">
-        <v>5.8250000000000003E-3</v>
+        <v>4.3249999999999999E-3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -10291,13 +10282,13 @@
         <v>42354</v>
       </c>
       <c r="I13" s="3">
-        <v>0.99059202119743606</v>
+        <v>0.9916751468837427</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L13" s="46">
-        <v>6.5250000000000004E-3</v>
+        <v>5.1749999999999999E-3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -10321,13 +10312,13 @@
         <v>42445</v>
       </c>
       <c r="I14" s="3">
-        <v>0.98876123364378021</v>
+        <v>0.98984235752376371</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L14" s="46">
-        <v>7.3249999999999999E-3</v>
+        <v>4.7400000000000003E-3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -10344,20 +10335,20 @@
       </c>
       <c r="G15" s="9">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="H15" s="8">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42744</v>
+        <v>42758</v>
       </c>
       <c r="I15" s="3">
-        <v>0.98157013253261871</v>
+        <v>0.9815269017640107</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L15" s="46">
-        <v>6.1900000000000002E-3</v>
+        <v>7.0099999999999997E-3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -10374,20 +10365,20 @@
       </c>
       <c r="G16" s="9">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="H16" s="8">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43109</v>
+        <v>43122</v>
       </c>
       <c r="I16" s="3">
-        <v>0.96702638501648219</v>
+        <v>0.96699085498393733</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L16" s="46">
-        <v>8.3599999999999994E-3</v>
+        <v>9.4400000000000005E-3</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.2">
@@ -10404,20 +10395,20 @@
       </c>
       <c r="G17" s="9">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="H17" s="8">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43474</v>
+        <v>43486</v>
       </c>
       <c r="I17" s="3">
-        <v>0.94799821051689015</v>
+        <v>0.94798128074884069</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L17" s="46">
-        <v>1.0630000000000001E-2</v>
+        <v>1.176E-2</v>
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.2">
@@ -10434,20 +10425,20 @@
       </c>
       <c r="G18" s="9">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="H18" s="8">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>43839</v>
+        <v>43851</v>
       </c>
       <c r="I18" s="3">
-        <v>0.92662697351495837</v>
+        <v>0.9266071466539908</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L18" s="46">
-        <v>1.2630000000000001E-2</v>
+        <v>1.391E-2</v>
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.2">
@@ -10464,20 +10455,20 @@
       </c>
       <c r="G19" s="9">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="H19" s="8">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44207</v>
+        <v>44217</v>
       </c>
       <c r="I19" s="3">
-        <v>0.90333123430935147</v>
+        <v>0.90338015687830353</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L19" s="46">
-        <v>1.439E-2</v>
+        <v>1.583E-2</v>
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.2">
@@ -10494,20 +10485,20 @@
       </c>
       <c r="G20" s="9">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="H20" s="8">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>44571</v>
+        <v>44582</v>
       </c>
       <c r="I20" s="3">
-        <v>0.87887243076614874</v>
+        <v>0.87888747802699441</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L20" s="46">
-        <v>1.5949999999999999E-2</v>
+        <v>1.753E-2</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.2">
@@ -10524,20 +10515,20 @@
       </c>
       <c r="G21" s="9">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="H21" s="8">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>44935</v>
+        <v>44949</v>
       </c>
       <c r="I21" s="3">
-        <v>0.85305884090859074</v>
+        <v>0.85295340730687519</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L21" s="46">
-        <v>1.7399999999999999E-2</v>
+        <v>1.9060000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.2">
@@ -10554,20 +10545,20 @@
       </c>
       <c r="G22" s="9">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="H22" s="8">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>45300</v>
+        <v>45313</v>
       </c>
       <c r="I22" s="3">
-        <v>0.8265316228423667</v>
+        <v>0.82646249784479475</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L22" s="46">
-        <v>1.8710000000000001E-2</v>
+        <v>2.1520000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.2">
@@ -10584,20 +10575,20 @@
       </c>
       <c r="G23" s="9">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="H23" s="8">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>46031</v>
+        <v>46043</v>
       </c>
       <c r="I23" s="3">
-        <v>0.77398207320333701</v>
+        <v>0.77395257083229074</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L23" s="46">
-        <v>2.0840000000000001E-2</v>
+        <v>2.3959999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.2">
@@ -10614,20 +10605,20 @@
       </c>
       <c r="G24" s="9">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="H24" s="8">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>47127</v>
+        <v>47140</v>
       </c>
       <c r="I24" s="3">
-        <v>0.70195267593278343</v>
+        <v>0.70187826153920496</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L24" s="46">
-        <v>2.2890000000000001E-2</v>
+        <v>2.571E-2</v>
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.2">
@@ -10644,20 +10635,20 @@
       </c>
       <c r="G25" s="9">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="H25" s="8">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>48953</v>
+        <v>48967</v>
       </c>
       <c r="I25" s="3">
-        <v>0.60833147378291885</v>
+        <v>0.60822131401246937</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L25" s="46">
-        <v>2.4119999999999999E-2</v>
+        <v>2.6280000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.2">
@@ -10674,20 +10665,20 @@
       </c>
       <c r="G26" s="9">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="H26" s="8">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>50780</v>
+        <v>50791</v>
       </c>
       <c r="I26" s="3">
-        <v>0.53612052213363737</v>
+        <v>0.53612806866616824</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L26" s="46">
-        <v>2.4340000000000001E-2</v>
+        <v>2.6450000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.2">
@@ -10704,20 +10695,20 @@
       </c>
       <c r="G27" s="9">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="H27" s="8">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>52607</v>
+        <v>52617</v>
       </c>
       <c r="I27" s="3">
-        <v>0.47593975963723573</v>
+        <v>0.47597783345048428</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L27" s="46">
-        <v>2.4309999999999998E-2</v>
+        <v>2.6596999999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.2">
@@ -10734,20 +10725,20 @@
       </c>
       <c r="G28" s="9">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="H28" s="8">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>54434</v>
+        <v>54444</v>
       </c>
       <c r="I28" s="3">
-        <v>0.41771217357978524</v>
+        <v>0.41774613794832566</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L28" s="46">
-        <v>2.4504999999999999E-2</v>
+        <v>2.683E-2</v>
       </c>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.2">
@@ -10764,20 +10755,20 @@
       </c>
       <c r="G29" s="9">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="H29" s="8">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>56258</v>
+        <v>56270</v>
       </c>
       <c r="I29" s="3">
-        <v>0.3625977530257124</v>
+        <v>0.36257899632507884</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L29" s="46">
-        <v>2.4819999999999998E-2</v>
+        <v>2.7175000000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.2">
@@ -10794,20 +10785,20 @@
       </c>
       <c r="G30" s="9">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="H30" s="8">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>59910</v>
+        <v>59922</v>
       </c>
       <c r="I30" s="3">
-        <v>0.27157930902452659</v>
+        <v>0.2715641286565611</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L30" s="46">
-        <v>2.5305000000000001E-2</v>
+        <v>2.7481999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.2">
@@ -10824,17 +10815,17 @@
       </c>
       <c r="G31" s="9">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41648</v>
+        <v>41660</v>
       </c>
       <c r="H31" s="8">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>63563</v>
+        <v>63576</v>
       </c>
       <c r="I31" s="3">
-        <v>0.20246286490853307</v>
+        <v>0.20243670511240297</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L31" s="46">
         <v>2.564E-2</v>
@@ -13158,12 +13149,12 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
       <c r="D1" s="110" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E1" s="109" t="str">
         <f>Currency&amp;"_YC"&amp;$D$1&amp;"RH"</f>
@@ -13177,10 +13168,10 @@
       <c r="A2" s="100"/>
       <c r="B2" s="107"/>
       <c r="C2" s="107" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D2" s="107" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E2" s="106" t="str">
         <f>$E$1&amp;"_Deposits.xml"</f>
@@ -13199,7 +13190,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="100"/>
       <c r="B3" s="103" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C3" s="102"/>
       <c r="D3" s="97" t="str">
@@ -13212,7 +13203,7 @@
       </c>
       <c r="F3" s="101" t="str">
         <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_SND#0011</v>
+        <v>EUR_YC3MRH_SND#0000</v>
       </c>
       <c r="G3" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -13223,7 +13214,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="100"/>
       <c r="B4" s="99" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="98" t="str">
         <f t="shared" ref="C4:C9" si="2">PROPER(Currency)&amp;FamilyName&amp;$B4</f>
@@ -13239,7 +13230,7 @@
       </c>
       <c r="F4" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_SWD#0011</v>
+        <v>EUR_YC3MRH_SWD#0000</v>
       </c>
       <c r="G4" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -13250,7 +13241,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="100"/>
       <c r="B5" s="99" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5" s="98" t="str">
         <f t="shared" si="2"/>
@@ -13266,7 +13257,7 @@
       </c>
       <c r="F5" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2WD#0011</v>
+        <v>EUR_YC3MRH_2WD#0000</v>
       </c>
       <c r="G5" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13277,7 +13268,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="100"/>
       <c r="B6" s="99" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C6" s="98" t="str">
         <f t="shared" si="2"/>
@@ -13293,7 +13284,7 @@
       </c>
       <c r="F6" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3WD#0011</v>
+        <v>EUR_YC3MRH_3WD#0000</v>
       </c>
       <c r="G6" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13304,7 +13295,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="100"/>
       <c r="B7" s="99" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" s="98" t="str">
         <f t="shared" si="2"/>
@@ -13320,7 +13311,7 @@
       </c>
       <c r="F7" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1MD#0011</v>
+        <v>EUR_YC3MRH_1MD#0000</v>
       </c>
       <c r="G7" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13331,7 +13322,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="100"/>
       <c r="B8" s="99" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" s="98" t="str">
         <f t="shared" si="2"/>
@@ -13347,7 +13338,7 @@
       </c>
       <c r="F8" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2MD#0011</v>
+        <v>EUR_YC3MRH_2MD#0000</v>
       </c>
       <c r="G8" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13358,7 +13349,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="100"/>
       <c r="B9" s="99" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" s="98" t="str">
         <f t="shared" si="2"/>
@@ -13374,7 +13365,7 @@
       </c>
       <c r="F9" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3MD#0011</v>
+        <v>EUR_YC3MRH_3MD#0000</v>
       </c>
       <c r="G9" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13423,7 +13414,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="173" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B1" s="154"/>
       <c r="C1" s="154"/>
@@ -13448,10 +13439,10 @@
       <c r="C2" s="103"/>
       <c r="D2" s="148"/>
       <c r="E2" s="107" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F2" s="107" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G2" s="106" t="str">
         <f>$G$1&amp;"_FRAs.xml"</f>
@@ -13470,7 +13461,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="100"/>
       <c r="B3" s="145" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3" s="145" t="str">
         <f>"T"&amp;D1</f>
@@ -13493,7 +13484,7 @@
       </c>
       <c r="H3" s="143" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_T3F1#0011</v>
+        <v>EUR_YC3MRH_T3F1#0000</v>
       </c>
       <c r="I3" s="142" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -13504,7 +13495,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="100"/>
       <c r="B4" s="136" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" s="136" t="str">
         <f>"TOM"&amp;D1</f>
@@ -13527,7 +13518,7 @@
       </c>
       <c r="H4" s="135" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_TOM3F1#0011</v>
+        <v>EUR_YC3MRH_TOM3F1#0000</v>
       </c>
       <c r="I4" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -13562,7 +13553,7 @@
       </c>
       <c r="H5" s="138" t="str">
         <f>_xll.qlFraRateHelper(G5,F5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1x4F#0011</v>
+        <v>EUR_YC3MRH_1x4F#0000</v>
       </c>
       <c r="I5" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -13597,7 +13588,7 @@
       </c>
       <c r="H6" s="138" t="str">
         <f>_xll.qlFraRateHelper(G6,F6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2x5F#0011</v>
+        <v>EUR_YC3MRH_2x5F#0000</v>
       </c>
       <c r="I6" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -13632,7 +13623,7 @@
       </c>
       <c r="H7" s="138" t="str">
         <f>_xll.qlFraRateHelper(G7,F7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3x6F#0011</v>
+        <v>EUR_YC3MRH_3x6F#0000</v>
       </c>
       <c r="I7" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -13667,7 +13658,7 @@
       </c>
       <c r="H8" s="138" t="str">
         <f>_xll.qlFraRateHelper(G8,F8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_4x7F#0011</v>
+        <v>EUR_YC3MRH_4x7F#0000</v>
       </c>
       <c r="I8" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -13702,7 +13693,7 @@
       </c>
       <c r="H9" s="138" t="str">
         <f>_xll.qlFraRateHelper(G9,F9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_5x8F#0011</v>
+        <v>EUR_YC3MRH_5x8F#0000</v>
       </c>
       <c r="I9" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -13737,7 +13728,7 @@
       </c>
       <c r="H10" s="135" t="str">
         <f>_xll.qlFraRateHelper(G10,F10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_6x9F#0011</v>
+        <v>EUR_YC3MRH_6x9F#0000</v>
       </c>
       <c r="I10" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -13794,13 +13785,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="168" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B1" s="172"/>
       <c r="C1" s="172"/>
       <c r="D1" s="172"/>
       <c r="E1" s="110" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F1" s="171"/>
       <c r="G1" s="171"/>
@@ -13815,22 +13806,22 @@
     <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="168"/>
       <c r="B2" s="103" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" s="107" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D2" s="167" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E2" s="107" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F2" s="107" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G2" s="103" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H2" s="106" t="str">
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
@@ -13854,9 +13845,9 @@
       <c r="C3" s="160" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="209" t="str">
+      <c r="D3" s="208" t="str">
         <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C122)</f>
-        <v>F4</v>
+        <v>G4</v>
       </c>
       <c r="E3" s="160" t="str">
         <f t="shared" ref="E3:E34" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -13864,19 +13855,19 @@
       </c>
       <c r="F3" s="159" t="str">
         <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>EURFUT3MF4_Quote</v>
+        <v>EURFUT3MG4_Quote</v>
       </c>
       <c r="G3" s="159" t="str">
         <f t="shared" ref="G3:G34" si="2">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MF4ConvAdj_Quote</v>
+        <v>EURFUT3MG4ConvAdj_Quote</v>
       </c>
       <c r="H3" s="159" t="str">
         <f t="shared" ref="H3:H34" si="3">$H$1&amp;"_FUT"&amp;$E$1&amp;$D3</f>
-        <v>EUR_YC3MRH_FUT3MF4</v>
+        <v>EUR_YC3MRH_FUT3MG4</v>
       </c>
       <c r="I3" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MF4#0011</v>
+        <v>EUR_YC3MRH_FUT3MG4#0000</v>
       </c>
       <c r="J3" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -13893,8 +13884,8 @@
       <c r="C4" s="161" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="210" t="str">
-        <v>G4</v>
+      <c r="D4" s="209" t="str">
+        <v>H4</v>
       </c>
       <c r="E4" s="160" t="str">
         <f t="shared" si="0"/>
@@ -13902,19 +13893,19 @@
       </c>
       <c r="F4" s="159" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MG4_Quote</v>
+        <v>EURFUT3MH4_Quote</v>
       </c>
       <c r="G4" s="159" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MG4ConvAdj_Quote</v>
+        <v>EURFUT3MH4ConvAdj_Quote</v>
       </c>
       <c r="H4" s="159" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MG4</v>
+        <v>EUR_YC3MRH_FUT3MH4</v>
       </c>
       <c r="I4" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MG4#0011</v>
+        <v>EUR_YC3MRH_FUT3MH4#0000</v>
       </c>
       <c r="J4" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -13931,8 +13922,8 @@
       <c r="C5" s="161" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="210" t="str">
-        <v>H4</v>
+      <c r="D5" s="209" t="str">
+        <v>J4</v>
       </c>
       <c r="E5" s="160" t="str">
         <f t="shared" si="0"/>
@@ -13940,19 +13931,19 @@
       </c>
       <c r="F5" s="159" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH4_Quote</v>
+        <v>EURFUT3MJ4_Quote</v>
       </c>
       <c r="G5" s="159" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH4ConvAdj_Quote</v>
+        <v>EURFUT3MJ4ConvAdj_Quote</v>
       </c>
       <c r="H5" s="159" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MH4</v>
+        <v>EUR_YC3MRH_FUT3MJ4</v>
       </c>
       <c r="I5" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH4#0011</v>
+        <v>EUR_YC3MRH_FUT3MJ4#0000</v>
       </c>
       <c r="J5" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13969,8 +13960,8 @@
       <c r="C6" s="161" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="210" t="str">
-        <v>J4</v>
+      <c r="D6" s="209" t="str">
+        <v>K4</v>
       </c>
       <c r="E6" s="160" t="str">
         <f t="shared" si="0"/>
@@ -13978,19 +13969,19 @@
       </c>
       <c r="F6" s="159" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MJ4_Quote</v>
+        <v>EURFUT3MK4_Quote</v>
       </c>
       <c r="G6" s="159" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MJ4ConvAdj_Quote</v>
+        <v>EURFUT3MK4ConvAdj_Quote</v>
       </c>
       <c r="H6" s="159" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MJ4</v>
+        <v>EUR_YC3MRH_FUT3MK4</v>
       </c>
       <c r="I6" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MJ4#0011</v>
+        <v>EUR_YC3MRH_FUT3MK4#0000</v>
       </c>
       <c r="J6" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -14007,8 +13998,8 @@
       <c r="C7" s="161" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="210" t="str">
-        <v>K4</v>
+      <c r="D7" s="209" t="str">
+        <v>M4</v>
       </c>
       <c r="E7" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14016,19 +14007,19 @@
       </c>
       <c r="F7" s="159" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MK4_Quote</v>
+        <v>EURFUT3MM4_Quote</v>
       </c>
       <c r="G7" s="159" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MK4ConvAdj_Quote</v>
+        <v>EURFUT3MM4ConvAdj_Quote</v>
       </c>
       <c r="H7" s="159" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MK4</v>
+        <v>EUR_YC3MRH_FUT3MM4</v>
       </c>
       <c r="I7" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MK4#0011</v>
+        <v>EUR_YC3MRH_FUT3MM4#0000</v>
       </c>
       <c r="J7" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -14045,8 +14036,8 @@
       <c r="C8" s="161" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="210" t="str">
-        <v>M4</v>
+      <c r="D8" s="209" t="str">
+        <v>N4</v>
       </c>
       <c r="E8" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14054,19 +14045,19 @@
       </c>
       <c r="F8" s="159" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM4_Quote</v>
+        <v>EURFUT3MN4_Quote</v>
       </c>
       <c r="G8" s="159" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM4ConvAdj_Quote</v>
+        <v>EURFUT3MN4ConvAdj_Quote</v>
       </c>
       <c r="H8" s="159" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MM4</v>
+        <v>EUR_YC3MRH_FUT3MN4</v>
       </c>
       <c r="I8" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM4#0011</v>
+        <v>EUR_YC3MRH_FUT3MN4#0000</v>
       </c>
       <c r="J8" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -14083,8 +14074,8 @@
       <c r="C9" s="161" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="210" t="str">
-        <v>N4</v>
+      <c r="D9" s="209" t="str">
+        <v>Q4</v>
       </c>
       <c r="E9" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14092,19 +14083,19 @@
       </c>
       <c r="F9" s="159" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MN4_Quote</v>
+        <v>EURFUT3MQ4_Quote</v>
       </c>
       <c r="G9" s="159" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MN4ConvAdj_Quote</v>
+        <v>EURFUT3MQ4ConvAdj_Quote</v>
       </c>
       <c r="H9" s="159" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MN4</v>
+        <v>EUR_YC3MRH_FUT3MQ4</v>
       </c>
       <c r="I9" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MN4#0011</v>
+        <v>EUR_YC3MRH_FUT3MQ4#0000</v>
       </c>
       <c r="J9" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -14121,8 +14112,8 @@
       <c r="C10" s="161" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="210" t="str">
-        <v>Q4</v>
+      <c r="D10" s="209" t="str">
+        <v>U4</v>
       </c>
       <c r="E10" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14130,19 +14121,19 @@
       </c>
       <c r="F10" s="159" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MQ4_Quote</v>
+        <v>EURFUT3MU4_Quote</v>
       </c>
       <c r="G10" s="159" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MQ4ConvAdj_Quote</v>
+        <v>EURFUT3MU4ConvAdj_Quote</v>
       </c>
       <c r="H10" s="159" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MQ4</v>
+        <v>EUR_YC3MRH_FUT3MU4</v>
       </c>
       <c r="I10" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MQ4#0011</v>
+        <v>EUR_YC3MRH_FUT3MU4#0000</v>
       </c>
       <c r="J10" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -14159,8 +14150,8 @@
       <c r="C11" s="161" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="210" t="str">
-        <v>U4</v>
+      <c r="D11" s="209" t="str">
+        <v>V4</v>
       </c>
       <c r="E11" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14168,19 +14159,19 @@
       </c>
       <c r="F11" s="159" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU4_Quote</v>
+        <v>EURFUT3MV4_Quote</v>
       </c>
       <c r="G11" s="159" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU4ConvAdj_Quote</v>
+        <v>EURFUT3MV4ConvAdj_Quote</v>
       </c>
       <c r="H11" s="159" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MU4</v>
+        <v>EUR_YC3MRH_FUT3MV4</v>
       </c>
       <c r="I11" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU4#0011</v>
+        <v>EUR_YC3MRH_FUT3MV4#0000</v>
       </c>
       <c r="J11" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -14197,8 +14188,8 @@
       <c r="C12" s="161" t="b">
         <v>0</v>
       </c>
-      <c r="D12" s="210" t="str">
-        <v>V4</v>
+      <c r="D12" s="209" t="str">
+        <v>X4</v>
       </c>
       <c r="E12" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14206,19 +14197,19 @@
       </c>
       <c r="F12" s="159" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MV4_Quote</v>
+        <v>EURFUT3MX4_Quote</v>
       </c>
       <c r="G12" s="159" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MV4ConvAdj_Quote</v>
+        <v>EURFUT3MX4ConvAdj_Quote</v>
       </c>
       <c r="H12" s="159" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MV4</v>
+        <v>EUR_YC3MRH_FUT3MX4</v>
       </c>
       <c r="I12" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MV4#0011</v>
+        <v>EUR_YC3MRH_FUT3MX4#0000</v>
       </c>
       <c r="J12" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -14235,8 +14226,8 @@
       <c r="C13" s="161" t="b">
         <v>0</v>
       </c>
-      <c r="D13" s="210" t="str">
-        <v>X4</v>
+      <c r="D13" s="209" t="str">
+        <v>Z4</v>
       </c>
       <c r="E13" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14244,19 +14235,19 @@
       </c>
       <c r="F13" s="159" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MX4_Quote</v>
+        <v>EURFUT3MZ4_Quote</v>
       </c>
       <c r="G13" s="159" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MX4ConvAdj_Quote</v>
+        <v>EURFUT3MZ4ConvAdj_Quote</v>
       </c>
       <c r="H13" s="159" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MX4</v>
+        <v>EUR_YC3MRH_FUT3MZ4</v>
       </c>
       <c r="I13" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MX4#0011</v>
+        <v>EUR_YC3MRH_FUT3MZ4#0000</v>
       </c>
       <c r="J13" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -14273,8 +14264,8 @@
       <c r="C14" s="161" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="210" t="str">
-        <v>Z4</v>
+      <c r="D14" s="209" t="str">
+        <v>F5</v>
       </c>
       <c r="E14" s="160" t="str">
         <f t="shared" si="0"/>
@@ -14282,19 +14273,19 @@
       </c>
       <c r="F14" s="159" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ4_Quote</v>
+        <v>EURFUT3MF5_Quote</v>
       </c>
       <c r="G14" s="159" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ4ConvAdj_Quote</v>
+        <v>EURFUT3MF5ConvAdj_Quote</v>
       </c>
       <c r="H14" s="159" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MZ4</v>
+        <v>EUR_YC3MRH_FUT3MF5</v>
       </c>
       <c r="I14" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ4#0011</v>
+        <v>EUR_YC3MRH_FUT3MF5#0000</v>
       </c>
       <c r="J14" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -14311,7 +14302,7 @@
       <c r="C15" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D15" s="210" t="str">
+      <c r="D15" s="209" t="str">
         <v>H5</v>
       </c>
       <c r="E15" s="160" t="str">
@@ -14332,7 +14323,7 @@
       </c>
       <c r="I15" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH5#0011</v>
+        <v>EUR_YC3MRH_FUT3MH5#0000</v>
       </c>
       <c r="J15" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -14349,7 +14340,7 @@
       <c r="C16" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D16" s="210" t="str">
+      <c r="D16" s="209" t="str">
         <v>M5</v>
       </c>
       <c r="E16" s="160" t="str">
@@ -14370,7 +14361,7 @@
       </c>
       <c r="I16" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM5#0011</v>
+        <v>EUR_YC3MRH_FUT3MM5#0000</v>
       </c>
       <c r="J16" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -14387,7 +14378,7 @@
       <c r="C17" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D17" s="210" t="str">
+      <c r="D17" s="209" t="str">
         <v>U5</v>
       </c>
       <c r="E17" s="160" t="str">
@@ -14408,7 +14399,7 @@
       </c>
       <c r="I17" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU5#0011</v>
+        <v>EUR_YC3MRH_FUT3MU5#0000</v>
       </c>
       <c r="J17" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -14425,7 +14416,7 @@
       <c r="C18" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D18" s="210" t="str">
+      <c r="D18" s="209" t="str">
         <v>Z5</v>
       </c>
       <c r="E18" s="160" t="str">
@@ -14446,7 +14437,7 @@
       </c>
       <c r="I18" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ5#0011</v>
+        <v>EUR_YC3MRH_FUT3MZ5#0000</v>
       </c>
       <c r="J18" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -14463,7 +14454,7 @@
       <c r="C19" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D19" s="210" t="str">
+      <c r="D19" s="209" t="str">
         <v>H6</v>
       </c>
       <c r="E19" s="160" t="str">
@@ -14484,7 +14475,7 @@
       </c>
       <c r="I19" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH6#0011</v>
+        <v>EUR_YC3MRH_FUT3MH6#0000</v>
       </c>
       <c r="J19" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -14501,7 +14492,7 @@
       <c r="C20" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D20" s="210" t="str">
+      <c r="D20" s="209" t="str">
         <v>M6</v>
       </c>
       <c r="E20" s="160" t="str">
@@ -14522,7 +14513,7 @@
       </c>
       <c r="I20" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM6#0011</v>
+        <v>EUR_YC3MRH_FUT3MM6#0000</v>
       </c>
       <c r="J20" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -14539,7 +14530,7 @@
       <c r="C21" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D21" s="210" t="str">
+      <c r="D21" s="209" t="str">
         <v>U6</v>
       </c>
       <c r="E21" s="160" t="str">
@@ -14560,7 +14551,7 @@
       </c>
       <c r="I21" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU6#0011</v>
+        <v>EUR_YC3MRH_FUT3MU6#0000</v>
       </c>
       <c r="J21" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -14577,7 +14568,7 @@
       <c r="C22" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D22" s="210" t="str">
+      <c r="D22" s="209" t="str">
         <v>Z6</v>
       </c>
       <c r="E22" s="160" t="str">
@@ -14598,7 +14589,7 @@
       </c>
       <c r="I22" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ6#0011</v>
+        <v>EUR_YC3MRH_FUT3MZ6#0000</v>
       </c>
       <c r="J22" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -14615,7 +14606,7 @@
       <c r="C23" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D23" s="210" t="str">
+      <c r="D23" s="209" t="str">
         <v>H7</v>
       </c>
       <c r="E23" s="160" t="str">
@@ -14636,7 +14627,7 @@
       </c>
       <c r="I23" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH7#0011</v>
+        <v>EUR_YC3MRH_FUT3MH7#0000</v>
       </c>
       <c r="J23" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -14653,7 +14644,7 @@
       <c r="C24" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D24" s="210" t="str">
+      <c r="D24" s="209" t="str">
         <v>M7</v>
       </c>
       <c r="E24" s="160" t="str">
@@ -14674,7 +14665,7 @@
       </c>
       <c r="I24" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM7#0011</v>
+        <v>EUR_YC3MRH_FUT3MM7#0000</v>
       </c>
       <c r="J24" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -14691,7 +14682,7 @@
       <c r="C25" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D25" s="210" t="str">
+      <c r="D25" s="209" t="str">
         <v>U7</v>
       </c>
       <c r="E25" s="160" t="str">
@@ -14712,7 +14703,7 @@
       </c>
       <c r="I25" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU7#0011</v>
+        <v>EUR_YC3MRH_FUT3MU7#0000</v>
       </c>
       <c r="J25" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -14729,7 +14720,7 @@
       <c r="C26" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D26" s="210" t="str">
+      <c r="D26" s="209" t="str">
         <v>Z7</v>
       </c>
       <c r="E26" s="160" t="str">
@@ -14750,7 +14741,7 @@
       </c>
       <c r="I26" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ7#0011</v>
+        <v>EUR_YC3MRH_FUT3MZ7#0000</v>
       </c>
       <c r="J26" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -14767,7 +14758,7 @@
       <c r="C27" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D27" s="210" t="str">
+      <c r="D27" s="209" t="str">
         <v>H8</v>
       </c>
       <c r="E27" s="160" t="str">
@@ -14788,7 +14779,7 @@
       </c>
       <c r="I27" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH8#0011</v>
+        <v>EUR_YC3MRH_FUT3MH8#0000</v>
       </c>
       <c r="J27" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -14805,7 +14796,7 @@
       <c r="C28" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D28" s="210" t="str">
+      <c r="D28" s="209" t="str">
         <v>M8</v>
       </c>
       <c r="E28" s="160" t="str">
@@ -14826,7 +14817,7 @@
       </c>
       <c r="I28" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM8#0011</v>
+        <v>EUR_YC3MRH_FUT3MM8#0000</v>
       </c>
       <c r="J28" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -14843,7 +14834,7 @@
       <c r="C29" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D29" s="210" t="str">
+      <c r="D29" s="209" t="str">
         <v>U8</v>
       </c>
       <c r="E29" s="160" t="str">
@@ -14864,7 +14855,7 @@
       </c>
       <c r="I29" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU8#0011</v>
+        <v>EUR_YC3MRH_FUT3MU8#0000</v>
       </c>
       <c r="J29" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -14881,7 +14872,7 @@
       <c r="C30" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D30" s="210" t="str">
+      <c r="D30" s="209" t="str">
         <v>Z8</v>
       </c>
       <c r="E30" s="160" t="str">
@@ -14902,7 +14893,7 @@
       </c>
       <c r="I30" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ8#0011</v>
+        <v>EUR_YC3MRH_FUT3MZ8#0000</v>
       </c>
       <c r="J30" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -14919,7 +14910,7 @@
       <c r="C31" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D31" s="210" t="str">
+      <c r="D31" s="209" t="str">
         <v>H9</v>
       </c>
       <c r="E31" s="160" t="str">
@@ -14940,7 +14931,7 @@
       </c>
       <c r="I31" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH9#0011</v>
+        <v>EUR_YC3MRH_FUT3MH9#0000</v>
       </c>
       <c r="J31" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -14957,7 +14948,7 @@
       <c r="C32" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D32" s="210" t="str">
+      <c r="D32" s="209" t="str">
         <v>M9</v>
       </c>
       <c r="E32" s="160" t="str">
@@ -14978,7 +14969,7 @@
       </c>
       <c r="I32" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM9#0011</v>
+        <v>EUR_YC3MRH_FUT3MM9#0000</v>
       </c>
       <c r="J32" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -14995,7 +14986,7 @@
       <c r="C33" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D33" s="210" t="str">
+      <c r="D33" s="209" t="str">
         <v>U9</v>
       </c>
       <c r="E33" s="160" t="str">
@@ -15016,7 +15007,7 @@
       </c>
       <c r="I33" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU9#0011</v>
+        <v>EUR_YC3MRH_FUT3MU9#0000</v>
       </c>
       <c r="J33" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -15033,7 +15024,7 @@
       <c r="C34" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D34" s="210" t="str">
+      <c r="D34" s="209" t="str">
         <v>Z9</v>
       </c>
       <c r="E34" s="160" t="str">
@@ -15054,7 +15045,7 @@
       </c>
       <c r="I34" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ9#0011</v>
+        <v>EUR_YC3MRH_FUT3MZ9#0000</v>
       </c>
       <c r="J34" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -15071,7 +15062,7 @@
       <c r="C35" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D35" s="210" t="str">
+      <c r="D35" s="209" t="str">
         <v>H0</v>
       </c>
       <c r="E35" s="160" t="str">
@@ -15092,7 +15083,7 @@
       </c>
       <c r="I35" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH0#0011</v>
+        <v>EUR_YC3MRH_FUT3MH0#0000</v>
       </c>
       <c r="J35" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -15109,7 +15100,7 @@
       <c r="C36" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D36" s="210" t="str">
+      <c r="D36" s="209" t="str">
         <v>M0</v>
       </c>
       <c r="E36" s="160" t="str">
@@ -15130,7 +15121,7 @@
       </c>
       <c r="I36" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM0#0011</v>
+        <v>EUR_YC3MRH_FUT3MM0#0000</v>
       </c>
       <c r="J36" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -15147,7 +15138,7 @@
       <c r="C37" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D37" s="210" t="str">
+      <c r="D37" s="209" t="str">
         <v>U0</v>
       </c>
       <c r="E37" s="160" t="str">
@@ -15168,7 +15159,7 @@
       </c>
       <c r="I37" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU0#0011</v>
+        <v>EUR_YC3MRH_FUT3MU0#0000</v>
       </c>
       <c r="J37" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -15185,7 +15176,7 @@
       <c r="C38" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D38" s="210" t="str">
+      <c r="D38" s="209" t="str">
         <v>Z0</v>
       </c>
       <c r="E38" s="160" t="str">
@@ -15206,7 +15197,7 @@
       </c>
       <c r="I38" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ0#0011</v>
+        <v>EUR_YC3MRH_FUT3MZ0#0000</v>
       </c>
       <c r="J38" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -15223,7 +15214,7 @@
       <c r="C39" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D39" s="210" t="str">
+      <c r="D39" s="209" t="str">
         <v>H1</v>
       </c>
       <c r="E39" s="160" t="str">
@@ -15244,7 +15235,7 @@
       </c>
       <c r="I39" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH1#0011</v>
+        <v>EUR_YC3MRH_FUT3MH1#0000</v>
       </c>
       <c r="J39" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -15261,7 +15252,7 @@
       <c r="C40" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D40" s="210" t="str">
+      <c r="D40" s="209" t="str">
         <v>M1</v>
       </c>
       <c r="E40" s="160" t="str">
@@ -15282,7 +15273,7 @@
       </c>
       <c r="I40" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM1#0011</v>
+        <v>EUR_YC3MRH_FUT3MM1#0000</v>
       </c>
       <c r="J40" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -15298,7 +15289,7 @@
       <c r="C41" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D41" s="210" t="str">
+      <c r="D41" s="209" t="str">
         <v>U1</v>
       </c>
       <c r="E41" s="160" t="str">
@@ -15319,7 +15310,7 @@
       </c>
       <c r="I41" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU1#0011</v>
+        <v>EUR_YC3MRH_FUT3MU1#0000</v>
       </c>
       <c r="J41" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -15335,7 +15326,7 @@
       <c r="C42" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D42" s="210" t="str">
+      <c r="D42" s="209" t="str">
         <v>Z1</v>
       </c>
       <c r="E42" s="160" t="str">
@@ -15356,7 +15347,7 @@
       </c>
       <c r="I42" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ1#0011</v>
+        <v>EUR_YC3MRH_FUT3MZ1#0000</v>
       </c>
       <c r="J42" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -15372,7 +15363,7 @@
       <c r="C43" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D43" s="210" t="str">
+      <c r="D43" s="209" t="str">
         <v>H2</v>
       </c>
       <c r="E43" s="160" t="str">
@@ -15393,7 +15384,7 @@
       </c>
       <c r="I43" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH2#0011</v>
+        <v>EUR_YC3MRH_FUT3MH2#0000</v>
       </c>
       <c r="J43" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -15409,7 +15400,7 @@
       <c r="C44" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="D44" s="210" t="str">
+      <c r="D44" s="209" t="str">
         <v>M2</v>
       </c>
       <c r="E44" s="160" t="str">
@@ -15430,7 +15421,7 @@
       </c>
       <c r="I44" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM2#0011</v>
+        <v>EUR_YC3MRH_FUT3MM2#0000</v>
       </c>
       <c r="J44" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -15490,7 +15481,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="173" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B1" s="154"/>
       <c r="C1" s="154"/>
@@ -15517,7 +15508,7 @@
       <c r="H2" s="111"/>
       <c r="I2" s="111"/>
       <c r="J2" s="110" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K2" s="110" t="str">
         <f>Currency&amp;"_YC"&amp;$J$2&amp;"RH"</f>
@@ -15533,25 +15524,25 @@
     <row r="3" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="100"/>
       <c r="B3" s="107" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C3" s="107"/>
       <c r="D3" s="107"/>
       <c r="E3" s="107"/>
       <c r="F3" s="107" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G3" s="107" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H3" s="107" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I3" s="107" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J3" s="107" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K3" s="197" t="str">
         <f>K2&amp;"_Swaps.xml"</f>
@@ -15584,7 +15575,7 @@
       </c>
       <c r="L4" s="195" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC3MRH_AB3E_ibor3M#0011</v>
+        <v>EUR_YC3MRH_AB3E_ibor3M#0000</v>
       </c>
       <c r="M4" s="194" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -15611,7 +15602,7 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="100"/>
       <c r="B6" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C6" s="184" t="s">
         <v>47</v>
@@ -15629,7 +15620,7 @@
         <v>Annual</v>
       </c>
       <c r="G6" s="161" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H6" s="161" t="str">
         <f t="shared" ref="H6:H42" si="1">IF(UPPER(RIGHT($D6))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D6))="M",MoneyMarketDayCounter,"--"))</f>
@@ -15648,7 +15639,7 @@
       </c>
       <c r="L6" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E1Y#0011</v>
+        <v>EUR_YC3MRH_AB3E1Y#0000</v>
       </c>
       <c r="M6" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -15662,13 +15653,13 @@
         <v>110</v>
       </c>
       <c r="R6" s="191" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="100"/>
       <c r="B7" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" s="184" t="s">
         <v>46</v>
@@ -15684,7 +15675,7 @@
         <v>Annual</v>
       </c>
       <c r="G7" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H7" s="160" t="str">
         <f t="shared" si="1"/>
@@ -15703,7 +15694,7 @@
       </c>
       <c r="L7" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E15M#0011</v>
+        <v>EUR_YC3MRH_AB3E15M#0000</v>
       </c>
       <c r="M7" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -15717,13 +15708,13 @@
         <v>110</v>
       </c>
       <c r="R7" s="188" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="100"/>
       <c r="B8" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C8" s="184" t="s">
         <v>45</v>
@@ -15739,7 +15730,7 @@
         <v>Annual</v>
       </c>
       <c r="G8" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H8" s="160" t="str">
         <f t="shared" si="1"/>
@@ -15758,7 +15749,7 @@
       </c>
       <c r="L8" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E18M#0011</v>
+        <v>EUR_YC3MRH_AB3E18M#0000</v>
       </c>
       <c r="M8" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -15772,13 +15763,13 @@
         <v>103</v>
       </c>
       <c r="R8" s="188" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="100"/>
       <c r="B9" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C9" s="184" t="s">
         <v>44</v>
@@ -15794,7 +15785,7 @@
         <v>Annual</v>
       </c>
       <c r="G9" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H9" s="160" t="str">
         <f t="shared" si="1"/>
@@ -15813,7 +15804,7 @@
       </c>
       <c r="L9" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E21M#0011</v>
+        <v>EUR_YC3MRH_AB3E21M#0000</v>
       </c>
       <c r="M9" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -15824,16 +15815,16 @@
         <v>106</v>
       </c>
       <c r="Q9" s="189" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R9" s="188" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="100"/>
       <c r="B10" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C10" s="182" t="s">
         <v>43</v>
@@ -15849,7 +15840,7 @@
         <v>Annual</v>
       </c>
       <c r="G10" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H10" s="160" t="str">
         <f t="shared" si="1"/>
@@ -15868,7 +15859,7 @@
       </c>
       <c r="L10" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E2Y#0011</v>
+        <v>EUR_YC3MRH_AB3E2Y#0000</v>
       </c>
       <c r="M10" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -15882,13 +15873,13 @@
         <v>103</v>
       </c>
       <c r="R10" s="185" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="100"/>
       <c r="B11" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C11" s="182" t="s">
         <v>42</v>
@@ -15904,7 +15895,7 @@
         <v>Annual</v>
       </c>
       <c r="G11" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H11" s="160" t="str">
         <f t="shared" si="1"/>
@@ -15923,7 +15914,7 @@
       </c>
       <c r="L11" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E3Y#0011</v>
+        <v>EUR_YC3MRH_AB3E3Y#0000</v>
       </c>
       <c r="M11" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -15934,7 +15925,7 @@
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="100"/>
       <c r="B12" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C12" s="182" t="s">
         <v>41</v>
@@ -15950,7 +15941,7 @@
         <v>Annual</v>
       </c>
       <c r="G12" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H12" s="160" t="str">
         <f t="shared" si="1"/>
@@ -15969,7 +15960,7 @@
       </c>
       <c r="L12" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E4Y#0011</v>
+        <v>EUR_YC3MRH_AB3E4Y#0000</v>
       </c>
       <c r="M12" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -15980,7 +15971,7 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="100"/>
       <c r="B13" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C13" s="182" t="s">
         <v>40</v>
@@ -15996,7 +15987,7 @@
         <v>Annual</v>
       </c>
       <c r="G13" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H13" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16015,7 +16006,7 @@
       </c>
       <c r="L13" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E5Y#0011</v>
+        <v>EUR_YC3MRH_AB3E5Y#0000</v>
       </c>
       <c r="M13" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -16026,7 +16017,7 @@
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="100"/>
       <c r="B14" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" s="182" t="s">
         <v>39</v>
@@ -16042,7 +16033,7 @@
         <v>Annual</v>
       </c>
       <c r="G14" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H14" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16061,7 +16052,7 @@
       </c>
       <c r="L14" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E6Y#0011</v>
+        <v>EUR_YC3MRH_AB3E6Y#0000</v>
       </c>
       <c r="M14" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -16072,7 +16063,7 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="100"/>
       <c r="B15" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C15" s="182" t="s">
         <v>38</v>
@@ -16088,7 +16079,7 @@
         <v>Annual</v>
       </c>
       <c r="G15" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H15" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16107,7 +16098,7 @@
       </c>
       <c r="L15" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E7Y#0011</v>
+        <v>EUR_YC3MRH_AB3E7Y#0000</v>
       </c>
       <c r="M15" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -16118,7 +16109,7 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="100"/>
       <c r="B16" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C16" s="182" t="s">
         <v>37</v>
@@ -16134,7 +16125,7 @@
         <v>Annual</v>
       </c>
       <c r="G16" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H16" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16153,7 +16144,7 @@
       </c>
       <c r="L16" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E8Y#0011</v>
+        <v>EUR_YC3MRH_AB3E8Y#0000</v>
       </c>
       <c r="M16" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -16164,7 +16155,7 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="100"/>
       <c r="B17" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C17" s="182" t="s">
         <v>36</v>
@@ -16180,7 +16171,7 @@
         <v>Annual</v>
       </c>
       <c r="G17" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H17" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16199,7 +16190,7 @@
       </c>
       <c r="L17" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E9Y#0011</v>
+        <v>EUR_YC3MRH_AB3E9Y#0000</v>
       </c>
       <c r="M17" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -16210,7 +16201,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="100"/>
       <c r="B18" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C18" s="182" t="s">
         <v>35</v>
@@ -16226,7 +16217,7 @@
         <v>Annual</v>
       </c>
       <c r="G18" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H18" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16245,7 +16236,7 @@
       </c>
       <c r="L18" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E10Y#0011</v>
+        <v>EUR_YC3MRH_AB3E10Y#0000</v>
       </c>
       <c r="M18" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -16256,7 +16247,7 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="100"/>
       <c r="B19" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C19" s="182" t="s">
         <v>34</v>
@@ -16272,7 +16263,7 @@
         <v>Annual</v>
       </c>
       <c r="G19" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H19" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16291,7 +16282,7 @@
       </c>
       <c r="L19" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E11Y#0011</v>
+        <v>EUR_YC3MRH_AB3E11Y#0000</v>
       </c>
       <c r="M19" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -16302,7 +16293,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="100"/>
       <c r="B20" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C20" s="182" t="s">
         <v>33</v>
@@ -16318,7 +16309,7 @@
         <v>Annual</v>
       </c>
       <c r="G20" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H20" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16337,7 +16328,7 @@
       </c>
       <c r="L20" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E12Y#0011</v>
+        <v>EUR_YC3MRH_AB3E12Y#0000</v>
       </c>
       <c r="M20" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -16348,7 +16339,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="100"/>
       <c r="B21" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C21" s="182" t="s">
         <v>32</v>
@@ -16364,7 +16355,7 @@
         <v>Annual</v>
       </c>
       <c r="G21" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H21" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16383,7 +16374,7 @@
       </c>
       <c r="L21" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E13Y#0011</v>
+        <v>EUR_YC3MRH_AB3E13Y#0000</v>
       </c>
       <c r="M21" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -16394,7 +16385,7 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="100"/>
       <c r="B22" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C22" s="182" t="s">
         <v>31</v>
@@ -16410,7 +16401,7 @@
         <v>Annual</v>
       </c>
       <c r="G22" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H22" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16429,7 +16420,7 @@
       </c>
       <c r="L22" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E14Y#0011</v>
+        <v>EUR_YC3MRH_AB3E14Y#0000</v>
       </c>
       <c r="M22" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -16440,7 +16431,7 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="100"/>
       <c r="B23" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C23" s="182" t="s">
         <v>30</v>
@@ -16456,7 +16447,7 @@
         <v>Annual</v>
       </c>
       <c r="G23" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H23" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16475,7 +16466,7 @@
       </c>
       <c r="L23" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E15Y#0011</v>
+        <v>EUR_YC3MRH_AB3E15Y#0000</v>
       </c>
       <c r="M23" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -16486,7 +16477,7 @@
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="100"/>
       <c r="B24" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C24" s="182" t="s">
         <v>29</v>
@@ -16502,7 +16493,7 @@
         <v>Annual</v>
       </c>
       <c r="G24" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H24" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16521,7 +16512,7 @@
       </c>
       <c r="L24" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E16Y#0011</v>
+        <v>EUR_YC3MRH_AB3E16Y#0000</v>
       </c>
       <c r="M24" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -16532,7 +16523,7 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="100"/>
       <c r="B25" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C25" s="182" t="s">
         <v>28</v>
@@ -16548,7 +16539,7 @@
         <v>Annual</v>
       </c>
       <c r="G25" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H25" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16567,7 +16558,7 @@
       </c>
       <c r="L25" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E17Y#0011</v>
+        <v>EUR_YC3MRH_AB3E17Y#0000</v>
       </c>
       <c r="M25" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -16578,7 +16569,7 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="100"/>
       <c r="B26" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C26" s="182" t="s">
         <v>27</v>
@@ -16594,7 +16585,7 @@
         <v>Annual</v>
       </c>
       <c r="G26" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H26" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16613,7 +16604,7 @@
       </c>
       <c r="L26" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E18Y#0011</v>
+        <v>EUR_YC3MRH_AB3E18Y#0000</v>
       </c>
       <c r="M26" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -16624,7 +16615,7 @@
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="100"/>
       <c r="B27" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C27" s="182" t="s">
         <v>26</v>
@@ -16640,7 +16631,7 @@
         <v>Annual</v>
       </c>
       <c r="G27" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H27" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16659,7 +16650,7 @@
       </c>
       <c r="L27" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E19Y#0011</v>
+        <v>EUR_YC3MRH_AB3E19Y#0000</v>
       </c>
       <c r="M27" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -16670,7 +16661,7 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="100"/>
       <c r="B28" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C28" s="182" t="s">
         <v>25</v>
@@ -16686,7 +16677,7 @@
         <v>Annual</v>
       </c>
       <c r="G28" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H28" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16705,7 +16696,7 @@
       </c>
       <c r="L28" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E20Y#0011</v>
+        <v>EUR_YC3MRH_AB3E20Y#0000</v>
       </c>
       <c r="M28" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -16716,7 +16707,7 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="100"/>
       <c r="B29" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C29" s="182" t="s">
         <v>24</v>
@@ -16732,7 +16723,7 @@
         <v>Annual</v>
       </c>
       <c r="G29" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H29" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16751,7 +16742,7 @@
       </c>
       <c r="L29" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E21Y#0011</v>
+        <v>EUR_YC3MRH_AB3E21Y#0000</v>
       </c>
       <c r="M29" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -16762,7 +16753,7 @@
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="100"/>
       <c r="B30" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C30" s="182" t="s">
         <v>23</v>
@@ -16778,7 +16769,7 @@
         <v>Annual</v>
       </c>
       <c r="G30" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H30" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16797,7 +16788,7 @@
       </c>
       <c r="L30" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E22Y#0011</v>
+        <v>EUR_YC3MRH_AB3E22Y#0000</v>
       </c>
       <c r="M30" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -16808,7 +16799,7 @@
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="100"/>
       <c r="B31" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C31" s="182" t="s">
         <v>22</v>
@@ -16824,7 +16815,7 @@
         <v>Annual</v>
       </c>
       <c r="G31" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H31" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16843,7 +16834,7 @@
       </c>
       <c r="L31" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E23Y#0011</v>
+        <v>EUR_YC3MRH_AB3E23Y#0000</v>
       </c>
       <c r="M31" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -16854,7 +16845,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="100"/>
       <c r="B32" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C32" s="182" t="s">
         <v>21</v>
@@ -16870,7 +16861,7 @@
         <v>Annual</v>
       </c>
       <c r="G32" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H32" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16889,7 +16880,7 @@
       </c>
       <c r="L32" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E24Y#0011</v>
+        <v>EUR_YC3MRH_AB3E24Y#0000</v>
       </c>
       <c r="M32" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -16900,7 +16891,7 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="100"/>
       <c r="B33" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C33" s="182" t="s">
         <v>20</v>
@@ -16916,7 +16907,7 @@
         <v>Annual</v>
       </c>
       <c r="G33" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H33" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16935,7 +16926,7 @@
       </c>
       <c r="L33" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E25Y#0011</v>
+        <v>EUR_YC3MRH_AB3E25Y#0000</v>
       </c>
       <c r="M33" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -16946,7 +16937,7 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="100"/>
       <c r="B34" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C34" s="182" t="s">
         <v>19</v>
@@ -16962,7 +16953,7 @@
         <v>Annual</v>
       </c>
       <c r="G34" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H34" s="160" t="str">
         <f t="shared" si="1"/>
@@ -16981,7 +16972,7 @@
       </c>
       <c r="L34" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E26Y#0011</v>
+        <v>EUR_YC3MRH_AB3E26Y#0000</v>
       </c>
       <c r="M34" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -16992,7 +16983,7 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="100"/>
       <c r="B35" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C35" s="182" t="s">
         <v>18</v>
@@ -17008,7 +16999,7 @@
         <v>Annual</v>
       </c>
       <c r="G35" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H35" s="160" t="str">
         <f t="shared" si="1"/>
@@ -17027,7 +17018,7 @@
       </c>
       <c r="L35" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E27Y#0011</v>
+        <v>EUR_YC3MRH_AB3E27Y#0000</v>
       </c>
       <c r="M35" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -17038,7 +17029,7 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="100"/>
       <c r="B36" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C36" s="182" t="s">
         <v>17</v>
@@ -17054,7 +17045,7 @@
         <v>Annual</v>
       </c>
       <c r="G36" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H36" s="160" t="str">
         <f t="shared" si="1"/>
@@ -17073,7 +17064,7 @@
       </c>
       <c r="L36" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E28Y#0011</v>
+        <v>EUR_YC3MRH_AB3E28Y#0000</v>
       </c>
       <c r="M36" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -17084,7 +17075,7 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="100"/>
       <c r="B37" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C37" s="182" t="s">
         <v>16</v>
@@ -17100,7 +17091,7 @@
         <v>Annual</v>
       </c>
       <c r="G37" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H37" s="160" t="str">
         <f t="shared" si="1"/>
@@ -17119,7 +17110,7 @@
       </c>
       <c r="L37" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E29Y#0011</v>
+        <v>EUR_YC3MRH_AB3E29Y#0000</v>
       </c>
       <c r="M37" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -17130,7 +17121,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="100"/>
       <c r="B38" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C38" s="182" t="s">
         <v>15</v>
@@ -17146,7 +17137,7 @@
         <v>Annual</v>
       </c>
       <c r="G38" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H38" s="160" t="str">
         <f t="shared" si="1"/>
@@ -17165,7 +17156,7 @@
       </c>
       <c r="L38" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E30Y#0011</v>
+        <v>EUR_YC3MRH_AB3E30Y#0000</v>
       </c>
       <c r="M38" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -17176,7 +17167,7 @@
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="100"/>
       <c r="B39" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C39" s="182" t="s">
         <v>14</v>
@@ -17192,7 +17183,7 @@
         <v>Annual</v>
       </c>
       <c r="G39" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H39" s="160" t="str">
         <f t="shared" si="1"/>
@@ -17211,7 +17202,7 @@
       </c>
       <c r="L39" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E35Y#0011</v>
+        <v>EUR_YC3MRH_AB3E35Y#0000</v>
       </c>
       <c r="M39" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -17222,7 +17213,7 @@
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="100"/>
       <c r="B40" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C40" s="182" t="s">
         <v>13</v>
@@ -17238,7 +17229,7 @@
         <v>Annual</v>
       </c>
       <c r="G40" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H40" s="160" t="str">
         <f t="shared" si="1"/>
@@ -17257,7 +17248,7 @@
       </c>
       <c r="L40" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E40Y#0011</v>
+        <v>EUR_YC3MRH_AB3E40Y#0000</v>
       </c>
       <c r="M40" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -17268,7 +17259,7 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="100"/>
       <c r="B41" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C41" s="182" t="s">
         <v>12</v>
@@ -17284,7 +17275,7 @@
         <v>Annual</v>
       </c>
       <c r="G41" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H41" s="160" t="str">
         <f t="shared" si="1"/>
@@ -17303,7 +17294,7 @@
       </c>
       <c r="L41" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E50Y#0011</v>
+        <v>EUR_YC3MRH_AB3E50Y#0000</v>
       </c>
       <c r="M41" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -17314,7 +17305,7 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="100"/>
       <c r="B42" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C42" s="182" t="s">
         <v>11</v>
@@ -17330,7 +17321,7 @@
         <v>Annual</v>
       </c>
       <c r="G42" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H42" s="160" t="str">
         <f t="shared" si="1"/>
@@ -17349,7 +17340,7 @@
       </c>
       <c r="L42" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E60Y#0011</v>
+        <v>EUR_YC3MRH_AB3E60Y#0000</v>
       </c>
       <c r="M42" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -17376,7 +17367,7 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="100"/>
       <c r="B44" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C44" s="184"/>
       <c r="D44" s="181" t="s">
@@ -17386,13 +17377,13 @@
         <v>12</v>
       </c>
       <c r="F44" s="181" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G44" s="161" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H44" s="161" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I44" s="180">
         <v>0</v>
@@ -17407,7 +17398,7 @@
       </c>
       <c r="L44" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K44,$J44,$E44&amp;"M",Calendar,$F44,$G44,$H44,$L$4,$I44,B44,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S12#0011</v>
+        <v>EUR_YC3MRH_1S12#0000</v>
       </c>
       <c r="M44" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -17421,7 +17412,7 @@
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="100"/>
       <c r="B45" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C45" s="182"/>
       <c r="D45" s="181" t="s">
@@ -17431,13 +17422,13 @@
         <v>12</v>
       </c>
       <c r="F45" s="181" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G45" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H45" s="160" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I45" s="180">
         <v>0</v>
@@ -17452,7 +17443,7 @@
       </c>
       <c r="L45" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K45,$J45,$E45&amp;"M",Calendar,$F45,$G45,$H45,$L$4,$I45,B45,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2S12#0011</v>
+        <v>EUR_YC3MRH_2S12#0000</v>
       </c>
       <c r="M45" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -17466,7 +17457,7 @@
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="100"/>
       <c r="B46" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C46" s="182"/>
       <c r="D46" s="181" t="s">
@@ -17476,13 +17467,13 @@
         <v>12</v>
       </c>
       <c r="F46" s="181" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G46" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H46" s="160" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I46" s="180">
         <v>0</v>
@@ -17497,7 +17488,7 @@
       </c>
       <c r="L46" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K46,$J46,$E46&amp;"M",Calendar,$F46,$G46,$H46,$L$4,$I46,B46,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3S12#0011</v>
+        <v>EUR_YC3MRH_3S12#0000</v>
       </c>
       <c r="M46" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -17511,7 +17502,7 @@
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="100"/>
       <c r="B47" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C47" s="182"/>
       <c r="D47" s="181" t="s">
@@ -17521,13 +17512,13 @@
         <v>12</v>
       </c>
       <c r="F47" s="181" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G47" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H47" s="160" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I47" s="180">
         <v>0</v>
@@ -17542,7 +17533,7 @@
       </c>
       <c r="L47" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K47,$J47,$E47&amp;"M",Calendar,$F47,$G47,$H47,$L$4,$I47,B47,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_4S12#0011</v>
+        <v>EUR_YC3MRH_4S12#0000</v>
       </c>
       <c r="M47" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -17556,7 +17547,7 @@
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="100"/>
       <c r="B48" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C48" s="182"/>
       <c r="D48" s="181" t="s">
@@ -17566,13 +17557,13 @@
         <v>24</v>
       </c>
       <c r="F48" s="181" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G48" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H48" s="160" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I48" s="180">
         <v>0</v>
@@ -17587,7 +17578,7 @@
       </c>
       <c r="L48" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K48,$J48,$E48&amp;"M",Calendar,$F48,$G48,$H48,$L$4,$I48,B48,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S24#0011</v>
+        <v>EUR_YC3MRH_1S24#0000</v>
       </c>
       <c r="M48" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -17601,7 +17592,7 @@
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="100"/>
       <c r="B49" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C49" s="182"/>
       <c r="D49" s="181" t="s">
@@ -17611,13 +17602,13 @@
         <v>24</v>
       </c>
       <c r="F49" s="181" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G49" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H49" s="160" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I49" s="180">
         <v>0</v>
@@ -17632,7 +17623,7 @@
       </c>
       <c r="L49" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K49,$J49,$E49&amp;"M",Calendar,$F49,$G49,$H49,$L$4,$I49,B49,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2S24#0011</v>
+        <v>EUR_YC3MRH_2S24#0000</v>
       </c>
       <c r="M49" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -17646,7 +17637,7 @@
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="100"/>
       <c r="B50" s="181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C50" s="182"/>
       <c r="D50" s="181" t="s">
@@ -17656,13 +17647,13 @@
         <v>36</v>
       </c>
       <c r="F50" s="181" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G50" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H50" s="160" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I50" s="180">
         <v>0</v>
@@ -17677,7 +17668,7 @@
       </c>
       <c r="L50" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K50,$J50,$E50&amp;"M",Calendar,$F50,$G50,$H50,$L$4,$I50,B50,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S36#0011</v>
+        <v>EUR_YC3MRH_1S36#0000</v>
       </c>
       <c r="M50" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -17757,7 +17748,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="173" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B1" s="154"/>
       <c r="C1" s="154"/>
@@ -17784,7 +17775,7 @@
       <c r="H2" s="111"/>
       <c r="I2" s="110"/>
       <c r="J2" s="110" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K2" s="110" t="str">
         <f>Currency&amp;"_YC"&amp;$J$2&amp;"RH"</f>
@@ -17800,25 +17791,25 @@
     <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="100"/>
       <c r="B3" s="107" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C3" s="107"/>
       <c r="D3" s="107"/>
       <c r="E3" s="107"/>
       <c r="F3" s="107" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G3" s="107" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H3" s="107" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I3" s="107" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J3" s="107" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K3" s="197" t="str">
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
@@ -17851,7 +17842,7 @@
       </c>
       <c r="L4" s="195" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC3MRH_AB3EBASIS_ibor3M#0011</v>
+        <v>EUR_YC3MRH_AB3EBASIS_ibor3M#0000</v>
       </c>
       <c r="M4" s="194" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -17878,7 +17869,7 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="100"/>
       <c r="B6" s="207" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C6" s="181" t="s">
         <v>47</v>
@@ -17896,7 +17887,7 @@
         <v>Annual</v>
       </c>
       <c r="G6" s="161" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H6" s="161" t="str">
         <f t="shared" ref="H6:H42" si="1">IF(UPPER(RIGHT($D6))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D6))="M",MoneyMarketDayCounter,"--"))</f>
@@ -17915,7 +17906,7 @@
       </c>
       <c r="L6" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS1Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS1Y#0000</v>
       </c>
       <c r="M6" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -17945,7 +17936,7 @@
         <v>Annual</v>
       </c>
       <c r="G7" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H7" s="160" t="str">
         <f t="shared" si="1"/>
@@ -17964,7 +17955,7 @@
       </c>
       <c r="L7" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS15M#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS15M#0000</v>
       </c>
       <c r="M7" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -17994,7 +17985,7 @@
         <v>Annual</v>
       </c>
       <c r="G8" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H8" s="160" t="str">
         <f t="shared" si="1"/>
@@ -18013,7 +18004,7 @@
       </c>
       <c r="L8" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS18M#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS18M#0000</v>
       </c>
       <c r="M8" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -18043,7 +18034,7 @@
         <v>Annual</v>
       </c>
       <c r="G9" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H9" s="160" t="str">
         <f t="shared" si="1"/>
@@ -18062,7 +18053,7 @@
       </c>
       <c r="L9" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS21M#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS21M#0000</v>
       </c>
       <c r="M9" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -18092,7 +18083,7 @@
         <v>Annual</v>
       </c>
       <c r="G10" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H10" s="160" t="str">
         <f t="shared" si="1"/>
@@ -18111,7 +18102,7 @@
       </c>
       <c r="L10" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS2Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS2Y#0000</v>
       </c>
       <c r="M10" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -18125,7 +18116,7 @@
         <v>110</v>
       </c>
       <c r="R10" s="205" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -18150,7 +18141,7 @@
         <v>Annual</v>
       </c>
       <c r="G11" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H11" s="160" t="str">
         <f t="shared" si="1"/>
@@ -18169,7 +18160,7 @@
       </c>
       <c r="L11" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS3Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS3Y#0000</v>
       </c>
       <c r="M11" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -18183,7 +18174,7 @@
         <v>110</v>
       </c>
       <c r="R11" s="203" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -18208,7 +18199,7 @@
         <v>Annual</v>
       </c>
       <c r="G12" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H12" s="160" t="str">
         <f t="shared" si="1"/>
@@ -18227,7 +18218,7 @@
       </c>
       <c r="L12" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS4Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS4Y#0000</v>
       </c>
       <c r="M12" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -18241,7 +18232,7 @@
         <v>103</v>
       </c>
       <c r="R12" s="203" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -18266,7 +18257,7 @@
         <v>Annual</v>
       </c>
       <c r="G13" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H13" s="160" t="str">
         <f t="shared" si="1"/>
@@ -18285,7 +18276,7 @@
       </c>
       <c r="L13" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS5Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS5Y#0000</v>
       </c>
       <c r="M13" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -18296,10 +18287,10 @@
         <v>106</v>
       </c>
       <c r="Q13" s="175" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R13" s="203" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -18324,7 +18315,7 @@
         <v>Annual</v>
       </c>
       <c r="G14" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H14" s="160" t="str">
         <f t="shared" si="1"/>
@@ -18343,7 +18334,7 @@
       </c>
       <c r="L14" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS6Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS6Y#0000</v>
       </c>
       <c r="M14" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -18357,7 +18348,7 @@
         <v>103</v>
       </c>
       <c r="R14" s="200" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -18382,7 +18373,7 @@
         <v>Annual</v>
       </c>
       <c r="G15" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H15" s="160" t="str">
         <f t="shared" si="1"/>
@@ -18401,7 +18392,7 @@
       </c>
       <c r="L15" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS7Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS7Y#0000</v>
       </c>
       <c r="M15" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -18434,7 +18425,7 @@
         <v>Annual</v>
       </c>
       <c r="G16" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H16" s="160" t="str">
         <f t="shared" si="1"/>
@@ -18453,7 +18444,7 @@
       </c>
       <c r="L16" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS8Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS8Y#0000</v>
       </c>
       <c r="M16" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -18483,7 +18474,7 @@
         <v>Annual</v>
       </c>
       <c r="G17" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H17" s="160" t="str">
         <f t="shared" si="1"/>
@@ -18502,7 +18493,7 @@
       </c>
       <c r="L17" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS9Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS9Y#0000</v>
       </c>
       <c r="M17" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -18532,7 +18523,7 @@
         <v>Annual</v>
       </c>
       <c r="G18" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H18" s="160" t="str">
         <f t="shared" si="1"/>
@@ -18551,7 +18542,7 @@
       </c>
       <c r="L18" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS10Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS10Y#0000</v>
       </c>
       <c r="M18" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -18581,7 +18572,7 @@
         <v>Annual</v>
       </c>
       <c r="G19" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H19" s="160" t="str">
         <f t="shared" si="1"/>
@@ -18600,7 +18591,7 @@
       </c>
       <c r="L19" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS11Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS11Y#0000</v>
       </c>
       <c r="M19" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -18630,7 +18621,7 @@
         <v>Annual</v>
       </c>
       <c r="G20" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H20" s="160" t="str">
         <f t="shared" si="1"/>
@@ -18649,7 +18640,7 @@
       </c>
       <c r="L20" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS12Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS12Y#0000</v>
       </c>
       <c r="M20" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -18679,7 +18670,7 @@
         <v>Annual</v>
       </c>
       <c r="G21" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H21" s="160" t="str">
         <f t="shared" si="1"/>
@@ -18698,7 +18689,7 @@
       </c>
       <c r="L21" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS13Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS13Y#0000</v>
       </c>
       <c r="M21" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -18728,7 +18719,7 @@
         <v>Annual</v>
       </c>
       <c r="G22" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H22" s="160" t="str">
         <f t="shared" si="1"/>
@@ -18747,7 +18738,7 @@
       </c>
       <c r="L22" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS14Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS14Y#0000</v>
       </c>
       <c r="M22" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -18777,7 +18768,7 @@
         <v>Annual</v>
       </c>
       <c r="G23" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H23" s="160" t="str">
         <f t="shared" si="1"/>
@@ -18796,7 +18787,7 @@
       </c>
       <c r="L23" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS15Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS15Y#0000</v>
       </c>
       <c r="M23" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -18826,7 +18817,7 @@
         <v>Annual</v>
       </c>
       <c r="G24" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H24" s="160" t="str">
         <f t="shared" si="1"/>
@@ -18845,7 +18836,7 @@
       </c>
       <c r="L24" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS16Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS16Y#0000</v>
       </c>
       <c r="M24" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -18875,7 +18866,7 @@
         <v>Annual</v>
       </c>
       <c r="G25" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H25" s="160" t="str">
         <f t="shared" si="1"/>
@@ -18894,7 +18885,7 @@
       </c>
       <c r="L25" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS17Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS17Y#0000</v>
       </c>
       <c r="M25" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -18924,7 +18915,7 @@
         <v>Annual</v>
       </c>
       <c r="G26" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H26" s="160" t="str">
         <f t="shared" si="1"/>
@@ -18943,7 +18934,7 @@
       </c>
       <c r="L26" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS18Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS18Y#0000</v>
       </c>
       <c r="M26" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -18973,7 +18964,7 @@
         <v>Annual</v>
       </c>
       <c r="G27" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H27" s="160" t="str">
         <f t="shared" si="1"/>
@@ -18992,7 +18983,7 @@
       </c>
       <c r="L27" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS19Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS19Y#0000</v>
       </c>
       <c r="M27" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -19022,7 +19013,7 @@
         <v>Annual</v>
       </c>
       <c r="G28" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H28" s="160" t="str">
         <f t="shared" si="1"/>
@@ -19041,7 +19032,7 @@
       </c>
       <c r="L28" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS20Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS20Y#0000</v>
       </c>
       <c r="M28" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -19071,7 +19062,7 @@
         <v>Annual</v>
       </c>
       <c r="G29" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H29" s="160" t="str">
         <f t="shared" si="1"/>
@@ -19090,7 +19081,7 @@
       </c>
       <c r="L29" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS21Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS21Y#0000</v>
       </c>
       <c r="M29" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -19120,7 +19111,7 @@
         <v>Annual</v>
       </c>
       <c r="G30" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H30" s="160" t="str">
         <f t="shared" si="1"/>
@@ -19139,7 +19130,7 @@
       </c>
       <c r="L30" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS22Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS22Y#0000</v>
       </c>
       <c r="M30" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -19169,7 +19160,7 @@
         <v>Annual</v>
       </c>
       <c r="G31" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H31" s="160" t="str">
         <f t="shared" si="1"/>
@@ -19188,7 +19179,7 @@
       </c>
       <c r="L31" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS23Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS23Y#0000</v>
       </c>
       <c r="M31" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -19218,7 +19209,7 @@
         <v>Annual</v>
       </c>
       <c r="G32" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H32" s="160" t="str">
         <f t="shared" si="1"/>
@@ -19237,7 +19228,7 @@
       </c>
       <c r="L32" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS24Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS24Y#0000</v>
       </c>
       <c r="M32" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -19267,7 +19258,7 @@
         <v>Annual</v>
       </c>
       <c r="G33" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H33" s="160" t="str">
         <f t="shared" si="1"/>
@@ -19286,7 +19277,7 @@
       </c>
       <c r="L33" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS25Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS25Y#0000</v>
       </c>
       <c r="M33" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -19316,7 +19307,7 @@
         <v>Annual</v>
       </c>
       <c r="G34" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H34" s="160" t="str">
         <f t="shared" si="1"/>
@@ -19335,7 +19326,7 @@
       </c>
       <c r="L34" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS26Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS26Y#0000</v>
       </c>
       <c r="M34" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -19365,7 +19356,7 @@
         <v>Annual</v>
       </c>
       <c r="G35" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H35" s="160" t="str">
         <f t="shared" si="1"/>
@@ -19384,7 +19375,7 @@
       </c>
       <c r="L35" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS27Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS27Y#0000</v>
       </c>
       <c r="M35" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -19414,7 +19405,7 @@
         <v>Annual</v>
       </c>
       <c r="G36" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H36" s="160" t="str">
         <f t="shared" si="1"/>
@@ -19433,7 +19424,7 @@
       </c>
       <c r="L36" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS28Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS28Y#0000</v>
       </c>
       <c r="M36" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -19463,7 +19454,7 @@
         <v>Annual</v>
       </c>
       <c r="G37" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H37" s="160" t="str">
         <f t="shared" si="1"/>
@@ -19482,7 +19473,7 @@
       </c>
       <c r="L37" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS29Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS29Y#0000</v>
       </c>
       <c r="M37" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -19512,7 +19503,7 @@
         <v>Annual</v>
       </c>
       <c r="G38" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H38" s="160" t="str">
         <f t="shared" si="1"/>
@@ -19531,7 +19522,7 @@
       </c>
       <c r="L38" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS30Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS30Y#0000</v>
       </c>
       <c r="M38" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -19561,7 +19552,7 @@
         <v>Annual</v>
       </c>
       <c r="G39" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H39" s="160" t="str">
         <f t="shared" si="1"/>
@@ -19580,7 +19571,7 @@
       </c>
       <c r="L39" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS35Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS35Y#0000</v>
       </c>
       <c r="M39" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -19610,7 +19601,7 @@
         <v>Annual</v>
       </c>
       <c r="G40" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H40" s="160" t="str">
         <f t="shared" si="1"/>
@@ -19629,7 +19620,7 @@
       </c>
       <c r="L40" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS40Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS40Y#0000</v>
       </c>
       <c r="M40" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -19659,7 +19650,7 @@
         <v>Annual</v>
       </c>
       <c r="G41" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H41" s="160" t="str">
         <f t="shared" si="1"/>
@@ -19678,7 +19669,7 @@
       </c>
       <c r="L41" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS50Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS50Y#0000</v>
       </c>
       <c r="M41" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -19708,7 +19699,7 @@
         <v>Annual</v>
       </c>
       <c r="G42" s="160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H42" s="160" t="str">
         <f t="shared" si="1"/>
@@ -19727,7 +19718,7 @@
       </c>
       <c r="L42" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS60Y#0010</v>
+        <v>EUR_YC3MRH_AB3EBASIS60Y#0000</v>
       </c>
       <c r="M42" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/EUR_YC3MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YC3MBootstrapping.xlsx
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="189">
   <si>
     <t>Error</t>
   </si>
@@ -1935,6 +1935,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1966,7 +1967,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2305,19 +2305,19 @@
       </c>
     </row>
     <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="218" t="s">
+      <c r="B2" s="219" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="220"/>
-      <c r="K2" s="221" t="s">
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="221"/>
+      <c r="K2" s="222" t="s">
         <v>160</v>
       </c>
-      <c r="L2" s="222"/>
-      <c r="M2" s="222"/>
-      <c r="N2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="224"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="59"/>
@@ -2456,12 +2456,12 @@
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="55"/>
-      <c r="K9" s="221" t="s">
+      <c r="K9" s="222" t="s">
         <v>156</v>
       </c>
-      <c r="L9" s="222"/>
-      <c r="M9" s="222"/>
-      <c r="N9" s="223"/>
+      <c r="L9" s="223"/>
+      <c r="M9" s="223"/>
+      <c r="N9" s="224"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="59"/>
@@ -2484,7 +2484,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="84">
-        <v>41662.585173611114</v>
+        <v>41663.489872685182</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="55"/>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="D14" s="81" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYC3M#0000</v>
+        <v>_EURYC3M#0002</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="55"/>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="D28" s="60">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.20243670511240297</v>
+        <v>0.2024386808921399</v>
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="55"/>
@@ -2828,11 +2828,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="225" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="227"/>
       <c r="E1" s="51" t="s">
         <v>83</v>
       </c>
@@ -2944,11 +2944,11 @@
       </c>
       <c r="E4" s="34" t="str">
         <f>Deposits_3M!F3</f>
-        <v>EUR_YC3MRH_SND#0000</v>
+        <v>EUR_YC3MRH_SND#0002</v>
       </c>
       <c r="F4" s="33">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>1.8940000000000001E-3</v>
+        <v>3.444E-3</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="32" t="b">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E5" s="34" t="str">
         <f>Deposits_3M!F4</f>
-        <v>EUR_YC3MRH_SWD#0000</v>
+        <v>EUR_YC3MRH_SWD#0002</v>
       </c>
       <c r="F5" s="33">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>1.9819999999999998E-3</v>
+        <v>2.9459999999999998E-3</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="32" t="b">
@@ -3022,11 +3022,11 @@
       </c>
       <c r="E6" s="34" t="str">
         <f>Deposits_3M!F5</f>
-        <v>EUR_YC3MRH_2WD#0000</v>
+        <v>EUR_YC3MRH_2WD#0002</v>
       </c>
       <c r="F6" s="33">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>1.977E-3</v>
+        <v>3.0699999999999998E-3</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="32" t="b">
@@ -3061,11 +3061,11 @@
       </c>
       <c r="E7" s="34" t="str">
         <f>Deposits_3M!F6</f>
-        <v>EUR_YC3MRH_3WD#0000</v>
+        <v>EUR_YC3MRH_3WD#0002</v>
       </c>
       <c r="F7" s="33">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>1.9919999999999998E-3</v>
+        <v>3.0240000000000002E-3</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="32" t="b">
@@ -3100,11 +3100,11 @@
       </c>
       <c r="E8" s="34" t="str">
         <f>Deposits_3M!F7</f>
-        <v>EUR_YC3MRH_1MD#0000</v>
+        <v>EUR_YC3MRH_1MD#0002</v>
       </c>
       <c r="F8" s="33">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>2.013E-3</v>
+        <v>2.967E-3</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="32" t="b">
@@ -3139,11 +3139,11 @@
       </c>
       <c r="E9" s="34" t="str">
         <f>Deposits_3M!F8</f>
-        <v>EUR_YC3MRH_2MD#0000</v>
+        <v>EUR_YC3MRH_2MD#0002</v>
       </c>
       <c r="F9" s="33">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>2.1280000000000001E-3</v>
+        <v>2.993E-3</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="32" t="b">
@@ -3172,11 +3172,11 @@
       </c>
       <c r="E10" s="34" t="str">
         <f>Deposits_3M!F9</f>
-        <v>EUR_YC3MRH_3MD#0000</v>
+        <v>EUR_YC3MRH_3MD#0002</v>
       </c>
       <c r="F10" s="33">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>2.2360000000000001E-3</v>
+        <v>3.0200000000000001E-3</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="32" t="b">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="E16" s="42" t="str">
         <f>FRAs_3M!H3</f>
-        <v>EUR_YC3MRH_T3F1#0000</v>
+        <v>EUR_YC3MRH_T3F1#0002</v>
       </c>
       <c r="F16" s="41">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="E17" s="27" t="str">
         <f>FRAs_3M!H4</f>
-        <v>EUR_YC3MRH_TOM3F1#0000</v>
+        <v>EUR_YC3MRH_TOM3F1#0002</v>
       </c>
       <c r="F17" s="26">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="E36" s="34" t="str">
         <f>Futures_3M!I3</f>
-        <v>EUR_YC3MRH_FUT3MG4#0000</v>
+        <v>EUR_YC3MRH_FUT3MG4#0002</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="E37" s="34" t="str">
         <f>Futures_3M!I4</f>
-        <v>EUR_YC3MRH_FUT3MH4#0000</v>
+        <v>EUR_YC3MRH_FUT3MH4#0002</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="E38" s="34" t="str">
         <f>Futures_3M!I5</f>
-        <v>EUR_YC3MRH_FUT3MJ4#0000</v>
+        <v>EUR_YC3MRH_FUT3MJ4#0002</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="E39" s="34" t="str">
         <f>Futures_3M!I6</f>
-        <v>EUR_YC3MRH_FUT3MK4#0000</v>
+        <v>EUR_YC3MRH_FUT3MK4#0002</v>
       </c>
       <c r="F39" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="E40" s="34" t="str">
         <f>Futures_3M!I7</f>
-        <v>EUR_YC3MRH_FUT3MM4#0000</v>
+        <v>EUR_YC3MRH_FUT3MM4#0002</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="E41" s="34" t="str">
         <f>Futures_3M!I8</f>
-        <v>EUR_YC3MRH_FUT3MN4#0000</v>
+        <v>EUR_YC3MRH_FUT3MN4#0002</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="E42" s="34" t="str">
         <f>Futures_3M!I9</f>
-        <v>EUR_YC3MRH_FUT3MQ4#0000</v>
+        <v>EUR_YC3MRH_FUT3MQ4#0002</v>
       </c>
       <c r="F42" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4434,7 +4434,7 @@
       </c>
       <c r="E43" s="34" t="str">
         <f>Futures_3M!I10</f>
-        <v>EUR_YC3MRH_FUT3MU4#0000</v>
+        <v>EUR_YC3MRH_FUT3MU4#0002</v>
       </c>
       <c r="F43" s="48">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="E44" s="34" t="str">
         <f>Futures_3M!I11</f>
-        <v>EUR_YC3MRH_FUT3MV4#0000</v>
+        <v>EUR_YC3MRH_FUT3MV4#0002</v>
       </c>
       <c r="F44" s="48">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="E45" s="34" t="str">
         <f>Futures_3M!I12</f>
-        <v>EUR_YC3MRH_FUT3MX4#0000</v>
+        <v>EUR_YC3MRH_FUT3MX4#0002</v>
       </c>
       <c r="F45" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="E46" s="34" t="str">
         <f>Futures_3M!I13</f>
-        <v>EUR_YC3MRH_FUT3MZ4#0000</v>
+        <v>EUR_YC3MRH_FUT3MZ4#0002</v>
       </c>
       <c r="F46" s="48">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4602,7 +4602,7 @@
       </c>
       <c r="E47" s="34" t="str">
         <f>Futures_3M!I14</f>
-        <v>EUR_YC3MRH_FUT3MF5#0000</v>
+        <v>EUR_YC3MRH_FUT3MF5#0002</v>
       </c>
       <c r="F47" s="48">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="E48" s="34" t="str">
         <f>Futures_3M!I15</f>
-        <v>EUR_YC3MRH_FUT3MH5#0000</v>
+        <v>EUR_YC3MRH_FUT3MH5#0002</v>
       </c>
       <c r="F48" s="48">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="E49" s="34" t="str">
         <f>Futures_3M!I16</f>
-        <v>EUR_YC3MRH_FUT3MM5#0000</v>
+        <v>EUR_YC3MRH_FUT3MM5#0002</v>
       </c>
       <c r="F49" s="48">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="E50" s="34" t="str">
         <f>Futures_3M!I17</f>
-        <v>EUR_YC3MRH_FUT3MU5#0000</v>
+        <v>EUR_YC3MRH_FUT3MU5#0002</v>
       </c>
       <c r="F50" s="48">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
@@ -4770,7 +4770,7 @@
       </c>
       <c r="E51" s="34" t="str">
         <f>Futures_3M!I18</f>
-        <v>EUR_YC3MRH_FUT3MZ5#0000</v>
+        <v>EUR_YC3MRH_FUT3MZ5#0002</v>
       </c>
       <c r="F51" s="48">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="E52" s="34" t="str">
         <f>Futures_3M!I19</f>
-        <v>EUR_YC3MRH_FUT3MH6#0000</v>
+        <v>EUR_YC3MRH_FUT3MH6#0002</v>
       </c>
       <c r="F52" s="48">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="E53" s="34" t="str">
         <f>Futures_3M!I20</f>
-        <v>EUR_YC3MRH_FUT3MM6#0000</v>
+        <v>EUR_YC3MRH_FUT3MM6#0002</v>
       </c>
       <c r="F53" s="48">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="E54" s="34" t="str">
         <f>Futures_3M!I21</f>
-        <v>EUR_YC3MRH_FUT3MU6#0000</v>
+        <v>EUR_YC3MRH_FUT3MU6#0002</v>
       </c>
       <c r="F54" s="48">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="E55" s="34" t="str">
         <f>Futures_3M!I22</f>
-        <v>EUR_YC3MRH_FUT3MZ6#0000</v>
+        <v>EUR_YC3MRH_FUT3MZ6#0002</v>
       </c>
       <c r="F55" s="48">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="E56" s="34" t="str">
         <f>Futures_3M!I23</f>
-        <v>EUR_YC3MRH_FUT3MH7#0000</v>
+        <v>EUR_YC3MRH_FUT3MH7#0002</v>
       </c>
       <c r="F56" s="48">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="E57" s="34" t="str">
         <f>Futures_3M!I24</f>
-        <v>EUR_YC3MRH_FUT3MM7#0000</v>
+        <v>EUR_YC3MRH_FUT3MM7#0002</v>
       </c>
       <c r="F57" s="48">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
@@ -5064,7 +5064,7 @@
       </c>
       <c r="E58" s="34" t="str">
         <f>Futures_3M!I25</f>
-        <v>EUR_YC3MRH_FUT3MU7#0000</v>
+        <v>EUR_YC3MRH_FUT3MU7#0002</v>
       </c>
       <c r="F58" s="48">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="E59" s="34" t="str">
         <f>Futures_3M!I26</f>
-        <v>EUR_YC3MRH_FUT3MZ7#0000</v>
+        <v>EUR_YC3MRH_FUT3MZ7#0002</v>
       </c>
       <c r="F59" s="48">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="E60" s="34" t="str">
         <f>Futures_3M!I27</f>
-        <v>EUR_YC3MRH_FUT3MH8#0000</v>
+        <v>EUR_YC3MRH_FUT3MH8#0002</v>
       </c>
       <c r="F60" s="48">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="E61" s="34" t="str">
         <f>Futures_3M!I28</f>
-        <v>EUR_YC3MRH_FUT3MM8#0000</v>
+        <v>EUR_YC3MRH_FUT3MM8#0002</v>
       </c>
       <c r="F61" s="48">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="E62" s="34" t="str">
         <f>Futures_3M!I29</f>
-        <v>EUR_YC3MRH_FUT3MU8#0000</v>
+        <v>EUR_YC3MRH_FUT3MU8#0002</v>
       </c>
       <c r="F62" s="48">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="E63" s="34" t="str">
         <f>Futures_3M!I30</f>
-        <v>EUR_YC3MRH_FUT3MZ8#0000</v>
+        <v>EUR_YC3MRH_FUT3MZ8#0002</v>
       </c>
       <c r="F63" s="48">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="E64" s="34" t="str">
         <f>Futures_3M!I31</f>
-        <v>EUR_YC3MRH_FUT3MH9#0000</v>
+        <v>EUR_YC3MRH_FUT3MH9#0002</v>
       </c>
       <c r="F64" s="48">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="E65" s="34" t="str">
         <f>Futures_3M!I32</f>
-        <v>EUR_YC3MRH_FUT3MM9#0000</v>
+        <v>EUR_YC3MRH_FUT3MM9#0002</v>
       </c>
       <c r="F65" s="48">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="E66" s="34" t="str">
         <f>Futures_3M!I33</f>
-        <v>EUR_YC3MRH_FUT3MU9#0000</v>
+        <v>EUR_YC3MRH_FUT3MU9#0002</v>
       </c>
       <c r="F66" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="E67" s="34" t="str">
         <f>Futures_3M!I34</f>
-        <v>EUR_YC3MRH_FUT3MZ9#0000</v>
+        <v>EUR_YC3MRH_FUT3MZ9#0002</v>
       </c>
       <c r="F67" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
@@ -5484,7 +5484,7 @@
       </c>
       <c r="E68" s="34" t="str">
         <f>Futures_3M!I35</f>
-        <v>EUR_YC3MRH_FUT3MH0#0000</v>
+        <v>EUR_YC3MRH_FUT3MH0#0002</v>
       </c>
       <c r="F68" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="E69" s="34" t="str">
         <f>Futures_3M!I36</f>
-        <v>EUR_YC3MRH_FUT3MM0#0000</v>
+        <v>EUR_YC3MRH_FUT3MM0#0002</v>
       </c>
       <c r="F69" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="E70" s="34" t="str">
         <f>Futures_3M!I37</f>
-        <v>EUR_YC3MRH_FUT3MU0#0000</v>
+        <v>EUR_YC3MRH_FUT3MU0#0002</v>
       </c>
       <c r="F70" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="E71" s="34" t="str">
         <f>Futures_3M!I38</f>
-        <v>EUR_YC3MRH_FUT3MZ0#0000</v>
+        <v>EUR_YC3MRH_FUT3MZ0#0002</v>
       </c>
       <c r="F71" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="E72" s="34" t="str">
         <f>Futures_3M!I39</f>
-        <v>EUR_YC3MRH_FUT3MH1#0000</v>
+        <v>EUR_YC3MRH_FUT3MH1#0002</v>
       </c>
       <c r="F72" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
@@ -5694,7 +5694,7 @@
       </c>
       <c r="E73" s="34" t="str">
         <f>Futures_3M!I40</f>
-        <v>EUR_YC3MRH_FUT3MM1#0000</v>
+        <v>EUR_YC3MRH_FUT3MM1#0002</v>
       </c>
       <c r="F73" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="E74" s="34" t="str">
         <f>Futures_3M!I41</f>
-        <v>EUR_YC3MRH_FUT3MU1#0000</v>
+        <v>EUR_YC3MRH_FUT3MU1#0002</v>
       </c>
       <c r="F74" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="E75" s="34" t="str">
         <f>Futures_3M!I42</f>
-        <v>EUR_YC3MRH_FUT3MZ1#0000</v>
+        <v>EUR_YC3MRH_FUT3MZ1#0002</v>
       </c>
       <c r="F75" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="E76" s="34" t="str">
         <f>Futures_3M!I43</f>
-        <v>EUR_YC3MRH_FUT3MH2#0000</v>
+        <v>EUR_YC3MRH_FUT3MH2#0002</v>
       </c>
       <c r="F76" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="E77" s="27" t="str">
         <f>Futures_3M!I44</f>
-        <v>EUR_YC3MRH_FUT3MM2#0000</v>
+        <v>EUR_YC3MRH_FUT3MM2#0002</v>
       </c>
       <c r="F77" s="47" t="e">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="E96" s="34" t="str">
         <f>Swaps_3M!L6</f>
-        <v>EUR_YC3MRH_AB3E1Y#0000</v>
+        <v>EUR_YC3MRH_AB3E1Y#0002</v>
       </c>
       <c r="F96" s="33">
         <f>_xll.qlRateHelperQuoteValue($E96,Trigger)</f>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="E97" s="34" t="str">
         <f>Swaps_3M!L7</f>
-        <v>EUR_YC3MRH_AB3E15M#0000</v>
+        <v>EUR_YC3MRH_AB3E15M#0002</v>
       </c>
       <c r="F97" s="33">
         <f>_xll.qlRateHelperQuoteValue($E97,Trigger)</f>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="E98" s="34" t="str">
         <f>Swaps_3M!L8</f>
-        <v>EUR_YC3MRH_AB3E18M#0000</v>
+        <v>EUR_YC3MRH_AB3E18M#0002</v>
       </c>
       <c r="F98" s="33">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="E99" s="34" t="str">
         <f>Swaps_3M!L9</f>
-        <v>EUR_YC3MRH_AB3E21M#0000</v>
+        <v>EUR_YC3MRH_AB3E21M#0002</v>
       </c>
       <c r="F99" s="33">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="E100" s="34" t="str">
         <f>Swaps_3M!L10</f>
-        <v>EUR_YC3MRH_AB3E2Y#0000</v>
+        <v>EUR_YC3MRH_AB3E2Y#0002</v>
       </c>
       <c r="F100" s="33">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="E101" s="34" t="str">
         <f>Swaps_3M!L11</f>
-        <v>EUR_YC3MRH_AB3E3Y#0000</v>
+        <v>EUR_YC3MRH_AB3E3Y#0002</v>
       </c>
       <c r="F101" s="33">
         <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
@@ -6867,7 +6867,7 @@
       </c>
       <c r="E102" s="34" t="str">
         <f>Swaps_3M!L12</f>
-        <v>EUR_YC3MRH_AB3E4Y#0000</v>
+        <v>EUR_YC3MRH_AB3E4Y#0002</v>
       </c>
       <c r="F102" s="33">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="E103" s="34" t="str">
         <f>Swaps_3M!L13</f>
-        <v>EUR_YC3MRH_AB3E5Y#0000</v>
+        <v>EUR_YC3MRH_AB3E5Y#0002</v>
       </c>
       <c r="F103" s="33">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
@@ -6959,7 +6959,7 @@
       </c>
       <c r="E104" s="34" t="str">
         <f>Swaps_3M!L14</f>
-        <v>EUR_YC3MRH_AB3E6Y#0000</v>
+        <v>EUR_YC3MRH_AB3E6Y#0002</v>
       </c>
       <c r="F104" s="33">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="E105" s="34" t="str">
         <f>Swaps_3M!L15</f>
-        <v>EUR_YC3MRH_AB3E7Y#0000</v>
+        <v>EUR_YC3MRH_AB3E7Y#0002</v>
       </c>
       <c r="F105" s="33">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="E106" s="34" t="str">
         <f>Swaps_3M!L16</f>
-        <v>EUR_YC3MRH_AB3E8Y#0000</v>
+        <v>EUR_YC3MRH_AB3E8Y#0002</v>
       </c>
       <c r="F106" s="33">
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
@@ -7097,7 +7097,7 @@
       </c>
       <c r="E107" s="34" t="str">
         <f>Swaps_3M!L17</f>
-        <v>EUR_YC3MRH_AB3E9Y#0000</v>
+        <v>EUR_YC3MRH_AB3E9Y#0002</v>
       </c>
       <c r="F107" s="33">
         <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="E108" s="34" t="str">
         <f>Swaps_3M!L18</f>
-        <v>EUR_YC3MRH_AB3E10Y#0000</v>
+        <v>EUR_YC3MRH_AB3E10Y#0002</v>
       </c>
       <c r="F108" s="33">
         <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="E109" s="34" t="str">
         <f>Swaps_3M!L19</f>
-        <v>EUR_YC3MRH_AB3E11Y#0000</v>
+        <v>EUR_YC3MRH_AB3E11Y#0002</v>
       </c>
       <c r="F109" s="33">
         <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="E110" s="34" t="str">
         <f>Swaps_3M!L20</f>
-        <v>EUR_YC3MRH_AB3E12Y#0000</v>
+        <v>EUR_YC3MRH_AB3E12Y#0002</v>
       </c>
       <c r="F110" s="33">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
@@ -7281,7 +7281,7 @@
       </c>
       <c r="E111" s="34" t="str">
         <f>Swaps_3M!L21</f>
-        <v>EUR_YC3MRH_AB3E13Y#0000</v>
+        <v>EUR_YC3MRH_AB3E13Y#0002</v>
       </c>
       <c r="F111" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E111,Trigger)</f>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="E112" s="34" t="str">
         <f>Swaps_3M!L22</f>
-        <v>EUR_YC3MRH_AB3E14Y#0000</v>
+        <v>EUR_YC3MRH_AB3E14Y#0002</v>
       </c>
       <c r="F112" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
@@ -7373,7 +7373,7 @@
       </c>
       <c r="E113" s="34" t="str">
         <f>Swaps_3M!L23</f>
-        <v>EUR_YC3MRH_AB3E15Y#0000</v>
+        <v>EUR_YC3MRH_AB3E15Y#0002</v>
       </c>
       <c r="F113" s="33">
         <f>_xll.qlRateHelperQuoteValue($E113,Trigger)</f>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="E114" s="34" t="str">
         <f>Swaps_3M!L24</f>
-        <v>EUR_YC3MRH_AB3E16Y#0000</v>
+        <v>EUR_YC3MRH_AB3E16Y#0002</v>
       </c>
       <c r="F114" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E114,Trigger)</f>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="E115" s="34" t="str">
         <f>Swaps_3M!L25</f>
-        <v>EUR_YC3MRH_AB3E17Y#0000</v>
+        <v>EUR_YC3MRH_AB3E17Y#0002</v>
       </c>
       <c r="F115" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="E116" s="34" t="str">
         <f>Swaps_3M!L26</f>
-        <v>EUR_YC3MRH_AB3E18Y#0000</v>
+        <v>EUR_YC3MRH_AB3E18Y#0002</v>
       </c>
       <c r="F116" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E116,Trigger)</f>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="E117" s="34" t="str">
         <f>Swaps_3M!L27</f>
-        <v>EUR_YC3MRH_AB3E19Y#0000</v>
+        <v>EUR_YC3MRH_AB3E19Y#0002</v>
       </c>
       <c r="F117" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E117,Trigger)</f>
@@ -7603,7 +7603,7 @@
       </c>
       <c r="E118" s="34" t="str">
         <f>Swaps_3M!L28</f>
-        <v>EUR_YC3MRH_AB3E20Y#0000</v>
+        <v>EUR_YC3MRH_AB3E20Y#0002</v>
       </c>
       <c r="F118" s="33">
         <f>_xll.qlRateHelperQuoteValue($E118,Trigger)</f>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="E119" s="34" t="str">
         <f>Swaps_3M!L29</f>
-        <v>EUR_YC3MRH_AB3E21Y#0000</v>
+        <v>EUR_YC3MRH_AB3E21Y#0002</v>
       </c>
       <c r="F119" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E119,Trigger)</f>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="E120" s="34" t="str">
         <f>Swaps_3M!L30</f>
-        <v>EUR_YC3MRH_AB3E22Y#0000</v>
+        <v>EUR_YC3MRH_AB3E22Y#0002</v>
       </c>
       <c r="F120" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="E121" s="34" t="str">
         <f>Swaps_3M!L31</f>
-        <v>EUR_YC3MRH_AB3E23Y#0000</v>
+        <v>EUR_YC3MRH_AB3E23Y#0002</v>
       </c>
       <c r="F121" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
@@ -7787,7 +7787,7 @@
       </c>
       <c r="E122" s="34" t="str">
         <f>Swaps_3M!L32</f>
-        <v>EUR_YC3MRH_AB3E24Y#0000</v>
+        <v>EUR_YC3MRH_AB3E24Y#0002</v>
       </c>
       <c r="F122" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
@@ -7833,7 +7833,7 @@
       </c>
       <c r="E123" s="34" t="str">
         <f>Swaps_3M!L33</f>
-        <v>EUR_YC3MRH_AB3E25Y#0000</v>
+        <v>EUR_YC3MRH_AB3E25Y#0002</v>
       </c>
       <c r="F123" s="33">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
@@ -7879,7 +7879,7 @@
       </c>
       <c r="E124" s="34" t="str">
         <f>Swaps_3M!L34</f>
-        <v>EUR_YC3MRH_AB3E26Y#0000</v>
+        <v>EUR_YC3MRH_AB3E26Y#0002</v>
       </c>
       <c r="F124" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E124,Trigger)</f>
@@ -7925,7 +7925,7 @@
       </c>
       <c r="E125" s="34" t="str">
         <f>Swaps_3M!L35</f>
-        <v>EUR_YC3MRH_AB3E27Y#0000</v>
+        <v>EUR_YC3MRH_AB3E27Y#0002</v>
       </c>
       <c r="F125" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="E126" s="34" t="str">
         <f>Swaps_3M!L36</f>
-        <v>EUR_YC3MRH_AB3E28Y#0000</v>
+        <v>EUR_YC3MRH_AB3E28Y#0002</v>
       </c>
       <c r="F126" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="E127" s="34" t="str">
         <f>Swaps_3M!L37</f>
-        <v>EUR_YC3MRH_AB3E29Y#0000</v>
+        <v>EUR_YC3MRH_AB3E29Y#0002</v>
       </c>
       <c r="F127" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
@@ -8063,7 +8063,7 @@
       </c>
       <c r="E128" s="34" t="str">
         <f>Swaps_3M!L38</f>
-        <v>EUR_YC3MRH_AB3E30Y#0000</v>
+        <v>EUR_YC3MRH_AB3E30Y#0002</v>
       </c>
       <c r="F128" s="33">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
@@ -8109,7 +8109,7 @@
       </c>
       <c r="E129" s="34" t="str">
         <f>Swaps_3M!L39</f>
-        <v>EUR_YC3MRH_AB3E35Y#0000</v>
+        <v>EUR_YC3MRH_AB3E35Y#0002</v>
       </c>
       <c r="F129" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
@@ -8155,7 +8155,7 @@
       </c>
       <c r="E130" s="34" t="str">
         <f>Swaps_3M!L40</f>
-        <v>EUR_YC3MRH_AB3E40Y#0000</v>
+        <v>EUR_YC3MRH_AB3E40Y#0002</v>
       </c>
       <c r="F130" s="33">
         <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
@@ -8201,7 +8201,7 @@
       </c>
       <c r="E131" s="34" t="str">
         <f>Swaps_3M!L41</f>
-        <v>EUR_YC3MRH_AB3E50Y#0000</v>
+        <v>EUR_YC3MRH_AB3E50Y#0002</v>
       </c>
       <c r="F131" s="33">
         <f>_xll.qlRateHelperQuoteValue($E131,Trigger)</f>
@@ -8247,7 +8247,7 @@
       </c>
       <c r="E132" s="27" t="str">
         <f>Swaps_3M!L42</f>
-        <v>EUR_YC3MRH_AB3E60Y#0000</v>
+        <v>EUR_YC3MRH_AB3E60Y#0002</v>
       </c>
       <c r="F132" s="26">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
@@ -8293,7 +8293,7 @@
       </c>
       <c r="E133" s="34" t="str">
         <f>SwapsFromBasis_3M!L6</f>
-        <v>EUR_YC3MRH_AB3EBASIS1Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS1Y#0002</v>
       </c>
       <c r="F133" s="33">
         <f>_xll.qlRateHelperQuoteValue($E133,Trigger)</f>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="E134" s="34" t="str">
         <f>SwapsFromBasis_3M!L7</f>
-        <v>EUR_YC3MRH_AB3EBASIS15M#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS15M#0002</v>
       </c>
       <c r="F134" s="33">
         <f>_xll.qlRateHelperQuoteValue($E134,Trigger)</f>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="E135" s="34" t="str">
         <f>SwapsFromBasis_3M!L8</f>
-        <v>EUR_YC3MRH_AB3EBASIS18M#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS18M#0002</v>
       </c>
       <c r="F135" s="33">
         <f>_xll.qlRateHelperQuoteValue($E135,Trigger)</f>
@@ -8419,7 +8419,7 @@
       </c>
       <c r="E136" s="34" t="str">
         <f>SwapsFromBasis_3M!L9</f>
-        <v>EUR_YC3MRH_AB3EBASIS21M#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS21M#0002</v>
       </c>
       <c r="F136" s="33">
         <f>_xll.qlRateHelperQuoteValue($E136,Trigger)</f>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="E137" s="34" t="str">
         <f>SwapsFromBasis_3M!L10</f>
-        <v>EUR_YC3MRH_AB3EBASIS2Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS2Y#0002</v>
       </c>
       <c r="F137" s="33">
         <f>_xll.qlRateHelperQuoteValue($E137,Trigger)</f>
@@ -8503,7 +8503,7 @@
       </c>
       <c r="E138" s="34" t="str">
         <f>SwapsFromBasis_3M!L11</f>
-        <v>EUR_YC3MRH_AB3EBASIS3Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS3Y#0002</v>
       </c>
       <c r="F138" s="33">
         <f>_xll.qlRateHelperQuoteValue($E138,Trigger)</f>
@@ -8545,7 +8545,7 @@
       </c>
       <c r="E139" s="34" t="str">
         <f>SwapsFromBasis_3M!L12</f>
-        <v>EUR_YC3MRH_AB3EBASIS4Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS4Y#0002</v>
       </c>
       <c r="F139" s="33">
         <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
@@ -8587,7 +8587,7 @@
       </c>
       <c r="E140" s="34" t="str">
         <f>SwapsFromBasis_3M!L13</f>
-        <v>EUR_YC3MRH_AB3EBASIS5Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS5Y#0002</v>
       </c>
       <c r="F140" s="33">
         <f>_xll.qlRateHelperQuoteValue($E140,Trigger)</f>
@@ -8629,7 +8629,7 @@
       </c>
       <c r="E141" s="34" t="str">
         <f>SwapsFromBasis_3M!L14</f>
-        <v>EUR_YC3MRH_AB3EBASIS6Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS6Y#0002</v>
       </c>
       <c r="F141" s="33">
         <f>_xll.qlRateHelperQuoteValue($E141,Trigger)</f>
@@ -8671,7 +8671,7 @@
       </c>
       <c r="E142" s="34" t="str">
         <f>SwapsFromBasis_3M!L15</f>
-        <v>EUR_YC3MRH_AB3EBASIS7Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS7Y#0002</v>
       </c>
       <c r="F142" s="33">
         <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="E143" s="34" t="str">
         <f>SwapsFromBasis_3M!L16</f>
-        <v>EUR_YC3MRH_AB3EBASIS8Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS8Y#0002</v>
       </c>
       <c r="F143" s="33">
         <f>_xll.qlRateHelperQuoteValue($E143,Trigger)</f>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="E144" s="34" t="str">
         <f>SwapsFromBasis_3M!L17</f>
-        <v>EUR_YC3MRH_AB3EBASIS9Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS9Y#0002</v>
       </c>
       <c r="F144" s="33">
         <f>_xll.qlRateHelperQuoteValue($E144,Trigger)</f>
@@ -8797,7 +8797,7 @@
       </c>
       <c r="E145" s="34" t="str">
         <f>SwapsFromBasis_3M!L18</f>
-        <v>EUR_YC3MRH_AB3EBASIS10Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS10Y#0002</v>
       </c>
       <c r="F145" s="33">
         <f>_xll.qlRateHelperQuoteValue($E145,Trigger)</f>
@@ -8839,7 +8839,7 @@
       </c>
       <c r="E146" s="34" t="str">
         <f>SwapsFromBasis_3M!L19</f>
-        <v>EUR_YC3MRH_AB3EBASIS11Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS11Y#0002</v>
       </c>
       <c r="F146" s="33">
         <f>_xll.qlRateHelperQuoteValue($E146,Trigger)</f>
@@ -8881,7 +8881,7 @@
       </c>
       <c r="E147" s="34" t="str">
         <f>SwapsFromBasis_3M!L20</f>
-        <v>EUR_YC3MRH_AB3EBASIS12Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS12Y#0002</v>
       </c>
       <c r="F147" s="33">
         <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
@@ -8923,7 +8923,7 @@
       </c>
       <c r="E148" s="34" t="str">
         <f>SwapsFromBasis_3M!L21</f>
-        <v>EUR_YC3MRH_AB3EBASIS13Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS13Y#0002</v>
       </c>
       <c r="F148" s="33">
         <f>_xll.qlRateHelperQuoteValue($E148,Trigger)</f>
@@ -8965,7 +8965,7 @@
       </c>
       <c r="E149" s="34" t="str">
         <f>SwapsFromBasis_3M!L22</f>
-        <v>EUR_YC3MRH_AB3EBASIS14Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS14Y#0002</v>
       </c>
       <c r="F149" s="33">
         <f>_xll.qlRateHelperQuoteValue($E149,Trigger)</f>
@@ -9007,7 +9007,7 @@
       </c>
       <c r="E150" s="34" t="str">
         <f>SwapsFromBasis_3M!L23</f>
-        <v>EUR_YC3MRH_AB3EBASIS15Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS15Y#0002</v>
       </c>
       <c r="F150" s="33">
         <f>_xll.qlRateHelperQuoteValue($E150,Trigger)</f>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="E151" s="34" t="str">
         <f>SwapsFromBasis_3M!L24</f>
-        <v>EUR_YC3MRH_AB3EBASIS16Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS16Y#0002</v>
       </c>
       <c r="F151" s="33">
         <f>_xll.qlRateHelperQuoteValue($E151,Trigger)</f>
@@ -9091,7 +9091,7 @@
       </c>
       <c r="E152" s="34" t="str">
         <f>SwapsFromBasis_3M!L25</f>
-        <v>EUR_YC3MRH_AB3EBASIS17Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS17Y#0002</v>
       </c>
       <c r="F152" s="33">
         <f>_xll.qlRateHelperQuoteValue($E152,Trigger)</f>
@@ -9133,7 +9133,7 @@
       </c>
       <c r="E153" s="34" t="str">
         <f>SwapsFromBasis_3M!L26</f>
-        <v>EUR_YC3MRH_AB3EBASIS18Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS18Y#0002</v>
       </c>
       <c r="F153" s="33">
         <f>_xll.qlRateHelperQuoteValue($E153,Trigger)</f>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="E154" s="34" t="str">
         <f>SwapsFromBasis_3M!L27</f>
-        <v>EUR_YC3MRH_AB3EBASIS19Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS19Y#0002</v>
       </c>
       <c r="F154" s="33">
         <f>_xll.qlRateHelperQuoteValue($E154,Trigger)</f>
@@ -9217,7 +9217,7 @@
       </c>
       <c r="E155" s="34" t="str">
         <f>SwapsFromBasis_3M!L28</f>
-        <v>EUR_YC3MRH_AB3EBASIS20Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS20Y#0002</v>
       </c>
       <c r="F155" s="33">
         <f>_xll.qlRateHelperQuoteValue($E155,Trigger)</f>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="E156" s="34" t="str">
         <f>SwapsFromBasis_3M!L29</f>
-        <v>EUR_YC3MRH_AB3EBASIS21Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS21Y#0002</v>
       </c>
       <c r="F156" s="33">
         <f>_xll.qlRateHelperQuoteValue($E156,Trigger)</f>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="E157" s="34" t="str">
         <f>SwapsFromBasis_3M!L30</f>
-        <v>EUR_YC3MRH_AB3EBASIS22Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS22Y#0002</v>
       </c>
       <c r="F157" s="33">
         <f>_xll.qlRateHelperQuoteValue($E157,Trigger)</f>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="E158" s="34" t="str">
         <f>SwapsFromBasis_3M!L31</f>
-        <v>EUR_YC3MRH_AB3EBASIS23Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS23Y#0002</v>
       </c>
       <c r="F158" s="33">
         <f>_xll.qlRateHelperQuoteValue($E158,Trigger)</f>
@@ -9385,7 +9385,7 @@
       </c>
       <c r="E159" s="34" t="str">
         <f>SwapsFromBasis_3M!L32</f>
-        <v>EUR_YC3MRH_AB3EBASIS24Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS24Y#0002</v>
       </c>
       <c r="F159" s="33">
         <f>_xll.qlRateHelperQuoteValue($E159,Trigger)</f>
@@ -9427,7 +9427,7 @@
       </c>
       <c r="E160" s="34" t="str">
         <f>SwapsFromBasis_3M!L33</f>
-        <v>EUR_YC3MRH_AB3EBASIS25Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS25Y#0002</v>
       </c>
       <c r="F160" s="33">
         <f>_xll.qlRateHelperQuoteValue($E160,Trigger)</f>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="E161" s="34" t="str">
         <f>SwapsFromBasis_3M!L34</f>
-        <v>EUR_YC3MRH_AB3EBASIS26Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS26Y#0002</v>
       </c>
       <c r="F161" s="33">
         <f>_xll.qlRateHelperQuoteValue($E161,Trigger)</f>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="E162" s="34" t="str">
         <f>SwapsFromBasis_3M!L35</f>
-        <v>EUR_YC3MRH_AB3EBASIS27Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS27Y#0002</v>
       </c>
       <c r="F162" s="33">
         <f>_xll.qlRateHelperQuoteValue($E162,Trigger)</f>
@@ -9553,7 +9553,7 @@
       </c>
       <c r="E163" s="34" t="str">
         <f>SwapsFromBasis_3M!L36</f>
-        <v>EUR_YC3MRH_AB3EBASIS28Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS28Y#0002</v>
       </c>
       <c r="F163" s="33">
         <f>_xll.qlRateHelperQuoteValue($E163,Trigger)</f>
@@ -9595,7 +9595,7 @@
       </c>
       <c r="E164" s="34" t="str">
         <f>SwapsFromBasis_3M!L37</f>
-        <v>EUR_YC3MRH_AB3EBASIS29Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS29Y#0002</v>
       </c>
       <c r="F164" s="33">
         <f>_xll.qlRateHelperQuoteValue($E164,Trigger)</f>
@@ -9637,7 +9637,7 @@
       </c>
       <c r="E165" s="34" t="str">
         <f>SwapsFromBasis_3M!L38</f>
-        <v>EUR_YC3MRH_AB3EBASIS30Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS30Y#0002</v>
       </c>
       <c r="F165" s="33">
         <f>_xll.qlRateHelperQuoteValue($E165,Trigger)</f>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="E166" s="34" t="str">
         <f>SwapsFromBasis_3M!L39</f>
-        <v>EUR_YC3MRH_AB3EBASIS35Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS35Y#0002</v>
       </c>
       <c r="F166" s="33">
         <f>_xll.qlRateHelperQuoteValue($E166,Trigger)</f>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="E167" s="34" t="str">
         <f>SwapsFromBasis_3M!L40</f>
-        <v>EUR_YC3MRH_AB3EBASIS40Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS40Y#0002</v>
       </c>
       <c r="F167" s="33">
         <f>_xll.qlRateHelperQuoteValue($E167,Trigger)</f>
@@ -9763,7 +9763,7 @@
       </c>
       <c r="E168" s="34" t="str">
         <f>SwapsFromBasis_3M!L41</f>
-        <v>EUR_YC3MRH_AB3EBASIS50Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS50Y#0002</v>
       </c>
       <c r="F168" s="33">
         <f>_xll.qlRateHelperQuoteValue($E168,Trigger)</f>
@@ -9805,7 +9805,7 @@
       </c>
       <c r="E169" s="27" t="str">
         <f>SwapsFromBasis_3M!L42</f>
-        <v>EUR_YC3MRH_AB3EBASIS60Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS60Y#0002</v>
       </c>
       <c r="F169" s="26">
         <f>_xll.qlRateHelperQuoteValue($E169,Trigger)</f>
@@ -9850,7 +9850,7 @@
   <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9864,15 +9864,15 @@
     <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="228"/>
+      <c r="B1" s="229"/>
       <c r="D1" s="22" t="s">
         <v>9</v>
       </c>
@@ -9904,7 +9904,7 @@
       </c>
       <c r="E2" s="10">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>1.977E-3</v>
+        <v>3.0699999999999998E-3</v>
       </c>
       <c r="F2" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9919,12 +9919,12 @@
         <v>41674</v>
       </c>
       <c r="I2" s="3">
-        <v>0.99992312257724181</v>
+        <v>0.99988062536310041</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L2" s="46">
+      <c r="L2" s="37">
         <v>2.1610000000000002E-3</v>
       </c>
     </row>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="E3" s="10">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>1.9919999999999998E-3</v>
+        <v>3.0240000000000002E-3</v>
       </c>
       <c r="F3" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9955,12 +9955,12 @@
         <v>41681</v>
       </c>
       <c r="I3" s="3">
-        <v>0.99988381350087097</v>
+        <v>0.99982363111161221</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="46">
+      <c r="L3" s="37">
         <v>2.1159999999999998E-3</v>
       </c>
     </row>
@@ -9976,7 +9976,7 @@
       </c>
       <c r="E4" s="10">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>2.013E-3</v>
+        <v>2.967E-3</v>
       </c>
       <c r="F4" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9991,12 +9991,12 @@
         <v>41691</v>
       </c>
       <c r="I4" s="3">
-        <v>0.99982668837545674</v>
+        <v>0.99974457359265201</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L4" s="46">
+      <c r="L4" s="37">
         <v>2.1389999999999998E-3</v>
       </c>
     </row>
@@ -10012,7 +10012,7 @@
       </c>
       <c r="E5" s="10">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>2.1280000000000001E-3</v>
+        <v>2.993E-3</v>
       </c>
       <c r="F5" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -10027,12 +10027,12 @@
         <v>41719</v>
       </c>
       <c r="I5" s="3">
-        <v>0.9996513660324774</v>
+        <v>0.99950972104681945</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="37">
         <v>2.2430000000000002E-3</v>
       </c>
     </row>
@@ -10064,19 +10064,19 @@
         <v>41751</v>
       </c>
       <c r="I6" s="3">
-        <v>0.99943236814422309</v>
+        <v>0.99942920371582944</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="37">
         <v>2.1749999999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="str">
         <f>_xll.ohGroup(,_xll.ohPack(D2:D126),Permanent,,ObjectOverwrite)</f>
-        <v>obj_0064f#0000</v>
+        <v>obj_00652#0002</v>
       </c>
       <c r="B7" s="12" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -10102,12 +10102,12 @@
         <v>41809</v>
       </c>
       <c r="I7" s="3">
-        <v>0.99899434962002354</v>
+        <v>0.99885105854675016</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="37">
         <v>2.2750000000000001E-3</v>
       </c>
     </row>
@@ -10132,12 +10132,12 @@
         <v>41900</v>
       </c>
       <c r="I8" s="3">
-        <v>0.99817972183892234</v>
-      </c>
-      <c r="K8" s="229" t="s">
+        <v>0.99803990807081455</v>
+      </c>
+      <c r="K8" s="218" t="s">
         <v>120</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="37">
         <v>2.575E-3</v>
       </c>
     </row>
@@ -10162,12 +10162,12 @@
         <v>41990</v>
       </c>
       <c r="I9" s="3">
-        <v>0.99720026523898653</v>
-      </c>
-      <c r="K9" s="229" t="s">
+        <v>0.9970596694493179</v>
+      </c>
+      <c r="K9" s="218" t="s">
         <v>121</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="37">
         <v>2.8249999999999998E-3</v>
       </c>
     </row>
@@ -10192,12 +10192,12 @@
         <v>42080</v>
       </c>
       <c r="I10" s="3">
-        <v>0.99607345714086848</v>
-      </c>
-      <c r="K10" s="229" t="s">
+        <v>0.99593302022019381</v>
+      </c>
+      <c r="K10" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="37">
         <v>3.225E-3</v>
       </c>
     </row>
@@ -10222,12 +10222,12 @@
         <v>42173</v>
       </c>
       <c r="I11" s="3">
-        <v>0.99475730809870633</v>
+        <v>0.99461712438178396</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="37">
         <v>3.6749999999999999E-3</v>
       </c>
     </row>
@@ -10252,12 +10252,12 @@
         <v>42264</v>
       </c>
       <c r="I12" s="3">
-        <v>0.9932937722117462</v>
+        <v>0.99315381481156628</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="37">
         <v>4.3249999999999999E-3</v>
       </c>
     </row>
@@ -10282,12 +10282,12 @@
         <v>42354</v>
       </c>
       <c r="I13" s="3">
-        <v>0.9916751468837427</v>
+        <v>0.99153540386150263</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L13" s="37">
         <v>5.1749999999999999E-3</v>
       </c>
     </row>
@@ -10312,12 +10312,12 @@
         <v>42445</v>
       </c>
       <c r="I14" s="3">
-        <v>0.98984235752376371</v>
+        <v>0.98970287277145352</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L14" s="46">
+      <c r="L14" s="37">
         <v>4.7400000000000003E-3</v>
       </c>
     </row>
@@ -10342,12 +10342,12 @@
         <v>42758</v>
       </c>
       <c r="I15" s="3">
-        <v>0.9815269017640107</v>
+        <v>0.98152866418254336</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="37">
         <v>7.0099999999999997E-3</v>
       </c>
     </row>
@@ -10372,12 +10372,12 @@
         <v>43122</v>
       </c>
       <c r="I16" s="3">
-        <v>0.96699085498393733</v>
+        <v>0.96699321354579781</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L16" s="46">
+      <c r="L16" s="37">
         <v>9.4400000000000005E-3</v>
       </c>
     </row>
@@ -10402,12 +10402,12 @@
         <v>43486</v>
       </c>
       <c r="I17" s="3">
-        <v>0.94798128074884069</v>
+        <v>0.94798424670544834</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L17" s="46">
+      <c r="L17" s="37">
         <v>1.176E-2</v>
       </c>
     </row>
@@ -10432,12 +10432,12 @@
         <v>43851</v>
       </c>
       <c r="I18" s="3">
-        <v>0.9266071466539908</v>
+        <v>0.92661062015753326</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="37">
         <v>1.391E-2</v>
       </c>
     </row>
@@ -10462,12 +10462,12 @@
         <v>44217</v>
       </c>
       <c r="I19" s="3">
-        <v>0.90338015687830353</v>
+        <v>0.90338405827606372</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="37">
         <v>1.583E-2</v>
       </c>
     </row>
@@ -10492,12 +10492,12 @@
         <v>44582</v>
       </c>
       <c r="I20" s="3">
-        <v>0.87888747802699441</v>
+        <v>0.87889173447947255</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L20" s="46">
+      <c r="L20" s="37">
         <v>1.753E-2</v>
       </c>
     </row>
@@ -10522,12 +10522,12 @@
         <v>44949</v>
       </c>
       <c r="I21" s="3">
-        <v>0.85295340730687519</v>
+        <v>0.85295797086256664</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="L21" s="46">
+      <c r="L21" s="37">
         <v>1.9060000000000001E-2</v>
       </c>
     </row>
@@ -10552,12 +10552,12 @@
         <v>45313</v>
       </c>
       <c r="I22" s="3">
-        <v>0.82646249784479475</v>
+        <v>0.82646731509808502</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="L22" s="46">
+      <c r="L22" s="37">
         <v>2.1520000000000001E-2</v>
       </c>
     </row>
@@ -10582,12 +10582,12 @@
         <v>46043</v>
       </c>
       <c r="I23" s="3">
-        <v>0.77395257083229074</v>
+        <v>0.77395772498850468</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L23" s="46">
+      <c r="L23" s="37">
         <v>2.3959999999999999E-2</v>
       </c>
     </row>
@@ -10612,12 +10612,12 @@
         <v>47140</v>
       </c>
       <c r="I24" s="3">
-        <v>0.70187826153920496</v>
+        <v>0.70188355983274198</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L24" s="46">
+      <c r="L24" s="37">
         <v>2.571E-2</v>
       </c>
     </row>
@@ -10642,12 +10642,12 @@
         <v>48967</v>
       </c>
       <c r="I25" s="3">
-        <v>0.60822131401246937</v>
+        <v>0.60822627782844763</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L25" s="46">
+      <c r="L25" s="37">
         <v>2.6280000000000001E-2</v>
       </c>
     </row>
@@ -10672,12 +10672,12 @@
         <v>50791</v>
       </c>
       <c r="I26" s="3">
-        <v>0.53612806866616824</v>
+        <v>0.53613251189291333</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="L26" s="46">
+      <c r="L26" s="37">
         <v>2.6450000000000001E-2</v>
       </c>
     </row>
@@ -10702,12 +10702,12 @@
         <v>52617</v>
       </c>
       <c r="I27" s="3">
-        <v>0.47597783345048428</v>
+        <v>0.47598176884021015</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L27" s="46">
+      <c r="L27" s="37">
         <v>2.6596999999999999E-2</v>
       </c>
     </row>
@@ -10732,12 +10732,12 @@
         <v>54444</v>
       </c>
       <c r="I28" s="3">
-        <v>0.41774613794832566</v>
+        <v>0.41774965432003353</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L28" s="46">
+      <c r="L28" s="37">
         <v>2.683E-2</v>
       </c>
     </row>
@@ -10762,12 +10762,12 @@
         <v>56270</v>
       </c>
       <c r="I29" s="3">
-        <v>0.36257899632507884</v>
+        <v>0.36258214894487723</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="L29" s="46">
+      <c r="L29" s="37">
         <v>2.7175000000000001E-2</v>
       </c>
     </row>
@@ -10792,12 +10792,12 @@
         <v>59922</v>
       </c>
       <c r="I30" s="3">
-        <v>0.2715641286565611</v>
+        <v>0.27156663703441392</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L30" s="46">
+      <c r="L30" s="37">
         <v>2.7481999999999999E-2</v>
       </c>
     </row>
@@ -10822,14 +10822,9 @@
         <v>63576</v>
       </c>
       <c r="I31" s="3">
-        <v>0.20243670511240297</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L31" s="46">
-        <v>2.564E-2</v>
-      </c>
+        <v>0.2024386808921399</v>
+      </c>
+      <c r="L31" s="46"/>
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D32" s="11" t="e">
@@ -13130,7 +13125,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13147,7 +13142,7 @@
     <col min="9" max="16384" width="9.140625" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
         <v>161</v>
       </c>
@@ -13164,7 +13159,7 @@
       <c r="G1" s="108"/>
       <c r="H1" s="93"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="100"/>
       <c r="B2" s="107"/>
       <c r="C2" s="107" t="s">
@@ -13187,7 +13182,7 @@
       </c>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="100"/>
       <c r="B3" s="103" t="s">
         <v>149</v>
@@ -13203,7 +13198,7 @@
       </c>
       <c r="F3" s="101" t="str">
         <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_SND#0000</v>
+        <v>EUR_YC3MRH_SND#0002</v>
       </c>
       <c r="G3" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -13211,7 +13206,7 @@
       </c>
       <c r="H3" s="93"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="100"/>
       <c r="B4" s="99" t="s">
         <v>148</v>
@@ -13230,7 +13225,7 @@
       </c>
       <c r="F4" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_SWD#0000</v>
+        <v>EUR_YC3MRH_SWD#0002</v>
       </c>
       <c r="G4" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -13238,7 +13233,7 @@
       </c>
       <c r="H4" s="93"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="100"/>
       <c r="B5" s="99" t="s">
         <v>147</v>
@@ -13257,15 +13252,19 @@
       </c>
       <c r="F5" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2WD#0000</v>
+        <v>EUR_YC3MRH_2WD#0002</v>
       </c>
       <c r="G5" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
         <v/>
       </c>
       <c r="H5" s="93"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J5" s="89" t="str">
+        <f>_xll.ohObjectCallerAddress(D5)</f>
+        <v>'[EUR_Market.xlsm]3M'!R7C4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="100"/>
       <c r="B6" s="99" t="s">
         <v>146</v>
@@ -13284,7 +13283,7 @@
       </c>
       <c r="F6" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3WD#0000</v>
+        <v>EUR_YC3MRH_3WD#0002</v>
       </c>
       <c r="G6" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13292,7 +13291,7 @@
       </c>
       <c r="H6" s="93"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="100"/>
       <c r="B7" s="99" t="s">
         <v>145</v>
@@ -13311,7 +13310,7 @@
       </c>
       <c r="F7" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1MD#0000</v>
+        <v>EUR_YC3MRH_1MD#0002</v>
       </c>
       <c r="G7" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13319,7 +13318,7 @@
       </c>
       <c r="H7" s="93"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="100"/>
       <c r="B8" s="99" t="s">
         <v>144</v>
@@ -13338,7 +13337,7 @@
       </c>
       <c r="F8" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2MD#0000</v>
+        <v>EUR_YC3MRH_2MD#0002</v>
       </c>
       <c r="G8" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13346,7 +13345,7 @@
       </c>
       <c r="H8" s="93"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="100"/>
       <c r="B9" s="99" t="s">
         <v>143</v>
@@ -13365,7 +13364,7 @@
       </c>
       <c r="F9" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3MD#0000</v>
+        <v>EUR_YC3MRH_3MD#0002</v>
       </c>
       <c r="G9" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13373,7 +13372,7 @@
       </c>
       <c r="H9" s="93"/>
     </row>
-    <row r="10" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="92"/>
       <c r="B10" s="91"/>
       <c r="C10" s="91"/>
@@ -13484,7 +13483,7 @@
       </c>
       <c r="H3" s="143" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_T3F1#0000</v>
+        <v>EUR_YC3MRH_T3F1#0002</v>
       </c>
       <c r="I3" s="142" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -13518,7 +13517,7 @@
       </c>
       <c r="H4" s="135" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_TOM3F1#0000</v>
+        <v>EUR_YC3MRH_TOM3F1#0002</v>
       </c>
       <c r="I4" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -13553,7 +13552,7 @@
       </c>
       <c r="H5" s="138" t="str">
         <f>_xll.qlFraRateHelper(G5,F5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1x4F#0000</v>
+        <v>EUR_YC3MRH_1x4F#0002</v>
       </c>
       <c r="I5" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -13588,7 +13587,7 @@
       </c>
       <c r="H6" s="138" t="str">
         <f>_xll.qlFraRateHelper(G6,F6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2x5F#0000</v>
+        <v>EUR_YC3MRH_2x5F#0002</v>
       </c>
       <c r="I6" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -13623,7 +13622,7 @@
       </c>
       <c r="H7" s="138" t="str">
         <f>_xll.qlFraRateHelper(G7,F7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3x6F#0000</v>
+        <v>EUR_YC3MRH_3x6F#0002</v>
       </c>
       <c r="I7" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -13658,7 +13657,7 @@
       </c>
       <c r="H8" s="138" t="str">
         <f>_xll.qlFraRateHelper(G8,F8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_4x7F#0000</v>
+        <v>EUR_YC3MRH_4x7F#0002</v>
       </c>
       <c r="I8" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -13693,7 +13692,7 @@
       </c>
       <c r="H9" s="138" t="str">
         <f>_xll.qlFraRateHelper(G9,F9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_5x8F#0000</v>
+        <v>EUR_YC3MRH_5x8F#0002</v>
       </c>
       <c r="I9" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -13728,7 +13727,7 @@
       </c>
       <c r="H10" s="135" t="str">
         <f>_xll.qlFraRateHelper(G10,F10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_6x9F#0000</v>
+        <v>EUR_YC3MRH_6x9F#0002</v>
       </c>
       <c r="I10" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -13867,7 +13866,7 @@
       </c>
       <c r="I3" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MG4#0000</v>
+        <v>EUR_YC3MRH_FUT3MG4#0002</v>
       </c>
       <c r="J3" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -13905,7 +13904,7 @@
       </c>
       <c r="I4" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH4#0000</v>
+        <v>EUR_YC3MRH_FUT3MH4#0002</v>
       </c>
       <c r="J4" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -13943,7 +13942,7 @@
       </c>
       <c r="I5" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MJ4#0000</v>
+        <v>EUR_YC3MRH_FUT3MJ4#0002</v>
       </c>
       <c r="J5" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13981,7 +13980,7 @@
       </c>
       <c r="I6" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MK4#0000</v>
+        <v>EUR_YC3MRH_FUT3MK4#0002</v>
       </c>
       <c r="J6" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -14019,7 +14018,7 @@
       </c>
       <c r="I7" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM4#0000</v>
+        <v>EUR_YC3MRH_FUT3MM4#0002</v>
       </c>
       <c r="J7" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -14057,7 +14056,7 @@
       </c>
       <c r="I8" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MN4#0000</v>
+        <v>EUR_YC3MRH_FUT3MN4#0002</v>
       </c>
       <c r="J8" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -14095,7 +14094,7 @@
       </c>
       <c r="I9" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MQ4#0000</v>
+        <v>EUR_YC3MRH_FUT3MQ4#0002</v>
       </c>
       <c r="J9" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -14133,7 +14132,7 @@
       </c>
       <c r="I10" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU4#0000</v>
+        <v>EUR_YC3MRH_FUT3MU4#0002</v>
       </c>
       <c r="J10" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -14171,7 +14170,7 @@
       </c>
       <c r="I11" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MV4#0000</v>
+        <v>EUR_YC3MRH_FUT3MV4#0002</v>
       </c>
       <c r="J11" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -14209,7 +14208,7 @@
       </c>
       <c r="I12" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MX4#0000</v>
+        <v>EUR_YC3MRH_FUT3MX4#0002</v>
       </c>
       <c r="J12" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -14247,7 +14246,7 @@
       </c>
       <c r="I13" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ4#0000</v>
+        <v>EUR_YC3MRH_FUT3MZ4#0002</v>
       </c>
       <c r="J13" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -14285,7 +14284,7 @@
       </c>
       <c r="I14" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MF5#0000</v>
+        <v>EUR_YC3MRH_FUT3MF5#0002</v>
       </c>
       <c r="J14" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -14323,7 +14322,7 @@
       </c>
       <c r="I15" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH5#0000</v>
+        <v>EUR_YC3MRH_FUT3MH5#0002</v>
       </c>
       <c r="J15" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -14361,7 +14360,7 @@
       </c>
       <c r="I16" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM5#0000</v>
+        <v>EUR_YC3MRH_FUT3MM5#0002</v>
       </c>
       <c r="J16" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -14399,7 +14398,7 @@
       </c>
       <c r="I17" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU5#0000</v>
+        <v>EUR_YC3MRH_FUT3MU5#0002</v>
       </c>
       <c r="J17" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -14437,7 +14436,7 @@
       </c>
       <c r="I18" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ5#0000</v>
+        <v>EUR_YC3MRH_FUT3MZ5#0002</v>
       </c>
       <c r="J18" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -14475,7 +14474,7 @@
       </c>
       <c r="I19" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH6#0000</v>
+        <v>EUR_YC3MRH_FUT3MH6#0002</v>
       </c>
       <c r="J19" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -14513,7 +14512,7 @@
       </c>
       <c r="I20" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM6#0000</v>
+        <v>EUR_YC3MRH_FUT3MM6#0002</v>
       </c>
       <c r="J20" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -14551,7 +14550,7 @@
       </c>
       <c r="I21" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU6#0000</v>
+        <v>EUR_YC3MRH_FUT3MU6#0002</v>
       </c>
       <c r="J21" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -14589,7 +14588,7 @@
       </c>
       <c r="I22" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ6#0000</v>
+        <v>EUR_YC3MRH_FUT3MZ6#0002</v>
       </c>
       <c r="J22" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -14627,7 +14626,7 @@
       </c>
       <c r="I23" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH7#0000</v>
+        <v>EUR_YC3MRH_FUT3MH7#0002</v>
       </c>
       <c r="J23" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -14665,7 +14664,7 @@
       </c>
       <c r="I24" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM7#0000</v>
+        <v>EUR_YC3MRH_FUT3MM7#0002</v>
       </c>
       <c r="J24" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -14703,7 +14702,7 @@
       </c>
       <c r="I25" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU7#0000</v>
+        <v>EUR_YC3MRH_FUT3MU7#0002</v>
       </c>
       <c r="J25" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -14741,7 +14740,7 @@
       </c>
       <c r="I26" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ7#0000</v>
+        <v>EUR_YC3MRH_FUT3MZ7#0002</v>
       </c>
       <c r="J26" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -14779,7 +14778,7 @@
       </c>
       <c r="I27" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH8#0000</v>
+        <v>EUR_YC3MRH_FUT3MH8#0002</v>
       </c>
       <c r="J27" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -14817,7 +14816,7 @@
       </c>
       <c r="I28" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM8#0000</v>
+        <v>EUR_YC3MRH_FUT3MM8#0002</v>
       </c>
       <c r="J28" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -14855,7 +14854,7 @@
       </c>
       <c r="I29" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU8#0000</v>
+        <v>EUR_YC3MRH_FUT3MU8#0002</v>
       </c>
       <c r="J29" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -14893,7 +14892,7 @@
       </c>
       <c r="I30" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ8#0000</v>
+        <v>EUR_YC3MRH_FUT3MZ8#0002</v>
       </c>
       <c r="J30" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -14931,7 +14930,7 @@
       </c>
       <c r="I31" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH9#0000</v>
+        <v>EUR_YC3MRH_FUT3MH9#0002</v>
       </c>
       <c r="J31" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -14969,7 +14968,7 @@
       </c>
       <c r="I32" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM9#0000</v>
+        <v>EUR_YC3MRH_FUT3MM9#0002</v>
       </c>
       <c r="J32" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -15007,7 +15006,7 @@
       </c>
       <c r="I33" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU9#0000</v>
+        <v>EUR_YC3MRH_FUT3MU9#0002</v>
       </c>
       <c r="J33" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -15045,7 +15044,7 @@
       </c>
       <c r="I34" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ9#0000</v>
+        <v>EUR_YC3MRH_FUT3MZ9#0002</v>
       </c>
       <c r="J34" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -15083,7 +15082,7 @@
       </c>
       <c r="I35" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH0#0000</v>
+        <v>EUR_YC3MRH_FUT3MH0#0002</v>
       </c>
       <c r="J35" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -15121,7 +15120,7 @@
       </c>
       <c r="I36" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM0#0000</v>
+        <v>EUR_YC3MRH_FUT3MM0#0002</v>
       </c>
       <c r="J36" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -15159,7 +15158,7 @@
       </c>
       <c r="I37" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU0#0000</v>
+        <v>EUR_YC3MRH_FUT3MU0#0002</v>
       </c>
       <c r="J37" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -15197,7 +15196,7 @@
       </c>
       <c r="I38" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ0#0000</v>
+        <v>EUR_YC3MRH_FUT3MZ0#0002</v>
       </c>
       <c r="J38" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -15235,7 +15234,7 @@
       </c>
       <c r="I39" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH1#0000</v>
+        <v>EUR_YC3MRH_FUT3MH1#0002</v>
       </c>
       <c r="J39" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -15273,7 +15272,7 @@
       </c>
       <c r="I40" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM1#0000</v>
+        <v>EUR_YC3MRH_FUT3MM1#0002</v>
       </c>
       <c r="J40" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -15310,7 +15309,7 @@
       </c>
       <c r="I41" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU1#0000</v>
+        <v>EUR_YC3MRH_FUT3MU1#0002</v>
       </c>
       <c r="J41" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -15347,7 +15346,7 @@
       </c>
       <c r="I42" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ1#0000</v>
+        <v>EUR_YC3MRH_FUT3MZ1#0002</v>
       </c>
       <c r="J42" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -15384,7 +15383,7 @@
       </c>
       <c r="I43" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH2#0000</v>
+        <v>EUR_YC3MRH_FUT3MH2#0002</v>
       </c>
       <c r="J43" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -15421,7 +15420,7 @@
       </c>
       <c r="I44" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM2#0000</v>
+        <v>EUR_YC3MRH_FUT3MM2#0002</v>
       </c>
       <c r="J44" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -15575,7 +15574,7 @@
       </c>
       <c r="L4" s="195" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC3MRH_AB3E_ibor3M#0000</v>
+        <v>EUR_YC3MRH_AB3E_ibor3M#0002</v>
       </c>
       <c r="M4" s="194" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -15639,7 +15638,7 @@
       </c>
       <c r="L6" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E1Y#0000</v>
+        <v>EUR_YC3MRH_AB3E1Y#0002</v>
       </c>
       <c r="M6" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -15694,7 +15693,7 @@
       </c>
       <c r="L7" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E15M#0000</v>
+        <v>EUR_YC3MRH_AB3E15M#0002</v>
       </c>
       <c r="M7" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -15749,7 +15748,7 @@
       </c>
       <c r="L8" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E18M#0000</v>
+        <v>EUR_YC3MRH_AB3E18M#0002</v>
       </c>
       <c r="M8" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -15804,7 +15803,7 @@
       </c>
       <c r="L9" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E21M#0000</v>
+        <v>EUR_YC3MRH_AB3E21M#0002</v>
       </c>
       <c r="M9" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -15859,7 +15858,7 @@
       </c>
       <c r="L10" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E2Y#0000</v>
+        <v>EUR_YC3MRH_AB3E2Y#0002</v>
       </c>
       <c r="M10" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -15914,7 +15913,7 @@
       </c>
       <c r="L11" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E3Y#0000</v>
+        <v>EUR_YC3MRH_AB3E3Y#0002</v>
       </c>
       <c r="M11" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -15960,7 +15959,7 @@
       </c>
       <c r="L12" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E4Y#0000</v>
+        <v>EUR_YC3MRH_AB3E4Y#0002</v>
       </c>
       <c r="M12" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -16006,7 +16005,7 @@
       </c>
       <c r="L13" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E5Y#0000</v>
+        <v>EUR_YC3MRH_AB3E5Y#0002</v>
       </c>
       <c r="M13" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -16052,7 +16051,7 @@
       </c>
       <c r="L14" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E6Y#0000</v>
+        <v>EUR_YC3MRH_AB3E6Y#0002</v>
       </c>
       <c r="M14" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -16098,7 +16097,7 @@
       </c>
       <c r="L15" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E7Y#0000</v>
+        <v>EUR_YC3MRH_AB3E7Y#0002</v>
       </c>
       <c r="M15" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -16144,7 +16143,7 @@
       </c>
       <c r="L16" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E8Y#0000</v>
+        <v>EUR_YC3MRH_AB3E8Y#0002</v>
       </c>
       <c r="M16" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -16190,7 +16189,7 @@
       </c>
       <c r="L17" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E9Y#0000</v>
+        <v>EUR_YC3MRH_AB3E9Y#0002</v>
       </c>
       <c r="M17" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -16236,7 +16235,7 @@
       </c>
       <c r="L18" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E10Y#0000</v>
+        <v>EUR_YC3MRH_AB3E10Y#0002</v>
       </c>
       <c r="M18" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -16282,7 +16281,7 @@
       </c>
       <c r="L19" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E11Y#0000</v>
+        <v>EUR_YC3MRH_AB3E11Y#0002</v>
       </c>
       <c r="M19" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -16328,7 +16327,7 @@
       </c>
       <c r="L20" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E12Y#0000</v>
+        <v>EUR_YC3MRH_AB3E12Y#0002</v>
       </c>
       <c r="M20" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -16374,7 +16373,7 @@
       </c>
       <c r="L21" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E13Y#0000</v>
+        <v>EUR_YC3MRH_AB3E13Y#0002</v>
       </c>
       <c r="M21" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -16420,7 +16419,7 @@
       </c>
       <c r="L22" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E14Y#0000</v>
+        <v>EUR_YC3MRH_AB3E14Y#0002</v>
       </c>
       <c r="M22" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -16466,7 +16465,7 @@
       </c>
       <c r="L23" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E15Y#0000</v>
+        <v>EUR_YC3MRH_AB3E15Y#0002</v>
       </c>
       <c r="M23" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -16512,7 +16511,7 @@
       </c>
       <c r="L24" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E16Y#0000</v>
+        <v>EUR_YC3MRH_AB3E16Y#0002</v>
       </c>
       <c r="M24" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -16558,7 +16557,7 @@
       </c>
       <c r="L25" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E17Y#0000</v>
+        <v>EUR_YC3MRH_AB3E17Y#0002</v>
       </c>
       <c r="M25" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -16604,7 +16603,7 @@
       </c>
       <c r="L26" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E18Y#0000</v>
+        <v>EUR_YC3MRH_AB3E18Y#0002</v>
       </c>
       <c r="M26" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -16650,7 +16649,7 @@
       </c>
       <c r="L27" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E19Y#0000</v>
+        <v>EUR_YC3MRH_AB3E19Y#0002</v>
       </c>
       <c r="M27" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -16696,7 +16695,7 @@
       </c>
       <c r="L28" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E20Y#0000</v>
+        <v>EUR_YC3MRH_AB3E20Y#0002</v>
       </c>
       <c r="M28" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -16742,7 +16741,7 @@
       </c>
       <c r="L29" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E21Y#0000</v>
+        <v>EUR_YC3MRH_AB3E21Y#0002</v>
       </c>
       <c r="M29" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -16788,7 +16787,7 @@
       </c>
       <c r="L30" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E22Y#0000</v>
+        <v>EUR_YC3MRH_AB3E22Y#0002</v>
       </c>
       <c r="M30" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -16834,7 +16833,7 @@
       </c>
       <c r="L31" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E23Y#0000</v>
+        <v>EUR_YC3MRH_AB3E23Y#0002</v>
       </c>
       <c r="M31" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -16880,7 +16879,7 @@
       </c>
       <c r="L32" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E24Y#0000</v>
+        <v>EUR_YC3MRH_AB3E24Y#0002</v>
       </c>
       <c r="M32" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -16926,7 +16925,7 @@
       </c>
       <c r="L33" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E25Y#0000</v>
+        <v>EUR_YC3MRH_AB3E25Y#0002</v>
       </c>
       <c r="M33" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -16972,7 +16971,7 @@
       </c>
       <c r="L34" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E26Y#0000</v>
+        <v>EUR_YC3MRH_AB3E26Y#0002</v>
       </c>
       <c r="M34" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -17018,7 +17017,7 @@
       </c>
       <c r="L35" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E27Y#0000</v>
+        <v>EUR_YC3MRH_AB3E27Y#0002</v>
       </c>
       <c r="M35" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -17064,7 +17063,7 @@
       </c>
       <c r="L36" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E28Y#0000</v>
+        <v>EUR_YC3MRH_AB3E28Y#0002</v>
       </c>
       <c r="M36" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -17110,7 +17109,7 @@
       </c>
       <c r="L37" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E29Y#0000</v>
+        <v>EUR_YC3MRH_AB3E29Y#0002</v>
       </c>
       <c r="M37" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -17156,7 +17155,7 @@
       </c>
       <c r="L38" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E30Y#0000</v>
+        <v>EUR_YC3MRH_AB3E30Y#0002</v>
       </c>
       <c r="M38" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -17202,7 +17201,7 @@
       </c>
       <c r="L39" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E35Y#0000</v>
+        <v>EUR_YC3MRH_AB3E35Y#0002</v>
       </c>
       <c r="M39" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -17248,7 +17247,7 @@
       </c>
       <c r="L40" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E40Y#0000</v>
+        <v>EUR_YC3MRH_AB3E40Y#0002</v>
       </c>
       <c r="M40" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -17294,7 +17293,7 @@
       </c>
       <c r="L41" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E50Y#0000</v>
+        <v>EUR_YC3MRH_AB3E50Y#0002</v>
       </c>
       <c r="M41" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -17340,7 +17339,7 @@
       </c>
       <c r="L42" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E60Y#0000</v>
+        <v>EUR_YC3MRH_AB3E60Y#0002</v>
       </c>
       <c r="M42" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -17398,7 +17397,7 @@
       </c>
       <c r="L44" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K44,$J44,$E44&amp;"M",Calendar,$F44,$G44,$H44,$L$4,$I44,B44,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S12#0000</v>
+        <v>EUR_YC3MRH_1S12#0002</v>
       </c>
       <c r="M44" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -17443,7 +17442,7 @@
       </c>
       <c r="L45" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K45,$J45,$E45&amp;"M",Calendar,$F45,$G45,$H45,$L$4,$I45,B45,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2S12#0000</v>
+        <v>EUR_YC3MRH_2S12#0002</v>
       </c>
       <c r="M45" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -17488,7 +17487,7 @@
       </c>
       <c r="L46" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K46,$J46,$E46&amp;"M",Calendar,$F46,$G46,$H46,$L$4,$I46,B46,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3S12#0000</v>
+        <v>EUR_YC3MRH_3S12#0002</v>
       </c>
       <c r="M46" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -17533,7 +17532,7 @@
       </c>
       <c r="L47" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K47,$J47,$E47&amp;"M",Calendar,$F47,$G47,$H47,$L$4,$I47,B47,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_4S12#0000</v>
+        <v>EUR_YC3MRH_4S12#0002</v>
       </c>
       <c r="M47" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -17578,7 +17577,7 @@
       </c>
       <c r="L48" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K48,$J48,$E48&amp;"M",Calendar,$F48,$G48,$H48,$L$4,$I48,B48,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S24#0000</v>
+        <v>EUR_YC3MRH_1S24#0002</v>
       </c>
       <c r="M48" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -17623,7 +17622,7 @@
       </c>
       <c r="L49" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K49,$J49,$E49&amp;"M",Calendar,$F49,$G49,$H49,$L$4,$I49,B49,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2S24#0000</v>
+        <v>EUR_YC3MRH_2S24#0002</v>
       </c>
       <c r="M49" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -17668,7 +17667,7 @@
       </c>
       <c r="L50" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K50,$J50,$E50&amp;"M",Calendar,$F50,$G50,$H50,$L$4,$I50,B50,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S36#0000</v>
+        <v>EUR_YC3MRH_1S36#0002</v>
       </c>
       <c r="M50" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -17842,7 +17841,7 @@
       </c>
       <c r="L4" s="195" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC3MRH_AB3EBASIS_ibor3M#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS_ibor3M#0002</v>
       </c>
       <c r="M4" s="194" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -17906,7 +17905,7 @@
       </c>
       <c r="L6" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS1Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS1Y#0002</v>
       </c>
       <c r="M6" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -17955,7 +17954,7 @@
       </c>
       <c r="L7" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS15M#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS15M#0002</v>
       </c>
       <c r="M7" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -18004,7 +18003,7 @@
       </c>
       <c r="L8" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS18M#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS18M#0002</v>
       </c>
       <c r="M8" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -18053,7 +18052,7 @@
       </c>
       <c r="L9" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS21M#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS21M#0002</v>
       </c>
       <c r="M9" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -18102,7 +18101,7 @@
       </c>
       <c r="L10" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS2Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS2Y#0002</v>
       </c>
       <c r="M10" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -18160,7 +18159,7 @@
       </c>
       <c r="L11" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS3Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS3Y#0002</v>
       </c>
       <c r="M11" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -18218,7 +18217,7 @@
       </c>
       <c r="L12" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS4Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS4Y#0002</v>
       </c>
       <c r="M12" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -18276,7 +18275,7 @@
       </c>
       <c r="L13" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS5Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS5Y#0002</v>
       </c>
       <c r="M13" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -18334,7 +18333,7 @@
       </c>
       <c r="L14" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS6Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS6Y#0002</v>
       </c>
       <c r="M14" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -18392,7 +18391,7 @@
       </c>
       <c r="L15" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS7Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS7Y#0002</v>
       </c>
       <c r="M15" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -18444,7 +18443,7 @@
       </c>
       <c r="L16" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS8Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS8Y#0002</v>
       </c>
       <c r="M16" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -18493,7 +18492,7 @@
       </c>
       <c r="L17" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS9Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS9Y#0002</v>
       </c>
       <c r="M17" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -18542,7 +18541,7 @@
       </c>
       <c r="L18" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS10Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS10Y#0002</v>
       </c>
       <c r="M18" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -18591,7 +18590,7 @@
       </c>
       <c r="L19" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS11Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS11Y#0002</v>
       </c>
       <c r="M19" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -18640,7 +18639,7 @@
       </c>
       <c r="L20" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS12Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS12Y#0002</v>
       </c>
       <c r="M20" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -18689,7 +18688,7 @@
       </c>
       <c r="L21" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS13Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS13Y#0002</v>
       </c>
       <c r="M21" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -18738,7 +18737,7 @@
       </c>
       <c r="L22" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS14Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS14Y#0002</v>
       </c>
       <c r="M22" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -18787,7 +18786,7 @@
       </c>
       <c r="L23" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS15Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS15Y#0002</v>
       </c>
       <c r="M23" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -18836,7 +18835,7 @@
       </c>
       <c r="L24" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS16Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS16Y#0002</v>
       </c>
       <c r="M24" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -18885,7 +18884,7 @@
       </c>
       <c r="L25" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS17Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS17Y#0002</v>
       </c>
       <c r="M25" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -18934,7 +18933,7 @@
       </c>
       <c r="L26" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS18Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS18Y#0002</v>
       </c>
       <c r="M26" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -18983,7 +18982,7 @@
       </c>
       <c r="L27" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS19Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS19Y#0002</v>
       </c>
       <c r="M27" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -19032,7 +19031,7 @@
       </c>
       <c r="L28" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS20Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS20Y#0002</v>
       </c>
       <c r="M28" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -19081,7 +19080,7 @@
       </c>
       <c r="L29" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS21Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS21Y#0002</v>
       </c>
       <c r="M29" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -19130,7 +19129,7 @@
       </c>
       <c r="L30" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS22Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS22Y#0002</v>
       </c>
       <c r="M30" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -19179,7 +19178,7 @@
       </c>
       <c r="L31" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS23Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS23Y#0002</v>
       </c>
       <c r="M31" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -19228,7 +19227,7 @@
       </c>
       <c r="L32" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS24Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS24Y#0002</v>
       </c>
       <c r="M32" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -19277,7 +19276,7 @@
       </c>
       <c r="L33" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS25Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS25Y#0002</v>
       </c>
       <c r="M33" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -19326,7 +19325,7 @@
       </c>
       <c r="L34" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS26Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS26Y#0002</v>
       </c>
       <c r="M34" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -19375,7 +19374,7 @@
       </c>
       <c r="L35" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS27Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS27Y#0002</v>
       </c>
       <c r="M35" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -19424,7 +19423,7 @@
       </c>
       <c r="L36" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS28Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS28Y#0002</v>
       </c>
       <c r="M36" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -19473,7 +19472,7 @@
       </c>
       <c r="L37" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS29Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS29Y#0002</v>
       </c>
       <c r="M37" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -19522,7 +19521,7 @@
       </c>
       <c r="L38" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS30Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS30Y#0002</v>
       </c>
       <c r="M38" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -19571,7 +19570,7 @@
       </c>
       <c r="L39" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS35Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS35Y#0002</v>
       </c>
       <c r="M39" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -19620,7 +19619,7 @@
       </c>
       <c r="L40" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS40Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS40Y#0002</v>
       </c>
       <c r="M40" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -19669,7 +19668,7 @@
       </c>
       <c r="L41" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS50Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS50Y#0002</v>
       </c>
       <c r="M41" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -19718,7 +19717,7 @@
       </c>
       <c r="L42" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS60Y#0000</v>
+        <v>EUR_YC3MRH_AB3EBASIS60Y#0002</v>
       </c>
       <c r="M42" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/EUR_YC3MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YC3MBootstrapping.xlsx
@@ -787,7 +787,7 @@
     <t>EUR_YCRH_SwapsFromBasis</t>
   </si>
   <si>
-    <t>EUR_YC3MRH_FUT3MZ3</t>
+    <t>EUR_YC3MRH_FUT3MZ5</t>
   </si>
 </sst>
 </file>
@@ -2484,7 +2484,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="84">
-        <v>41663.489872685182</v>
+        <v>41663.495694444442</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="55"/>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="D14" s="81" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYC3M#0002</v>
+        <v>_EURYC3M#0008</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="55"/>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="D28" s="60">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.2024386808921399</v>
+        <v>0.19313772797651729</v>
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="55"/>
@@ -2804,7 +2804,7 @@
   <dimension ref="A1:N169"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="E4" s="34" t="str">
         <f>Deposits_3M!F3</f>
-        <v>EUR_YC3MRH_SND#0002</v>
+        <v>EUR_YC3MRH_SND#0007</v>
       </c>
       <c r="F4" s="33">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E5" s="34" t="str">
         <f>Deposits_3M!F4</f>
-        <v>EUR_YC3MRH_SWD#0002</v>
+        <v>EUR_YC3MRH_SWD#0007</v>
       </c>
       <c r="F5" s="33">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="E6" s="34" t="str">
         <f>Deposits_3M!F5</f>
-        <v>EUR_YC3MRH_2WD#0002</v>
+        <v>EUR_YC3MRH_2WD#0007</v>
       </c>
       <c r="F6" s="33">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="E7" s="34" t="str">
         <f>Deposits_3M!F6</f>
-        <v>EUR_YC3MRH_3WD#0002</v>
+        <v>EUR_YC3MRH_3WD#0007</v>
       </c>
       <c r="F7" s="33">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="E8" s="34" t="str">
         <f>Deposits_3M!F7</f>
-        <v>EUR_YC3MRH_1MD#0002</v>
+        <v>EUR_YC3MRH_1MD#0007</v>
       </c>
       <c r="F8" s="33">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="E9" s="34" t="str">
         <f>Deposits_3M!F8</f>
-        <v>EUR_YC3MRH_2MD#0002</v>
+        <v>EUR_YC3MRH_2MD#0007</v>
       </c>
       <c r="F9" s="33">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="E10" s="34" t="str">
         <f>Deposits_3M!F9</f>
-        <v>EUR_YC3MRH_3MD#0002</v>
+        <v>EUR_YC3MRH_3MD#0007</v>
       </c>
       <c r="F10" s="33">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
@@ -3378,11 +3378,11 @@
       </c>
       <c r="E16" s="42" t="str">
         <f>FRAs_3M!H3</f>
-        <v>EUR_YC3MRH_T3F1#0002</v>
-      </c>
-      <c r="F16" s="41">
+        <v>EUR_YC3MRH_T3F1#0007</v>
+      </c>
+      <c r="F16" s="41" t="e">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>2.2500000000000003E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="G16" s="41"/>
       <c r="H16" s="40" t="b">
@@ -3416,15 +3416,15 @@
       </c>
       <c r="E17" s="27" t="str">
         <f>FRAs_3M!H4</f>
-        <v>EUR_YC3MRH_TOM3F1#0002</v>
-      </c>
-      <c r="F17" s="26">
+        <v>EUR_YC3MRH_TOM3F1#0007</v>
+      </c>
+      <c r="F17" s="26" t="e">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
-        <v>2.2500000000000003E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="25">
         <v>20</v>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="F18" s="33">
         <f>_xll.qlRateHelperQuoteValue($E18,Trigger)</f>
-        <v>2.4499999999999999E-3</v>
+        <v>3.0599999999999998E-3</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="32" t="b">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="F19" s="33">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
-        <v>2.6800000000000001E-3</v>
+        <v>2.97E-3</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="32" t="b">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="F20" s="33">
         <f>_xll.qlRateHelperQuoteValue($E20,Trigger)</f>
-        <v>2.9400000000000003E-3</v>
+        <v>2.9399999999999999E-3</v>
       </c>
       <c r="G20" s="33"/>
       <c r="H20" s="32" t="b">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="F21" s="33">
         <f>_xll.qlRateHelperQuoteValue($E21,Trigger)</f>
-        <v>3.1099999999999999E-3</v>
+        <v>2.9199999999999999E-3</v>
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="32" t="b">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="F22" s="33">
         <f>_xll.qlRateHelperQuoteValue($E22,Trigger)</f>
-        <v>3.3199999999999996E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="G22" s="33"/>
       <c r="H22" s="32" t="b">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="F23" s="33">
         <f>_xll.qlRateHelperQuoteValue($E23,Trigger)</f>
-        <v>3.5199999999999997E-3</v>
+        <v>2.9199999999999999E-3</v>
       </c>
       <c r="G23" s="33"/>
       <c r="H23" s="32" t="b">
@@ -4140,11 +4140,11 @@
       </c>
       <c r="E36" s="34" t="str">
         <f>Futures_3M!I3</f>
-        <v>EUR_YC3MRH_FUT3MG4#0002</v>
+        <v>EUR_YC3MRH_FUT3MG4#0007</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
-        <v>99.767499999999998</v>
+        <v>99.694999999999993</v>
       </c>
       <c r="G36" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E36,Trigger)</f>
@@ -4182,11 +4182,11 @@
       </c>
       <c r="E37" s="34" t="str">
         <f>Futures_3M!I4</f>
-        <v>EUR_YC3MRH_FUT3MH4#0002</v>
+        <v>EUR_YC3MRH_FUT3MH4#0007</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
-        <v>99.737499999999997</v>
+        <v>99.702500000000001</v>
       </c>
       <c r="G37" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E37,Trigger)</f>
@@ -4224,11 +4224,11 @@
       </c>
       <c r="E38" s="34" t="str">
         <f>Futures_3M!I5</f>
-        <v>EUR_YC3MRH_FUT3MJ4#0002</v>
+        <v>EUR_YC3MRH_FUT3MJ4#0007</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>99.715000000000003</v>
+        <v>99.704999999999998</v>
       </c>
       <c r="G38" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E38,Trigger)</f>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="E39" s="34" t="str">
         <f>Futures_3M!I6</f>
-        <v>EUR_YC3MRH_FUT3MK4#0002</v>
+        <v>EUR_YC3MRH_FUT3MK4#0007</v>
       </c>
       <c r="F39" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4308,11 +4308,11 @@
       </c>
       <c r="E40" s="34" t="str">
         <f>Futures_3M!I7</f>
-        <v>EUR_YC3MRH_FUT3MM4#0002</v>
+        <v>EUR_YC3MRH_FUT3MM4#0007</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
-        <v>99.677499999999995</v>
+        <v>99.707499999999996</v>
       </c>
       <c r="G40" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E40,Trigger)</f>
@@ -4350,15 +4350,15 @@
       </c>
       <c r="E41" s="34" t="str">
         <f>Futures_3M!I8</f>
-        <v>EUR_YC3MRH_FUT3MN4#0002</v>
-      </c>
-      <c r="F41" s="48">
+        <v>EUR_YC3MRH_FUT3MN4#0007</v>
+      </c>
+      <c r="F41" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>99.547499999999999</v>
-      </c>
-      <c r="G41" s="33">
+        <v>#NUM!</v>
+      </c>
+      <c r="G41" s="33" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E41,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H41" s="32" t="b">
         <v>1</v>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="E42" s="34" t="str">
         <f>Futures_3M!I9</f>
-        <v>EUR_YC3MRH_FUT3MQ4#0002</v>
+        <v>EUR_YC3MRH_FUT3MQ4#0007</v>
       </c>
       <c r="F42" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4434,11 +4434,11 @@
       </c>
       <c r="E43" s="34" t="str">
         <f>Futures_3M!I10</f>
-        <v>EUR_YC3MRH_FUT3MU4#0002</v>
+        <v>EUR_YC3MRH_FUT3MU4#0007</v>
       </c>
       <c r="F43" s="48">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
-        <v>99.607500000000002</v>
+        <v>99.702500000000001</v>
       </c>
       <c r="G43" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E43,Trigger)</f>
@@ -4476,15 +4476,15 @@
       </c>
       <c r="E44" s="34" t="str">
         <f>Futures_3M!I11</f>
-        <v>EUR_YC3MRH_FUT3MV4#0002</v>
-      </c>
-      <c r="F44" s="48">
+        <v>EUR_YC3MRH_FUT3MV4#0007</v>
+      </c>
+      <c r="F44" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>99.487499999999997</v>
-      </c>
-      <c r="G44" s="33">
+        <v>#NUM!</v>
+      </c>
+      <c r="G44" s="33" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E44,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H44" s="32" t="b">
         <v>1</v>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="E45" s="34" t="str">
         <f>Futures_3M!I12</f>
-        <v>EUR_YC3MRH_FUT3MX4#0002</v>
+        <v>EUR_YC3MRH_FUT3MX4#0007</v>
       </c>
       <c r="F45" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4560,11 +4560,11 @@
       </c>
       <c r="E46" s="34" t="str">
         <f>Futures_3M!I13</f>
-        <v>EUR_YC3MRH_FUT3MZ4#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ4#0007</v>
       </c>
       <c r="F46" s="48">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
-        <v>99.547499999999999</v>
+        <v>99.682500000000005</v>
       </c>
       <c r="G46" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E46,Trigger)</f>
@@ -4602,15 +4602,15 @@
       </c>
       <c r="E47" s="34" t="str">
         <f>Futures_3M!I14</f>
-        <v>EUR_YC3MRH_FUT3MF5#0002</v>
-      </c>
-      <c r="F47" s="48">
+        <v>EUR_YC3MRH_FUT3MF5#0007</v>
+      </c>
+      <c r="F47" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>99.417500000000004</v>
-      </c>
-      <c r="G47" s="33">
+        <v>#NUM!</v>
+      </c>
+      <c r="G47" s="33" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H47" s="32" t="b">
         <v>1</v>
@@ -4644,11 +4644,11 @@
       </c>
       <c r="E48" s="34" t="str">
         <f>Futures_3M!I15</f>
-        <v>EUR_YC3MRH_FUT3MH5#0002</v>
+        <v>EUR_YC3MRH_FUT3MH5#0007</v>
       </c>
       <c r="F48" s="48">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>99.487499999999997</v>
+        <v>99.642499999999998</v>
       </c>
       <c r="G48" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E48,Trigger)</f>
@@ -4686,11 +4686,11 @@
       </c>
       <c r="E49" s="34" t="str">
         <f>Futures_3M!I16</f>
-        <v>EUR_YC3MRH_FUT3MM5#0002</v>
+        <v>EUR_YC3MRH_FUT3MM5#0007</v>
       </c>
       <c r="F49" s="48">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
-        <v>99.417500000000004</v>
+        <v>99.587500000000006</v>
       </c>
       <c r="G49" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E49,Trigger)</f>
@@ -4728,11 +4728,11 @@
       </c>
       <c r="E50" s="34" t="str">
         <f>Futures_3M!I17</f>
-        <v>EUR_YC3MRH_FUT3MU5#0002</v>
+        <v>EUR_YC3MRH_FUT3MU5#0007</v>
       </c>
       <c r="F50" s="48">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>99.347499999999997</v>
+        <v>99.507499999999993</v>
       </c>
       <c r="G50" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E50,Trigger)</f>
@@ -4770,11 +4770,11 @@
       </c>
       <c r="E51" s="34" t="str">
         <f>Futures_3M!I18</f>
-        <v>EUR_YC3MRH_FUT3MZ5#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ5#0007</v>
       </c>
       <c r="F51" s="48">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>99.267499999999998</v>
+        <v>99.412499999999994</v>
       </c>
       <c r="G51" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E51,Trigger)</f>
@@ -4812,11 +4812,11 @@
       </c>
       <c r="E52" s="34" t="str">
         <f>Futures_3M!I19</f>
-        <v>EUR_YC3MRH_FUT3MH6#0002</v>
+        <v>EUR_YC3MRH_FUT3MH6#0007</v>
       </c>
       <c r="F52" s="48">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>99.182500000000005</v>
+        <v>99.292500000000004</v>
       </c>
       <c r="G52" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E52,Trigger)</f>
@@ -4854,11 +4854,11 @@
       </c>
       <c r="E53" s="34" t="str">
         <f>Futures_3M!I20</f>
-        <v>EUR_YC3MRH_FUT3MM6#0002</v>
+        <v>EUR_YC3MRH_FUT3MM6#0007</v>
       </c>
       <c r="F53" s="48">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>99.075000000000003</v>
+        <v>99.16</v>
       </c>
       <c r="G53" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E53,Trigger)</f>
@@ -4896,11 +4896,11 @@
       </c>
       <c r="E54" s="34" t="str">
         <f>Futures_3M!I21</f>
-        <v>EUR_YC3MRH_FUT3MU6#0002</v>
+        <v>EUR_YC3MRH_FUT3MU6#0007</v>
       </c>
       <c r="F54" s="48">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>98.95</v>
+        <v>99.007499999999993</v>
       </c>
       <c r="G54" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E54,Trigger)</f>
@@ -4938,11 +4938,11 @@
       </c>
       <c r="E55" s="34" t="str">
         <f>Futures_3M!I22</f>
-        <v>EUR_YC3MRH_FUT3MZ6#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ6#0007</v>
       </c>
       <c r="F55" s="48">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>98.802499999999995</v>
+        <v>98.844999999999999</v>
       </c>
       <c r="G55" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E55,Trigger)</f>
@@ -4980,11 +4980,11 @@
       </c>
       <c r="E56" s="34" t="str">
         <f>Futures_3M!I23</f>
-        <v>EUR_YC3MRH_FUT3MH7#0002</v>
+        <v>EUR_YC3MRH_FUT3MH7#0007</v>
       </c>
       <c r="F56" s="48">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>98.655000000000001</v>
+        <v>98.694999999999993</v>
       </c>
       <c r="G56" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E56,Trigger)</f>
@@ -5022,11 +5022,11 @@
       </c>
       <c r="E57" s="34" t="str">
         <f>Futures_3M!I24</f>
-        <v>EUR_YC3MRH_FUT3MM7#0002</v>
+        <v>EUR_YC3MRH_FUT3MM7#0007</v>
       </c>
       <c r="F57" s="48">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>98.515000000000001</v>
+        <v>98.54</v>
       </c>
       <c r="G57" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E57,Trigger)</f>
@@ -5064,11 +5064,11 @@
       </c>
       <c r="E58" s="34" t="str">
         <f>Futures_3M!I25</f>
-        <v>EUR_YC3MRH_FUT3MU7#0002</v>
+        <v>EUR_YC3MRH_FUT3MU7#0007</v>
       </c>
       <c r="F58" s="48">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>98.385000000000005</v>
+        <v>98.394999999999996</v>
       </c>
       <c r="G58" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E58,Trigger)</f>
@@ -5106,11 +5106,11 @@
       </c>
       <c r="E59" s="34" t="str">
         <f>Futures_3M!I26</f>
-        <v>EUR_YC3MRH_FUT3MZ7#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ7#0007</v>
       </c>
       <c r="F59" s="48">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>98.25</v>
+        <v>98.257499999999993</v>
       </c>
       <c r="G59" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E59,Trigger)</f>
@@ -5148,11 +5148,11 @@
       </c>
       <c r="E60" s="34" t="str">
         <f>Futures_3M!I27</f>
-        <v>EUR_YC3MRH_FUT3MH8#0002</v>
+        <v>EUR_YC3MRH_FUT3MH8#0007</v>
       </c>
       <c r="F60" s="48">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>98.125</v>
+        <v>98.142499999999998</v>
       </c>
       <c r="G60" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E60,Trigger)</f>
@@ -5190,11 +5190,11 @@
       </c>
       <c r="E61" s="34" t="str">
         <f>Futures_3M!I28</f>
-        <v>EUR_YC3MRH_FUT3MM8#0002</v>
+        <v>EUR_YC3MRH_FUT3MM8#0007</v>
       </c>
       <c r="F61" s="48">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>98.01</v>
+        <v>98.025000000000006</v>
       </c>
       <c r="G61" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E61,Trigger)</f>
@@ -5232,11 +5232,11 @@
       </c>
       <c r="E62" s="34" t="str">
         <f>Futures_3M!I29</f>
-        <v>EUR_YC3MRH_FUT3MU8#0002</v>
+        <v>EUR_YC3MRH_FUT3MU8#0007</v>
       </c>
       <c r="F62" s="48">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
-        <v>97.922499999999999</v>
+        <v>97.915000000000006</v>
       </c>
       <c r="G62" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E62,Trigger)</f>
@@ -5274,11 +5274,11 @@
       </c>
       <c r="E63" s="34" t="str">
         <f>Futures_3M!I30</f>
-        <v>EUR_YC3MRH_FUT3MZ8#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ8#0007</v>
       </c>
       <c r="F63" s="48">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>97.834999999999994</v>
+        <v>97.787499999999994</v>
       </c>
       <c r="G63" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E63,Trigger)</f>
@@ -5316,11 +5316,11 @@
       </c>
       <c r="E64" s="34" t="str">
         <f>Futures_3M!I31</f>
-        <v>EUR_YC3MRH_FUT3MH9#0002</v>
+        <v>EUR_YC3MRH_FUT3MH9#0007</v>
       </c>
       <c r="F64" s="48">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
-        <v>97.76</v>
+        <v>97.685000000000002</v>
       </c>
       <c r="G64" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E64,Trigger)</f>
@@ -5358,11 +5358,11 @@
       </c>
       <c r="E65" s="34" t="str">
         <f>Futures_3M!I32</f>
-        <v>EUR_YC3MRH_FUT3MM9#0002</v>
+        <v>EUR_YC3MRH_FUT3MM9#0007</v>
       </c>
       <c r="F65" s="48">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>97.672499999999999</v>
+        <v>97.58</v>
       </c>
       <c r="G65" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E65,Trigger)</f>
@@ -5400,15 +5400,15 @@
       </c>
       <c r="E66" s="34" t="str">
         <f>Futures_3M!I33</f>
-        <v>EUR_YC3MRH_FUT3MU9#0002</v>
-      </c>
-      <c r="F66" s="48" t="e">
+        <v>EUR_YC3MRH_FUT3MU9#0007</v>
+      </c>
+      <c r="F66" s="48">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G66" s="33" t="e">
+        <v>97.472499999999997</v>
+      </c>
+      <c r="G66" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E66,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H66" s="32" t="b">
         <v>1</v>
@@ -5442,15 +5442,15 @@
       </c>
       <c r="E67" s="34" t="str">
         <f>Futures_3M!I34</f>
-        <v>EUR_YC3MRH_FUT3MZ9#0002</v>
-      </c>
-      <c r="F67" s="48" t="e">
+        <v>EUR_YC3MRH_FUT3MZ9#0007</v>
+      </c>
+      <c r="F67" s="48">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G67" s="33" t="e">
+        <v>97.39</v>
+      </c>
+      <c r="G67" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E67,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H67" s="32" t="b">
         <v>1</v>
@@ -5484,7 +5484,7 @@
       </c>
       <c r="E68" s="34" t="str">
         <f>Futures_3M!I35</f>
-        <v>EUR_YC3MRH_FUT3MH0#0002</v>
+        <v>EUR_YC3MRH_FUT3MH0#0007</v>
       </c>
       <c r="F68" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="E69" s="34" t="str">
         <f>Futures_3M!I36</f>
-        <v>EUR_YC3MRH_FUT3MM0#0002</v>
+        <v>EUR_YC3MRH_FUT3MM0#0007</v>
       </c>
       <c r="F69" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="E70" s="34" t="str">
         <f>Futures_3M!I37</f>
-        <v>EUR_YC3MRH_FUT3MU0#0002</v>
+        <v>EUR_YC3MRH_FUT3MU0#0007</v>
       </c>
       <c r="F70" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="E71" s="34" t="str">
         <f>Futures_3M!I38</f>
-        <v>EUR_YC3MRH_FUT3MZ0#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ0#0007</v>
       </c>
       <c r="F71" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="E72" s="34" t="str">
         <f>Futures_3M!I39</f>
-        <v>EUR_YC3MRH_FUT3MH1#0002</v>
+        <v>EUR_YC3MRH_FUT3MH1#0007</v>
       </c>
       <c r="F72" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
@@ -5694,7 +5694,7 @@
       </c>
       <c r="E73" s="34" t="str">
         <f>Futures_3M!I40</f>
-        <v>EUR_YC3MRH_FUT3MM1#0002</v>
+        <v>EUR_YC3MRH_FUT3MM1#0007</v>
       </c>
       <c r="F73" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="E74" s="34" t="str">
         <f>Futures_3M!I41</f>
-        <v>EUR_YC3MRH_FUT3MU1#0002</v>
+        <v>EUR_YC3MRH_FUT3MU1#0007</v>
       </c>
       <c r="F74" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="E75" s="34" t="str">
         <f>Futures_3M!I42</f>
-        <v>EUR_YC3MRH_FUT3MZ1#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ1#0007</v>
       </c>
       <c r="F75" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="E76" s="34" t="str">
         <f>Futures_3M!I43</f>
-        <v>EUR_YC3MRH_FUT3MH2#0002</v>
+        <v>EUR_YC3MRH_FUT3MH2#0007</v>
       </c>
       <c r="F76" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="E77" s="27" t="str">
         <f>Futures_3M!I44</f>
-        <v>EUR_YC3MRH_FUT3MM2#0002</v>
+        <v>EUR_YC3MRH_FUT3MM2#0007</v>
       </c>
       <c r="F77" s="47" t="e">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
@@ -6591,11 +6591,11 @@
       </c>
       <c r="E96" s="34" t="str">
         <f>Swaps_3M!L6</f>
-        <v>EUR_YC3MRH_AB3E1Y#0002</v>
+        <v>EUR_YC3MRH_AB3E1Y#0007</v>
       </c>
       <c r="F96" s="33">
         <f>_xll.qlRateHelperQuoteValue($E96,Trigger)</f>
-        <v>3.2699999999999995E-3</v>
+        <v>3.0399999999999997E-3</v>
       </c>
       <c r="G96" s="33">
         <f>_xll.qlSwapRateHelperSpread($E96,Trigger)</f>
@@ -6620,7 +6620,7 @@
       </c>
       <c r="N96" s="37">
         <f t="shared" ref="N96:N132" si="7">IF(G96=G133,F96-F133,"--")</f>
-        <v>0</v>
+        <v>4.9999999999993626E-6</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.2">
@@ -6637,11 +6637,11 @@
       </c>
       <c r="E97" s="34" t="str">
         <f>Swaps_3M!L7</f>
-        <v>EUR_YC3MRH_AB3E15M#0002</v>
+        <v>EUR_YC3MRH_AB3E15M#0007</v>
       </c>
       <c r="F97" s="33">
         <f>_xll.qlRateHelperQuoteValue($E97,Trigger)</f>
-        <v>3.5899999999999999E-3</v>
+        <v>3.0899999999999999E-3</v>
       </c>
       <c r="G97" s="33">
         <f>_xll.qlSwapRateHelperSpread($E97,Trigger)</f>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="N97" s="37">
         <f t="shared" si="7"/>
-        <v>1.4100000000000007E-4</v>
+        <v>2.3399999999999897E-4</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.2">
@@ -6683,11 +6683,11 @@
       </c>
       <c r="E98" s="34" t="str">
         <f>Swaps_3M!L8</f>
-        <v>EUR_YC3MRH_AB3E18M#0002</v>
+        <v>EUR_YC3MRH_AB3E18M#0007</v>
       </c>
       <c r="F98" s="33">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
-        <v>3.9199999999999999E-3</v>
+        <v>3.2100000000000002E-3</v>
       </c>
       <c r="G98" s="33">
         <f>_xll.qlSwapRateHelperSpread($E98,Trigger)</f>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="N98" s="37">
         <f t="shared" si="7"/>
-        <v>9.9999999999995925E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.2">
@@ -6729,11 +6729,11 @@
       </c>
       <c r="E99" s="34" t="str">
         <f>Swaps_3M!L9</f>
-        <v>EUR_YC3MRH_AB3E21M#0002</v>
+        <v>EUR_YC3MRH_AB3E21M#0007</v>
       </c>
       <c r="F99" s="33">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
-        <v>4.2300000000000003E-3</v>
+        <v>3.4000000000000002E-3</v>
       </c>
       <c r="G99" s="33">
         <f>_xll.qlSwapRateHelperSpread($E99,Trigger)</f>
@@ -6758,7 +6758,7 @@
       </c>
       <c r="N99" s="37">
         <f t="shared" si="7"/>
-        <v>1.0999999999999985E-4</v>
+        <v>1.7300000000000041E-4</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.2">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E100" s="34" t="str">
         <f>Swaps_3M!L10</f>
-        <v>EUR_YC3MRH_AB3E2Y#0002</v>
+        <v>EUR_YC3MRH_AB3E2Y#0007</v>
       </c>
       <c r="F100" s="33">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
-        <v>4.5699999999999994E-3</v>
+        <v>3.65E-3</v>
       </c>
       <c r="G100" s="33">
         <f>_xll.qlSwapRateHelperSpread($E100,Trigger)</f>
@@ -6804,7 +6804,7 @@
       </c>
       <c r="N100" s="37">
         <f t="shared" si="7"/>
-        <v>4.9999999999989289E-6</v>
+        <v>4.3368086899420177E-19</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.2">
@@ -6821,11 +6821,11 @@
       </c>
       <c r="E101" s="34" t="str">
         <f>Swaps_3M!L11</f>
-        <v>EUR_YC3MRH_AB3E3Y#0002</v>
+        <v>EUR_YC3MRH_AB3E3Y#0007</v>
       </c>
       <c r="F101" s="33">
         <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
-        <v>6.2100000000000002E-3</v>
+        <v>5.2700000000000004E-3</v>
       </c>
       <c r="G101" s="33">
         <f>_xll.qlSwapRateHelperSpread($E101,Trigger)</f>
@@ -6850,7 +6850,7 @@
       </c>
       <c r="N101" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5.0000000000006636E-6</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.2">
@@ -6867,11 +6867,11 @@
       </c>
       <c r="E102" s="34" t="str">
         <f>Swaps_3M!L12</f>
-        <v>EUR_YC3MRH_AB3E4Y#0002</v>
+        <v>EUR_YC3MRH_AB3E4Y#0007</v>
       </c>
       <c r="F102" s="33">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
-        <v>8.3800000000000003E-3</v>
+        <v>7.4900000000000001E-3</v>
       </c>
       <c r="G102" s="33">
         <f>_xll.qlSwapRateHelperSpread($E102,Trigger)</f>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="N102" s="37">
         <f t="shared" si="7"/>
-        <v>4.9999999999997963E-6</v>
+        <v>8.6736173798840355E-19</v>
       </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.2">
@@ -6913,11 +6913,11 @@
       </c>
       <c r="E103" s="34" t="str">
         <f>Swaps_3M!L13</f>
-        <v>EUR_YC3MRH_AB3E5Y#0002</v>
+        <v>EUR_YC3MRH_AB3E5Y#0007</v>
       </c>
       <c r="F103" s="33">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
-        <v>1.065E-2</v>
+        <v>9.8099999999999993E-3</v>
       </c>
       <c r="G103" s="33">
         <f>_xll.qlSwapRateHelperSpread($E103,Trigger)</f>
@@ -6959,11 +6959,11 @@
       </c>
       <c r="E104" s="34" t="str">
         <f>Swaps_3M!L14</f>
-        <v>EUR_YC3MRH_AB3E6Y#0002</v>
+        <v>EUR_YC3MRH_AB3E6Y#0007</v>
       </c>
       <c r="F104" s="33">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
-        <v>1.2629999999999999E-2</v>
+        <v>1.201E-2</v>
       </c>
       <c r="G104" s="33">
         <f>_xll.qlSwapRateHelperSpread($E104,Trigger)</f>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="N104" s="37">
         <f t="shared" si="7"/>
-        <v>4.9999999999997963E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.2">
@@ -7005,11 +7005,11 @@
       </c>
       <c r="E105" s="34" t="str">
         <f>Swaps_3M!L15</f>
-        <v>EUR_YC3MRH_AB3E7Y#0002</v>
+        <v>EUR_YC3MRH_AB3E7Y#0007</v>
       </c>
       <c r="F105" s="33">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
-        <v>1.439E-2</v>
+        <v>1.405E-2</v>
       </c>
       <c r="G105" s="33">
         <f>_xll.qlSwapRateHelperSpread($E105,Trigger)</f>
@@ -7034,7 +7034,7 @@
       </c>
       <c r="N105" s="37">
         <f t="shared" si="7"/>
-        <v>1.7347234759768071E-18</v>
+        <v>5.000000000001531E-6</v>
       </c>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.2">
@@ -7051,11 +7051,11 @@
       </c>
       <c r="E106" s="34" t="str">
         <f>Swaps_3M!L16</f>
-        <v>EUR_YC3MRH_AB3E8Y#0002</v>
+        <v>EUR_YC3MRH_AB3E8Y#0007</v>
       </c>
       <c r="F106" s="33">
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
-        <v>1.5950000000000002E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="G106" s="33">
         <f>_xll.qlSwapRateHelperSpread($E106,Trigger)</f>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="N106" s="37">
         <f t="shared" si="7"/>
-        <v>3.4694469519536142E-18</v>
+        <v>5.000000000001531E-6</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.2">
@@ -7097,11 +7097,11 @@
       </c>
       <c r="E107" s="34" t="str">
         <f>Swaps_3M!L17</f>
-        <v>EUR_YC3MRH_AB3E9Y#0002</v>
+        <v>EUR_YC3MRH_AB3E9Y#0007</v>
       </c>
       <c r="F107" s="33">
         <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
-        <v>1.7399999999999999E-2</v>
+        <v>1.755E-2</v>
       </c>
       <c r="G107" s="33">
         <f>_xll.qlSwapRateHelperSpread($E107,Trigger)</f>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="N107" s="37">
         <f t="shared" si="7"/>
-        <v>4.9999999999980616E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.2">
@@ -7143,11 +7143,11 @@
       </c>
       <c r="E108" s="34" t="str">
         <f>Swaps_3M!L18</f>
-        <v>EUR_YC3MRH_AB3E10Y#0002</v>
+        <v>EUR_YC3MRH_AB3E10Y#0007</v>
       </c>
       <c r="F108" s="33">
         <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
-        <v>1.8710000000000001E-2</v>
+        <v>1.9019999999999999E-2</v>
       </c>
       <c r="G108" s="33">
         <f>_xll.qlSwapRateHelperSpread($E108,Trigger)</f>
@@ -7172,7 +7172,7 @@
       </c>
       <c r="N108" s="37">
         <f t="shared" si="7"/>
-        <v>-9.9999999999995925E-6</v>
+        <v>4.9999999999980616E-6</v>
       </c>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.2">
@@ -7189,11 +7189,11 @@
       </c>
       <c r="E109" s="34" t="str">
         <f>Swaps_3M!L19</f>
-        <v>EUR_YC3MRH_AB3E11Y#0002</v>
+        <v>EUR_YC3MRH_AB3E11Y#0007</v>
       </c>
       <c r="F109" s="33">
         <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
-        <v>1.9860000000000003E-2</v>
+        <v>2.0289999999999999E-2</v>
       </c>
       <c r="G109" s="33">
         <f>_xll.qlSwapRateHelperSpread($E109,Trigger)</f>
@@ -7218,7 +7218,7 @@
       </c>
       <c r="N109" s="37">
         <f t="shared" si="7"/>
-        <v>-4.9999999999980616E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.2">
@@ -7235,11 +7235,11 @@
       </c>
       <c r="E110" s="34" t="str">
         <f>Swaps_3M!L20</f>
-        <v>EUR_YC3MRH_AB3E12Y#0002</v>
+        <v>EUR_YC3MRH_AB3E12Y#0007</v>
       </c>
       <c r="F110" s="33">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
-        <v>2.0840000000000001E-2</v>
+        <v>2.1400000000000002E-2</v>
       </c>
       <c r="G110" s="33">
         <f>_xll.qlSwapRateHelperSpread($E110,Trigger)</f>
@@ -7264,7 +7264,7 @@
       </c>
       <c r="N110" s="37">
         <f t="shared" si="7"/>
-        <v>-4.9999999999980616E-6</v>
+        <v>5.000000000001531E-6</v>
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.2">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="E111" s="34" t="str">
         <f>Swaps_3M!L21</f>
-        <v>EUR_YC3MRH_AB3E13Y#0002</v>
+        <v>EUR_YC3MRH_AB3E13Y#0007</v>
       </c>
       <c r="F111" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E111,Trigger)</f>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="E112" s="34" t="str">
         <f>Swaps_3M!L22</f>
-        <v>EUR_YC3MRH_AB3E14Y#0002</v>
+        <v>EUR_YC3MRH_AB3E14Y#0007</v>
       </c>
       <c r="F112" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
@@ -7373,11 +7373,11 @@
       </c>
       <c r="E113" s="34" t="str">
         <f>Swaps_3M!L23</f>
-        <v>EUR_YC3MRH_AB3E15Y#0002</v>
+        <v>EUR_YC3MRH_AB3E15Y#0007</v>
       </c>
       <c r="F113" s="33">
         <f>_xll.qlRateHelperQuoteValue($E113,Trigger)</f>
-        <v>2.2889999999999997E-2</v>
+        <v>2.3780000000000003E-2</v>
       </c>
       <c r="G113" s="33">
         <f>_xll.qlSwapRateHelperSpread($E113,Trigger)</f>
@@ -7402,7 +7402,7 @@
       </c>
       <c r="N113" s="37">
         <f t="shared" si="7"/>
-        <v>-1.0000000000003062E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.2">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="E114" s="34" t="str">
         <f>Swaps_3M!L24</f>
-        <v>EUR_YC3MRH_AB3E16Y#0002</v>
+        <v>EUR_YC3MRH_AB3E16Y#0007</v>
       </c>
       <c r="F114" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E114,Trigger)</f>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="E115" s="34" t="str">
         <f>Swaps_3M!L25</f>
-        <v>EUR_YC3MRH_AB3E17Y#0002</v>
+        <v>EUR_YC3MRH_AB3E17Y#0007</v>
       </c>
       <c r="F115" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="E116" s="34" t="str">
         <f>Swaps_3M!L26</f>
-        <v>EUR_YC3MRH_AB3E18Y#0002</v>
+        <v>EUR_YC3MRH_AB3E18Y#0007</v>
       </c>
       <c r="F116" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E116,Trigger)</f>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="E117" s="34" t="str">
         <f>Swaps_3M!L27</f>
-        <v>EUR_YC3MRH_AB3E19Y#0002</v>
+        <v>EUR_YC3MRH_AB3E19Y#0007</v>
       </c>
       <c r="F117" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E117,Trigger)</f>
@@ -7603,11 +7603,11 @@
       </c>
       <c r="E118" s="34" t="str">
         <f>Swaps_3M!L28</f>
-        <v>EUR_YC3MRH_AB3E20Y#0002</v>
+        <v>EUR_YC3MRH_AB3E20Y#0007</v>
       </c>
       <c r="F118" s="33">
         <f>_xll.qlRateHelperQuoteValue($E118,Trigger)</f>
-        <v>2.4119999999999999E-2</v>
+        <v>2.545E-2</v>
       </c>
       <c r="G118" s="33">
         <f>_xll.qlSwapRateHelperSpread($E118,Trigger)</f>
@@ -7632,7 +7632,7 @@
       </c>
       <c r="N118" s="37">
         <f t="shared" si="7"/>
-        <v>-9.9999999999995925E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.2">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="E119" s="34" t="str">
         <f>Swaps_3M!L29</f>
-        <v>EUR_YC3MRH_AB3E21Y#0002</v>
+        <v>EUR_YC3MRH_AB3E21Y#0007</v>
       </c>
       <c r="F119" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E119,Trigger)</f>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="E120" s="34" t="str">
         <f>Swaps_3M!L30</f>
-        <v>EUR_YC3MRH_AB3E22Y#0002</v>
+        <v>EUR_YC3MRH_AB3E22Y#0007</v>
       </c>
       <c r="F120" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="E121" s="34" t="str">
         <f>Swaps_3M!L31</f>
-        <v>EUR_YC3MRH_AB3E23Y#0002</v>
+        <v>EUR_YC3MRH_AB3E23Y#0007</v>
       </c>
       <c r="F121" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
@@ -7787,7 +7787,7 @@
       </c>
       <c r="E122" s="34" t="str">
         <f>Swaps_3M!L32</f>
-        <v>EUR_YC3MRH_AB3E24Y#0002</v>
+        <v>EUR_YC3MRH_AB3E24Y#0007</v>
       </c>
       <c r="F122" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
@@ -7833,11 +7833,11 @@
       </c>
       <c r="E123" s="34" t="str">
         <f>Swaps_3M!L33</f>
-        <v>EUR_YC3MRH_AB3E25Y#0002</v>
+        <v>EUR_YC3MRH_AB3E25Y#0007</v>
       </c>
       <c r="F123" s="33">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
-        <v>2.4340000000000001E-2</v>
+        <v>2.5939999999999998E-2</v>
       </c>
       <c r="G123" s="33">
         <f>_xll.qlSwapRateHelperSpread($E123,Trigger)</f>
@@ -7862,7 +7862,7 @@
       </c>
       <c r="N123" s="37">
         <f t="shared" si="7"/>
-        <v>-4.9999999999980616E-6</v>
+        <v>4.9999999999945921E-6</v>
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.2">
@@ -7879,7 +7879,7 @@
       </c>
       <c r="E124" s="34" t="str">
         <f>Swaps_3M!L34</f>
-        <v>EUR_YC3MRH_AB3E26Y#0002</v>
+        <v>EUR_YC3MRH_AB3E26Y#0007</v>
       </c>
       <c r="F124" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E124,Trigger)</f>
@@ -7925,7 +7925,7 @@
       </c>
       <c r="E125" s="34" t="str">
         <f>Swaps_3M!L35</f>
-        <v>EUR_YC3MRH_AB3E27Y#0002</v>
+        <v>EUR_YC3MRH_AB3E27Y#0007</v>
       </c>
       <c r="F125" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="E126" s="34" t="str">
         <f>Swaps_3M!L36</f>
-        <v>EUR_YC3MRH_AB3E28Y#0002</v>
+        <v>EUR_YC3MRH_AB3E28Y#0007</v>
       </c>
       <c r="F126" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="E127" s="34" t="str">
         <f>Swaps_3M!L37</f>
-        <v>EUR_YC3MRH_AB3E29Y#0002</v>
+        <v>EUR_YC3MRH_AB3E29Y#0007</v>
       </c>
       <c r="F127" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
@@ -8063,11 +8063,11 @@
       </c>
       <c r="E128" s="34" t="str">
         <f>Swaps_3M!L38</f>
-        <v>EUR_YC3MRH_AB3E30Y#0002</v>
+        <v>EUR_YC3MRH_AB3E30Y#0007</v>
       </c>
       <c r="F128" s="33">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
-        <v>2.4310000000000002E-2</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="G128" s="33">
         <f>_xll.qlSwapRateHelperSpread($E128,Trigger)</f>
@@ -8092,7 +8092,7 @@
       </c>
       <c r="N128" s="37">
         <f t="shared" si="7"/>
-        <v>-9.9999999999961231E-6</v>
+        <v>5.000000000001531E-6</v>
       </c>
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.2">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="E129" s="34" t="str">
         <f>Swaps_3M!L39</f>
-        <v>EUR_YC3MRH_AB3E35Y#0002</v>
+        <v>EUR_YC3MRH_AB3E35Y#0007</v>
       </c>
       <c r="F129" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
@@ -8155,11 +8155,11 @@
       </c>
       <c r="E130" s="34" t="str">
         <f>Swaps_3M!L40</f>
-        <v>EUR_YC3MRH_AB3E40Y#0002</v>
+        <v>EUR_YC3MRH_AB3E40Y#0007</v>
       </c>
       <c r="F130" s="33">
         <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
-        <v>2.4809999999999999E-2</v>
+        <v>2.632E-2</v>
       </c>
       <c r="G130" s="33">
         <f>_xll.qlSwapRateHelperSpread($E130,Trigger)</f>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="N130" s="37">
         <f t="shared" si="7"/>
-        <v>-1.0000000000003062E-5</v>
+        <v>4.9999999999980616E-6</v>
       </c>
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.2">
@@ -8201,11 +8201,11 @@
       </c>
       <c r="E131" s="34" t="str">
         <f>Swaps_3M!L41</f>
-        <v>EUR_YC3MRH_AB3E50Y#0002</v>
+        <v>EUR_YC3MRH_AB3E50Y#0007</v>
       </c>
       <c r="F131" s="33">
         <f>_xll.qlRateHelperQuoteValue($E131,Trigger)</f>
-        <v>2.5300000000000003E-2</v>
+        <v>2.656E-2</v>
       </c>
       <c r="G131" s="33">
         <f>_xll.qlSwapRateHelperSpread($E131,Trigger)</f>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="N131" s="37">
         <f t="shared" si="7"/>
-        <v>-4.9999999999980616E-6</v>
+        <v>5.000000000001531E-6</v>
       </c>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.2">
@@ -8247,11 +8247,11 @@
       </c>
       <c r="E132" s="27" t="str">
         <f>Swaps_3M!L42</f>
-        <v>EUR_YC3MRH_AB3E60Y#0002</v>
+        <v>EUR_YC3MRH_AB3E60Y#0007</v>
       </c>
       <c r="F132" s="26">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
-        <v>2.564E-2</v>
+        <v>2.6720000000000001E-2</v>
       </c>
       <c r="G132" s="26">
         <f>_xll.qlSwapRateHelperSpread($E132,Trigger)</f>
@@ -8276,7 +8276,7 @@
       </c>
       <c r="N132" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.9999999999970615E-6</v>
       </c>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.2">
@@ -8293,11 +8293,11 @@
       </c>
       <c r="E133" s="34" t="str">
         <f>SwapsFromBasis_3M!L6</f>
-        <v>EUR_YC3MRH_AB3EBASIS1Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS1Y#0007</v>
       </c>
       <c r="F133" s="33">
         <f>_xll.qlRateHelperQuoteValue($E133,Trigger)</f>
-        <v>3.2699999999999995E-3</v>
+        <v>3.0350000000000004E-3</v>
       </c>
       <c r="G133" s="33">
         <f>_xll.qlSwapRateHelperSpread($E133,Trigger)</f>
@@ -8335,11 +8335,11 @@
       </c>
       <c r="E134" s="34" t="str">
         <f>SwapsFromBasis_3M!L7</f>
-        <v>EUR_YC3MRH_AB3EBASIS15M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS15M#0007</v>
       </c>
       <c r="F134" s="33">
         <f>_xll.qlRateHelperQuoteValue($E134,Trigger)</f>
-        <v>3.4489999999999998E-3</v>
+        <v>2.8560000000000009E-3</v>
       </c>
       <c r="G134" s="33">
         <f>_xll.qlSwapRateHelperSpread($E134,Trigger)</f>
@@ -8377,11 +8377,11 @@
       </c>
       <c r="E135" s="34" t="str">
         <f>SwapsFromBasis_3M!L8</f>
-        <v>EUR_YC3MRH_AB3EBASIS18M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS18M#0007</v>
       </c>
       <c r="F135" s="33">
         <f>_xll.qlRateHelperQuoteValue($E135,Trigger)</f>
-        <v>3.9100000000000003E-3</v>
+        <v>3.2100000000000002E-3</v>
       </c>
       <c r="G135" s="33">
         <f>_xll.qlSwapRateHelperSpread($E135,Trigger)</f>
@@ -8419,11 +8419,11 @@
       </c>
       <c r="E136" s="34" t="str">
         <f>SwapsFromBasis_3M!L9</f>
-        <v>EUR_YC3MRH_AB3EBASIS21M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS21M#0007</v>
       </c>
       <c r="F136" s="33">
         <f>_xll.qlRateHelperQuoteValue($E136,Trigger)</f>
-        <v>4.1200000000000004E-3</v>
+        <v>3.2269999999999998E-3</v>
       </c>
       <c r="G136" s="33">
         <f>_xll.qlSwapRateHelperSpread($E136,Trigger)</f>
@@ -8461,11 +8461,11 @@
       </c>
       <c r="E137" s="34" t="str">
         <f>SwapsFromBasis_3M!L10</f>
-        <v>EUR_YC3MRH_AB3EBASIS2Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS2Y#0007</v>
       </c>
       <c r="F137" s="33">
         <f>_xll.qlRateHelperQuoteValue($E137,Trigger)</f>
-        <v>4.5650000000000005E-3</v>
+        <v>3.6499999999999996E-3</v>
       </c>
       <c r="G137" s="33">
         <f>_xll.qlSwapRateHelperSpread($E137,Trigger)</f>
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E138" s="34" t="str">
         <f>SwapsFromBasis_3M!L11</f>
-        <v>EUR_YC3MRH_AB3EBASIS3Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS3Y#0007</v>
       </c>
       <c r="F138" s="33">
         <f>_xll.qlRateHelperQuoteValue($E138,Trigger)</f>
-        <v>6.2100000000000002E-3</v>
+        <v>5.2649999999999997E-3</v>
       </c>
       <c r="G138" s="33">
         <f>_xll.qlSwapRateHelperSpread($E138,Trigger)</f>
@@ -8545,11 +8545,11 @@
       </c>
       <c r="E139" s="34" t="str">
         <f>SwapsFromBasis_3M!L12</f>
-        <v>EUR_YC3MRH_AB3EBASIS4Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS4Y#0007</v>
       </c>
       <c r="F139" s="33">
         <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
-        <v>8.3750000000000005E-3</v>
+        <v>7.4899999999999993E-3</v>
       </c>
       <c r="G139" s="33">
         <f>_xll.qlSwapRateHelperSpread($E139,Trigger)</f>
@@ -8587,11 +8587,11 @@
       </c>
       <c r="E140" s="34" t="str">
         <f>SwapsFromBasis_3M!L13</f>
-        <v>EUR_YC3MRH_AB3EBASIS5Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS5Y#0007</v>
       </c>
       <c r="F140" s="33">
         <f>_xll.qlRateHelperQuoteValue($E140,Trigger)</f>
-        <v>1.0650000000000001E-2</v>
+        <v>9.810000000000001E-3</v>
       </c>
       <c r="G140" s="33">
         <f>_xll.qlSwapRateHelperSpread($E140,Trigger)</f>
@@ -8629,11 +8629,11 @@
       </c>
       <c r="E141" s="34" t="str">
         <f>SwapsFromBasis_3M!L14</f>
-        <v>EUR_YC3MRH_AB3EBASIS6Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS6Y#0007</v>
       </c>
       <c r="F141" s="33">
         <f>_xll.qlRateHelperQuoteValue($E141,Trigger)</f>
-        <v>1.2624999999999999E-2</v>
+        <v>1.201E-2</v>
       </c>
       <c r="G141" s="33">
         <f>_xll.qlSwapRateHelperSpread($E141,Trigger)</f>
@@ -8671,11 +8671,11 @@
       </c>
       <c r="E142" s="34" t="str">
         <f>SwapsFromBasis_3M!L15</f>
-        <v>EUR_YC3MRH_AB3EBASIS7Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS7Y#0007</v>
       </c>
       <c r="F142" s="33">
         <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
-        <v>1.4389999999999998E-2</v>
+        <v>1.4044999999999998E-2</v>
       </c>
       <c r="G142" s="33">
         <f>_xll.qlSwapRateHelperSpread($E142,Trigger)</f>
@@ -8713,11 +8713,11 @@
       </c>
       <c r="E143" s="34" t="str">
         <f>SwapsFromBasis_3M!L16</f>
-        <v>EUR_YC3MRH_AB3EBASIS8Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS8Y#0007</v>
       </c>
       <c r="F143" s="33">
         <f>_xll.qlRateHelperQuoteValue($E143,Trigger)</f>
-        <v>1.5949999999999999E-2</v>
+        <v>1.5894999999999999E-2</v>
       </c>
       <c r="G143" s="33">
         <f>_xll.qlSwapRateHelperSpread($E143,Trigger)</f>
@@ -8755,11 +8755,11 @@
       </c>
       <c r="E144" s="34" t="str">
         <f>SwapsFromBasis_3M!L17</f>
-        <v>EUR_YC3MRH_AB3EBASIS9Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS9Y#0007</v>
       </c>
       <c r="F144" s="33">
         <f>_xll.qlRateHelperQuoteValue($E144,Trigger)</f>
-        <v>1.7395000000000001E-2</v>
+        <v>1.755E-2</v>
       </c>
       <c r="G144" s="33">
         <f>_xll.qlSwapRateHelperSpread($E144,Trigger)</f>
@@ -8797,11 +8797,11 @@
       </c>
       <c r="E145" s="34" t="str">
         <f>SwapsFromBasis_3M!L18</f>
-        <v>EUR_YC3MRH_AB3EBASIS10Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS10Y#0007</v>
       </c>
       <c r="F145" s="33">
         <f>_xll.qlRateHelperQuoteValue($E145,Trigger)</f>
-        <v>1.8720000000000001E-2</v>
+        <v>1.9015000000000001E-2</v>
       </c>
       <c r="G145" s="33">
         <f>_xll.qlSwapRateHelperSpread($E145,Trigger)</f>
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E146" s="34" t="str">
         <f>SwapsFromBasis_3M!L19</f>
-        <v>EUR_YC3MRH_AB3EBASIS11Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS11Y#0007</v>
       </c>
       <c r="F146" s="33">
         <f>_xll.qlRateHelperQuoteValue($E146,Trigger)</f>
-        <v>1.9865000000000001E-2</v>
+        <v>2.0289999999999999E-2</v>
       </c>
       <c r="G146" s="33">
         <f>_xll.qlSwapRateHelperSpread($E146,Trigger)</f>
@@ -8881,11 +8881,11 @@
       </c>
       <c r="E147" s="34" t="str">
         <f>SwapsFromBasis_3M!L20</f>
-        <v>EUR_YC3MRH_AB3EBASIS12Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS12Y#0007</v>
       </c>
       <c r="F147" s="33">
         <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
-        <v>2.0844999999999999E-2</v>
+        <v>2.1395000000000001E-2</v>
       </c>
       <c r="G147" s="33">
         <f>_xll.qlSwapRateHelperSpread($E147,Trigger)</f>
@@ -8923,11 +8923,11 @@
       </c>
       <c r="E148" s="34" t="str">
         <f>SwapsFromBasis_3M!L21</f>
-        <v>EUR_YC3MRH_AB3EBASIS13Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS13Y#0007</v>
       </c>
       <c r="F148" s="33">
         <f>_xll.qlRateHelperQuoteValue($E148,Trigger)</f>
-        <v>2.1675999999999997E-2</v>
+        <v>2.2339999999999999E-2</v>
       </c>
       <c r="G148" s="33">
         <f>_xll.qlSwapRateHelperSpread($E148,Trigger)</f>
@@ -8965,11 +8965,11 @@
       </c>
       <c r="E149" s="34" t="str">
         <f>SwapsFromBasis_3M!L22</f>
-        <v>EUR_YC3MRH_AB3EBASIS14Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS14Y#0007</v>
       </c>
       <c r="F149" s="33">
         <f>_xll.qlRateHelperQuoteValue($E149,Trigger)</f>
-        <v>2.2359000000000004E-2</v>
+        <v>2.3132E-2</v>
       </c>
       <c r="G149" s="33">
         <f>_xll.qlSwapRateHelperSpread($E149,Trigger)</f>
@@ -9007,11 +9007,11 @@
       </c>
       <c r="E150" s="34" t="str">
         <f>SwapsFromBasis_3M!L23</f>
-        <v>EUR_YC3MRH_AB3EBASIS15Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS15Y#0007</v>
       </c>
       <c r="F150" s="33">
         <f>_xll.qlRateHelperQuoteValue($E150,Trigger)</f>
-        <v>2.29E-2</v>
+        <v>2.3780000000000003E-2</v>
       </c>
       <c r="G150" s="33">
         <f>_xll.qlSwapRateHelperSpread($E150,Trigger)</f>
@@ -9049,11 +9049,11 @@
       </c>
       <c r="E151" s="34" t="str">
         <f>SwapsFromBasis_3M!L24</f>
-        <v>EUR_YC3MRH_AB3EBASIS16Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS16Y#0007</v>
       </c>
       <c r="F151" s="33">
         <f>_xll.qlRateHelperQuoteValue($E151,Trigger)</f>
-        <v>2.3319000000000003E-2</v>
+        <v>2.4301999999999997E-2</v>
       </c>
       <c r="G151" s="33">
         <f>_xll.qlSwapRateHelperSpread($E151,Trigger)</f>
@@ -9091,11 +9091,11 @@
       </c>
       <c r="E152" s="34" t="str">
         <f>SwapsFromBasis_3M!L25</f>
-        <v>EUR_YC3MRH_AB3EBASIS17Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS17Y#0007</v>
       </c>
       <c r="F152" s="33">
         <f>_xll.qlRateHelperQuoteValue($E152,Trigger)</f>
-        <v>2.3635E-2</v>
+        <v>2.4707000000000003E-2</v>
       </c>
       <c r="G152" s="33">
         <f>_xll.qlSwapRateHelperSpread($E152,Trigger)</f>
@@ -9133,11 +9133,11 @@
       </c>
       <c r="E153" s="34" t="str">
         <f>SwapsFromBasis_3M!L26</f>
-        <v>EUR_YC3MRH_AB3EBASIS18Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS18Y#0007</v>
       </c>
       <c r="F153" s="33">
         <f>_xll.qlRateHelperQuoteValue($E153,Trigger)</f>
-        <v>2.3858999999999998E-2</v>
+        <v>2.5018000000000002E-2</v>
       </c>
       <c r="G153" s="33">
         <f>_xll.qlSwapRateHelperSpread($E153,Trigger)</f>
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E154" s="34" t="str">
         <f>SwapsFromBasis_3M!L27</f>
-        <v>EUR_YC3MRH_AB3EBASIS19Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS19Y#0007</v>
       </c>
       <c r="F154" s="33">
         <f>_xll.qlRateHelperQuoteValue($E154,Trigger)</f>
-        <v>2.4020000000000003E-2</v>
+        <v>2.5266E-2</v>
       </c>
       <c r="G154" s="33">
         <f>_xll.qlSwapRateHelperSpread($E154,Trigger)</f>
@@ -9217,11 +9217,11 @@
       </c>
       <c r="E155" s="34" t="str">
         <f>SwapsFromBasis_3M!L28</f>
-        <v>EUR_YC3MRH_AB3EBASIS20Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS20Y#0007</v>
       </c>
       <c r="F155" s="33">
         <f>_xll.qlRateHelperQuoteValue($E155,Trigger)</f>
-        <v>2.4129999999999999E-2</v>
+        <v>2.545E-2</v>
       </c>
       <c r="G155" s="33">
         <f>_xll.qlSwapRateHelperSpread($E155,Trigger)</f>
@@ -9259,11 +9259,11 @@
       </c>
       <c r="E156" s="34" t="str">
         <f>SwapsFromBasis_3M!L29</f>
-        <v>EUR_YC3MRH_AB3EBASIS21Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS21Y#0007</v>
       </c>
       <c r="F156" s="33">
         <f>_xll.qlRateHelperQuoteValue($E156,Trigger)</f>
-        <v>2.4207999999999997E-2</v>
+        <v>2.5611999999999999E-2</v>
       </c>
       <c r="G156" s="33">
         <f>_xll.qlSwapRateHelperSpread($E156,Trigger)</f>
@@ -9301,11 +9301,11 @@
       </c>
       <c r="E157" s="34" t="str">
         <f>SwapsFromBasis_3M!L30</f>
-        <v>EUR_YC3MRH_AB3EBASIS22Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS22Y#0007</v>
       </c>
       <c r="F157" s="33">
         <f>_xll.qlRateHelperQuoteValue($E157,Trigger)</f>
-        <v>2.4274000000000004E-2</v>
+        <v>2.5723000000000003E-2</v>
       </c>
       <c r="G157" s="33">
         <f>_xll.qlSwapRateHelperSpread($E157,Trigger)</f>
@@ -9343,11 +9343,11 @@
       </c>
       <c r="E158" s="34" t="str">
         <f>SwapsFromBasis_3M!L31</f>
-        <v>EUR_YC3MRH_AB3EBASIS23Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS23Y#0007</v>
       </c>
       <c r="F158" s="33">
         <f>_xll.qlRateHelperQuoteValue($E158,Trigger)</f>
-        <v>2.4318999999999997E-2</v>
+        <v>2.5822000000000001E-2</v>
       </c>
       <c r="G158" s="33">
         <f>_xll.qlSwapRateHelperSpread($E158,Trigger)</f>
@@ -9385,11 +9385,11 @@
       </c>
       <c r="E159" s="34" t="str">
         <f>SwapsFromBasis_3M!L32</f>
-        <v>EUR_YC3MRH_AB3EBASIS24Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS24Y#0007</v>
       </c>
       <c r="F159" s="33">
         <f>_xll.qlRateHelperQuoteValue($E159,Trigger)</f>
-        <v>2.4331999999999996E-2</v>
+        <v>2.5888999999999999E-2</v>
       </c>
       <c r="G159" s="33">
         <f>_xll.qlSwapRateHelperSpread($E159,Trigger)</f>
@@ -9427,11 +9427,11 @@
       </c>
       <c r="E160" s="34" t="str">
         <f>SwapsFromBasis_3M!L33</f>
-        <v>EUR_YC3MRH_AB3EBASIS25Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS25Y#0007</v>
       </c>
       <c r="F160" s="33">
         <f>_xll.qlRateHelperQuoteValue($E160,Trigger)</f>
-        <v>2.4344999999999999E-2</v>
+        <v>2.5935000000000003E-2</v>
       </c>
       <c r="G160" s="33">
         <f>_xll.qlSwapRateHelperSpread($E160,Trigger)</f>
@@ -9469,11 +9469,11 @@
       </c>
       <c r="E161" s="34" t="str">
         <f>SwapsFromBasis_3M!L34</f>
-        <v>EUR_YC3MRH_AB3EBASIS26Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS26Y#0007</v>
       </c>
       <c r="F161" s="33">
         <f>_xll.qlRateHelperQuoteValue($E161,Trigger)</f>
-        <v>2.4347000000000001E-2</v>
+        <v>2.5959000000000003E-2</v>
       </c>
       <c r="G161" s="33">
         <f>_xll.qlSwapRateHelperSpread($E161,Trigger)</f>
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E162" s="34" t="str">
         <f>SwapsFromBasis_3M!L35</f>
-        <v>EUR_YC3MRH_AB3EBASIS27Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS27Y#0007</v>
       </c>
       <c r="F162" s="33">
         <f>_xll.qlRateHelperQuoteValue($E162,Trigger)</f>
-        <v>2.4339000000000003E-2</v>
+        <v>2.5981999999999998E-2</v>
       </c>
       <c r="G162" s="33">
         <f>_xll.qlSwapRateHelperSpread($E162,Trigger)</f>
@@ -9553,11 +9553,11 @@
       </c>
       <c r="E163" s="34" t="str">
         <f>SwapsFromBasis_3M!L36</f>
-        <v>EUR_YC3MRH_AB3EBASIS28Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS28Y#0007</v>
       </c>
       <c r="F163" s="33">
         <f>_xll.qlRateHelperQuoteValue($E163,Trigger)</f>
-        <v>2.4319E-2</v>
+        <v>2.5984E-2</v>
       </c>
       <c r="G163" s="33">
         <f>_xll.qlSwapRateHelperSpread($E163,Trigger)</f>
@@ -9595,11 +9595,11 @@
       </c>
       <c r="E164" s="34" t="str">
         <f>SwapsFromBasis_3M!L37</f>
-        <v>EUR_YC3MRH_AB3EBASIS29Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS29Y#0007</v>
       </c>
       <c r="F164" s="33">
         <f>_xll.qlRateHelperQuoteValue($E164,Trigger)</f>
-        <v>2.4319999999999998E-2</v>
+        <v>2.5985000000000001E-2</v>
       </c>
       <c r="G164" s="33">
         <f>_xll.qlSwapRateHelperSpread($E164,Trigger)</f>
@@ -9637,11 +9637,11 @@
       </c>
       <c r="E165" s="34" t="str">
         <f>SwapsFromBasis_3M!L38</f>
-        <v>EUR_YC3MRH_AB3EBASIS30Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS30Y#0007</v>
       </c>
       <c r="F165" s="33">
         <f>_xll.qlRateHelperQuoteValue($E165,Trigger)</f>
-        <v>2.4319999999999998E-2</v>
+        <v>2.5995000000000001E-2</v>
       </c>
       <c r="G165" s="33">
         <f>_xll.qlSwapRateHelperSpread($E165,Trigger)</f>
@@ -9679,11 +9679,11 @@
       </c>
       <c r="E166" s="34" t="str">
         <f>SwapsFromBasis_3M!L39</f>
-        <v>EUR_YC3MRH_AB3EBASIS35Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS35Y#0007</v>
       </c>
       <c r="F166" s="33">
         <f>_xll.qlRateHelperQuoteValue($E166,Trigger)</f>
-        <v>2.4505000000000002E-2</v>
+        <v>2.6120000000000001E-2</v>
       </c>
       <c r="G166" s="33">
         <f>_xll.qlSwapRateHelperSpread($E166,Trigger)</f>
@@ -9721,11 +9721,11 @@
       </c>
       <c r="E167" s="34" t="str">
         <f>SwapsFromBasis_3M!L40</f>
-        <v>EUR_YC3MRH_AB3EBASIS40Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS40Y#0007</v>
       </c>
       <c r="F167" s="33">
         <f>_xll.qlRateHelperQuoteValue($E167,Trigger)</f>
-        <v>2.4820000000000002E-2</v>
+        <v>2.6315000000000002E-2</v>
       </c>
       <c r="G167" s="33">
         <f>_xll.qlSwapRateHelperSpread($E167,Trigger)</f>
@@ -9763,11 +9763,11 @@
       </c>
       <c r="E168" s="34" t="str">
         <f>SwapsFromBasis_3M!L41</f>
-        <v>EUR_YC3MRH_AB3EBASIS50Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS50Y#0007</v>
       </c>
       <c r="F168" s="33">
         <f>_xll.qlRateHelperQuoteValue($E168,Trigger)</f>
-        <v>2.5305000000000001E-2</v>
+        <v>2.6554999999999999E-2</v>
       </c>
       <c r="G168" s="33">
         <f>_xll.qlSwapRateHelperSpread($E168,Trigger)</f>
@@ -9805,11 +9805,11 @@
       </c>
       <c r="E169" s="27" t="str">
         <f>SwapsFromBasis_3M!L42</f>
-        <v>EUR_YC3MRH_AB3EBASIS60Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS60Y#0007</v>
       </c>
       <c r="F169" s="26">
         <f>_xll.qlRateHelperQuoteValue($E169,Trigger)</f>
-        <v>2.564E-2</v>
+        <v>2.6716000000000004E-2</v>
       </c>
       <c r="G169" s="26">
         <f>_xll.qlSwapRateHelperSpread($E169,Trigger)</f>
@@ -9850,7 +9850,7 @@
   <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9925,7 +9925,7 @@
         <v>115</v>
       </c>
       <c r="L2" s="37">
-        <v>2.1610000000000002E-3</v>
+        <v>3.0699999999999998E-3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -9961,7 +9961,7 @@
         <v>116</v>
       </c>
       <c r="L3" s="37">
-        <v>2.1159999999999998E-3</v>
+        <v>3.0240000000000002E-3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -9997,7 +9997,7 @@
         <v>117</v>
       </c>
       <c r="L4" s="37">
-        <v>2.1389999999999998E-3</v>
+        <v>2.967E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -10033,7 +10033,7 @@
         <v>118</v>
       </c>
       <c r="L5" s="37">
-        <v>2.2430000000000002E-3</v>
+        <v>2.993E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -10045,49 +10045,49 @@
         <v/>
       </c>
       <c r="D6" s="11" t="str">
-        <v>EUR_YC3MRH_TOM3F1</v>
+        <v>EUR_YC3MRH_FUT3MH4</v>
       </c>
       <c r="E6" s="10">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>2.2500000000000003E-3</v>
-      </c>
-      <c r="F6" s="10" t="str">
+        <v>2.9749999999999499E-3</v>
+      </c>
+      <c r="F6" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
-        <v>--</v>
+        <v>0</v>
       </c>
       <c r="G6" s="9">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41661</v>
+        <v>41717</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41751</v>
+        <v>41809</v>
       </c>
       <c r="I6" s="3">
-        <v>0.99942920371582944</v>
+        <v>0.9987674438824794</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
       <c r="L6" s="37">
-        <v>2.1749999999999999E-3</v>
+        <v>2.9750000000000002E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="str">
         <f>_xll.ohGroup(,_xll.ohPack(D2:D126),Permanent,,ObjectOverwrite)</f>
-        <v>obj_00652#0002</v>
+        <v>obj_00652#0008</v>
       </c>
       <c r="B7" s="12" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
       <c r="D7" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MH4</v>
+        <v>EUR_YC3MRH_FUT3MM4</v>
       </c>
       <c r="E7" s="10">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>2.6249999999999885E-3</v>
+        <v>2.9250000000000664E-3</v>
       </c>
       <c r="F7" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -10095,29 +10095,29 @@
       </c>
       <c r="G7" s="9">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41717</v>
+        <v>41808</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41809</v>
+        <v>41900</v>
       </c>
       <c r="I7" s="3">
-        <v>0.99885105854675016</v>
+        <v>0.99802952065646833</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L7" s="37">
-        <v>2.2750000000000001E-3</v>
+        <v>2.9250000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MM4</v>
+        <v>EUR_YC3MRH_FUT3MU4</v>
       </c>
       <c r="E8" s="10">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>3.2250000000000334E-3</v>
+        <v>2.9749999999999499E-3</v>
       </c>
       <c r="F8" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -10125,29 +10125,29 @@
       </c>
       <c r="G8" s="9">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41808</v>
+        <v>41899</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41900</v>
+        <v>41990</v>
       </c>
       <c r="I8" s="3">
-        <v>0.99803990807081455</v>
+        <v>0.99728767716154787</v>
       </c>
       <c r="K8" s="218" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L8" s="37">
-        <v>2.575E-3</v>
+        <v>2.9750000000000002E-3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MU4</v>
+        <v>EUR_YC3MRH_FUT3MZ4</v>
       </c>
       <c r="E9" s="10">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>3.9249999999999563E-3</v>
+        <v>3.1749999999999279E-3</v>
       </c>
       <c r="F9" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -10155,29 +10155,29 @@
       </c>
       <c r="G9" s="9">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41899</v>
+        <v>41990</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41990</v>
+        <v>42080</v>
       </c>
       <c r="I9" s="3">
-        <v>0.9970596694493179</v>
+        <v>0.99649670789965239</v>
       </c>
       <c r="K9" s="218" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L9" s="37">
-        <v>2.8249999999999998E-3</v>
+        <v>3.1749999999999999E-3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D10" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MZ4</v>
+        <v>EUR_YC3MRH_FUT3MH5</v>
       </c>
       <c r="E10" s="10">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>4.5250000000000012E-3</v>
+        <v>3.5749999999999948E-3</v>
       </c>
       <c r="F10" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -10185,29 +10185,29 @@
       </c>
       <c r="G10" s="9">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41990</v>
+        <v>42081</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42080</v>
+        <v>42173</v>
       </c>
       <c r="I10" s="3">
-        <v>0.99593302022019381</v>
+        <v>0.99557787792129249</v>
       </c>
       <c r="K10" s="218" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L10" s="37">
-        <v>3.225E-3</v>
+        <v>3.5750000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D11" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MH5</v>
+        <v>EUR_YC3MRH_FUT3MM5</v>
       </c>
       <c r="E11" s="10">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>5.1250000000000462E-3</v>
+        <v>4.1249999999999343E-3</v>
       </c>
       <c r="F11" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -10215,29 +10215,29 @@
       </c>
       <c r="G11" s="9">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42081</v>
+        <v>42172</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42173</v>
+        <v>42264</v>
       </c>
       <c r="I11" s="3">
-        <v>0.99461712438178396</v>
+        <v>0.99454000768750406</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L11" s="37">
-        <v>3.6749999999999999E-3</v>
+        <v>4.1250000000000002E-3</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D12" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MM5</v>
+        <v>EUR_YC3MRH_FUT3MU5</v>
       </c>
       <c r="E12" s="10">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>5.8249999999999691E-3</v>
+        <v>4.9250000000000682E-3</v>
       </c>
       <c r="F12" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -10245,29 +10245,29 @@
       </c>
       <c r="G12" s="9">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42172</v>
+        <v>42263</v>
       </c>
       <c r="H12" s="8">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42264</v>
+        <v>42354</v>
       </c>
       <c r="I12" s="3">
-        <v>0.99315381481156628</v>
+        <v>0.99331580989011115</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L12" s="37">
-        <v>4.3249999999999999E-3</v>
+        <v>4.9249999999999997E-3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D13" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MU5</v>
+        <v>EUR_YC3MRH_FUT3MZ5</v>
       </c>
       <c r="E13" s="10">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>6.525000000000003E-3</v>
+        <v>5.8750000000000746E-3</v>
       </c>
       <c r="F13" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -10275,29 +10275,29 @@
       </c>
       <c r="G13" s="9">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="H13" s="8">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="I13" s="3">
-        <v>0.99153540386150263</v>
+        <v>0.99184285437368624</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="L13" s="37">
-        <v>5.1749999999999999E-3</v>
+        <v>5.875E-3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D14" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MZ5</v>
+        <v>EUR_YC3MRH_AB3E3Y</v>
       </c>
       <c r="E14" s="10">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>7.3250000000000259E-3</v>
+        <v>5.2700000000000004E-3</v>
       </c>
       <c r="F14" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -10305,29 +10305,29 @@
       </c>
       <c r="G14" s="9">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>42354</v>
+        <v>41660</v>
       </c>
       <c r="H14" s="8">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42445</v>
+        <v>42758</v>
       </c>
       <c r="I14" s="3">
-        <v>0.98970287277145352</v>
+        <v>0.98429792952349793</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>126</v>
       </c>
       <c r="L14" s="37">
-        <v>4.7400000000000003E-3</v>
+        <v>5.2700000000000004E-3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E3Y</v>
+        <v>EUR_YC3MRH_AB3E4Y</v>
       </c>
       <c r="E15" s="10">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>6.2100000000000002E-3</v>
+        <v>7.4900000000000001E-3</v>
       </c>
       <c r="F15" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -10339,25 +10339,25 @@
       </c>
       <c r="H15" s="8">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42758</v>
+        <v>43122</v>
       </c>
       <c r="I15" s="3">
-        <v>0.98152866418254336</v>
+        <v>0.9704350271775819</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>127</v>
       </c>
       <c r="L15" s="37">
-        <v>7.0099999999999997E-3</v>
+        <v>7.4900000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E4Y</v>
+        <v>EUR_YC3MRH_AB3E5Y</v>
       </c>
       <c r="E16" s="10">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>8.3800000000000003E-3</v>
+        <v>9.8099999999999993E-3</v>
       </c>
       <c r="F16" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -10369,25 +10369,25 @@
       </c>
       <c r="H16" s="8">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43122</v>
+        <v>43486</v>
       </c>
       <c r="I16" s="3">
-        <v>0.96699321354579781</v>
+        <v>0.95196455415332748</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>128</v>
       </c>
       <c r="L16" s="37">
-        <v>9.4400000000000005E-3</v>
+        <v>9.8099999999999993E-3</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D17" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E5Y</v>
+        <v>EUR_YC3MRH_AB3E6Y</v>
       </c>
       <c r="E17" s="10">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.065E-2</v>
+        <v>1.201E-2</v>
       </c>
       <c r="F17" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -10399,25 +10399,25 @@
       </c>
       <c r="H17" s="8">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43486</v>
+        <v>43851</v>
       </c>
       <c r="I17" s="3">
-        <v>0.94798424670544834</v>
+        <v>0.93002250871029335</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>129</v>
       </c>
       <c r="L17" s="37">
-        <v>1.176E-2</v>
+        <v>1.201E-2</v>
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D18" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E6Y</v>
+        <v>EUR_YC3MRH_AB3E7Y</v>
       </c>
       <c r="E18" s="10">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.2629999999999999E-2</v>
+        <v>1.405E-2</v>
       </c>
       <c r="F18" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -10429,25 +10429,25 @@
       </c>
       <c r="H18" s="8">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>43851</v>
+        <v>44217</v>
       </c>
       <c r="I18" s="3">
-        <v>0.92661062015753326</v>
+        <v>0.90541515745241696</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>130</v>
       </c>
       <c r="L18" s="37">
-        <v>1.391E-2</v>
+        <v>1.405E-2</v>
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D19" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E7Y</v>
+        <v>EUR_YC3MRH_AB3E8Y</v>
       </c>
       <c r="E19" s="10">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.439E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="F19" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -10459,25 +10459,25 @@
       </c>
       <c r="H19" s="8">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44217</v>
+        <v>44582</v>
       </c>
       <c r="I19" s="3">
-        <v>0.90338405827606372</v>
+        <v>0.87898506301363055</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>131</v>
       </c>
       <c r="L19" s="37">
-        <v>1.583E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D20" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E8Y</v>
+        <v>EUR_YC3MRH_AB3E9Y</v>
       </c>
       <c r="E20" s="10">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.5950000000000002E-2</v>
+        <v>1.755E-2</v>
       </c>
       <c r="F20" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -10489,25 +10489,25 @@
       </c>
       <c r="H20" s="8">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>44582</v>
+        <v>44949</v>
       </c>
       <c r="I20" s="3">
-        <v>0.87889173447947255</v>
+        <v>0.8514017959808502</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>132</v>
       </c>
       <c r="L20" s="37">
-        <v>1.753E-2</v>
+        <v>1.755E-2</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D21" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E9Y</v>
+        <v>EUR_YC3MRH_AB3E10Y</v>
       </c>
       <c r="E21" s="10">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.7399999999999999E-2</v>
+        <v>1.9019999999999999E-2</v>
       </c>
       <c r="F21" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10519,25 +10519,25 @@
       </c>
       <c r="H21" s="8">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>44949</v>
+        <v>45313</v>
       </c>
       <c r="I21" s="3">
-        <v>0.85295797086256664</v>
+        <v>0.82333870634032191</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>133</v>
       </c>
       <c r="L21" s="37">
-        <v>1.9060000000000001E-2</v>
+        <v>1.9019999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D22" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E10Y</v>
+        <v>EUR_YC3MRH_AB3E12Y</v>
       </c>
       <c r="E22" s="10">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.8710000000000001E-2</v>
+        <v>2.1400000000000002E-2</v>
       </c>
       <c r="F22" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10549,25 +10549,25 @@
       </c>
       <c r="H22" s="8">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>45313</v>
+        <v>46043</v>
       </c>
       <c r="I22" s="3">
-        <v>0.82646731509808502</v>
+        <v>0.76782860382967666</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>134</v>
       </c>
       <c r="L22" s="37">
-        <v>2.1520000000000001E-2</v>
+        <v>2.1399999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D23" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E12Y</v>
+        <v>EUR_YC3MRH_AB3E15Y</v>
       </c>
       <c r="E23" s="10">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.0840000000000001E-2</v>
+        <v>2.3780000000000003E-2</v>
       </c>
       <c r="F23" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10579,25 +10579,25 @@
       </c>
       <c r="H23" s="8">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>46043</v>
+        <v>47140</v>
       </c>
       <c r="I23" s="3">
-        <v>0.77395772498850468</v>
+        <v>0.69089780723857686</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>135</v>
       </c>
       <c r="L23" s="37">
-        <v>2.3959999999999999E-2</v>
+        <v>2.3779999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D24" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E15Y</v>
+        <v>EUR_YC3MRH_AB3E20Y</v>
       </c>
       <c r="E24" s="10">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.2889999999999997E-2</v>
+        <v>2.545E-2</v>
       </c>
       <c r="F24" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10609,25 +10609,25 @@
       </c>
       <c r="H24" s="8">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>47140</v>
+        <v>48967</v>
       </c>
       <c r="I24" s="3">
-        <v>0.70188355983274198</v>
+        <v>0.58928894055572645</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>136</v>
       </c>
       <c r="L24" s="37">
-        <v>2.571E-2</v>
+        <v>2.545E-2</v>
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D25" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E20Y</v>
+        <v>EUR_YC3MRH_AB3E25Y</v>
       </c>
       <c r="E25" s="10">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.4119999999999999E-2</v>
+        <v>2.5939999999999998E-2</v>
       </c>
       <c r="F25" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10639,25 +10639,25 @@
       </c>
       <c r="H25" s="8">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>48967</v>
+        <v>50791</v>
       </c>
       <c r="I25" s="3">
-        <v>0.60822627782844763</v>
+        <v>0.51129766137658039</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>137</v>
       </c>
       <c r="L25" s="37">
-        <v>2.6280000000000001E-2</v>
+        <v>2.5940000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D26" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E25Y</v>
+        <v>EUR_YC3MRH_AB3E30Y</v>
       </c>
       <c r="E26" s="10">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.4340000000000001E-2</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="F26" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10669,25 +10669,25 @@
       </c>
       <c r="H26" s="8">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>50791</v>
+        <v>52617</v>
       </c>
       <c r="I26" s="3">
-        <v>0.53613251189291333</v>
+        <v>0.44868754281442896</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>138</v>
       </c>
       <c r="L26" s="37">
-        <v>2.6450000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D27" s="11" t="str">
-        <v>EUR_YC3MRH_AB3E30Y</v>
+        <v>EUR_YC3MRH_AB3EBASIS35Y</v>
       </c>
       <c r="E27" s="10">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.4310000000000002E-2</v>
+        <v>2.6120000000000001E-2</v>
       </c>
       <c r="F27" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10699,25 +10699,25 @@
       </c>
       <c r="H27" s="8">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>52617</v>
+        <v>54444</v>
       </c>
       <c r="I27" s="3">
-        <v>0.47598176884021015</v>
+        <v>0.39202568677673444</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>139</v>
       </c>
       <c r="L27" s="37">
-        <v>2.6596999999999999E-2</v>
+        <v>2.6120000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D28" s="11" t="str">
-        <v>EUR_YC3MRH_AB3EBASIS35Y</v>
+        <v>EUR_YC3MRH_AB3EBASIS40Y</v>
       </c>
       <c r="E28" s="10">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.4505000000000002E-2</v>
+        <v>2.6315000000000002E-2</v>
       </c>
       <c r="F28" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10729,25 +10729,25 @@
       </c>
       <c r="H28" s="8">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>54444</v>
+        <v>56270</v>
       </c>
       <c r="I28" s="3">
-        <v>0.41774965432003353</v>
+        <v>0.34007196302860065</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>140</v>
       </c>
       <c r="L28" s="37">
-        <v>2.683E-2</v>
+        <v>2.6315000000000002E-2</v>
       </c>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D29" s="11" t="str">
-        <v>EUR_YC3MRH_AB3EBASIS40Y</v>
+        <v>EUR_YC3MRH_AB3EBASIS50Y</v>
       </c>
       <c r="E29" s="10">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.4820000000000002E-2</v>
+        <v>2.6554999999999999E-2</v>
       </c>
       <c r="F29" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -10759,25 +10759,25 @@
       </c>
       <c r="H29" s="8">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>56270</v>
+        <v>59922</v>
       </c>
       <c r="I29" s="3">
-        <v>0.36258214894487723</v>
+        <v>0.25649459475513936</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>141</v>
       </c>
       <c r="L29" s="37">
-        <v>2.7175000000000001E-2</v>
+        <v>2.6554999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D30" s="11" t="str">
-        <v>EUR_YC3MRH_AB3EBASIS50Y</v>
+        <v>EUR_YC3MRH_AB3EBASIS60Y</v>
       </c>
       <c r="E30" s="10">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.5305000000000001E-2</v>
+        <v>2.6716000000000004E-2</v>
       </c>
       <c r="F30" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -10789,40 +10789,40 @@
       </c>
       <c r="H30" s="8">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>59922</v>
+        <v>63576</v>
       </c>
       <c r="I30" s="3">
-        <v>0.27156663703441392</v>
+        <v>0.19313772797651729</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>142</v>
       </c>
       <c r="L30" s="37">
-        <v>2.7481999999999999E-2</v>
+        <v>2.6716E-2</v>
       </c>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D31" s="11" t="str">
-        <v>EUR_YC3MRH_AB3EBASIS60Y</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="D31" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E31" s="10" t="e">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>2.564E-2</v>
-      </c>
-      <c r="F31" s="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F31" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="9">
+        <v>--</v>
+      </c>
+      <c r="G31" s="9" t="e">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41660</v>
-      </c>
-      <c r="H31" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H31" s="8" t="e">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>63576</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0.2024386808921399</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I31" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L31" s="46"/>
     </row>
@@ -13198,7 +13198,7 @@
       </c>
       <c r="F3" s="101" t="str">
         <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_SND#0002</v>
+        <v>EUR_YC3MRH_SND#0007</v>
       </c>
       <c r="G3" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="F4" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_SWD#0002</v>
+        <v>EUR_YC3MRH_SWD#0007</v>
       </c>
       <c r="G4" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -13252,7 +13252,7 @@
       </c>
       <c r="F5" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2WD#0002</v>
+        <v>EUR_YC3MRH_2WD#0007</v>
       </c>
       <c r="G5" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13283,7 +13283,7 @@
       </c>
       <c r="F6" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3WD#0002</v>
+        <v>EUR_YC3MRH_3WD#0007</v>
       </c>
       <c r="G6" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13310,7 +13310,7 @@
       </c>
       <c r="F7" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1MD#0002</v>
+        <v>EUR_YC3MRH_1MD#0007</v>
       </c>
       <c r="G7" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13337,7 +13337,7 @@
       </c>
       <c r="F8" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2MD#0002</v>
+        <v>EUR_YC3MRH_2MD#0007</v>
       </c>
       <c r="G8" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13364,7 +13364,7 @@
       </c>
       <c r="F9" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3MD#0002</v>
+        <v>EUR_YC3MRH_3MD#0007</v>
       </c>
       <c r="G9" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13392,9 +13392,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13411,7 +13413,7 @@
     <col min="11" max="16384" width="9.140625" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="173" t="s">
         <v>169</v>
       </c>
@@ -13432,7 +13434,7 @@
       <c r="I1" s="150"/>
       <c r="J1" s="149"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="100"/>
       <c r="B2" s="103"/>
       <c r="C2" s="103"/>
@@ -13457,7 +13459,7 @@
       </c>
       <c r="J2" s="93"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="100"/>
       <c r="B3" s="145" t="s">
         <v>163</v>
@@ -13483,7 +13485,7 @@
       </c>
       <c r="H3" s="143" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_T3F1#0002</v>
+        <v>EUR_YC3MRH_T3F1#0007</v>
       </c>
       <c r="I3" s="142" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -13491,7 +13493,7 @@
       </c>
       <c r="J3" s="93"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="100"/>
       <c r="B4" s="136" t="s">
         <v>162</v>
@@ -13517,15 +13519,19 @@
       </c>
       <c r="H4" s="135" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_TOM3F1#0002</v>
+        <v>EUR_YC3MRH_TOM3F1#0007</v>
       </c>
       <c r="I4" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
         <v/>
       </c>
       <c r="J4" s="93"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L4" s="108" t="str">
+        <f>_xll.ohObjectCallerAddress(F4)</f>
+        <v>[EUR_Market.xlsm]FRA!R6C5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="100"/>
       <c r="B5" s="140" t="str">
         <f t="shared" ref="B5:B10" si="3">C5&amp;"M"</f>
@@ -13552,7 +13558,7 @@
       </c>
       <c r="H5" s="138" t="str">
         <f>_xll.qlFraRateHelper(G5,F5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1x4F#0002</v>
+        <v>EUR_YC3MRH_1x4F#0007</v>
       </c>
       <c r="I5" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -13560,7 +13566,7 @@
       </c>
       <c r="J5" s="93"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="100"/>
       <c r="B6" s="140" t="str">
         <f t="shared" si="3"/>
@@ -13587,7 +13593,7 @@
       </c>
       <c r="H6" s="138" t="str">
         <f>_xll.qlFraRateHelper(G6,F6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2x5F#0002</v>
+        <v>EUR_YC3MRH_2x5F#0007</v>
       </c>
       <c r="I6" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -13595,7 +13601,7 @@
       </c>
       <c r="J6" s="93"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="100"/>
       <c r="B7" s="140" t="str">
         <f t="shared" si="3"/>
@@ -13622,7 +13628,7 @@
       </c>
       <c r="H7" s="138" t="str">
         <f>_xll.qlFraRateHelper(G7,F7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3x6F#0002</v>
+        <v>EUR_YC3MRH_3x6F#0007</v>
       </c>
       <c r="I7" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -13630,7 +13636,7 @@
       </c>
       <c r="J7" s="93"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="100"/>
       <c r="B8" s="140" t="str">
         <f t="shared" si="3"/>
@@ -13657,7 +13663,7 @@
       </c>
       <c r="H8" s="138" t="str">
         <f>_xll.qlFraRateHelper(G8,F8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_4x7F#0002</v>
+        <v>EUR_YC3MRH_4x7F#0007</v>
       </c>
       <c r="I8" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -13665,7 +13671,7 @@
       </c>
       <c r="J8" s="93"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="100"/>
       <c r="B9" s="140" t="str">
         <f t="shared" si="3"/>
@@ -13692,7 +13698,7 @@
       </c>
       <c r="H9" s="138" t="str">
         <f>_xll.qlFraRateHelper(G9,F9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_5x8F#0002</v>
+        <v>EUR_YC3MRH_5x8F#0007</v>
       </c>
       <c r="I9" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -13700,7 +13706,7 @@
       </c>
       <c r="J9" s="93"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="100"/>
       <c r="B10" s="136" t="str">
         <f t="shared" si="3"/>
@@ -13727,7 +13733,7 @@
       </c>
       <c r="H10" s="135" t="str">
         <f>_xll.qlFraRateHelper(G10,F10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_6x9F#0002</v>
+        <v>EUR_YC3MRH_6x9F#0007</v>
       </c>
       <c r="I10" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -13735,7 +13741,7 @@
       </c>
       <c r="J10" s="93"/>
     </row>
-    <row r="11" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="92"/>
       <c r="B11" s="91"/>
       <c r="C11" s="91"/>
@@ -13747,7 +13753,7 @@
       <c r="I11" s="133"/>
       <c r="J11" s="90"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D13" s="108"/>
       <c r="E13" s="108"/>
       <c r="H13" s="108"/>
@@ -13762,9 +13768,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13782,7 +13790,7 @@
     <col min="12" max="16384" width="9.140625" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="168" t="s">
         <v>168</v>
       </c>
@@ -13802,7 +13810,7 @@
       <c r="J1" s="169"/>
       <c r="K1" s="93"/>
     </row>
-    <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="168"/>
       <c r="B2" s="103" t="s">
         <v>167</v>
@@ -13836,7 +13844,7 @@
       </c>
       <c r="K2" s="93"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="162"/>
       <c r="B3" s="166">
         <v>1</v>
@@ -13866,7 +13874,7 @@
       </c>
       <c r="I3" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MG4#0002</v>
+        <v>EUR_YC3MRH_FUT3MG4#0007</v>
       </c>
       <c r="J3" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -13874,8 +13882,12 @@
       </c>
       <c r="K3" s="93"/>
       <c r="L3" s="163"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="89" t="str">
+        <f>_xll.ohObjectCallerAddress(F3)</f>
+        <v>[EUR_Market.xlsm]Futures3M!R7C6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="162"/>
       <c r="B4" s="99">
         <v>2</v>
@@ -13904,7 +13916,7 @@
       </c>
       <c r="I4" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH4#0002</v>
+        <v>EUR_YC3MRH_FUT3MH4#0007</v>
       </c>
       <c r="J4" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -13913,7 +13925,7 @@
       <c r="K4" s="93"/>
       <c r="L4" s="163"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="162"/>
       <c r="B5" s="99">
         <v>3</v>
@@ -13942,7 +13954,7 @@
       </c>
       <c r="I5" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MJ4#0002</v>
+        <v>EUR_YC3MRH_FUT3MJ4#0007</v>
       </c>
       <c r="J5" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13951,7 +13963,7 @@
       <c r="K5" s="93"/>
       <c r="L5" s="163"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="162"/>
       <c r="B6" s="99">
         <v>4</v>
@@ -13980,7 +13992,7 @@
       </c>
       <c r="I6" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MK4#0002</v>
+        <v>EUR_YC3MRH_FUT3MK4#0007</v>
       </c>
       <c r="J6" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -13989,7 +14001,7 @@
       <c r="K6" s="93"/>
       <c r="L6" s="163"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="162"/>
       <c r="B7" s="99">
         <v>5</v>
@@ -14018,7 +14030,7 @@
       </c>
       <c r="I7" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM4#0002</v>
+        <v>EUR_YC3MRH_FUT3MM4#0007</v>
       </c>
       <c r="J7" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -14027,7 +14039,7 @@
       <c r="K7" s="93"/>
       <c r="L7" s="163"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="162"/>
       <c r="B8" s="99">
         <v>6</v>
@@ -14056,7 +14068,7 @@
       </c>
       <c r="I8" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MN4#0002</v>
+        <v>EUR_YC3MRH_FUT3MN4#0007</v>
       </c>
       <c r="J8" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -14065,7 +14077,7 @@
       <c r="K8" s="93"/>
       <c r="L8" s="163"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="162"/>
       <c r="B9" s="99">
         <v>7</v>
@@ -14094,7 +14106,7 @@
       </c>
       <c r="I9" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MQ4#0002</v>
+        <v>EUR_YC3MRH_FUT3MQ4#0007</v>
       </c>
       <c r="J9" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -14103,7 +14115,7 @@
       <c r="K9" s="93"/>
       <c r="L9" s="163"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="162"/>
       <c r="B10" s="99">
         <v>8</v>
@@ -14132,7 +14144,7 @@
       </c>
       <c r="I10" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU4#0002</v>
+        <v>EUR_YC3MRH_FUT3MU4#0007</v>
       </c>
       <c r="J10" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -14141,7 +14153,7 @@
       <c r="K10" s="93"/>
       <c r="L10" s="163"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="162"/>
       <c r="B11" s="99">
         <v>9</v>
@@ -14170,7 +14182,7 @@
       </c>
       <c r="I11" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MV4#0002</v>
+        <v>EUR_YC3MRH_FUT3MV4#0007</v>
       </c>
       <c r="J11" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -14179,7 +14191,7 @@
       <c r="K11" s="93"/>
       <c r="L11" s="163"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="162"/>
       <c r="B12" s="99">
         <v>10</v>
@@ -14208,7 +14220,7 @@
       </c>
       <c r="I12" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MX4#0002</v>
+        <v>EUR_YC3MRH_FUT3MX4#0007</v>
       </c>
       <c r="J12" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -14217,7 +14229,7 @@
       <c r="K12" s="93"/>
       <c r="L12" s="163"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="162"/>
       <c r="B13" s="99">
         <v>11</v>
@@ -14246,7 +14258,7 @@
       </c>
       <c r="I13" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ4#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ4#0007</v>
       </c>
       <c r="J13" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -14255,7 +14267,7 @@
       <c r="K13" s="93"/>
       <c r="L13" s="163"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="162"/>
       <c r="B14" s="99">
         <v>12</v>
@@ -14284,7 +14296,7 @@
       </c>
       <c r="I14" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MF5#0002</v>
+        <v>EUR_YC3MRH_FUT3MF5#0007</v>
       </c>
       <c r="J14" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -14293,7 +14305,7 @@
       <c r="K14" s="93"/>
       <c r="L14" s="163"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="162"/>
       <c r="B15" s="99">
         <v>13</v>
@@ -14322,7 +14334,7 @@
       </c>
       <c r="I15" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH5#0002</v>
+        <v>EUR_YC3MRH_FUT3MH5#0007</v>
       </c>
       <c r="J15" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -14331,7 +14343,7 @@
       <c r="K15" s="93"/>
       <c r="L15" s="163"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="162"/>
       <c r="B16" s="99">
         <v>14</v>
@@ -14360,7 +14372,7 @@
       </c>
       <c r="I16" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM5#0002</v>
+        <v>EUR_YC3MRH_FUT3MM5#0007</v>
       </c>
       <c r="J16" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -14398,7 +14410,7 @@
       </c>
       <c r="I17" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU5#0002</v>
+        <v>EUR_YC3MRH_FUT3MU5#0007</v>
       </c>
       <c r="J17" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -14436,7 +14448,7 @@
       </c>
       <c r="I18" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ5#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ5#0007</v>
       </c>
       <c r="J18" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -14474,7 +14486,7 @@
       </c>
       <c r="I19" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH6#0002</v>
+        <v>EUR_YC3MRH_FUT3MH6#0007</v>
       </c>
       <c r="J19" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -14512,7 +14524,7 @@
       </c>
       <c r="I20" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM6#0002</v>
+        <v>EUR_YC3MRH_FUT3MM6#0007</v>
       </c>
       <c r="J20" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -14550,7 +14562,7 @@
       </c>
       <c r="I21" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU6#0002</v>
+        <v>EUR_YC3MRH_FUT3MU6#0007</v>
       </c>
       <c r="J21" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -14588,7 +14600,7 @@
       </c>
       <c r="I22" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ6#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ6#0007</v>
       </c>
       <c r="J22" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -14626,7 +14638,7 @@
       </c>
       <c r="I23" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH7#0002</v>
+        <v>EUR_YC3MRH_FUT3MH7#0007</v>
       </c>
       <c r="J23" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -14664,7 +14676,7 @@
       </c>
       <c r="I24" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM7#0002</v>
+        <v>EUR_YC3MRH_FUT3MM7#0007</v>
       </c>
       <c r="J24" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -14702,7 +14714,7 @@
       </c>
       <c r="I25" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU7#0002</v>
+        <v>EUR_YC3MRH_FUT3MU7#0007</v>
       </c>
       <c r="J25" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -14740,7 +14752,7 @@
       </c>
       <c r="I26" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ7#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ7#0007</v>
       </c>
       <c r="J26" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -14778,7 +14790,7 @@
       </c>
       <c r="I27" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH8#0002</v>
+        <v>EUR_YC3MRH_FUT3MH8#0007</v>
       </c>
       <c r="J27" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -14816,7 +14828,7 @@
       </c>
       <c r="I28" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM8#0002</v>
+        <v>EUR_YC3MRH_FUT3MM8#0007</v>
       </c>
       <c r="J28" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -14854,7 +14866,7 @@
       </c>
       <c r="I29" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU8#0002</v>
+        <v>EUR_YC3MRH_FUT3MU8#0007</v>
       </c>
       <c r="J29" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -14892,7 +14904,7 @@
       </c>
       <c r="I30" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ8#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ8#0007</v>
       </c>
       <c r="J30" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -14930,7 +14942,7 @@
       </c>
       <c r="I31" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH9#0002</v>
+        <v>EUR_YC3MRH_FUT3MH9#0007</v>
       </c>
       <c r="J31" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -14968,7 +14980,7 @@
       </c>
       <c r="I32" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM9#0002</v>
+        <v>EUR_YC3MRH_FUT3MM9#0007</v>
       </c>
       <c r="J32" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -15006,7 +15018,7 @@
       </c>
       <c r="I33" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU9#0002</v>
+        <v>EUR_YC3MRH_FUT3MU9#0007</v>
       </c>
       <c r="J33" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -15044,7 +15056,7 @@
       </c>
       <c r="I34" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ9#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ9#0007</v>
       </c>
       <c r="J34" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -15082,7 +15094,7 @@
       </c>
       <c r="I35" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH0#0002</v>
+        <v>EUR_YC3MRH_FUT3MH0#0007</v>
       </c>
       <c r="J35" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -15120,7 +15132,7 @@
       </c>
       <c r="I36" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM0#0002</v>
+        <v>EUR_YC3MRH_FUT3MM0#0007</v>
       </c>
       <c r="J36" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -15158,7 +15170,7 @@
       </c>
       <c r="I37" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU0#0002</v>
+        <v>EUR_YC3MRH_FUT3MU0#0007</v>
       </c>
       <c r="J37" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -15196,7 +15208,7 @@
       </c>
       <c r="I38" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ0#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ0#0007</v>
       </c>
       <c r="J38" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -15234,7 +15246,7 @@
       </c>
       <c r="I39" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH1#0002</v>
+        <v>EUR_YC3MRH_FUT3MH1#0007</v>
       </c>
       <c r="J39" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -15272,7 +15284,7 @@
       </c>
       <c r="I40" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM1#0002</v>
+        <v>EUR_YC3MRH_FUT3MM1#0007</v>
       </c>
       <c r="J40" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -15309,7 +15321,7 @@
       </c>
       <c r="I41" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU1#0002</v>
+        <v>EUR_YC3MRH_FUT3MU1#0007</v>
       </c>
       <c r="J41" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -15346,7 +15358,7 @@
       </c>
       <c r="I42" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ1#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ1#0007</v>
       </c>
       <c r="J42" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -15383,7 +15395,7 @@
       </c>
       <c r="I43" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH2#0002</v>
+        <v>EUR_YC3MRH_FUT3MH2#0007</v>
       </c>
       <c r="J43" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -15420,7 +15432,7 @@
       </c>
       <c r="I44" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM2#0002</v>
+        <v>EUR_YC3MRH_FUT3MM2#0007</v>
       </c>
       <c r="J44" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -15451,9 +15463,11 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15478,7 +15492,7 @@
     <col min="19" max="16384" width="9.140625" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="173" t="s">
         <v>186</v>
       </c>
@@ -15496,7 +15510,7 @@
       <c r="M1" s="154"/>
       <c r="N1" s="198"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="100"/>
       <c r="B2" s="111"/>
       <c r="C2" s="111"/>
@@ -15520,7 +15534,7 @@
       <c r="M2" s="111"/>
       <c r="N2" s="176"/>
     </row>
-    <row r="3" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="100"/>
       <c r="B3" s="107" t="s">
         <v>180</v>
@@ -15557,7 +15571,7 @@
       </c>
       <c r="N3" s="176"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="112"/>
       <c r="B4" s="111"/>
       <c r="C4" s="111"/>
@@ -15574,7 +15588,7 @@
       </c>
       <c r="L4" s="195" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC3MRH_AB3E_ibor3M#0002</v>
+        <v>EUR_YC3MRH_AB3E_ibor3M#0007</v>
       </c>
       <c r="M4" s="194" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -15582,7 +15596,7 @@
       </c>
       <c r="N4" s="176"/>
     </row>
-    <row r="5" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="112"/>
       <c r="B5" s="111"/>
       <c r="C5" s="111"/>
@@ -15598,7 +15612,7 @@
       <c r="M5" s="111"/>
       <c r="N5" s="176"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="100"/>
       <c r="B6" s="181" t="s">
         <v>163</v>
@@ -15638,7 +15652,7 @@
       </c>
       <c r="L6" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E1Y#0002</v>
+        <v>EUR_YC3MRH_AB3E1Y#0007</v>
       </c>
       <c r="M6" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -15654,8 +15668,12 @@
       <c r="R6" s="191" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T6" s="108" t="str">
+        <f>_xll.ohObjectCallerAddress(J6)</f>
+        <v>[EUR_Market.xlsm]Swap3M!R6C6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="100"/>
       <c r="B7" s="181" t="s">
         <v>163</v>
@@ -15693,7 +15711,7 @@
       </c>
       <c r="L7" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E15M#0002</v>
+        <v>EUR_YC3MRH_AB3E15M#0007</v>
       </c>
       <c r="M7" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -15710,7 +15728,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="100"/>
       <c r="B8" s="181" t="s">
         <v>163</v>
@@ -15748,7 +15766,7 @@
       </c>
       <c r="L8" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E18M#0002</v>
+        <v>EUR_YC3MRH_AB3E18M#0007</v>
       </c>
       <c r="M8" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -15765,7 +15783,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="100"/>
       <c r="B9" s="181" t="s">
         <v>163</v>
@@ -15803,7 +15821,7 @@
       </c>
       <c r="L9" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E21M#0002</v>
+        <v>EUR_YC3MRH_AB3E21M#0007</v>
       </c>
       <c r="M9" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -15820,7 +15838,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="100"/>
       <c r="B10" s="181" t="s">
         <v>163</v>
@@ -15858,7 +15876,7 @@
       </c>
       <c r="L10" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E2Y#0002</v>
+        <v>EUR_YC3MRH_AB3E2Y#0007</v>
       </c>
       <c r="M10" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -15875,7 +15893,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="100"/>
       <c r="B11" s="181" t="s">
         <v>163</v>
@@ -15913,7 +15931,7 @@
       </c>
       <c r="L11" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E3Y#0002</v>
+        <v>EUR_YC3MRH_AB3E3Y#0007</v>
       </c>
       <c r="M11" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -15921,7 +15939,7 @@
       </c>
       <c r="N11" s="176"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="100"/>
       <c r="B12" s="181" t="s">
         <v>163</v>
@@ -15959,7 +15977,7 @@
       </c>
       <c r="L12" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E4Y#0002</v>
+        <v>EUR_YC3MRH_AB3E4Y#0007</v>
       </c>
       <c r="M12" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -15967,7 +15985,7 @@
       </c>
       <c r="N12" s="176"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="100"/>
       <c r="B13" s="181" t="s">
         <v>163</v>
@@ -16005,7 +16023,7 @@
       </c>
       <c r="L13" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E5Y#0002</v>
+        <v>EUR_YC3MRH_AB3E5Y#0007</v>
       </c>
       <c r="M13" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -16013,7 +16031,7 @@
       </c>
       <c r="N13" s="176"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="100"/>
       <c r="B14" s="181" t="s">
         <v>163</v>
@@ -16051,7 +16069,7 @@
       </c>
       <c r="L14" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E6Y#0002</v>
+        <v>EUR_YC3MRH_AB3E6Y#0007</v>
       </c>
       <c r="M14" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -16059,7 +16077,7 @@
       </c>
       <c r="N14" s="176"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="100"/>
       <c r="B15" s="181" t="s">
         <v>163</v>
@@ -16097,7 +16115,7 @@
       </c>
       <c r="L15" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E7Y#0002</v>
+        <v>EUR_YC3MRH_AB3E7Y#0007</v>
       </c>
       <c r="M15" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -16105,7 +16123,7 @@
       </c>
       <c r="N15" s="176"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="100"/>
       <c r="B16" s="181" t="s">
         <v>163</v>
@@ -16143,7 +16161,7 @@
       </c>
       <c r="L16" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E8Y#0002</v>
+        <v>EUR_YC3MRH_AB3E8Y#0007</v>
       </c>
       <c r="M16" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -16189,7 +16207,7 @@
       </c>
       <c r="L17" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E9Y#0002</v>
+        <v>EUR_YC3MRH_AB3E9Y#0007</v>
       </c>
       <c r="M17" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -16235,7 +16253,7 @@
       </c>
       <c r="L18" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E10Y#0002</v>
+        <v>EUR_YC3MRH_AB3E10Y#0007</v>
       </c>
       <c r="M18" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -16281,7 +16299,7 @@
       </c>
       <c r="L19" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E11Y#0002</v>
+        <v>EUR_YC3MRH_AB3E11Y#0007</v>
       </c>
       <c r="M19" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -16327,7 +16345,7 @@
       </c>
       <c r="L20" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E12Y#0002</v>
+        <v>EUR_YC3MRH_AB3E12Y#0007</v>
       </c>
       <c r="M20" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -16373,7 +16391,7 @@
       </c>
       <c r="L21" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E13Y#0002</v>
+        <v>EUR_YC3MRH_AB3E13Y#0007</v>
       </c>
       <c r="M21" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -16419,7 +16437,7 @@
       </c>
       <c r="L22" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E14Y#0002</v>
+        <v>EUR_YC3MRH_AB3E14Y#0007</v>
       </c>
       <c r="M22" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -16465,7 +16483,7 @@
       </c>
       <c r="L23" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E15Y#0002</v>
+        <v>EUR_YC3MRH_AB3E15Y#0007</v>
       </c>
       <c r="M23" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -16511,7 +16529,7 @@
       </c>
       <c r="L24" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E16Y#0002</v>
+        <v>EUR_YC3MRH_AB3E16Y#0007</v>
       </c>
       <c r="M24" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -16557,7 +16575,7 @@
       </c>
       <c r="L25" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E17Y#0002</v>
+        <v>EUR_YC3MRH_AB3E17Y#0007</v>
       </c>
       <c r="M25" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -16603,7 +16621,7 @@
       </c>
       <c r="L26" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E18Y#0002</v>
+        <v>EUR_YC3MRH_AB3E18Y#0007</v>
       </c>
       <c r="M26" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -16649,7 +16667,7 @@
       </c>
       <c r="L27" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E19Y#0002</v>
+        <v>EUR_YC3MRH_AB3E19Y#0007</v>
       </c>
       <c r="M27" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -16695,7 +16713,7 @@
       </c>
       <c r="L28" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E20Y#0002</v>
+        <v>EUR_YC3MRH_AB3E20Y#0007</v>
       </c>
       <c r="M28" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -16741,7 +16759,7 @@
       </c>
       <c r="L29" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E21Y#0002</v>
+        <v>EUR_YC3MRH_AB3E21Y#0007</v>
       </c>
       <c r="M29" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -16787,7 +16805,7 @@
       </c>
       <c r="L30" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E22Y#0002</v>
+        <v>EUR_YC3MRH_AB3E22Y#0007</v>
       </c>
       <c r="M30" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -16833,7 +16851,7 @@
       </c>
       <c r="L31" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E23Y#0002</v>
+        <v>EUR_YC3MRH_AB3E23Y#0007</v>
       </c>
       <c r="M31" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -16879,7 +16897,7 @@
       </c>
       <c r="L32" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E24Y#0002</v>
+        <v>EUR_YC3MRH_AB3E24Y#0007</v>
       </c>
       <c r="M32" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -16925,7 +16943,7 @@
       </c>
       <c r="L33" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E25Y#0002</v>
+        <v>EUR_YC3MRH_AB3E25Y#0007</v>
       </c>
       <c r="M33" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -16971,7 +16989,7 @@
       </c>
       <c r="L34" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E26Y#0002</v>
+        <v>EUR_YC3MRH_AB3E26Y#0007</v>
       </c>
       <c r="M34" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -17017,7 +17035,7 @@
       </c>
       <c r="L35" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E27Y#0002</v>
+        <v>EUR_YC3MRH_AB3E27Y#0007</v>
       </c>
       <c r="M35" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -17063,7 +17081,7 @@
       </c>
       <c r="L36" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E28Y#0002</v>
+        <v>EUR_YC3MRH_AB3E28Y#0007</v>
       </c>
       <c r="M36" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -17109,7 +17127,7 @@
       </c>
       <c r="L37" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E29Y#0002</v>
+        <v>EUR_YC3MRH_AB3E29Y#0007</v>
       </c>
       <c r="M37" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -17155,7 +17173,7 @@
       </c>
       <c r="L38" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E30Y#0002</v>
+        <v>EUR_YC3MRH_AB3E30Y#0007</v>
       </c>
       <c r="M38" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -17201,7 +17219,7 @@
       </c>
       <c r="L39" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E35Y#0002</v>
+        <v>EUR_YC3MRH_AB3E35Y#0007</v>
       </c>
       <c r="M39" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -17247,7 +17265,7 @@
       </c>
       <c r="L40" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E40Y#0002</v>
+        <v>EUR_YC3MRH_AB3E40Y#0007</v>
       </c>
       <c r="M40" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -17293,7 +17311,7 @@
       </c>
       <c r="L41" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E50Y#0002</v>
+        <v>EUR_YC3MRH_AB3E50Y#0007</v>
       </c>
       <c r="M41" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -17339,7 +17357,7 @@
       </c>
       <c r="L42" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E60Y#0002</v>
+        <v>EUR_YC3MRH_AB3E60Y#0007</v>
       </c>
       <c r="M42" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -17397,7 +17415,7 @@
       </c>
       <c r="L44" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K44,$J44,$E44&amp;"M",Calendar,$F44,$G44,$H44,$L$4,$I44,B44,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S12#0002</v>
+        <v>EUR_YC3MRH_1S12#0007</v>
       </c>
       <c r="M44" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -17442,7 +17460,7 @@
       </c>
       <c r="L45" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K45,$J45,$E45&amp;"M",Calendar,$F45,$G45,$H45,$L$4,$I45,B45,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2S12#0002</v>
+        <v>EUR_YC3MRH_2S12#0007</v>
       </c>
       <c r="M45" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -17487,7 +17505,7 @@
       </c>
       <c r="L46" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K46,$J46,$E46&amp;"M",Calendar,$F46,$G46,$H46,$L$4,$I46,B46,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3S12#0002</v>
+        <v>EUR_YC3MRH_3S12#0007</v>
       </c>
       <c r="M46" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -17532,7 +17550,7 @@
       </c>
       <c r="L47" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K47,$J47,$E47&amp;"M",Calendar,$F47,$G47,$H47,$L$4,$I47,B47,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_4S12#0002</v>
+        <v>EUR_YC3MRH_4S12#0007</v>
       </c>
       <c r="M47" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -17577,7 +17595,7 @@
       </c>
       <c r="L48" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K48,$J48,$E48&amp;"M",Calendar,$F48,$G48,$H48,$L$4,$I48,B48,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S24#0002</v>
+        <v>EUR_YC3MRH_1S24#0007</v>
       </c>
       <c r="M48" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -17622,7 +17640,7 @@
       </c>
       <c r="L49" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K49,$J49,$E49&amp;"M",Calendar,$F49,$G49,$H49,$L$4,$I49,B49,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2S24#0002</v>
+        <v>EUR_YC3MRH_2S24#0007</v>
       </c>
       <c r="M49" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -17667,7 +17685,7 @@
       </c>
       <c r="L50" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K50,$J50,$E50&amp;"M",Calendar,$F50,$G50,$H50,$L$4,$I50,B50,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S36#0002</v>
+        <v>EUR_YC3MRH_1S36#0007</v>
       </c>
       <c r="M50" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -17718,9 +17736,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17745,7 +17765,7 @@
     <col min="19" max="16384" width="9.140625" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="173" t="s">
         <v>187</v>
       </c>
@@ -17763,7 +17783,7 @@
       <c r="M1" s="154"/>
       <c r="N1" s="198"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="100"/>
       <c r="B2" s="111"/>
       <c r="C2" s="111"/>
@@ -17787,7 +17807,7 @@
       <c r="M2" s="111"/>
       <c r="N2" s="176"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="100"/>
       <c r="B3" s="107" t="s">
         <v>180</v>
@@ -17824,7 +17844,7 @@
       </c>
       <c r="N3" s="176"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="112"/>
       <c r="B4" s="111"/>
       <c r="C4" s="111"/>
@@ -17841,7 +17861,7 @@
       </c>
       <c r="L4" s="195" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC3MRH_AB3EBASIS_ibor3M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS_ibor3M#0007</v>
       </c>
       <c r="M4" s="194" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -17849,7 +17869,7 @@
       </c>
       <c r="N4" s="176"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="112"/>
       <c r="B5" s="111"/>
       <c r="C5" s="111"/>
@@ -17865,7 +17885,7 @@
       <c r="M5" s="111"/>
       <c r="N5" s="176"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="100"/>
       <c r="B6" s="207" t="s">
         <v>163</v>
@@ -17905,15 +17925,19 @@
       </c>
       <c r="L6" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS1Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS1Y#0007</v>
       </c>
       <c r="M6" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
       <c r="N6" s="176"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T6" s="108" t="str">
+        <f>_xll.ohObjectCallerAddress(J6)</f>
+        <v>'[EUR_Market.xlsm]3M (4)'!R3C10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="100"/>
       <c r="B7" s="181" t="str">
         <f t="shared" ref="B7:B42" si="4">B6</f>
@@ -17954,7 +17978,7 @@
       </c>
       <c r="L7" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS15M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS15M#0007</v>
       </c>
       <c r="M7" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -17962,7 +17986,7 @@
       </c>
       <c r="N7" s="176"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="100"/>
       <c r="B8" s="181" t="str">
         <f t="shared" si="4"/>
@@ -18003,7 +18027,7 @@
       </c>
       <c r="L8" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS18M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS18M#0007</v>
       </c>
       <c r="M8" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -18011,7 +18035,7 @@
       </c>
       <c r="N8" s="176"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="100"/>
       <c r="B9" s="181" t="str">
         <f t="shared" si="4"/>
@@ -18052,7 +18076,7 @@
       </c>
       <c r="L9" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS21M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS21M#0007</v>
       </c>
       <c r="M9" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -18060,7 +18084,7 @@
       </c>
       <c r="N9" s="176"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="100"/>
       <c r="B10" s="181" t="str">
         <f t="shared" si="4"/>
@@ -18101,7 +18125,7 @@
       </c>
       <c r="L10" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS2Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS2Y#0007</v>
       </c>
       <c r="M10" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -18118,7 +18142,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="100"/>
       <c r="B11" s="181" t="str">
         <f t="shared" si="4"/>
@@ -18159,7 +18183,7 @@
       </c>
       <c r="L11" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS3Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS3Y#0007</v>
       </c>
       <c r="M11" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -18176,7 +18200,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="100"/>
       <c r="B12" s="181" t="str">
         <f t="shared" si="4"/>
@@ -18217,7 +18241,7 @@
       </c>
       <c r="L12" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS4Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS4Y#0007</v>
       </c>
       <c r="M12" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -18234,7 +18258,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="100"/>
       <c r="B13" s="181" t="str">
         <f t="shared" si="4"/>
@@ -18275,7 +18299,7 @@
       </c>
       <c r="L13" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS5Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS5Y#0007</v>
       </c>
       <c r="M13" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -18292,7 +18316,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="100"/>
       <c r="B14" s="181" t="str">
         <f t="shared" si="4"/>
@@ -18333,7 +18357,7 @@
       </c>
       <c r="L14" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS6Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS6Y#0007</v>
       </c>
       <c r="M14" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -18350,7 +18374,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="100"/>
       <c r="B15" s="181" t="str">
         <f t="shared" si="4"/>
@@ -18391,7 +18415,7 @@
       </c>
       <c r="L15" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS7Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS7Y#0007</v>
       </c>
       <c r="M15" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -18402,7 +18426,7 @@
       <c r="Q15" s="175"/>
       <c r="R15" s="175"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="100"/>
       <c r="B16" s="181" t="str">
         <f t="shared" si="4"/>
@@ -18443,7 +18467,7 @@
       </c>
       <c r="L16" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS8Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS8Y#0007</v>
       </c>
       <c r="M16" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -18492,7 +18516,7 @@
       </c>
       <c r="L17" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS9Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS9Y#0007</v>
       </c>
       <c r="M17" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -18541,7 +18565,7 @@
       </c>
       <c r="L18" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS10Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS10Y#0007</v>
       </c>
       <c r="M18" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -18590,7 +18614,7 @@
       </c>
       <c r="L19" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS11Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS11Y#0007</v>
       </c>
       <c r="M19" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -18639,7 +18663,7 @@
       </c>
       <c r="L20" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS12Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS12Y#0007</v>
       </c>
       <c r="M20" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -18688,7 +18712,7 @@
       </c>
       <c r="L21" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS13Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS13Y#0007</v>
       </c>
       <c r="M21" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -18737,7 +18761,7 @@
       </c>
       <c r="L22" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS14Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS14Y#0007</v>
       </c>
       <c r="M22" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -18786,7 +18810,7 @@
       </c>
       <c r="L23" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS15Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS15Y#0007</v>
       </c>
       <c r="M23" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -18835,7 +18859,7 @@
       </c>
       <c r="L24" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS16Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS16Y#0007</v>
       </c>
       <c r="M24" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -18884,7 +18908,7 @@
       </c>
       <c r="L25" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS17Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS17Y#0007</v>
       </c>
       <c r="M25" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -18933,7 +18957,7 @@
       </c>
       <c r="L26" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS18Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS18Y#0007</v>
       </c>
       <c r="M26" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -18982,7 +19006,7 @@
       </c>
       <c r="L27" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS19Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS19Y#0007</v>
       </c>
       <c r="M27" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -19031,7 +19055,7 @@
       </c>
       <c r="L28" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS20Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS20Y#0007</v>
       </c>
       <c r="M28" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -19080,7 +19104,7 @@
       </c>
       <c r="L29" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS21Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS21Y#0007</v>
       </c>
       <c r="M29" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -19129,7 +19153,7 @@
       </c>
       <c r="L30" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS22Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS22Y#0007</v>
       </c>
       <c r="M30" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -19178,7 +19202,7 @@
       </c>
       <c r="L31" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS23Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS23Y#0007</v>
       </c>
       <c r="M31" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -19227,7 +19251,7 @@
       </c>
       <c r="L32" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS24Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS24Y#0007</v>
       </c>
       <c r="M32" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -19276,7 +19300,7 @@
       </c>
       <c r="L33" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS25Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS25Y#0007</v>
       </c>
       <c r="M33" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -19325,7 +19349,7 @@
       </c>
       <c r="L34" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS26Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS26Y#0007</v>
       </c>
       <c r="M34" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -19374,7 +19398,7 @@
       </c>
       <c r="L35" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS27Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS27Y#0007</v>
       </c>
       <c r="M35" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -19423,7 +19447,7 @@
       </c>
       <c r="L36" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS28Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS28Y#0007</v>
       </c>
       <c r="M36" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -19472,7 +19496,7 @@
       </c>
       <c r="L37" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS29Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS29Y#0007</v>
       </c>
       <c r="M37" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -19521,7 +19545,7 @@
       </c>
       <c r="L38" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS30Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS30Y#0007</v>
       </c>
       <c r="M38" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -19570,7 +19594,7 @@
       </c>
       <c r="L39" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS35Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS35Y#0007</v>
       </c>
       <c r="M39" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -19619,7 +19643,7 @@
       </c>
       <c r="L40" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS40Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS40Y#0007</v>
       </c>
       <c r="M40" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -19668,7 +19692,7 @@
       </c>
       <c r="L41" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS50Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS50Y#0007</v>
       </c>
       <c r="M41" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -19717,7 +19741,7 @@
       </c>
       <c r="L42" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS60Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS60Y#0007</v>
       </c>
       <c r="M42" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/EUR_YC3MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YC3MBootstrapping.xlsx
@@ -932,7 +932,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -989,12 +989,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1401,15 +1407,11 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1418,31 +1420,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1460,7 +1440,7 @@
     <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1803,17 +1783,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1893,7 +1873,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1927,31 +1907,22 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1966,6 +1937,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2284,27 +2258,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="210" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="210" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" style="210" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="210" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.7109375" style="210" customWidth="1"/>
-    <col min="8" max="8" width="4" style="210" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3" style="210" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="2.7109375" style="210" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="210" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="210" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="210" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="210"/>
+    <col min="1" max="2" width="2.7109375" style="211" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="211" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" style="211" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="211" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="211" customWidth="1"/>
+    <col min="8" max="8" width="4" style="211" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" style="211" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="2.7109375" style="211" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="211" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="211" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="211" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="211"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="str">
+      <c r="B1" s="211" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Feb  7 2014 15:33:58</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="219" t="s">
         <v>160</v>
       </c>
@@ -2312,12 +2286,12 @@
       <c r="D2" s="220"/>
       <c r="E2" s="220"/>
       <c r="F2" s="221"/>
-      <c r="K2" s="222" t="s">
+      <c r="K2" s="219" t="s">
         <v>160</v>
       </c>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="224"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="227"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="59"/>
@@ -2363,10 +2337,10 @@
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="55"/>
-      <c r="H5" s="211" t="s">
+      <c r="H5" s="215" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="212" t="s">
+      <c r="I5" s="216" t="s">
         <v>110</v>
       </c>
       <c r="K5" s="127"/>
@@ -2375,7 +2349,7 @@
       </c>
       <c r="M5" s="128" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
+        <v>C:\Users\erik\Documents\repos\quantlib\QuantLibXL\Data2\XML\</v>
       </c>
       <c r="N5" s="125"/>
     </row>
@@ -2390,10 +2364,10 @@
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="55"/>
-      <c r="H6" s="211" t="s">
+      <c r="H6" s="215" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="212"/>
+      <c r="I6" s="216"/>
       <c r="K6" s="127"/>
       <c r="L6" s="126" t="s">
         <v>157</v>
@@ -2414,10 +2388,10 @@
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="55"/>
-      <c r="H7" s="211" t="s">
+      <c r="H7" s="215" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="212"/>
+      <c r="I7" s="216"/>
       <c r="K7" s="124"/>
       <c r="L7" s="123"/>
       <c r="M7" s="123"/>
@@ -2434,18 +2408,18 @@
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="55"/>
-      <c r="H8" s="215" t="s">
+      <c r="H8" s="217" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="216" t="s">
+      <c r="I8" s="218" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="217"/>
-      <c r="L8" s="217"/>
-      <c r="M8" s="217"/>
-      <c r="N8" s="217"/>
-    </row>
-    <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K8" s="212"/>
+      <c r="L8" s="212"/>
+      <c r="M8" s="212"/>
+      <c r="N8" s="212"/>
+    </row>
+    <row r="9" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="59"/>
       <c r="C9" s="86" t="s">
         <v>102</v>
@@ -2456,12 +2430,12 @@
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="55"/>
-      <c r="K9" s="222" t="s">
+      <c r="K9" s="219" t="s">
         <v>156</v>
       </c>
-      <c r="L9" s="223"/>
-      <c r="M9" s="223"/>
-      <c r="N9" s="224"/>
+      <c r="L9" s="220"/>
+      <c r="M9" s="220"/>
+      <c r="N9" s="227"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="59"/>
@@ -2484,7 +2458,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="84">
-        <v>41663.495694444442</v>
+        <v>41684.584490740737</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="55"/>
@@ -2538,7 +2512,7 @@
       </c>
       <c r="D14" s="81" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYC3M#0008</v>
+        <v>_EURYC3M#0000</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="55"/>
@@ -2718,7 +2692,7 @@
       <c r="B27" s="59"/>
       <c r="C27" s="63">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="D27" s="62">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2731,11 +2705,11 @@
       <c r="B28" s="59"/>
       <c r="C28" s="61">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63576</v>
+        <v>63604</v>
       </c>
       <c r="D28" s="60">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.19313772797651729</v>
+        <v>0.19313937030150777</v>
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="55"/>
@@ -2828,11 +2802,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="225" t="s">
+      <c r="B1" s="222" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="226"/>
-      <c r="D1" s="227"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="224"/>
       <c r="E1" s="51" t="s">
         <v>83</v>
       </c>
@@ -2944,7 +2918,7 @@
       </c>
       <c r="E4" s="34" t="str">
         <f>Deposits_3M!F3</f>
-        <v>EUR_YC3MRH_SND#0007</v>
+        <v>EUR_YC3MRH_SND#0000</v>
       </c>
       <c r="F4" s="33">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
@@ -2962,11 +2936,11 @@
       </c>
       <c r="K4" s="31">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L4" s="30">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41661</v>
+        <v>41689</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>
@@ -2983,7 +2957,7 @@
       </c>
       <c r="E5" s="34" t="str">
         <f>Deposits_3M!F4</f>
-        <v>EUR_YC3MRH_SWD#0007</v>
+        <v>EUR_YC3MRH_SWD#0000</v>
       </c>
       <c r="F5" s="33">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
@@ -3001,11 +2975,11 @@
       </c>
       <c r="K5" s="31">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L5" s="30">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41667</v>
+        <v>41695</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -3022,7 +2996,7 @@
       </c>
       <c r="E6" s="34" t="str">
         <f>Deposits_3M!F5</f>
-        <v>EUR_YC3MRH_2WD#0007</v>
+        <v>EUR_YC3MRH_2WD#0000</v>
       </c>
       <c r="F6" s="33">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
@@ -3040,11 +3014,11 @@
       </c>
       <c r="K6" s="31">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L6" s="30">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41674</v>
+        <v>41702</v>
       </c>
       <c r="M6" s="1">
         <v>50</v>
@@ -3061,7 +3035,7 @@
       </c>
       <c r="E7" s="34" t="str">
         <f>Deposits_3M!F6</f>
-        <v>EUR_YC3MRH_3WD#0007</v>
+        <v>EUR_YC3MRH_3WD#0000</v>
       </c>
       <c r="F7" s="33">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
@@ -3079,11 +3053,11 @@
       </c>
       <c r="K7" s="31">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L7" s="30">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41681</v>
+        <v>41709</v>
       </c>
       <c r="M7" s="1">
         <v>60</v>
@@ -3100,7 +3074,7 @@
       </c>
       <c r="E8" s="34" t="str">
         <f>Deposits_3M!F7</f>
-        <v>EUR_YC3MRH_1MD#0007</v>
+        <v>EUR_YC3MRH_1MD#0000</v>
       </c>
       <c r="F8" s="33">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
@@ -3118,11 +3092,11 @@
       </c>
       <c r="K8" s="31">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L8" s="30">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41691</v>
+        <v>41716</v>
       </c>
       <c r="M8" s="1">
         <v>70</v>
@@ -3139,7 +3113,7 @@
       </c>
       <c r="E9" s="34" t="str">
         <f>Deposits_3M!F8</f>
-        <v>EUR_YC3MRH_2MD#0007</v>
+        <v>EUR_YC3MRH_2MD#0000</v>
       </c>
       <c r="F9" s="33">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
@@ -3157,11 +3131,11 @@
       </c>
       <c r="K9" s="31">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L9" s="30">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41719</v>
+        <v>41751</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -3172,7 +3146,7 @@
       </c>
       <c r="E10" s="34" t="str">
         <f>Deposits_3M!F9</f>
-        <v>EUR_YC3MRH_3MD#0007</v>
+        <v>EUR_YC3MRH_3MD#0000</v>
       </c>
       <c r="F10" s="33">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
@@ -3190,11 +3164,11 @@
       </c>
       <c r="K10" s="31">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L10" s="30">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41751</v>
+        <v>41778</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -3378,7 +3352,7 @@
       </c>
       <c r="E16" s="42" t="str">
         <f>FRAs_3M!H3</f>
-        <v>EUR_YC3MRH_T3F1#0007</v>
+        <v>EUR_YC3MRH_T3F1#0000</v>
       </c>
       <c r="F16" s="41" t="e">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
@@ -3396,11 +3370,11 @@
       </c>
       <c r="K16" s="39">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L16" s="38">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>41751</v>
+        <v>41778</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
@@ -3416,7 +3390,7 @@
       </c>
       <c r="E17" s="27" t="str">
         <f>FRAs_3M!H4</f>
-        <v>EUR_YC3MRH_TOM3F1#0007</v>
+        <v>EUR_YC3MRH_TOM3F1#0000</v>
       </c>
       <c r="F17" s="26" t="e">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
@@ -3434,11 +3408,11 @@
       </c>
       <c r="K17" s="24">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>41661</v>
+        <v>41689</v>
       </c>
       <c r="L17" s="23">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>41751</v>
+        <v>41778</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
@@ -3472,11 +3446,11 @@
       </c>
       <c r="K18" s="31">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>41691</v>
+        <v>41716</v>
       </c>
       <c r="L18" s="30">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
@@ -3510,11 +3484,11 @@
       </c>
       <c r="K19" s="31">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>41719</v>
+        <v>41751</v>
       </c>
       <c r="L19" s="30">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>41813</v>
+        <v>41842</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -3548,11 +3522,11 @@
       </c>
       <c r="K20" s="31">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>41751</v>
+        <v>41778</v>
       </c>
       <c r="L20" s="30">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>41842</v>
+        <v>41870</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
@@ -3586,11 +3560,11 @@
       </c>
       <c r="K21" s="31">
         <f>_xll.qlRateHelperEarliestDate($E21,Trigger)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
       <c r="L21" s="30">
         <f>_xll.qlRateHelperLatestDate($E21,Trigger)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
@@ -3624,11 +3598,11 @@
       </c>
       <c r="K22" s="31">
         <f>_xll.qlRateHelperEarliestDate($E22,Trigger)</f>
-        <v>41813</v>
+        <v>41838</v>
       </c>
       <c r="L22" s="30">
         <f>_xll.qlRateHelperLatestDate($E22,Trigger)</f>
-        <v>41905</v>
+        <v>41932</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -3662,11 +3636,11 @@
       </c>
       <c r="K23" s="31">
         <f>_xll.qlRateHelperEarliestDate($E23,Trigger)</f>
-        <v>41841</v>
+        <v>41869</v>
       </c>
       <c r="L23" s="30">
         <f>_xll.qlRateHelperLatestDate($E23,Trigger)</f>
-        <v>41933</v>
+        <v>41961</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -4140,7 +4114,7 @@
       </c>
       <c r="E36" s="34" t="str">
         <f>Futures_3M!I3</f>
-        <v>EUR_YC3MRH_FUT3MG4#0007</v>
+        <v>EUR_YC3MRH_FUT3MG4#0000</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -4182,7 +4156,7 @@
       </c>
       <c r="E37" s="34" t="str">
         <f>Futures_3M!I4</f>
-        <v>EUR_YC3MRH_FUT3MH4#0007</v>
+        <v>EUR_YC3MRH_FUT3MH4#0000</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -4224,7 +4198,7 @@
       </c>
       <c r="E38" s="34" t="str">
         <f>Futures_3M!I5</f>
-        <v>EUR_YC3MRH_FUT3MJ4#0007</v>
+        <v>EUR_YC3MRH_FUT3MJ4#0000</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4266,7 +4240,7 @@
       </c>
       <c r="E39" s="34" t="str">
         <f>Futures_3M!I6</f>
-        <v>EUR_YC3MRH_FUT3MK4#0007</v>
+        <v>EUR_YC3MRH_FUT3MK4#0000</v>
       </c>
       <c r="F39" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4308,7 +4282,7 @@
       </c>
       <c r="E40" s="34" t="str">
         <f>Futures_3M!I7</f>
-        <v>EUR_YC3MRH_FUT3MM4#0007</v>
+        <v>EUR_YC3MRH_FUT3MM4#0000</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4350,7 +4324,7 @@
       </c>
       <c r="E41" s="34" t="str">
         <f>Futures_3M!I8</f>
-        <v>EUR_YC3MRH_FUT3MN4#0007</v>
+        <v>EUR_YC3MRH_FUT3MN4#0000</v>
       </c>
       <c r="F41" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4392,7 +4366,7 @@
       </c>
       <c r="E42" s="34" t="str">
         <f>Futures_3M!I9</f>
-        <v>EUR_YC3MRH_FUT3MQ4#0007</v>
+        <v>EUR_YC3MRH_FUT3MQ4#0000</v>
       </c>
       <c r="F42" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4434,7 +4408,7 @@
       </c>
       <c r="E43" s="34" t="str">
         <f>Futures_3M!I10</f>
-        <v>EUR_YC3MRH_FUT3MU4#0007</v>
+        <v>EUR_YC3MRH_FUT3MU4#0000</v>
       </c>
       <c r="F43" s="48">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4476,7 +4450,7 @@
       </c>
       <c r="E44" s="34" t="str">
         <f>Futures_3M!I11</f>
-        <v>EUR_YC3MRH_FUT3MV4#0007</v>
+        <v>EUR_YC3MRH_FUT3MV4#0000</v>
       </c>
       <c r="F44" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4518,7 +4492,7 @@
       </c>
       <c r="E45" s="34" t="str">
         <f>Futures_3M!I12</f>
-        <v>EUR_YC3MRH_FUT3MX4#0007</v>
+        <v>EUR_YC3MRH_FUT3MX4#0000</v>
       </c>
       <c r="F45" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4560,7 +4534,7 @@
       </c>
       <c r="E46" s="34" t="str">
         <f>Futures_3M!I13</f>
-        <v>EUR_YC3MRH_FUT3MZ4#0007</v>
+        <v>EUR_YC3MRH_FUT3MZ4#0000</v>
       </c>
       <c r="F46" s="48">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4602,7 +4576,7 @@
       </c>
       <c r="E47" s="34" t="str">
         <f>Futures_3M!I14</f>
-        <v>EUR_YC3MRH_FUT3MF5#0007</v>
+        <v>EUR_YC3MRH_FUT3MF5#0000</v>
       </c>
       <c r="F47" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -4644,7 +4618,7 @@
       </c>
       <c r="E48" s="34" t="str">
         <f>Futures_3M!I15</f>
-        <v>EUR_YC3MRH_FUT3MH5#0007</v>
+        <v>EUR_YC3MRH_FUT3MH5#0000</v>
       </c>
       <c r="F48" s="48">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
@@ -4686,7 +4660,7 @@
       </c>
       <c r="E49" s="34" t="str">
         <f>Futures_3M!I16</f>
-        <v>EUR_YC3MRH_FUT3MM5#0007</v>
+        <v>EUR_YC3MRH_FUT3MM5#0000</v>
       </c>
       <c r="F49" s="48">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -4728,7 +4702,7 @@
       </c>
       <c r="E50" s="34" t="str">
         <f>Futures_3M!I17</f>
-        <v>EUR_YC3MRH_FUT3MU5#0007</v>
+        <v>EUR_YC3MRH_FUT3MU5#0000</v>
       </c>
       <c r="F50" s="48">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
@@ -4770,7 +4744,7 @@
       </c>
       <c r="E51" s="34" t="str">
         <f>Futures_3M!I18</f>
-        <v>EUR_YC3MRH_FUT3MZ5#0007</v>
+        <v>EUR_YC3MRH_FUT3MZ5#0000</v>
       </c>
       <c r="F51" s="48">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
@@ -4812,7 +4786,7 @@
       </c>
       <c r="E52" s="34" t="str">
         <f>Futures_3M!I19</f>
-        <v>EUR_YC3MRH_FUT3MH6#0007</v>
+        <v>EUR_YC3MRH_FUT3MH6#0000</v>
       </c>
       <c r="F52" s="48">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
@@ -4854,7 +4828,7 @@
       </c>
       <c r="E53" s="34" t="str">
         <f>Futures_3M!I20</f>
-        <v>EUR_YC3MRH_FUT3MM6#0007</v>
+        <v>EUR_YC3MRH_FUT3MM6#0000</v>
       </c>
       <c r="F53" s="48">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
@@ -4896,7 +4870,7 @@
       </c>
       <c r="E54" s="34" t="str">
         <f>Futures_3M!I21</f>
-        <v>EUR_YC3MRH_FUT3MU6#0007</v>
+        <v>EUR_YC3MRH_FUT3MU6#0000</v>
       </c>
       <c r="F54" s="48">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
@@ -4938,7 +4912,7 @@
       </c>
       <c r="E55" s="34" t="str">
         <f>Futures_3M!I22</f>
-        <v>EUR_YC3MRH_FUT3MZ6#0007</v>
+        <v>EUR_YC3MRH_FUT3MZ6#0000</v>
       </c>
       <c r="F55" s="48">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
@@ -4980,7 +4954,7 @@
       </c>
       <c r="E56" s="34" t="str">
         <f>Futures_3M!I23</f>
-        <v>EUR_YC3MRH_FUT3MH7#0007</v>
+        <v>EUR_YC3MRH_FUT3MH7#0000</v>
       </c>
       <c r="F56" s="48">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
@@ -5022,7 +4996,7 @@
       </c>
       <c r="E57" s="34" t="str">
         <f>Futures_3M!I24</f>
-        <v>EUR_YC3MRH_FUT3MM7#0007</v>
+        <v>EUR_YC3MRH_FUT3MM7#0000</v>
       </c>
       <c r="F57" s="48">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
@@ -5064,7 +5038,7 @@
       </c>
       <c r="E58" s="34" t="str">
         <f>Futures_3M!I25</f>
-        <v>EUR_YC3MRH_FUT3MU7#0007</v>
+        <v>EUR_YC3MRH_FUT3MU7#0000</v>
       </c>
       <c r="F58" s="48">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
@@ -5106,7 +5080,7 @@
       </c>
       <c r="E59" s="34" t="str">
         <f>Futures_3M!I26</f>
-        <v>EUR_YC3MRH_FUT3MZ7#0007</v>
+        <v>EUR_YC3MRH_FUT3MZ7#0000</v>
       </c>
       <c r="F59" s="48">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
@@ -5148,7 +5122,7 @@
       </c>
       <c r="E60" s="34" t="str">
         <f>Futures_3M!I27</f>
-        <v>EUR_YC3MRH_FUT3MH8#0007</v>
+        <v>EUR_YC3MRH_FUT3MH8#0000</v>
       </c>
       <c r="F60" s="48">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
@@ -5190,7 +5164,7 @@
       </c>
       <c r="E61" s="34" t="str">
         <f>Futures_3M!I28</f>
-        <v>EUR_YC3MRH_FUT3MM8#0007</v>
+        <v>EUR_YC3MRH_FUT3MM8#0000</v>
       </c>
       <c r="F61" s="48">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
@@ -5232,7 +5206,7 @@
       </c>
       <c r="E62" s="34" t="str">
         <f>Futures_3M!I29</f>
-        <v>EUR_YC3MRH_FUT3MU8#0007</v>
+        <v>EUR_YC3MRH_FUT3MU8#0000</v>
       </c>
       <c r="F62" s="48">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
@@ -5274,7 +5248,7 @@
       </c>
       <c r="E63" s="34" t="str">
         <f>Futures_3M!I30</f>
-        <v>EUR_YC3MRH_FUT3MZ8#0007</v>
+        <v>EUR_YC3MRH_FUT3MZ8#0000</v>
       </c>
       <c r="F63" s="48">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
@@ -5316,7 +5290,7 @@
       </c>
       <c r="E64" s="34" t="str">
         <f>Futures_3M!I31</f>
-        <v>EUR_YC3MRH_FUT3MH9#0007</v>
+        <v>EUR_YC3MRH_FUT3MH9#0000</v>
       </c>
       <c r="F64" s="48">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
@@ -5358,7 +5332,7 @@
       </c>
       <c r="E65" s="34" t="str">
         <f>Futures_3M!I32</f>
-        <v>EUR_YC3MRH_FUT3MM9#0007</v>
+        <v>EUR_YC3MRH_FUT3MM9#0000</v>
       </c>
       <c r="F65" s="48">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
@@ -5400,7 +5374,7 @@
       </c>
       <c r="E66" s="34" t="str">
         <f>Futures_3M!I33</f>
-        <v>EUR_YC3MRH_FUT3MU9#0007</v>
+        <v>EUR_YC3MRH_FUT3MU9#0000</v>
       </c>
       <c r="F66" s="48">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
@@ -5442,7 +5416,7 @@
       </c>
       <c r="E67" s="34" t="str">
         <f>Futures_3M!I34</f>
-        <v>EUR_YC3MRH_FUT3MZ9#0007</v>
+        <v>EUR_YC3MRH_FUT3MZ9#0000</v>
       </c>
       <c r="F67" s="48">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
@@ -5484,7 +5458,7 @@
       </c>
       <c r="E68" s="34" t="str">
         <f>Futures_3M!I35</f>
-        <v>EUR_YC3MRH_FUT3MH0#0007</v>
+        <v>EUR_YC3MRH_FUT3MH0#0000</v>
       </c>
       <c r="F68" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
@@ -5526,7 +5500,7 @@
       </c>
       <c r="E69" s="34" t="str">
         <f>Futures_3M!I36</f>
-        <v>EUR_YC3MRH_FUT3MM0#0007</v>
+        <v>EUR_YC3MRH_FUT3MM0#0000</v>
       </c>
       <c r="F69" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
@@ -5568,7 +5542,7 @@
       </c>
       <c r="E70" s="34" t="str">
         <f>Futures_3M!I37</f>
-        <v>EUR_YC3MRH_FUT3MU0#0007</v>
+        <v>EUR_YC3MRH_FUT3MU0#0000</v>
       </c>
       <c r="F70" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
@@ -5610,7 +5584,7 @@
       </c>
       <c r="E71" s="34" t="str">
         <f>Futures_3M!I38</f>
-        <v>EUR_YC3MRH_FUT3MZ0#0007</v>
+        <v>EUR_YC3MRH_FUT3MZ0#0000</v>
       </c>
       <c r="F71" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
@@ -5652,7 +5626,7 @@
       </c>
       <c r="E72" s="34" t="str">
         <f>Futures_3M!I39</f>
-        <v>EUR_YC3MRH_FUT3MH1#0007</v>
+        <v>EUR_YC3MRH_FUT3MH1#0000</v>
       </c>
       <c r="F72" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
@@ -5694,7 +5668,7 @@
       </c>
       <c r="E73" s="34" t="str">
         <f>Futures_3M!I40</f>
-        <v>EUR_YC3MRH_FUT3MM1#0007</v>
+        <v>EUR_YC3MRH_FUT3MM1#0000</v>
       </c>
       <c r="F73" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
@@ -5736,7 +5710,7 @@
       </c>
       <c r="E74" s="34" t="str">
         <f>Futures_3M!I41</f>
-        <v>EUR_YC3MRH_FUT3MU1#0007</v>
+        <v>EUR_YC3MRH_FUT3MU1#0000</v>
       </c>
       <c r="F74" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
@@ -5778,7 +5752,7 @@
       </c>
       <c r="E75" s="34" t="str">
         <f>Futures_3M!I42</f>
-        <v>EUR_YC3MRH_FUT3MZ1#0007</v>
+        <v>EUR_YC3MRH_FUT3MZ1#0000</v>
       </c>
       <c r="F75" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
@@ -5820,7 +5794,7 @@
       </c>
       <c r="E76" s="34" t="str">
         <f>Futures_3M!I43</f>
-        <v>EUR_YC3MRH_FUT3MH2#0007</v>
+        <v>EUR_YC3MRH_FUT3MH2#0000</v>
       </c>
       <c r="F76" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
@@ -5862,7 +5836,7 @@
       </c>
       <c r="E77" s="27" t="str">
         <f>Futures_3M!I44</f>
-        <v>EUR_YC3MRH_FUT3MM2#0007</v>
+        <v>EUR_YC3MRH_FUT3MM2#0000</v>
       </c>
       <c r="F77" s="47" t="e">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
@@ -6323,9 +6297,9 @@
         <f t="shared" si="4"/>
         <v>EUR_YC3MRH_1S12</v>
       </c>
-      <c r="F89" s="41" t="e">
+      <c r="F89" s="41">
         <f>_xll.qlRateHelperQuoteValue($E89,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="G89" s="41">
         <f>_xll.qlSwapRateHelperSpread($E89,Trigger)</f>
@@ -6342,11 +6316,11 @@
       </c>
       <c r="K89" s="39">
         <f>_xll.qlRateHelperEarliestDate($E89,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L89" s="38">
         <f>_xll.qlRateHelperLatestDate($E89,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.2">
@@ -6361,9 +6335,9 @@
         <f t="shared" si="4"/>
         <v>EUR_YC3MRH_2S12</v>
       </c>
-      <c r="F90" s="33" t="e">
+      <c r="F90" s="33">
         <f>_xll.qlRateHelperQuoteValue($E90,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.2200000000000007E-3</v>
       </c>
       <c r="G90" s="33">
         <f>_xll.qlSwapRateHelperSpread($E90,Trigger)</f>
@@ -6380,11 +6354,11 @@
       </c>
       <c r="K90" s="31">
         <f>_xll.qlRateHelperEarliestDate($E90,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L90" s="30">
         <f>_xll.qlRateHelperLatestDate($E90,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.2">
@@ -6399,9 +6373,9 @@
         <f t="shared" si="4"/>
         <v>EUR_YC3MRH_3S12</v>
       </c>
-      <c r="F91" s="33" t="e">
+      <c r="F91" s="33">
         <f>_xll.qlRateHelperQuoteValue($E91,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.8599999999999997E-3</v>
       </c>
       <c r="G91" s="33">
         <f>_xll.qlSwapRateHelperSpread($E91,Trigger)</f>
@@ -6418,11 +6392,11 @@
       </c>
       <c r="K91" s="31">
         <f>_xll.qlRateHelperEarliestDate($E91,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L91" s="30">
         <f>_xll.qlRateHelperLatestDate($E91,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.2">
@@ -6437,9 +6411,9 @@
         <f t="shared" si="4"/>
         <v>EUR_YC3MRH_4S12</v>
       </c>
-      <c r="F92" s="33" t="e">
+      <c r="F92" s="33">
         <f>_xll.qlRateHelperQuoteValue($E92,Trigger)</f>
-        <v>#NUM!</v>
+        <v>5.5000000000000005E-3</v>
       </c>
       <c r="G92" s="33">
         <f>_xll.qlSwapRateHelperSpread($E92,Trigger)</f>
@@ -6456,11 +6430,11 @@
       </c>
       <c r="K92" s="31">
         <f>_xll.qlRateHelperEarliestDate($E92,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L92" s="30">
         <f>_xll.qlRateHelperLatestDate($E92,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.2">
@@ -6475,9 +6449,9 @@
         <f t="shared" si="4"/>
         <v>EUR_YC3MRH_1S24</v>
       </c>
-      <c r="F93" s="33" t="e">
+      <c r="F93" s="33">
         <f>_xll.qlRateHelperQuoteValue($E93,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.8900000000000002E-3</v>
       </c>
       <c r="G93" s="33">
         <f>_xll.qlSwapRateHelperSpread($E93,Trigger)</f>
@@ -6494,11 +6468,11 @@
       </c>
       <c r="K93" s="31">
         <f>_xll.qlRateHelperEarliestDate($E93,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L93" s="30">
         <f>_xll.qlRateHelperLatestDate($E93,Trigger)</f>
-        <v>42390</v>
+        <v>42418</v>
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.2">
@@ -6513,9 +6487,9 @@
         <f t="shared" si="4"/>
         <v>EUR_YC3MRH_2S24</v>
       </c>
-      <c r="F94" s="33" t="e">
+      <c r="F94" s="33">
         <f>_xll.qlRateHelperQuoteValue($E94,Trigger)</f>
-        <v>#NUM!</v>
+        <v>5.5899999999999995E-3</v>
       </c>
       <c r="G94" s="33">
         <f>_xll.qlSwapRateHelperSpread($E94,Trigger)</f>
@@ -6532,11 +6506,11 @@
       </c>
       <c r="K94" s="31">
         <f>_xll.qlRateHelperEarliestDate($E94,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L94" s="30">
         <f>_xll.qlRateHelperLatestDate($E94,Trigger)</f>
-        <v>42390</v>
+        <v>42418</v>
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.2">
@@ -6551,9 +6525,9 @@
         <f t="shared" si="4"/>
         <v>EUR_YC3MRH_1S36</v>
       </c>
-      <c r="F95" s="26" t="e">
+      <c r="F95" s="26">
         <f>_xll.qlRateHelperQuoteValue($E95,Trigger)</f>
-        <v>#NUM!</v>
+        <v>6.6100000000000004E-3</v>
       </c>
       <c r="G95" s="26">
         <f>_xll.qlSwapRateHelperSpread($E95,Trigger)</f>
@@ -6570,11 +6544,11 @@
       </c>
       <c r="K95" s="24">
         <f>_xll.qlRateHelperEarliestDate($E95,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L95" s="23">
         <f>_xll.qlRateHelperLatestDate($E95,Trigger)</f>
-        <v>42758</v>
+        <v>42786</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.2">
@@ -6591,7 +6565,7 @@
       </c>
       <c r="E96" s="34" t="str">
         <f>Swaps_3M!L6</f>
-        <v>EUR_YC3MRH_AB3E1Y#0007</v>
+        <v>EUR_YC3MRH_AB3E1Y#0000</v>
       </c>
       <c r="F96" s="33">
         <f>_xll.qlRateHelperQuoteValue($E96,Trigger)</f>
@@ -6612,11 +6586,11 @@
       </c>
       <c r="K96" s="31">
         <f>_xll.qlRateHelperEarliestDate($E96,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L96" s="30">
         <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="N96" s="37">
         <f t="shared" ref="N96:N132" si="7">IF(G96=G133,F96-F133,"--")</f>
@@ -6637,7 +6611,7 @@
       </c>
       <c r="E97" s="34" t="str">
         <f>Swaps_3M!L7</f>
-        <v>EUR_YC3MRH_AB3E15M#0007</v>
+        <v>EUR_YC3MRH_AB3E15M#0000</v>
       </c>
       <c r="F97" s="33">
         <f>_xll.qlRateHelperQuoteValue($E97,Trigger)</f>
@@ -6658,11 +6632,11 @@
       </c>
       <c r="K97" s="31">
         <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L97" s="30">
         <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
-        <v>42115</v>
+        <v>42142</v>
       </c>
       <c r="N97" s="37">
         <f t="shared" si="7"/>
@@ -6683,7 +6657,7 @@
       </c>
       <c r="E98" s="34" t="str">
         <f>Swaps_3M!L8</f>
-        <v>EUR_YC3MRH_AB3E18M#0007</v>
+        <v>EUR_YC3MRH_AB3E18M#0000</v>
       </c>
       <c r="F98" s="33">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
@@ -6704,11 +6678,11 @@
       </c>
       <c r="K98" s="31">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L98" s="30">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>42206</v>
+        <v>42234</v>
       </c>
       <c r="N98" s="37">
         <f t="shared" si="7"/>
@@ -6729,7 +6703,7 @@
       </c>
       <c r="E99" s="34" t="str">
         <f>Swaps_3M!L9</f>
-        <v>EUR_YC3MRH_AB3E21M#0007</v>
+        <v>EUR_YC3MRH_AB3E21M#0000</v>
       </c>
       <c r="F99" s="33">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
@@ -6750,11 +6724,11 @@
       </c>
       <c r="K99" s="31">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L99" s="30">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>42298</v>
+        <v>42326</v>
       </c>
       <c r="N99" s="37">
         <f t="shared" si="7"/>
@@ -6775,7 +6749,7 @@
       </c>
       <c r="E100" s="34" t="str">
         <f>Swaps_3M!L10</f>
-        <v>EUR_YC3MRH_AB3E2Y#0007</v>
+        <v>EUR_YC3MRH_AB3E2Y#0000</v>
       </c>
       <c r="F100" s="33">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
@@ -6796,11 +6770,11 @@
       </c>
       <c r="K100" s="31">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L100" s="30">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
-        <v>42390</v>
+        <v>42418</v>
       </c>
       <c r="N100" s="37">
         <f t="shared" si="7"/>
@@ -6821,7 +6795,7 @@
       </c>
       <c r="E101" s="34" t="str">
         <f>Swaps_3M!L11</f>
-        <v>EUR_YC3MRH_AB3E3Y#0007</v>
+        <v>EUR_YC3MRH_AB3E3Y#0000</v>
       </c>
       <c r="F101" s="33">
         <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
@@ -6842,11 +6816,11 @@
       </c>
       <c r="K101" s="31">
         <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L101" s="30">
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>42758</v>
+        <v>42786</v>
       </c>
       <c r="N101" s="37">
         <f t="shared" si="7"/>
@@ -6867,7 +6841,7 @@
       </c>
       <c r="E102" s="34" t="str">
         <f>Swaps_3M!L12</f>
-        <v>EUR_YC3MRH_AB3E4Y#0007</v>
+        <v>EUR_YC3MRH_AB3E4Y#0000</v>
       </c>
       <c r="F102" s="33">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
@@ -6888,11 +6862,11 @@
       </c>
       <c r="K102" s="31">
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L102" s="30">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>43122</v>
+        <v>43150</v>
       </c>
       <c r="N102" s="37">
         <f t="shared" si="7"/>
@@ -6913,7 +6887,7 @@
       </c>
       <c r="E103" s="34" t="str">
         <f>Swaps_3M!L13</f>
-        <v>EUR_YC3MRH_AB3E5Y#0007</v>
+        <v>EUR_YC3MRH_AB3E5Y#0000</v>
       </c>
       <c r="F103" s="33">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
@@ -6934,11 +6908,11 @@
       </c>
       <c r="K103" s="31">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L103" s="30">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>43486</v>
+        <v>43514</v>
       </c>
       <c r="N103" s="37">
         <f t="shared" si="7"/>
@@ -6959,7 +6933,7 @@
       </c>
       <c r="E104" s="34" t="str">
         <f>Swaps_3M!L14</f>
-        <v>EUR_YC3MRH_AB3E6Y#0007</v>
+        <v>EUR_YC3MRH_AB3E6Y#0000</v>
       </c>
       <c r="F104" s="33">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
@@ -6980,11 +6954,11 @@
       </c>
       <c r="K104" s="31">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L104" s="30">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>43851</v>
+        <v>43879</v>
       </c>
       <c r="N104" s="37">
         <f t="shared" si="7"/>
@@ -7005,7 +6979,7 @@
       </c>
       <c r="E105" s="34" t="str">
         <f>Swaps_3M!L15</f>
-        <v>EUR_YC3MRH_AB3E7Y#0007</v>
+        <v>EUR_YC3MRH_AB3E7Y#0000</v>
       </c>
       <c r="F105" s="33">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
@@ -7026,11 +7000,11 @@
       </c>
       <c r="K105" s="31">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L105" s="30">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>44217</v>
+        <v>44245</v>
       </c>
       <c r="N105" s="37">
         <f t="shared" si="7"/>
@@ -7051,7 +7025,7 @@
       </c>
       <c r="E106" s="34" t="str">
         <f>Swaps_3M!L16</f>
-        <v>EUR_YC3MRH_AB3E8Y#0007</v>
+        <v>EUR_YC3MRH_AB3E8Y#0000</v>
       </c>
       <c r="F106" s="33">
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
@@ -7072,11 +7046,11 @@
       </c>
       <c r="K106" s="31">
         <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L106" s="30">
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>44582</v>
+        <v>44610</v>
       </c>
       <c r="N106" s="37">
         <f t="shared" si="7"/>
@@ -7097,7 +7071,7 @@
       </c>
       <c r="E107" s="34" t="str">
         <f>Swaps_3M!L17</f>
-        <v>EUR_YC3MRH_AB3E9Y#0007</v>
+        <v>EUR_YC3MRH_AB3E9Y#0000</v>
       </c>
       <c r="F107" s="33">
         <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
@@ -7118,11 +7092,11 @@
       </c>
       <c r="K107" s="31">
         <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L107" s="30">
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>44949</v>
+        <v>44977</v>
       </c>
       <c r="N107" s="37">
         <f t="shared" si="7"/>
@@ -7143,7 +7117,7 @@
       </c>
       <c r="E108" s="34" t="str">
         <f>Swaps_3M!L18</f>
-        <v>EUR_YC3MRH_AB3E10Y#0007</v>
+        <v>EUR_YC3MRH_AB3E10Y#0000</v>
       </c>
       <c r="F108" s="33">
         <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
@@ -7164,11 +7138,11 @@
       </c>
       <c r="K108" s="31">
         <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L108" s="30">
         <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
-        <v>45313</v>
+        <v>45341</v>
       </c>
       <c r="N108" s="37">
         <f t="shared" si="7"/>
@@ -7189,7 +7163,7 @@
       </c>
       <c r="E109" s="34" t="str">
         <f>Swaps_3M!L19</f>
-        <v>EUR_YC3MRH_AB3E11Y#0007</v>
+        <v>EUR_YC3MRH_AB3E11Y#0000</v>
       </c>
       <c r="F109" s="33">
         <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
@@ -7210,11 +7184,11 @@
       </c>
       <c r="K109" s="31">
         <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L109" s="30">
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
-        <v>45678</v>
+        <v>45706</v>
       </c>
       <c r="N109" s="37">
         <f t="shared" si="7"/>
@@ -7235,7 +7209,7 @@
       </c>
       <c r="E110" s="34" t="str">
         <f>Swaps_3M!L20</f>
-        <v>EUR_YC3MRH_AB3E12Y#0007</v>
+        <v>EUR_YC3MRH_AB3E12Y#0000</v>
       </c>
       <c r="F110" s="33">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
@@ -7256,11 +7230,11 @@
       </c>
       <c r="K110" s="31">
         <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L110" s="30">
         <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>46043</v>
+        <v>46071</v>
       </c>
       <c r="N110" s="37">
         <f t="shared" si="7"/>
@@ -7281,7 +7255,7 @@
       </c>
       <c r="E111" s="34" t="str">
         <f>Swaps_3M!L21</f>
-        <v>EUR_YC3MRH_AB3E13Y#0007</v>
+        <v>EUR_YC3MRH_AB3E13Y#0000</v>
       </c>
       <c r="F111" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E111,Trigger)</f>
@@ -7302,11 +7276,11 @@
       </c>
       <c r="K111" s="31">
         <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L111" s="30">
         <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>46408</v>
+        <v>46436</v>
       </c>
       <c r="N111" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7327,7 +7301,7 @@
       </c>
       <c r="E112" s="34" t="str">
         <f>Swaps_3M!L22</f>
-        <v>EUR_YC3MRH_AB3E14Y#0007</v>
+        <v>EUR_YC3MRH_AB3E14Y#0000</v>
       </c>
       <c r="F112" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
@@ -7348,11 +7322,11 @@
       </c>
       <c r="K112" s="31">
         <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L112" s="30">
         <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>46773</v>
+        <v>46801</v>
       </c>
       <c r="N112" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7373,7 +7347,7 @@
       </c>
       <c r="E113" s="34" t="str">
         <f>Swaps_3M!L23</f>
-        <v>EUR_YC3MRH_AB3E15Y#0007</v>
+        <v>EUR_YC3MRH_AB3E15Y#0000</v>
       </c>
       <c r="F113" s="33">
         <f>_xll.qlRateHelperQuoteValue($E113,Trigger)</f>
@@ -7394,11 +7368,11 @@
       </c>
       <c r="K113" s="31">
         <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L113" s="30">
         <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
-        <v>47140</v>
+        <v>47168</v>
       </c>
       <c r="N113" s="37">
         <f t="shared" si="7"/>
@@ -7419,7 +7393,7 @@
       </c>
       <c r="E114" s="34" t="str">
         <f>Swaps_3M!L24</f>
-        <v>EUR_YC3MRH_AB3E16Y#0007</v>
+        <v>EUR_YC3MRH_AB3E16Y#0000</v>
       </c>
       <c r="F114" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E114,Trigger)</f>
@@ -7440,11 +7414,11 @@
       </c>
       <c r="K114" s="31">
         <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L114" s="30">
         <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
-        <v>47504</v>
+        <v>47532</v>
       </c>
       <c r="N114" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7465,7 +7439,7 @@
       </c>
       <c r="E115" s="34" t="str">
         <f>Swaps_3M!L25</f>
-        <v>EUR_YC3MRH_AB3E17Y#0007</v>
+        <v>EUR_YC3MRH_AB3E17Y#0000</v>
       </c>
       <c r="F115" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
@@ -7486,11 +7460,11 @@
       </c>
       <c r="K115" s="31">
         <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L115" s="30">
         <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
-        <v>47869</v>
+        <v>47897</v>
       </c>
       <c r="N115" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7511,7 +7485,7 @@
       </c>
       <c r="E116" s="34" t="str">
         <f>Swaps_3M!L26</f>
-        <v>EUR_YC3MRH_AB3E18Y#0007</v>
+        <v>EUR_YC3MRH_AB3E18Y#0000</v>
       </c>
       <c r="F116" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E116,Trigger)</f>
@@ -7532,11 +7506,11 @@
       </c>
       <c r="K116" s="31">
         <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L116" s="30">
         <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>48234</v>
+        <v>48262</v>
       </c>
       <c r="N116" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7557,7 +7531,7 @@
       </c>
       <c r="E117" s="34" t="str">
         <f>Swaps_3M!L27</f>
-        <v>EUR_YC3MRH_AB3E19Y#0007</v>
+        <v>EUR_YC3MRH_AB3E19Y#0000</v>
       </c>
       <c r="F117" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E117,Trigger)</f>
@@ -7578,11 +7552,11 @@
       </c>
       <c r="K117" s="31">
         <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L117" s="30">
         <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>48600</v>
+        <v>48628</v>
       </c>
       <c r="N117" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7603,7 +7577,7 @@
       </c>
       <c r="E118" s="34" t="str">
         <f>Swaps_3M!L28</f>
-        <v>EUR_YC3MRH_AB3E20Y#0007</v>
+        <v>EUR_YC3MRH_AB3E20Y#0000</v>
       </c>
       <c r="F118" s="33">
         <f>_xll.qlRateHelperQuoteValue($E118,Trigger)</f>
@@ -7624,11 +7598,11 @@
       </c>
       <c r="K118" s="31">
         <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L118" s="30">
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>48967</v>
+        <v>48995</v>
       </c>
       <c r="N118" s="37">
         <f t="shared" si="7"/>
@@ -7649,7 +7623,7 @@
       </c>
       <c r="E119" s="34" t="str">
         <f>Swaps_3M!L29</f>
-        <v>EUR_YC3MRH_AB3E21Y#0007</v>
+        <v>EUR_YC3MRH_AB3E21Y#0000</v>
       </c>
       <c r="F119" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E119,Trigger)</f>
@@ -7670,11 +7644,11 @@
       </c>
       <c r="K119" s="31">
         <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L119" s="30">
         <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
-        <v>49331</v>
+        <v>49359</v>
       </c>
       <c r="N119" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7695,7 +7669,7 @@
       </c>
       <c r="E120" s="34" t="str">
         <f>Swaps_3M!L30</f>
-        <v>EUR_YC3MRH_AB3E22Y#0007</v>
+        <v>EUR_YC3MRH_AB3E22Y#0000</v>
       </c>
       <c r="F120" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
@@ -7716,11 +7690,11 @@
       </c>
       <c r="K120" s="31">
         <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L120" s="30">
         <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
-        <v>49695</v>
+        <v>49723</v>
       </c>
       <c r="N120" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7741,7 +7715,7 @@
       </c>
       <c r="E121" s="34" t="str">
         <f>Swaps_3M!L31</f>
-        <v>EUR_YC3MRH_AB3E23Y#0007</v>
+        <v>EUR_YC3MRH_AB3E23Y#0000</v>
       </c>
       <c r="F121" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
@@ -7762,11 +7736,11 @@
       </c>
       <c r="K121" s="31">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L121" s="30">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>50061</v>
+        <v>50089</v>
       </c>
       <c r="N121" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7787,7 +7761,7 @@
       </c>
       <c r="E122" s="34" t="str">
         <f>Swaps_3M!L32</f>
-        <v>EUR_YC3MRH_AB3E24Y#0007</v>
+        <v>EUR_YC3MRH_AB3E24Y#0000</v>
       </c>
       <c r="F122" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
@@ -7808,11 +7782,11 @@
       </c>
       <c r="K122" s="31">
         <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L122" s="30">
         <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>50426</v>
+        <v>50454</v>
       </c>
       <c r="N122" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7833,7 +7807,7 @@
       </c>
       <c r="E123" s="34" t="str">
         <f>Swaps_3M!L33</f>
-        <v>EUR_YC3MRH_AB3E25Y#0007</v>
+        <v>EUR_YC3MRH_AB3E25Y#0000</v>
       </c>
       <c r="F123" s="33">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
@@ -7854,11 +7828,11 @@
       </c>
       <c r="K123" s="31">
         <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L123" s="30">
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>50791</v>
+        <v>50819</v>
       </c>
       <c r="N123" s="37">
         <f t="shared" si="7"/>
@@ -7879,7 +7853,7 @@
       </c>
       <c r="E124" s="34" t="str">
         <f>Swaps_3M!L34</f>
-        <v>EUR_YC3MRH_AB3E26Y#0007</v>
+        <v>EUR_YC3MRH_AB3E26Y#0000</v>
       </c>
       <c r="F124" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E124,Trigger)</f>
@@ -7900,11 +7874,11 @@
       </c>
       <c r="K124" s="31">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L124" s="30">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
-        <v>51158</v>
+        <v>51186</v>
       </c>
       <c r="N124" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7925,7 +7899,7 @@
       </c>
       <c r="E125" s="34" t="str">
         <f>Swaps_3M!L35</f>
-        <v>EUR_YC3MRH_AB3E27Y#0007</v>
+        <v>EUR_YC3MRH_AB3E27Y#0000</v>
       </c>
       <c r="F125" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
@@ -7946,11 +7920,11 @@
       </c>
       <c r="K125" s="31">
         <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L125" s="30">
         <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
-        <v>51522</v>
+        <v>51550</v>
       </c>
       <c r="N125" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7971,7 +7945,7 @@
       </c>
       <c r="E126" s="34" t="str">
         <f>Swaps_3M!L36</f>
-        <v>EUR_YC3MRH_AB3E28Y#0007</v>
+        <v>EUR_YC3MRH_AB3E28Y#0000</v>
       </c>
       <c r="F126" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
@@ -7992,11 +7966,11 @@
       </c>
       <c r="K126" s="31">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L126" s="30">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>51887</v>
+        <v>51915</v>
       </c>
       <c r="N126" s="37" t="e">
         <f t="shared" si="7"/>
@@ -8017,7 +7991,7 @@
       </c>
       <c r="E127" s="34" t="str">
         <f>Swaps_3M!L37</f>
-        <v>EUR_YC3MRH_AB3E29Y#0007</v>
+        <v>EUR_YC3MRH_AB3E29Y#0000</v>
       </c>
       <c r="F127" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
@@ -8038,11 +8012,11 @@
       </c>
       <c r="K127" s="31">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L127" s="30">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>52252</v>
+        <v>52280</v>
       </c>
       <c r="N127" s="37" t="e">
         <f t="shared" si="7"/>
@@ -8063,7 +8037,7 @@
       </c>
       <c r="E128" s="34" t="str">
         <f>Swaps_3M!L38</f>
-        <v>EUR_YC3MRH_AB3E30Y#0007</v>
+        <v>EUR_YC3MRH_AB3E30Y#0000</v>
       </c>
       <c r="F128" s="33">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
@@ -8084,11 +8058,11 @@
       </c>
       <c r="K128" s="31">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L128" s="30">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>52617</v>
+        <v>52645</v>
       </c>
       <c r="N128" s="37">
         <f t="shared" si="7"/>
@@ -8109,7 +8083,7 @@
       </c>
       <c r="E129" s="34" t="str">
         <f>Swaps_3M!L39</f>
-        <v>EUR_YC3MRH_AB3E35Y#0007</v>
+        <v>EUR_YC3MRH_AB3E35Y#0000</v>
       </c>
       <c r="F129" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
@@ -8130,11 +8104,11 @@
       </c>
       <c r="K129" s="31">
         <f>_xll.qlRateHelperEarliestDate($E129,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L129" s="30">
         <f>_xll.qlRateHelperLatestDate($E129,Trigger)</f>
-        <v>54444</v>
+        <v>54472</v>
       </c>
       <c r="N129" s="37" t="e">
         <f t="shared" si="7"/>
@@ -8155,7 +8129,7 @@
       </c>
       <c r="E130" s="34" t="str">
         <f>Swaps_3M!L40</f>
-        <v>EUR_YC3MRH_AB3E40Y#0007</v>
+        <v>EUR_YC3MRH_AB3E40Y#0000</v>
       </c>
       <c r="F130" s="33">
         <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
@@ -8176,11 +8150,11 @@
       </c>
       <c r="K130" s="31">
         <f>_xll.qlRateHelperEarliestDate($E130,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L130" s="30">
         <f>_xll.qlRateHelperLatestDate($E130,Trigger)</f>
-        <v>56270</v>
+        <v>56298</v>
       </c>
       <c r="N130" s="37">
         <f t="shared" si="7"/>
@@ -8201,7 +8175,7 @@
       </c>
       <c r="E131" s="34" t="str">
         <f>Swaps_3M!L41</f>
-        <v>EUR_YC3MRH_AB3E50Y#0007</v>
+        <v>EUR_YC3MRH_AB3E50Y#0000</v>
       </c>
       <c r="F131" s="33">
         <f>_xll.qlRateHelperQuoteValue($E131,Trigger)</f>
@@ -8222,11 +8196,11 @@
       </c>
       <c r="K131" s="31">
         <f>_xll.qlRateHelperEarliestDate($E131,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L131" s="30">
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
-        <v>59922</v>
+        <v>59950</v>
       </c>
       <c r="N131" s="37">
         <f t="shared" si="7"/>
@@ -8247,7 +8221,7 @@
       </c>
       <c r="E132" s="27" t="str">
         <f>Swaps_3M!L42</f>
-        <v>EUR_YC3MRH_AB3E60Y#0007</v>
+        <v>EUR_YC3MRH_AB3E60Y#0000</v>
       </c>
       <c r="F132" s="26">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
@@ -8268,11 +8242,11 @@
       </c>
       <c r="K132" s="24">
         <f>_xll.qlRateHelperEarliestDate($E132,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L132" s="23">
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>63576</v>
+        <v>63604</v>
       </c>
       <c r="N132" s="37">
         <f t="shared" si="7"/>
@@ -8293,7 +8267,7 @@
       </c>
       <c r="E133" s="34" t="str">
         <f>SwapsFromBasis_3M!L6</f>
-        <v>EUR_YC3MRH_AB3EBASIS1Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS1Y#0000</v>
       </c>
       <c r="F133" s="33">
         <f>_xll.qlRateHelperQuoteValue($E133,Trigger)</f>
@@ -8314,11 +8288,11 @@
       </c>
       <c r="K133" s="31">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L133" s="30">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.2">
@@ -8335,7 +8309,7 @@
       </c>
       <c r="E134" s="34" t="str">
         <f>SwapsFromBasis_3M!L7</f>
-        <v>EUR_YC3MRH_AB3EBASIS15M#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS15M#0000</v>
       </c>
       <c r="F134" s="33">
         <f>_xll.qlRateHelperQuoteValue($E134,Trigger)</f>
@@ -8356,11 +8330,11 @@
       </c>
       <c r="K134" s="31">
         <f>_xll.qlRateHelperEarliestDate($E134,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L134" s="30">
         <f>_xll.qlRateHelperLatestDate($E134,Trigger)</f>
-        <v>42115</v>
+        <v>42142</v>
       </c>
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.2">
@@ -8377,7 +8351,7 @@
       </c>
       <c r="E135" s="34" t="str">
         <f>SwapsFromBasis_3M!L8</f>
-        <v>EUR_YC3MRH_AB3EBASIS18M#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS18M#0000</v>
       </c>
       <c r="F135" s="33">
         <f>_xll.qlRateHelperQuoteValue($E135,Trigger)</f>
@@ -8398,11 +8372,11 @@
       </c>
       <c r="K135" s="31">
         <f>_xll.qlRateHelperEarliestDate($E135,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L135" s="30">
         <f>_xll.qlRateHelperLatestDate($E135,Trigger)</f>
-        <v>42206</v>
+        <v>42234</v>
       </c>
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.2">
@@ -8419,7 +8393,7 @@
       </c>
       <c r="E136" s="34" t="str">
         <f>SwapsFromBasis_3M!L9</f>
-        <v>EUR_YC3MRH_AB3EBASIS21M#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS21M#0000</v>
       </c>
       <c r="F136" s="33">
         <f>_xll.qlRateHelperQuoteValue($E136,Trigger)</f>
@@ -8440,11 +8414,11 @@
       </c>
       <c r="K136" s="31">
         <f>_xll.qlRateHelperEarliestDate($E136,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L136" s="30">
         <f>_xll.qlRateHelperLatestDate($E136,Trigger)</f>
-        <v>42298</v>
+        <v>42326</v>
       </c>
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.2">
@@ -8461,7 +8435,7 @@
       </c>
       <c r="E137" s="34" t="str">
         <f>SwapsFromBasis_3M!L10</f>
-        <v>EUR_YC3MRH_AB3EBASIS2Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS2Y#0000</v>
       </c>
       <c r="F137" s="33">
         <f>_xll.qlRateHelperQuoteValue($E137,Trigger)</f>
@@ -8482,11 +8456,11 @@
       </c>
       <c r="K137" s="31">
         <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L137" s="30">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>42390</v>
+        <v>42418</v>
       </c>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.2">
@@ -8503,7 +8477,7 @@
       </c>
       <c r="E138" s="34" t="str">
         <f>SwapsFromBasis_3M!L11</f>
-        <v>EUR_YC3MRH_AB3EBASIS3Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS3Y#0000</v>
       </c>
       <c r="F138" s="33">
         <f>_xll.qlRateHelperQuoteValue($E138,Trigger)</f>
@@ -8524,11 +8498,11 @@
       </c>
       <c r="K138" s="31">
         <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L138" s="30">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>42758</v>
+        <v>42786</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.2">
@@ -8545,7 +8519,7 @@
       </c>
       <c r="E139" s="34" t="str">
         <f>SwapsFromBasis_3M!L12</f>
-        <v>EUR_YC3MRH_AB3EBASIS4Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS4Y#0000</v>
       </c>
       <c r="F139" s="33">
         <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
@@ -8566,11 +8540,11 @@
       </c>
       <c r="K139" s="31">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L139" s="30">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>43122</v>
+        <v>43150</v>
       </c>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.2">
@@ -8587,7 +8561,7 @@
       </c>
       <c r="E140" s="34" t="str">
         <f>SwapsFromBasis_3M!L13</f>
-        <v>EUR_YC3MRH_AB3EBASIS5Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS5Y#0000</v>
       </c>
       <c r="F140" s="33">
         <f>_xll.qlRateHelperQuoteValue($E140,Trigger)</f>
@@ -8608,11 +8582,11 @@
       </c>
       <c r="K140" s="31">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L140" s="30">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>43486</v>
+        <v>43514</v>
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.2">
@@ -8629,7 +8603,7 @@
       </c>
       <c r="E141" s="34" t="str">
         <f>SwapsFromBasis_3M!L14</f>
-        <v>EUR_YC3MRH_AB3EBASIS6Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS6Y#0000</v>
       </c>
       <c r="F141" s="33">
         <f>_xll.qlRateHelperQuoteValue($E141,Trigger)</f>
@@ -8650,11 +8624,11 @@
       </c>
       <c r="K141" s="31">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L141" s="30">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>43851</v>
+        <v>43879</v>
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.2">
@@ -8671,7 +8645,7 @@
       </c>
       <c r="E142" s="34" t="str">
         <f>SwapsFromBasis_3M!L15</f>
-        <v>EUR_YC3MRH_AB3EBASIS7Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS7Y#0000</v>
       </c>
       <c r="F142" s="33">
         <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
@@ -8692,11 +8666,11 @@
       </c>
       <c r="K142" s="31">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L142" s="30">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>44217</v>
+        <v>44245</v>
       </c>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.2">
@@ -8713,7 +8687,7 @@
       </c>
       <c r="E143" s="34" t="str">
         <f>SwapsFromBasis_3M!L16</f>
-        <v>EUR_YC3MRH_AB3EBASIS8Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS8Y#0000</v>
       </c>
       <c r="F143" s="33">
         <f>_xll.qlRateHelperQuoteValue($E143,Trigger)</f>
@@ -8734,11 +8708,11 @@
       </c>
       <c r="K143" s="31">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L143" s="30">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>44582</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.2">
@@ -8755,7 +8729,7 @@
       </c>
       <c r="E144" s="34" t="str">
         <f>SwapsFromBasis_3M!L17</f>
-        <v>EUR_YC3MRH_AB3EBASIS9Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS9Y#0000</v>
       </c>
       <c r="F144" s="33">
         <f>_xll.qlRateHelperQuoteValue($E144,Trigger)</f>
@@ -8776,11 +8750,11 @@
       </c>
       <c r="K144" s="31">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L144" s="30">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>44949</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8797,7 +8771,7 @@
       </c>
       <c r="E145" s="34" t="str">
         <f>SwapsFromBasis_3M!L18</f>
-        <v>EUR_YC3MRH_AB3EBASIS10Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS10Y#0000</v>
       </c>
       <c r="F145" s="33">
         <f>_xll.qlRateHelperQuoteValue($E145,Trigger)</f>
@@ -8818,11 +8792,11 @@
       </c>
       <c r="K145" s="31">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L145" s="30">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>45313</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -8839,7 +8813,7 @@
       </c>
       <c r="E146" s="34" t="str">
         <f>SwapsFromBasis_3M!L19</f>
-        <v>EUR_YC3MRH_AB3EBASIS11Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS11Y#0000</v>
       </c>
       <c r="F146" s="33">
         <f>_xll.qlRateHelperQuoteValue($E146,Trigger)</f>
@@ -8860,11 +8834,11 @@
       </c>
       <c r="K146" s="31">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L146" s="30">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>45678</v>
+        <v>45706</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8881,7 +8855,7 @@
       </c>
       <c r="E147" s="34" t="str">
         <f>SwapsFromBasis_3M!L20</f>
-        <v>EUR_YC3MRH_AB3EBASIS12Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS12Y#0000</v>
       </c>
       <c r="F147" s="33">
         <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
@@ -8902,11 +8876,11 @@
       </c>
       <c r="K147" s="31">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L147" s="30">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>46043</v>
+        <v>46071</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8923,7 +8897,7 @@
       </c>
       <c r="E148" s="34" t="str">
         <f>SwapsFromBasis_3M!L21</f>
-        <v>EUR_YC3MRH_AB3EBASIS13Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS13Y#0000</v>
       </c>
       <c r="F148" s="33">
         <f>_xll.qlRateHelperQuoteValue($E148,Trigger)</f>
@@ -8944,11 +8918,11 @@
       </c>
       <c r="K148" s="31">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L148" s="30">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>46408</v>
+        <v>46436</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
@@ -8965,7 +8939,7 @@
       </c>
       <c r="E149" s="34" t="str">
         <f>SwapsFromBasis_3M!L22</f>
-        <v>EUR_YC3MRH_AB3EBASIS14Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS14Y#0000</v>
       </c>
       <c r="F149" s="33">
         <f>_xll.qlRateHelperQuoteValue($E149,Trigger)</f>
@@ -8986,11 +8960,11 @@
       </c>
       <c r="K149" s="31">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L149" s="30">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>46773</v>
+        <v>46801</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -9007,7 +8981,7 @@
       </c>
       <c r="E150" s="34" t="str">
         <f>SwapsFromBasis_3M!L23</f>
-        <v>EUR_YC3MRH_AB3EBASIS15Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS15Y#0000</v>
       </c>
       <c r="F150" s="33">
         <f>_xll.qlRateHelperQuoteValue($E150,Trigger)</f>
@@ -9028,11 +9002,11 @@
       </c>
       <c r="K150" s="31">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L150" s="30">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>47140</v>
+        <v>47168</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
@@ -9049,7 +9023,7 @@
       </c>
       <c r="E151" s="34" t="str">
         <f>SwapsFromBasis_3M!L24</f>
-        <v>EUR_YC3MRH_AB3EBASIS16Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS16Y#0000</v>
       </c>
       <c r="F151" s="33">
         <f>_xll.qlRateHelperQuoteValue($E151,Trigger)</f>
@@ -9070,11 +9044,11 @@
       </c>
       <c r="K151" s="31">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L151" s="30">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>47504</v>
+        <v>47532</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -9091,7 +9065,7 @@
       </c>
       <c r="E152" s="34" t="str">
         <f>SwapsFromBasis_3M!L25</f>
-        <v>EUR_YC3MRH_AB3EBASIS17Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS17Y#0000</v>
       </c>
       <c r="F152" s="33">
         <f>_xll.qlRateHelperQuoteValue($E152,Trigger)</f>
@@ -9112,11 +9086,11 @@
       </c>
       <c r="K152" s="31">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L152" s="30">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>47869</v>
+        <v>47897</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -9133,7 +9107,7 @@
       </c>
       <c r="E153" s="34" t="str">
         <f>SwapsFromBasis_3M!L26</f>
-        <v>EUR_YC3MRH_AB3EBASIS18Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS18Y#0000</v>
       </c>
       <c r="F153" s="33">
         <f>_xll.qlRateHelperQuoteValue($E153,Trigger)</f>
@@ -9154,11 +9128,11 @@
       </c>
       <c r="K153" s="31">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L153" s="30">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>48234</v>
+        <v>48262</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
@@ -9175,7 +9149,7 @@
       </c>
       <c r="E154" s="34" t="str">
         <f>SwapsFromBasis_3M!L27</f>
-        <v>EUR_YC3MRH_AB3EBASIS19Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS19Y#0000</v>
       </c>
       <c r="F154" s="33">
         <f>_xll.qlRateHelperQuoteValue($E154,Trigger)</f>
@@ -9196,11 +9170,11 @@
       </c>
       <c r="K154" s="31">
         <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L154" s="30">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>48600</v>
+        <v>48628</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -9217,7 +9191,7 @@
       </c>
       <c r="E155" s="34" t="str">
         <f>SwapsFromBasis_3M!L28</f>
-        <v>EUR_YC3MRH_AB3EBASIS20Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS20Y#0000</v>
       </c>
       <c r="F155" s="33">
         <f>_xll.qlRateHelperQuoteValue($E155,Trigger)</f>
@@ -9238,11 +9212,11 @@
       </c>
       <c r="K155" s="31">
         <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L155" s="30">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>48967</v>
+        <v>48995</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -9259,7 +9233,7 @@
       </c>
       <c r="E156" s="34" t="str">
         <f>SwapsFromBasis_3M!L29</f>
-        <v>EUR_YC3MRH_AB3EBASIS21Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS21Y#0000</v>
       </c>
       <c r="F156" s="33">
         <f>_xll.qlRateHelperQuoteValue($E156,Trigger)</f>
@@ -9280,11 +9254,11 @@
       </c>
       <c r="K156" s="31">
         <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L156" s="30">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>49331</v>
+        <v>49359</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
@@ -9301,7 +9275,7 @@
       </c>
       <c r="E157" s="34" t="str">
         <f>SwapsFromBasis_3M!L30</f>
-        <v>EUR_YC3MRH_AB3EBASIS22Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS22Y#0000</v>
       </c>
       <c r="F157" s="33">
         <f>_xll.qlRateHelperQuoteValue($E157,Trigger)</f>
@@ -9322,11 +9296,11 @@
       </c>
       <c r="K157" s="31">
         <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L157" s="30">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>49695</v>
+        <v>49723</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
@@ -9343,7 +9317,7 @@
       </c>
       <c r="E158" s="34" t="str">
         <f>SwapsFromBasis_3M!L31</f>
-        <v>EUR_YC3MRH_AB3EBASIS23Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS23Y#0000</v>
       </c>
       <c r="F158" s="33">
         <f>_xll.qlRateHelperQuoteValue($E158,Trigger)</f>
@@ -9364,11 +9338,11 @@
       </c>
       <c r="K158" s="31">
         <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L158" s="30">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>50061</v>
+        <v>50089</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
@@ -9385,7 +9359,7 @@
       </c>
       <c r="E159" s="34" t="str">
         <f>SwapsFromBasis_3M!L32</f>
-        <v>EUR_YC3MRH_AB3EBASIS24Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS24Y#0000</v>
       </c>
       <c r="F159" s="33">
         <f>_xll.qlRateHelperQuoteValue($E159,Trigger)</f>
@@ -9406,11 +9380,11 @@
       </c>
       <c r="K159" s="31">
         <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L159" s="30">
         <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>50426</v>
+        <v>50454</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
@@ -9427,7 +9401,7 @@
       </c>
       <c r="E160" s="34" t="str">
         <f>SwapsFromBasis_3M!L33</f>
-        <v>EUR_YC3MRH_AB3EBASIS25Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS25Y#0000</v>
       </c>
       <c r="F160" s="33">
         <f>_xll.qlRateHelperQuoteValue($E160,Trigger)</f>
@@ -9448,11 +9422,11 @@
       </c>
       <c r="K160" s="31">
         <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L160" s="30">
         <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>50791</v>
+        <v>50819</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
@@ -9469,7 +9443,7 @@
       </c>
       <c r="E161" s="34" t="str">
         <f>SwapsFromBasis_3M!L34</f>
-        <v>EUR_YC3MRH_AB3EBASIS26Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS26Y#0000</v>
       </c>
       <c r="F161" s="33">
         <f>_xll.qlRateHelperQuoteValue($E161,Trigger)</f>
@@ -9490,11 +9464,11 @@
       </c>
       <c r="K161" s="31">
         <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L161" s="30">
         <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
-        <v>51158</v>
+        <v>51186</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.2">
@@ -9511,7 +9485,7 @@
       </c>
       <c r="E162" s="34" t="str">
         <f>SwapsFromBasis_3M!L35</f>
-        <v>EUR_YC3MRH_AB3EBASIS27Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS27Y#0000</v>
       </c>
       <c r="F162" s="33">
         <f>_xll.qlRateHelperQuoteValue($E162,Trigger)</f>
@@ -9532,11 +9506,11 @@
       </c>
       <c r="K162" s="31">
         <f>_xll.qlRateHelperEarliestDate($E162,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L162" s="30">
         <f>_xll.qlRateHelperLatestDate($E162,Trigger)</f>
-        <v>51522</v>
+        <v>51550</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.2">
@@ -9553,7 +9527,7 @@
       </c>
       <c r="E163" s="34" t="str">
         <f>SwapsFromBasis_3M!L36</f>
-        <v>EUR_YC3MRH_AB3EBASIS28Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS28Y#0000</v>
       </c>
       <c r="F163" s="33">
         <f>_xll.qlRateHelperQuoteValue($E163,Trigger)</f>
@@ -9574,11 +9548,11 @@
       </c>
       <c r="K163" s="31">
         <f>_xll.qlRateHelperEarliestDate($E163,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L163" s="30">
         <f>_xll.qlRateHelperLatestDate($E163,Trigger)</f>
-        <v>51887</v>
+        <v>51915</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.2">
@@ -9595,7 +9569,7 @@
       </c>
       <c r="E164" s="34" t="str">
         <f>SwapsFromBasis_3M!L37</f>
-        <v>EUR_YC3MRH_AB3EBASIS29Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS29Y#0000</v>
       </c>
       <c r="F164" s="33">
         <f>_xll.qlRateHelperQuoteValue($E164,Trigger)</f>
@@ -9616,11 +9590,11 @@
       </c>
       <c r="K164" s="31">
         <f>_xll.qlRateHelperEarliestDate($E164,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L164" s="30">
         <f>_xll.qlRateHelperLatestDate($E164,Trigger)</f>
-        <v>52252</v>
+        <v>52280</v>
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.2">
@@ -9637,7 +9611,7 @@
       </c>
       <c r="E165" s="34" t="str">
         <f>SwapsFromBasis_3M!L38</f>
-        <v>EUR_YC3MRH_AB3EBASIS30Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS30Y#0000</v>
       </c>
       <c r="F165" s="33">
         <f>_xll.qlRateHelperQuoteValue($E165,Trigger)</f>
@@ -9658,11 +9632,11 @@
       </c>
       <c r="K165" s="31">
         <f>_xll.qlRateHelperEarliestDate($E165,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L165" s="30">
         <f>_xll.qlRateHelperLatestDate($E165,Trigger)</f>
-        <v>52617</v>
+        <v>52645</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.2">
@@ -9679,7 +9653,7 @@
       </c>
       <c r="E166" s="34" t="str">
         <f>SwapsFromBasis_3M!L39</f>
-        <v>EUR_YC3MRH_AB3EBASIS35Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS35Y#0000</v>
       </c>
       <c r="F166" s="33">
         <f>_xll.qlRateHelperQuoteValue($E166,Trigger)</f>
@@ -9700,11 +9674,11 @@
       </c>
       <c r="K166" s="31">
         <f>_xll.qlRateHelperEarliestDate($E166,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L166" s="30">
         <f>_xll.qlRateHelperLatestDate($E166,Trigger)</f>
-        <v>54444</v>
+        <v>54472</v>
       </c>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.2">
@@ -9721,7 +9695,7 @@
       </c>
       <c r="E167" s="34" t="str">
         <f>SwapsFromBasis_3M!L40</f>
-        <v>EUR_YC3MRH_AB3EBASIS40Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS40Y#0000</v>
       </c>
       <c r="F167" s="33">
         <f>_xll.qlRateHelperQuoteValue($E167,Trigger)</f>
@@ -9742,11 +9716,11 @@
       </c>
       <c r="K167" s="31">
         <f>_xll.qlRateHelperEarliestDate($E167,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L167" s="30">
         <f>_xll.qlRateHelperLatestDate($E167,Trigger)</f>
-        <v>56270</v>
+        <v>56298</v>
       </c>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.2">
@@ -9763,7 +9737,7 @@
       </c>
       <c r="E168" s="34" t="str">
         <f>SwapsFromBasis_3M!L41</f>
-        <v>EUR_YC3MRH_AB3EBASIS50Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS50Y#0000</v>
       </c>
       <c r="F168" s="33">
         <f>_xll.qlRateHelperQuoteValue($E168,Trigger)</f>
@@ -9784,11 +9758,11 @@
       </c>
       <c r="K168" s="31">
         <f>_xll.qlRateHelperEarliestDate($E168,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L168" s="30">
         <f>_xll.qlRateHelperLatestDate($E168,Trigger)</f>
-        <v>59922</v>
+        <v>59950</v>
       </c>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.2">
@@ -9805,7 +9779,7 @@
       </c>
       <c r="E169" s="27" t="str">
         <f>SwapsFromBasis_3M!L42</f>
-        <v>EUR_YC3MRH_AB3EBASIS60Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS60Y#0000</v>
       </c>
       <c r="F169" s="26">
         <f>_xll.qlRateHelperQuoteValue($E169,Trigger)</f>
@@ -9826,11 +9800,11 @@
       </c>
       <c r="K169" s="24">
         <f>_xll.qlRateHelperEarliestDate($E169,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L169" s="23">
         <f>_xll.qlRateHelperLatestDate($E169,Trigger)</f>
-        <v>63576</v>
+        <v>63604</v>
       </c>
     </row>
   </sheetData>
@@ -9869,10 +9843,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="225" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="229"/>
+      <c r="B1" s="226"/>
       <c r="D1" s="22" t="s">
         <v>9</v>
       </c>
@@ -9912,11 +9886,11 @@
       </c>
       <c r="G2" s="9">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41674</v>
+        <v>41702</v>
       </c>
       <c r="I2" s="3">
         <v>0.99988062536310041</v>
@@ -9948,11 +9922,11 @@
       </c>
       <c r="G3" s="9">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41681</v>
+        <v>41709</v>
       </c>
       <c r="I3" s="3">
         <v>0.99982363111161221</v>
@@ -9984,14 +9958,14 @@
       </c>
       <c r="G4" s="9">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41691</v>
+        <v>41716</v>
       </c>
       <c r="I4" s="3">
-        <v>0.99974457359265201</v>
+        <v>0.99976928657418351</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>117</v>
@@ -10020,14 +9994,14 @@
       </c>
       <c r="G5" s="9">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41719</v>
+        <v>41751</v>
       </c>
       <c r="I5" s="3">
-        <v>0.99950972104681945</v>
+        <v>0.99947649919646719</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>118</v>
@@ -10064,7 +10038,7 @@
         <v>41809</v>
       </c>
       <c r="I6" s="3">
-        <v>0.9987674438824794</v>
+        <v>0.99900194155631894</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>119</v>
@@ -10076,7 +10050,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="str">
         <f>_xll.ohGroup(,_xll.ohPack(D2:D126),Permanent,,ObjectOverwrite)</f>
-        <v>obj_00652#0008</v>
+        <v>obj_00651#0000</v>
       </c>
       <c r="B7" s="12" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -10102,7 +10076,7 @@
         <v>41900</v>
       </c>
       <c r="I7" s="3">
-        <v>0.99802952065646833</v>
+        <v>0.99826378960891038</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>120</v>
@@ -10132,9 +10106,9 @@
         <v>41990</v>
       </c>
       <c r="I8" s="3">
-        <v>0.99728767716154787</v>
-      </c>
-      <c r="K8" s="218" t="s">
+        <v>0.99752178701421734</v>
+      </c>
+      <c r="K8" s="210" t="s">
         <v>121</v>
       </c>
       <c r="L8" s="37">
@@ -10162,9 +10136,9 @@
         <v>42080</v>
       </c>
       <c r="I9" s="3">
-        <v>0.99649670789965239</v>
-      </c>
-      <c r="K9" s="218" t="s">
+        <v>0.99673063207500778</v>
+      </c>
+      <c r="K9" s="210" t="s">
         <v>122</v>
       </c>
       <c r="L9" s="37">
@@ -10192,9 +10166,9 @@
         <v>42173</v>
       </c>
       <c r="I10" s="3">
-        <v>0.99557787792129249</v>
-      </c>
-      <c r="K10" s="218" t="s">
+        <v>0.99581158755472987</v>
+      </c>
+      <c r="K10" s="210" t="s">
         <v>123</v>
       </c>
       <c r="L10" s="37">
@@ -10222,7 +10196,7 @@
         <v>42264</v>
       </c>
       <c r="I11" s="3">
-        <v>0.99454000768750406</v>
+        <v>0.99477348155113188</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>124</v>
@@ -10252,7 +10226,7 @@
         <v>42354</v>
       </c>
       <c r="I12" s="3">
-        <v>0.99331580989011115</v>
+        <v>0.99354896599042974</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>125</v>
@@ -10282,7 +10256,7 @@
         <v>42445</v>
       </c>
       <c r="I13" s="3">
-        <v>0.99184285437368624</v>
+        <v>0.99207566473446529</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>188</v>
@@ -10305,14 +10279,14 @@
       </c>
       <c r="G14" s="9">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H14" s="8">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42758</v>
+        <v>42786</v>
       </c>
       <c r="I14" s="3">
-        <v>0.98429792952349793</v>
+        <v>0.98429919924395182</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>126</v>
@@ -10335,14 +10309,14 @@
       </c>
       <c r="G15" s="9">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H15" s="8">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>43122</v>
+        <v>43150</v>
       </c>
       <c r="I15" s="3">
-        <v>0.9704350271775819</v>
+        <v>0.97043681839186036</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>127</v>
@@ -10365,14 +10339,14 @@
       </c>
       <c r="G16" s="9">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H16" s="8">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43486</v>
+        <v>43514</v>
       </c>
       <c r="I16" s="3">
-        <v>0.95196455415332748</v>
+        <v>0.95196687746131092</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>128</v>
@@ -10395,14 +10369,14 @@
       </c>
       <c r="G17" s="9">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H17" s="8">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43851</v>
+        <v>43879</v>
       </c>
       <c r="I17" s="3">
-        <v>0.93002250871029335</v>
+        <v>0.93002531929048338</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>129</v>
@@ -10425,14 +10399,14 @@
       </c>
       <c r="G18" s="9">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H18" s="8">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>44217</v>
+        <v>44245</v>
       </c>
       <c r="I18" s="3">
-        <v>0.90541515745241696</v>
+        <v>0.90541839987733508</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>130</v>
@@ -10455,14 +10429,14 @@
       </c>
       <c r="G19" s="9">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H19" s="8">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44582</v>
+        <v>44610</v>
       </c>
       <c r="I19" s="3">
-        <v>0.87898506301363055</v>
+        <v>0.8789886749473147</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>131</v>
@@ -10485,14 +10459,14 @@
       </c>
       <c r="G20" s="9">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H20" s="8">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>44949</v>
+        <v>44977</v>
       </c>
       <c r="I20" s="3">
-        <v>0.8514017959808502</v>
+        <v>0.85140571360162876</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>132</v>
@@ -10515,14 +10489,14 @@
       </c>
       <c r="G21" s="9">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H21" s="8">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>45313</v>
+        <v>45341</v>
       </c>
       <c r="I21" s="3">
-        <v>0.82333870634032191</v>
+        <v>0.82334287307259046</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>133</v>
@@ -10545,14 +10519,14 @@
       </c>
       <c r="G22" s="9">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H22" s="8">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>46043</v>
+        <v>46071</v>
       </c>
       <c r="I22" s="3">
-        <v>0.76782860382967666</v>
+        <v>0.76783310286379836</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>134</v>
@@ -10575,14 +10549,14 @@
       </c>
       <c r="G23" s="9">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H23" s="8">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>47140</v>
+        <v>47168</v>
       </c>
       <c r="I23" s="3">
-        <v>0.69089780723857686</v>
+        <v>0.69090247533076288</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>135</v>
@@ -10605,14 +10579,14 @@
       </c>
       <c r="G24" s="9">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H24" s="8">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>48967</v>
+        <v>48995</v>
       </c>
       <c r="I24" s="3">
-        <v>0.58928894055572645</v>
+        <v>0.5892933572754977</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>136</v>
@@ -10635,14 +10609,14 @@
       </c>
       <c r="G25" s="9">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H25" s="8">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>50791</v>
+        <v>50819</v>
       </c>
       <c r="I25" s="3">
-        <v>0.51129766137658039</v>
+        <v>0.51130162535984713</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>137</v>
@@ -10665,14 +10639,14 @@
       </c>
       <c r="G26" s="9">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H26" s="8">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>52617</v>
+        <v>52645</v>
       </c>
       <c r="I26" s="3">
-        <v>0.44868754281442896</v>
+        <v>0.44869103764254414</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>138</v>
@@ -10695,14 +10669,14 @@
       </c>
       <c r="G27" s="9">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H27" s="8">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>54444</v>
+        <v>54472</v>
       </c>
       <c r="I27" s="3">
-        <v>0.39202568677673444</v>
+        <v>0.39202877394312585</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>139</v>
@@ -10725,14 +10699,14 @@
       </c>
       <c r="G28" s="9">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H28" s="8">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>56270</v>
+        <v>56298</v>
       </c>
       <c r="I28" s="3">
-        <v>0.34007196302860065</v>
+        <v>0.34007469546892566</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>140</v>
@@ -10755,14 +10729,14 @@
       </c>
       <c r="G29" s="9">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H29" s="8">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>59922</v>
+        <v>59950</v>
       </c>
       <c r="I29" s="3">
-        <v>0.25649459475513936</v>
+        <v>0.25649671831126969</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>141</v>
@@ -10785,14 +10759,14 @@
       </c>
       <c r="G30" s="9">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H30" s="8">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>63576</v>
+        <v>63604</v>
       </c>
       <c r="I30" s="3">
-        <v>0.19313772797651729</v>
+        <v>0.19313937030150777</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>142</v>
@@ -13198,7 +13172,7 @@
       </c>
       <c r="F3" s="101" t="str">
         <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_SND#0007</v>
+        <v>EUR_YC3MRH_SND#0000</v>
       </c>
       <c r="G3" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -13225,7 +13199,7 @@
       </c>
       <c r="F4" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_SWD#0007</v>
+        <v>EUR_YC3MRH_SWD#0000</v>
       </c>
       <c r="G4" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -13252,7 +13226,7 @@
       </c>
       <c r="F5" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2WD#0007</v>
+        <v>EUR_YC3MRH_2WD#0000</v>
       </c>
       <c r="G5" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13283,7 +13257,7 @@
       </c>
       <c r="F6" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3WD#0007</v>
+        <v>EUR_YC3MRH_3WD#0000</v>
       </c>
       <c r="G6" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13310,7 +13284,7 @@
       </c>
       <c r="F7" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1MD#0007</v>
+        <v>EUR_YC3MRH_1MD#0000</v>
       </c>
       <c r="G7" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13337,7 +13311,7 @@
       </c>
       <c r="F8" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2MD#0007</v>
+        <v>EUR_YC3MRH_2MD#0000</v>
       </c>
       <c r="G8" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13364,7 +13338,7 @@
       </c>
       <c r="F9" s="95" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3MD#0007</v>
+        <v>EUR_YC3MRH_3MD#0000</v>
       </c>
       <c r="G9" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13485,7 +13459,7 @@
       </c>
       <c r="H3" s="143" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_T3F1#0007</v>
+        <v>EUR_YC3MRH_T3F1#0000</v>
       </c>
       <c r="I3" s="142" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -13519,7 +13493,7 @@
       </c>
       <c r="H4" s="135" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_TOM3F1#0007</v>
+        <v>EUR_YC3MRH_TOM3F1#0000</v>
       </c>
       <c r="I4" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -13558,7 +13532,7 @@
       </c>
       <c r="H5" s="138" t="str">
         <f>_xll.qlFraRateHelper(G5,F5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1x4F#0007</v>
+        <v>EUR_YC3MRH_1x4F#0000</v>
       </c>
       <c r="I5" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -13593,7 +13567,7 @@
       </c>
       <c r="H6" s="138" t="str">
         <f>_xll.qlFraRateHelper(G6,F6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2x5F#0007</v>
+        <v>EUR_YC3MRH_2x5F#0000</v>
       </c>
       <c r="I6" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -13628,7 +13602,7 @@
       </c>
       <c r="H7" s="138" t="str">
         <f>_xll.qlFraRateHelper(G7,F7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3x6F#0007</v>
+        <v>EUR_YC3MRH_3x6F#0000</v>
       </c>
       <c r="I7" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -13663,7 +13637,7 @@
       </c>
       <c r="H8" s="138" t="str">
         <f>_xll.qlFraRateHelper(G8,F8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_4x7F#0007</v>
+        <v>EUR_YC3MRH_4x7F#0000</v>
       </c>
       <c r="I8" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -13698,7 +13672,7 @@
       </c>
       <c r="H9" s="138" t="str">
         <f>_xll.qlFraRateHelper(G9,F9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_5x8F#0007</v>
+        <v>EUR_YC3MRH_5x8F#0000</v>
       </c>
       <c r="I9" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -13733,7 +13707,7 @@
       </c>
       <c r="H10" s="135" t="str">
         <f>_xll.qlFraRateHelper(G10,F10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_6x9F#0007</v>
+        <v>EUR_YC3MRH_6x9F#0000</v>
       </c>
       <c r="I10" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -13874,7 +13848,7 @@
       </c>
       <c r="I3" s="165" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MG4#0007</v>
+        <v>EUR_YC3MRH_FUT3MG4#0000</v>
       </c>
       <c r="J3" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -13916,7 +13890,7 @@
       </c>
       <c r="I4" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH4#0007</v>
+        <v>EUR_YC3MRH_FUT3MH4#0000</v>
       </c>
       <c r="J4" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -13954,7 +13928,7 @@
       </c>
       <c r="I5" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MJ4#0007</v>
+        <v>EUR_YC3MRH_FUT3MJ4#0000</v>
       </c>
       <c r="J5" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13992,7 +13966,7 @@
       </c>
       <c r="I6" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MK4#0007</v>
+        <v>EUR_YC3MRH_FUT3MK4#0000</v>
       </c>
       <c r="J6" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -14030,7 +14004,7 @@
       </c>
       <c r="I7" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM4#0007</v>
+        <v>EUR_YC3MRH_FUT3MM4#0000</v>
       </c>
       <c r="J7" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -14068,7 +14042,7 @@
       </c>
       <c r="I8" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MN4#0007</v>
+        <v>EUR_YC3MRH_FUT3MN4#0000</v>
       </c>
       <c r="J8" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -14106,7 +14080,7 @@
       </c>
       <c r="I9" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MQ4#0007</v>
+        <v>EUR_YC3MRH_FUT3MQ4#0000</v>
       </c>
       <c r="J9" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -14144,7 +14118,7 @@
       </c>
       <c r="I10" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU4#0007</v>
+        <v>EUR_YC3MRH_FUT3MU4#0000</v>
       </c>
       <c r="J10" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -14182,7 +14156,7 @@
       </c>
       <c r="I11" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MV4#0007</v>
+        <v>EUR_YC3MRH_FUT3MV4#0000</v>
       </c>
       <c r="J11" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -14220,7 +14194,7 @@
       </c>
       <c r="I12" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MX4#0007</v>
+        <v>EUR_YC3MRH_FUT3MX4#0000</v>
       </c>
       <c r="J12" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -14258,7 +14232,7 @@
       </c>
       <c r="I13" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ4#0007</v>
+        <v>EUR_YC3MRH_FUT3MZ4#0000</v>
       </c>
       <c r="J13" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -14296,7 +14270,7 @@
       </c>
       <c r="I14" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MF5#0007</v>
+        <v>EUR_YC3MRH_FUT3MF5#0000</v>
       </c>
       <c r="J14" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -14334,7 +14308,7 @@
       </c>
       <c r="I15" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH5#0007</v>
+        <v>EUR_YC3MRH_FUT3MH5#0000</v>
       </c>
       <c r="J15" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -14372,7 +14346,7 @@
       </c>
       <c r="I16" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM5#0007</v>
+        <v>EUR_YC3MRH_FUT3MM5#0000</v>
       </c>
       <c r="J16" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -14410,7 +14384,7 @@
       </c>
       <c r="I17" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU5#0007</v>
+        <v>EUR_YC3MRH_FUT3MU5#0000</v>
       </c>
       <c r="J17" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -14448,7 +14422,7 @@
       </c>
       <c r="I18" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ5#0007</v>
+        <v>EUR_YC3MRH_FUT3MZ5#0000</v>
       </c>
       <c r="J18" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -14486,7 +14460,7 @@
       </c>
       <c r="I19" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH6#0007</v>
+        <v>EUR_YC3MRH_FUT3MH6#0000</v>
       </c>
       <c r="J19" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -14524,7 +14498,7 @@
       </c>
       <c r="I20" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM6#0007</v>
+        <v>EUR_YC3MRH_FUT3MM6#0000</v>
       </c>
       <c r="J20" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -14562,7 +14536,7 @@
       </c>
       <c r="I21" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU6#0007</v>
+        <v>EUR_YC3MRH_FUT3MU6#0000</v>
       </c>
       <c r="J21" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -14600,7 +14574,7 @@
       </c>
       <c r="I22" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ6#0007</v>
+        <v>EUR_YC3MRH_FUT3MZ6#0000</v>
       </c>
       <c r="J22" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -14638,7 +14612,7 @@
       </c>
       <c r="I23" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH7#0007</v>
+        <v>EUR_YC3MRH_FUT3MH7#0000</v>
       </c>
       <c r="J23" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -14676,7 +14650,7 @@
       </c>
       <c r="I24" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM7#0007</v>
+        <v>EUR_YC3MRH_FUT3MM7#0000</v>
       </c>
       <c r="J24" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -14714,7 +14688,7 @@
       </c>
       <c r="I25" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU7#0007</v>
+        <v>EUR_YC3MRH_FUT3MU7#0000</v>
       </c>
       <c r="J25" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -14752,7 +14726,7 @@
       </c>
       <c r="I26" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ7#0007</v>
+        <v>EUR_YC3MRH_FUT3MZ7#0000</v>
       </c>
       <c r="J26" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -14790,7 +14764,7 @@
       </c>
       <c r="I27" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH8#0007</v>
+        <v>EUR_YC3MRH_FUT3MH8#0000</v>
       </c>
       <c r="J27" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -14828,7 +14802,7 @@
       </c>
       <c r="I28" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM8#0007</v>
+        <v>EUR_YC3MRH_FUT3MM8#0000</v>
       </c>
       <c r="J28" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -14866,7 +14840,7 @@
       </c>
       <c r="I29" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU8#0007</v>
+        <v>EUR_YC3MRH_FUT3MU8#0000</v>
       </c>
       <c r="J29" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -14904,7 +14878,7 @@
       </c>
       <c r="I30" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ8#0007</v>
+        <v>EUR_YC3MRH_FUT3MZ8#0000</v>
       </c>
       <c r="J30" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -14942,7 +14916,7 @@
       </c>
       <c r="I31" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH9#0007</v>
+        <v>EUR_YC3MRH_FUT3MH9#0000</v>
       </c>
       <c r="J31" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -14980,7 +14954,7 @@
       </c>
       <c r="I32" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM9#0007</v>
+        <v>EUR_YC3MRH_FUT3MM9#0000</v>
       </c>
       <c r="J32" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -15018,7 +14992,7 @@
       </c>
       <c r="I33" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU9#0007</v>
+        <v>EUR_YC3MRH_FUT3MU9#0000</v>
       </c>
       <c r="J33" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -15056,7 +15030,7 @@
       </c>
       <c r="I34" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ9#0007</v>
+        <v>EUR_YC3MRH_FUT3MZ9#0000</v>
       </c>
       <c r="J34" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -15094,7 +15068,7 @@
       </c>
       <c r="I35" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH0#0007</v>
+        <v>EUR_YC3MRH_FUT3MH0#0000</v>
       </c>
       <c r="J35" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -15132,7 +15106,7 @@
       </c>
       <c r="I36" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM0#0007</v>
+        <v>EUR_YC3MRH_FUT3MM0#0000</v>
       </c>
       <c r="J36" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -15170,7 +15144,7 @@
       </c>
       <c r="I37" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU0#0007</v>
+        <v>EUR_YC3MRH_FUT3MU0#0000</v>
       </c>
       <c r="J37" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -15208,7 +15182,7 @@
       </c>
       <c r="I38" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ0#0007</v>
+        <v>EUR_YC3MRH_FUT3MZ0#0000</v>
       </c>
       <c r="J38" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -15246,7 +15220,7 @@
       </c>
       <c r="I39" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH1#0007</v>
+        <v>EUR_YC3MRH_FUT3MH1#0000</v>
       </c>
       <c r="J39" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -15284,7 +15258,7 @@
       </c>
       <c r="I40" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM1#0007</v>
+        <v>EUR_YC3MRH_FUT3MM1#0000</v>
       </c>
       <c r="J40" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -15321,7 +15295,7 @@
       </c>
       <c r="I41" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU1#0007</v>
+        <v>EUR_YC3MRH_FUT3MU1#0000</v>
       </c>
       <c r="J41" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -15358,7 +15332,7 @@
       </c>
       <c r="I42" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ1#0007</v>
+        <v>EUR_YC3MRH_FUT3MZ1#0000</v>
       </c>
       <c r="J42" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -15395,7 +15369,7 @@
       </c>
       <c r="I43" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH2#0007</v>
+        <v>EUR_YC3MRH_FUT3MH2#0000</v>
       </c>
       <c r="J43" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -15432,7 +15406,7 @@
       </c>
       <c r="I44" s="158" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM2#0007</v>
+        <v>EUR_YC3MRH_FUT3MM2#0000</v>
       </c>
       <c r="J44" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -15588,7 +15562,7 @@
       </c>
       <c r="L4" s="195" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC3MRH_AB3E_ibor3M#0007</v>
+        <v>EUR_YC3MRH_AB3E_ibor3M#0000</v>
       </c>
       <c r="M4" s="194" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -15652,7 +15626,7 @@
       </c>
       <c r="L6" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E1Y#0007</v>
+        <v>EUR_YC3MRH_AB3E1Y#0000</v>
       </c>
       <c r="M6" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -15711,7 +15685,7 @@
       </c>
       <c r="L7" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E15M#0007</v>
+        <v>EUR_YC3MRH_AB3E15M#0000</v>
       </c>
       <c r="M7" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -15766,7 +15740,7 @@
       </c>
       <c r="L8" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E18M#0007</v>
+        <v>EUR_YC3MRH_AB3E18M#0000</v>
       </c>
       <c r="M8" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -15821,7 +15795,7 @@
       </c>
       <c r="L9" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E21M#0007</v>
+        <v>EUR_YC3MRH_AB3E21M#0000</v>
       </c>
       <c r="M9" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -15876,7 +15850,7 @@
       </c>
       <c r="L10" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E2Y#0007</v>
+        <v>EUR_YC3MRH_AB3E2Y#0000</v>
       </c>
       <c r="M10" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -15931,7 +15905,7 @@
       </c>
       <c r="L11" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E3Y#0007</v>
+        <v>EUR_YC3MRH_AB3E3Y#0000</v>
       </c>
       <c r="M11" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -15977,7 +15951,7 @@
       </c>
       <c r="L12" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E4Y#0007</v>
+        <v>EUR_YC3MRH_AB3E4Y#0000</v>
       </c>
       <c r="M12" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -16023,7 +15997,7 @@
       </c>
       <c r="L13" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E5Y#0007</v>
+        <v>EUR_YC3MRH_AB3E5Y#0000</v>
       </c>
       <c r="M13" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -16069,7 +16043,7 @@
       </c>
       <c r="L14" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E6Y#0007</v>
+        <v>EUR_YC3MRH_AB3E6Y#0000</v>
       </c>
       <c r="M14" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -16115,7 +16089,7 @@
       </c>
       <c r="L15" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E7Y#0007</v>
+        <v>EUR_YC3MRH_AB3E7Y#0000</v>
       </c>
       <c r="M15" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -16161,7 +16135,7 @@
       </c>
       <c r="L16" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E8Y#0007</v>
+        <v>EUR_YC3MRH_AB3E8Y#0000</v>
       </c>
       <c r="M16" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -16207,7 +16181,7 @@
       </c>
       <c r="L17" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E9Y#0007</v>
+        <v>EUR_YC3MRH_AB3E9Y#0000</v>
       </c>
       <c r="M17" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -16253,7 +16227,7 @@
       </c>
       <c r="L18" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E10Y#0007</v>
+        <v>EUR_YC3MRH_AB3E10Y#0000</v>
       </c>
       <c r="M18" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -16299,7 +16273,7 @@
       </c>
       <c r="L19" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E11Y#0007</v>
+        <v>EUR_YC3MRH_AB3E11Y#0000</v>
       </c>
       <c r="M19" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -16345,7 +16319,7 @@
       </c>
       <c r="L20" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E12Y#0007</v>
+        <v>EUR_YC3MRH_AB3E12Y#0000</v>
       </c>
       <c r="M20" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -16391,7 +16365,7 @@
       </c>
       <c r="L21" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E13Y#0007</v>
+        <v>EUR_YC3MRH_AB3E13Y#0000</v>
       </c>
       <c r="M21" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -16437,7 +16411,7 @@
       </c>
       <c r="L22" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E14Y#0007</v>
+        <v>EUR_YC3MRH_AB3E14Y#0000</v>
       </c>
       <c r="M22" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -16483,7 +16457,7 @@
       </c>
       <c r="L23" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E15Y#0007</v>
+        <v>EUR_YC3MRH_AB3E15Y#0000</v>
       </c>
       <c r="M23" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -16529,7 +16503,7 @@
       </c>
       <c r="L24" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E16Y#0007</v>
+        <v>EUR_YC3MRH_AB3E16Y#0000</v>
       </c>
       <c r="M24" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -16575,7 +16549,7 @@
       </c>
       <c r="L25" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E17Y#0007</v>
+        <v>EUR_YC3MRH_AB3E17Y#0000</v>
       </c>
       <c r="M25" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -16621,7 +16595,7 @@
       </c>
       <c r="L26" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E18Y#0007</v>
+        <v>EUR_YC3MRH_AB3E18Y#0000</v>
       </c>
       <c r="M26" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -16667,7 +16641,7 @@
       </c>
       <c r="L27" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E19Y#0007</v>
+        <v>EUR_YC3MRH_AB3E19Y#0000</v>
       </c>
       <c r="M27" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -16713,7 +16687,7 @@
       </c>
       <c r="L28" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E20Y#0007</v>
+        <v>EUR_YC3MRH_AB3E20Y#0000</v>
       </c>
       <c r="M28" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -16759,7 +16733,7 @@
       </c>
       <c r="L29" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E21Y#0007</v>
+        <v>EUR_YC3MRH_AB3E21Y#0000</v>
       </c>
       <c r="M29" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -16805,7 +16779,7 @@
       </c>
       <c r="L30" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E22Y#0007</v>
+        <v>EUR_YC3MRH_AB3E22Y#0000</v>
       </c>
       <c r="M30" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -16851,7 +16825,7 @@
       </c>
       <c r="L31" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E23Y#0007</v>
+        <v>EUR_YC3MRH_AB3E23Y#0000</v>
       </c>
       <c r="M31" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -16897,7 +16871,7 @@
       </c>
       <c r="L32" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E24Y#0007</v>
+        <v>EUR_YC3MRH_AB3E24Y#0000</v>
       </c>
       <c r="M32" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -16943,7 +16917,7 @@
       </c>
       <c r="L33" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E25Y#0007</v>
+        <v>EUR_YC3MRH_AB3E25Y#0000</v>
       </c>
       <c r="M33" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -16989,7 +16963,7 @@
       </c>
       <c r="L34" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E26Y#0007</v>
+        <v>EUR_YC3MRH_AB3E26Y#0000</v>
       </c>
       <c r="M34" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -17035,7 +17009,7 @@
       </c>
       <c r="L35" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E27Y#0007</v>
+        <v>EUR_YC3MRH_AB3E27Y#0000</v>
       </c>
       <c r="M35" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -17081,7 +17055,7 @@
       </c>
       <c r="L36" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E28Y#0007</v>
+        <v>EUR_YC3MRH_AB3E28Y#0000</v>
       </c>
       <c r="M36" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -17127,7 +17101,7 @@
       </c>
       <c r="L37" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E29Y#0007</v>
+        <v>EUR_YC3MRH_AB3E29Y#0000</v>
       </c>
       <c r="M37" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -17173,7 +17147,7 @@
       </c>
       <c r="L38" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E30Y#0007</v>
+        <v>EUR_YC3MRH_AB3E30Y#0000</v>
       </c>
       <c r="M38" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -17219,7 +17193,7 @@
       </c>
       <c r="L39" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E35Y#0007</v>
+        <v>EUR_YC3MRH_AB3E35Y#0000</v>
       </c>
       <c r="M39" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -17265,7 +17239,7 @@
       </c>
       <c r="L40" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E40Y#0007</v>
+        <v>EUR_YC3MRH_AB3E40Y#0000</v>
       </c>
       <c r="M40" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -17311,7 +17285,7 @@
       </c>
       <c r="L41" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E50Y#0007</v>
+        <v>EUR_YC3MRH_AB3E50Y#0000</v>
       </c>
       <c r="M41" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -17357,7 +17331,7 @@
       </c>
       <c r="L42" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E60Y#0007</v>
+        <v>EUR_YC3MRH_AB3E60Y#0000</v>
       </c>
       <c r="M42" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -17415,7 +17389,7 @@
       </c>
       <c r="L44" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K44,$J44,$E44&amp;"M",Calendar,$F44,$G44,$H44,$L$4,$I44,B44,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S12#0007</v>
+        <v>EUR_YC3MRH_1S12#0000</v>
       </c>
       <c r="M44" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -17460,7 +17434,7 @@
       </c>
       <c r="L45" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K45,$J45,$E45&amp;"M",Calendar,$F45,$G45,$H45,$L$4,$I45,B45,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2S12#0007</v>
+        <v>EUR_YC3MRH_2S12#0000</v>
       </c>
       <c r="M45" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -17505,7 +17479,7 @@
       </c>
       <c r="L46" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K46,$J46,$E46&amp;"M",Calendar,$F46,$G46,$H46,$L$4,$I46,B46,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3S12#0007</v>
+        <v>EUR_YC3MRH_3S12#0000</v>
       </c>
       <c r="M46" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -17550,7 +17524,7 @@
       </c>
       <c r="L47" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K47,$J47,$E47&amp;"M",Calendar,$F47,$G47,$H47,$L$4,$I47,B47,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_4S12#0007</v>
+        <v>EUR_YC3MRH_4S12#0000</v>
       </c>
       <c r="M47" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -17595,7 +17569,7 @@
       </c>
       <c r="L48" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K48,$J48,$E48&amp;"M",Calendar,$F48,$G48,$H48,$L$4,$I48,B48,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S24#0007</v>
+        <v>EUR_YC3MRH_1S24#0000</v>
       </c>
       <c r="M48" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -17640,7 +17614,7 @@
       </c>
       <c r="L49" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K49,$J49,$E49&amp;"M",Calendar,$F49,$G49,$H49,$L$4,$I49,B49,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2S24#0007</v>
+        <v>EUR_YC3MRH_2S24#0000</v>
       </c>
       <c r="M49" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -17685,7 +17659,7 @@
       </c>
       <c r="L50" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K50,$J50,$E50&amp;"M",Calendar,$F50,$G50,$H50,$L$4,$I50,B50,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S36#0007</v>
+        <v>EUR_YC3MRH_1S36#0000</v>
       </c>
       <c r="M50" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -17861,7 +17835,7 @@
       </c>
       <c r="L4" s="195" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC3MRH_AB3EBASIS_ibor3M#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS_ibor3M#0000</v>
       </c>
       <c r="M4" s="194" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -17925,7 +17899,7 @@
       </c>
       <c r="L6" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS1Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS1Y#0000</v>
       </c>
       <c r="M6" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -17978,7 +17952,7 @@
       </c>
       <c r="L7" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS15M#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS15M#0000</v>
       </c>
       <c r="M7" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -18027,7 +18001,7 @@
       </c>
       <c r="L8" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS18M#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS18M#0000</v>
       </c>
       <c r="M8" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -18076,7 +18050,7 @@
       </c>
       <c r="L9" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS21M#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS21M#0000</v>
       </c>
       <c r="M9" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -18125,7 +18099,7 @@
       </c>
       <c r="L10" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS2Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS2Y#0000</v>
       </c>
       <c r="M10" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -18183,7 +18157,7 @@
       </c>
       <c r="L11" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS3Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS3Y#0000</v>
       </c>
       <c r="M11" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -18241,7 +18215,7 @@
       </c>
       <c r="L12" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS4Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS4Y#0000</v>
       </c>
       <c r="M12" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -18299,7 +18273,7 @@
       </c>
       <c r="L13" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS5Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS5Y#0000</v>
       </c>
       <c r="M13" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -18357,7 +18331,7 @@
       </c>
       <c r="L14" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS6Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS6Y#0000</v>
       </c>
       <c r="M14" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -18415,7 +18389,7 @@
       </c>
       <c r="L15" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS7Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS7Y#0000</v>
       </c>
       <c r="M15" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -18467,7 +18441,7 @@
       </c>
       <c r="L16" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS8Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS8Y#0000</v>
       </c>
       <c r="M16" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -18516,7 +18490,7 @@
       </c>
       <c r="L17" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS9Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS9Y#0000</v>
       </c>
       <c r="M17" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -18565,7 +18539,7 @@
       </c>
       <c r="L18" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS10Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS10Y#0000</v>
       </c>
       <c r="M18" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -18614,7 +18588,7 @@
       </c>
       <c r="L19" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS11Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS11Y#0000</v>
       </c>
       <c r="M19" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -18663,7 +18637,7 @@
       </c>
       <c r="L20" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS12Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS12Y#0000</v>
       </c>
       <c r="M20" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -18712,7 +18686,7 @@
       </c>
       <c r="L21" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS13Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS13Y#0000</v>
       </c>
       <c r="M21" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -18761,7 +18735,7 @@
       </c>
       <c r="L22" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS14Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS14Y#0000</v>
       </c>
       <c r="M22" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -18810,7 +18784,7 @@
       </c>
       <c r="L23" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS15Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS15Y#0000</v>
       </c>
       <c r="M23" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -18859,7 +18833,7 @@
       </c>
       <c r="L24" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS16Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS16Y#0000</v>
       </c>
       <c r="M24" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -18908,7 +18882,7 @@
       </c>
       <c r="L25" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS17Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS17Y#0000</v>
       </c>
       <c r="M25" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -18957,7 +18931,7 @@
       </c>
       <c r="L26" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS18Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS18Y#0000</v>
       </c>
       <c r="M26" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -19006,7 +18980,7 @@
       </c>
       <c r="L27" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS19Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS19Y#0000</v>
       </c>
       <c r="M27" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -19055,7 +19029,7 @@
       </c>
       <c r="L28" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS20Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS20Y#0000</v>
       </c>
       <c r="M28" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -19104,7 +19078,7 @@
       </c>
       <c r="L29" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS21Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS21Y#0000</v>
       </c>
       <c r="M29" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -19153,7 +19127,7 @@
       </c>
       <c r="L30" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS22Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS22Y#0000</v>
       </c>
       <c r="M30" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -19202,7 +19176,7 @@
       </c>
       <c r="L31" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS23Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS23Y#0000</v>
       </c>
       <c r="M31" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -19251,7 +19225,7 @@
       </c>
       <c r="L32" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS24Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS24Y#0000</v>
       </c>
       <c r="M32" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -19300,7 +19274,7 @@
       </c>
       <c r="L33" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS25Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS25Y#0000</v>
       </c>
       <c r="M33" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -19349,7 +19323,7 @@
       </c>
       <c r="L34" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS26Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS26Y#0000</v>
       </c>
       <c r="M34" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -19398,7 +19372,7 @@
       </c>
       <c r="L35" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS27Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS27Y#0000</v>
       </c>
       <c r="M35" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -19447,7 +19421,7 @@
       </c>
       <c r="L36" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS28Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS28Y#0000</v>
       </c>
       <c r="M36" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -19496,7 +19470,7 @@
       </c>
       <c r="L37" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS29Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS29Y#0000</v>
       </c>
       <c r="M37" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -19545,7 +19519,7 @@
       </c>
       <c r="L38" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS30Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS30Y#0000</v>
       </c>
       <c r="M38" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -19594,7 +19568,7 @@
       </c>
       <c r="L39" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS35Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS35Y#0000</v>
       </c>
       <c r="M39" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -19643,7 +19617,7 @@
       </c>
       <c r="L40" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS40Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS40Y#0000</v>
       </c>
       <c r="M40" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -19692,7 +19666,7 @@
       </c>
       <c r="L41" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS50Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS50Y#0000</v>
       </c>
       <c r="M41" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -19741,7 +19715,7 @@
       </c>
       <c r="L42" s="178" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS60Y#0007</v>
+        <v>EUR_YC3MRH_AB3EBASIS60Y#0000</v>
       </c>
       <c r="M42" s="177" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/EUR_YC3MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YC3MBootstrapping.xlsx
@@ -2250,7 +2250,7 @@
   <dimension ref="B1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2506,8 +2506,8 @@
         <v>89</v>
       </c>
       <c r="D14" s="80" t="str">
-        <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYC3M#0007</v>
+        <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
+        <v>_EURYC3M#0015</v>
       </c>
       <c r="E14" s="55"/>
       <c r="F14" s="54"/>
@@ -2623,14 +2623,8 @@
       <c r="C22" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="70">
-        <f>_xll.qlQuoteValue(D20,Trigger)</f>
-        <v>1</v>
-      </c>
-      <c r="E22" s="69">
-        <f>_xll.qlQuoteValue(E20,Trigger)</f>
-        <v>1</v>
-      </c>
+      <c r="D22" s="70"/>
+      <c r="E22" s="69"/>
       <c r="F22" s="54"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -2678,7 +2672,7 @@
       <c r="B27" s="58"/>
       <c r="C27" s="62">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="D27" s="61">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2691,11 +2685,11 @@
       <c r="B28" s="58"/>
       <c r="C28" s="60">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63619</v>
+        <v>63639</v>
       </c>
       <c r="D28" s="59">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.21735147414618813</v>
+        <v>0.20482708176185146</v>
       </c>
       <c r="E28" s="55"/>
       <c r="F28" s="54"/>
@@ -2831,11 +2825,11 @@
       </c>
       <c r="E2" s="34" t="str">
         <f>Deposits_3M!K3</f>
-        <v>EUR_YC3MRH_SND#0016</v>
+        <v>EUR_YC3MRH_SND#0001</v>
       </c>
       <c r="F2" s="33">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>3.3240000000000001E-3</v>
+        <v>2.9380000000000001E-3</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="32" t="b">
@@ -2849,11 +2843,11 @@
       </c>
       <c r="K2" s="31">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L2" s="30">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41705</v>
+        <v>41723</v>
       </c>
       <c r="M2" s="1">
         <v>30</v>
@@ -2870,11 +2864,11 @@
       </c>
       <c r="E3" s="34" t="str">
         <f>Deposits_3M!K4</f>
-        <v>EUR_YC3MRH_SWD#0010</v>
+        <v>EUR_YC3MRH_SWD#0001</v>
       </c>
       <c r="F3" s="33">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
-        <v>3.3240000000000001E-3</v>
+        <v>2.9989999999999999E-3</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="32" t="b">
@@ -2888,11 +2882,11 @@
       </c>
       <c r="K3" s="31">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L3" s="30">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41711</v>
+        <v>41729</v>
       </c>
       <c r="M3" s="1">
         <v>40</v>
@@ -2909,11 +2903,11 @@
       </c>
       <c r="E4" s="34" t="str">
         <f>Deposits_3M!K5</f>
-        <v>EUR_YC3MRH_2WD#0010</v>
+        <v>EUR_YC3MRH_2WD#0001</v>
       </c>
       <c r="F4" s="33">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>3.3240000000000001E-3</v>
+        <v>3.0010000000000002E-3</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="32" t="b">
@@ -2927,11 +2921,11 @@
       </c>
       <c r="K4" s="31">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L4" s="30">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41718</v>
+        <v>41736</v>
       </c>
       <c r="M4" s="1">
         <v>50</v>
@@ -2948,11 +2942,11 @@
       </c>
       <c r="E5" s="34" t="str">
         <f>Deposits_3M!K6</f>
-        <v>EUR_YC3MRH_3WD#0004</v>
+        <v>EUR_YC3MRH_3WD#0001</v>
       </c>
       <c r="F5" s="33">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>3.3240000000000001E-3</v>
+        <v>3.0130000000000001E-3</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="32" t="b">
@@ -2966,11 +2960,11 @@
       </c>
       <c r="K5" s="31">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L5" s="30">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41725</v>
+        <v>41743</v>
       </c>
       <c r="M5" s="1">
         <v>60</v>
@@ -2987,11 +2981,11 @@
       </c>
       <c r="E6" s="34" t="str">
         <f>Deposits_3M!K7</f>
-        <v>EUR_YC3MRH_1MD#0011</v>
+        <v>EUR_YC3MRH_1MD#0001</v>
       </c>
       <c r="F6" s="33">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>3.3240000000000001E-3</v>
+        <v>3.1110000000000001E-3</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="32" t="b">
@@ -3005,11 +2999,11 @@
       </c>
       <c r="K6" s="31">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L6" s="30">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41736</v>
+        <v>41753</v>
       </c>
       <c r="M6" s="1">
         <v>70</v>
@@ -3026,11 +3020,11 @@
       </c>
       <c r="E7" s="34" t="str">
         <f>Deposits_3M!K8</f>
-        <v>EUR_YC3MRH_2MD#0010</v>
+        <v>EUR_YC3MRH_2MD#0001</v>
       </c>
       <c r="F7" s="33">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>3.3240000000000001E-3</v>
+        <v>3.0980000000000001E-3</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="32" t="b">
@@ -3044,11 +3038,11 @@
       </c>
       <c r="K7" s="31">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L7" s="30">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41765</v>
+        <v>41785</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -3059,11 +3053,11 @@
       </c>
       <c r="E8" s="34" t="str">
         <f>Deposits_3M!K9</f>
-        <v>EUR_YC3MRH_3MD#0011</v>
+        <v>EUR_YC3MRH_3MD#0001</v>
       </c>
       <c r="F8" s="33">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>3.3240000000000001E-3</v>
+        <v>3.13E-3</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="32" t="b">
@@ -3077,11 +3071,11 @@
       </c>
       <c r="K8" s="31">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L8" s="30">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41796</v>
+        <v>41814</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -3097,7 +3091,7 @@
       </c>
       <c r="E9" s="42" t="str">
         <f>FRAs_3M!H3</f>
-        <v>EUR_YC3MRH_T3F1#0002</v>
+        <v>EUR_YC3MRH_T3F1#0001</v>
       </c>
       <c r="F9" s="41" t="e">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
@@ -3115,11 +3109,11 @@
       </c>
       <c r="K9" s="39">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L9" s="38">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41796</v>
+        <v>41814</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -3135,7 +3129,7 @@
       </c>
       <c r="E10" s="27" t="str">
         <f>FRAs_3M!H4</f>
-        <v>EUR_YC3MRH_TOM3F1#0002</v>
+        <v>EUR_YC3MRH_TOM3F1#0001</v>
       </c>
       <c r="F10" s="26" t="e">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
@@ -3153,11 +3147,11 @@
       </c>
       <c r="K10" s="24">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41705</v>
+        <v>41723</v>
       </c>
       <c r="L10" s="23">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41799</v>
+        <v>41815</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -3177,7 +3171,7 @@
       </c>
       <c r="F11" s="33">
         <f>_xll.qlRateHelperQuoteValue($E11,Trigger)</f>
-        <v>2.63E-3</v>
+        <v>3.2199999999999993E-3</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="32" t="b">
@@ -3191,11 +3185,11 @@
       </c>
       <c r="K11" s="31">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41736</v>
+        <v>41753</v>
       </c>
       <c r="L11" s="30">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>41827</v>
+        <v>41844</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
@@ -3215,7 +3209,7 @@
       </c>
       <c r="F12" s="33">
         <f>_xll.qlRateHelperQuoteValue($E12,Trigger)</f>
-        <v>2.5300000000000001E-3</v>
+        <v>3.2299999999999994E-3</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="32" t="b">
@@ -3229,11 +3223,11 @@
       </c>
       <c r="K12" s="31">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41765</v>
+        <v>41785</v>
       </c>
       <c r="L12" s="30">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>41857</v>
+        <v>41877</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
@@ -3253,7 +3247,7 @@
       </c>
       <c r="F13" s="33">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
-        <v>2.48E-3</v>
+        <v>3.2799999999999995E-3</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="32" t="b">
@@ -3267,11 +3261,11 @@
       </c>
       <c r="K13" s="31">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41796</v>
+        <v>41814</v>
       </c>
       <c r="L13" s="30">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>41890</v>
+        <v>41906</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
@@ -3291,7 +3285,7 @@
       </c>
       <c r="F14" s="33">
         <f>_xll.qlRateHelperQuoteValue($E14,Trigger)</f>
-        <v>2.47E-3</v>
+        <v>3.2699999999999995E-3</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="32" t="b">
@@ -3305,11 +3299,11 @@
       </c>
       <c r="K14" s="31">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>41827</v>
+        <v>41844</v>
       </c>
       <c r="L14" s="30">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>41919</v>
+        <v>41936</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
@@ -3329,7 +3323,7 @@
       </c>
       <c r="F15" s="33">
         <f>_xll.qlRateHelperQuoteValue($E15,Trigger)</f>
-        <v>2.48E-3</v>
+        <v>3.2499999999999994E-3</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="32" t="b">
@@ -3343,11 +3337,11 @@
       </c>
       <c r="K15" s="31">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>41857</v>
+        <v>41876</v>
       </c>
       <c r="L15" s="30">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>41949</v>
+        <v>41968</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
@@ -3367,7 +3361,7 @@
       </c>
       <c r="F16" s="33">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>2.5000000000000001E-3</v>
+        <v>3.2599999999999994E-3</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="32" t="b">
@@ -3381,11 +3375,11 @@
       </c>
       <c r="K16" s="31">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41890</v>
+        <v>41906</v>
       </c>
       <c r="L16" s="30">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>41981</v>
+        <v>41997</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3855,15 +3849,15 @@
       </c>
       <c r="D29" s="34" t="str">
         <f t="array" ref="D29:D70">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A29:$A70)</f>
-        <v>H4</v>
+        <v>J4</v>
       </c>
       <c r="E29" s="34" t="str">
         <f>Futures_3M!I3</f>
-        <v>EUR_YC3MRH_FUT3MH4#0002</v>
+        <v>EUR_YC3MRH_FUT3MJ4#0001</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlRateHelperQuoteValue($E29,Trigger)</f>
-        <v>99.737499999999997</v>
+        <v>99.677500000000009</v>
       </c>
       <c r="G29" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E29,Trigger)</f>
@@ -3880,11 +3874,11 @@
       </c>
       <c r="K29" s="31">
         <f>_xll.qlRateHelperEarliestDate($E29,Trigger)</f>
-        <v>41717</v>
+        <v>41745</v>
       </c>
       <c r="L29" s="30">
         <f>_xll.qlRateHelperLatestDate($E29,Trigger)</f>
-        <v>41809</v>
+        <v>41836</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -3897,15 +3891,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D30" s="34" t="str">
-        <v>J4</v>
+        <v>K4</v>
       </c>
       <c r="E30" s="34" t="str">
         <f>Futures_3M!I4</f>
-        <v>EUR_YC3MRH_FUT3MJ4#0002</v>
+        <v>EUR_YC3MRH_FUT3MK4#0001</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlRateHelperQuoteValue($E30,Trigger)</f>
-        <v>99.747500000000002</v>
+        <v>99.68</v>
       </c>
       <c r="G30" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E30,Trigger)</f>
@@ -3922,11 +3916,11 @@
       </c>
       <c r="K30" s="31">
         <f>_xll.qlRateHelperEarliestDate($E30,Trigger)</f>
-        <v>41745</v>
+        <v>41780</v>
       </c>
       <c r="L30" s="30">
         <f>_xll.qlRateHelperLatestDate($E30,Trigger)</f>
-        <v>41836</v>
+        <v>41872</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -3939,15 +3933,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D31" s="34" t="str">
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E31" s="34" t="str">
         <f>Futures_3M!I5</f>
-        <v>EUR_YC3MRH_FUT3MK4#0002</v>
+        <v>EUR_YC3MRH_FUT3MM4#0001</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlRateHelperQuoteValue($E31,Trigger)</f>
-        <v>99.697499999999991</v>
+        <v>99.672499999999999</v>
       </c>
       <c r="G31" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E31,Trigger)</f>
@@ -3964,11 +3958,11 @@
       </c>
       <c r="K31" s="31">
         <f>_xll.qlRateHelperEarliestDate($E31,Trigger)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
       <c r="L31" s="30">
         <f>_xll.qlRateHelperLatestDate($E31,Trigger)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -3981,19 +3975,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D32" s="34" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E32" s="34" t="str">
         <f>Futures_3M!I6</f>
-        <v>EUR_YC3MRH_FUT3MM4#0002</v>
-      </c>
-      <c r="F32" s="48">
+        <v>EUR_YC3MRH_FUT3MN4#0001</v>
+      </c>
+      <c r="F32" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E32,Trigger)</f>
-        <v>99.752499999999998</v>
-      </c>
-      <c r="G32" s="33">
+        <v>#NUM!</v>
+      </c>
+      <c r="G32" s="33" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E32,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H32" s="32" t="b">
         <v>1</v>
@@ -4006,11 +4000,11 @@
       </c>
       <c r="K32" s="31">
         <f>_xll.qlRateHelperEarliestDate($E32,Trigger)</f>
-        <v>41808</v>
+        <v>41836</v>
       </c>
       <c r="L32" s="30">
         <f>_xll.qlRateHelperLatestDate($E32,Trigger)</f>
-        <v>41900</v>
+        <v>41928</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -4023,11 +4017,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D33" s="34" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E33" s="34" t="str">
         <f>Futures_3M!I7</f>
-        <v>EUR_YC3MRH_FUT3MN4#0002</v>
+        <v>EUR_YC3MRH_FUT3MQ4#0001</v>
       </c>
       <c r="F33" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E33,Trigger)</f>
@@ -4048,11 +4042,11 @@
       </c>
       <c r="K33" s="31">
         <f>_xll.qlRateHelperEarliestDate($E33,Trigger)</f>
-        <v>41836</v>
+        <v>41871</v>
       </c>
       <c r="L33" s="30">
         <f>_xll.qlRateHelperLatestDate($E33,Trigger)</f>
-        <v>41928</v>
+        <v>41963</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -4065,19 +4059,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D34" s="34" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E34" s="34" t="str">
         <f>Futures_3M!I8</f>
-        <v>EUR_YC3MRH_FUT3MQ4#0002</v>
-      </c>
-      <c r="F34" s="48" t="e">
+        <v>EUR_YC3MRH_FUT3MU4#0001</v>
+      </c>
+      <c r="F34" s="48">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G34" s="33" t="e">
+        <v>99.672499999999999</v>
+      </c>
+      <c r="G34" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E34,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H34" s="32" t="b">
         <v>1</v>
@@ -4090,11 +4084,11 @@
       </c>
       <c r="K34" s="31">
         <f>_xll.qlRateHelperEarliestDate($E34,Trigger)</f>
-        <v>41871</v>
+        <v>41899</v>
       </c>
       <c r="L34" s="30">
         <f>_xll.qlRateHelperLatestDate($E34,Trigger)</f>
-        <v>41963</v>
+        <v>41990</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -4107,19 +4101,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D35" s="34" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E35" s="34" t="str">
         <f>Futures_3M!I9</f>
-        <v>EUR_YC3MRH_FUT3MU4#0002</v>
-      </c>
-      <c r="F35" s="48">
+        <v>EUR_YC3MRH_FUT3MV4#0001</v>
+      </c>
+      <c r="F35" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
-        <v>99.747500000000002</v>
-      </c>
-      <c r="G35" s="33">
+        <v>#NUM!</v>
+      </c>
+      <c r="G35" s="33" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E35,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H35" s="32" t="b">
         <v>1</v>
@@ -4132,11 +4126,11 @@
       </c>
       <c r="K35" s="31">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>41899</v>
+        <v>41927</v>
       </c>
       <c r="L35" s="30">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>41990</v>
+        <v>42019</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -4149,11 +4143,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D36" s="34" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E36" s="34" t="str">
         <f>Futures_3M!I10</f>
-        <v>EUR_YC3MRH_FUT3MV4#0002</v>
+        <v>EUR_YC3MRH_FUT3MX4#0001</v>
       </c>
       <c r="F36" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -4174,11 +4168,11 @@
       </c>
       <c r="K36" s="31">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>41927</v>
+        <v>41962</v>
       </c>
       <c r="L36" s="30">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>42019</v>
+        <v>42054</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -4191,19 +4185,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D37" s="34" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E37" s="34" t="str">
         <f>Futures_3M!I11</f>
-        <v>EUR_YC3MRH_FUT3MX4#0002</v>
-      </c>
-      <c r="F37" s="48" t="e">
+        <v>EUR_YC3MRH_FUT3MZ4#0001</v>
+      </c>
+      <c r="F37" s="48">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G37" s="33" t="e">
+        <v>99.657499999999999</v>
+      </c>
+      <c r="G37" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E37,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H37" s="32" t="b">
         <v>1</v>
@@ -4216,11 +4210,11 @@
       </c>
       <c r="K37" s="31">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>41962</v>
+        <v>41990</v>
       </c>
       <c r="L37" s="30">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>42054</v>
+        <v>42080</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -4233,19 +4227,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D38" s="34" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E38" s="34" t="str">
         <f>Futures_3M!I12</f>
-        <v>EUR_YC3MRH_FUT3MZ4#0002</v>
-      </c>
-      <c r="F38" s="48">
+        <v>EUR_YC3MRH_FUT3MF5#0001</v>
+      </c>
+      <c r="F38" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>99.727499999999992</v>
-      </c>
-      <c r="G38" s="33">
+        <v>#NUM!</v>
+      </c>
+      <c r="G38" s="33" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E38,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H38" s="32" t="b">
         <v>1</v>
@@ -4258,11 +4252,11 @@
       </c>
       <c r="K38" s="31">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>41990</v>
+        <v>42025</v>
       </c>
       <c r="L38" s="30">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>42080</v>
+        <v>42115</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -4275,11 +4269,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D39" s="34" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="E39" s="34" t="str">
         <f>Futures_3M!I13</f>
-        <v>EUR_YC3MRH_FUT3MF5#0002</v>
+        <v>EUR_YC3MRH_FUT3MG5#0001</v>
       </c>
       <c r="F39" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4300,11 +4294,11 @@
       </c>
       <c r="K39" s="31">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="L39" s="30">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>42115</v>
+        <v>42142</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -4317,19 +4311,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D40" s="34" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="E40" s="34" t="str">
         <f>Futures_3M!I14</f>
-        <v>EUR_YC3MRH_FUT3MG5#0002</v>
-      </c>
-      <c r="F40" s="48" t="e">
+        <v>EUR_YC3MRH_FUT3MH5#0001</v>
+      </c>
+      <c r="F40" s="48">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G40" s="33" t="e">
+        <v>99.627499999999998</v>
+      </c>
+      <c r="G40" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E40,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H40" s="32" t="b">
         <v>1</v>
@@ -4342,11 +4336,11 @@
       </c>
       <c r="K40" s="31">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
-        <v>42053</v>
+        <v>42081</v>
       </c>
       <c r="L40" s="30">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
-        <v>42142</v>
+        <v>42173</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -4359,15 +4353,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D41" s="34" t="str">
-        <v>H5</v>
+        <v>M5</v>
       </c>
       <c r="E41" s="34" t="str">
         <f>Futures_3M!I15</f>
-        <v>EUR_YC3MRH_FUT3MH5#0002</v>
+        <v>EUR_YC3MRH_FUT3MM5#0001</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>99.697499999999991</v>
+        <v>99.592500000000001</v>
       </c>
       <c r="G41" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E41,Trigger)</f>
@@ -4384,11 +4378,11 @@
       </c>
       <c r="K41" s="31">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
-        <v>42081</v>
+        <v>42172</v>
       </c>
       <c r="L41" s="30">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
-        <v>42173</v>
+        <v>42264</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -4401,15 +4395,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D42" s="34" t="str">
-        <v>M5</v>
+        <v>U5</v>
       </c>
       <c r="E42" s="34" t="str">
         <f>Futures_3M!I16</f>
-        <v>EUR_YC3MRH_FUT3MM5#0002</v>
+        <v>EUR_YC3MRH_FUT3MU5#0001</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>99.652500000000003</v>
+        <v>99.537499999999994</v>
       </c>
       <c r="G42" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E42,Trigger)</f>
@@ -4426,11 +4420,11 @@
       </c>
       <c r="K42" s="31">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
-        <v>42172</v>
+        <v>42263</v>
       </c>
       <c r="L42" s="30">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
-        <v>42264</v>
+        <v>42354</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -4443,15 +4437,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D43" s="34" t="str">
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="E43" s="34" t="str">
         <f>Futures_3M!I17</f>
-        <v>EUR_YC3MRH_FUT3MU5#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ5#0001</v>
       </c>
       <c r="F43" s="48">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
-        <v>99.597499999999997</v>
+        <v>99.467500000000001</v>
       </c>
       <c r="G43" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E43,Trigger)</f>
@@ -4468,11 +4462,11 @@
       </c>
       <c r="K43" s="31">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="L43" s="30">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -4485,15 +4479,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D44" s="34" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="E44" s="34" t="str">
         <f>Futures_3M!I18</f>
-        <v>EUR_YC3MRH_FUT3MZ5#0002</v>
+        <v>EUR_YC3MRH_FUT3MH6#0001</v>
       </c>
       <c r="F44" s="48">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>99.522500000000008</v>
+        <v>99.387500000000003</v>
       </c>
       <c r="G44" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E44,Trigger)</f>
@@ -4510,11 +4504,11 @@
       </c>
       <c r="K44" s="31">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="L44" s="30">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
-        <v>42445</v>
+        <v>42537</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -4527,15 +4521,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D45" s="34" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="E45" s="34" t="str">
         <f>Futures_3M!I19</f>
-        <v>EUR_YC3MRH_FUT3MH6#0002</v>
+        <v>EUR_YC3MRH_FUT3MM6#0001</v>
       </c>
       <c r="F45" s="48">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>99.432500000000005</v>
+        <v>99.282499999999999</v>
       </c>
       <c r="G45" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
@@ -4552,11 +4546,11 @@
       </c>
       <c r="K45" s="31">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="L45" s="30">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
-        <v>42537</v>
+        <v>42628</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -4569,15 +4563,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D46" s="34" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="E46" s="34" t="str">
         <f>Futures_3M!I20</f>
-        <v>EUR_YC3MRH_FUT3MM6#0002</v>
+        <v>EUR_YC3MRH_FUT3MU6#0001</v>
       </c>
       <c r="F46" s="48">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
-        <v>99.322499999999991</v>
+        <v>99.162499999999994</v>
       </c>
       <c r="G46" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E46,Trigger)</f>
@@ -4594,11 +4588,11 @@
       </c>
       <c r="K46" s="31">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="L46" s="30">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
-        <v>42628</v>
+        <v>42725</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -4611,15 +4605,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D47" s="34" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="E47" s="34" t="str">
         <f>Futures_3M!I21</f>
-        <v>EUR_YC3MRH_FUT3MU6#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ6#0001</v>
       </c>
       <c r="F47" s="48">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>99.192499999999995</v>
+        <v>99.032499999999999</v>
       </c>
       <c r="G47" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
@@ -4636,11 +4630,11 @@
       </c>
       <c r="K47" s="31">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="L47" s="30">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
-        <v>42725</v>
+        <v>42815</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -4653,15 +4647,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D48" s="34" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="E48" s="34" t="str">
         <f>Futures_3M!I22</f>
-        <v>EUR_YC3MRH_FUT3MZ6#0002</v>
+        <v>EUR_YC3MRH_FUT3MH7#0001</v>
       </c>
       <c r="F48" s="48">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>99.057500000000005</v>
+        <v>98.907499999999999</v>
       </c>
       <c r="G48" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E48,Trigger)</f>
@@ -4678,11 +4672,11 @@
       </c>
       <c r="K48" s="31">
         <f>_xll.qlRateHelperEarliestDate($E48,Trigger)</f>
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="L48" s="30">
         <f>_xll.qlRateHelperLatestDate($E48,Trigger)</f>
-        <v>42815</v>
+        <v>42901</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -4695,15 +4689,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D49" s="34" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="E49" s="34" t="str">
         <f>Futures_3M!I23</f>
-        <v>EUR_YC3MRH_FUT3MH7#0002</v>
+        <v>EUR_YC3MRH_FUT3MM7#0001</v>
       </c>
       <c r="F49" s="48">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
-        <v>98.932500000000005</v>
+        <v>98.777500000000003</v>
       </c>
       <c r="G49" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E49,Trigger)</f>
@@ -4720,11 +4714,11 @@
       </c>
       <c r="K49" s="31">
         <f>_xll.qlRateHelperEarliestDate($E49,Trigger)</f>
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="L49" s="30">
         <f>_xll.qlRateHelperLatestDate($E49,Trigger)</f>
-        <v>42901</v>
+        <v>42999</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -4737,15 +4731,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D50" s="34" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="E50" s="34" t="str">
         <f>Futures_3M!I24</f>
-        <v>EUR_YC3MRH_FUT3MM7#0002</v>
+        <v>EUR_YC3MRH_FUT3MU7#0001</v>
       </c>
       <c r="F50" s="48">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>98.797499999999999</v>
+        <v>98.652500000000003</v>
       </c>
       <c r="G50" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E50,Trigger)</f>
@@ -4762,11 +4756,11 @@
       </c>
       <c r="K50" s="31">
         <f>_xll.qlRateHelperEarliestDate($E50,Trigger)</f>
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="L50" s="30">
         <f>_xll.qlRateHelperLatestDate($E50,Trigger)</f>
-        <v>42999</v>
+        <v>43089</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -4779,15 +4773,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D51" s="34" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="E51" s="34" t="str">
         <f>Futures_3M!I25</f>
-        <v>EUR_YC3MRH_FUT3MU7#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ7#0001</v>
       </c>
       <c r="F51" s="48">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>98.67</v>
+        <v>98.527500000000003</v>
       </c>
       <c r="G51" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E51,Trigger)</f>
@@ -4804,11 +4798,11 @@
       </c>
       <c r="K51" s="31">
         <f>_xll.qlRateHelperEarliestDate($E51,Trigger)</f>
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="L51" s="30">
         <f>_xll.qlRateHelperLatestDate($E51,Trigger)</f>
-        <v>43089</v>
+        <v>43179</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -4821,15 +4815,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D52" s="34" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="E52" s="34" t="str">
         <f>Futures_3M!I26</f>
-        <v>EUR_YC3MRH_FUT3MZ7#0002</v>
+        <v>EUR_YC3MRH_FUT3MH8#0001</v>
       </c>
       <c r="F52" s="48">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>98.547499999999999</v>
+        <v>98.42</v>
       </c>
       <c r="G52" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E52,Trigger)</f>
@@ -4846,11 +4840,11 @@
       </c>
       <c r="K52" s="31">
         <f>_xll.qlRateHelperEarliestDate($E52,Trigger)</f>
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="L52" s="30">
         <f>_xll.qlRateHelperLatestDate($E52,Trigger)</f>
-        <v>43179</v>
+        <v>43272</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -4863,15 +4857,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D53" s="34" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="E53" s="34" t="str">
         <f>Futures_3M!I27</f>
-        <v>EUR_YC3MRH_FUT3MH8#0002</v>
+        <v>EUR_YC3MRH_FUT3MM8#0001</v>
       </c>
       <c r="F53" s="48">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>98.442499999999995</v>
+        <v>98.3125</v>
       </c>
       <c r="G53" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E53,Trigger)</f>
@@ -4888,11 +4882,11 @@
       </c>
       <c r="K53" s="31">
         <f>_xll.qlRateHelperEarliestDate($E53,Trigger)</f>
-        <v>43180</v>
+        <v>43271</v>
       </c>
       <c r="L53" s="30">
         <f>_xll.qlRateHelperLatestDate($E53,Trigger)</f>
-        <v>43272</v>
+        <v>43363</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -4905,15 +4899,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D54" s="34" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="E54" s="34" t="str">
         <f>Futures_3M!I28</f>
-        <v>EUR_YC3MRH_FUT3MM8#0002</v>
+        <v>EUR_YC3MRH_FUT3MU8#0001</v>
       </c>
       <c r="F54" s="48">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>98.335000000000008</v>
+        <v>98.204999999999998</v>
       </c>
       <c r="G54" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E54,Trigger)</f>
@@ -4930,11 +4924,11 @@
       </c>
       <c r="K54" s="31">
         <f>_xll.qlRateHelperEarliestDate($E54,Trigger)</f>
-        <v>43271</v>
+        <v>43362</v>
       </c>
       <c r="L54" s="30">
         <f>_xll.qlRateHelperLatestDate($E54,Trigger)</f>
-        <v>43363</v>
+        <v>43453</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -4947,15 +4941,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D55" s="34" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="E55" s="34" t="str">
         <f>Futures_3M!I29</f>
-        <v>EUR_YC3MRH_FUT3MU8#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ8#0001</v>
       </c>
       <c r="F55" s="48">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>98.232499999999987</v>
+        <v>98.087500000000006</v>
       </c>
       <c r="G55" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E55,Trigger)</f>
@@ -4972,11 +4966,11 @@
       </c>
       <c r="K55" s="31">
         <f>_xll.qlRateHelperEarliestDate($E55,Trigger)</f>
-        <v>43362</v>
+        <v>43453</v>
       </c>
       <c r="L55" s="30">
         <f>_xll.qlRateHelperLatestDate($E55,Trigger)</f>
-        <v>43453</v>
+        <v>43543</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -4989,15 +4983,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D56" s="34" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="E56" s="34" t="str">
         <f>Futures_3M!I30</f>
-        <v>EUR_YC3MRH_FUT3MZ8#0002</v>
+        <v>EUR_YC3MRH_FUT3MH9#0001</v>
       </c>
       <c r="F56" s="48">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>98.117500000000007</v>
+        <v>97.982500000000002</v>
       </c>
       <c r="G56" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E56,Trigger)</f>
@@ -5014,11 +5008,11 @@
       </c>
       <c r="K56" s="31">
         <f>_xll.qlRateHelperEarliestDate($E56,Trigger)</f>
-        <v>43453</v>
+        <v>43544</v>
       </c>
       <c r="L56" s="30">
         <f>_xll.qlRateHelperLatestDate($E56,Trigger)</f>
-        <v>43543</v>
+        <v>43636</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -5031,15 +5025,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D57" s="34" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="E57" s="34" t="str">
         <f>Futures_3M!I31</f>
-        <v>EUR_YC3MRH_FUT3MH9#0002</v>
+        <v>EUR_YC3MRH_FUT3MM9#0001</v>
       </c>
       <c r="F57" s="48">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>98.012500000000003</v>
+        <v>97.875</v>
       </c>
       <c r="G57" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E57,Trigger)</f>
@@ -5056,11 +5050,11 @@
       </c>
       <c r="K57" s="31">
         <f>_xll.qlRateHelperEarliestDate($E57,Trigger)</f>
-        <v>43544</v>
+        <v>43635</v>
       </c>
       <c r="L57" s="30">
         <f>_xll.qlRateHelperLatestDate($E57,Trigger)</f>
-        <v>43636</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -5073,15 +5067,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D58" s="34" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="E58" s="34" t="str">
         <f>Futures_3M!I32</f>
-        <v>EUR_YC3MRH_FUT3MM9#0002</v>
+        <v>EUR_YC3MRH_FUT3MU9#0001</v>
       </c>
       <c r="F58" s="48">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>97.91</v>
+        <v>97.775000000000006</v>
       </c>
       <c r="G58" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E58,Trigger)</f>
@@ -5098,11 +5092,11 @@
       </c>
       <c r="K58" s="31">
         <f>_xll.qlRateHelperEarliestDate($E58,Trigger)</f>
-        <v>43635</v>
+        <v>43726</v>
       </c>
       <c r="L58" s="30">
         <f>_xll.qlRateHelperLatestDate($E58,Trigger)</f>
-        <v>43727</v>
+        <v>43817</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -5115,15 +5109,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D59" s="34" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="E59" s="34" t="str">
         <f>Futures_3M!I33</f>
-        <v>EUR_YC3MRH_FUT3MU9#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ9#0001</v>
       </c>
       <c r="F59" s="48">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>97.81</v>
+        <v>97.67</v>
       </c>
       <c r="G59" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E59,Trigger)</f>
@@ -5140,11 +5134,11 @@
       </c>
       <c r="K59" s="31">
         <f>_xll.qlRateHelperEarliestDate($E59,Trigger)</f>
-        <v>43726</v>
+        <v>43817</v>
       </c>
       <c r="L59" s="30">
         <f>_xll.qlRateHelperLatestDate($E59,Trigger)</f>
-        <v>43817</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -5157,15 +5151,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D60" s="34" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="E60" s="34" t="str">
         <f>Futures_3M!I34</f>
-        <v>EUR_YC3MRH_FUT3MZ9#0002</v>
+        <v>EUR_YC3MRH_FUT3MH0#0001</v>
       </c>
       <c r="F60" s="48">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>97.715000000000003</v>
+        <v>97.57</v>
       </c>
       <c r="G60" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E60,Trigger)</f>
@@ -5182,11 +5176,11 @@
       </c>
       <c r="K60" s="31">
         <f>_xll.qlRateHelperEarliestDate($E60,Trigger)</f>
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="L60" s="30">
         <f>_xll.qlRateHelperLatestDate($E60,Trigger)</f>
-        <v>43908</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -5199,11 +5193,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D61" s="34" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="E61" s="34" t="str">
         <f>Futures_3M!I35</f>
-        <v>EUR_YC3MRH_FUT3MH0#0002</v>
+        <v>EUR_YC3MRH_FUT3MM0#0001</v>
       </c>
       <c r="F61" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
@@ -5224,11 +5218,11 @@
       </c>
       <c r="K61" s="31">
         <f>_xll.qlRateHelperEarliestDate($E61,Trigger)</f>
-        <v>43908</v>
+        <v>43999</v>
       </c>
       <c r="L61" s="30">
         <f>_xll.qlRateHelperLatestDate($E61,Trigger)</f>
-        <v>44000</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -5241,11 +5235,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D62" s="34" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="E62" s="34" t="str">
         <f>Futures_3M!I36</f>
-        <v>EUR_YC3MRH_FUT3MM0#0002</v>
+        <v>EUR_YC3MRH_FUT3MU0#0001</v>
       </c>
       <c r="F62" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
@@ -5266,11 +5260,11 @@
       </c>
       <c r="K62" s="31">
         <f>_xll.qlRateHelperEarliestDate($E62,Trigger)</f>
-        <v>43999</v>
+        <v>44090</v>
       </c>
       <c r="L62" s="30">
         <f>_xll.qlRateHelperLatestDate($E62,Trigger)</f>
-        <v>44091</v>
+        <v>44181</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -5283,11 +5277,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D63" s="34" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="E63" s="34" t="str">
         <f>Futures_3M!I37</f>
-        <v>EUR_YC3MRH_FUT3MU0#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ0#0001</v>
       </c>
       <c r="F63" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
@@ -5308,11 +5302,11 @@
       </c>
       <c r="K63" s="31">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>44090</v>
+        <v>44181</v>
       </c>
       <c r="L63" s="30">
         <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>44181</v>
+        <v>44271</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -5325,11 +5319,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D64" s="34" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="E64" s="34" t="str">
         <f>Futures_3M!I38</f>
-        <v>EUR_YC3MRH_FUT3MZ0#0002</v>
+        <v>EUR_YC3MRH_FUT3MH1#0001</v>
       </c>
       <c r="F64" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
@@ -5350,11 +5344,11 @@
       </c>
       <c r="K64" s="31">
         <f>_xll.qlRateHelperEarliestDate($E64,Trigger)</f>
-        <v>44181</v>
+        <v>44272</v>
       </c>
       <c r="L64" s="30">
         <f>_xll.qlRateHelperLatestDate($E64,Trigger)</f>
-        <v>44271</v>
+        <v>44364</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -5367,11 +5361,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D65" s="34" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="E65" s="34" t="str">
         <f>Futures_3M!I39</f>
-        <v>EUR_YC3MRH_FUT3MH1#0002</v>
+        <v>EUR_YC3MRH_FUT3MM1#0001</v>
       </c>
       <c r="F65" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
@@ -5392,11 +5386,11 @@
       </c>
       <c r="K65" s="31">
         <f>_xll.qlRateHelperEarliestDate($E65,Trigger)</f>
-        <v>44272</v>
+        <v>44363</v>
       </c>
       <c r="L65" s="30">
         <f>_xll.qlRateHelperLatestDate($E65,Trigger)</f>
-        <v>44364</v>
+        <v>44455</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -5409,11 +5403,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D66" s="34" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="E66" s="34" t="str">
         <f>Futures_3M!I40</f>
-        <v>EUR_YC3MRH_FUT3MM1#0002</v>
+        <v>EUR_YC3MRH_FUT3MU1#0001</v>
       </c>
       <c r="F66" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
@@ -5434,11 +5428,11 @@
       </c>
       <c r="K66" s="31">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>44363</v>
+        <v>44454</v>
       </c>
       <c r="L66" s="30">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>44455</v>
+        <v>44545</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -5451,11 +5445,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D67" s="34" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="E67" s="34" t="str">
         <f>Futures_3M!I41</f>
-        <v>EUR_YC3MRH_FUT3MU1#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ1#0001</v>
       </c>
       <c r="F67" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
@@ -5476,11 +5470,11 @@
       </c>
       <c r="K67" s="31">
         <f>_xll.qlRateHelperEarliestDate($E67,Trigger)</f>
-        <v>44454</v>
+        <v>44545</v>
       </c>
       <c r="L67" s="30">
         <f>_xll.qlRateHelperLatestDate($E67,Trigger)</f>
-        <v>44545</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -5493,11 +5487,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D68" s="34" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="E68" s="34" t="str">
         <f>Futures_3M!I42</f>
-        <v>EUR_YC3MRH_FUT3MZ1#0002</v>
+        <v>EUR_YC3MRH_FUT3MH2#0001</v>
       </c>
       <c r="F68" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
@@ -5518,11 +5512,11 @@
       </c>
       <c r="K68" s="31">
         <f>_xll.qlRateHelperEarliestDate($E68,Trigger)</f>
-        <v>44545</v>
+        <v>44636</v>
       </c>
       <c r="L68" s="30">
         <f>_xll.qlRateHelperLatestDate($E68,Trigger)</f>
-        <v>44635</v>
+        <v>44728</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -5535,11 +5529,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D69" s="34" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="E69" s="34" t="str">
         <f>Futures_3M!I43</f>
-        <v>EUR_YC3MRH_FUT3MH2#0002</v>
+        <v>EUR_YC3MRH_FUT3MM2#0001</v>
       </c>
       <c r="F69" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
@@ -5560,11 +5554,11 @@
       </c>
       <c r="K69" s="31">
         <f>_xll.qlRateHelperEarliestDate($E69,Trigger)</f>
-        <v>44636</v>
+        <v>44727</v>
       </c>
       <c r="L69" s="30">
         <f>_xll.qlRateHelperLatestDate($E69,Trigger)</f>
-        <v>44728</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -5577,11 +5571,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D70" s="27" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="E70" s="27" t="str">
         <f>Futures_3M!I44</f>
-        <v>EUR_YC3MRH_FUT3MM2#0002</v>
+        <v>EUR_YC3MRH_FUT3MU2#0001</v>
       </c>
       <c r="F70" s="47" t="e">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
@@ -5602,11 +5596,11 @@
       </c>
       <c r="K70" s="24">
         <f>_xll.qlRateHelperEarliestDate($E70,Trigger)</f>
-        <v>44727</v>
+        <v>44825</v>
       </c>
       <c r="L70" s="23">
         <f>_xll.qlRateHelperLatestDate($E70,Trigger)</f>
-        <v>44819</v>
+        <v>44916</v>
       </c>
       <c r="M70" s="46"/>
     </row>
@@ -6044,7 +6038,7 @@
       </c>
       <c r="F82" s="41">
         <f>_xll.qlRateHelperQuoteValue($E82,Trigger)</f>
-        <v>2.5900000000000003E-3</v>
+        <v>3.4199999999999999E-3</v>
       </c>
       <c r="G82" s="41">
         <f>_xll.qlSwapRateHelperSpread($E82,Trigger)</f>
@@ -6061,11 +6055,11 @@
       </c>
       <c r="K82" s="39">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L82" s="38">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>42069</v>
+        <v>42087</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.2">
@@ -6082,7 +6076,7 @@
       </c>
       <c r="F83" s="33">
         <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
-        <v>2.6900000000000001E-3</v>
+        <v>3.62E-3</v>
       </c>
       <c r="G83" s="33">
         <f>_xll.qlSwapRateHelperSpread($E83,Trigger)</f>
@@ -6099,11 +6093,11 @@
       </c>
       <c r="K83" s="31">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L83" s="30">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>42069</v>
+        <v>42087</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
@@ -6120,7 +6114,7 @@
       </c>
       <c r="F84" s="33">
         <f>_xll.qlRateHelperQuoteValue($E84,Trigger)</f>
-        <v>2.9300000000000003E-3</v>
+        <v>3.96E-3</v>
       </c>
       <c r="G84" s="33">
         <f>_xll.qlSwapRateHelperSpread($E84,Trigger)</f>
@@ -6137,11 +6131,11 @@
       </c>
       <c r="K84" s="31">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L84" s="30">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>42069</v>
+        <v>42087</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.2">
@@ -6158,7 +6152,7 @@
       </c>
       <c r="F85" s="33">
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
-        <v>3.2999999999999995E-3</v>
+        <v>4.4200000000000003E-3</v>
       </c>
       <c r="G85" s="33">
         <f>_xll.qlSwapRateHelperSpread($E85,Trigger)</f>
@@ -6175,11 +6169,11 @@
       </c>
       <c r="K85" s="31">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L85" s="30">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>42069</v>
+        <v>42087</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.2">
@@ -6196,7 +6190,7 @@
       </c>
       <c r="F86" s="33">
         <f>_xll.qlRateHelperQuoteValue($E86,Trigger)</f>
-        <v>3.1899999999999997E-3</v>
+        <v>4.2200000000000007E-3</v>
       </c>
       <c r="G86" s="33">
         <f>_xll.qlSwapRateHelperSpread($E86,Trigger)</f>
@@ -6213,11 +6207,11 @@
       </c>
       <c r="K86" s="31">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L86" s="30">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>42436</v>
+        <v>42453</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
@@ -6234,7 +6228,7 @@
       </c>
       <c r="F87" s="33">
         <f>_xll.qlRateHelperQuoteValue($E87,Trigger)</f>
-        <v>3.5599999999999998E-3</v>
+        <v>4.7299999999999998E-3</v>
       </c>
       <c r="G87" s="33">
         <f>_xll.qlSwapRateHelperSpread($E87,Trigger)</f>
@@ -6251,11 +6245,11 @@
       </c>
       <c r="K87" s="31">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L87" s="30">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>42436</v>
+        <v>42453</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.2">
@@ -6272,7 +6266,7 @@
       </c>
       <c r="F88" s="26">
         <f>_xll.qlRateHelperQuoteValue($E88,Trigger)</f>
-        <v>4.5799999999999999E-3</v>
+        <v>5.8200000000000005E-3</v>
       </c>
       <c r="G88" s="26">
         <f>_xll.qlSwapRateHelperSpread($E88,Trigger)</f>
@@ -6289,11 +6283,11 @@
       </c>
       <c r="K88" s="24">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L88" s="23">
         <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>42800</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.2">
@@ -6310,11 +6304,11 @@
       </c>
       <c r="E89" s="34" t="str">
         <f>Swaps_3M!L6</f>
-        <v>EUR_YC3MRH_AB3E1Y#0002</v>
+        <v>EUR_YC3MRH_AB3E1Y#0001</v>
       </c>
       <c r="F89" s="33">
         <f>_xll.qlRateHelperQuoteValue($E89,Trigger)</f>
-        <v>2.6800000000000001E-3</v>
+        <v>3.3199999999999996E-3</v>
       </c>
       <c r="G89" s="33">
         <f>_xll.qlSwapRateHelperSpread($E89,Trigger)</f>
@@ -6331,15 +6325,15 @@
       </c>
       <c r="K89" s="31">
         <f>_xll.qlRateHelperEarliestDate($E89,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L89" s="30">
         <f>_xll.qlRateHelperLatestDate($E89,Trigger)</f>
-        <v>42069</v>
+        <v>42087</v>
       </c>
       <c r="N89" s="37">
         <f t="shared" ref="N89:N125" si="7">IF(G89=G126,F89-F126,"--")</f>
-        <v>0</v>
+        <v>-5.00000000000023E-6</v>
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.2">
@@ -6356,11 +6350,11 @@
       </c>
       <c r="E90" s="34" t="str">
         <f>Swaps_3M!L7</f>
-        <v>EUR_YC3MRH_AB3E15M#0002</v>
+        <v>EUR_YC3MRH_AB3E15M#0001</v>
       </c>
       <c r="F90" s="33">
         <f>_xll.qlRateHelperQuoteValue($E90,Trigger)</f>
-        <v>2.7500000000000003E-3</v>
+        <v>3.4199999999999999E-3</v>
       </c>
       <c r="G90" s="33">
         <f>_xll.qlSwapRateHelperSpread($E90,Trigger)</f>
@@ -6377,15 +6371,15 @@
       </c>
       <c r="K90" s="31">
         <f>_xll.qlRateHelperEarliestDate($E90,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L90" s="30">
         <f>_xll.qlRateHelperLatestDate($E90,Trigger)</f>
-        <v>42163</v>
+        <v>42179</v>
       </c>
       <c r="N90" s="37">
         <f t="shared" si="7"/>
-        <v>2.4999999999999979E-4</v>
+        <v>1.6500000000000022E-4</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.2">
@@ -6402,11 +6396,11 @@
       </c>
       <c r="E91" s="34" t="str">
         <f>Swaps_3M!L8</f>
-        <v>EUR_YC3MRH_AB3E18M#0002</v>
+        <v>EUR_YC3MRH_AB3E18M#0001</v>
       </c>
       <c r="F91" s="33">
         <f>_xll.qlRateHelperQuoteValue($E91,Trigger)</f>
-        <v>2.8800000000000002E-3</v>
+        <v>3.5699999999999998E-3</v>
       </c>
       <c r="G91" s="33">
         <f>_xll.qlSwapRateHelperSpread($E91,Trigger)</f>
@@ -6423,15 +6417,15 @@
       </c>
       <c r="K91" s="31">
         <f>_xll.qlRateHelperEarliestDate($E91,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L91" s="30">
         <f>_xll.qlRateHelperLatestDate($E91,Trigger)</f>
-        <v>42254</v>
+        <v>42271</v>
       </c>
       <c r="N91" s="37">
         <f t="shared" si="7"/>
-        <v>4.3368086899420177E-19</v>
+        <v>1.000000000000046E-5</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.2">
@@ -6448,11 +6442,11 @@
       </c>
       <c r="E92" s="34" t="str">
         <f>Swaps_3M!L9</f>
-        <v>EUR_YC3MRH_AB3E21M#0002</v>
+        <v>EUR_YC3MRH_AB3E21M#0001</v>
       </c>
       <c r="F92" s="33">
         <f>_xll.qlRateHelperQuoteValue($E92,Trigger)</f>
-        <v>3.0300000000000006E-3</v>
+        <v>3.7199999999999998E-3</v>
       </c>
       <c r="G92" s="33">
         <f>_xll.qlSwapRateHelperSpread($E92,Trigger)</f>
@@ -6469,15 +6463,15 @@
       </c>
       <c r="K92" s="31">
         <f>_xll.qlRateHelperEarliestDate($E92,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L92" s="30">
         <f>_xll.qlRateHelperLatestDate($E92,Trigger)</f>
-        <v>42345</v>
+        <v>42362</v>
       </c>
       <c r="N92" s="37">
         <f t="shared" si="7"/>
-        <v>1.8899999999999993E-4</v>
+        <v>1.2599999999999981E-4</v>
       </c>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.2">
@@ -6494,11 +6488,11 @@
       </c>
       <c r="E93" s="34" t="str">
         <f>Swaps_3M!L10</f>
-        <v>EUR_YC3MRH_AB3E2Y#0002</v>
+        <v>EUR_YC3MRH_AB3E2Y#0001</v>
       </c>
       <c r="F93" s="33">
         <f>_xll.qlRateHelperQuoteValue($E93,Trigger)</f>
-        <v>3.2199999999999993E-3</v>
+        <v>3.9399999999999999E-3</v>
       </c>
       <c r="G93" s="33">
         <f>_xll.qlSwapRateHelperSpread($E93,Trigger)</f>
@@ -6515,15 +6509,15 @@
       </c>
       <c r="K93" s="31">
         <f>_xll.qlRateHelperEarliestDate($E93,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L93" s="30">
         <f>_xll.qlRateHelperLatestDate($E93,Trigger)</f>
-        <v>42436</v>
+        <v>42453</v>
       </c>
       <c r="N93" s="37">
         <f t="shared" si="7"/>
-        <v>-5.00000000000023E-6</v>
+        <v>-5.0000000000006636E-6</v>
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.2">
@@ -6540,11 +6534,11 @@
       </c>
       <c r="E94" s="34" t="str">
         <f>Swaps_3M!L11</f>
-        <v>EUR_YC3MRH_AB3E3Y#0002</v>
+        <v>EUR_YC3MRH_AB3E3Y#0001</v>
       </c>
       <c r="F94" s="33">
         <f>_xll.qlRateHelperQuoteValue($E94,Trigger)</f>
-        <v>4.5999999999999999E-3</v>
+        <v>5.3100000000000005E-3</v>
       </c>
       <c r="G94" s="33">
         <f>_xll.qlSwapRateHelperSpread($E94,Trigger)</f>
@@ -6561,11 +6555,11 @@
       </c>
       <c r="K94" s="31">
         <f>_xll.qlRateHelperEarliestDate($E94,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L94" s="30">
         <f>_xll.qlRateHelperLatestDate($E94,Trigger)</f>
-        <v>42800</v>
+        <v>42818</v>
       </c>
       <c r="N94" s="37">
         <f t="shared" si="7"/>
@@ -6586,11 +6580,11 @@
       </c>
       <c r="E95" s="34" t="str">
         <f>Swaps_3M!L12</f>
-        <v>EUR_YC3MRH_AB3E4Y#0002</v>
+        <v>EUR_YC3MRH_AB3E4Y#0001</v>
       </c>
       <c r="F95" s="33">
         <f>_xll.qlRateHelperQuoteValue($E95,Trigger)</f>
-        <v>6.4800000000000005E-3</v>
+        <v>7.1899999999999993E-3</v>
       </c>
       <c r="G95" s="33">
         <f>_xll.qlSwapRateHelperSpread($E95,Trigger)</f>
@@ -6607,15 +6601,15 @@
       </c>
       <c r="K95" s="31">
         <f>_xll.qlRateHelperEarliestDate($E95,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L95" s="30">
         <f>_xll.qlRateHelperLatestDate($E95,Trigger)</f>
-        <v>43165</v>
+        <v>43185</v>
       </c>
       <c r="N95" s="37">
         <f t="shared" si="7"/>
-        <v>5.0000000000006636E-6</v>
+        <v>4.9999999999997963E-6</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.2">
@@ -6632,11 +6626,11 @@
       </c>
       <c r="E96" s="34" t="str">
         <f>Swaps_3M!L13</f>
-        <v>EUR_YC3MRH_AB3E5Y#0002</v>
+        <v>EUR_YC3MRH_AB3E5Y#0001</v>
       </c>
       <c r="F96" s="33">
         <f>_xll.qlRateHelperQuoteValue($E96,Trigger)</f>
-        <v>8.4799999999999997E-3</v>
+        <v>9.1700000000000011E-3</v>
       </c>
       <c r="G96" s="33">
         <f>_xll.qlSwapRateHelperSpread($E96,Trigger)</f>
@@ -6653,15 +6647,15 @@
       </c>
       <c r="K96" s="31">
         <f>_xll.qlRateHelperEarliestDate($E96,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L96" s="30">
         <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
-        <v>43530</v>
+        <v>43549</v>
       </c>
       <c r="N96" s="37">
         <f t="shared" si="7"/>
-        <v>5.000000000001531E-6</v>
+        <v>4.9999999999997963E-6</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.2">
@@ -6678,11 +6672,11 @@
       </c>
       <c r="E97" s="34" t="str">
         <f>Swaps_3M!L14</f>
-        <v>EUR_YC3MRH_AB3E6Y#0002</v>
+        <v>EUR_YC3MRH_AB3E6Y#0001</v>
       </c>
       <c r="F97" s="33">
         <f>_xll.qlRateHelperQuoteValue($E97,Trigger)</f>
-        <v>1.0459999999999999E-2</v>
+        <v>1.111E-2</v>
       </c>
       <c r="G97" s="33">
         <f>_xll.qlSwapRateHelperSpread($E97,Trigger)</f>
@@ -6699,15 +6693,15 @@
       </c>
       <c r="K97" s="31">
         <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L97" s="30">
         <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
-        <v>43896</v>
+        <v>43914</v>
       </c>
       <c r="N97" s="37">
         <f t="shared" si="7"/>
-        <v>-1.7347234759768071E-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.2">
@@ -6724,11 +6718,11 @@
       </c>
       <c r="E98" s="34" t="str">
         <f>Swaps_3M!L15</f>
-        <v>EUR_YC3MRH_AB3E7Y#0002</v>
+        <v>EUR_YC3MRH_AB3E7Y#0001</v>
       </c>
       <c r="F98" s="33">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
-        <v>1.234E-2</v>
+        <v>1.2959999999999998E-2</v>
       </c>
       <c r="G98" s="33">
         <f>_xll.qlSwapRateHelperSpread($E98,Trigger)</f>
@@ -6745,15 +6739,15 @@
       </c>
       <c r="K98" s="31">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L98" s="30">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>44263</v>
+        <v>44279</v>
       </c>
       <c r="N98" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.9999999999997963E-6</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.2">
@@ -6770,11 +6764,11 @@
       </c>
       <c r="E99" s="34" t="str">
         <f>Swaps_3M!L16</f>
-        <v>EUR_YC3MRH_AB3E8Y#0002</v>
+        <v>EUR_YC3MRH_AB3E8Y#0001</v>
       </c>
       <c r="F99" s="33">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
-        <v>1.4079999999999999E-2</v>
+        <v>1.4689999999999998E-2</v>
       </c>
       <c r="G99" s="33">
         <f>_xll.qlSwapRateHelperSpread($E99,Trigger)</f>
@@ -6791,15 +6785,15 @@
       </c>
       <c r="K99" s="31">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L99" s="30">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>44627</v>
+        <v>44644</v>
       </c>
       <c r="N99" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.9999999999980616E-6</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.2">
@@ -6816,11 +6810,11 @@
       </c>
       <c r="E100" s="34" t="str">
         <f>Swaps_3M!L17</f>
-        <v>EUR_YC3MRH_AB3E9Y#0002</v>
+        <v>EUR_YC3MRH_AB3E9Y#0001</v>
       </c>
       <c r="F100" s="33">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
-        <v>1.5659999999999997E-2</v>
+        <v>1.626E-2</v>
       </c>
       <c r="G100" s="33">
         <f>_xll.qlSwapRateHelperSpread($E100,Trigger)</f>
@@ -6837,15 +6831,15 @@
       </c>
       <c r="K100" s="31">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L100" s="30">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
-        <v>44991</v>
+        <v>45009</v>
       </c>
       <c r="N100" s="37">
         <f t="shared" si="7"/>
-        <v>-5.000000000001531E-6</v>
+        <v>5.000000000001531E-6</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.2">
@@ -6862,11 +6856,11 @@
       </c>
       <c r="E101" s="34" t="str">
         <f>Swaps_3M!L18</f>
-        <v>EUR_YC3MRH_AB3E10Y#0002</v>
+        <v>EUR_YC3MRH_AB3E10Y#0001</v>
       </c>
       <c r="F101" s="33">
         <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
-        <v>1.7090000000000001E-2</v>
+        <v>1.7680000000000001E-2</v>
       </c>
       <c r="G101" s="33">
         <f>_xll.qlSwapRateHelperSpread($E101,Trigger)</f>
@@ -6883,15 +6877,15 @@
       </c>
       <c r="K101" s="31">
         <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L101" s="30">
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>45357</v>
+        <v>45376</v>
       </c>
       <c r="N101" s="37">
         <f t="shared" si="7"/>
-        <v>-4.9999999999980616E-6</v>
+        <v>9.9999999999995925E-6</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.2">
@@ -6908,11 +6902,11 @@
       </c>
       <c r="E102" s="34" t="str">
         <f>Swaps_3M!L19</f>
-        <v>EUR_YC3MRH_AB3E11Y#0002</v>
+        <v>EUR_YC3MRH_AB3E11Y#0001</v>
       </c>
       <c r="F102" s="33">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
-        <v>1.8340000000000002E-2</v>
+        <v>1.8940000000000002E-2</v>
       </c>
       <c r="G102" s="33">
         <f>_xll.qlSwapRateHelperSpread($E102,Trigger)</f>
@@ -6929,15 +6923,15 @@
       </c>
       <c r="K102" s="31">
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L102" s="30">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>45722</v>
+        <v>45740</v>
       </c>
       <c r="N102" s="37">
         <f t="shared" si="7"/>
-        <v>-4.9999999999980616E-6</v>
+        <v>1.0000000000006531E-5</v>
       </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.2">
@@ -6954,11 +6948,11 @@
       </c>
       <c r="E103" s="34" t="str">
         <f>Swaps_3M!L20</f>
-        <v>EUR_YC3MRH_AB3E12Y#0002</v>
+        <v>EUR_YC3MRH_AB3E12Y#0001</v>
       </c>
       <c r="F103" s="33">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
-        <v>1.9400000000000001E-2</v>
+        <v>2.0030000000000003E-2</v>
       </c>
       <c r="G103" s="33">
         <f>_xll.qlSwapRateHelperSpread($E103,Trigger)</f>
@@ -6975,15 +6969,15 @@
       </c>
       <c r="K103" s="31">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L103" s="30">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>46087</v>
+        <v>46105</v>
       </c>
       <c r="N103" s="37">
         <f t="shared" si="7"/>
-        <v>-9.9999999999995925E-6</v>
+        <v>1.0000000000003062E-5</v>
       </c>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.2">
@@ -7000,7 +6994,7 @@
       </c>
       <c r="E104" s="34" t="str">
         <f>Swaps_3M!L21</f>
-        <v>EUR_YC3MRH_AB3E13Y#0002</v>
+        <v>EUR_YC3MRH_AB3E13Y#0001</v>
       </c>
       <c r="F104" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
@@ -7021,11 +7015,11 @@
       </c>
       <c r="K104" s="31">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L104" s="30">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>46454</v>
+        <v>46470</v>
       </c>
       <c r="N104" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7046,7 +7040,7 @@
       </c>
       <c r="E105" s="34" t="str">
         <f>Swaps_3M!L22</f>
-        <v>EUR_YC3MRH_AB3E14Y#0002</v>
+        <v>EUR_YC3MRH_AB3E14Y#0001</v>
       </c>
       <c r="F105" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
@@ -7067,11 +7061,11 @@
       </c>
       <c r="K105" s="31">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L105" s="30">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>46818</v>
+        <v>46836</v>
       </c>
       <c r="N105" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7092,11 +7086,11 @@
       </c>
       <c r="E106" s="34" t="str">
         <f>Swaps_3M!L23</f>
-        <v>EUR_YC3MRH_AB3E15Y#0002</v>
+        <v>EUR_YC3MRH_AB3E15Y#0001</v>
       </c>
       <c r="F106" s="33">
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
-        <v>2.1780000000000001E-2</v>
+        <v>2.2439999999999998E-2</v>
       </c>
       <c r="G106" s="33">
         <f>_xll.qlSwapRateHelperSpread($E106,Trigger)</f>
@@ -7113,15 +7107,15 @@
       </c>
       <c r="K106" s="31">
         <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L106" s="30">
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>47183</v>
+        <v>47203</v>
       </c>
       <c r="N106" s="37">
         <f t="shared" si="7"/>
-        <v>-9.9999999999995925E-6</v>
+        <v>9.9999999999961231E-6</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.2">
@@ -7138,7 +7132,7 @@
       </c>
       <c r="E107" s="34" t="str">
         <f>Swaps_3M!L24</f>
-        <v>EUR_YC3MRH_AB3E16Y#0002</v>
+        <v>EUR_YC3MRH_AB3E16Y#0001</v>
       </c>
       <c r="F107" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
@@ -7159,11 +7153,11 @@
       </c>
       <c r="K107" s="31">
         <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L107" s="30">
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>47548</v>
+        <v>47567</v>
       </c>
       <c r="N107" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7184,7 +7178,7 @@
       </c>
       <c r="E108" s="34" t="str">
         <f>Swaps_3M!L25</f>
-        <v>EUR_YC3MRH_AB3E17Y#0002</v>
+        <v>EUR_YC3MRH_AB3E17Y#0001</v>
       </c>
       <c r="F108" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
@@ -7205,11 +7199,11 @@
       </c>
       <c r="K108" s="31">
         <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L108" s="30">
         <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
-        <v>47913</v>
+        <v>47931</v>
       </c>
       <c r="N108" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7230,7 +7224,7 @@
       </c>
       <c r="E109" s="34" t="str">
         <f>Swaps_3M!L26</f>
-        <v>EUR_YC3MRH_AB3E18Y#0002</v>
+        <v>EUR_YC3MRH_AB3E18Y#0001</v>
       </c>
       <c r="F109" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
@@ -7251,11 +7245,11 @@
       </c>
       <c r="K109" s="31">
         <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L109" s="30">
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
-        <v>48281</v>
+        <v>48297</v>
       </c>
       <c r="N109" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7276,7 +7270,7 @@
       </c>
       <c r="E110" s="34" t="str">
         <f>Swaps_3M!L27</f>
-        <v>EUR_YC3MRH_AB3E19Y#0002</v>
+        <v>EUR_YC3MRH_AB3E19Y#0001</v>
       </c>
       <c r="F110" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
@@ -7297,11 +7291,11 @@
       </c>
       <c r="K110" s="31">
         <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L110" s="30">
         <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>48645</v>
+        <v>48662</v>
       </c>
       <c r="N110" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7322,11 +7316,11 @@
       </c>
       <c r="E111" s="34" t="str">
         <f>Swaps_3M!L28</f>
-        <v>EUR_YC3MRH_AB3E20Y#0002</v>
+        <v>EUR_YC3MRH_AB3E20Y#0001</v>
       </c>
       <c r="F111" s="33">
         <f>_xll.qlRateHelperQuoteValue($E111,Trigger)</f>
-        <v>2.35E-2</v>
+        <v>2.4230000000000002E-2</v>
       </c>
       <c r="G111" s="33">
         <f>_xll.qlSwapRateHelperSpread($E111,Trigger)</f>
@@ -7343,15 +7337,15 @@
       </c>
       <c r="K111" s="31">
         <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L111" s="30">
         <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>49009</v>
+        <v>49027</v>
       </c>
       <c r="N111" s="37">
         <f t="shared" si="7"/>
-        <v>-1.0000000000003062E-5</v>
+        <v>9.9999999999995925E-6</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.2">
@@ -7368,7 +7362,7 @@
       </c>
       <c r="E112" s="34" t="str">
         <f>Swaps_3M!L29</f>
-        <v>EUR_YC3MRH_AB3E21Y#0002</v>
+        <v>EUR_YC3MRH_AB3E21Y#0001</v>
       </c>
       <c r="F112" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
@@ -7389,11 +7383,11 @@
       </c>
       <c r="K112" s="31">
         <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L112" s="30">
         <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>49374</v>
+        <v>49395</v>
       </c>
       <c r="N112" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7414,7 +7408,7 @@
       </c>
       <c r="E113" s="34" t="str">
         <f>Swaps_3M!L30</f>
-        <v>EUR_YC3MRH_AB3E22Y#0002</v>
+        <v>EUR_YC3MRH_AB3E22Y#0001</v>
       </c>
       <c r="F113" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E113,Trigger)</f>
@@ -7435,11 +7429,11 @@
       </c>
       <c r="K113" s="31">
         <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L113" s="30">
         <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
-        <v>49740</v>
+        <v>49758</v>
       </c>
       <c r="N113" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7460,7 +7454,7 @@
       </c>
       <c r="E114" s="34" t="str">
         <f>Swaps_3M!L31</f>
-        <v>EUR_YC3MRH_AB3E23Y#0002</v>
+        <v>EUR_YC3MRH_AB3E23Y#0001</v>
       </c>
       <c r="F114" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E114,Trigger)</f>
@@ -7481,11 +7475,11 @@
       </c>
       <c r="K114" s="31">
         <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L114" s="30">
         <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
-        <v>50105</v>
+        <v>50123</v>
       </c>
       <c r="N114" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7506,7 +7500,7 @@
       </c>
       <c r="E115" s="34" t="str">
         <f>Swaps_3M!L32</f>
-        <v>EUR_YC3MRH_AB3E24Y#0002</v>
+        <v>EUR_YC3MRH_AB3E24Y#0001</v>
       </c>
       <c r="F115" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
@@ -7527,11 +7521,11 @@
       </c>
       <c r="K115" s="31">
         <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L115" s="30">
         <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
-        <v>50472</v>
+        <v>50488</v>
       </c>
       <c r="N115" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7552,11 +7546,11 @@
       </c>
       <c r="E116" s="34" t="str">
         <f>Swaps_3M!L33</f>
-        <v>EUR_YC3MRH_AB3E25Y#0002</v>
+        <v>EUR_YC3MRH_AB3E25Y#0001</v>
       </c>
       <c r="F116" s="33">
         <f>_xll.qlRateHelperQuoteValue($E116,Trigger)</f>
-        <v>2.4050000000000002E-2</v>
+        <v>2.4820000000000002E-2</v>
       </c>
       <c r="G116" s="33">
         <f>_xll.qlSwapRateHelperSpread($E116,Trigger)</f>
@@ -7573,15 +7567,15 @@
       </c>
       <c r="K116" s="31">
         <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L116" s="30">
         <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>50836</v>
+        <v>50853</v>
       </c>
       <c r="N116" s="37">
         <f t="shared" si="7"/>
-        <v>-9.9999999999995925E-6</v>
+        <v>1.5000000000004593E-5</v>
       </c>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.2">
@@ -7598,7 +7592,7 @@
       </c>
       <c r="E117" s="34" t="str">
         <f>Swaps_3M!L34</f>
-        <v>EUR_YC3MRH_AB3E26Y#0002</v>
+        <v>EUR_YC3MRH_AB3E26Y#0001</v>
       </c>
       <c r="F117" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E117,Trigger)</f>
@@ -7619,11 +7613,11 @@
       </c>
       <c r="K117" s="31">
         <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L117" s="30">
         <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>51201</v>
+        <v>51221</v>
       </c>
       <c r="N117" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7644,7 +7638,7 @@
       </c>
       <c r="E118" s="34" t="str">
         <f>Swaps_3M!L35</f>
-        <v>EUR_YC3MRH_AB3E27Y#0002</v>
+        <v>EUR_YC3MRH_AB3E27Y#0001</v>
       </c>
       <c r="F118" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E118,Trigger)</f>
@@ -7665,11 +7659,11 @@
       </c>
       <c r="K118" s="31">
         <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L118" s="30">
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>51566</v>
+        <v>51585</v>
       </c>
       <c r="N118" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7690,7 +7684,7 @@
       </c>
       <c r="E119" s="34" t="str">
         <f>Swaps_3M!L36</f>
-        <v>EUR_YC3MRH_AB3E28Y#0002</v>
+        <v>EUR_YC3MRH_AB3E28Y#0001</v>
       </c>
       <c r="F119" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E119,Trigger)</f>
@@ -7711,11 +7705,11 @@
       </c>
       <c r="K119" s="31">
         <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L119" s="30">
         <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
-        <v>51931</v>
+        <v>51949</v>
       </c>
       <c r="N119" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7736,7 +7730,7 @@
       </c>
       <c r="E120" s="34" t="str">
         <f>Swaps_3M!L37</f>
-        <v>EUR_YC3MRH_AB3E29Y#0002</v>
+        <v>EUR_YC3MRH_AB3E29Y#0001</v>
       </c>
       <c r="F120" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
@@ -7757,11 +7751,11 @@
       </c>
       <c r="K120" s="31">
         <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L120" s="30">
         <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
-        <v>52296</v>
+        <v>52314</v>
       </c>
       <c r="N120" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7782,11 +7776,11 @@
       </c>
       <c r="E121" s="34" t="str">
         <f>Swaps_3M!L38</f>
-        <v>EUR_YC3MRH_AB3E30Y#0002</v>
+        <v>EUR_YC3MRH_AB3E30Y#0001</v>
       </c>
       <c r="F121" s="33">
         <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
-        <v>2.4169999999999997E-2</v>
+        <v>2.4939999999999997E-2</v>
       </c>
       <c r="G121" s="33">
         <f>_xll.qlSwapRateHelperSpread($E121,Trigger)</f>
@@ -7803,15 +7797,15 @@
       </c>
       <c r="K121" s="31">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L121" s="30">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>52663</v>
+        <v>52680</v>
       </c>
       <c r="N121" s="37">
         <f t="shared" si="7"/>
-        <v>-5.000000000001531E-6</v>
+        <v>4.9999999999945921E-6</v>
       </c>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.2">
@@ -7828,7 +7822,7 @@
       </c>
       <c r="E122" s="34" t="str">
         <f>Swaps_3M!L39</f>
-        <v>EUR_YC3MRH_AB3E35Y#0002</v>
+        <v>EUR_YC3MRH_AB3E35Y#0001</v>
       </c>
       <c r="F122" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
@@ -7849,11 +7843,11 @@
       </c>
       <c r="K122" s="31">
         <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L122" s="30">
         <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>54490</v>
+        <v>54506</v>
       </c>
       <c r="N122" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7874,11 +7868,11 @@
       </c>
       <c r="E123" s="34" t="str">
         <f>Swaps_3M!L40</f>
-        <v>EUR_YC3MRH_AB3E40Y#0002</v>
+        <v>EUR_YC3MRH_AB3E40Y#0001</v>
       </c>
       <c r="F123" s="33">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
-        <v>2.4470000000000002E-2</v>
+        <v>2.5329999999999998E-2</v>
       </c>
       <c r="G123" s="33">
         <f>_xll.qlSwapRateHelperSpread($E123,Trigger)</f>
@@ -7895,15 +7889,15 @@
       </c>
       <c r="K123" s="31">
         <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L123" s="30">
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>56314</v>
+        <v>56332</v>
       </c>
       <c r="N123" s="37">
         <f t="shared" si="7"/>
-        <v>-4.9999999999945921E-6</v>
+        <v>9.9999999999995925E-6</v>
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.2">
@@ -7920,11 +7914,11 @@
       </c>
       <c r="E124" s="34" t="str">
         <f>Swaps_3M!L41</f>
-        <v>EUR_YC3MRH_AB3E50Y#0002</v>
+        <v>EUR_YC3MRH_AB3E50Y#0001</v>
       </c>
       <c r="F124" s="33">
         <f>_xll.qlRateHelperQuoteValue($E124,Trigger)</f>
-        <v>2.4660000000000001E-2</v>
+        <v>2.5590000000000002E-2</v>
       </c>
       <c r="G124" s="33">
         <f>_xll.qlSwapRateHelperSpread($E124,Trigger)</f>
@@ -7941,15 +7935,15 @@
       </c>
       <c r="K124" s="31">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L124" s="30">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
-        <v>59967</v>
+        <v>59985</v>
       </c>
       <c r="N124" s="37">
         <f t="shared" si="7"/>
-        <v>-5.000000000001531E-6</v>
+        <v>1.0000000000003062E-5</v>
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.2">
@@ -7966,11 +7960,11 @@
       </c>
       <c r="E125" s="27" t="str">
         <f>Swaps_3M!L42</f>
-        <v>EUR_YC3MRH_AB3E60Y#0002</v>
+        <v>EUR_YC3MRH_AB3E60Y#0001</v>
       </c>
       <c r="F125" s="26">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
-        <v>2.4820000000000002E-2</v>
+        <v>2.5750000000000002E-2</v>
       </c>
       <c r="G125" s="26">
         <f>_xll.qlSwapRateHelperSpread($E125,Trigger)</f>
@@ -7987,15 +7981,15 @@
       </c>
       <c r="K125" s="24">
         <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L125" s="23">
         <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
-        <v>63619</v>
+        <v>63639</v>
       </c>
       <c r="N125" s="37">
         <f t="shared" si="7"/>
-        <v>-2.9999999999995308E-6</v>
+        <v>1.1000000000004062E-5</v>
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.2">
@@ -8012,11 +8006,11 @@
       </c>
       <c r="E126" s="34" t="str">
         <f>SwapsFromBasis_3M!L6</f>
-        <v>EUR_YC3MRH_AB3EBASIS1Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS1Y#0001</v>
       </c>
       <c r="F126" s="33">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
-        <v>2.6800000000000001E-3</v>
+        <v>3.3249999999999998E-3</v>
       </c>
       <c r="G126" s="33">
         <f>_xll.qlSwapRateHelperSpread($E126,Trigger)</f>
@@ -8033,11 +8027,11 @@
       </c>
       <c r="K126" s="31">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L126" s="30">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>42069</v>
+        <v>42087</v>
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.2">
@@ -8054,11 +8048,11 @@
       </c>
       <c r="E127" s="34" t="str">
         <f>SwapsFromBasis_3M!L7</f>
-        <v>EUR_YC3MRH_AB3EBASIS15M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS15M#0001</v>
       </c>
       <c r="F127" s="33">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
-        <v>2.5000000000000005E-3</v>
+        <v>3.2549999999999996E-3</v>
       </c>
       <c r="G127" s="33">
         <f>_xll.qlSwapRateHelperSpread($E127,Trigger)</f>
@@ -8075,11 +8069,11 @@
       </c>
       <c r="K127" s="31">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L127" s="30">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>42163</v>
+        <v>42179</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.2">
@@ -8096,11 +8090,11 @@
       </c>
       <c r="E128" s="34" t="str">
         <f>SwapsFromBasis_3M!L8</f>
-        <v>EUR_YC3MRH_AB3EBASIS18M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS18M#0001</v>
       </c>
       <c r="F128" s="33">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
-        <v>2.8799999999999997E-3</v>
+        <v>3.5599999999999994E-3</v>
       </c>
       <c r="G128" s="33">
         <f>_xll.qlSwapRateHelperSpread($E128,Trigger)</f>
@@ -8117,11 +8111,11 @@
       </c>
       <c r="K128" s="31">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L128" s="30">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>42254</v>
+        <v>42271</v>
       </c>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.2">
@@ -8138,11 +8132,11 @@
       </c>
       <c r="E129" s="34" t="str">
         <f>SwapsFromBasis_3M!L9</f>
-        <v>EUR_YC3MRH_AB3EBASIS21M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS21M#0001</v>
       </c>
       <c r="F129" s="33">
         <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
-        <v>2.8410000000000006E-3</v>
+        <v>3.594E-3</v>
       </c>
       <c r="G129" s="33">
         <f>_xll.qlSwapRateHelperSpread($E129,Trigger)</f>
@@ -8159,11 +8153,11 @@
       </c>
       <c r="K129" s="31">
         <f>_xll.qlRateHelperEarliestDate($E129,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L129" s="30">
         <f>_xll.qlRateHelperLatestDate($E129,Trigger)</f>
-        <v>42345</v>
+        <v>42362</v>
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.2">
@@ -8180,11 +8174,11 @@
       </c>
       <c r="E130" s="34" t="str">
         <f>SwapsFromBasis_3M!L10</f>
-        <v>EUR_YC3MRH_AB3EBASIS2Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS2Y#0001</v>
       </c>
       <c r="F130" s="33">
         <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
-        <v>3.2249999999999996E-3</v>
+        <v>3.9450000000000006E-3</v>
       </c>
       <c r="G130" s="33">
         <f>_xll.qlSwapRateHelperSpread($E130,Trigger)</f>
@@ -8201,11 +8195,11 @@
       </c>
       <c r="K130" s="31">
         <f>_xll.qlRateHelperEarliestDate($E130,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L130" s="30">
         <f>_xll.qlRateHelperLatestDate($E130,Trigger)</f>
-        <v>42436</v>
+        <v>42453</v>
       </c>
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.2">
@@ -8222,11 +8216,11 @@
       </c>
       <c r="E131" s="34" t="str">
         <f>SwapsFromBasis_3M!L11</f>
-        <v>EUR_YC3MRH_AB3EBASIS3Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS3Y#0001</v>
       </c>
       <c r="F131" s="33">
         <f>_xll.qlRateHelperQuoteValue($E131,Trigger)</f>
-        <v>4.5999999999999999E-3</v>
+        <v>5.3100000000000005E-3</v>
       </c>
       <c r="G131" s="33">
         <f>_xll.qlSwapRateHelperSpread($E131,Trigger)</f>
@@ -8243,11 +8237,11 @@
       </c>
       <c r="K131" s="31">
         <f>_xll.qlRateHelperEarliestDate($E131,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L131" s="30">
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
-        <v>42800</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.2">
@@ -8264,11 +8258,11 @@
       </c>
       <c r="E132" s="34" t="str">
         <f>SwapsFromBasis_3M!L12</f>
-        <v>EUR_YC3MRH_AB3EBASIS4Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS4Y#0001</v>
       </c>
       <c r="F132" s="33">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
-        <v>6.4749999999999999E-3</v>
+        <v>7.1849999999999995E-3</v>
       </c>
       <c r="G132" s="33">
         <f>_xll.qlSwapRateHelperSpread($E132,Trigger)</f>
@@ -8285,11 +8279,11 @@
       </c>
       <c r="K132" s="31">
         <f>_xll.qlRateHelperEarliestDate($E132,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L132" s="30">
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>43165</v>
+        <v>43185</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.2">
@@ -8306,11 +8300,11 @@
       </c>
       <c r="E133" s="34" t="str">
         <f>SwapsFromBasis_3M!L13</f>
-        <v>EUR_YC3MRH_AB3EBASIS5Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS5Y#0001</v>
       </c>
       <c r="F133" s="33">
         <f>_xll.qlRateHelperQuoteValue($E133,Trigger)</f>
-        <v>8.4749999999999982E-3</v>
+        <v>9.1650000000000013E-3</v>
       </c>
       <c r="G133" s="33">
         <f>_xll.qlSwapRateHelperSpread($E133,Trigger)</f>
@@ -8327,11 +8321,11 @@
       </c>
       <c r="K133" s="31">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L133" s="30">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>43530</v>
+        <v>43549</v>
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.2">
@@ -8348,11 +8342,11 @@
       </c>
       <c r="E134" s="34" t="str">
         <f>SwapsFromBasis_3M!L14</f>
-        <v>EUR_YC3MRH_AB3EBASIS6Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS6Y#0001</v>
       </c>
       <c r="F134" s="33">
         <f>_xll.qlRateHelperQuoteValue($E134,Trigger)</f>
-        <v>1.0460000000000001E-2</v>
+        <v>1.111E-2</v>
       </c>
       <c r="G134" s="33">
         <f>_xll.qlSwapRateHelperSpread($E134,Trigger)</f>
@@ -8369,11 +8363,11 @@
       </c>
       <c r="K134" s="31">
         <f>_xll.qlRateHelperEarliestDate($E134,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L134" s="30">
         <f>_xll.qlRateHelperLatestDate($E134,Trigger)</f>
-        <v>43896</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.2">
@@ -8390,11 +8384,11 @@
       </c>
       <c r="E135" s="34" t="str">
         <f>SwapsFromBasis_3M!L15</f>
-        <v>EUR_YC3MRH_AB3EBASIS7Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS7Y#0001</v>
       </c>
       <c r="F135" s="33">
         <f>_xll.qlRateHelperQuoteValue($E135,Trigger)</f>
-        <v>1.234E-2</v>
+        <v>1.2954999999999998E-2</v>
       </c>
       <c r="G135" s="33">
         <f>_xll.qlSwapRateHelperSpread($E135,Trigger)</f>
@@ -8411,11 +8405,11 @@
       </c>
       <c r="K135" s="31">
         <f>_xll.qlRateHelperEarliestDate($E135,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L135" s="30">
         <f>_xll.qlRateHelperLatestDate($E135,Trigger)</f>
-        <v>44263</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.2">
@@ -8432,11 +8426,11 @@
       </c>
       <c r="E136" s="34" t="str">
         <f>SwapsFromBasis_3M!L16</f>
-        <v>EUR_YC3MRH_AB3EBASIS8Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS8Y#0001</v>
       </c>
       <c r="F136" s="33">
         <f>_xll.qlRateHelperQuoteValue($E136,Trigger)</f>
-        <v>1.4079999999999999E-2</v>
+        <v>1.4685E-2</v>
       </c>
       <c r="G136" s="33">
         <f>_xll.qlSwapRateHelperSpread($E136,Trigger)</f>
@@ -8453,11 +8447,11 @@
       </c>
       <c r="K136" s="31">
         <f>_xll.qlRateHelperEarliestDate($E136,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L136" s="30">
         <f>_xll.qlRateHelperLatestDate($E136,Trigger)</f>
-        <v>44627</v>
+        <v>44644</v>
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.2">
@@ -8474,11 +8468,11 @@
       </c>
       <c r="E137" s="34" t="str">
         <f>SwapsFromBasis_3M!L17</f>
-        <v>EUR_YC3MRH_AB3EBASIS9Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS9Y#0001</v>
       </c>
       <c r="F137" s="33">
         <f>_xll.qlRateHelperQuoteValue($E137,Trigger)</f>
-        <v>1.5664999999999998E-2</v>
+        <v>1.6254999999999999E-2</v>
       </c>
       <c r="G137" s="33">
         <f>_xll.qlSwapRateHelperSpread($E137,Trigger)</f>
@@ -8495,11 +8489,11 @@
       </c>
       <c r="K137" s="31">
         <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L137" s="30">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>44991</v>
+        <v>45009</v>
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.2">
@@ -8516,11 +8510,11 @@
       </c>
       <c r="E138" s="34" t="str">
         <f>SwapsFromBasis_3M!L18</f>
-        <v>EUR_YC3MRH_AB3EBASIS10Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS10Y#0001</v>
       </c>
       <c r="F138" s="33">
         <f>_xll.qlRateHelperQuoteValue($E138,Trigger)</f>
-        <v>1.7094999999999999E-2</v>
+        <v>1.7670000000000002E-2</v>
       </c>
       <c r="G138" s="33">
         <f>_xll.qlSwapRateHelperSpread($E138,Trigger)</f>
@@ -8537,11 +8531,11 @@
       </c>
       <c r="K138" s="31">
         <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L138" s="30">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>45357</v>
+        <v>45376</v>
       </c>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.2">
@@ -8558,11 +8552,11 @@
       </c>
       <c r="E139" s="34" t="str">
         <f>SwapsFromBasis_3M!L19</f>
-        <v>EUR_YC3MRH_AB3EBASIS11Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS11Y#0001</v>
       </c>
       <c r="F139" s="33">
         <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
-        <v>1.8345E-2</v>
+        <v>1.8929999999999995E-2</v>
       </c>
       <c r="G139" s="33">
         <f>_xll.qlSwapRateHelperSpread($E139,Trigger)</f>
@@ -8579,11 +8573,11 @@
       </c>
       <c r="K139" s="31">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L139" s="30">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>45722</v>
+        <v>45740</v>
       </c>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.2">
@@ -8600,11 +8594,11 @@
       </c>
       <c r="E140" s="34" t="str">
         <f>SwapsFromBasis_3M!L20</f>
-        <v>EUR_YC3MRH_AB3EBASIS12Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS12Y#0001</v>
       </c>
       <c r="F140" s="33">
         <f>_xll.qlRateHelperQuoteValue($E140,Trigger)</f>
-        <v>1.941E-2</v>
+        <v>2.002E-2</v>
       </c>
       <c r="G140" s="33">
         <f>_xll.qlSwapRateHelperSpread($E140,Trigger)</f>
@@ -8621,11 +8615,11 @@
       </c>
       <c r="K140" s="31">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L140" s="30">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>46087</v>
+        <v>46105</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.2">
@@ -8642,11 +8636,11 @@
       </c>
       <c r="E141" s="34" t="str">
         <f>SwapsFromBasis_3M!L21</f>
-        <v>EUR_YC3MRH_AB3EBASIS13Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS13Y#0001</v>
       </c>
       <c r="F141" s="33">
         <f>_xll.qlRateHelperQuoteValue($E141,Trigger)</f>
-        <v>2.0344999999999999E-2</v>
+        <v>2.0967E-2</v>
       </c>
       <c r="G141" s="33">
         <f>_xll.qlSwapRateHelperSpread($E141,Trigger)</f>
@@ -8663,11 +8657,11 @@
       </c>
       <c r="K141" s="31">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L141" s="30">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>46454</v>
+        <v>46470</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.2">
@@ -8684,11 +8678,11 @@
       </c>
       <c r="E142" s="34" t="str">
         <f>SwapsFromBasis_3M!L22</f>
-        <v>EUR_YC3MRH_AB3EBASIS14Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS14Y#0001</v>
       </c>
       <c r="F142" s="33">
         <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
-        <v>2.1139999999999999E-2</v>
+        <v>2.1771000000000002E-2</v>
       </c>
       <c r="G142" s="33">
         <f>_xll.qlSwapRateHelperSpread($E142,Trigger)</f>
@@ -8705,11 +8699,11 @@
       </c>
       <c r="K142" s="31">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L142" s="30">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>46818</v>
+        <v>46836</v>
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.2">
@@ -8726,11 +8720,11 @@
       </c>
       <c r="E143" s="34" t="str">
         <f>SwapsFromBasis_3M!L23</f>
-        <v>EUR_YC3MRH_AB3EBASIS15Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS15Y#0001</v>
       </c>
       <c r="F143" s="33">
         <f>_xll.qlRateHelperQuoteValue($E143,Trigger)</f>
-        <v>2.179E-2</v>
+        <v>2.2430000000000002E-2</v>
       </c>
       <c r="G143" s="33">
         <f>_xll.qlSwapRateHelperSpread($E143,Trigger)</f>
@@ -8747,11 +8741,11 @@
       </c>
       <c r="K143" s="31">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L143" s="30">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>47183</v>
+        <v>47203</v>
       </c>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.2">
@@ -8768,11 +8762,11 @@
       </c>
       <c r="E144" s="34" t="str">
         <f>SwapsFromBasis_3M!L24</f>
-        <v>EUR_YC3MRH_AB3EBASIS16Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS16Y#0001</v>
       </c>
       <c r="F144" s="33">
         <f>_xll.qlRateHelperQuoteValue($E144,Trigger)</f>
-        <v>2.2314000000000001E-2</v>
+        <v>2.2962999999999997E-2</v>
       </c>
       <c r="G144" s="33">
         <f>_xll.qlSwapRateHelperSpread($E144,Trigger)</f>
@@ -8789,11 +8783,11 @@
       </c>
       <c r="K144" s="31">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L144" s="30">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>47548</v>
+        <v>47567</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8810,11 +8804,11 @@
       </c>
       <c r="E145" s="34" t="str">
         <f>SwapsFromBasis_3M!L25</f>
-        <v>EUR_YC3MRH_AB3EBASIS17Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS17Y#0001</v>
       </c>
       <c r="F145" s="33">
         <f>_xll.qlRateHelperQuoteValue($E145,Trigger)</f>
-        <v>2.2731999999999999E-2</v>
+        <v>2.3391000000000002E-2</v>
       </c>
       <c r="G145" s="33">
         <f>_xll.qlSwapRateHelperSpread($E145,Trigger)</f>
@@ -8831,11 +8825,11 @@
       </c>
       <c r="K145" s="31">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L145" s="30">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>47913</v>
+        <v>47931</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -8852,11 +8846,11 @@
       </c>
       <c r="E146" s="34" t="str">
         <f>SwapsFromBasis_3M!L26</f>
-        <v>EUR_YC3MRH_AB3EBASIS18Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS18Y#0001</v>
       </c>
       <c r="F146" s="33">
         <f>_xll.qlRateHelperQuoteValue($E146,Trigger)</f>
-        <v>2.3065000000000002E-2</v>
+        <v>2.3734999999999999E-2</v>
       </c>
       <c r="G146" s="33">
         <f>_xll.qlSwapRateHelperSpread($E146,Trigger)</f>
@@ -8873,11 +8867,11 @@
       </c>
       <c r="K146" s="31">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L146" s="30">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>48281</v>
+        <v>48297</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8894,11 +8888,11 @@
       </c>
       <c r="E147" s="34" t="str">
         <f>SwapsFromBasis_3M!L27</f>
-        <v>EUR_YC3MRH_AB3EBASIS19Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS19Y#0001</v>
       </c>
       <c r="F147" s="33">
         <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
-        <v>2.3313999999999998E-2</v>
+        <v>2.4003999999999998E-2</v>
       </c>
       <c r="G147" s="33">
         <f>_xll.qlSwapRateHelperSpread($E147,Trigger)</f>
@@ -8915,11 +8909,11 @@
       </c>
       <c r="K147" s="31">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L147" s="30">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>48645</v>
+        <v>48662</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8936,11 +8930,11 @@
       </c>
       <c r="E148" s="34" t="str">
         <f>SwapsFromBasis_3M!L28</f>
-        <v>EUR_YC3MRH_AB3EBASIS20Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS20Y#0001</v>
       </c>
       <c r="F148" s="33">
         <f>_xll.qlRateHelperQuoteValue($E148,Trigger)</f>
-        <v>2.3510000000000003E-2</v>
+        <v>2.4220000000000002E-2</v>
       </c>
       <c r="G148" s="33">
         <f>_xll.qlSwapRateHelperSpread($E148,Trigger)</f>
@@ -8957,11 +8951,11 @@
       </c>
       <c r="K148" s="31">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L148" s="30">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>49009</v>
+        <v>49027</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
@@ -8978,11 +8972,11 @@
       </c>
       <c r="E149" s="34" t="str">
         <f>SwapsFromBasis_3M!L29</f>
-        <v>EUR_YC3MRH_AB3EBASIS21Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS21Y#0001</v>
       </c>
       <c r="F149" s="33">
         <f>_xll.qlRateHelperQuoteValue($E149,Trigger)</f>
-        <v>2.3674000000000001E-2</v>
+        <v>2.4393000000000001E-2</v>
       </c>
       <c r="G149" s="33">
         <f>_xll.qlSwapRateHelperSpread($E149,Trigger)</f>
@@ -8999,11 +8993,11 @@
       </c>
       <c r="K149" s="31">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L149" s="30">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>49374</v>
+        <v>49395</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -9020,11 +9014,11 @@
       </c>
       <c r="E150" s="34" t="str">
         <f>SwapsFromBasis_3M!L30</f>
-        <v>EUR_YC3MRH_AB3EBASIS22Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS22Y#0001</v>
       </c>
       <c r="F150" s="33">
         <f>_xll.qlRateHelperQuoteValue($E150,Trigger)</f>
-        <v>2.3814999999999999E-2</v>
+        <v>2.4542999999999999E-2</v>
       </c>
       <c r="G150" s="33">
         <f>_xll.qlSwapRateHelperSpread($E150,Trigger)</f>
@@ -9041,11 +9035,11 @@
       </c>
       <c r="K150" s="31">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L150" s="30">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>49740</v>
+        <v>49758</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
@@ -9062,11 +9056,11 @@
       </c>
       <c r="E151" s="34" t="str">
         <f>SwapsFromBasis_3M!L31</f>
-        <v>EUR_YC3MRH_AB3EBASIS23Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS23Y#0001</v>
       </c>
       <c r="F151" s="33">
         <f>_xll.qlRateHelperQuoteValue($E151,Trigger)</f>
-        <v>2.3914999999999999E-2</v>
+        <v>2.4652E-2</v>
       </c>
       <c r="G151" s="33">
         <f>_xll.qlSwapRateHelperSpread($E151,Trigger)</f>
@@ -9083,11 +9077,11 @@
       </c>
       <c r="K151" s="31">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L151" s="30">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>50105</v>
+        <v>50123</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -9104,11 +9098,11 @@
       </c>
       <c r="E152" s="34" t="str">
         <f>SwapsFromBasis_3M!L32</f>
-        <v>EUR_YC3MRH_AB3EBASIS24Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS24Y#0001</v>
       </c>
       <c r="F152" s="33">
         <f>_xll.qlRateHelperQuoteValue($E152,Trigger)</f>
-        <v>2.4003E-2</v>
+        <v>2.4739000000000001E-2</v>
       </c>
       <c r="G152" s="33">
         <f>_xll.qlSwapRateHelperSpread($E152,Trigger)</f>
@@ -9125,11 +9119,11 @@
       </c>
       <c r="K152" s="31">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L152" s="30">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>50472</v>
+        <v>50488</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -9146,11 +9140,11 @@
       </c>
       <c r="E153" s="34" t="str">
         <f>SwapsFromBasis_3M!L33</f>
-        <v>EUR_YC3MRH_AB3EBASIS25Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS25Y#0001</v>
       </c>
       <c r="F153" s="33">
         <f>_xll.qlRateHelperQuoteValue($E153,Trigger)</f>
-        <v>2.4060000000000002E-2</v>
+        <v>2.4804999999999997E-2</v>
       </c>
       <c r="G153" s="33">
         <f>_xll.qlSwapRateHelperSpread($E153,Trigger)</f>
@@ -9167,11 +9161,11 @@
       </c>
       <c r="K153" s="31">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L153" s="30">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>50836</v>
+        <v>50853</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
@@ -9188,11 +9182,11 @@
       </c>
       <c r="E154" s="34" t="str">
         <f>SwapsFromBasis_3M!L34</f>
-        <v>EUR_YC3MRH_AB3EBASIS26Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS26Y#0001</v>
       </c>
       <c r="F154" s="33">
         <f>_xll.qlRateHelperQuoteValue($E154,Trigger)</f>
-        <v>2.4105000000000005E-2</v>
+        <v>2.4850000000000001E-2</v>
       </c>
       <c r="G154" s="33">
         <f>_xll.qlSwapRateHelperSpread($E154,Trigger)</f>
@@ -9209,11 +9203,11 @@
       </c>
       <c r="K154" s="31">
         <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L154" s="30">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>51201</v>
+        <v>51221</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -9230,11 +9224,11 @@
       </c>
       <c r="E155" s="34" t="str">
         <f>SwapsFromBasis_3M!L35</f>
-        <v>EUR_YC3MRH_AB3EBASIS27Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS27Y#0001</v>
       </c>
       <c r="F155" s="33">
         <f>_xll.qlRateHelperQuoteValue($E155,Trigger)</f>
-        <v>2.4129000000000001E-2</v>
+        <v>2.4875000000000001E-2</v>
       </c>
       <c r="G155" s="33">
         <f>_xll.qlSwapRateHelperSpread($E155,Trigger)</f>
@@ -9251,11 +9245,11 @@
       </c>
       <c r="K155" s="31">
         <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L155" s="30">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>51566</v>
+        <v>51585</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -9272,11 +9266,11 @@
       </c>
       <c r="E156" s="34" t="str">
         <f>SwapsFromBasis_3M!L36</f>
-        <v>EUR_YC3MRH_AB3EBASIS28Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS28Y#0001</v>
       </c>
       <c r="F156" s="33">
         <f>_xll.qlRateHelperQuoteValue($E156,Trigger)</f>
-        <v>2.4152E-2</v>
+        <v>2.4898999999999998E-2</v>
       </c>
       <c r="G156" s="33">
         <f>_xll.qlSwapRateHelperSpread($E156,Trigger)</f>
@@ -9293,11 +9287,11 @@
       </c>
       <c r="K156" s="31">
         <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L156" s="30">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>51931</v>
+        <v>51949</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
@@ -9314,11 +9308,11 @@
       </c>
       <c r="E157" s="34" t="str">
         <f>SwapsFromBasis_3M!L37</f>
-        <v>EUR_YC3MRH_AB3EBASIS29Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS29Y#0001</v>
       </c>
       <c r="F157" s="33">
         <f>_xll.qlRateHelperQuoteValue($E157,Trigger)</f>
-        <v>2.4163999999999998E-2</v>
+        <v>2.4912999999999998E-2</v>
       </c>
       <c r="G157" s="33">
         <f>_xll.qlSwapRateHelperSpread($E157,Trigger)</f>
@@ -9335,11 +9329,11 @@
       </c>
       <c r="K157" s="31">
         <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L157" s="30">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>52296</v>
+        <v>52314</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
@@ -9356,11 +9350,11 @@
       </c>
       <c r="E158" s="34" t="str">
         <f>SwapsFromBasis_3M!L38</f>
-        <v>EUR_YC3MRH_AB3EBASIS30Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS30Y#0001</v>
       </c>
       <c r="F158" s="33">
         <f>_xll.qlRateHelperQuoteValue($E158,Trigger)</f>
-        <v>2.4174999999999999E-2</v>
+        <v>2.4935000000000002E-2</v>
       </c>
       <c r="G158" s="33">
         <f>_xll.qlSwapRateHelperSpread($E158,Trigger)</f>
@@ -9377,11 +9371,11 @@
       </c>
       <c r="K158" s="31">
         <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L158" s="30">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>52663</v>
+        <v>52680</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
@@ -9398,11 +9392,11 @@
       </c>
       <c r="E159" s="34" t="str">
         <f>SwapsFromBasis_3M!L39</f>
-        <v>EUR_YC3MRH_AB3EBASIS35Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS35Y#0001</v>
       </c>
       <c r="F159" s="33">
         <f>_xll.qlRateHelperQuoteValue($E159,Trigger)</f>
-        <v>2.4305E-2</v>
+        <v>2.5105000000000002E-2</v>
       </c>
       <c r="G159" s="33">
         <f>_xll.qlSwapRateHelperSpread($E159,Trigger)</f>
@@ -9419,11 +9413,11 @@
       </c>
       <c r="K159" s="31">
         <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L159" s="30">
         <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>54490</v>
+        <v>54506</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
@@ -9440,11 +9434,11 @@
       </c>
       <c r="E160" s="34" t="str">
         <f>SwapsFromBasis_3M!L40</f>
-        <v>EUR_YC3MRH_AB3EBASIS40Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS40Y#0001</v>
       </c>
       <c r="F160" s="33">
         <f>_xll.qlRateHelperQuoteValue($E160,Trigger)</f>
-        <v>2.4474999999999997E-2</v>
+        <v>2.5319999999999999E-2</v>
       </c>
       <c r="G160" s="33">
         <f>_xll.qlSwapRateHelperSpread($E160,Trigger)</f>
@@ -9461,11 +9455,11 @@
       </c>
       <c r="K160" s="31">
         <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L160" s="30">
         <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>56314</v>
+        <v>56332</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
@@ -9482,11 +9476,11 @@
       </c>
       <c r="E161" s="34" t="str">
         <f>SwapsFromBasis_3M!L41</f>
-        <v>EUR_YC3MRH_AB3EBASIS50Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS50Y#0001</v>
       </c>
       <c r="F161" s="33">
         <f>_xll.qlRateHelperQuoteValue($E161,Trigger)</f>
-        <v>2.4665000000000003E-2</v>
+        <v>2.5579999999999999E-2</v>
       </c>
       <c r="G161" s="33">
         <f>_xll.qlSwapRateHelperSpread($E161,Trigger)</f>
@@ -9503,11 +9497,11 @@
       </c>
       <c r="K161" s="31">
         <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L161" s="30">
         <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
-        <v>59967</v>
+        <v>59985</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.2">
@@ -9524,11 +9518,11 @@
       </c>
       <c r="E162" s="27" t="str">
         <f>SwapsFromBasis_3M!L42</f>
-        <v>EUR_YC3MRH_AB3EBASIS60Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS60Y#0001</v>
       </c>
       <c r="F162" s="26">
         <f>_xll.qlRateHelperQuoteValue($E162,Trigger)</f>
-        <v>2.4823000000000001E-2</v>
+        <v>2.5738999999999998E-2</v>
       </c>
       <c r="G162" s="26">
         <f>_xll.qlSwapRateHelperSpread($E162,Trigger)</f>
@@ -9545,11 +9539,11 @@
       </c>
       <c r="K162" s="24">
         <f>_xll.qlRateHelperEarliestDate($E162,Trigger)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="L162" s="23">
         <f>_xll.qlRateHelperLatestDate($E162,Trigger)</f>
-        <v>63619</v>
+        <v>63639</v>
       </c>
     </row>
   </sheetData>
@@ -9623,7 +9617,7 @@
       </c>
       <c r="E2" s="10">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>3.3240000000000001E-3</v>
+        <v>3.0010000000000002E-3</v>
       </c>
       <c r="F2" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9631,14 +9625,14 @@
       </c>
       <c r="G2" s="9">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41718</v>
+        <v>41736</v>
       </c>
       <c r="I2" s="3">
-        <v>0.99987075004102899</v>
+        <v>0.99988330806302572</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>106</v>
@@ -9659,7 +9653,7 @@
       </c>
       <c r="E3" s="10">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>3.3240000000000001E-3</v>
+        <v>3.0130000000000001E-3</v>
       </c>
       <c r="F3" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9667,14 +9661,14 @@
       </c>
       <c r="G3" s="9">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41725</v>
+        <v>41743</v>
       </c>
       <c r="I3" s="3">
-        <v>0.99980613758992132</v>
+        <v>0.99982427255222983</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>107</v>
@@ -9695,7 +9689,7 @@
       </c>
       <c r="E4" s="10">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>3.3240000000000001E-3</v>
+        <v>3.1110000000000001E-3</v>
       </c>
       <c r="F4" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9703,14 +9697,14 @@
       </c>
       <c r="G4" s="9">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41736</v>
+        <v>41753</v>
       </c>
       <c r="I4" s="3">
-        <v>0.99970462060809773</v>
+        <v>0.99973218008000653</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>108</v>
@@ -9731,7 +9725,7 @@
       </c>
       <c r="E5" s="10">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>3.3240000000000001E-3</v>
+        <v>3.0980000000000001E-3</v>
       </c>
       <c r="F5" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -9739,14 +9733,14 @@
       </c>
       <c r="G5" s="9">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41765</v>
+        <v>41785</v>
       </c>
       <c r="I5" s="3">
-        <v>0.99943708371987994</v>
+        <v>0.99945814376735642</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>109</v>
@@ -9764,11 +9758,11 @@
         <v/>
       </c>
       <c r="D6" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MH4</v>
+        <v>EUR_YC3MRH_FUT3MM4</v>
       </c>
       <c r="E6" s="10">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>2.6249999999999885E-3</v>
+        <v>3.2750000000000279E-3</v>
       </c>
       <c r="F6" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -9776,14 +9770,14 @@
       </c>
       <c r="G6" s="9">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41717</v>
+        <v>41808</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41809</v>
+        <v>41900</v>
       </c>
       <c r="I6" s="3">
-        <v>0.99920969514353841</v>
+        <v>0.99842549119501667</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>110</v>
@@ -9795,18 +9789,18 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="str">
         <f>_xll.ohGroup(,_xll.ohPack(D2:D126),Permanent,,ObjectOverwrite)</f>
-        <v>obj_00578#0007</v>
+        <v>obj_00501#0001</v>
       </c>
       <c r="B7" s="12" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
       <c r="D7" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MM4</v>
+        <v>EUR_YC3MRH_FUT3MU4</v>
       </c>
       <c r="E7" s="10">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>2.475000000000005E-3</v>
+        <v>3.2750000000000279E-3</v>
       </c>
       <c r="F7" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -9814,14 +9808,14 @@
       </c>
       <c r="G7" s="9">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41808</v>
+        <v>41899</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41900</v>
+        <v>41990</v>
       </c>
       <c r="I7" s="3">
-        <v>0.9985828691513815</v>
+        <v>0.99760876539591126</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>111</v>
@@ -9832,11 +9826,11 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MU4</v>
+        <v>EUR_YC3MRH_FUT3MZ4</v>
       </c>
       <c r="E8" s="10">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>2.5249999999999995E-3</v>
+        <v>3.4250000000000114E-3</v>
       </c>
       <c r="F8" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -9844,14 +9838,14 @@
       </c>
       <c r="G8" s="9">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41899</v>
+        <v>41990</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41990</v>
+        <v>42080</v>
       </c>
       <c r="I8" s="3">
-        <v>0.99795336119816869</v>
+        <v>0.99675529367570137</v>
       </c>
       <c r="K8" s="207" t="s">
         <v>112</v>
@@ -9862,11 +9856,11 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MZ4</v>
+        <v>EUR_YC3MRH_FUT3MH5</v>
       </c>
       <c r="E9" s="10">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>2.7250000000000885E-3</v>
+        <v>3.7249999999999783E-3</v>
       </c>
       <c r="F9" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -9874,14 +9868,14 @@
       </c>
       <c r="G9" s="9">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41990</v>
+        <v>42081</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42080</v>
+        <v>42173</v>
       </c>
       <c r="I9" s="3">
-        <v>0.99727396830725945</v>
+        <v>0.99579748664961942</v>
       </c>
       <c r="K9" s="207" t="s">
         <v>113</v>
@@ -9892,11 +9886,11 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D10" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MH5</v>
+        <v>EUR_YC3MRH_FUT3MM5</v>
       </c>
       <c r="E10" s="10">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>3.0250000000000554E-3</v>
+        <v>4.0749999999999398E-3</v>
       </c>
       <c r="F10" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -9904,14 +9898,14 @@
       </c>
       <c r="G10" s="9">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42081</v>
+        <v>42172</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42173</v>
+        <v>42264</v>
       </c>
       <c r="I10" s="3">
-        <v>0.99649568125083321</v>
+        <v>0.99477226683281428</v>
       </c>
       <c r="K10" s="207" t="s">
         <v>114</v>
@@ -9922,11 +9916,11 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D11" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MM5</v>
+        <v>EUR_YC3MRH_FUT3MU5</v>
       </c>
       <c r="E11" s="10">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>3.4750000000000059E-3</v>
+        <v>4.6250000000001013E-3</v>
       </c>
       <c r="F11" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -9934,14 +9928,14 @@
       </c>
       <c r="G11" s="9">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42172</v>
+        <v>42263</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42264</v>
+        <v>42354</v>
       </c>
       <c r="I11" s="3">
-        <v>0.99562043754671092</v>
+        <v>0.99362254494253432</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>115</v>
@@ -9952,11 +9946,11 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D12" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MU5</v>
+        <v>EUR_YC3MRH_FUT3MZ5</v>
       </c>
       <c r="E12" s="10">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>4.0250000000000563E-3</v>
+        <v>5.3250000000000242E-3</v>
       </c>
       <c r="F12" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -9964,14 +9958,14 @@
       </c>
       <c r="G12" s="9">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="H12" s="8">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="I12" s="3">
-        <v>0.99461879217436866</v>
+        <v>0.99228688544943255</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>116</v>
@@ -9982,11 +9976,11 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D13" s="11" t="str">
-        <v>EUR_YC3MRH_FUT3MZ5</v>
+        <v>EUR_YC3MRH_FUT3MH6</v>
       </c>
       <c r="E13" s="10">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>4.7749999999999737E-3</v>
+        <v>6.1249999999999361E-3</v>
       </c>
       <c r="F13" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -9994,14 +9988,14 @@
       </c>
       <c r="G13" s="9">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="H13" s="8">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42445</v>
+        <v>42537</v>
       </c>
       <c r="I13" s="3">
-        <v>0.99341972077416152</v>
+        <v>0.99073610823556946</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>178</v>
@@ -10016,7 +10010,7 @@
       </c>
       <c r="E14" s="10">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>4.5999999999999999E-3</v>
+        <v>5.3100000000000005E-3</v>
       </c>
       <c r="F14" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -10024,14 +10018,14 @@
       </c>
       <c r="G14" s="9">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H14" s="8">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42800</v>
+        <v>42818</v>
       </c>
       <c r="I14" s="3">
-        <v>0.9863056284018501</v>
+        <v>0.98421939147265558</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>117</v>
@@ -10046,7 +10040,7 @@
       </c>
       <c r="E15" s="10">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>6.4800000000000005E-3</v>
+        <v>7.1899999999999993E-3</v>
       </c>
       <c r="F15" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -10054,14 +10048,14 @@
       </c>
       <c r="G15" s="9">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H15" s="8">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>43165</v>
+        <v>43185</v>
       </c>
       <c r="I15" s="3">
-        <v>0.97439435168352628</v>
+        <v>0.97161982796710167</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>118</v>
@@ -10076,7 +10070,7 @@
       </c>
       <c r="E16" s="10">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>8.4799999999999997E-3</v>
+        <v>9.1700000000000011E-3</v>
       </c>
       <c r="F16" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -10084,14 +10078,14 @@
       </c>
       <c r="G16" s="9">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H16" s="8">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43530</v>
+        <v>43549</v>
       </c>
       <c r="I16" s="3">
-        <v>0.95836416536915203</v>
+        <v>0.95509631428324426</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>119</v>
@@ -10106,7 +10100,7 @@
       </c>
       <c r="E17" s="10">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.0459999999999999E-2</v>
+        <v>1.111E-2</v>
       </c>
       <c r="F17" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -10114,14 +10108,14 @@
       </c>
       <c r="G17" s="9">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H17" s="8">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43896</v>
+        <v>43914</v>
       </c>
       <c r="I17" s="3">
-        <v>0.93882229748000412</v>
+        <v>0.9352721197813767</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>120</v>
@@ -10136,7 +10130,7 @@
       </c>
       <c r="E18" s="10">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.234E-2</v>
+        <v>1.2959999999999998E-2</v>
       </c>
       <c r="F18" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -10144,14 +10138,14 @@
       </c>
       <c r="G18" s="9">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H18" s="8">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>44263</v>
+        <v>44279</v>
       </c>
       <c r="I18" s="3">
-        <v>0.91645464584231973</v>
+        <v>0.91271373442874049</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>121</v>
@@ -10166,7 +10160,7 @@
       </c>
       <c r="E19" s="10">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.4079999999999999E-2</v>
+        <v>1.4689999999999998E-2</v>
       </c>
       <c r="F19" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -10174,14 +10168,14 @@
       </c>
       <c r="G19" s="9">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H19" s="8">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44627</v>
+        <v>44644</v>
       </c>
       <c r="I19" s="3">
-        <v>0.89214767031329445</v>
+        <v>0.88807517269611935</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>122</v>
@@ -10196,7 +10190,7 @@
       </c>
       <c r="E20" s="10">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.5659999999999997E-2</v>
+        <v>1.626E-2</v>
       </c>
       <c r="F20" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -10204,14 +10198,14 @@
       </c>
       <c r="G20" s="9">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H20" s="8">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>44991</v>
+        <v>45009</v>
       </c>
       <c r="I20" s="3">
-        <v>0.86651292212427611</v>
+        <v>0.86215992668493291</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>123</v>
@@ -10226,7 +10220,7 @@
       </c>
       <c r="E21" s="10">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.7090000000000001E-2</v>
+        <v>1.7680000000000001E-2</v>
       </c>
       <c r="F21" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10234,14 +10228,14 @@
       </c>
       <c r="G21" s="9">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H21" s="8">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>45357</v>
+        <v>45376</v>
       </c>
       <c r="I21" s="3">
-        <v>0.83996834710018176</v>
+        <v>0.83538301161850115</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>124</v>
@@ -10256,7 +10250,7 @@
       </c>
       <c r="E22" s="10">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.9400000000000001E-2</v>
+        <v>2.0030000000000003E-2</v>
       </c>
       <c r="F22" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10264,14 +10258,14 @@
       </c>
       <c r="G22" s="9">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H22" s="8">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>46087</v>
+        <v>46105</v>
       </c>
       <c r="I22" s="3">
-        <v>0.78728248433717518</v>
+        <v>0.78183788986716818</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>125</v>
@@ -10286,7 +10280,7 @@
       </c>
       <c r="E23" s="10">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.1780000000000001E-2</v>
+        <v>2.2439999999999998E-2</v>
       </c>
       <c r="F23" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10294,14 +10288,14 @@
       </c>
       <c r="G23" s="9">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H23" s="8">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>47183</v>
+        <v>47203</v>
       </c>
       <c r="I23" s="3">
-        <v>0.71302451530203637</v>
+        <v>0.70649036263512288</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>126</v>
@@ -10316,7 +10310,7 @@
       </c>
       <c r="E24" s="10">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.35E-2</v>
+        <v>2.4230000000000002E-2</v>
       </c>
       <c r="F24" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10324,14 +10318,14 @@
       </c>
       <c r="G24" s="9">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H24" s="8">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>49009</v>
+        <v>49027</v>
       </c>
       <c r="I24" s="3">
-        <v>0.61383806625525061</v>
+        <v>0.60536895601483187</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>127</v>
@@ -10346,7 +10340,7 @@
       </c>
       <c r="E25" s="10">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.4050000000000002E-2</v>
+        <v>2.4820000000000002E-2</v>
       </c>
       <c r="F25" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10354,14 +10348,14 @@
       </c>
       <c r="G25" s="9">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H25" s="8">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>50836</v>
+        <v>50853</v>
       </c>
       <c r="I25" s="3">
-        <v>0.53668975548849807</v>
+        <v>0.52674737150009399</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>128</v>
@@ -10376,7 +10370,7 @@
       </c>
       <c r="E26" s="10">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.4169999999999997E-2</v>
+        <v>2.4939999999999997E-2</v>
       </c>
       <c r="F26" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10384,14 +10378,14 @@
       </c>
       <c r="G26" s="9">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H26" s="8">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>52663</v>
+        <v>52680</v>
       </c>
       <c r="I26" s="3">
-        <v>0.47414797299809336</v>
+        <v>0.46360991708257537</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>129</v>
@@ -10406,7 +10400,7 @@
       </c>
       <c r="E27" s="10">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.4305E-2</v>
+        <v>2.5105000000000002E-2</v>
       </c>
       <c r="F27" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10414,14 +10408,14 @@
       </c>
       <c r="G27" s="9">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H27" s="8">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>54490</v>
+        <v>54506</v>
       </c>
       <c r="I27" s="3">
-        <v>0.41771691875459449</v>
+        <v>0.40625347334169398</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>130</v>
@@ -10436,7 +10430,7 @@
       </c>
       <c r="E28" s="10">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.4474999999999997E-2</v>
+        <v>2.5319999999999999E-2</v>
       </c>
       <c r="F28" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10444,14 +10438,14 @@
       </c>
       <c r="G28" s="9">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H28" s="8">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>56314</v>
+        <v>56332</v>
       </c>
       <c r="I28" s="3">
-        <v>0.36640719268915972</v>
+        <v>0.35382300656810045</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>131</v>
@@ -10466,7 +10460,7 @@
       </c>
       <c r="E29" s="10">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.4665000000000003E-2</v>
+        <v>2.5579999999999999E-2</v>
       </c>
       <c r="F29" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -10474,14 +10468,14 @@
       </c>
       <c r="G29" s="9">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H29" s="8">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>59967</v>
+        <v>59985</v>
       </c>
       <c r="I29" s="3">
-        <v>0.28289609524010234</v>
+        <v>0.26917151122321104</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>132</v>
@@ -10496,7 +10490,7 @@
       </c>
       <c r="E30" s="10">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.4823000000000001E-2</v>
+        <v>2.5738999999999998E-2</v>
       </c>
       <c r="F30" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -10504,14 +10498,14 @@
       </c>
       <c r="G30" s="9">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41704</v>
+        <v>41722</v>
       </c>
       <c r="H30" s="8">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>63619</v>
+        <v>63639</v>
       </c>
       <c r="I30" s="3">
-        <v>0.21735147414618813</v>
+        <v>0.20482708176185146</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>133</v>
@@ -12964,7 +12958,7 @@
       </c>
       <c r="K3" s="94" t="str">
         <f>_xll.qlDepositRateHelper2(J3,I3,C3,D3,E3,F3,G3,H3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_SND#0016</v>
+        <v>EUR_YC3MRH_SND#0001</v>
       </c>
       <c r="L3" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -13008,7 +13002,7 @@
       </c>
       <c r="K4" s="94" t="str">
         <f>_xll.qlDepositRateHelper2(J4,I4,C4,D4,E4,F4,G4,H4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_SWD#0010</v>
+        <v>EUR_YC3MRH_SWD#0001</v>
       </c>
       <c r="L4" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -13052,7 +13046,7 @@
       </c>
       <c r="K5" s="94" t="str">
         <f>_xll.qlDepositRateHelper2(J5,I5,C5,D5,E5,F5,G5,H5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2WD#0010</v>
+        <v>EUR_YC3MRH_2WD#0001</v>
       </c>
       <c r="L5" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -13100,7 +13094,7 @@
       </c>
       <c r="K6" s="94" t="str">
         <f>_xll.qlDepositRateHelper2(J6,I6,C6,D6,E6,F6,G6,H6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3WD#0004</v>
+        <v>EUR_YC3MRH_3WD#0001</v>
       </c>
       <c r="L6" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -13146,7 +13140,7 @@
       </c>
       <c r="K7" s="94" t="str">
         <f>_xll.qlDepositRateHelper2(J7,I7,C7,D7,E7,F7,G7,H7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1MD#0011</v>
+        <v>EUR_YC3MRH_1MD#0001</v>
       </c>
       <c r="L7" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -13192,7 +13186,7 @@
       </c>
       <c r="K8" s="94" t="str">
         <f>_xll.qlDepositRateHelper2(J8,I8,C8,D8,E8,F8,G8,H8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2MD#0010</v>
+        <v>EUR_YC3MRH_2MD#0001</v>
       </c>
       <c r="L8" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -13238,7 +13232,7 @@
       </c>
       <c r="K9" s="94" t="str">
         <f>_xll.qlDepositRateHelper2(J9,I9,C9,D9,E9,F9,G9,H9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3MD#0011</v>
+        <v>EUR_YC3MRH_3MD#0001</v>
       </c>
       <c r="L9" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -13364,7 +13358,7 @@
       </c>
       <c r="H3" s="140" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_T3F1#0002</v>
+        <v>EUR_YC3MRH_T3F1#0001</v>
       </c>
       <c r="I3" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -13398,7 +13392,7 @@
       </c>
       <c r="H4" s="132" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_TOM3F1#0002</v>
+        <v>EUR_YC3MRH_TOM3F1#0001</v>
       </c>
       <c r="I4" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -13437,7 +13431,7 @@
       </c>
       <c r="H5" s="135" t="str">
         <f>_xll.qlFraRateHelper(G5,F5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1x4F#0002</v>
+        <v>EUR_YC3MRH_1x4F#0001</v>
       </c>
       <c r="I5" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -13472,7 +13466,7 @@
       </c>
       <c r="H6" s="135" t="str">
         <f>_xll.qlFraRateHelper(G6,F6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2x5F#0002</v>
+        <v>EUR_YC3MRH_2x5F#0001</v>
       </c>
       <c r="I6" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -13507,7 +13501,7 @@
       </c>
       <c r="H7" s="135" t="str">
         <f>_xll.qlFraRateHelper(G7,F7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3x6F#0002</v>
+        <v>EUR_YC3MRH_3x6F#0001</v>
       </c>
       <c r="I7" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -13542,7 +13536,7 @@
       </c>
       <c r="H8" s="135" t="str">
         <f>_xll.qlFraRateHelper(G8,F8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_4x7F#0002</v>
+        <v>EUR_YC3MRH_4x7F#0001</v>
       </c>
       <c r="I8" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -13577,7 +13571,7 @@
       </c>
       <c r="H9" s="135" t="str">
         <f>_xll.qlFraRateHelper(G9,F9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_5x8F#0002</v>
+        <v>EUR_YC3MRH_5x8F#0001</v>
       </c>
       <c r="I9" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -13612,7 +13606,7 @@
       </c>
       <c r="H10" s="132" t="str">
         <f>_xll.qlFraRateHelper(G10,F10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_6x9F#0002</v>
+        <v>EUR_YC3MRH_6x9F#0001</v>
       </c>
       <c r="I10" s="131" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -13733,7 +13727,7 @@
       </c>
       <c r="D3" s="205" t="str">
         <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C122)</f>
-        <v>H4</v>
+        <v>J4</v>
       </c>
       <c r="E3" s="157" t="str">
         <f t="shared" ref="E3:E34" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -13741,19 +13735,19 @@
       </c>
       <c r="F3" s="156" t="str">
         <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>EURFUT3MH4_Quote</v>
+        <v>EURFUT3MJ4_Quote</v>
       </c>
       <c r="G3" s="156" t="str">
         <f t="shared" ref="G3:G34" si="2">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MH4ConvAdj_Quote</v>
+        <v>EURFUT3MJ4ConvAdj_Quote</v>
       </c>
       <c r="H3" s="156" t="str">
         <f t="shared" ref="H3:H34" si="3">$H$1&amp;"_FUT"&amp;$E$1&amp;$D3</f>
-        <v>EUR_YC3MRH_FUT3MH4</v>
+        <v>EUR_YC3MRH_FUT3MJ4</v>
       </c>
       <c r="I3" s="162" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH4#0002</v>
+        <v>EUR_YC3MRH_FUT3MJ4#0001</v>
       </c>
       <c r="J3" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -13763,7 +13757,7 @@
       <c r="L3" s="160"/>
       <c r="M3" s="88" t="str">
         <f>_xll.ohObjectCallerAddress(F3)</f>
-        <v>'C:\Projects\quantlib\QuantLibXL\Data2\XLS\[EUR_Market.xlsm]Futures3M'!R7C6</v>
+        <v>[EUR_Market.xlsm]Futures3M!R7C6</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -13775,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="206" t="str">
-        <v>J4</v>
+        <v>K4</v>
       </c>
       <c r="E4" s="157" t="str">
         <f t="shared" si="0"/>
@@ -13783,19 +13777,19 @@
       </c>
       <c r="F4" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MJ4_Quote</v>
+        <v>EURFUT3MK4_Quote</v>
       </c>
       <c r="G4" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MJ4ConvAdj_Quote</v>
+        <v>EURFUT3MK4ConvAdj_Quote</v>
       </c>
       <c r="H4" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MJ4</v>
+        <v>EUR_YC3MRH_FUT3MK4</v>
       </c>
       <c r="I4" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MJ4#0002</v>
+        <v>EUR_YC3MRH_FUT3MK4#0001</v>
       </c>
       <c r="J4" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -13813,7 +13807,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="206" t="str">
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E5" s="157" t="str">
         <f t="shared" si="0"/>
@@ -13821,19 +13815,19 @@
       </c>
       <c r="F5" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MK4_Quote</v>
+        <v>EURFUT3MM4_Quote</v>
       </c>
       <c r="G5" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MK4ConvAdj_Quote</v>
+        <v>EURFUT3MM4ConvAdj_Quote</v>
       </c>
       <c r="H5" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MK4</v>
+        <v>EUR_YC3MRH_FUT3MM4</v>
       </c>
       <c r="I5" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MK4#0002</v>
+        <v>EUR_YC3MRH_FUT3MM4#0001</v>
       </c>
       <c r="J5" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13851,7 +13845,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="206" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E6" s="157" t="str">
         <f t="shared" si="0"/>
@@ -13859,19 +13853,19 @@
       </c>
       <c r="F6" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM4_Quote</v>
+        <v>EURFUT3MN4_Quote</v>
       </c>
       <c r="G6" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM4ConvAdj_Quote</v>
+        <v>EURFUT3MN4ConvAdj_Quote</v>
       </c>
       <c r="H6" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MM4</v>
+        <v>EUR_YC3MRH_FUT3MN4</v>
       </c>
       <c r="I6" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM4#0002</v>
+        <v>EUR_YC3MRH_FUT3MN4#0001</v>
       </c>
       <c r="J6" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -13889,7 +13883,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="206" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E7" s="157" t="str">
         <f t="shared" si="0"/>
@@ -13897,19 +13891,19 @@
       </c>
       <c r="F7" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MN4_Quote</v>
+        <v>EURFUT3MQ4_Quote</v>
       </c>
       <c r="G7" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MN4ConvAdj_Quote</v>
+        <v>EURFUT3MQ4ConvAdj_Quote</v>
       </c>
       <c r="H7" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MN4</v>
+        <v>EUR_YC3MRH_FUT3MQ4</v>
       </c>
       <c r="I7" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MN4#0002</v>
+        <v>EUR_YC3MRH_FUT3MQ4#0001</v>
       </c>
       <c r="J7" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -13927,7 +13921,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="206" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E8" s="157" t="str">
         <f t="shared" si="0"/>
@@ -13935,19 +13929,19 @@
       </c>
       <c r="F8" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MQ4_Quote</v>
+        <v>EURFUT3MU4_Quote</v>
       </c>
       <c r="G8" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MQ4ConvAdj_Quote</v>
+        <v>EURFUT3MU4ConvAdj_Quote</v>
       </c>
       <c r="H8" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MQ4</v>
+        <v>EUR_YC3MRH_FUT3MU4</v>
       </c>
       <c r="I8" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MQ4#0002</v>
+        <v>EUR_YC3MRH_FUT3MU4#0001</v>
       </c>
       <c r="J8" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -13965,7 +13959,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="206" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E9" s="157" t="str">
         <f t="shared" si="0"/>
@@ -13973,19 +13967,19 @@
       </c>
       <c r="F9" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU4_Quote</v>
+        <v>EURFUT3MV4_Quote</v>
       </c>
       <c r="G9" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU4ConvAdj_Quote</v>
+        <v>EURFUT3MV4ConvAdj_Quote</v>
       </c>
       <c r="H9" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MU4</v>
+        <v>EUR_YC3MRH_FUT3MV4</v>
       </c>
       <c r="I9" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU4#0002</v>
+        <v>EUR_YC3MRH_FUT3MV4#0001</v>
       </c>
       <c r="J9" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -14003,7 +13997,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="206" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E10" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14011,19 +14005,19 @@
       </c>
       <c r="F10" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MV4_Quote</v>
+        <v>EURFUT3MX4_Quote</v>
       </c>
       <c r="G10" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MV4ConvAdj_Quote</v>
+        <v>EURFUT3MX4ConvAdj_Quote</v>
       </c>
       <c r="H10" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MV4</v>
+        <v>EUR_YC3MRH_FUT3MX4</v>
       </c>
       <c r="I10" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MV4#0002</v>
+        <v>EUR_YC3MRH_FUT3MX4#0001</v>
       </c>
       <c r="J10" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -14041,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="206" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E11" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14049,19 +14043,19 @@
       </c>
       <c r="F11" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MX4_Quote</v>
+        <v>EURFUT3MZ4_Quote</v>
       </c>
       <c r="G11" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MX4ConvAdj_Quote</v>
+        <v>EURFUT3MZ4ConvAdj_Quote</v>
       </c>
       <c r="H11" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MX4</v>
+        <v>EUR_YC3MRH_FUT3MZ4</v>
       </c>
       <c r="I11" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MX4#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ4#0001</v>
       </c>
       <c r="J11" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -14079,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="206" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E12" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14087,19 +14081,19 @@
       </c>
       <c r="F12" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ4_Quote</v>
+        <v>EURFUT3MF5_Quote</v>
       </c>
       <c r="G12" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ4ConvAdj_Quote</v>
+        <v>EURFUT3MF5ConvAdj_Quote</v>
       </c>
       <c r="H12" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MZ4</v>
+        <v>EUR_YC3MRH_FUT3MF5</v>
       </c>
       <c r="I12" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ4#0002</v>
+        <v>EUR_YC3MRH_FUT3MF5#0001</v>
       </c>
       <c r="J12" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -14117,7 +14111,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="206" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="E13" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14125,19 +14119,19 @@
       </c>
       <c r="F13" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MF5_Quote</v>
+        <v>EURFUT3MG5_Quote</v>
       </c>
       <c r="G13" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MF5ConvAdj_Quote</v>
+        <v>EURFUT3MG5ConvAdj_Quote</v>
       </c>
       <c r="H13" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MF5</v>
+        <v>EUR_YC3MRH_FUT3MG5</v>
       </c>
       <c r="I13" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MF5#0002</v>
+        <v>EUR_YC3MRH_FUT3MG5#0001</v>
       </c>
       <c r="J13" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -14155,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="206" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="E14" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14163,19 +14157,19 @@
       </c>
       <c r="F14" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MG5_Quote</v>
+        <v>EURFUT3MH5_Quote</v>
       </c>
       <c r="G14" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MG5ConvAdj_Quote</v>
+        <v>EURFUT3MH5ConvAdj_Quote</v>
       </c>
       <c r="H14" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MG5</v>
+        <v>EUR_YC3MRH_FUT3MH5</v>
       </c>
       <c r="I14" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MG5#0002</v>
+        <v>EUR_YC3MRH_FUT3MH5#0001</v>
       </c>
       <c r="J14" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -14193,7 +14187,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="206" t="str">
-        <v>H5</v>
+        <v>M5</v>
       </c>
       <c r="E15" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14201,19 +14195,19 @@
       </c>
       <c r="F15" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH5_Quote</v>
+        <v>EURFUT3MM5_Quote</v>
       </c>
       <c r="G15" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH5ConvAdj_Quote</v>
+        <v>EURFUT3MM5ConvAdj_Quote</v>
       </c>
       <c r="H15" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MH5</v>
+        <v>EUR_YC3MRH_FUT3MM5</v>
       </c>
       <c r="I15" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH5#0002</v>
+        <v>EUR_YC3MRH_FUT3MM5#0001</v>
       </c>
       <c r="J15" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -14231,7 +14225,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="206" t="str">
-        <v>M5</v>
+        <v>U5</v>
       </c>
       <c r="E16" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14239,19 +14233,19 @@
       </c>
       <c r="F16" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM5_Quote</v>
+        <v>EURFUT3MU5_Quote</v>
       </c>
       <c r="G16" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM5ConvAdj_Quote</v>
+        <v>EURFUT3MU5ConvAdj_Quote</v>
       </c>
       <c r="H16" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MM5</v>
+        <v>EUR_YC3MRH_FUT3MU5</v>
       </c>
       <c r="I16" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM5#0002</v>
+        <v>EUR_YC3MRH_FUT3MU5#0001</v>
       </c>
       <c r="J16" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -14269,7 +14263,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="206" t="str">
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="E17" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14277,19 +14271,19 @@
       </c>
       <c r="F17" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU5_Quote</v>
+        <v>EURFUT3MZ5_Quote</v>
       </c>
       <c r="G17" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU5ConvAdj_Quote</v>
+        <v>EURFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="H17" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MU5</v>
+        <v>EUR_YC3MRH_FUT3MZ5</v>
       </c>
       <c r="I17" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU5#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ5#0001</v>
       </c>
       <c r="J17" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -14307,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="206" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="E18" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14315,19 +14309,19 @@
       </c>
       <c r="F18" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ5_Quote</v>
+        <v>EURFUT3MH6_Quote</v>
       </c>
       <c r="G18" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ5ConvAdj_Quote</v>
+        <v>EURFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="H18" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MZ5</v>
+        <v>EUR_YC3MRH_FUT3MH6</v>
       </c>
       <c r="I18" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ5#0002</v>
+        <v>EUR_YC3MRH_FUT3MH6#0001</v>
       </c>
       <c r="J18" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -14345,7 +14339,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="206" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="E19" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14353,19 +14347,19 @@
       </c>
       <c r="F19" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH6_Quote</v>
+        <v>EURFUT3MM6_Quote</v>
       </c>
       <c r="G19" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH6ConvAdj_Quote</v>
+        <v>EURFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="H19" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MH6</v>
+        <v>EUR_YC3MRH_FUT3MM6</v>
       </c>
       <c r="I19" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH6#0002</v>
+        <v>EUR_YC3MRH_FUT3MM6#0001</v>
       </c>
       <c r="J19" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -14383,7 +14377,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="206" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="E20" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14391,19 +14385,19 @@
       </c>
       <c r="F20" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM6_Quote</v>
+        <v>EURFUT3MU6_Quote</v>
       </c>
       <c r="G20" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM6ConvAdj_Quote</v>
+        <v>EURFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="H20" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MM6</v>
+        <v>EUR_YC3MRH_FUT3MU6</v>
       </c>
       <c r="I20" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM6#0002</v>
+        <v>EUR_YC3MRH_FUT3MU6#0001</v>
       </c>
       <c r="J20" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -14421,7 +14415,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="206" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="E21" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14429,19 +14423,19 @@
       </c>
       <c r="F21" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU6_Quote</v>
+        <v>EURFUT3MZ6_Quote</v>
       </c>
       <c r="G21" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU6ConvAdj_Quote</v>
+        <v>EURFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="H21" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MU6</v>
+        <v>EUR_YC3MRH_FUT3MZ6</v>
       </c>
       <c r="I21" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU6#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ6#0001</v>
       </c>
       <c r="J21" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -14459,7 +14453,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="206" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="E22" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14467,19 +14461,19 @@
       </c>
       <c r="F22" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ6_Quote</v>
+        <v>EURFUT3MH7_Quote</v>
       </c>
       <c r="G22" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ6ConvAdj_Quote</v>
+        <v>EURFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="H22" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MZ6</v>
+        <v>EUR_YC3MRH_FUT3MH7</v>
       </c>
       <c r="I22" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ6#0002</v>
+        <v>EUR_YC3MRH_FUT3MH7#0001</v>
       </c>
       <c r="J22" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -14497,7 +14491,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="206" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="E23" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14505,19 +14499,19 @@
       </c>
       <c r="F23" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH7_Quote</v>
+        <v>EURFUT3MM7_Quote</v>
       </c>
       <c r="G23" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH7ConvAdj_Quote</v>
+        <v>EURFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="H23" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MH7</v>
+        <v>EUR_YC3MRH_FUT3MM7</v>
       </c>
       <c r="I23" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH7#0002</v>
+        <v>EUR_YC3MRH_FUT3MM7#0001</v>
       </c>
       <c r="J23" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -14535,7 +14529,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="206" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="E24" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14543,19 +14537,19 @@
       </c>
       <c r="F24" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM7_Quote</v>
+        <v>EURFUT3MU7_Quote</v>
       </c>
       <c r="G24" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM7ConvAdj_Quote</v>
+        <v>EURFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="H24" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MM7</v>
+        <v>EUR_YC3MRH_FUT3MU7</v>
       </c>
       <c r="I24" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM7#0002</v>
+        <v>EUR_YC3MRH_FUT3MU7#0001</v>
       </c>
       <c r="J24" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -14573,7 +14567,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="206" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="E25" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14581,19 +14575,19 @@
       </c>
       <c r="F25" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU7_Quote</v>
+        <v>EURFUT3MZ7_Quote</v>
       </c>
       <c r="G25" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU7ConvAdj_Quote</v>
+        <v>EURFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="H25" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MU7</v>
+        <v>EUR_YC3MRH_FUT3MZ7</v>
       </c>
       <c r="I25" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU7#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ7#0001</v>
       </c>
       <c r="J25" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -14611,7 +14605,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="206" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="E26" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14619,19 +14613,19 @@
       </c>
       <c r="F26" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ7_Quote</v>
+        <v>EURFUT3MH8_Quote</v>
       </c>
       <c r="G26" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ7ConvAdj_Quote</v>
+        <v>EURFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="H26" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MZ7</v>
+        <v>EUR_YC3MRH_FUT3MH8</v>
       </c>
       <c r="I26" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ7#0002</v>
+        <v>EUR_YC3MRH_FUT3MH8#0001</v>
       </c>
       <c r="J26" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -14649,7 +14643,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="206" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="E27" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14657,19 +14651,19 @@
       </c>
       <c r="F27" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH8_Quote</v>
+        <v>EURFUT3MM8_Quote</v>
       </c>
       <c r="G27" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH8ConvAdj_Quote</v>
+        <v>EURFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="H27" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MH8</v>
+        <v>EUR_YC3MRH_FUT3MM8</v>
       </c>
       <c r="I27" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH8#0002</v>
+        <v>EUR_YC3MRH_FUT3MM8#0001</v>
       </c>
       <c r="J27" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -14687,7 +14681,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="206" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="E28" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14695,19 +14689,19 @@
       </c>
       <c r="F28" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM8_Quote</v>
+        <v>EURFUT3MU8_Quote</v>
       </c>
       <c r="G28" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM8ConvAdj_Quote</v>
+        <v>EURFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="H28" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MM8</v>
+        <v>EUR_YC3MRH_FUT3MU8</v>
       </c>
       <c r="I28" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM8#0002</v>
+        <v>EUR_YC3MRH_FUT3MU8#0001</v>
       </c>
       <c r="J28" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -14725,7 +14719,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="206" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="E29" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14733,19 +14727,19 @@
       </c>
       <c r="F29" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU8_Quote</v>
+        <v>EURFUT3MZ8_Quote</v>
       </c>
       <c r="G29" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU8ConvAdj_Quote</v>
+        <v>EURFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="H29" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MU8</v>
+        <v>EUR_YC3MRH_FUT3MZ8</v>
       </c>
       <c r="I29" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU8#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ8#0001</v>
       </c>
       <c r="J29" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -14763,7 +14757,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="206" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="E30" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14771,19 +14765,19 @@
       </c>
       <c r="F30" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ8_Quote</v>
+        <v>EURFUT3MH9_Quote</v>
       </c>
       <c r="G30" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ8ConvAdj_Quote</v>
+        <v>EURFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="H30" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MZ8</v>
+        <v>EUR_YC3MRH_FUT3MH9</v>
       </c>
       <c r="I30" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ8#0002</v>
+        <v>EUR_YC3MRH_FUT3MH9#0001</v>
       </c>
       <c r="J30" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -14801,7 +14795,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="206" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="E31" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14809,19 +14803,19 @@
       </c>
       <c r="F31" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH9_Quote</v>
+        <v>EURFUT3MM9_Quote</v>
       </c>
       <c r="G31" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH9ConvAdj_Quote</v>
+        <v>EURFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="H31" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MH9</v>
+        <v>EUR_YC3MRH_FUT3MM9</v>
       </c>
       <c r="I31" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH9#0002</v>
+        <v>EUR_YC3MRH_FUT3MM9#0001</v>
       </c>
       <c r="J31" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -14839,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="206" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="E32" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14847,19 +14841,19 @@
       </c>
       <c r="F32" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM9_Quote</v>
+        <v>EURFUT3MU9_Quote</v>
       </c>
       <c r="G32" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM9ConvAdj_Quote</v>
+        <v>EURFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="H32" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MM9</v>
+        <v>EUR_YC3MRH_FUT3MU9</v>
       </c>
       <c r="I32" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM9#0002</v>
+        <v>EUR_YC3MRH_FUT3MU9#0001</v>
       </c>
       <c r="J32" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -14877,7 +14871,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="206" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="E33" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14885,19 +14879,19 @@
       </c>
       <c r="F33" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU9_Quote</v>
+        <v>EURFUT3MZ9_Quote</v>
       </c>
       <c r="G33" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU9ConvAdj_Quote</v>
+        <v>EURFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="H33" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MU9</v>
+        <v>EUR_YC3MRH_FUT3MZ9</v>
       </c>
       <c r="I33" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU9#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ9#0001</v>
       </c>
       <c r="J33" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -14915,7 +14909,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="206" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="E34" s="157" t="str">
         <f t="shared" si="0"/>
@@ -14923,19 +14917,19 @@
       </c>
       <c r="F34" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ9_Quote</v>
+        <v>EURFUT3MH0_Quote</v>
       </c>
       <c r="G34" s="156" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ9ConvAdj_Quote</v>
+        <v>EURFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="H34" s="156" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MZ9</v>
+        <v>EUR_YC3MRH_FUT3MH0</v>
       </c>
       <c r="I34" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ9#0002</v>
+        <v>EUR_YC3MRH_FUT3MH0#0001</v>
       </c>
       <c r="J34" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -14953,7 +14947,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="206" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="E35" s="157" t="str">
         <f t="shared" ref="E35:E44" si="4">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -14961,19 +14955,19 @@
       </c>
       <c r="F35" s="156" t="str">
         <f t="shared" ref="F35:F44" si="5">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
-        <v>EURFUT3MH0_Quote</v>
+        <v>EURFUT3MM0_Quote</v>
       </c>
       <c r="G35" s="156" t="str">
         <f t="shared" ref="G35:G44" si="6">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MH0ConvAdj_Quote</v>
+        <v>EURFUT3MM0ConvAdj_Quote</v>
       </c>
       <c r="H35" s="156" t="str">
         <f t="shared" ref="H35:H44" si="7">$H$1&amp;"_FUT"&amp;$E$1&amp;$D35</f>
-        <v>EUR_YC3MRH_FUT3MH0</v>
+        <v>EUR_YC3MRH_FUT3MM0</v>
       </c>
       <c r="I35" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH0#0002</v>
+        <v>EUR_YC3MRH_FUT3MM0#0001</v>
       </c>
       <c r="J35" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -14991,7 +14985,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="206" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="E36" s="157" t="str">
         <f t="shared" si="4"/>
@@ -14999,19 +14993,19 @@
       </c>
       <c r="F36" s="156" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MM0_Quote</v>
+        <v>EURFUT3MU0_Quote</v>
       </c>
       <c r="G36" s="156" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MM0ConvAdj_Quote</v>
+        <v>EURFUT3MU0ConvAdj_Quote</v>
       </c>
       <c r="H36" s="156" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MM0</v>
+        <v>EUR_YC3MRH_FUT3MU0</v>
       </c>
       <c r="I36" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM0#0002</v>
+        <v>EUR_YC3MRH_FUT3MU0#0001</v>
       </c>
       <c r="J36" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -15029,7 +15023,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="206" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="E37" s="157" t="str">
         <f t="shared" si="4"/>
@@ -15037,19 +15031,19 @@
       </c>
       <c r="F37" s="156" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MU0_Quote</v>
+        <v>EURFUT3MZ0_Quote</v>
       </c>
       <c r="G37" s="156" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MU0ConvAdj_Quote</v>
+        <v>EURFUT3MZ0ConvAdj_Quote</v>
       </c>
       <c r="H37" s="156" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MU0</v>
+        <v>EUR_YC3MRH_FUT3MZ0</v>
       </c>
       <c r="I37" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU0#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ0#0001</v>
       </c>
       <c r="J37" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -15067,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="206" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="E38" s="157" t="str">
         <f t="shared" si="4"/>
@@ -15075,19 +15069,19 @@
       </c>
       <c r="F38" s="156" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MZ0_Quote</v>
+        <v>EURFUT3MH1_Quote</v>
       </c>
       <c r="G38" s="156" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MZ0ConvAdj_Quote</v>
+        <v>EURFUT3MH1ConvAdj_Quote</v>
       </c>
       <c r="H38" s="156" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MZ0</v>
+        <v>EUR_YC3MRH_FUT3MH1</v>
       </c>
       <c r="I38" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ0#0002</v>
+        <v>EUR_YC3MRH_FUT3MH1#0001</v>
       </c>
       <c r="J38" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -15105,7 +15099,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="206" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="E39" s="157" t="str">
         <f t="shared" si="4"/>
@@ -15113,19 +15107,19 @@
       </c>
       <c r="F39" s="156" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MH1_Quote</v>
+        <v>EURFUT3MM1_Quote</v>
       </c>
       <c r="G39" s="156" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MH1ConvAdj_Quote</v>
+        <v>EURFUT3MM1ConvAdj_Quote</v>
       </c>
       <c r="H39" s="156" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MH1</v>
+        <v>EUR_YC3MRH_FUT3MM1</v>
       </c>
       <c r="I39" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH1#0002</v>
+        <v>EUR_YC3MRH_FUT3MM1#0001</v>
       </c>
       <c r="J39" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -15143,7 +15137,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="206" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="E40" s="157" t="str">
         <f t="shared" si="4"/>
@@ -15151,19 +15145,19 @@
       </c>
       <c r="F40" s="156" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MM1_Quote</v>
+        <v>EURFUT3MU1_Quote</v>
       </c>
       <c r="G40" s="156" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MM1ConvAdj_Quote</v>
+        <v>EURFUT3MU1ConvAdj_Quote</v>
       </c>
       <c r="H40" s="156" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MM1</v>
+        <v>EUR_YC3MRH_FUT3MU1</v>
       </c>
       <c r="I40" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM1#0002</v>
+        <v>EUR_YC3MRH_FUT3MU1#0001</v>
       </c>
       <c r="J40" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -15180,7 +15174,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="206" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="E41" s="157" t="str">
         <f t="shared" si="4"/>
@@ -15188,19 +15182,19 @@
       </c>
       <c r="F41" s="156" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MU1_Quote</v>
+        <v>EURFUT3MZ1_Quote</v>
       </c>
       <c r="G41" s="156" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MU1ConvAdj_Quote</v>
+        <v>EURFUT3MZ1ConvAdj_Quote</v>
       </c>
       <c r="H41" s="156" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MU1</v>
+        <v>EUR_YC3MRH_FUT3MZ1</v>
       </c>
       <c r="I41" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU1#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ1#0001</v>
       </c>
       <c r="J41" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -15217,7 +15211,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="206" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="E42" s="157" t="str">
         <f t="shared" si="4"/>
@@ -15225,19 +15219,19 @@
       </c>
       <c r="F42" s="156" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MZ1_Quote</v>
+        <v>EURFUT3MH2_Quote</v>
       </c>
       <c r="G42" s="156" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MZ1ConvAdj_Quote</v>
+        <v>EURFUT3MH2ConvAdj_Quote</v>
       </c>
       <c r="H42" s="156" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MZ1</v>
+        <v>EUR_YC3MRH_FUT3MH2</v>
       </c>
       <c r="I42" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ1#0002</v>
+        <v>EUR_YC3MRH_FUT3MH2#0001</v>
       </c>
       <c r="J42" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -15254,7 +15248,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="206" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="E43" s="157" t="str">
         <f t="shared" si="4"/>
@@ -15262,19 +15256,19 @@
       </c>
       <c r="F43" s="156" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MH2_Quote</v>
+        <v>EURFUT3MM2_Quote</v>
       </c>
       <c r="G43" s="156" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MH2ConvAdj_Quote</v>
+        <v>EURFUT3MM2ConvAdj_Quote</v>
       </c>
       <c r="H43" s="156" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MH2</v>
+        <v>EUR_YC3MRH_FUT3MM2</v>
       </c>
       <c r="I43" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH2#0002</v>
+        <v>EUR_YC3MRH_FUT3MM2#0001</v>
       </c>
       <c r="J43" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -15291,7 +15285,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="206" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="E44" s="157" t="str">
         <f t="shared" si="4"/>
@@ -15299,19 +15293,19 @@
       </c>
       <c r="F44" s="156" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MM2_Quote</v>
+        <v>EURFUT3MU2_Quote</v>
       </c>
       <c r="G44" s="156" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MM2ConvAdj_Quote</v>
+        <v>EURFUT3MU2ConvAdj_Quote</v>
       </c>
       <c r="H44" s="156" t="str">
         <f t="shared" si="7"/>
-        <v>EUR_YC3MRH_FUT3MM2</v>
+        <v>EUR_YC3MRH_FUT3MU2</v>
       </c>
       <c r="I44" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM2#0002</v>
+        <v>EUR_YC3MRH_FUT3MU2#0001</v>
       </c>
       <c r="J44" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -15467,7 +15461,7 @@
       </c>
       <c r="L4" s="192" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC3MRH_AB3E_ibor3M#0002</v>
+        <v>EUR_YC3MRH_AB3E_ibor3M#0001</v>
       </c>
       <c r="M4" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -15531,7 +15525,7 @@
       </c>
       <c r="L6" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E1Y#0002</v>
+        <v>EUR_YC3MRH_AB3E1Y#0001</v>
       </c>
       <c r="M6" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -15590,7 +15584,7 @@
       </c>
       <c r="L7" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E15M#0002</v>
+        <v>EUR_YC3MRH_AB3E15M#0001</v>
       </c>
       <c r="M7" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -15645,7 +15639,7 @@
       </c>
       <c r="L8" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E18M#0002</v>
+        <v>EUR_YC3MRH_AB3E18M#0001</v>
       </c>
       <c r="M8" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -15700,7 +15694,7 @@
       </c>
       <c r="L9" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E21M#0002</v>
+        <v>EUR_YC3MRH_AB3E21M#0001</v>
       </c>
       <c r="M9" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -15755,7 +15749,7 @@
       </c>
       <c r="L10" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E2Y#0002</v>
+        <v>EUR_YC3MRH_AB3E2Y#0001</v>
       </c>
       <c r="M10" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -15810,7 +15804,7 @@
       </c>
       <c r="L11" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E3Y#0002</v>
+        <v>EUR_YC3MRH_AB3E3Y#0001</v>
       </c>
       <c r="M11" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -15856,7 +15850,7 @@
       </c>
       <c r="L12" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E4Y#0002</v>
+        <v>EUR_YC3MRH_AB3E4Y#0001</v>
       </c>
       <c r="M12" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -15902,7 +15896,7 @@
       </c>
       <c r="L13" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E5Y#0002</v>
+        <v>EUR_YC3MRH_AB3E5Y#0001</v>
       </c>
       <c r="M13" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -15948,7 +15942,7 @@
       </c>
       <c r="L14" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E6Y#0002</v>
+        <v>EUR_YC3MRH_AB3E6Y#0001</v>
       </c>
       <c r="M14" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -15994,7 +15988,7 @@
       </c>
       <c r="L15" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E7Y#0002</v>
+        <v>EUR_YC3MRH_AB3E7Y#0001</v>
       </c>
       <c r="M15" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -16040,7 +16034,7 @@
       </c>
       <c r="L16" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E8Y#0002</v>
+        <v>EUR_YC3MRH_AB3E8Y#0001</v>
       </c>
       <c r="M16" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -16086,7 +16080,7 @@
       </c>
       <c r="L17" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E9Y#0002</v>
+        <v>EUR_YC3MRH_AB3E9Y#0001</v>
       </c>
       <c r="M17" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -16132,7 +16126,7 @@
       </c>
       <c r="L18" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E10Y#0002</v>
+        <v>EUR_YC3MRH_AB3E10Y#0001</v>
       </c>
       <c r="M18" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -16178,7 +16172,7 @@
       </c>
       <c r="L19" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E11Y#0002</v>
+        <v>EUR_YC3MRH_AB3E11Y#0001</v>
       </c>
       <c r="M19" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -16224,7 +16218,7 @@
       </c>
       <c r="L20" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E12Y#0002</v>
+        <v>EUR_YC3MRH_AB3E12Y#0001</v>
       </c>
       <c r="M20" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -16270,7 +16264,7 @@
       </c>
       <c r="L21" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E13Y#0002</v>
+        <v>EUR_YC3MRH_AB3E13Y#0001</v>
       </c>
       <c r="M21" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -16316,7 +16310,7 @@
       </c>
       <c r="L22" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E14Y#0002</v>
+        <v>EUR_YC3MRH_AB3E14Y#0001</v>
       </c>
       <c r="M22" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -16362,7 +16356,7 @@
       </c>
       <c r="L23" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E15Y#0002</v>
+        <v>EUR_YC3MRH_AB3E15Y#0001</v>
       </c>
       <c r="M23" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -16408,7 +16402,7 @@
       </c>
       <c r="L24" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E16Y#0002</v>
+        <v>EUR_YC3MRH_AB3E16Y#0001</v>
       </c>
       <c r="M24" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -16454,7 +16448,7 @@
       </c>
       <c r="L25" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E17Y#0002</v>
+        <v>EUR_YC3MRH_AB3E17Y#0001</v>
       </c>
       <c r="M25" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -16500,7 +16494,7 @@
       </c>
       <c r="L26" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E18Y#0002</v>
+        <v>EUR_YC3MRH_AB3E18Y#0001</v>
       </c>
       <c r="M26" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -16546,7 +16540,7 @@
       </c>
       <c r="L27" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E19Y#0002</v>
+        <v>EUR_YC3MRH_AB3E19Y#0001</v>
       </c>
       <c r="M27" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -16592,7 +16586,7 @@
       </c>
       <c r="L28" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E20Y#0002</v>
+        <v>EUR_YC3MRH_AB3E20Y#0001</v>
       </c>
       <c r="M28" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -16638,7 +16632,7 @@
       </c>
       <c r="L29" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E21Y#0002</v>
+        <v>EUR_YC3MRH_AB3E21Y#0001</v>
       </c>
       <c r="M29" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -16684,7 +16678,7 @@
       </c>
       <c r="L30" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E22Y#0002</v>
+        <v>EUR_YC3MRH_AB3E22Y#0001</v>
       </c>
       <c r="M30" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -16730,7 +16724,7 @@
       </c>
       <c r="L31" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E23Y#0002</v>
+        <v>EUR_YC3MRH_AB3E23Y#0001</v>
       </c>
       <c r="M31" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -16776,7 +16770,7 @@
       </c>
       <c r="L32" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E24Y#0002</v>
+        <v>EUR_YC3MRH_AB3E24Y#0001</v>
       </c>
       <c r="M32" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -16822,7 +16816,7 @@
       </c>
       <c r="L33" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E25Y#0002</v>
+        <v>EUR_YC3MRH_AB3E25Y#0001</v>
       </c>
       <c r="M33" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -16868,7 +16862,7 @@
       </c>
       <c r="L34" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E26Y#0002</v>
+        <v>EUR_YC3MRH_AB3E26Y#0001</v>
       </c>
       <c r="M34" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -16914,7 +16908,7 @@
       </c>
       <c r="L35" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E27Y#0002</v>
+        <v>EUR_YC3MRH_AB3E27Y#0001</v>
       </c>
       <c r="M35" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -16960,7 +16954,7 @@
       </c>
       <c r="L36" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E28Y#0002</v>
+        <v>EUR_YC3MRH_AB3E28Y#0001</v>
       </c>
       <c r="M36" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -17006,7 +17000,7 @@
       </c>
       <c r="L37" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E29Y#0002</v>
+        <v>EUR_YC3MRH_AB3E29Y#0001</v>
       </c>
       <c r="M37" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -17052,7 +17046,7 @@
       </c>
       <c r="L38" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E30Y#0002</v>
+        <v>EUR_YC3MRH_AB3E30Y#0001</v>
       </c>
       <c r="M38" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -17098,7 +17092,7 @@
       </c>
       <c r="L39" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E35Y#0002</v>
+        <v>EUR_YC3MRH_AB3E35Y#0001</v>
       </c>
       <c r="M39" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -17144,7 +17138,7 @@
       </c>
       <c r="L40" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E40Y#0002</v>
+        <v>EUR_YC3MRH_AB3E40Y#0001</v>
       </c>
       <c r="M40" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -17190,7 +17184,7 @@
       </c>
       <c r="L41" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E50Y#0002</v>
+        <v>EUR_YC3MRH_AB3E50Y#0001</v>
       </c>
       <c r="M41" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -17236,7 +17230,7 @@
       </c>
       <c r="L42" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E60Y#0002</v>
+        <v>EUR_YC3MRH_AB3E60Y#0001</v>
       </c>
       <c r="M42" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -17294,7 +17288,7 @@
       </c>
       <c r="L44" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K44,$J44,$E44&amp;"M",Calendar,$F44,$G44,$H44,$L$4,$I44,B44,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S12#0002</v>
+        <v>EUR_YC3MRH_1S12#0001</v>
       </c>
       <c r="M44" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -17339,7 +17333,7 @@
       </c>
       <c r="L45" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K45,$J45,$E45&amp;"M",Calendar,$F45,$G45,$H45,$L$4,$I45,B45,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2S12#0002</v>
+        <v>EUR_YC3MRH_2S12#0001</v>
       </c>
       <c r="M45" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -17384,7 +17378,7 @@
       </c>
       <c r="L46" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K46,$J46,$E46&amp;"M",Calendar,$F46,$G46,$H46,$L$4,$I46,B46,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3S12#0002</v>
+        <v>EUR_YC3MRH_3S12#0001</v>
       </c>
       <c r="M46" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -17429,7 +17423,7 @@
       </c>
       <c r="L47" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K47,$J47,$E47&amp;"M",Calendar,$F47,$G47,$H47,$L$4,$I47,B47,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_4S12#0002</v>
+        <v>EUR_YC3MRH_4S12#0001</v>
       </c>
       <c r="M47" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -17474,7 +17468,7 @@
       </c>
       <c r="L48" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K48,$J48,$E48&amp;"M",Calendar,$F48,$G48,$H48,$L$4,$I48,B48,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S24#0002</v>
+        <v>EUR_YC3MRH_1S24#0001</v>
       </c>
       <c r="M48" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -17519,7 +17513,7 @@
       </c>
       <c r="L49" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K49,$J49,$E49&amp;"M",Calendar,$F49,$G49,$H49,$L$4,$I49,B49,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2S24#0002</v>
+        <v>EUR_YC3MRH_2S24#0001</v>
       </c>
       <c r="M49" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -17564,7 +17558,7 @@
       </c>
       <c r="L50" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K50,$J50,$E50&amp;"M",Calendar,$F50,$G50,$H50,$L$4,$I50,B50,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S36#0002</v>
+        <v>EUR_YC3MRH_1S36#0001</v>
       </c>
       <c r="M50" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -17740,7 +17734,7 @@
       </c>
       <c r="L4" s="192" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC3MRH_AB3EBASIS_ibor3M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS_ibor3M#0001</v>
       </c>
       <c r="M4" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -17804,7 +17798,7 @@
       </c>
       <c r="L6" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS1Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS1Y#0001</v>
       </c>
       <c r="M6" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -17857,7 +17851,7 @@
       </c>
       <c r="L7" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS15M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS15M#0001</v>
       </c>
       <c r="M7" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -17906,7 +17900,7 @@
       </c>
       <c r="L8" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS18M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS18M#0001</v>
       </c>
       <c r="M8" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -17955,7 +17949,7 @@
       </c>
       <c r="L9" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS21M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS21M#0001</v>
       </c>
       <c r="M9" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -18004,7 +17998,7 @@
       </c>
       <c r="L10" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS2Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS2Y#0001</v>
       </c>
       <c r="M10" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -18062,7 +18056,7 @@
       </c>
       <c r="L11" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS3Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS3Y#0001</v>
       </c>
       <c r="M11" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -18120,7 +18114,7 @@
       </c>
       <c r="L12" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS4Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS4Y#0001</v>
       </c>
       <c r="M12" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -18178,7 +18172,7 @@
       </c>
       <c r="L13" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS5Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS5Y#0001</v>
       </c>
       <c r="M13" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -18236,7 +18230,7 @@
       </c>
       <c r="L14" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS6Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS6Y#0001</v>
       </c>
       <c r="M14" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -18294,7 +18288,7 @@
       </c>
       <c r="L15" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS7Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS7Y#0001</v>
       </c>
       <c r="M15" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -18346,7 +18340,7 @@
       </c>
       <c r="L16" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS8Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS8Y#0001</v>
       </c>
       <c r="M16" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -18395,7 +18389,7 @@
       </c>
       <c r="L17" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS9Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS9Y#0001</v>
       </c>
       <c r="M17" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -18444,7 +18438,7 @@
       </c>
       <c r="L18" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS10Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS10Y#0001</v>
       </c>
       <c r="M18" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -18493,7 +18487,7 @@
       </c>
       <c r="L19" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS11Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS11Y#0001</v>
       </c>
       <c r="M19" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -18542,7 +18536,7 @@
       </c>
       <c r="L20" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS12Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS12Y#0001</v>
       </c>
       <c r="M20" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -18591,7 +18585,7 @@
       </c>
       <c r="L21" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS13Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS13Y#0001</v>
       </c>
       <c r="M21" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -18640,7 +18634,7 @@
       </c>
       <c r="L22" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS14Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS14Y#0001</v>
       </c>
       <c r="M22" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -18689,7 +18683,7 @@
       </c>
       <c r="L23" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS15Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS15Y#0001</v>
       </c>
       <c r="M23" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -18738,7 +18732,7 @@
       </c>
       <c r="L24" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS16Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS16Y#0001</v>
       </c>
       <c r="M24" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -18787,7 +18781,7 @@
       </c>
       <c r="L25" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS17Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS17Y#0001</v>
       </c>
       <c r="M25" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -18836,7 +18830,7 @@
       </c>
       <c r="L26" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS18Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS18Y#0001</v>
       </c>
       <c r="M26" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -18885,7 +18879,7 @@
       </c>
       <c r="L27" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS19Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS19Y#0001</v>
       </c>
       <c r="M27" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -18934,7 +18928,7 @@
       </c>
       <c r="L28" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS20Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS20Y#0001</v>
       </c>
       <c r="M28" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -18983,7 +18977,7 @@
       </c>
       <c r="L29" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS21Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS21Y#0001</v>
       </c>
       <c r="M29" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -19032,7 +19026,7 @@
       </c>
       <c r="L30" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS22Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS22Y#0001</v>
       </c>
       <c r="M30" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -19081,7 +19075,7 @@
       </c>
       <c r="L31" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS23Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS23Y#0001</v>
       </c>
       <c r="M31" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -19130,7 +19124,7 @@
       </c>
       <c r="L32" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS24Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS24Y#0001</v>
       </c>
       <c r="M32" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -19179,7 +19173,7 @@
       </c>
       <c r="L33" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS25Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS25Y#0001</v>
       </c>
       <c r="M33" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -19228,7 +19222,7 @@
       </c>
       <c r="L34" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS26Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS26Y#0001</v>
       </c>
       <c r="M34" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -19277,7 +19271,7 @@
       </c>
       <c r="L35" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS27Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS27Y#0001</v>
       </c>
       <c r="M35" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -19326,7 +19320,7 @@
       </c>
       <c r="L36" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS28Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS28Y#0001</v>
       </c>
       <c r="M36" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -19375,7 +19369,7 @@
       </c>
       <c r="L37" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS29Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS29Y#0001</v>
       </c>
       <c r="M37" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -19424,7 +19418,7 @@
       </c>
       <c r="L38" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS30Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS30Y#0001</v>
       </c>
       <c r="M38" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -19473,7 +19467,7 @@
       </c>
       <c r="L39" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS35Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS35Y#0001</v>
       </c>
       <c r="M39" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -19522,7 +19516,7 @@
       </c>
       <c r="L40" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS40Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS40Y#0001</v>
       </c>
       <c r="M40" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -19571,7 +19565,7 @@
       </c>
       <c r="L41" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS50Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS50Y#0001</v>
       </c>
       <c r="M41" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -19620,7 +19614,7 @@
       </c>
       <c r="L42" s="175" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS60Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS60Y#0001</v>
       </c>
       <c r="M42" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/EUR_YC3MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YC3MBootstrapping.xlsx
@@ -1817,6 +1817,21 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1841,21 +1856,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2172,8 +2172,8 @@
   </sheetPr>
   <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2199,19 +2199,19 @@
       </c>
     </row>
     <row r="2" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="216"/>
-      <c r="K2" s="214" t="s">
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="221"/>
+      <c r="K2" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="217"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="222"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="56"/>
@@ -2243,7 +2243,7 @@
         <v>122</v>
       </c>
       <c r="M4" s="115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="120"/>
     </row>
@@ -2267,10 +2267,7 @@
       <c r="L5" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="M5" s="123" t="str">
-        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data2\XML\</v>
-      </c>
+      <c r="M5" s="123"/>
       <c r="N5" s="120"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
@@ -2350,12 +2347,12 @@
       </c>
       <c r="E9" s="55"/>
       <c r="F9" s="54"/>
-      <c r="K9" s="214" t="s">
+      <c r="K9" s="219" t="s">
         <v>119</v>
       </c>
-      <c r="L9" s="215"/>
-      <c r="M9" s="215"/>
-      <c r="N9" s="217"/>
+      <c r="L9" s="220"/>
+      <c r="M9" s="220"/>
+      <c r="N9" s="222"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="56"/>
@@ -2377,9 +2374,7 @@
       <c r="C11" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="81">
-        <v>41733.617430555554</v>
-      </c>
+      <c r="D11" s="81"/>
       <c r="E11" s="55"/>
       <c r="F11" s="54"/>
       <c r="K11" s="114"/>
@@ -2432,7 +2427,7 @@
       </c>
       <c r="D14" s="78" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYC3M#0003</v>
+        <v>_EURYC3M#0001</v>
       </c>
       <c r="E14" s="55"/>
       <c r="F14" s="54"/>
@@ -2597,7 +2592,7 @@
       <c r="B27" s="56"/>
       <c r="C27" s="60">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="D27" s="59">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2610,21 +2605,21 @@
       <c r="B28" s="56"/>
       <c r="C28" s="58">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63653</v>
+        <v>63654</v>
       </c>
       <c r="D28" s="57">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.21516481239633858</v>
+        <v>0.21478731757224265</v>
       </c>
       <c r="E28" s="55"/>
       <c r="F28" s="54"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="56"/>
-      <c r="C29" s="225" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="227" t="str">
+      <c r="C29" s="216" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="218" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
         <v/>
       </c>
@@ -2633,10 +2628,10 @@
     </row>
     <row r="30" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="56"/>
-      <c r="C30" s="224" t="s">
+      <c r="C30" s="215" t="s">
         <v>150</v>
       </c>
-      <c r="D30" s="226" t="b">
+      <c r="D30" s="217" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(C30,YieldCurve)</f>
         <v>1</v>
       </c>
@@ -2645,8 +2640,8 @@
     </row>
     <row r="31" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="53"/>
-      <c r="C31" s="223"/>
-      <c r="D31" s="223"/>
+      <c r="C31" s="214"/>
+      <c r="D31" s="214"/>
       <c r="E31" s="52"/>
       <c r="F31" s="51"/>
     </row>
@@ -2694,8 +2689,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N162"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2719,11 +2714,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="218" t="s">
+      <c r="B1" s="223" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="219"/>
-      <c r="D1" s="220"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="225"/>
       <c r="E1" s="50" t="s">
         <v>74</v>
       </c>
@@ -2757,11 +2752,11 @@
       </c>
       <c r="E2" s="34" t="str">
         <f>Deposits_3M!K3</f>
-        <v>EUR_YC3MRH_SND#0002</v>
+        <v>EUR_YC3MRH_SND#0001</v>
       </c>
       <c r="F2" s="33">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>3.4880000000000002E-3</v>
+        <v>3.7320000000000001E-3</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="32" t="b">
@@ -2775,11 +2770,11 @@
       </c>
       <c r="K2" s="31">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L2" s="30">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41738</v>
+        <v>41740</v>
       </c>
       <c r="M2" s="1">
         <v>30</v>
@@ -2796,11 +2791,11 @@
       </c>
       <c r="E3" s="34" t="str">
         <f>Deposits_3M!K4</f>
-        <v>EUR_YC3MRH_SWD#0002</v>
+        <v>EUR_YC3MRH_SWD#0001</v>
       </c>
       <c r="F3" s="33">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
-        <v>3.215E-3</v>
+        <v>3.3140000000000001E-3</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="32" t="b">
@@ -2814,11 +2809,11 @@
       </c>
       <c r="K3" s="31">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L3" s="30">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41744</v>
+        <v>41746</v>
       </c>
       <c r="M3" s="1">
         <v>40</v>
@@ -2835,11 +2830,11 @@
       </c>
       <c r="E4" s="34" t="str">
         <f>Deposits_3M!K5</f>
-        <v>EUR_YC3MRH_2WD#0002</v>
+        <v>EUR_YC3MRH_2WD#0001</v>
       </c>
       <c r="F4" s="33">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>3.405E-3</v>
+        <v>3.4680000000000002E-3</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="32" t="b">
@@ -2853,11 +2848,11 @@
       </c>
       <c r="K4" s="31">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L4" s="30">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41751</v>
+        <v>41753</v>
       </c>
       <c r="M4" s="1">
         <v>50</v>
@@ -2874,11 +2869,11 @@
       </c>
       <c r="E5" s="34" t="str">
         <f>Deposits_3M!K6</f>
-        <v>EUR_YC3MRH_3WD#0002</v>
+        <v>EUR_YC3MRH_3WD#0001</v>
       </c>
       <c r="F5" s="33">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>3.3449999999999999E-3</v>
+        <v>3.4840000000000001E-3</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="32" t="b">
@@ -2892,11 +2887,11 @@
       </c>
       <c r="K5" s="31">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L5" s="30">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41758</v>
+        <v>41761</v>
       </c>
       <c r="M5" s="1">
         <v>60</v>
@@ -2913,11 +2908,11 @@
       </c>
       <c r="E6" s="34" t="str">
         <f>Deposits_3M!K7</f>
-        <v>EUR_YC3MRH_1MD#0002</v>
+        <v>EUR_YC3MRH_1MD#0001</v>
       </c>
       <c r="F6" s="33">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>3.3249999999999998E-3</v>
+        <v>3.3930000000000002E-3</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="32" t="b">
@@ -2931,11 +2926,11 @@
       </c>
       <c r="K6" s="31">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L6" s="30">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41767</v>
+        <v>41771</v>
       </c>
       <c r="M6" s="1">
         <v>70</v>
@@ -2952,11 +2947,11 @@
       </c>
       <c r="E7" s="34" t="str">
         <f>Deposits_3M!K8</f>
-        <v>EUR_YC3MRH_2MD#0002</v>
+        <v>EUR_YC3MRH_2MD#0001</v>
       </c>
       <c r="F7" s="33">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>3.2239999999999999E-3</v>
+        <v>3.3110000000000001E-3</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="32" t="b">
@@ -2970,11 +2965,11 @@
       </c>
       <c r="K7" s="31">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L7" s="30">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41799</v>
+        <v>41800</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -2985,11 +2980,11 @@
       </c>
       <c r="E8" s="34" t="str">
         <f>Deposits_3M!K9</f>
-        <v>EUR_YC3MRH_3MD#0002</v>
+        <v>EUR_YC3MRH_3MD#0001</v>
       </c>
       <c r="F8" s="33">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>3.2499999999999999E-3</v>
+        <v>3.2699999999999999E-3</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="32" t="b">
@@ -3003,11 +2998,11 @@
       </c>
       <c r="K8" s="31">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L8" s="30">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41828</v>
+        <v>41830</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -3023,7 +3018,7 @@
       </c>
       <c r="E9" s="42" t="str">
         <f>FRAs_3M!H3</f>
-        <v>EUR_YC3MRH_T3F1#0002</v>
+        <v>EUR_YC3MRH_T3F1#0001</v>
       </c>
       <c r="F9" s="41" t="e">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
@@ -3041,11 +3036,11 @@
       </c>
       <c r="K9" s="39">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L9" s="38">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41828</v>
+        <v>41830</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -3061,7 +3056,7 @@
       </c>
       <c r="E10" s="27" t="str">
         <f>FRAs_3M!H4</f>
-        <v>EUR_YC3MRH_TOM3F1#0002</v>
+        <v>EUR_YC3MRH_TOM3F1#0001</v>
       </c>
       <c r="F10" s="26" t="e">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
@@ -3079,11 +3074,11 @@
       </c>
       <c r="K10" s="24">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41738</v>
+        <v>41740</v>
       </c>
       <c r="L10" s="23">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41829</v>
+        <v>41831</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -3103,7 +3098,7 @@
       </c>
       <c r="F11" s="33">
         <f>_xll.qlRateHelperQuoteValue($E11,Trigger)</f>
-        <v>3.2799999999999995E-3</v>
+        <v>3.1999999999999997E-3</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="32" t="b">
@@ -3117,11 +3112,11 @@
       </c>
       <c r="K11" s="31">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41767</v>
+        <v>41771</v>
       </c>
       <c r="L11" s="30">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>41859</v>
+        <v>41863</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
@@ -3141,7 +3136,7 @@
       </c>
       <c r="F12" s="33">
         <f>_xll.qlRateHelperQuoteValue($E12,Trigger)</f>
-        <v>3.0999999999999999E-3</v>
+        <v>2.9600000000000004E-3</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="32" t="b">
@@ -3155,11 +3150,11 @@
       </c>
       <c r="K12" s="31">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41799</v>
+        <v>41800</v>
       </c>
       <c r="L12" s="30">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>41891</v>
+        <v>41892</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
@@ -3179,7 +3174,7 @@
       </c>
       <c r="F13" s="33">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
-        <v>3.0500000000000006E-3</v>
+        <v>2.8900000000000002E-3</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="32" t="b">
@@ -3193,11 +3188,11 @@
       </c>
       <c r="K13" s="31">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41828</v>
+        <v>41830</v>
       </c>
       <c r="L13" s="30">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>41920</v>
+        <v>41922</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
@@ -3217,7 +3212,7 @@
       </c>
       <c r="F14" s="33">
         <f>_xll.qlRateHelperQuoteValue($E14,Trigger)</f>
-        <v>2.9800000000000004E-3</v>
+        <v>2.8100000000000004E-3</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="32" t="b">
@@ -3231,11 +3226,11 @@
       </c>
       <c r="K14" s="31">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>41859</v>
+        <v>41862</v>
       </c>
       <c r="L14" s="30">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>41953</v>
+        <v>41954</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
@@ -3255,7 +3250,7 @@
       </c>
       <c r="F15" s="33">
         <f>_xll.qlRateHelperQuoteValue($E15,Trigger)</f>
-        <v>2.9100000000000003E-3</v>
+        <v>2.7400000000000002E-3</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="32" t="b">
@@ -3269,11 +3264,11 @@
       </c>
       <c r="K15" s="31">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>41890</v>
+        <v>41892</v>
       </c>
       <c r="L15" s="30">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>41981</v>
+        <v>41983</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
@@ -3293,7 +3288,7 @@
       </c>
       <c r="F16" s="33">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>2.9600000000000004E-3</v>
+        <v>2.8100000000000004E-3</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="32" t="b">
@@ -3307,11 +3302,11 @@
       </c>
       <c r="K16" s="31">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41920</v>
+        <v>41922</v>
       </c>
       <c r="L16" s="30">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>42012</v>
+        <v>42016</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3785,11 +3780,11 @@
       </c>
       <c r="E29" s="34" t="str">
         <f>Futures_3M!I3</f>
-        <v>EUR_YC3MRH_FUT3MJ4#0002</v>
+        <v>EUR_YC3MRH_FUT3MJ4#0001</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlRateHelperQuoteValue($E29,Trigger)</f>
-        <v>99.667500000000004</v>
+        <v>99.672499999999999</v>
       </c>
       <c r="G29" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E29,Trigger)</f>
@@ -3827,7 +3822,7 @@
       </c>
       <c r="E30" s="34" t="str">
         <f>Futures_3M!I4</f>
-        <v>EUR_YC3MRH_FUT3MK4#0002</v>
+        <v>EUR_YC3MRH_FUT3MK4#0001</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlRateHelperQuoteValue($E30,Trigger)</f>
@@ -3869,11 +3864,11 @@
       </c>
       <c r="E31" s="34" t="str">
         <f>Futures_3M!I5</f>
-        <v>EUR_YC3MRH_FUT3MM4#0002</v>
+        <v>EUR_YC3MRH_FUT3MM4#0001</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlRateHelperQuoteValue($E31,Trigger)</f>
-        <v>99.692499999999995</v>
+        <v>99.707499999999996</v>
       </c>
       <c r="G31" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E31,Trigger)</f>
@@ -3911,7 +3906,7 @@
       </c>
       <c r="E32" s="34" t="str">
         <f>Futures_3M!I6</f>
-        <v>EUR_YC3MRH_FUT3MN4#0002</v>
+        <v>EUR_YC3MRH_FUT3MN4#0001</v>
       </c>
       <c r="F32" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E32,Trigger)</f>
@@ -3953,7 +3948,7 @@
       </c>
       <c r="E33" s="34" t="str">
         <f>Futures_3M!I7</f>
-        <v>EUR_YC3MRH_FUT3MQ4#0002</v>
+        <v>EUR_YC3MRH_FUT3MQ4#0001</v>
       </c>
       <c r="F33" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E33,Trigger)</f>
@@ -3995,11 +3990,11 @@
       </c>
       <c r="E34" s="34" t="str">
         <f>Futures_3M!I8</f>
-        <v>EUR_YC3MRH_FUT3MU4#0002</v>
+        <v>EUR_YC3MRH_FUT3MU4#0001</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
-        <v>99.710000000000008</v>
+        <v>99.727499999999992</v>
       </c>
       <c r="G34" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E34,Trigger)</f>
@@ -4037,7 +4032,7 @@
       </c>
       <c r="E35" s="34" t="str">
         <f>Futures_3M!I9</f>
-        <v>EUR_YC3MRH_FUT3MV4#0002</v>
+        <v>EUR_YC3MRH_FUT3MV4#0001</v>
       </c>
       <c r="F35" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
@@ -4079,7 +4074,7 @@
       </c>
       <c r="E36" s="34" t="str">
         <f>Futures_3M!I10</f>
-        <v>EUR_YC3MRH_FUT3MX4#0002</v>
+        <v>EUR_YC3MRH_FUT3MX4#0001</v>
       </c>
       <c r="F36" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -4121,11 +4116,11 @@
       </c>
       <c r="E37" s="34" t="str">
         <f>Futures_3M!I11</f>
-        <v>EUR_YC3MRH_FUT3MZ4#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ4#0001</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
-        <v>99.702500000000001</v>
+        <v>99.717500000000001</v>
       </c>
       <c r="G37" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E37,Trigger)</f>
@@ -4163,7 +4158,7 @@
       </c>
       <c r="E38" s="34" t="str">
         <f>Futures_3M!I12</f>
-        <v>EUR_YC3MRH_FUT3MF5#0002</v>
+        <v>EUR_YC3MRH_FUT3MF5#0001</v>
       </c>
       <c r="F38" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4205,7 +4200,7 @@
       </c>
       <c r="E39" s="34" t="str">
         <f>Futures_3M!I13</f>
-        <v>EUR_YC3MRH_FUT3MG5#0002</v>
+        <v>EUR_YC3MRH_FUT3MG5#0001</v>
       </c>
       <c r="F39" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4247,11 +4242,11 @@
       </c>
       <c r="E40" s="34" t="str">
         <f>Futures_3M!I14</f>
-        <v>EUR_YC3MRH_FUT3MH5#0002</v>
+        <v>EUR_YC3MRH_FUT3MH5#0001</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
-        <v>99.682500000000005</v>
+        <v>99.692499999999995</v>
       </c>
       <c r="G40" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E40,Trigger)</f>
@@ -4289,11 +4284,11 @@
       </c>
       <c r="E41" s="34" t="str">
         <f>Futures_3M!I15</f>
-        <v>EUR_YC3MRH_FUT3MM5#0002</v>
+        <v>EUR_YC3MRH_FUT3MM5#0001</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>99.647500000000008</v>
+        <v>99.657499999999999</v>
       </c>
       <c r="G41" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E41,Trigger)</f>
@@ -4331,11 +4326,11 @@
       </c>
       <c r="E42" s="34" t="str">
         <f>Futures_3M!I16</f>
-        <v>EUR_YC3MRH_FUT3MU5#0002</v>
+        <v>EUR_YC3MRH_FUT3MU5#0001</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>99.597499999999997</v>
+        <v>99.612499999999997</v>
       </c>
       <c r="G42" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E42,Trigger)</f>
@@ -4373,11 +4368,11 @@
       </c>
       <c r="E43" s="34" t="str">
         <f>Futures_3M!I17</f>
-        <v>EUR_YC3MRH_FUT3MZ5#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ5#0001</v>
       </c>
       <c r="F43" s="48">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
-        <v>99.532499999999999</v>
+        <v>99.552500000000009</v>
       </c>
       <c r="G43" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E43,Trigger)</f>
@@ -4415,11 +4410,11 @@
       </c>
       <c r="E44" s="34" t="str">
         <f>Futures_3M!I18</f>
-        <v>EUR_YC3MRH_FUT3MH6#0002</v>
+        <v>EUR_YC3MRH_FUT3MH6#0001</v>
       </c>
       <c r="F44" s="48">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>99.457499999999996</v>
+        <v>99.482500000000002</v>
       </c>
       <c r="G44" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E44,Trigger)</f>
@@ -4457,11 +4452,11 @@
       </c>
       <c r="E45" s="34" t="str">
         <f>Futures_3M!I19</f>
-        <v>EUR_YC3MRH_FUT3MM6#0002</v>
+        <v>EUR_YC3MRH_FUT3MM6#0001</v>
       </c>
       <c r="F45" s="48">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>99.362499999999997</v>
+        <v>99.397500000000008</v>
       </c>
       <c r="G45" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
@@ -4499,11 +4494,11 @@
       </c>
       <c r="E46" s="34" t="str">
         <f>Futures_3M!I20</f>
-        <v>EUR_YC3MRH_FUT3MU6#0002</v>
+        <v>EUR_YC3MRH_FUT3MU6#0001</v>
       </c>
       <c r="F46" s="48">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
-        <v>99.252499999999998</v>
+        <v>99.295000000000002</v>
       </c>
       <c r="G46" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E46,Trigger)</f>
@@ -4541,11 +4536,11 @@
       </c>
       <c r="E47" s="34" t="str">
         <f>Futures_3M!I21</f>
-        <v>EUR_YC3MRH_FUT3MZ6#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ6#0001</v>
       </c>
       <c r="F47" s="48">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>99.137500000000003</v>
+        <v>99.1875</v>
       </c>
       <c r="G47" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
@@ -4583,11 +4578,11 @@
       </c>
       <c r="E48" s="34" t="str">
         <f>Futures_3M!I22</f>
-        <v>EUR_YC3MRH_FUT3MH7#0002</v>
+        <v>EUR_YC3MRH_FUT3MH7#0001</v>
       </c>
       <c r="F48" s="48">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>99.03</v>
+        <v>99.087500000000006</v>
       </c>
       <c r="G48" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E48,Trigger)</f>
@@ -4625,11 +4620,11 @@
       </c>
       <c r="E49" s="34" t="str">
         <f>Futures_3M!I23</f>
-        <v>EUR_YC3MRH_FUT3MM7#0002</v>
+        <v>EUR_YC3MRH_FUT3MM7#0001</v>
       </c>
       <c r="F49" s="48">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
-        <v>98.907499999999999</v>
+        <v>98.967500000000001</v>
       </c>
       <c r="G49" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E49,Trigger)</f>
@@ -4667,11 +4662,11 @@
       </c>
       <c r="E50" s="34" t="str">
         <f>Futures_3M!I24</f>
-        <v>EUR_YC3MRH_FUT3MU7#0002</v>
+        <v>EUR_YC3MRH_FUT3MU7#0001</v>
       </c>
       <c r="F50" s="48">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>98.789999999999992</v>
+        <v>98.852499999999992</v>
       </c>
       <c r="G50" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E50,Trigger)</f>
@@ -4709,11 +4704,11 @@
       </c>
       <c r="E51" s="34" t="str">
         <f>Futures_3M!I25</f>
-        <v>EUR_YC3MRH_FUT3MZ7#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ7#0001</v>
       </c>
       <c r="F51" s="48">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>98.67</v>
+        <v>98.732500000000002</v>
       </c>
       <c r="G51" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E51,Trigger)</f>
@@ -4751,11 +4746,11 @@
       </c>
       <c r="E52" s="34" t="str">
         <f>Futures_3M!I26</f>
-        <v>EUR_YC3MRH_FUT3MH8#0002</v>
+        <v>EUR_YC3MRH_FUT3MH8#0001</v>
       </c>
       <c r="F52" s="48">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>98.564999999999998</v>
+        <v>98.625</v>
       </c>
       <c r="G52" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E52,Trigger)</f>
@@ -4793,11 +4788,11 @@
       </c>
       <c r="E53" s="34" t="str">
         <f>Futures_3M!I27</f>
-        <v>EUR_YC3MRH_FUT3MM8#0002</v>
+        <v>EUR_YC3MRH_FUT3MM8#0001</v>
       </c>
       <c r="F53" s="48">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>98.462500000000006</v>
+        <v>98.517500000000013</v>
       </c>
       <c r="G53" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E53,Trigger)</f>
@@ -4835,11 +4830,11 @@
       </c>
       <c r="E54" s="34" t="str">
         <f>Futures_3M!I28</f>
-        <v>EUR_YC3MRH_FUT3MU8#0002</v>
+        <v>EUR_YC3MRH_FUT3MU8#0001</v>
       </c>
       <c r="F54" s="48">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>98.36</v>
+        <v>98.414999999999992</v>
       </c>
       <c r="G54" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E54,Trigger)</f>
@@ -4877,11 +4872,11 @@
       </c>
       <c r="E55" s="34" t="str">
         <f>Futures_3M!I29</f>
-        <v>EUR_YC3MRH_FUT3MZ8#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ8#0001</v>
       </c>
       <c r="F55" s="48">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>98.25</v>
+        <v>98.297499999999999</v>
       </c>
       <c r="G55" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E55,Trigger)</f>
@@ -4919,11 +4914,11 @@
       </c>
       <c r="E56" s="34" t="str">
         <f>Futures_3M!I30</f>
-        <v>EUR_YC3MRH_FUT3MH9#0002</v>
+        <v>EUR_YC3MRH_FUT3MH9#0001</v>
       </c>
       <c r="F56" s="48">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>98.147500000000008</v>
+        <v>98.197499999999991</v>
       </c>
       <c r="G56" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E56,Trigger)</f>
@@ -4961,11 +4956,11 @@
       </c>
       <c r="E57" s="34" t="str">
         <f>Futures_3M!I31</f>
-        <v>EUR_YC3MRH_FUT3MM9#0002</v>
+        <v>EUR_YC3MRH_FUT3MM9#0001</v>
       </c>
       <c r="F57" s="48">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>98.04</v>
+        <v>98.087500000000006</v>
       </c>
       <c r="G57" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E57,Trigger)</f>
@@ -5003,11 +4998,11 @@
       </c>
       <c r="E58" s="34" t="str">
         <f>Futures_3M!I32</f>
-        <v>EUR_YC3MRH_FUT3MU9#0002</v>
+        <v>EUR_YC3MRH_FUT3MU9#0001</v>
       </c>
       <c r="F58" s="48">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>97.935000000000002</v>
+        <v>97.984999999999999</v>
       </c>
       <c r="G58" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E58,Trigger)</f>
@@ -5045,11 +5040,11 @@
       </c>
       <c r="E59" s="34" t="str">
         <f>Futures_3M!I33</f>
-        <v>EUR_YC3MRH_FUT3MZ9#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ9#0001</v>
       </c>
       <c r="F59" s="48">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>97.84</v>
+        <v>97.884999999999991</v>
       </c>
       <c r="G59" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E59,Trigger)</f>
@@ -5087,11 +5082,11 @@
       </c>
       <c r="E60" s="34" t="str">
         <f>Futures_3M!I34</f>
-        <v>EUR_YC3MRH_FUT3MH0#0002</v>
+        <v>EUR_YC3MRH_FUT3MH0#0001</v>
       </c>
       <c r="F60" s="48">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>97.742500000000007</v>
+        <v>97.789999999999992</v>
       </c>
       <c r="G60" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E60,Trigger)</f>
@@ -5129,7 +5124,7 @@
       </c>
       <c r="E61" s="34" t="str">
         <f>Futures_3M!I35</f>
-        <v>EUR_YC3MRH_FUT3MM0#0002</v>
+        <v>EUR_YC3MRH_FUT3MM0#0001</v>
       </c>
       <c r="F61" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
@@ -5171,7 +5166,7 @@
       </c>
       <c r="E62" s="34" t="str">
         <f>Futures_3M!I36</f>
-        <v>EUR_YC3MRH_FUT3MU0#0002</v>
+        <v>EUR_YC3MRH_FUT3MU0#0001</v>
       </c>
       <c r="F62" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
@@ -5213,7 +5208,7 @@
       </c>
       <c r="E63" s="34" t="str">
         <f>Futures_3M!I37</f>
-        <v>EUR_YC3MRH_FUT3MZ0#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ0#0001</v>
       </c>
       <c r="F63" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
@@ -5255,7 +5250,7 @@
       </c>
       <c r="E64" s="34" t="str">
         <f>Futures_3M!I38</f>
-        <v>EUR_YC3MRH_FUT3MH1#0002</v>
+        <v>EUR_YC3MRH_FUT3MH1#0001</v>
       </c>
       <c r="F64" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
@@ -5297,7 +5292,7 @@
       </c>
       <c r="E65" s="34" t="str">
         <f>Futures_3M!I39</f>
-        <v>EUR_YC3MRH_FUT3MM1#0002</v>
+        <v>EUR_YC3MRH_FUT3MM1#0001</v>
       </c>
       <c r="F65" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
@@ -5339,7 +5334,7 @@
       </c>
       <c r="E66" s="34" t="str">
         <f>Futures_3M!I40</f>
-        <v>EUR_YC3MRH_FUT3MU1#0002</v>
+        <v>EUR_YC3MRH_FUT3MU1#0001</v>
       </c>
       <c r="F66" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
@@ -5381,7 +5376,7 @@
       </c>
       <c r="E67" s="34" t="str">
         <f>Futures_3M!I41</f>
-        <v>EUR_YC3MRH_FUT3MZ1#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ1#0001</v>
       </c>
       <c r="F67" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
@@ -5423,7 +5418,7 @@
       </c>
       <c r="E68" s="34" t="str">
         <f>Futures_3M!I42</f>
-        <v>EUR_YC3MRH_FUT3MH2#0002</v>
+        <v>EUR_YC3MRH_FUT3MH2#0001</v>
       </c>
       <c r="F68" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
@@ -5465,7 +5460,7 @@
       </c>
       <c r="E69" s="34" t="str">
         <f>Futures_3M!I43</f>
-        <v>EUR_YC3MRH_FUT3MM2#0002</v>
+        <v>EUR_YC3MRH_FUT3MM2#0001</v>
       </c>
       <c r="F69" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
@@ -5507,7 +5502,7 @@
       </c>
       <c r="E70" s="27" t="str">
         <f>Futures_3M!I44</f>
-        <v>EUR_YC3MRH_FUT3MU2#0002</v>
+        <v>EUR_YC3MRH_FUT3MU2#0001</v>
       </c>
       <c r="F70" s="47" t="e">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
@@ -5970,7 +5965,7 @@
       </c>
       <c r="F82" s="41">
         <f>_xll.qlRateHelperQuoteValue($E82,Trigger)</f>
-        <v>3.0300000000000006E-3</v>
+        <v>2.9000000000000002E-3</v>
       </c>
       <c r="G82" s="41">
         <f>_xll.qlSwapRateHelperSpread($E82,Trigger)</f>
@@ -5987,11 +5982,11 @@
       </c>
       <c r="K82" s="39">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L82" s="38">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.2">
@@ -6008,7 +6003,7 @@
       </c>
       <c r="F83" s="33">
         <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
-        <v>3.14E-3</v>
+        <v>3.0100000000000005E-3</v>
       </c>
       <c r="G83" s="33">
         <f>_xll.qlSwapRateHelperSpread($E83,Trigger)</f>
@@ -6025,11 +6020,11 @@
       </c>
       <c r="K83" s="31">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L83" s="30">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
@@ -6046,7 +6041,7 @@
       </c>
       <c r="F84" s="33">
         <f>_xll.qlRateHelperQuoteValue($E84,Trigger)</f>
-        <v>3.4199999999999999E-3</v>
+        <v>3.2999999999999995E-3</v>
       </c>
       <c r="G84" s="33">
         <f>_xll.qlSwapRateHelperSpread($E84,Trigger)</f>
@@ -6063,11 +6058,11 @@
       </c>
       <c r="K84" s="31">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L84" s="30">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.2">
@@ -6084,7 +6079,7 @@
       </c>
       <c r="F85" s="33">
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
-        <v>3.8400000000000001E-3</v>
+        <v>3.6900000000000001E-3</v>
       </c>
       <c r="G85" s="33">
         <f>_xll.qlSwapRateHelperSpread($E85,Trigger)</f>
@@ -6101,11 +6096,11 @@
       </c>
       <c r="K85" s="31">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L85" s="30">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.2">
@@ -6122,7 +6117,7 @@
       </c>
       <c r="F86" s="33">
         <f>_xll.qlRateHelperQuoteValue($E86,Trigger)</f>
-        <v>3.7099999999999998E-3</v>
+        <v>3.5499999999999998E-3</v>
       </c>
       <c r="G86" s="33">
         <f>_xll.qlSwapRateHelperSpread($E86,Trigger)</f>
@@ -6139,11 +6134,11 @@
       </c>
       <c r="K86" s="31">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L86" s="30">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>42468</v>
+        <v>42471</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
@@ -6160,7 +6155,7 @@
       </c>
       <c r="F87" s="33">
         <f>_xll.qlRateHelperQuoteValue($E87,Trigger)</f>
-        <v>4.1400000000000005E-3</v>
+        <v>3.9500000000000004E-3</v>
       </c>
       <c r="G87" s="33">
         <f>_xll.qlSwapRateHelperSpread($E87,Trigger)</f>
@@ -6177,11 +6172,11 @@
       </c>
       <c r="K87" s="31">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L87" s="30">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>42468</v>
+        <v>42471</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.2">
@@ -6198,7 +6193,7 @@
       </c>
       <c r="F88" s="26">
         <f>_xll.qlRateHelperQuoteValue($E88,Trigger)</f>
-        <v>5.1500000000000001E-3</v>
+        <v>4.8900000000000002E-3</v>
       </c>
       <c r="G88" s="26">
         <f>_xll.qlSwapRateHelperSpread($E88,Trigger)</f>
@@ -6215,7 +6210,7 @@
       </c>
       <c r="K88" s="24">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L88" s="23">
         <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
@@ -6236,11 +6231,11 @@
       </c>
       <c r="E89" s="34" t="str">
         <f>Swaps_3M!L6</f>
-        <v>EUR_YC3MRH_AB3E1Y#0002</v>
+        <v>EUR_YC3MRH_AB3E1Y#0001</v>
       </c>
       <c r="F89" s="33">
         <f>_xll.qlRateHelperQuoteValue($E89,Trigger)</f>
-        <v>3.0999999999999999E-3</v>
+        <v>2.9900000000000005E-3</v>
       </c>
       <c r="G89" s="33">
         <f>_xll.qlSwapRateHelperSpread($E89,Trigger)</f>
@@ -6257,15 +6252,15 @@
       </c>
       <c r="K89" s="31">
         <f>_xll.qlRateHelperEarliestDate($E89,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L89" s="30">
         <f>_xll.qlRateHelperLatestDate($E89,Trigger)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
       <c r="N89" s="37">
         <f t="shared" ref="N89:N125" si="7">IF(G89=G126,F89-F126,"--")</f>
-        <v>-8.6736173798840355E-19</v>
+        <v>5.0000000000006636E-6</v>
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.2">
@@ -6282,11 +6277,11 @@
       </c>
       <c r="E90" s="34" t="str">
         <f>Swaps_3M!L7</f>
-        <v>EUR_YC3MRH_AB3E15M#0002</v>
+        <v>EUR_YC3MRH_AB3E15M#0001</v>
       </c>
       <c r="F90" s="33">
         <f>_xll.qlRateHelperQuoteValue($E90,Trigger)</f>
-        <v>3.14E-3</v>
+        <v>3.0400000000000006E-3</v>
       </c>
       <c r="G90" s="33">
         <f>_xll.qlSwapRateHelperSpread($E90,Trigger)</f>
@@ -6303,15 +6298,15 @@
       </c>
       <c r="K90" s="31">
         <f>_xll.qlRateHelperEarliestDate($E90,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L90" s="30">
         <f>_xll.qlRateHelperLatestDate($E90,Trigger)</f>
-        <v>42193</v>
+        <v>42195</v>
       </c>
       <c r="N90" s="37">
         <f t="shared" si="7"/>
-        <v>2.1900000000000001E-4</v>
+        <v>2.5200000000000049E-4</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.2">
@@ -6328,11 +6323,11 @@
       </c>
       <c r="E91" s="34" t="str">
         <f>Swaps_3M!L8</f>
-        <v>EUR_YC3MRH_AB3E18M#0002</v>
+        <v>EUR_YC3MRH_AB3E18M#0001</v>
       </c>
       <c r="F91" s="33">
         <f>_xll.qlRateHelperQuoteValue($E91,Trigger)</f>
-        <v>3.2399999999999994E-3</v>
+        <v>3.13E-3</v>
       </c>
       <c r="G91" s="33">
         <f>_xll.qlSwapRateHelperSpread($E91,Trigger)</f>
@@ -6349,15 +6344,15 @@
       </c>
       <c r="K91" s="31">
         <f>_xll.qlRateHelperEarliestDate($E91,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L91" s="30">
         <f>_xll.qlRateHelperLatestDate($E91,Trigger)</f>
-        <v>42285</v>
+        <v>42289</v>
       </c>
       <c r="N91" s="37">
         <f t="shared" si="7"/>
-        <v>-1.0000000000000026E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.2">
@@ -6374,11 +6369,11 @@
       </c>
       <c r="E92" s="34" t="str">
         <f>Swaps_3M!L9</f>
-        <v>EUR_YC3MRH_AB3E21M#0002</v>
+        <v>EUR_YC3MRH_AB3E21M#0001</v>
       </c>
       <c r="F92" s="33">
         <f>_xll.qlRateHelperQuoteValue($E92,Trigger)</f>
-        <v>3.3799999999999998E-3</v>
+        <v>3.2699999999999995E-3</v>
       </c>
       <c r="G92" s="33">
         <f>_xll.qlSwapRateHelperSpread($E92,Trigger)</f>
@@ -6395,15 +6390,15 @@
       </c>
       <c r="K92" s="31">
         <f>_xll.qlRateHelperEarliestDate($E92,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L92" s="30">
         <f>_xll.qlRateHelperLatestDate($E92,Trigger)</f>
-        <v>42377</v>
+        <v>42380</v>
       </c>
       <c r="N92" s="37">
         <f t="shared" si="7"/>
-        <v>1.5299999999999992E-4</v>
+        <v>1.6899999999999988E-4</v>
       </c>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.2">
@@ -6420,11 +6415,11 @@
       </c>
       <c r="E93" s="34" t="str">
         <f>Swaps_3M!L10</f>
-        <v>EUR_YC3MRH_AB3E2Y#0002</v>
+        <v>EUR_YC3MRH_AB3E2Y#0001</v>
       </c>
       <c r="F93" s="33">
         <f>_xll.qlRateHelperQuoteValue($E93,Trigger)</f>
-        <v>3.5599999999999998E-3</v>
+        <v>3.4499999999999999E-3</v>
       </c>
       <c r="G93" s="33">
         <f>_xll.qlSwapRateHelperSpread($E93,Trigger)</f>
@@ -6441,15 +6436,15 @@
       </c>
       <c r="K93" s="31">
         <f>_xll.qlRateHelperEarliestDate($E93,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L93" s="30">
         <f>_xll.qlRateHelperLatestDate($E93,Trigger)</f>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="N93" s="37">
         <f t="shared" si="7"/>
-        <v>-5.00000000000023E-6</v>
+        <v>5.0000000000006636E-6</v>
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.2">
@@ -6466,11 +6461,11 @@
       </c>
       <c r="E94" s="34" t="str">
         <f>Swaps_3M!L11</f>
-        <v>EUR_YC3MRH_AB3E3Y#0002</v>
+        <v>EUR_YC3MRH_AB3E3Y#0001</v>
       </c>
       <c r="F94" s="33">
         <f>_xll.qlRateHelperQuoteValue($E94,Trigger)</f>
-        <v>4.8199999999999996E-3</v>
+        <v>4.5899999999999995E-3</v>
       </c>
       <c r="G94" s="33">
         <f>_xll.qlSwapRateHelperSpread($E94,Trigger)</f>
@@ -6487,7 +6482,7 @@
       </c>
       <c r="K94" s="31">
         <f>_xll.qlRateHelperEarliestDate($E94,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L94" s="30">
         <f>_xll.qlRateHelperLatestDate($E94,Trigger)</f>
@@ -6495,7 +6490,7 @@
       </c>
       <c r="N94" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.9999999999997963E-6</v>
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.2">
@@ -6512,11 +6507,11 @@
       </c>
       <c r="E95" s="34" t="str">
         <f>Swaps_3M!L12</f>
-        <v>EUR_YC3MRH_AB3E4Y#0002</v>
+        <v>EUR_YC3MRH_AB3E4Y#0001</v>
       </c>
       <c r="F95" s="33">
         <f>_xll.qlRateHelperQuoteValue($E95,Trigger)</f>
-        <v>6.5300000000000002E-3</v>
+        <v>6.1900000000000002E-3</v>
       </c>
       <c r="G95" s="33">
         <f>_xll.qlSwapRateHelperSpread($E95,Trigger)</f>
@@ -6533,15 +6528,15 @@
       </c>
       <c r="K95" s="31">
         <f>_xll.qlRateHelperEarliestDate($E95,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L95" s="30">
         <f>_xll.qlRateHelperLatestDate($E95,Trigger)</f>
-        <v>43199</v>
+        <v>43200</v>
       </c>
       <c r="N95" s="37">
         <f t="shared" si="7"/>
-        <v>1.5000000000000256E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.2">
@@ -6558,11 +6553,11 @@
       </c>
       <c r="E96" s="34" t="str">
         <f>Swaps_3M!L13</f>
-        <v>EUR_YC3MRH_AB3E5Y#0002</v>
+        <v>EUR_YC3MRH_AB3E5Y#0001</v>
       </c>
       <c r="F96" s="33">
         <f>_xll.qlRateHelperQuoteValue($E96,Trigger)</f>
-        <v>8.3800000000000003E-3</v>
+        <v>7.9899999999999988E-3</v>
       </c>
       <c r="G96" s="33">
         <f>_xll.qlSwapRateHelperSpread($E96,Trigger)</f>
@@ -6579,15 +6574,15 @@
       </c>
       <c r="K96" s="31">
         <f>_xll.qlRateHelperEarliestDate($E96,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L96" s="30">
         <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
-        <v>43563</v>
+        <v>43565</v>
       </c>
       <c r="N96" s="37">
         <f t="shared" si="7"/>
-        <v>2.4999999999998981E-5</v>
+        <v>4.9999999999997963E-6</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.2">
@@ -6604,11 +6599,11 @@
       </c>
       <c r="E97" s="34" t="str">
         <f>Swaps_3M!L14</f>
-        <v>EUR_YC3MRH_AB3E6Y#0002</v>
+        <v>EUR_YC3MRH_AB3E6Y#0001</v>
       </c>
       <c r="F97" s="33">
         <f>_xll.qlRateHelperQuoteValue($E97,Trigger)</f>
-        <v>1.0270000000000001E-2</v>
+        <v>9.8499999999999994E-3</v>
       </c>
       <c r="G97" s="33">
         <f>_xll.qlSwapRateHelperSpread($E97,Trigger)</f>
@@ -6625,15 +6620,15 @@
       </c>
       <c r="K97" s="31">
         <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L97" s="30">
         <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
-        <v>43929</v>
+        <v>43935</v>
       </c>
       <c r="N97" s="37">
         <f t="shared" si="7"/>
-        <v>2.5000000000000716E-5</v>
+        <v>-1.7347234759768071E-18</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.2">
@@ -6650,11 +6645,11 @@
       </c>
       <c r="E98" s="34" t="str">
         <f>Swaps_3M!L15</f>
-        <v>EUR_YC3MRH_AB3E7Y#0002</v>
+        <v>EUR_YC3MRH_AB3E7Y#0001</v>
       </c>
       <c r="F98" s="33">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
-        <v>1.209E-2</v>
+        <v>1.1659999999999998E-2</v>
       </c>
       <c r="G98" s="33">
         <f>_xll.qlSwapRateHelperSpread($E98,Trigger)</f>
@@ -6671,15 +6666,15 @@
       </c>
       <c r="K98" s="31">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L98" s="30">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>44294</v>
+        <v>44298</v>
       </c>
       <c r="N98" s="37">
         <f t="shared" si="7"/>
-        <v>9.9999999999995925E-6</v>
+        <v>4.9999999999980616E-6</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.2">
@@ -6696,11 +6691,11 @@
       </c>
       <c r="E99" s="34" t="str">
         <f>Swaps_3M!L16</f>
-        <v>EUR_YC3MRH_AB3E8Y#0002</v>
+        <v>EUR_YC3MRH_AB3E8Y#0001</v>
       </c>
       <c r="F99" s="33">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
-        <v>1.3820000000000001E-2</v>
+        <v>1.3370000000000002E-2</v>
       </c>
       <c r="G99" s="33">
         <f>_xll.qlSwapRateHelperSpread($E99,Trigger)</f>
@@ -6717,15 +6712,15 @@
       </c>
       <c r="K99" s="31">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L99" s="30">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="N99" s="37">
         <f t="shared" si="7"/>
-        <v>1.5000000000001124E-5</v>
+        <v>1.7347234759768071E-18</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.2">
@@ -6742,11 +6737,11 @@
       </c>
       <c r="E100" s="34" t="str">
         <f>Swaps_3M!L17</f>
-        <v>EUR_YC3MRH_AB3E9Y#0002</v>
+        <v>EUR_YC3MRH_AB3E9Y#0001</v>
       </c>
       <c r="F100" s="33">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
-        <v>1.5390000000000001E-2</v>
+        <v>1.494E-2</v>
       </c>
       <c r="G100" s="33">
         <f>_xll.qlSwapRateHelperSpread($E100,Trigger)</f>
@@ -6763,7 +6758,7 @@
       </c>
       <c r="K100" s="31">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L100" s="30">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
@@ -6771,7 +6766,7 @@
       </c>
       <c r="N100" s="37">
         <f t="shared" si="7"/>
-        <v>1.0000000000001327E-5</v>
+        <v>4.9999999999997963E-6</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.2">
@@ -6788,11 +6783,11 @@
       </c>
       <c r="E101" s="34" t="str">
         <f>Swaps_3M!L18</f>
-        <v>EUR_YC3MRH_AB3E10Y#0002</v>
+        <v>EUR_YC3MRH_AB3E10Y#0001</v>
       </c>
       <c r="F101" s="33">
         <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
-        <v>1.6800000000000002E-2</v>
+        <v>1.635E-2</v>
       </c>
       <c r="G101" s="33">
         <f>_xll.qlSwapRateHelperSpread($E101,Trigger)</f>
@@ -6809,15 +6804,15 @@
       </c>
       <c r="K101" s="31">
         <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L101" s="30">
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="N101" s="37">
         <f t="shared" si="7"/>
-        <v>1.0000000000003062E-5</v>
+        <v>5.000000000001531E-6</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.2">
@@ -6834,11 +6829,11 @@
       </c>
       <c r="E102" s="34" t="str">
         <f>Swaps_3M!L19</f>
-        <v>EUR_YC3MRH_AB3E11Y#0002</v>
+        <v>EUR_YC3MRH_AB3E11Y#0001</v>
       </c>
       <c r="F102" s="33">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
-        <v>1.806E-2</v>
+        <v>1.762E-2</v>
       </c>
       <c r="G102" s="33">
         <f>_xll.qlSwapRateHelperSpread($E102,Trigger)</f>
@@ -6855,15 +6850,15 @@
       </c>
       <c r="K102" s="31">
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L102" s="30">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>45755</v>
+        <v>45757</v>
       </c>
       <c r="N102" s="37">
         <f t="shared" si="7"/>
-        <v>1.5000000000001124E-5</v>
+        <v>5.000000000001531E-6</v>
       </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.2">
@@ -6880,11 +6875,11 @@
       </c>
       <c r="E103" s="34" t="str">
         <f>Swaps_3M!L20</f>
-        <v>EUR_YC3MRH_AB3E12Y#0002</v>
+        <v>EUR_YC3MRH_AB3E12Y#0001</v>
       </c>
       <c r="F103" s="33">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
-        <v>1.916E-2</v>
+        <v>1.873E-2</v>
       </c>
       <c r="G103" s="33">
         <f>_xll.qlSwapRateHelperSpread($E103,Trigger)</f>
@@ -6901,15 +6896,15 @@
       </c>
       <c r="K103" s="31">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L103" s="30">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>46120</v>
+        <v>46122</v>
       </c>
       <c r="N103" s="37">
         <f t="shared" si="7"/>
-        <v>9.9999999999995925E-6</v>
+        <v>3.4694469519536142E-18</v>
       </c>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.2">
@@ -6926,7 +6921,7 @@
       </c>
       <c r="E104" s="34" t="str">
         <f>Swaps_3M!L21</f>
-        <v>EUR_YC3MRH_AB3E13Y#0002</v>
+        <v>EUR_YC3MRH_AB3E13Y#0001</v>
       </c>
       <c r="F104" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
@@ -6947,11 +6942,11 @@
       </c>
       <c r="K104" s="31">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L104" s="30">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>46485</v>
+        <v>46489</v>
       </c>
       <c r="N104" s="37" t="e">
         <f t="shared" si="7"/>
@@ -6972,7 +6967,7 @@
       </c>
       <c r="E105" s="34" t="str">
         <f>Swaps_3M!L22</f>
-        <v>EUR_YC3MRH_AB3E14Y#0002</v>
+        <v>EUR_YC3MRH_AB3E14Y#0001</v>
       </c>
       <c r="F105" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
@@ -6993,7 +6988,7 @@
       </c>
       <c r="K105" s="31">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L105" s="30">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
@@ -7018,11 +7013,11 @@
       </c>
       <c r="E106" s="34" t="str">
         <f>Swaps_3M!L23</f>
-        <v>EUR_YC3MRH_AB3E15Y#0002</v>
+        <v>EUR_YC3MRH_AB3E15Y#0001</v>
       </c>
       <c r="F106" s="33">
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
-        <v>2.162E-2</v>
+        <v>2.1219999999999999E-2</v>
       </c>
       <c r="G106" s="33">
         <f>_xll.qlSwapRateHelperSpread($E106,Trigger)</f>
@@ -7039,15 +7034,15 @@
       </c>
       <c r="K106" s="31">
         <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L106" s="30">
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>47217</v>
+        <v>47218</v>
       </c>
       <c r="N106" s="37">
         <f t="shared" si="7"/>
-        <v>9.9999999999995925E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.2">
@@ -7064,7 +7059,7 @@
       </c>
       <c r="E107" s="34" t="str">
         <f>Swaps_3M!L24</f>
-        <v>EUR_YC3MRH_AB3E16Y#0002</v>
+        <v>EUR_YC3MRH_AB3E16Y#0001</v>
       </c>
       <c r="F107" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
@@ -7085,11 +7080,11 @@
       </c>
       <c r="K107" s="31">
         <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L107" s="30">
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>47581</v>
+        <v>47583</v>
       </c>
       <c r="N107" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7110,7 +7105,7 @@
       </c>
       <c r="E108" s="34" t="str">
         <f>Swaps_3M!L25</f>
-        <v>EUR_YC3MRH_AB3E17Y#0002</v>
+        <v>EUR_YC3MRH_AB3E17Y#0001</v>
       </c>
       <c r="F108" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
@@ -7131,11 +7126,11 @@
       </c>
       <c r="K108" s="31">
         <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L108" s="30">
         <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
-        <v>47946</v>
+        <v>47948</v>
       </c>
       <c r="N108" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7156,7 +7151,7 @@
       </c>
       <c r="E109" s="34" t="str">
         <f>Swaps_3M!L26</f>
-        <v>EUR_YC3MRH_AB3E18Y#0002</v>
+        <v>EUR_YC3MRH_AB3E18Y#0001</v>
       </c>
       <c r="F109" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
@@ -7177,11 +7172,11 @@
       </c>
       <c r="K109" s="31">
         <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L109" s="30">
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
-        <v>48312</v>
+        <v>48316</v>
       </c>
       <c r="N109" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7202,7 +7197,7 @@
       </c>
       <c r="E110" s="34" t="str">
         <f>Swaps_3M!L27</f>
-        <v>EUR_YC3MRH_AB3E19Y#0002</v>
+        <v>EUR_YC3MRH_AB3E19Y#0001</v>
       </c>
       <c r="F110" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
@@ -7223,11 +7218,11 @@
       </c>
       <c r="K110" s="31">
         <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L110" s="30">
         <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>48677</v>
+        <v>48680</v>
       </c>
       <c r="N110" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7248,11 +7243,11 @@
       </c>
       <c r="E111" s="34" t="str">
         <f>Swaps_3M!L28</f>
-        <v>EUR_YC3MRH_AB3E20Y#0002</v>
+        <v>EUR_YC3MRH_AB3E20Y#0001</v>
       </c>
       <c r="F111" s="33">
         <f>_xll.qlRateHelperQuoteValue($E111,Trigger)</f>
-        <v>2.349E-2</v>
+        <v>2.3179999999999999E-2</v>
       </c>
       <c r="G111" s="33">
         <f>_xll.qlSwapRateHelperSpread($E111,Trigger)</f>
@@ -7269,7 +7264,7 @@
       </c>
       <c r="K111" s="31">
         <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L111" s="30">
         <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
@@ -7277,7 +7272,7 @@
       </c>
       <c r="N111" s="37">
         <f t="shared" si="7"/>
-        <v>9.9999999999995925E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.2">
@@ -7294,7 +7289,7 @@
       </c>
       <c r="E112" s="34" t="str">
         <f>Swaps_3M!L29</f>
-        <v>EUR_YC3MRH_AB3E21Y#0002</v>
+        <v>EUR_YC3MRH_AB3E21Y#0001</v>
       </c>
       <c r="F112" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
@@ -7315,11 +7310,11 @@
       </c>
       <c r="K112" s="31">
         <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L112" s="30">
         <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>49408</v>
+        <v>49409</v>
       </c>
       <c r="N112" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7340,7 +7335,7 @@
       </c>
       <c r="E113" s="34" t="str">
         <f>Swaps_3M!L30</f>
-        <v>EUR_YC3MRH_AB3E22Y#0002</v>
+        <v>EUR_YC3MRH_AB3E22Y#0001</v>
       </c>
       <c r="F113" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E113,Trigger)</f>
@@ -7361,11 +7356,11 @@
       </c>
       <c r="K113" s="31">
         <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L113" s="30">
         <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
-        <v>49773</v>
+        <v>49775</v>
       </c>
       <c r="N113" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7386,7 +7381,7 @@
       </c>
       <c r="E114" s="34" t="str">
         <f>Swaps_3M!L31</f>
-        <v>EUR_YC3MRH_AB3E23Y#0002</v>
+        <v>EUR_YC3MRH_AB3E23Y#0001</v>
       </c>
       <c r="F114" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E114,Trigger)</f>
@@ -7407,11 +7402,11 @@
       </c>
       <c r="K114" s="31">
         <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L114" s="30">
         <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
-        <v>50138</v>
+        <v>50140</v>
       </c>
       <c r="N114" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7432,7 +7427,7 @@
       </c>
       <c r="E115" s="34" t="str">
         <f>Swaps_3M!L32</f>
-        <v>EUR_YC3MRH_AB3E24Y#0002</v>
+        <v>EUR_YC3MRH_AB3E24Y#0001</v>
       </c>
       <c r="F115" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
@@ -7453,11 +7448,11 @@
       </c>
       <c r="K115" s="31">
         <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L115" s="30">
         <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
-        <v>50503</v>
+        <v>50507</v>
       </c>
       <c r="N115" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7478,11 +7473,11 @@
       </c>
       <c r="E116" s="34" t="str">
         <f>Swaps_3M!L33</f>
-        <v>EUR_YC3MRH_AB3E25Y#0002</v>
+        <v>EUR_YC3MRH_AB3E25Y#0001</v>
       </c>
       <c r="F116" s="33">
         <f>_xll.qlRateHelperQuoteValue($E116,Trigger)</f>
-        <v>2.4130000000000002E-2</v>
+        <v>2.3890000000000002E-2</v>
       </c>
       <c r="G116" s="33">
         <f>_xll.qlSwapRateHelperSpread($E116,Trigger)</f>
@@ -7499,7 +7494,7 @@
       </c>
       <c r="K116" s="31">
         <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L116" s="30">
         <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
@@ -7507,7 +7502,7 @@
       </c>
       <c r="N116" s="37">
         <f t="shared" si="7"/>
-        <v>1.0000000000006531E-5</v>
+        <v>4.9999999999980616E-6</v>
       </c>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.2">
@@ -7524,7 +7519,7 @@
       </c>
       <c r="E117" s="34" t="str">
         <f>Swaps_3M!L34</f>
-        <v>EUR_YC3MRH_AB3E26Y#0002</v>
+        <v>EUR_YC3MRH_AB3E26Y#0001</v>
       </c>
       <c r="F117" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E117,Trigger)</f>
@@ -7545,11 +7540,11 @@
       </c>
       <c r="K117" s="31">
         <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L117" s="30">
         <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>51235</v>
+        <v>51236</v>
       </c>
       <c r="N117" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7570,7 +7565,7 @@
       </c>
       <c r="E118" s="34" t="str">
         <f>Swaps_3M!L35</f>
-        <v>EUR_YC3MRH_AB3E27Y#0002</v>
+        <v>EUR_YC3MRH_AB3E27Y#0001</v>
       </c>
       <c r="F118" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E118,Trigger)</f>
@@ -7591,11 +7586,11 @@
       </c>
       <c r="K118" s="31">
         <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L118" s="30">
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>51599</v>
+        <v>51601</v>
       </c>
       <c r="N118" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7616,7 +7611,7 @@
       </c>
       <c r="E119" s="34" t="str">
         <f>Swaps_3M!L36</f>
-        <v>EUR_YC3MRH_AB3E28Y#0002</v>
+        <v>EUR_YC3MRH_AB3E28Y#0001</v>
       </c>
       <c r="F119" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E119,Trigger)</f>
@@ -7637,11 +7632,11 @@
       </c>
       <c r="K119" s="31">
         <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L119" s="30">
         <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
-        <v>51964</v>
+        <v>51966</v>
       </c>
       <c r="N119" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7662,7 +7657,7 @@
       </c>
       <c r="E120" s="34" t="str">
         <f>Swaps_3M!L37</f>
-        <v>EUR_YC3MRH_AB3E29Y#0002</v>
+        <v>EUR_YC3MRH_AB3E29Y#0001</v>
       </c>
       <c r="F120" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
@@ -7683,11 +7678,11 @@
       </c>
       <c r="K120" s="31">
         <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L120" s="30">
         <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
-        <v>52329</v>
+        <v>52331</v>
       </c>
       <c r="N120" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7708,11 +7703,11 @@
       </c>
       <c r="E121" s="34" t="str">
         <f>Swaps_3M!L38</f>
-        <v>EUR_YC3MRH_AB3E30Y#0002</v>
+        <v>EUR_YC3MRH_AB3E30Y#0001</v>
       </c>
       <c r="F121" s="33">
         <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
-        <v>2.4319999999999998E-2</v>
+        <v>2.4109999999999999E-2</v>
       </c>
       <c r="G121" s="33">
         <f>_xll.qlSwapRateHelperSpread($E121,Trigger)</f>
@@ -7729,15 +7724,15 @@
       </c>
       <c r="K121" s="31">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L121" s="30">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>52695</v>
+        <v>52698</v>
       </c>
       <c r="N121" s="37">
         <f t="shared" si="7"/>
-        <v>9.9999999999995925E-6</v>
+        <v>-1.5000000000001124E-5</v>
       </c>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.2">
@@ -7754,7 +7749,7 @@
       </c>
       <c r="E122" s="34" t="str">
         <f>Swaps_3M!L39</f>
-        <v>EUR_YC3MRH_AB3E35Y#0002</v>
+        <v>EUR_YC3MRH_AB3E35Y#0001</v>
       </c>
       <c r="F122" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
@@ -7775,11 +7770,11 @@
       </c>
       <c r="K122" s="31">
         <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L122" s="30">
         <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>54521</v>
+        <v>54525</v>
       </c>
       <c r="N122" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7800,11 +7795,11 @@
       </c>
       <c r="E123" s="34" t="str">
         <f>Swaps_3M!L40</f>
-        <v>EUR_YC3MRH_AB3E40Y#0002</v>
+        <v>EUR_YC3MRH_AB3E40Y#0001</v>
       </c>
       <c r="F123" s="33">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
-        <v>2.4649999999999998E-2</v>
+        <v>2.4530000000000003E-2</v>
       </c>
       <c r="G123" s="33">
         <f>_xll.qlSwapRateHelperSpread($E123,Trigger)</f>
@@ -7821,15 +7816,15 @@
       </c>
       <c r="K123" s="31">
         <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L123" s="30">
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>56347</v>
+        <v>56349</v>
       </c>
       <c r="N123" s="37">
         <f t="shared" si="7"/>
-        <v>9.9999999999995925E-6</v>
+        <v>-1.4999999999997654E-5</v>
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.2">
@@ -7846,11 +7841,11 @@
       </c>
       <c r="E124" s="34" t="str">
         <f>Swaps_3M!L41</f>
-        <v>EUR_YC3MRH_AB3E50Y#0002</v>
+        <v>EUR_YC3MRH_AB3E50Y#0001</v>
       </c>
       <c r="F124" s="33">
         <f>_xll.qlRateHelperQuoteValue($E124,Trigger)</f>
-        <v>2.4820000000000002E-2</v>
+        <v>2.4740000000000002E-2</v>
       </c>
       <c r="G124" s="33">
         <f>_xll.qlSwapRateHelperSpread($E124,Trigger)</f>
@@ -7867,15 +7862,15 @@
       </c>
       <c r="K124" s="31">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L124" s="30">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
-        <v>60000</v>
+        <v>60002</v>
       </c>
       <c r="N124" s="37">
         <f t="shared" si="7"/>
-        <v>5.0000000000050004E-6</v>
+        <v>-1.9999999999999185E-5</v>
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.2">
@@ -7892,11 +7887,11 @@
       </c>
       <c r="E125" s="27" t="str">
         <f>Swaps_3M!L42</f>
-        <v>EUR_YC3MRH_AB3E60Y#0002</v>
+        <v>EUR_YC3MRH_AB3E60Y#0001</v>
       </c>
       <c r="F125" s="26">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
-        <v>2.4990000000000002E-2</v>
+        <v>2.4910000000000002E-2</v>
       </c>
       <c r="G125" s="26">
         <f>_xll.qlSwapRateHelperSpread($E125,Trigger)</f>
@@ -7913,15 +7908,15 @@
       </c>
       <c r="K125" s="24">
         <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L125" s="23">
         <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
-        <v>63653</v>
+        <v>63654</v>
       </c>
       <c r="N125" s="37">
         <f t="shared" si="7"/>
-        <v>1.1000000000004062E-5</v>
+        <v>-1.3999999999996654E-5</v>
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.2">
@@ -7938,11 +7933,11 @@
       </c>
       <c r="E126" s="34" t="str">
         <f>SwapsFromBasis_3M!L6</f>
-        <v>EUR_YC3MRH_AB3EBASIS1Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS1Y#0001</v>
       </c>
       <c r="F126" s="33">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
-        <v>3.1000000000000008E-3</v>
+        <v>2.9849999999999998E-3</v>
       </c>
       <c r="G126" s="33">
         <f>_xll.qlSwapRateHelperSpread($E126,Trigger)</f>
@@ -7959,11 +7954,11 @@
       </c>
       <c r="K126" s="31">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L126" s="30">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.2">
@@ -7980,11 +7975,11 @@
       </c>
       <c r="E127" s="34" t="str">
         <f>SwapsFromBasis_3M!L7</f>
-        <v>EUR_YC3MRH_AB3EBASIS15M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS15M#0001</v>
       </c>
       <c r="F127" s="33">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
-        <v>2.921E-3</v>
+        <v>2.7880000000000001E-3</v>
       </c>
       <c r="G127" s="33">
         <f>_xll.qlSwapRateHelperSpread($E127,Trigger)</f>
@@ -8001,11 +7996,11 @@
       </c>
       <c r="K127" s="31">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L127" s="30">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>42193</v>
+        <v>42195</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.2">
@@ -8022,11 +8017,11 @@
       </c>
       <c r="E128" s="34" t="str">
         <f>SwapsFromBasis_3M!L8</f>
-        <v>EUR_YC3MRH_AB3EBASIS18M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS18M#0001</v>
       </c>
       <c r="F128" s="33">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
-        <v>3.2499999999999994E-3</v>
+        <v>3.13E-3</v>
       </c>
       <c r="G128" s="33">
         <f>_xll.qlSwapRateHelperSpread($E128,Trigger)</f>
@@ -8043,11 +8038,11 @@
       </c>
       <c r="K128" s="31">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L128" s="30">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>42285</v>
+        <v>42289</v>
       </c>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.2">
@@ -8064,11 +8059,11 @@
       </c>
       <c r="E129" s="34" t="str">
         <f>SwapsFromBasis_3M!L9</f>
-        <v>EUR_YC3MRH_AB3EBASIS21M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS21M#0001</v>
       </c>
       <c r="F129" s="33">
         <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
-        <v>3.2269999999999998E-3</v>
+        <v>3.1009999999999996E-3</v>
       </c>
       <c r="G129" s="33">
         <f>_xll.qlSwapRateHelperSpread($E129,Trigger)</f>
@@ -8085,11 +8080,11 @@
       </c>
       <c r="K129" s="31">
         <f>_xll.qlRateHelperEarliestDate($E129,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L129" s="30">
         <f>_xll.qlRateHelperLatestDate($E129,Trigger)</f>
-        <v>42377</v>
+        <v>42380</v>
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.2">
@@ -8106,11 +8101,11 @@
       </c>
       <c r="E130" s="34" t="str">
         <f>SwapsFromBasis_3M!L10</f>
-        <v>EUR_YC3MRH_AB3EBASIS2Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS2Y#0001</v>
       </c>
       <c r="F130" s="33">
         <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
-        <v>3.565E-3</v>
+        <v>3.4449999999999993E-3</v>
       </c>
       <c r="G130" s="33">
         <f>_xll.qlSwapRateHelperSpread($E130,Trigger)</f>
@@ -8127,11 +8122,11 @@
       </c>
       <c r="K130" s="31">
         <f>_xll.qlRateHelperEarliestDate($E130,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L130" s="30">
         <f>_xll.qlRateHelperLatestDate($E130,Trigger)</f>
-        <v>42468</v>
+        <v>42471</v>
       </c>
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.2">
@@ -8148,11 +8143,11 @@
       </c>
       <c r="E131" s="34" t="str">
         <f>SwapsFromBasis_3M!L11</f>
-        <v>EUR_YC3MRH_AB3EBASIS3Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS3Y#0001</v>
       </c>
       <c r="F131" s="33">
         <f>_xll.qlRateHelperQuoteValue($E131,Trigger)</f>
-        <v>4.8199999999999996E-3</v>
+        <v>4.5849999999999997E-3</v>
       </c>
       <c r="G131" s="33">
         <f>_xll.qlSwapRateHelperSpread($E131,Trigger)</f>
@@ -8169,7 +8164,7 @@
       </c>
       <c r="K131" s="31">
         <f>_xll.qlRateHelperEarliestDate($E131,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L131" s="30">
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
@@ -8190,11 +8185,11 @@
       </c>
       <c r="E132" s="34" t="str">
         <f>SwapsFromBasis_3M!L12</f>
-        <v>EUR_YC3MRH_AB3EBASIS4Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS4Y#0001</v>
       </c>
       <c r="F132" s="33">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
-        <v>6.515E-3</v>
+        <v>6.1900000000000002E-3</v>
       </c>
       <c r="G132" s="33">
         <f>_xll.qlSwapRateHelperSpread($E132,Trigger)</f>
@@ -8211,11 +8206,11 @@
       </c>
       <c r="K132" s="31">
         <f>_xll.qlRateHelperEarliestDate($E132,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L132" s="30">
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>43199</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.2">
@@ -8232,11 +8227,11 @@
       </c>
       <c r="E133" s="34" t="str">
         <f>SwapsFromBasis_3M!L13</f>
-        <v>EUR_YC3MRH_AB3EBASIS5Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS5Y#0001</v>
       </c>
       <c r="F133" s="33">
         <f>_xll.qlRateHelperQuoteValue($E133,Trigger)</f>
-        <v>8.3550000000000013E-3</v>
+        <v>7.984999999999999E-3</v>
       </c>
       <c r="G133" s="33">
         <f>_xll.qlSwapRateHelperSpread($E133,Trigger)</f>
@@ -8253,11 +8248,11 @@
       </c>
       <c r="K133" s="31">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L133" s="30">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>43563</v>
+        <v>43565</v>
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.2">
@@ -8274,11 +8269,11 @@
       </c>
       <c r="E134" s="34" t="str">
         <f>SwapsFromBasis_3M!L14</f>
-        <v>EUR_YC3MRH_AB3EBASIS6Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS6Y#0001</v>
       </c>
       <c r="F134" s="33">
         <f>_xll.qlRateHelperQuoteValue($E134,Trigger)</f>
-        <v>1.0245000000000001E-2</v>
+        <v>9.8500000000000011E-3</v>
       </c>
       <c r="G134" s="33">
         <f>_xll.qlSwapRateHelperSpread($E134,Trigger)</f>
@@ -8295,11 +8290,11 @@
       </c>
       <c r="K134" s="31">
         <f>_xll.qlRateHelperEarliestDate($E134,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L134" s="30">
         <f>_xll.qlRateHelperLatestDate($E134,Trigger)</f>
-        <v>43929</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.2">
@@ -8316,11 +8311,11 @@
       </c>
       <c r="E135" s="34" t="str">
         <f>SwapsFromBasis_3M!L15</f>
-        <v>EUR_YC3MRH_AB3EBASIS7Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS7Y#0001</v>
       </c>
       <c r="F135" s="33">
         <f>_xll.qlRateHelperQuoteValue($E135,Trigger)</f>
-        <v>1.208E-2</v>
+        <v>1.1655E-2</v>
       </c>
       <c r="G135" s="33">
         <f>_xll.qlSwapRateHelperSpread($E135,Trigger)</f>
@@ -8337,11 +8332,11 @@
       </c>
       <c r="K135" s="31">
         <f>_xll.qlRateHelperEarliestDate($E135,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L135" s="30">
         <f>_xll.qlRateHelperLatestDate($E135,Trigger)</f>
-        <v>44294</v>
+        <v>44298</v>
       </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.2">
@@ -8358,11 +8353,11 @@
       </c>
       <c r="E136" s="34" t="str">
         <f>SwapsFromBasis_3M!L16</f>
-        <v>EUR_YC3MRH_AB3EBASIS8Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS8Y#0001</v>
       </c>
       <c r="F136" s="33">
         <f>_xll.qlRateHelperQuoteValue($E136,Trigger)</f>
-        <v>1.3805E-2</v>
+        <v>1.337E-2</v>
       </c>
       <c r="G136" s="33">
         <f>_xll.qlSwapRateHelperSpread($E136,Trigger)</f>
@@ -8379,11 +8374,11 @@
       </c>
       <c r="K136" s="31">
         <f>_xll.qlRateHelperEarliestDate($E136,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L136" s="30">
         <f>_xll.qlRateHelperLatestDate($E136,Trigger)</f>
-        <v>44659</v>
+        <v>44662</v>
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.2">
@@ -8400,11 +8395,11 @@
       </c>
       <c r="E137" s="34" t="str">
         <f>SwapsFromBasis_3M!L17</f>
-        <v>EUR_YC3MRH_AB3EBASIS9Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS9Y#0001</v>
       </c>
       <c r="F137" s="33">
         <f>_xll.qlRateHelperQuoteValue($E137,Trigger)</f>
-        <v>1.538E-2</v>
+        <v>1.4935E-2</v>
       </c>
       <c r="G137" s="33">
         <f>_xll.qlSwapRateHelperSpread($E137,Trigger)</f>
@@ -8421,7 +8416,7 @@
       </c>
       <c r="K137" s="31">
         <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L137" s="30">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
@@ -8442,11 +8437,11 @@
       </c>
       <c r="E138" s="34" t="str">
         <f>SwapsFromBasis_3M!L18</f>
-        <v>EUR_YC3MRH_AB3EBASIS10Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS10Y#0001</v>
       </c>
       <c r="F138" s="33">
         <f>_xll.qlRateHelperQuoteValue($E138,Trigger)</f>
-        <v>1.6789999999999999E-2</v>
+        <v>1.6344999999999998E-2</v>
       </c>
       <c r="G138" s="33">
         <f>_xll.qlSwapRateHelperSpread($E138,Trigger)</f>
@@ -8463,11 +8458,11 @@
       </c>
       <c r="K138" s="31">
         <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L138" s="30">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.2">
@@ -8484,11 +8479,11 @@
       </c>
       <c r="E139" s="34" t="str">
         <f>SwapsFromBasis_3M!L19</f>
-        <v>EUR_YC3MRH_AB3EBASIS11Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS11Y#0001</v>
       </c>
       <c r="F139" s="33">
         <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
-        <v>1.8044999999999999E-2</v>
+        <v>1.7614999999999999E-2</v>
       </c>
       <c r="G139" s="33">
         <f>_xll.qlSwapRateHelperSpread($E139,Trigger)</f>
@@ -8505,11 +8500,11 @@
       </c>
       <c r="K139" s="31">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L139" s="30">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>45755</v>
+        <v>45757</v>
       </c>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.2">
@@ -8526,11 +8521,11 @@
       </c>
       <c r="E140" s="34" t="str">
         <f>SwapsFromBasis_3M!L20</f>
-        <v>EUR_YC3MRH_AB3EBASIS12Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS12Y#0001</v>
       </c>
       <c r="F140" s="33">
         <f>_xll.qlRateHelperQuoteValue($E140,Trigger)</f>
-        <v>1.915E-2</v>
+        <v>1.8729999999999997E-2</v>
       </c>
       <c r="G140" s="33">
         <f>_xll.qlSwapRateHelperSpread($E140,Trigger)</f>
@@ -8547,11 +8542,11 @@
       </c>
       <c r="K140" s="31">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L140" s="30">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>46120</v>
+        <v>46122</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.2">
@@ -8568,11 +8563,11 @@
       </c>
       <c r="E141" s="34" t="str">
         <f>SwapsFromBasis_3M!L21</f>
-        <v>EUR_YC3MRH_AB3EBASIS13Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS13Y#0001</v>
       </c>
       <c r="F141" s="33">
         <f>_xll.qlRateHelperQuoteValue($E141,Trigger)</f>
-        <v>2.0105999999999999E-2</v>
+        <v>1.9695999999999998E-2</v>
       </c>
       <c r="G141" s="33">
         <f>_xll.qlSwapRateHelperSpread($E141,Trigger)</f>
@@ -8589,11 +8584,11 @@
       </c>
       <c r="K141" s="31">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L141" s="30">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>46485</v>
+        <v>46489</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.2">
@@ -8610,11 +8605,11 @@
       </c>
       <c r="E142" s="34" t="str">
         <f>SwapsFromBasis_3M!L22</f>
-        <v>EUR_YC3MRH_AB3EBASIS14Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS14Y#0001</v>
       </c>
       <c r="F142" s="33">
         <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
-        <v>2.0920000000000001E-2</v>
+        <v>2.053E-2</v>
       </c>
       <c r="G142" s="33">
         <f>_xll.qlSwapRateHelperSpread($E142,Trigger)</f>
@@ -8631,7 +8626,7 @@
       </c>
       <c r="K142" s="31">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L142" s="30">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
@@ -8652,11 +8647,11 @@
       </c>
       <c r="E143" s="34" t="str">
         <f>SwapsFromBasis_3M!L23</f>
-        <v>EUR_YC3MRH_AB3EBASIS15Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS15Y#0001</v>
       </c>
       <c r="F143" s="33">
         <f>_xll.qlRateHelperQuoteValue($E143,Trigger)</f>
-        <v>2.1610000000000001E-2</v>
+        <v>2.1219999999999999E-2</v>
       </c>
       <c r="G143" s="33">
         <f>_xll.qlSwapRateHelperSpread($E143,Trigger)</f>
@@ -8673,11 +8668,11 @@
       </c>
       <c r="K143" s="31">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L143" s="30">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>47217</v>
+        <v>47218</v>
       </c>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.2">
@@ -8694,11 +8689,11 @@
       </c>
       <c r="E144" s="34" t="str">
         <f>SwapsFromBasis_3M!L24</f>
-        <v>EUR_YC3MRH_AB3EBASIS16Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS16Y#0001</v>
       </c>
       <c r="F144" s="33">
         <f>_xll.qlRateHelperQuoteValue($E144,Trigger)</f>
-        <v>2.2164E-2</v>
+        <v>2.1793999999999997E-2</v>
       </c>
       <c r="G144" s="33">
         <f>_xll.qlSwapRateHelperSpread($E144,Trigger)</f>
@@ -8715,11 +8710,11 @@
       </c>
       <c r="K144" s="31">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L144" s="30">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>47581</v>
+        <v>47583</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8736,11 +8731,11 @@
       </c>
       <c r="E145" s="34" t="str">
         <f>SwapsFromBasis_3M!L25</f>
-        <v>EUR_YC3MRH_AB3EBASIS17Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS17Y#0001</v>
       </c>
       <c r="F145" s="33">
         <f>_xll.qlRateHelperQuoteValue($E145,Trigger)</f>
-        <v>2.2612000000000004E-2</v>
+        <v>2.2251E-2</v>
       </c>
       <c r="G145" s="33">
         <f>_xll.qlSwapRateHelperSpread($E145,Trigger)</f>
@@ -8757,11 +8752,11 @@
       </c>
       <c r="K145" s="31">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L145" s="30">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>47946</v>
+        <v>47948</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -8778,11 +8773,11 @@
       </c>
       <c r="E146" s="34" t="str">
         <f>SwapsFromBasis_3M!L26</f>
-        <v>EUR_YC3MRH_AB3EBASIS18Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS18Y#0001</v>
       </c>
       <c r="F146" s="33">
         <f>_xll.qlRateHelperQuoteValue($E146,Trigger)</f>
-        <v>2.2975000000000002E-2</v>
+        <v>2.2634000000000001E-2</v>
       </c>
       <c r="G146" s="33">
         <f>_xll.qlSwapRateHelperSpread($E146,Trigger)</f>
@@ -8799,11 +8794,11 @@
       </c>
       <c r="K146" s="31">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L146" s="30">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>48312</v>
+        <v>48316</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8820,11 +8815,11 @@
       </c>
       <c r="E147" s="34" t="str">
         <f>SwapsFromBasis_3M!L27</f>
-        <v>EUR_YC3MRH_AB3EBASIS19Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS19Y#0001</v>
       </c>
       <c r="F147" s="33">
         <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
-        <v>2.3254E-2</v>
+        <v>2.2934E-2</v>
       </c>
       <c r="G147" s="33">
         <f>_xll.qlSwapRateHelperSpread($E147,Trigger)</f>
@@ -8841,11 +8836,11 @@
       </c>
       <c r="K147" s="31">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L147" s="30">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>48677</v>
+        <v>48680</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8862,11 +8857,11 @@
       </c>
       <c r="E148" s="34" t="str">
         <f>SwapsFromBasis_3M!L28</f>
-        <v>EUR_YC3MRH_AB3EBASIS20Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS20Y#0001</v>
       </c>
       <c r="F148" s="33">
         <f>_xll.qlRateHelperQuoteValue($E148,Trigger)</f>
-        <v>2.3480000000000001E-2</v>
+        <v>2.3179999999999999E-2</v>
       </c>
       <c r="G148" s="33">
         <f>_xll.qlSwapRateHelperSpread($E148,Trigger)</f>
@@ -8883,7 +8878,7 @@
       </c>
       <c r="K148" s="31">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L148" s="30">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
@@ -8904,11 +8899,11 @@
       </c>
       <c r="E149" s="34" t="str">
         <f>SwapsFromBasis_3M!L29</f>
-        <v>EUR_YC3MRH_AB3EBASIS21Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS21Y#0001</v>
       </c>
       <c r="F149" s="33">
         <f>_xll.qlRateHelperQuoteValue($E149,Trigger)</f>
-        <v>2.3664000000000001E-2</v>
+        <v>2.3383999999999999E-2</v>
       </c>
       <c r="G149" s="33">
         <f>_xll.qlSwapRateHelperSpread($E149,Trigger)</f>
@@ -8925,11 +8920,11 @@
       </c>
       <c r="K149" s="31">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L149" s="30">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>49408</v>
+        <v>49409</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -8946,11 +8941,11 @@
       </c>
       <c r="E150" s="34" t="str">
         <f>SwapsFromBasis_3M!L30</f>
-        <v>EUR_YC3MRH_AB3EBASIS22Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS22Y#0001</v>
       </c>
       <c r="F150" s="33">
         <f>_xll.qlRateHelperQuoteValue($E150,Trigger)</f>
-        <v>2.3824999999999999E-2</v>
+        <v>2.3557000000000002E-2</v>
       </c>
       <c r="G150" s="33">
         <f>_xll.qlSwapRateHelperSpread($E150,Trigger)</f>
@@ -8967,11 +8962,11 @@
       </c>
       <c r="K150" s="31">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L150" s="30">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>49773</v>
+        <v>49775</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
@@ -8988,11 +8983,11 @@
       </c>
       <c r="E151" s="34" t="str">
         <f>SwapsFromBasis_3M!L31</f>
-        <v>EUR_YC3MRH_AB3EBASIS23Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS23Y#0001</v>
       </c>
       <c r="F151" s="33">
         <f>_xll.qlRateHelperQuoteValue($E151,Trigger)</f>
-        <v>2.3945000000000001E-2</v>
+        <v>2.3688000000000004E-2</v>
       </c>
       <c r="G151" s="33">
         <f>_xll.qlSwapRateHelperSpread($E151,Trigger)</f>
@@ -9009,11 +9004,11 @@
       </c>
       <c r="K151" s="31">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L151" s="30">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>50138</v>
+        <v>50140</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -9030,11 +9025,11 @@
       </c>
       <c r="E152" s="34" t="str">
         <f>SwapsFromBasis_3M!L32</f>
-        <v>EUR_YC3MRH_AB3EBASIS24Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS24Y#0001</v>
       </c>
       <c r="F152" s="33">
         <f>_xll.qlRateHelperQuoteValue($E152,Trigger)</f>
-        <v>2.4042999999999998E-2</v>
+        <v>2.3797000000000002E-2</v>
       </c>
       <c r="G152" s="33">
         <f>_xll.qlSwapRateHelperSpread($E152,Trigger)</f>
@@ -9051,11 +9046,11 @@
       </c>
       <c r="K152" s="31">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L152" s="30">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>50503</v>
+        <v>50507</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -9072,11 +9067,11 @@
       </c>
       <c r="E153" s="34" t="str">
         <f>SwapsFromBasis_3M!L33</f>
-        <v>EUR_YC3MRH_AB3EBASIS25Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS25Y#0001</v>
       </c>
       <c r="F153" s="33">
         <f>_xll.qlRateHelperQuoteValue($E153,Trigger)</f>
-        <v>2.4119999999999996E-2</v>
+        <v>2.3885000000000003E-2</v>
       </c>
       <c r="G153" s="33">
         <f>_xll.qlSwapRateHelperSpread($E153,Trigger)</f>
@@ -9093,7 +9088,7 @@
       </c>
       <c r="K153" s="31">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L153" s="30">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
@@ -9114,11 +9109,11 @@
       </c>
       <c r="E154" s="34" t="str">
         <f>SwapsFromBasis_3M!L34</f>
-        <v>EUR_YC3MRH_AB3EBASIS26Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS26Y#0001</v>
       </c>
       <c r="F154" s="33">
         <f>_xll.qlRateHelperQuoteValue($E154,Trigger)</f>
-        <v>2.4176E-2</v>
+        <v>2.3951E-2</v>
       </c>
       <c r="G154" s="33">
         <f>_xll.qlSwapRateHelperSpread($E154,Trigger)</f>
@@ -9135,11 +9130,11 @@
       </c>
       <c r="K154" s="31">
         <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L154" s="30">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>51235</v>
+        <v>51236</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -9156,11 +9151,11 @@
       </c>
       <c r="E155" s="34" t="str">
         <f>SwapsFromBasis_3M!L35</f>
-        <v>EUR_YC3MRH_AB3EBASIS27Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS27Y#0001</v>
       </c>
       <c r="F155" s="33">
         <f>_xll.qlRateHelperQuoteValue($E155,Trigger)</f>
-        <v>2.4220999999999999E-2</v>
+        <v>2.4006E-2</v>
       </c>
       <c r="G155" s="33">
         <f>_xll.qlSwapRateHelperSpread($E155,Trigger)</f>
@@ -9177,11 +9172,11 @@
       </c>
       <c r="K155" s="31">
         <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L155" s="30">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>51599</v>
+        <v>51601</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -9198,11 +9193,11 @@
       </c>
       <c r="E156" s="34" t="str">
         <f>SwapsFromBasis_3M!L36</f>
-        <v>EUR_YC3MRH_AB3EBASIS28Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS28Y#0001</v>
       </c>
       <c r="F156" s="33">
         <f>_xll.qlRateHelperQuoteValue($E156,Trigger)</f>
-        <v>2.4254999999999995E-2</v>
+        <v>2.4050000000000002E-2</v>
       </c>
       <c r="G156" s="33">
         <f>_xll.qlSwapRateHelperSpread($E156,Trigger)</f>
@@ -9219,11 +9214,11 @@
       </c>
       <c r="K156" s="31">
         <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L156" s="30">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>51964</v>
+        <v>51966</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
@@ -9240,11 +9235,11 @@
       </c>
       <c r="E157" s="34" t="str">
         <f>SwapsFromBasis_3M!L37</f>
-        <v>EUR_YC3MRH_AB3EBASIS29Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS29Y#0001</v>
       </c>
       <c r="F157" s="33">
         <f>_xll.qlRateHelperQuoteValue($E157,Trigger)</f>
-        <v>2.4288000000000001E-2</v>
+        <v>2.4093E-2</v>
       </c>
       <c r="G157" s="33">
         <f>_xll.qlSwapRateHelperSpread($E157,Trigger)</f>
@@ -9261,11 +9256,11 @@
       </c>
       <c r="K157" s="31">
         <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L157" s="30">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>52329</v>
+        <v>52331</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
@@ -9282,11 +9277,11 @@
       </c>
       <c r="E158" s="34" t="str">
         <f>SwapsFromBasis_3M!L38</f>
-        <v>EUR_YC3MRH_AB3EBASIS30Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS30Y#0001</v>
       </c>
       <c r="F158" s="33">
         <f>_xll.qlRateHelperQuoteValue($E158,Trigger)</f>
-        <v>2.4309999999999998E-2</v>
+        <v>2.4125000000000001E-2</v>
       </c>
       <c r="G158" s="33">
         <f>_xll.qlSwapRateHelperSpread($E158,Trigger)</f>
@@ -9303,11 +9298,11 @@
       </c>
       <c r="K158" s="31">
         <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L158" s="30">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>52695</v>
+        <v>52698</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
@@ -9324,11 +9319,11 @@
       </c>
       <c r="E159" s="34" t="str">
         <f>SwapsFromBasis_3M!L39</f>
-        <v>EUR_YC3MRH_AB3EBASIS35Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS35Y#0001</v>
       </c>
       <c r="F159" s="33">
         <f>_xll.qlRateHelperQuoteValue($E159,Trigger)</f>
-        <v>2.4441000000000001E-2</v>
+        <v>2.4325999999999997E-2</v>
       </c>
       <c r="G159" s="33">
         <f>_xll.qlSwapRateHelperSpread($E159,Trigger)</f>
@@ -9345,11 +9340,11 @@
       </c>
       <c r="K159" s="31">
         <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L159" s="30">
         <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>54521</v>
+        <v>54525</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
@@ -9366,11 +9361,11 @@
       </c>
       <c r="E160" s="34" t="str">
         <f>SwapsFromBasis_3M!L40</f>
-        <v>EUR_YC3MRH_AB3EBASIS40Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS40Y#0001</v>
       </c>
       <c r="F160" s="33">
         <f>_xll.qlRateHelperQuoteValue($E160,Trigger)</f>
-        <v>2.4639999999999999E-2</v>
+        <v>2.4545000000000001E-2</v>
       </c>
       <c r="G160" s="33">
         <f>_xll.qlSwapRateHelperSpread($E160,Trigger)</f>
@@ -9387,11 +9382,11 @@
       </c>
       <c r="K160" s="31">
         <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L160" s="30">
         <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>56347</v>
+        <v>56349</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
@@ -9408,11 +9403,11 @@
       </c>
       <c r="E161" s="34" t="str">
         <f>SwapsFromBasis_3M!L41</f>
-        <v>EUR_YC3MRH_AB3EBASIS50Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS50Y#0001</v>
       </c>
       <c r="F161" s="33">
         <f>_xll.qlRateHelperQuoteValue($E161,Trigger)</f>
-        <v>2.4814999999999997E-2</v>
+        <v>2.4760000000000001E-2</v>
       </c>
       <c r="G161" s="33">
         <f>_xll.qlSwapRateHelperSpread($E161,Trigger)</f>
@@ -9429,11 +9424,11 @@
       </c>
       <c r="K161" s="31">
         <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L161" s="30">
         <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
-        <v>60000</v>
+        <v>60002</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.2">
@@ -9450,11 +9445,11 @@
       </c>
       <c r="E162" s="27" t="str">
         <f>SwapsFromBasis_3M!L42</f>
-        <v>EUR_YC3MRH_AB3EBASIS60Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS60Y#0001</v>
       </c>
       <c r="F162" s="26">
         <f>_xll.qlRateHelperQuoteValue($E162,Trigger)</f>
-        <v>2.4978999999999998E-2</v>
+        <v>2.4923999999999998E-2</v>
       </c>
       <c r="G162" s="26">
         <f>_xll.qlSwapRateHelperSpread($E162,Trigger)</f>
@@ -9471,11 +9466,11 @@
       </c>
       <c r="K162" s="24">
         <f>_xll.qlRateHelperEarliestDate($E162,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L162" s="23">
         <f>_xll.qlRateHelperLatestDate($E162,Trigger)</f>
-        <v>63653</v>
+        <v>63654</v>
       </c>
     </row>
   </sheetData>
@@ -9495,13 +9490,13 @@
   <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
@@ -9512,10 +9507,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="226" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="222"/>
+      <c r="B1" s="227"/>
       <c r="D1" s="22" t="s">
         <v>9</v>
       </c>
@@ -9547,7 +9542,7 @@
       </c>
       <c r="E2" s="10">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>3.405E-3</v>
+        <v>3.4680000000000002E-3</v>
       </c>
       <c r="F2" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9555,14 +9550,14 @@
       </c>
       <c r="G2" s="9">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41751</v>
+        <v>41753</v>
       </c>
       <c r="I2" s="3">
-        <v>0.99986760086517001</v>
+        <v>0.99986515151988298</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -9577,7 +9572,7 @@
       </c>
       <c r="E3" s="10">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>3.3449999999999999E-3</v>
+        <v>3.4840000000000001E-3</v>
       </c>
       <c r="F3" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9585,14 +9580,14 @@
       </c>
       <c r="G3" s="9">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41758</v>
+        <v>41761</v>
       </c>
       <c r="I3" s="3">
-        <v>0.99980491306657659</v>
+        <v>0.99978713421038012</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -9607,7 +9602,7 @@
       </c>
       <c r="E4" s="10">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>3.3249999999999998E-3</v>
+        <v>3.3930000000000002E-3</v>
       </c>
       <c r="F4" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9615,14 +9610,14 @@
       </c>
       <c r="G4" s="9">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41767</v>
+        <v>41771</v>
       </c>
       <c r="I4" s="3">
-        <v>0.99972299342064364</v>
+        <v>0.99969849093513385</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -9637,7 +9632,7 @@
       </c>
       <c r="E5" s="10">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>3.2239999999999999E-3</v>
+        <v>3.3110000000000001E-3</v>
       </c>
       <c r="F5" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -9645,14 +9640,14 @@
       </c>
       <c r="G5" s="9">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41799</v>
+        <v>41800</v>
       </c>
       <c r="I5" s="3">
-        <v>0.99944506368086383</v>
+        <v>0.99943928402324034</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -9668,7 +9663,7 @@
       </c>
       <c r="E6" s="10">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>3.0750000000000499E-3</v>
+        <v>2.9250000000000664E-3</v>
       </c>
       <c r="F6" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -9683,13 +9678,13 @@
         <v>41900</v>
       </c>
       <c r="I6" s="3">
-        <v>0.99858335540649723</v>
+        <v>0.99862209887690434</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="str">
         <f>_xll.ohGroup(,_xll.ohPack(D2:D126),Permanent,,ObjectOverwrite)</f>
-        <v>obj_00501#0003</v>
+        <v>obj_004db#0001</v>
       </c>
       <c r="B7" s="12" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -9700,7 +9695,7 @@
       </c>
       <c r="E7" s="10">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>2.8999999999999027E-3</v>
+        <v>2.7250000000000885E-3</v>
       </c>
       <c r="F7" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -9715,7 +9710,7 @@
         <v>41990</v>
       </c>
       <c r="I7" s="3">
-        <v>0.99786014568809434</v>
+        <v>0.99794235919919483</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -9724,7 +9719,7 @@
       </c>
       <c r="E8" s="10">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>2.9749999999999499E-3</v>
+        <v>2.8249999999999664E-3</v>
       </c>
       <c r="F8" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -9739,7 +9734,7 @@
         <v>42080</v>
       </c>
       <c r="I8" s="3">
-        <v>0.99711853877488055</v>
+        <v>0.99723805981944735</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -9748,7 +9743,7 @@
       </c>
       <c r="E9" s="10">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>3.1749999999999279E-3</v>
+        <v>3.0750000000000499E-3</v>
       </c>
       <c r="F9" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -9763,7 +9758,7 @@
         <v>42173</v>
       </c>
       <c r="I9" s="3">
-        <v>0.99630168761796289</v>
+        <v>0.99644690461699659</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -9772,7 +9767,7 @@
       </c>
       <c r="E10" s="10">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>3.5249999999998893E-3</v>
+        <v>3.4250000000000114E-3</v>
       </c>
       <c r="F10" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -9787,7 +9782,7 @@
         <v>42264</v>
       </c>
       <c r="I10" s="3">
-        <v>0.99541417683164246</v>
+        <v>0.99558444061025497</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -9796,7 +9791,7 @@
       </c>
       <c r="E11" s="10">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>4.0250000000000563E-3</v>
+        <v>3.8750000000000728E-3</v>
       </c>
       <c r="F11" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -9811,7 +9806,7 @@
         <v>42354</v>
       </c>
       <c r="I11" s="3">
-        <v>0.99441279476899835</v>
+        <v>0.9946202270787935</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -9820,7 +9815,7 @@
       </c>
       <c r="E12" s="10">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>4.6749999999999847E-3</v>
+        <v>4.4749999999998957E-3</v>
       </c>
       <c r="F12" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -9835,7 +9830,7 @@
         <v>42445</v>
       </c>
       <c r="I12" s="3">
-        <v>0.99323904831863463</v>
+        <v>0.99349640326540523</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -9844,7 +9839,7 @@
       </c>
       <c r="E13" s="10">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>5.4250000000000131E-3</v>
+        <v>5.1749999999999297E-3</v>
       </c>
       <c r="F13" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -9859,7 +9854,7 @@
         <v>42537</v>
       </c>
       <c r="I13" s="3">
-        <v>0.99186393917407412</v>
+        <v>0.99218423960852309</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -9868,7 +9863,7 @@
       </c>
       <c r="E14" s="10">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>4.8199999999999996E-3</v>
+        <v>4.5899999999999995E-3</v>
       </c>
       <c r="F14" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -9876,14 +9871,14 @@
       </c>
       <c r="G14" s="9">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H14" s="8">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
         <v>42835</v>
       </c>
       <c r="I14" s="3">
-        <v>0.98564743968104829</v>
+        <v>0.98634215338159481</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -9892,7 +9887,7 @@
       </c>
       <c r="E15" s="10">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>6.5300000000000002E-3</v>
+        <v>6.1900000000000002E-3</v>
       </c>
       <c r="F15" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -9900,14 +9895,14 @@
       </c>
       <c r="G15" s="9">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H15" s="8">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>43199</v>
+        <v>43200</v>
       </c>
       <c r="I15" s="3">
-        <v>0.97421782914961941</v>
+        <v>0.97555192271131297</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -9916,7 +9911,7 @@
       </c>
       <c r="E16" s="10">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>8.3800000000000003E-3</v>
+        <v>7.9899999999999988E-3</v>
       </c>
       <c r="F16" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -9924,14 +9919,14 @@
       </c>
       <c r="G16" s="9">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H16" s="8">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43563</v>
+        <v>43565</v>
       </c>
       <c r="I16" s="3">
-        <v>0.95891826261911994</v>
+        <v>0.96078702719130782</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.2">
@@ -9940,7 +9935,7 @@
       </c>
       <c r="E17" s="10">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.0270000000000001E-2</v>
+        <v>9.8499999999999994E-3</v>
       </c>
       <c r="F17" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -9948,14 +9943,14 @@
       </c>
       <c r="G17" s="9">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H17" s="8">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43929</v>
+        <v>43935</v>
       </c>
       <c r="I17" s="3">
-        <v>0.94002934211833922</v>
+        <v>0.94230665837003724</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.2">
@@ -9964,7 +9959,7 @@
       </c>
       <c r="E18" s="10">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.209E-2</v>
+        <v>1.1659999999999998E-2</v>
       </c>
       <c r="F18" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -9972,14 +9967,14 @@
       </c>
       <c r="G18" s="9">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H18" s="8">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>44294</v>
+        <v>44298</v>
       </c>
       <c r="I18" s="3">
-        <v>0.91834069975824173</v>
+        <v>0.92106936826692953</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.2">
@@ -9988,7 +9983,7 @@
       </c>
       <c r="E19" s="10">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.3820000000000001E-2</v>
+        <v>1.3370000000000002E-2</v>
       </c>
       <c r="F19" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -9996,14 +9991,14 @@
       </c>
       <c r="G19" s="9">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H19" s="8">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="I19" s="3">
-        <v>0.8943480295664501</v>
+        <v>0.8975808244896023</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.2">
@@ -10012,7 +10007,7 @@
       </c>
       <c r="E20" s="10">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.5390000000000001E-2</v>
+        <v>1.494E-2</v>
       </c>
       <c r="F20" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -10020,14 +10015,14 @@
       </c>
       <c r="G20" s="9">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H20" s="8">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
         <v>45027</v>
       </c>
       <c r="I20" s="3">
-        <v>0.86892094802691711</v>
+        <v>0.87257895839993593</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.2">
@@ -10036,7 +10031,7 @@
       </c>
       <c r="E21" s="10">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.6800000000000002E-2</v>
+        <v>1.635E-2</v>
       </c>
       <c r="F21" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10044,14 +10039,14 @@
       </c>
       <c r="G21" s="9">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H21" s="8">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="I21" s="3">
-        <v>0.84293360990518318</v>
+        <v>0.84681396157770294</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.2">
@@ -10060,7 +10055,7 @@
       </c>
       <c r="E22" s="10">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.916E-2</v>
+        <v>1.873E-2</v>
       </c>
       <c r="F22" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10068,14 +10063,14 @@
       </c>
       <c r="G22" s="9">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H22" s="8">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>46120</v>
+        <v>46122</v>
       </c>
       <c r="I22" s="3">
-        <v>0.79022413485205978</v>
+        <v>0.79441067194374648</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.2">
@@ -10084,7 +10079,7 @@
       </c>
       <c r="E23" s="10">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.162E-2</v>
+        <v>2.1219999999999999E-2</v>
       </c>
       <c r="F23" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10092,14 +10087,14 @@
       </c>
       <c r="G23" s="9">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H23" s="8">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>47217</v>
+        <v>47218</v>
       </c>
       <c r="I23" s="3">
-        <v>0.71545814079387571</v>
+        <v>0.7199037323698797</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.2">
@@ -10108,7 +10103,7 @@
       </c>
       <c r="E24" s="10">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.349E-2</v>
+        <v>2.3179999999999999E-2</v>
       </c>
       <c r="F24" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10116,14 +10111,14 @@
       </c>
       <c r="G24" s="9">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H24" s="8">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
         <v>49045</v>
       </c>
       <c r="I24" s="3">
-        <v>0.61430026795323012</v>
+        <v>0.61807214902077223</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.2">
@@ -10132,7 +10127,7 @@
       </c>
       <c r="E25" s="10">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.4130000000000002E-2</v>
+        <v>2.3890000000000002E-2</v>
       </c>
       <c r="F25" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10140,14 +10135,14 @@
       </c>
       <c r="G25" s="9">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H25" s="8">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
         <v>50872</v>
       </c>
       <c r="I25" s="3">
-        <v>0.53558287036609775</v>
+        <v>0.53847637735653264</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.2">
@@ -10156,7 +10151,7 @@
       </c>
       <c r="E26" s="10">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.4319999999999998E-2</v>
+        <v>2.4109999999999999E-2</v>
       </c>
       <c r="F26" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10164,14 +10159,14 @@
       </c>
       <c r="G26" s="9">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H26" s="8">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>52695</v>
+        <v>52698</v>
       </c>
       <c r="I26" s="3">
-        <v>0.47172472181128089</v>
+        <v>0.47412916351319567</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.2">
@@ -10180,7 +10175,7 @@
       </c>
       <c r="E27" s="10">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.4441000000000001E-2</v>
+        <v>2.4325999999999997E-2</v>
       </c>
       <c r="F27" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10188,14 +10183,14 @@
       </c>
       <c r="G27" s="9">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H27" s="8">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>54521</v>
+        <v>54525</v>
       </c>
       <c r="I27" s="3">
-        <v>0.41563043664695387</v>
+        <v>0.41603829314938223</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.2">
@@ -10204,7 +10199,7 @@
       </c>
       <c r="E28" s="10">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.4639999999999999E-2</v>
+        <v>2.4545000000000001E-2</v>
       </c>
       <c r="F28" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10212,14 +10207,14 @@
       </c>
       <c r="G28" s="9">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H28" s="8">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>56347</v>
+        <v>56349</v>
       </c>
       <c r="I28" s="3">
-        <v>0.36359604832262493</v>
+        <v>0.36373306306525227</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.2">
@@ -10228,7 +10223,7 @@
       </c>
       <c r="E29" s="10">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.4814999999999997E-2</v>
+        <v>2.4760000000000001E-2</v>
       </c>
       <c r="F29" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -10236,14 +10231,14 @@
       </c>
       <c r="G29" s="9">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H29" s="8">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>60000</v>
+        <v>60002</v>
       </c>
       <c r="I29" s="3">
-        <v>0.28069297313789543</v>
+        <v>0.28003511804121239</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.2">
@@ -10252,7 +10247,7 @@
       </c>
       <c r="E30" s="10">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.4978999999999998E-2</v>
+        <v>2.4923999999999998E-2</v>
       </c>
       <c r="F30" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -10260,14 +10255,14 @@
       </c>
       <c r="G30" s="9">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H30" s="8">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>63653</v>
+        <v>63654</v>
       </c>
       <c r="I30" s="3">
-        <v>0.21516481239633858</v>
+        <v>0.21478731757224265</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.2">
@@ -12596,7 +12591,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12667,12 +12662,12 @@
         <f>$J$1&amp;"_Deposits.xml"</f>
         <v>EUR_YC3MRH_Deposits.xml</v>
       </c>
-      <c r="K2" s="100">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K9,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>7</v>
+      <c r="K2" s="100" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(K3:K9,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
       </c>
       <c r="L2" s="99" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
+        <f>_xll.ohRangeRetrieveError(K2)</f>
         <v/>
       </c>
       <c r="M2" s="90"/>
@@ -12713,7 +12708,7 @@
       </c>
       <c r="K3" s="92" t="str">
         <f>_xll.qlDepositRateHelper2(J3,I3,C3,D3,E3,F3,G3,H3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_SND#0002</v>
+        <v>EUR_YC3MRH_SND#0001</v>
       </c>
       <c r="L3" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -12757,7 +12752,7 @@
       </c>
       <c r="K4" s="92" t="str">
         <f>_xll.qlDepositRateHelper2(J4,I4,C4,D4,E4,F4,G4,H4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_SWD#0002</v>
+        <v>EUR_YC3MRH_SWD#0001</v>
       </c>
       <c r="L4" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -12801,7 +12796,7 @@
       </c>
       <c r="K5" s="92" t="str">
         <f>_xll.qlDepositRateHelper2(J5,I5,C5,D5,E5,F5,G5,H5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2WD#0002</v>
+        <v>EUR_YC3MRH_2WD#0001</v>
       </c>
       <c r="L5" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -12849,7 +12844,7 @@
       </c>
       <c r="K6" s="92" t="str">
         <f>_xll.qlDepositRateHelper2(J6,I6,C6,D6,E6,F6,G6,H6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3WD#0002</v>
+        <v>EUR_YC3MRH_3WD#0001</v>
       </c>
       <c r="L6" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -12895,7 +12890,7 @@
       </c>
       <c r="K7" s="92" t="str">
         <f>_xll.qlDepositRateHelper2(J7,I7,C7,D7,E7,F7,G7,H7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1MD#0002</v>
+        <v>EUR_YC3MRH_1MD#0001</v>
       </c>
       <c r="L7" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -12941,7 +12936,7 @@
       </c>
       <c r="K8" s="92" t="str">
         <f>_xll.qlDepositRateHelper2(J8,I8,C8,D8,E8,F8,G8,H8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2MD#0002</v>
+        <v>EUR_YC3MRH_2MD#0001</v>
       </c>
       <c r="L8" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -12987,7 +12982,7 @@
       </c>
       <c r="K9" s="92" t="str">
         <f>_xll.qlDepositRateHelper2(J9,I9,C9,D9,E9,F9,G9,H9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3MD#0002</v>
+        <v>EUR_YC3MRH_3MD#0001</v>
       </c>
       <c r="L9" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -13023,7 +13018,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -13077,12 +13072,12 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>EUR_YC3MRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="142">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H10,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>8</v>
+      <c r="H2" s="142" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(H3:H10,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
       </c>
       <c r="I2" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
+        <f>_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="90"/>
@@ -13113,7 +13108,7 @@
       </c>
       <c r="H3" s="138" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_T3F1#0002</v>
+        <v>EUR_YC3MRH_T3F1#0001</v>
       </c>
       <c r="I3" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -13147,7 +13142,7 @@
       </c>
       <c r="H4" s="130" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_TOM3F1#0002</v>
+        <v>EUR_YC3MRH_TOM3F1#0001</v>
       </c>
       <c r="I4" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -13186,7 +13181,7 @@
       </c>
       <c r="H5" s="133" t="str">
         <f>_xll.qlFraRateHelper(G5,F5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1x4F#0002</v>
+        <v>EUR_YC3MRH_1x4F#0001</v>
       </c>
       <c r="I5" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -13221,7 +13216,7 @@
       </c>
       <c r="H6" s="133" t="str">
         <f>_xll.qlFraRateHelper(G6,F6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2x5F#0002</v>
+        <v>EUR_YC3MRH_2x5F#0001</v>
       </c>
       <c r="I6" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -13256,7 +13251,7 @@
       </c>
       <c r="H7" s="133" t="str">
         <f>_xll.qlFraRateHelper(G7,F7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3x6F#0002</v>
+        <v>EUR_YC3MRH_3x6F#0001</v>
       </c>
       <c r="I7" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -13291,7 +13286,7 @@
       </c>
       <c r="H8" s="133" t="str">
         <f>_xll.qlFraRateHelper(G8,F8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_4x7F#0002</v>
+        <v>EUR_YC3MRH_4x7F#0001</v>
       </c>
       <c r="I8" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -13326,7 +13321,7 @@
       </c>
       <c r="H9" s="133" t="str">
         <f>_xll.qlFraRateHelper(G9,F9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_5x8F#0002</v>
+        <v>EUR_YC3MRH_5x8F#0001</v>
       </c>
       <c r="I9" s="132" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -13361,7 +13356,7 @@
       </c>
       <c r="H10" s="130" t="str">
         <f>_xll.qlFraRateHelper(G10,F10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_6x9F#0002</v>
+        <v>EUR_YC3MRH_6x9F#0001</v>
       </c>
       <c r="I10" s="129" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -13399,7 +13394,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13462,12 +13457,12 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>EUR_YC3MRH_Futures3M.xml</v>
       </c>
-      <c r="I2" s="100">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I44,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>42</v>
+      <c r="I2" s="100" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(I3:I44,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
       </c>
       <c r="J2" s="99" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
+        <f>_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="90"/>
@@ -13502,7 +13497,7 @@
       </c>
       <c r="I3" s="160" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MJ4#0002</v>
+        <v>EUR_YC3MRH_FUT3MJ4#0001</v>
       </c>
       <c r="J3" s="159" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -13544,7 +13539,7 @@
       </c>
       <c r="I4" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MK4#0002</v>
+        <v>EUR_YC3MRH_FUT3MK4#0001</v>
       </c>
       <c r="J4" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -13582,7 +13577,7 @@
       </c>
       <c r="I5" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM4#0002</v>
+        <v>EUR_YC3MRH_FUT3MM4#0001</v>
       </c>
       <c r="J5" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13620,7 +13615,7 @@
       </c>
       <c r="I6" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MN4#0002</v>
+        <v>EUR_YC3MRH_FUT3MN4#0001</v>
       </c>
       <c r="J6" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -13658,7 +13653,7 @@
       </c>
       <c r="I7" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MQ4#0002</v>
+        <v>EUR_YC3MRH_FUT3MQ4#0001</v>
       </c>
       <c r="J7" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -13696,7 +13691,7 @@
       </c>
       <c r="I8" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU4#0002</v>
+        <v>EUR_YC3MRH_FUT3MU4#0001</v>
       </c>
       <c r="J8" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -13734,7 +13729,7 @@
       </c>
       <c r="I9" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MV4#0002</v>
+        <v>EUR_YC3MRH_FUT3MV4#0001</v>
       </c>
       <c r="J9" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -13772,7 +13767,7 @@
       </c>
       <c r="I10" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MX4#0002</v>
+        <v>EUR_YC3MRH_FUT3MX4#0001</v>
       </c>
       <c r="J10" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -13810,7 +13805,7 @@
       </c>
       <c r="I11" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ4#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ4#0001</v>
       </c>
       <c r="J11" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -13848,7 +13843,7 @@
       </c>
       <c r="I12" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MF5#0002</v>
+        <v>EUR_YC3MRH_FUT3MF5#0001</v>
       </c>
       <c r="J12" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -13886,7 +13881,7 @@
       </c>
       <c r="I13" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MG5#0002</v>
+        <v>EUR_YC3MRH_FUT3MG5#0001</v>
       </c>
       <c r="J13" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -13924,7 +13919,7 @@
       </c>
       <c r="I14" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH5#0002</v>
+        <v>EUR_YC3MRH_FUT3MH5#0001</v>
       </c>
       <c r="J14" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -13962,7 +13957,7 @@
       </c>
       <c r="I15" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM5#0002</v>
+        <v>EUR_YC3MRH_FUT3MM5#0001</v>
       </c>
       <c r="J15" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -14000,7 +13995,7 @@
       </c>
       <c r="I16" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU5#0002</v>
+        <v>EUR_YC3MRH_FUT3MU5#0001</v>
       </c>
       <c r="J16" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -14038,7 +14033,7 @@
       </c>
       <c r="I17" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ5#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ5#0001</v>
       </c>
       <c r="J17" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -14076,7 +14071,7 @@
       </c>
       <c r="I18" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH6#0002</v>
+        <v>EUR_YC3MRH_FUT3MH6#0001</v>
       </c>
       <c r="J18" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -14114,7 +14109,7 @@
       </c>
       <c r="I19" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM6#0002</v>
+        <v>EUR_YC3MRH_FUT3MM6#0001</v>
       </c>
       <c r="J19" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -14152,7 +14147,7 @@
       </c>
       <c r="I20" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU6#0002</v>
+        <v>EUR_YC3MRH_FUT3MU6#0001</v>
       </c>
       <c r="J20" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -14190,7 +14185,7 @@
       </c>
       <c r="I21" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ6#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ6#0001</v>
       </c>
       <c r="J21" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -14228,7 +14223,7 @@
       </c>
       <c r="I22" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH7#0002</v>
+        <v>EUR_YC3MRH_FUT3MH7#0001</v>
       </c>
       <c r="J22" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -14266,7 +14261,7 @@
       </c>
       <c r="I23" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM7#0002</v>
+        <v>EUR_YC3MRH_FUT3MM7#0001</v>
       </c>
       <c r="J23" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -14304,7 +14299,7 @@
       </c>
       <c r="I24" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU7#0002</v>
+        <v>EUR_YC3MRH_FUT3MU7#0001</v>
       </c>
       <c r="J24" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -14342,7 +14337,7 @@
       </c>
       <c r="I25" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ7#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ7#0001</v>
       </c>
       <c r="J25" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -14380,7 +14375,7 @@
       </c>
       <c r="I26" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH8#0002</v>
+        <v>EUR_YC3MRH_FUT3MH8#0001</v>
       </c>
       <c r="J26" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -14418,7 +14413,7 @@
       </c>
       <c r="I27" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM8#0002</v>
+        <v>EUR_YC3MRH_FUT3MM8#0001</v>
       </c>
       <c r="J27" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -14456,7 +14451,7 @@
       </c>
       <c r="I28" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU8#0002</v>
+        <v>EUR_YC3MRH_FUT3MU8#0001</v>
       </c>
       <c r="J28" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -14494,7 +14489,7 @@
       </c>
       <c r="I29" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ8#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ8#0001</v>
       </c>
       <c r="J29" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -14532,7 +14527,7 @@
       </c>
       <c r="I30" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH9#0002</v>
+        <v>EUR_YC3MRH_FUT3MH9#0001</v>
       </c>
       <c r="J30" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -14570,7 +14565,7 @@
       </c>
       <c r="I31" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM9#0002</v>
+        <v>EUR_YC3MRH_FUT3MM9#0001</v>
       </c>
       <c r="J31" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -14608,7 +14603,7 @@
       </c>
       <c r="I32" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU9#0002</v>
+        <v>EUR_YC3MRH_FUT3MU9#0001</v>
       </c>
       <c r="J32" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -14646,7 +14641,7 @@
       </c>
       <c r="I33" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ9#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ9#0001</v>
       </c>
       <c r="J33" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -14684,7 +14679,7 @@
       </c>
       <c r="I34" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH0#0002</v>
+        <v>EUR_YC3MRH_FUT3MH0#0001</v>
       </c>
       <c r="J34" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -14722,7 +14717,7 @@
       </c>
       <c r="I35" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM0#0002</v>
+        <v>EUR_YC3MRH_FUT3MM0#0001</v>
       </c>
       <c r="J35" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -14760,7 +14755,7 @@
       </c>
       <c r="I36" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU0#0002</v>
+        <v>EUR_YC3MRH_FUT3MU0#0001</v>
       </c>
       <c r="J36" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -14798,7 +14793,7 @@
       </c>
       <c r="I37" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ0#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ0#0001</v>
       </c>
       <c r="J37" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -14836,7 +14831,7 @@
       </c>
       <c r="I38" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH1#0002</v>
+        <v>EUR_YC3MRH_FUT3MH1#0001</v>
       </c>
       <c r="J38" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -14874,7 +14869,7 @@
       </c>
       <c r="I39" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM1#0002</v>
+        <v>EUR_YC3MRH_FUT3MM1#0001</v>
       </c>
       <c r="J39" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -14912,7 +14907,7 @@
       </c>
       <c r="I40" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU1#0002</v>
+        <v>EUR_YC3MRH_FUT3MU1#0001</v>
       </c>
       <c r="J40" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -14949,7 +14944,7 @@
       </c>
       <c r="I41" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ1#0002</v>
+        <v>EUR_YC3MRH_FUT3MZ1#0001</v>
       </c>
       <c r="J41" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -14986,7 +14981,7 @@
       </c>
       <c r="I42" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH2#0002</v>
+        <v>EUR_YC3MRH_FUT3MH2#0001</v>
       </c>
       <c r="J42" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -15023,7 +15018,7 @@
       </c>
       <c r="I43" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM2#0002</v>
+        <v>EUR_YC3MRH_FUT3MM2#0001</v>
       </c>
       <c r="J43" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -15060,7 +15055,7 @@
       </c>
       <c r="I44" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU2#0002</v>
+        <v>EUR_YC3MRH_FUT3MU2#0001</v>
       </c>
       <c r="J44" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -15094,7 +15089,7 @@
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -15189,12 +15184,12 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>EUR_YC3MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="142">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>45</v>
+      <c r="L3" s="142" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
       </c>
       <c r="M3" s="172" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
+        <f>_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="171"/>
@@ -15216,7 +15211,7 @@
       </c>
       <c r="L4" s="190" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC3MRH_AB3E_ibor3M#0002</v>
+        <v>EUR_YC3MRH_AB3E_ibor3M#0001</v>
       </c>
       <c r="M4" s="189" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -15280,7 +15275,7 @@
       </c>
       <c r="L6" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E1Y#0002</v>
+        <v>EUR_YC3MRH_AB3E1Y#0001</v>
       </c>
       <c r="M6" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -15339,7 +15334,7 @@
       </c>
       <c r="L7" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E15M#0002</v>
+        <v>EUR_YC3MRH_AB3E15M#0001</v>
       </c>
       <c r="M7" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -15394,7 +15389,7 @@
       </c>
       <c r="L8" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E18M#0002</v>
+        <v>EUR_YC3MRH_AB3E18M#0001</v>
       </c>
       <c r="M8" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -15449,7 +15444,7 @@
       </c>
       <c r="L9" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E21M#0002</v>
+        <v>EUR_YC3MRH_AB3E21M#0001</v>
       </c>
       <c r="M9" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -15504,7 +15499,7 @@
       </c>
       <c r="L10" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E2Y#0002</v>
+        <v>EUR_YC3MRH_AB3E2Y#0001</v>
       </c>
       <c r="M10" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -15559,7 +15554,7 @@
       </c>
       <c r="L11" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E3Y#0002</v>
+        <v>EUR_YC3MRH_AB3E3Y#0001</v>
       </c>
       <c r="M11" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -15605,7 +15600,7 @@
       </c>
       <c r="L12" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E4Y#0002</v>
+        <v>EUR_YC3MRH_AB3E4Y#0001</v>
       </c>
       <c r="M12" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -15651,7 +15646,7 @@
       </c>
       <c r="L13" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E5Y#0002</v>
+        <v>EUR_YC3MRH_AB3E5Y#0001</v>
       </c>
       <c r="M13" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -15697,7 +15692,7 @@
       </c>
       <c r="L14" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E6Y#0002</v>
+        <v>EUR_YC3MRH_AB3E6Y#0001</v>
       </c>
       <c r="M14" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -15743,7 +15738,7 @@
       </c>
       <c r="L15" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E7Y#0002</v>
+        <v>EUR_YC3MRH_AB3E7Y#0001</v>
       </c>
       <c r="M15" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -15789,7 +15784,7 @@
       </c>
       <c r="L16" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E8Y#0002</v>
+        <v>EUR_YC3MRH_AB3E8Y#0001</v>
       </c>
       <c r="M16" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -15835,7 +15830,7 @@
       </c>
       <c r="L17" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E9Y#0002</v>
+        <v>EUR_YC3MRH_AB3E9Y#0001</v>
       </c>
       <c r="M17" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -15881,7 +15876,7 @@
       </c>
       <c r="L18" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E10Y#0002</v>
+        <v>EUR_YC3MRH_AB3E10Y#0001</v>
       </c>
       <c r="M18" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -15927,7 +15922,7 @@
       </c>
       <c r="L19" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E11Y#0002</v>
+        <v>EUR_YC3MRH_AB3E11Y#0001</v>
       </c>
       <c r="M19" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -15973,7 +15968,7 @@
       </c>
       <c r="L20" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E12Y#0002</v>
+        <v>EUR_YC3MRH_AB3E12Y#0001</v>
       </c>
       <c r="M20" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -16019,7 +16014,7 @@
       </c>
       <c r="L21" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E13Y#0002</v>
+        <v>EUR_YC3MRH_AB3E13Y#0001</v>
       </c>
       <c r="M21" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -16065,7 +16060,7 @@
       </c>
       <c r="L22" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E14Y#0002</v>
+        <v>EUR_YC3MRH_AB3E14Y#0001</v>
       </c>
       <c r="M22" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -16111,7 +16106,7 @@
       </c>
       <c r="L23" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E15Y#0002</v>
+        <v>EUR_YC3MRH_AB3E15Y#0001</v>
       </c>
       <c r="M23" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -16157,7 +16152,7 @@
       </c>
       <c r="L24" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E16Y#0002</v>
+        <v>EUR_YC3MRH_AB3E16Y#0001</v>
       </c>
       <c r="M24" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -16203,7 +16198,7 @@
       </c>
       <c r="L25" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E17Y#0002</v>
+        <v>EUR_YC3MRH_AB3E17Y#0001</v>
       </c>
       <c r="M25" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -16249,7 +16244,7 @@
       </c>
       <c r="L26" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E18Y#0002</v>
+        <v>EUR_YC3MRH_AB3E18Y#0001</v>
       </c>
       <c r="M26" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -16295,7 +16290,7 @@
       </c>
       <c r="L27" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E19Y#0002</v>
+        <v>EUR_YC3MRH_AB3E19Y#0001</v>
       </c>
       <c r="M27" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -16341,7 +16336,7 @@
       </c>
       <c r="L28" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E20Y#0002</v>
+        <v>EUR_YC3MRH_AB3E20Y#0001</v>
       </c>
       <c r="M28" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -16387,7 +16382,7 @@
       </c>
       <c r="L29" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E21Y#0002</v>
+        <v>EUR_YC3MRH_AB3E21Y#0001</v>
       </c>
       <c r="M29" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -16433,7 +16428,7 @@
       </c>
       <c r="L30" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E22Y#0002</v>
+        <v>EUR_YC3MRH_AB3E22Y#0001</v>
       </c>
       <c r="M30" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -16479,7 +16474,7 @@
       </c>
       <c r="L31" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E23Y#0002</v>
+        <v>EUR_YC3MRH_AB3E23Y#0001</v>
       </c>
       <c r="M31" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -16525,7 +16520,7 @@
       </c>
       <c r="L32" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E24Y#0002</v>
+        <v>EUR_YC3MRH_AB3E24Y#0001</v>
       </c>
       <c r="M32" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -16571,7 +16566,7 @@
       </c>
       <c r="L33" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E25Y#0002</v>
+        <v>EUR_YC3MRH_AB3E25Y#0001</v>
       </c>
       <c r="M33" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -16617,7 +16612,7 @@
       </c>
       <c r="L34" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E26Y#0002</v>
+        <v>EUR_YC3MRH_AB3E26Y#0001</v>
       </c>
       <c r="M34" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -16663,7 +16658,7 @@
       </c>
       <c r="L35" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E27Y#0002</v>
+        <v>EUR_YC3MRH_AB3E27Y#0001</v>
       </c>
       <c r="M35" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -16709,7 +16704,7 @@
       </c>
       <c r="L36" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E28Y#0002</v>
+        <v>EUR_YC3MRH_AB3E28Y#0001</v>
       </c>
       <c r="M36" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -16755,7 +16750,7 @@
       </c>
       <c r="L37" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E29Y#0002</v>
+        <v>EUR_YC3MRH_AB3E29Y#0001</v>
       </c>
       <c r="M37" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -16801,7 +16796,7 @@
       </c>
       <c r="L38" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E30Y#0002</v>
+        <v>EUR_YC3MRH_AB3E30Y#0001</v>
       </c>
       <c r="M38" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -16847,7 +16842,7 @@
       </c>
       <c r="L39" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E35Y#0002</v>
+        <v>EUR_YC3MRH_AB3E35Y#0001</v>
       </c>
       <c r="M39" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -16893,7 +16888,7 @@
       </c>
       <c r="L40" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E40Y#0002</v>
+        <v>EUR_YC3MRH_AB3E40Y#0001</v>
       </c>
       <c r="M40" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -16939,7 +16934,7 @@
       </c>
       <c r="L41" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E50Y#0002</v>
+        <v>EUR_YC3MRH_AB3E50Y#0001</v>
       </c>
       <c r="M41" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -16985,7 +16980,7 @@
       </c>
       <c r="L42" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3E60Y#0002</v>
+        <v>EUR_YC3MRH_AB3E60Y#0001</v>
       </c>
       <c r="M42" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -17043,7 +17038,7 @@
       </c>
       <c r="L44" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K44,$J44,$E44&amp;"M",Calendar,$F44,$G44,$H44,$L$4,$I44,B44,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S12#0002</v>
+        <v>EUR_YC3MRH_1S12#0001</v>
       </c>
       <c r="M44" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -17088,7 +17083,7 @@
       </c>
       <c r="L45" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K45,$J45,$E45&amp;"M",Calendar,$F45,$G45,$H45,$L$4,$I45,B45,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2S12#0002</v>
+        <v>EUR_YC3MRH_2S12#0001</v>
       </c>
       <c r="M45" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -17133,7 +17128,7 @@
       </c>
       <c r="L46" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K46,$J46,$E46&amp;"M",Calendar,$F46,$G46,$H46,$L$4,$I46,B46,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_3S12#0002</v>
+        <v>EUR_YC3MRH_3S12#0001</v>
       </c>
       <c r="M46" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -17178,7 +17173,7 @@
       </c>
       <c r="L47" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K47,$J47,$E47&amp;"M",Calendar,$F47,$G47,$H47,$L$4,$I47,B47,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_4S12#0002</v>
+        <v>EUR_YC3MRH_4S12#0001</v>
       </c>
       <c r="M47" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -17223,7 +17218,7 @@
       </c>
       <c r="L48" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K48,$J48,$E48&amp;"M",Calendar,$F48,$G48,$H48,$L$4,$I48,B48,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S24#0002</v>
+        <v>EUR_YC3MRH_1S24#0001</v>
       </c>
       <c r="M48" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -17268,7 +17263,7 @@
       </c>
       <c r="L49" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K49,$J49,$E49&amp;"M",Calendar,$F49,$G49,$H49,$L$4,$I49,B49,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_2S24#0002</v>
+        <v>EUR_YC3MRH_2S24#0001</v>
       </c>
       <c r="M49" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -17313,7 +17308,7 @@
       </c>
       <c r="L50" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K50,$J50,$E50&amp;"M",Calendar,$F50,$G50,$H50,$L$4,$I50,B50,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_1S36#0002</v>
+        <v>EUR_YC3MRH_1S36#0001</v>
       </c>
       <c r="M50" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -17367,7 +17362,7 @@
   <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -17462,12 +17457,12 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>EUR_YC3MRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="142">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+      <c r="L3" s="142" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
       </c>
       <c r="M3" s="172" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
+        <f>_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="171"/>
@@ -17489,7 +17484,7 @@
       </c>
       <c r="L4" s="190" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC3MRH_AB3EBASIS_ibor3M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS_ibor3M#0001</v>
       </c>
       <c r="M4" s="189" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -17553,7 +17548,7 @@
       </c>
       <c r="L6" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS1Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS1Y#0001</v>
       </c>
       <c r="M6" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -17606,7 +17601,7 @@
       </c>
       <c r="L7" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS15M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS15M#0001</v>
       </c>
       <c r="M7" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -17655,7 +17650,7 @@
       </c>
       <c r="L8" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS18M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS18M#0001</v>
       </c>
       <c r="M8" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -17704,7 +17699,7 @@
       </c>
       <c r="L9" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS21M#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS21M#0001</v>
       </c>
       <c r="M9" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -17753,7 +17748,7 @@
       </c>
       <c r="L10" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS2Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS2Y#0001</v>
       </c>
       <c r="M10" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -17811,7 +17806,7 @@
       </c>
       <c r="L11" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS3Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS3Y#0001</v>
       </c>
       <c r="M11" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -17869,7 +17864,7 @@
       </c>
       <c r="L12" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS4Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS4Y#0001</v>
       </c>
       <c r="M12" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -17927,7 +17922,7 @@
       </c>
       <c r="L13" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS5Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS5Y#0001</v>
       </c>
       <c r="M13" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -17985,7 +17980,7 @@
       </c>
       <c r="L14" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS6Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS6Y#0001</v>
       </c>
       <c r="M14" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -18043,7 +18038,7 @@
       </c>
       <c r="L15" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS7Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS7Y#0001</v>
       </c>
       <c r="M15" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -18095,7 +18090,7 @@
       </c>
       <c r="L16" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS8Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS8Y#0001</v>
       </c>
       <c r="M16" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -18144,7 +18139,7 @@
       </c>
       <c r="L17" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS9Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS9Y#0001</v>
       </c>
       <c r="M17" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -18193,7 +18188,7 @@
       </c>
       <c r="L18" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS10Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS10Y#0001</v>
       </c>
       <c r="M18" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -18242,7 +18237,7 @@
       </c>
       <c r="L19" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS11Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS11Y#0001</v>
       </c>
       <c r="M19" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -18291,7 +18286,7 @@
       </c>
       <c r="L20" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS12Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS12Y#0001</v>
       </c>
       <c r="M20" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -18340,7 +18335,7 @@
       </c>
       <c r="L21" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS13Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS13Y#0001</v>
       </c>
       <c r="M21" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -18389,7 +18384,7 @@
       </c>
       <c r="L22" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS14Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS14Y#0001</v>
       </c>
       <c r="M22" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -18438,7 +18433,7 @@
       </c>
       <c r="L23" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS15Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS15Y#0001</v>
       </c>
       <c r="M23" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -18487,7 +18482,7 @@
       </c>
       <c r="L24" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS16Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS16Y#0001</v>
       </c>
       <c r="M24" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -18536,7 +18531,7 @@
       </c>
       <c r="L25" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS17Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS17Y#0001</v>
       </c>
       <c r="M25" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -18585,7 +18580,7 @@
       </c>
       <c r="L26" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS18Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS18Y#0001</v>
       </c>
       <c r="M26" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -18634,7 +18629,7 @@
       </c>
       <c r="L27" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS19Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS19Y#0001</v>
       </c>
       <c r="M27" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -18683,7 +18678,7 @@
       </c>
       <c r="L28" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS20Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS20Y#0001</v>
       </c>
       <c r="M28" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -18732,7 +18727,7 @@
       </c>
       <c r="L29" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS21Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS21Y#0001</v>
       </c>
       <c r="M29" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -18781,7 +18776,7 @@
       </c>
       <c r="L30" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS22Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS22Y#0001</v>
       </c>
       <c r="M30" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -18830,7 +18825,7 @@
       </c>
       <c r="L31" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS23Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS23Y#0001</v>
       </c>
       <c r="M31" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -18879,7 +18874,7 @@
       </c>
       <c r="L32" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS24Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS24Y#0001</v>
       </c>
       <c r="M32" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -18928,7 +18923,7 @@
       </c>
       <c r="L33" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS25Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS25Y#0001</v>
       </c>
       <c r="M33" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -18977,7 +18972,7 @@
       </c>
       <c r="L34" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS26Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS26Y#0001</v>
       </c>
       <c r="M34" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -19026,7 +19021,7 @@
       </c>
       <c r="L35" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS27Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS27Y#0001</v>
       </c>
       <c r="M35" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -19075,7 +19070,7 @@
       </c>
       <c r="L36" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS28Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS28Y#0001</v>
       </c>
       <c r="M36" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -19124,7 +19119,7 @@
       </c>
       <c r="L37" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS29Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS29Y#0001</v>
       </c>
       <c r="M37" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -19173,7 +19168,7 @@
       </c>
       <c r="L38" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS30Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS30Y#0001</v>
       </c>
       <c r="M38" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -19222,7 +19217,7 @@
       </c>
       <c r="L39" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS35Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS35Y#0001</v>
       </c>
       <c r="M39" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -19271,7 +19266,7 @@
       </c>
       <c r="L40" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS40Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS40Y#0001</v>
       </c>
       <c r="M40" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -19320,7 +19315,7 @@
       </c>
       <c r="L41" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS50Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS50Y#0001</v>
       </c>
       <c r="M41" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -19369,7 +19364,7 @@
       </c>
       <c r="L42" s="173" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_AB3EBASIS60Y#0002</v>
+        <v>EUR_YC3MRH_AB3EBASIS60Y#0001</v>
       </c>
       <c r="M42" s="172" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/EUR_YC3MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YC3MBootstrapping.xlsx
@@ -1356,7 +1356,7 @@
     <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1857,6 +1857,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2195,7 +2198,7 @@
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="205" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Mar  3 2014 10:58:57</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 18 2014 11:20:01</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2427,7 +2430,7 @@
       </c>
       <c r="D14" s="78" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYC3M#0001</v>
+        <v>_EURYC3M#0003</v>
       </c>
       <c r="E14" s="55"/>
       <c r="F14" s="54"/>
@@ -2592,7 +2595,7 @@
       <c r="B27" s="56"/>
       <c r="C27" s="60">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41739</v>
+        <v>41752</v>
       </c>
       <c r="D27" s="59">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2605,11 +2608,11 @@
       <c r="B28" s="56"/>
       <c r="C28" s="58">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63654</v>
+        <v>63668</v>
       </c>
       <c r="D28" s="57">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.21478731757224265</v>
+        <v>0.22173953767112972</v>
       </c>
       <c r="E28" s="55"/>
       <c r="F28" s="54"/>
@@ -2687,10 +2690,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:N162"/>
+  <dimension ref="A1:N163"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2756,7 +2759,7 @@
       </c>
       <c r="F2" s="33">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>3.7320000000000001E-3</v>
+        <v>3.7260000000000001E-3</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="32" t="b">
@@ -2770,11 +2773,11 @@
       </c>
       <c r="K2" s="31">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L2" s="30">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41740</v>
+        <v>41754</v>
       </c>
       <c r="M2" s="1">
         <v>30</v>
@@ -2795,7 +2798,7 @@
       </c>
       <c r="F3" s="33">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
-        <v>3.3140000000000001E-3</v>
+        <v>3.545E-3</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="32" t="b">
@@ -2809,11 +2812,11 @@
       </c>
       <c r="K3" s="31">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L3" s="30">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41746</v>
+        <v>41761</v>
       </c>
       <c r="M3" s="1">
         <v>40</v>
@@ -2834,7 +2837,7 @@
       </c>
       <c r="F4" s="33">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>3.4680000000000002E-3</v>
+        <v>3.6050000000000001E-3</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="32" t="b">
@@ -2848,11 +2851,11 @@
       </c>
       <c r="K4" s="31">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L4" s="30">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41753</v>
+        <v>41767</v>
       </c>
       <c r="M4" s="1">
         <v>50</v>
@@ -2873,7 +2876,7 @@
       </c>
       <c r="F5" s="33">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>3.4840000000000001E-3</v>
+        <v>3.5170000000000002E-3</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="32" t="b">
@@ -2887,11 +2890,11 @@
       </c>
       <c r="K5" s="31">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L5" s="30">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41761</v>
+        <v>41774</v>
       </c>
       <c r="M5" s="1">
         <v>60</v>
@@ -2912,7 +2915,7 @@
       </c>
       <c r="F6" s="33">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>3.3930000000000002E-3</v>
+        <v>3.4619999999999998E-3</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="32" t="b">
@@ -2926,11 +2929,11 @@
       </c>
       <c r="K6" s="31">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L6" s="30">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41771</v>
+        <v>41785</v>
       </c>
       <c r="M6" s="1">
         <v>70</v>
@@ -2951,7 +2954,7 @@
       </c>
       <c r="F7" s="33">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>3.3110000000000001E-3</v>
+        <v>3.3700000000000002E-3</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="32" t="b">
@@ -2965,11 +2968,11 @@
       </c>
       <c r="K7" s="31">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L7" s="30">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41800</v>
+        <v>41814</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -2984,7 +2987,7 @@
       </c>
       <c r="F8" s="33">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>3.2699999999999999E-3</v>
+        <v>3.2799999999999999E-3</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="32" t="b">
@@ -2998,11 +3001,11 @@
       </c>
       <c r="K8" s="31">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L8" s="30">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41830</v>
+        <v>41844</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -3036,11 +3039,11 @@
       </c>
       <c r="K9" s="39">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L9" s="38">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41830</v>
+        <v>41844</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -3074,11 +3077,11 @@
       </c>
       <c r="K10" s="24">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41740</v>
+        <v>41754</v>
       </c>
       <c r="L10" s="23">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41831</v>
+        <v>41845</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -3098,7 +3101,7 @@
       </c>
       <c r="F11" s="33">
         <f>_xll.qlRateHelperQuoteValue($E11,Trigger)</f>
-        <v>3.1999999999999997E-3</v>
+        <v>3.13E-3</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="32" t="b">
@@ -3112,11 +3115,11 @@
       </c>
       <c r="K11" s="31">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41771</v>
+        <v>41785</v>
       </c>
       <c r="L11" s="30">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>41863</v>
+        <v>41877</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
@@ -3136,7 +3139,7 @@
       </c>
       <c r="F12" s="33">
         <f>_xll.qlRateHelperQuoteValue($E12,Trigger)</f>
-        <v>2.9600000000000004E-3</v>
+        <v>2.9300000000000003E-3</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="32" t="b">
@@ -3150,11 +3153,11 @@
       </c>
       <c r="K12" s="31">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41800</v>
+        <v>41814</v>
       </c>
       <c r="L12" s="30">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>41892</v>
+        <v>41906</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
@@ -3174,7 +3177,7 @@
       </c>
       <c r="F13" s="33">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
-        <v>2.8900000000000002E-3</v>
+        <v>2.8600000000000001E-3</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="32" t="b">
@@ -3188,11 +3191,11 @@
       </c>
       <c r="K13" s="31">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41830</v>
+        <v>41844</v>
       </c>
       <c r="L13" s="30">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>41922</v>
+        <v>41936</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
@@ -3212,7 +3215,7 @@
       </c>
       <c r="F14" s="33">
         <f>_xll.qlRateHelperQuoteValue($E14,Trigger)</f>
-        <v>2.8100000000000004E-3</v>
+        <v>2.7800000000000004E-3</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="32" t="b">
@@ -3226,11 +3229,11 @@
       </c>
       <c r="K14" s="31">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>41862</v>
+        <v>41876</v>
       </c>
       <c r="L14" s="30">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>41954</v>
+        <v>41968</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
@@ -3250,7 +3253,7 @@
       </c>
       <c r="F15" s="33">
         <f>_xll.qlRateHelperQuoteValue($E15,Trigger)</f>
-        <v>2.7400000000000002E-3</v>
+        <v>2.7200000000000002E-3</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="32" t="b">
@@ -3264,11 +3267,11 @@
       </c>
       <c r="K15" s="31">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>41892</v>
+        <v>41906</v>
       </c>
       <c r="L15" s="30">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>41983</v>
+        <v>41997</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
@@ -3288,7 +3291,7 @@
       </c>
       <c r="F16" s="33">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>2.8100000000000004E-3</v>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="32" t="b">
@@ -3302,11 +3305,11 @@
       </c>
       <c r="K16" s="31">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41922</v>
+        <v>41936</v>
       </c>
       <c r="L16" s="30">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>42016</v>
+        <v>42030</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3776,15 +3779,15 @@
       </c>
       <c r="D29" s="34" t="str">
         <f t="array" ref="D29:D70">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A29:$A70)</f>
-        <v>J4</v>
+        <v>K4</v>
       </c>
       <c r="E29" s="34" t="str">
         <f>Futures_3M!I3</f>
-        <v>EUR_YC3MRH_FUT3MJ4#0001</v>
+        <v>EUR_YC3MRH_FUT3MK4#0001</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlRateHelperQuoteValue($E29,Trigger)</f>
-        <v>99.672499999999999</v>
+        <v>99.682500000000005</v>
       </c>
       <c r="G29" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E29,Trigger)</f>
@@ -3801,11 +3804,11 @@
       </c>
       <c r="K29" s="31">
         <f>_xll.qlRateHelperEarliestDate($E29,Trigger)</f>
-        <v>41745</v>
+        <v>41780</v>
       </c>
       <c r="L29" s="30">
         <f>_xll.qlRateHelperLatestDate($E29,Trigger)</f>
-        <v>41836</v>
+        <v>41872</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -3818,15 +3821,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D30" s="34" t="str">
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E30" s="34" t="str">
         <f>Futures_3M!I4</f>
-        <v>EUR_YC3MRH_FUT3MK4#0001</v>
+        <v>EUR_YC3MRH_FUT3MM4#0001</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlRateHelperQuoteValue($E30,Trigger)</f>
-        <v>99.6875</v>
+        <v>99.707499999999996</v>
       </c>
       <c r="G30" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E30,Trigger)</f>
@@ -3843,11 +3846,11 @@
       </c>
       <c r="K30" s="31">
         <f>_xll.qlRateHelperEarliestDate($E30,Trigger)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
       <c r="L30" s="30">
         <f>_xll.qlRateHelperLatestDate($E30,Trigger)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -3860,19 +3863,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D31" s="34" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E31" s="34" t="str">
         <f>Futures_3M!I5</f>
-        <v>EUR_YC3MRH_FUT3MM4#0001</v>
-      </c>
-      <c r="F31" s="48">
+        <v>EUR_YC3MRH_FUT3MN4#0001</v>
+      </c>
+      <c r="F31" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E31,Trigger)</f>
-        <v>99.707499999999996</v>
-      </c>
-      <c r="G31" s="33">
+        <v>#NUM!</v>
+      </c>
+      <c r="G31" s="33" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E31,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H31" s="32" t="b">
         <v>1</v>
@@ -3885,11 +3888,11 @@
       </c>
       <c r="K31" s="31">
         <f>_xll.qlRateHelperEarliestDate($E31,Trigger)</f>
-        <v>41808</v>
+        <v>41836</v>
       </c>
       <c r="L31" s="30">
         <f>_xll.qlRateHelperLatestDate($E31,Trigger)</f>
-        <v>41900</v>
+        <v>41928</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -3902,11 +3905,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D32" s="34" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E32" s="34" t="str">
         <f>Futures_3M!I6</f>
-        <v>EUR_YC3MRH_FUT3MN4#0001</v>
+        <v>EUR_YC3MRH_FUT3MQ4#0001</v>
       </c>
       <c r="F32" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E32,Trigger)</f>
@@ -3927,11 +3930,11 @@
       </c>
       <c r="K32" s="31">
         <f>_xll.qlRateHelperEarliestDate($E32,Trigger)</f>
-        <v>41836</v>
+        <v>41871</v>
       </c>
       <c r="L32" s="30">
         <f>_xll.qlRateHelperLatestDate($E32,Trigger)</f>
-        <v>41928</v>
+        <v>41963</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -3944,19 +3947,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D33" s="34" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E33" s="34" t="str">
         <f>Futures_3M!I7</f>
-        <v>EUR_YC3MRH_FUT3MQ4#0001</v>
-      </c>
-      <c r="F33" s="48" t="e">
+        <v>EUR_YC3MRH_FUT3MU4#0001</v>
+      </c>
+      <c r="F33" s="48">
         <f>_xll.qlRateHelperQuoteValue($E33,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G33" s="33" t="e">
+        <v>99.727499999999992</v>
+      </c>
+      <c r="G33" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E33,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H33" s="32" t="b">
         <v>1</v>
@@ -3969,11 +3972,11 @@
       </c>
       <c r="K33" s="31">
         <f>_xll.qlRateHelperEarliestDate($E33,Trigger)</f>
-        <v>41871</v>
+        <v>41899</v>
       </c>
       <c r="L33" s="30">
         <f>_xll.qlRateHelperLatestDate($E33,Trigger)</f>
-        <v>41963</v>
+        <v>41990</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -3986,19 +3989,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D34" s="34" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E34" s="34" t="str">
         <f>Futures_3M!I8</f>
-        <v>EUR_YC3MRH_FUT3MU4#0001</v>
-      </c>
-      <c r="F34" s="48">
+        <v>EUR_YC3MRH_FUT3MV4#0001</v>
+      </c>
+      <c r="F34" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
-        <v>99.727499999999992</v>
-      </c>
-      <c r="G34" s="33">
+        <v>#NUM!</v>
+      </c>
+      <c r="G34" s="33" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E34,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H34" s="32" t="b">
         <v>1</v>
@@ -4011,11 +4014,11 @@
       </c>
       <c r="K34" s="31">
         <f>_xll.qlRateHelperEarliestDate($E34,Trigger)</f>
-        <v>41899</v>
+        <v>41927</v>
       </c>
       <c r="L34" s="30">
         <f>_xll.qlRateHelperLatestDate($E34,Trigger)</f>
-        <v>41990</v>
+        <v>42019</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -4028,11 +4031,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D35" s="34" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E35" s="34" t="str">
         <f>Futures_3M!I9</f>
-        <v>EUR_YC3MRH_FUT3MV4#0001</v>
+        <v>EUR_YC3MRH_FUT3MX4#0001</v>
       </c>
       <c r="F35" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
@@ -4053,11 +4056,11 @@
       </c>
       <c r="K35" s="31">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>41927</v>
+        <v>41962</v>
       </c>
       <c r="L35" s="30">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>42019</v>
+        <v>42054</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -4070,19 +4073,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D36" s="34" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E36" s="34" t="str">
         <f>Futures_3M!I10</f>
-        <v>EUR_YC3MRH_FUT3MX4#0001</v>
-      </c>
-      <c r="F36" s="48" t="e">
+        <v>EUR_YC3MRH_FUT3MZ4#0001</v>
+      </c>
+      <c r="F36" s="48">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G36" s="33" t="e">
+        <v>99.717500000000001</v>
+      </c>
+      <c r="G36" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E36,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H36" s="32" t="b">
         <v>1</v>
@@ -4095,11 +4098,11 @@
       </c>
       <c r="K36" s="31">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>41962</v>
+        <v>41990</v>
       </c>
       <c r="L36" s="30">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>42054</v>
+        <v>42080</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -4112,19 +4115,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D37" s="34" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E37" s="34" t="str">
         <f>Futures_3M!I11</f>
-        <v>EUR_YC3MRH_FUT3MZ4#0001</v>
-      </c>
-      <c r="F37" s="48">
+        <v>EUR_YC3MRH_FUT3MF5#0001</v>
+      </c>
+      <c r="F37" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
-        <v>99.717500000000001</v>
-      </c>
-      <c r="G37" s="33">
+        <v>#NUM!</v>
+      </c>
+      <c r="G37" s="33" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E37,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H37" s="32" t="b">
         <v>1</v>
@@ -4137,11 +4140,11 @@
       </c>
       <c r="K37" s="31">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>41990</v>
+        <v>42025</v>
       </c>
       <c r="L37" s="30">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>42080</v>
+        <v>42115</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -4154,11 +4157,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D38" s="34" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="E38" s="34" t="str">
         <f>Futures_3M!I12</f>
-        <v>EUR_YC3MRH_FUT3MF5#0001</v>
+        <v>EUR_YC3MRH_FUT3MG5#0001</v>
       </c>
       <c r="F38" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4179,11 +4182,11 @@
       </c>
       <c r="K38" s="31">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="L38" s="30">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>42115</v>
+        <v>42142</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -4196,19 +4199,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D39" s="34" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="E39" s="34" t="str">
         <f>Futures_3M!I13</f>
-        <v>EUR_YC3MRH_FUT3MG5#0001</v>
-      </c>
-      <c r="F39" s="48" t="e">
+        <v>EUR_YC3MRH_FUT3MH5#0001</v>
+      </c>
+      <c r="F39" s="48">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G39" s="33" t="e">
+        <v>99.697499999999991</v>
+      </c>
+      <c r="G39" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E39,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H39" s="32" t="b">
         <v>1</v>
@@ -4221,11 +4224,11 @@
       </c>
       <c r="K39" s="31">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>42053</v>
+        <v>42081</v>
       </c>
       <c r="L39" s="30">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>42142</v>
+        <v>42173</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -4238,19 +4241,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D40" s="34" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="E40" s="34" t="str">
         <f>Futures_3M!I14</f>
-        <v>EUR_YC3MRH_FUT3MH5#0001</v>
-      </c>
-      <c r="F40" s="48">
+        <v>EUR_YC3MRH_FUT3MJ5#0001</v>
+      </c>
+      <c r="F40" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
-        <v>99.692499999999995</v>
-      </c>
-      <c r="G40" s="33">
+        <v>#NUM!</v>
+      </c>
+      <c r="G40" s="33" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E40,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H40" s="32" t="b">
         <v>1</v>
@@ -4263,11 +4266,11 @@
       </c>
       <c r="K40" s="31">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
-        <v>42081</v>
+        <v>42109</v>
       </c>
       <c r="L40" s="30">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
-        <v>42173</v>
+        <v>42200</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -4288,7 +4291,7 @@
       </c>
       <c r="F41" s="48">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>99.657499999999999</v>
+        <v>99.662499999999994</v>
       </c>
       <c r="G41" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E41,Trigger)</f>
@@ -4330,7 +4333,7 @@
       </c>
       <c r="F42" s="48">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>99.612499999999997</v>
+        <v>99.622500000000002</v>
       </c>
       <c r="G42" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E42,Trigger)</f>
@@ -4372,7 +4375,7 @@
       </c>
       <c r="F43" s="48">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
-        <v>99.552500000000009</v>
+        <v>99.5625</v>
       </c>
       <c r="G43" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E43,Trigger)</f>
@@ -4414,7 +4417,7 @@
       </c>
       <c r="F44" s="48">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>99.482500000000002</v>
+        <v>99.492500000000007</v>
       </c>
       <c r="G44" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E44,Trigger)</f>
@@ -4456,7 +4459,7 @@
       </c>
       <c r="F45" s="48">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>99.397500000000008</v>
+        <v>99.407499999999999</v>
       </c>
       <c r="G45" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
@@ -4498,7 +4501,7 @@
       </c>
       <c r="F46" s="48">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
-        <v>99.295000000000002</v>
+        <v>99.305000000000007</v>
       </c>
       <c r="G46" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E46,Trigger)</f>
@@ -4540,7 +4543,7 @@
       </c>
       <c r="F47" s="48">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>99.1875</v>
+        <v>99.194999999999993</v>
       </c>
       <c r="G47" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
@@ -4582,7 +4585,7 @@
       </c>
       <c r="F48" s="48">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>99.087500000000006</v>
+        <v>99.09</v>
       </c>
       <c r="G48" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E48,Trigger)</f>
@@ -4624,7 +4627,7 @@
       </c>
       <c r="F49" s="48">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
-        <v>98.967500000000001</v>
+        <v>98.97</v>
       </c>
       <c r="G49" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E49,Trigger)</f>
@@ -4708,7 +4711,7 @@
       </c>
       <c r="F51" s="48">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>98.732500000000002</v>
+        <v>98.734999999999999</v>
       </c>
       <c r="G51" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E51,Trigger)</f>
@@ -4750,7 +4753,7 @@
       </c>
       <c r="F52" s="48">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>98.625</v>
+        <v>98.627499999999998</v>
       </c>
       <c r="G52" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E52,Trigger)</f>
@@ -4792,7 +4795,7 @@
       </c>
       <c r="F53" s="48">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>98.517500000000013</v>
+        <v>98.527500000000003</v>
       </c>
       <c r="G53" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E53,Trigger)</f>
@@ -4834,7 +4837,7 @@
       </c>
       <c r="F54" s="48">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>98.414999999999992</v>
+        <v>98.367500000000007</v>
       </c>
       <c r="G54" s="33">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E54,Trigger)</f>
@@ -4874,13 +4877,13 @@
         <f>Futures_3M!I29</f>
         <v>EUR_YC3MRH_FUT3MZ8#0001</v>
       </c>
-      <c r="F55" s="48">
+      <c r="F55" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>98.297499999999999</v>
-      </c>
-      <c r="G55" s="33">
+        <v>#NUM!</v>
+      </c>
+      <c r="G55" s="33" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E55,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H55" s="32" t="b">
         <v>1</v>
@@ -4916,13 +4919,13 @@
         <f>Futures_3M!I30</f>
         <v>EUR_YC3MRH_FUT3MH9#0001</v>
       </c>
-      <c r="F56" s="48">
+      <c r="F56" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>98.197499999999991</v>
-      </c>
-      <c r="G56" s="33">
+        <v>#NUM!</v>
+      </c>
+      <c r="G56" s="33" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E56,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H56" s="32" t="b">
         <v>1</v>
@@ -4958,13 +4961,13 @@
         <f>Futures_3M!I31</f>
         <v>EUR_YC3MRH_FUT3MM9#0001</v>
       </c>
-      <c r="F57" s="48">
+      <c r="F57" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>98.087500000000006</v>
-      </c>
-      <c r="G57" s="33">
+        <v>#NUM!</v>
+      </c>
+      <c r="G57" s="33" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E57,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H57" s="32" t="b">
         <v>1</v>
@@ -5000,13 +5003,13 @@
         <f>Futures_3M!I32</f>
         <v>EUR_YC3MRH_FUT3MU9#0001</v>
       </c>
-      <c r="F58" s="48">
+      <c r="F58" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>97.984999999999999</v>
-      </c>
-      <c r="G58" s="33">
+        <v>#NUM!</v>
+      </c>
+      <c r="G58" s="33" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E58,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H58" s="32" t="b">
         <v>1</v>
@@ -5042,13 +5045,13 @@
         <f>Futures_3M!I33</f>
         <v>EUR_YC3MRH_FUT3MZ9#0001</v>
       </c>
-      <c r="F59" s="48">
+      <c r="F59" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>97.884999999999991</v>
-      </c>
-      <c r="G59" s="33">
+        <v>#NUM!</v>
+      </c>
+      <c r="G59" s="33" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E59,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H59" s="32" t="b">
         <v>1</v>
@@ -5084,13 +5087,13 @@
         <f>Futures_3M!I34</f>
         <v>EUR_YC3MRH_FUT3MH0#0001</v>
       </c>
-      <c r="F60" s="48">
+      <c r="F60" s="48" t="e">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>97.789999999999992</v>
-      </c>
-      <c r="G60" s="33">
+        <v>#NUM!</v>
+      </c>
+      <c r="G60" s="33" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E60,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H60" s="32" t="b">
         <v>1</v>
@@ -5965,7 +5968,7 @@
       </c>
       <c r="F82" s="41">
         <f>_xll.qlRateHelperQuoteValue($E82,Trigger)</f>
-        <v>2.9000000000000002E-3</v>
+        <v>2.8800000000000002E-3</v>
       </c>
       <c r="G82" s="41">
         <f>_xll.qlSwapRateHelperSpread($E82,Trigger)</f>
@@ -5982,11 +5985,11 @@
       </c>
       <c r="K82" s="39">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L82" s="38">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>42104</v>
+        <v>42118</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.2">
@@ -6003,7 +6006,7 @@
       </c>
       <c r="F83" s="33">
         <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
-        <v>3.0100000000000005E-3</v>
+        <v>2.9900000000000005E-3</v>
       </c>
       <c r="G83" s="33">
         <f>_xll.qlSwapRateHelperSpread($E83,Trigger)</f>
@@ -6020,11 +6023,11 @@
       </c>
       <c r="K83" s="31">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L83" s="30">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>42104</v>
+        <v>42118</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
@@ -6041,7 +6044,7 @@
       </c>
       <c r="F84" s="33">
         <f>_xll.qlRateHelperQuoteValue($E84,Trigger)</f>
-        <v>3.2999999999999995E-3</v>
+        <v>3.2699999999999995E-3</v>
       </c>
       <c r="G84" s="33">
         <f>_xll.qlSwapRateHelperSpread($E84,Trigger)</f>
@@ -6058,11 +6061,11 @@
       </c>
       <c r="K84" s="31">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L84" s="30">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>42104</v>
+        <v>42118</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.2">
@@ -6079,7 +6082,7 @@
       </c>
       <c r="F85" s="33">
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
-        <v>3.6900000000000001E-3</v>
+        <v>3.6700000000000001E-3</v>
       </c>
       <c r="G85" s="33">
         <f>_xll.qlSwapRateHelperSpread($E85,Trigger)</f>
@@ -6096,11 +6099,11 @@
       </c>
       <c r="K85" s="31">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L85" s="30">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>42104</v>
+        <v>42118</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.2">
@@ -6117,7 +6120,7 @@
       </c>
       <c r="F86" s="33">
         <f>_xll.qlRateHelperQuoteValue($E86,Trigger)</f>
-        <v>3.5499999999999998E-3</v>
+        <v>3.5299999999999997E-3</v>
       </c>
       <c r="G86" s="33">
         <f>_xll.qlSwapRateHelperSpread($E86,Trigger)</f>
@@ -6134,11 +6137,11 @@
       </c>
       <c r="K86" s="31">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L86" s="30">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>42471</v>
+        <v>42485</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
@@ -6155,7 +6158,7 @@
       </c>
       <c r="F87" s="33">
         <f>_xll.qlRateHelperQuoteValue($E87,Trigger)</f>
-        <v>3.9500000000000004E-3</v>
+        <v>3.9199999999999999E-3</v>
       </c>
       <c r="G87" s="33">
         <f>_xll.qlSwapRateHelperSpread($E87,Trigger)</f>
@@ -6172,11 +6175,11 @@
       </c>
       <c r="K87" s="31">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L87" s="30">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>42471</v>
+        <v>42485</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.2">
@@ -6193,7 +6196,7 @@
       </c>
       <c r="F88" s="26">
         <f>_xll.qlRateHelperQuoteValue($E88,Trigger)</f>
-        <v>4.8900000000000002E-3</v>
+        <v>4.8700000000000002E-3</v>
       </c>
       <c r="G88" s="26">
         <f>_xll.qlSwapRateHelperSpread($E88,Trigger)</f>
@@ -6210,11 +6213,11 @@
       </c>
       <c r="K88" s="24">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L88" s="23">
         <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>42835</v>
+        <v>42849</v>
       </c>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.2">
@@ -6252,15 +6255,15 @@
       </c>
       <c r="K89" s="31">
         <f>_xll.qlRateHelperEarliestDate($E89,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L89" s="30">
         <f>_xll.qlRateHelperLatestDate($E89,Trigger)</f>
-        <v>42104</v>
+        <v>42118</v>
       </c>
       <c r="N89" s="37">
         <f t="shared" ref="N89:N125" si="7">IF(G89=G126,F89-F126,"--")</f>
-        <v>5.0000000000006636E-6</v>
+        <v>4.3368086899420177E-19</v>
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.2">
@@ -6298,15 +6301,15 @@
       </c>
       <c r="K90" s="31">
         <f>_xll.qlRateHelperEarliestDate($E90,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L90" s="30">
         <f>_xll.qlRateHelperLatestDate($E90,Trigger)</f>
-        <v>42195</v>
-      </c>
-      <c r="N90" s="37">
+        <v>42209</v>
+      </c>
+      <c r="N90" s="37" t="e">
         <f t="shared" si="7"/>
-        <v>2.5200000000000049E-4</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.2">
@@ -6327,7 +6330,7 @@
       </c>
       <c r="F91" s="33">
         <f>_xll.qlRateHelperQuoteValue($E91,Trigger)</f>
-        <v>3.13E-3</v>
+        <v>3.14E-3</v>
       </c>
       <c r="G91" s="33">
         <f>_xll.qlSwapRateHelperSpread($E91,Trigger)</f>
@@ -6344,15 +6347,15 @@
       </c>
       <c r="K91" s="31">
         <f>_xll.qlRateHelperEarliestDate($E91,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L91" s="30">
         <f>_xll.qlRateHelperLatestDate($E91,Trigger)</f>
-        <v>42289</v>
+        <v>42303</v>
       </c>
       <c r="N91" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.3368086899420177E-19</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.2">
@@ -6373,7 +6376,7 @@
       </c>
       <c r="F92" s="33">
         <f>_xll.qlRateHelperQuoteValue($E92,Trigger)</f>
-        <v>3.2699999999999995E-3</v>
+        <v>3.2899999999999995E-3</v>
       </c>
       <c r="G92" s="33">
         <f>_xll.qlSwapRateHelperSpread($E92,Trigger)</f>
@@ -6390,15 +6393,15 @@
       </c>
       <c r="K92" s="31">
         <f>_xll.qlRateHelperEarliestDate($E92,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L92" s="30">
         <f>_xll.qlRateHelperLatestDate($E92,Trigger)</f>
-        <v>42380</v>
-      </c>
-      <c r="N92" s="37">
+        <v>42394</v>
+      </c>
+      <c r="N92" s="37" t="e">
         <f t="shared" si="7"/>
-        <v>1.6899999999999988E-4</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.2">
@@ -6419,7 +6422,7 @@
       </c>
       <c r="F93" s="33">
         <f>_xll.qlRateHelperQuoteValue($E93,Trigger)</f>
-        <v>3.4499999999999999E-3</v>
+        <v>3.4699999999999996E-3</v>
       </c>
       <c r="G93" s="33">
         <f>_xll.qlSwapRateHelperSpread($E93,Trigger)</f>
@@ -6436,15 +6439,15 @@
       </c>
       <c r="K93" s="31">
         <f>_xll.qlRateHelperEarliestDate($E93,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L93" s="30">
         <f>_xll.qlRateHelperLatestDate($E93,Trigger)</f>
-        <v>42471</v>
+        <v>42485</v>
       </c>
       <c r="N93" s="37">
         <f t="shared" si="7"/>
-        <v>5.0000000000006636E-6</v>
+        <v>-4.3368086899420177E-19</v>
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.2">
@@ -6465,7 +6468,7 @@
       </c>
       <c r="F94" s="33">
         <f>_xll.qlRateHelperQuoteValue($E94,Trigger)</f>
-        <v>4.5899999999999995E-3</v>
+        <v>4.6099999999999995E-3</v>
       </c>
       <c r="G94" s="33">
         <f>_xll.qlSwapRateHelperSpread($E94,Trigger)</f>
@@ -6482,15 +6485,15 @@
       </c>
       <c r="K94" s="31">
         <f>_xll.qlRateHelperEarliestDate($E94,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L94" s="30">
         <f>_xll.qlRateHelperLatestDate($E94,Trigger)</f>
-        <v>42835</v>
+        <v>42849</v>
       </c>
       <c r="N94" s="37">
         <f t="shared" si="7"/>
-        <v>4.9999999999997963E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.2">
@@ -6511,7 +6514,7 @@
       </c>
       <c r="F95" s="33">
         <f>_xll.qlRateHelperQuoteValue($E95,Trigger)</f>
-        <v>6.1900000000000002E-3</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="G95" s="33">
         <f>_xll.qlSwapRateHelperSpread($E95,Trigger)</f>
@@ -6528,15 +6531,15 @@
       </c>
       <c r="K95" s="31">
         <f>_xll.qlRateHelperEarliestDate($E95,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L95" s="30">
         <f>_xll.qlRateHelperLatestDate($E95,Trigger)</f>
-        <v>43200</v>
+        <v>43214</v>
       </c>
       <c r="N95" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.9999999999997963E-6</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.2">
@@ -6557,7 +6560,7 @@
       </c>
       <c r="F96" s="33">
         <f>_xll.qlRateHelperQuoteValue($E96,Trigger)</f>
-        <v>7.9899999999999988E-3</v>
+        <v>8.1899999999999994E-3</v>
       </c>
       <c r="G96" s="33">
         <f>_xll.qlSwapRateHelperSpread($E96,Trigger)</f>
@@ -6574,15 +6577,15 @@
       </c>
       <c r="K96" s="31">
         <f>_xll.qlRateHelperEarliestDate($E96,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L96" s="30">
         <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
-        <v>43565</v>
+        <v>43579</v>
       </c>
       <c r="N96" s="37">
         <f t="shared" si="7"/>
-        <v>4.9999999999997963E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.2">
@@ -6603,7 +6606,7 @@
       </c>
       <c r="F97" s="33">
         <f>_xll.qlRateHelperQuoteValue($E97,Trigger)</f>
-        <v>9.8499999999999994E-3</v>
+        <v>1.0030000000000001E-2</v>
       </c>
       <c r="G97" s="33">
         <f>_xll.qlSwapRateHelperSpread($E97,Trigger)</f>
@@ -6620,15 +6623,15 @@
       </c>
       <c r="K97" s="31">
         <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L97" s="30">
         <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
-        <v>43935</v>
+        <v>43945</v>
       </c>
       <c r="N97" s="37">
         <f t="shared" si="7"/>
-        <v>-1.7347234759768071E-18</v>
+        <v>5.000000000001531E-6</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.2">
@@ -6649,7 +6652,7 @@
       </c>
       <c r="F98" s="33">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
-        <v>1.1659999999999998E-2</v>
+        <v>1.1800000000000001E-2</v>
       </c>
       <c r="G98" s="33">
         <f>_xll.qlSwapRateHelperSpread($E98,Trigger)</f>
@@ -6666,15 +6669,15 @@
       </c>
       <c r="K98" s="31">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L98" s="30">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>44298</v>
+        <v>44312</v>
       </c>
       <c r="N98" s="37">
         <f t="shared" si="7"/>
-        <v>4.9999999999980616E-6</v>
+        <v>5.000000000001531E-6</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.2">
@@ -6695,7 +6698,7 @@
       </c>
       <c r="F99" s="33">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
-        <v>1.3370000000000002E-2</v>
+        <v>1.3469999999999999E-2</v>
       </c>
       <c r="G99" s="33">
         <f>_xll.qlSwapRateHelperSpread($E99,Trigger)</f>
@@ -6712,15 +6715,15 @@
       </c>
       <c r="K99" s="31">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L99" s="30">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>44662</v>
+        <v>44676</v>
       </c>
       <c r="N99" s="37">
         <f t="shared" si="7"/>
-        <v>1.7347234759768071E-18</v>
+        <v>-1.7347234759768071E-18</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.2">
@@ -6741,7 +6744,7 @@
       </c>
       <c r="F100" s="33">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
-        <v>1.494E-2</v>
+        <v>1.502E-2</v>
       </c>
       <c r="G100" s="33">
         <f>_xll.qlSwapRateHelperSpread($E100,Trigger)</f>
@@ -6758,11 +6761,11 @@
       </c>
       <c r="K100" s="31">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L100" s="30">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="N100" s="37">
         <f t="shared" si="7"/>
@@ -6787,7 +6790,7 @@
       </c>
       <c r="F101" s="33">
         <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
-        <v>1.635E-2</v>
+        <v>1.6410000000000001E-2</v>
       </c>
       <c r="G101" s="33">
         <f>_xll.qlSwapRateHelperSpread($E101,Trigger)</f>
@@ -6804,15 +6807,15 @@
       </c>
       <c r="K101" s="31">
         <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L101" s="30">
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>45392</v>
+        <v>45406</v>
       </c>
       <c r="N101" s="37">
         <f t="shared" si="7"/>
-        <v>5.000000000001531E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.2">
@@ -6833,7 +6836,7 @@
       </c>
       <c r="F102" s="33">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
-        <v>1.762E-2</v>
+        <v>1.7639999999999999E-2</v>
       </c>
       <c r="G102" s="33">
         <f>_xll.qlSwapRateHelperSpread($E102,Trigger)</f>
@@ -6850,15 +6853,15 @@
       </c>
       <c r="K102" s="31">
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L102" s="30">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>45757</v>
+        <v>45771</v>
       </c>
       <c r="N102" s="37">
         <f t="shared" si="7"/>
-        <v>5.000000000001531E-6</v>
+        <v>4.9999999999980616E-6</v>
       </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.2">
@@ -6879,7 +6882,7 @@
       </c>
       <c r="F103" s="33">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
-        <v>1.873E-2</v>
+        <v>1.8720000000000001E-2</v>
       </c>
       <c r="G103" s="33">
         <f>_xll.qlSwapRateHelperSpread($E103,Trigger)</f>
@@ -6896,11 +6899,11 @@
       </c>
       <c r="K103" s="31">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L103" s="30">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>46122</v>
+        <v>46136</v>
       </c>
       <c r="N103" s="37">
         <f t="shared" si="7"/>
@@ -6942,11 +6945,11 @@
       </c>
       <c r="K104" s="31">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L104" s="30">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>46489</v>
+        <v>46503</v>
       </c>
       <c r="N104" s="37" t="e">
         <f t="shared" si="7"/>
@@ -6988,11 +6991,11 @@
       </c>
       <c r="K105" s="31">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L105" s="30">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>46853</v>
+        <v>46867</v>
       </c>
       <c r="N105" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7017,7 +7020,7 @@
       </c>
       <c r="F106" s="33">
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
-        <v>2.1219999999999999E-2</v>
+        <v>2.1129999999999999E-2</v>
       </c>
       <c r="G106" s="33">
         <f>_xll.qlSwapRateHelperSpread($E106,Trigger)</f>
@@ -7034,15 +7037,15 @@
       </c>
       <c r="K106" s="31">
         <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L106" s="30">
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>47218</v>
+        <v>47232</v>
       </c>
       <c r="N106" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.9999999999980616E-6</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.2">
@@ -7080,11 +7083,11 @@
       </c>
       <c r="K107" s="31">
         <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L107" s="30">
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>47583</v>
+        <v>47597</v>
       </c>
       <c r="N107" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7126,11 +7129,11 @@
       </c>
       <c r="K108" s="31">
         <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L108" s="30">
         <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
-        <v>47948</v>
+        <v>47962</v>
       </c>
       <c r="N108" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7172,11 +7175,11 @@
       </c>
       <c r="K109" s="31">
         <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L109" s="30">
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
-        <v>48316</v>
+        <v>48330</v>
       </c>
       <c r="N109" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7218,11 +7221,11 @@
       </c>
       <c r="K110" s="31">
         <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L110" s="30">
         <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>48680</v>
+        <v>48694</v>
       </c>
       <c r="N110" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7247,7 +7250,7 @@
       </c>
       <c r="F111" s="33">
         <f>_xll.qlRateHelperQuoteValue($E111,Trigger)</f>
-        <v>2.3179999999999999E-2</v>
+        <v>2.298E-2</v>
       </c>
       <c r="G111" s="33">
         <f>_xll.qlSwapRateHelperSpread($E111,Trigger)</f>
@@ -7264,15 +7267,15 @@
       </c>
       <c r="K111" s="31">
         <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L111" s="30">
         <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>49045</v>
+        <v>49058</v>
       </c>
       <c r="N111" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.9999999999980616E-6</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.2">
@@ -7310,11 +7313,11 @@
       </c>
       <c r="K112" s="31">
         <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L112" s="30">
         <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>49409</v>
+        <v>49423</v>
       </c>
       <c r="N112" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7356,11 +7359,11 @@
       </c>
       <c r="K113" s="31">
         <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L113" s="30">
         <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
-        <v>49775</v>
+        <v>49789</v>
       </c>
       <c r="N113" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7402,11 +7405,11 @@
       </c>
       <c r="K114" s="31">
         <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L114" s="30">
         <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
-        <v>50140</v>
+        <v>50154</v>
       </c>
       <c r="N114" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7448,11 +7451,11 @@
       </c>
       <c r="K115" s="31">
         <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L115" s="30">
         <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
-        <v>50507</v>
+        <v>50522</v>
       </c>
       <c r="N115" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7477,7 +7480,7 @@
       </c>
       <c r="F116" s="33">
         <f>_xll.qlRateHelperQuoteValue($E116,Trigger)</f>
-        <v>2.3890000000000002E-2</v>
+        <v>2.3609999999999999E-2</v>
       </c>
       <c r="G116" s="33">
         <f>_xll.qlSwapRateHelperSpread($E116,Trigger)</f>
@@ -7494,11 +7497,11 @@
       </c>
       <c r="K116" s="31">
         <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L116" s="30">
         <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>50872</v>
+        <v>50885</v>
       </c>
       <c r="N116" s="37">
         <f t="shared" si="7"/>
@@ -7540,11 +7543,11 @@
       </c>
       <c r="K117" s="31">
         <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L117" s="30">
         <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>51236</v>
+        <v>51250</v>
       </c>
       <c r="N117" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7586,11 +7589,11 @@
       </c>
       <c r="K118" s="31">
         <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L118" s="30">
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>51601</v>
+        <v>51615</v>
       </c>
       <c r="N118" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7632,11 +7635,11 @@
       </c>
       <c r="K119" s="31">
         <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L119" s="30">
         <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
-        <v>51966</v>
+        <v>51980</v>
       </c>
       <c r="N119" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7678,11 +7681,11 @@
       </c>
       <c r="K120" s="31">
         <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L120" s="30">
         <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
-        <v>52331</v>
+        <v>52345</v>
       </c>
       <c r="N120" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7707,7 +7710,7 @@
       </c>
       <c r="F121" s="33">
         <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
-        <v>2.4109999999999999E-2</v>
+        <v>2.3789999999999999E-2</v>
       </c>
       <c r="G121" s="33">
         <f>_xll.qlSwapRateHelperSpread($E121,Trigger)</f>
@@ -7724,15 +7727,15 @@
       </c>
       <c r="K121" s="31">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L121" s="30">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>52698</v>
+        <v>52712</v>
       </c>
       <c r="N121" s="37">
         <f t="shared" si="7"/>
-        <v>-1.5000000000001124E-5</v>
+        <v>4.9999999999945921E-6</v>
       </c>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.2">
@@ -7770,11 +7773,11 @@
       </c>
       <c r="K122" s="31">
         <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L122" s="30">
         <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>54525</v>
+        <v>54539</v>
       </c>
       <c r="N122" s="37" t="e">
         <f t="shared" si="7"/>
@@ -7799,14 +7802,14 @@
       </c>
       <c r="F123" s="33">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
-        <v>2.4530000000000003E-2</v>
+        <v>2.4150000000000001E-2</v>
       </c>
       <c r="G123" s="33">
         <f>_xll.qlSwapRateHelperSpread($E123,Trigger)</f>
         <v>0</v>
       </c>
       <c r="H123" s="32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" s="32">
         <v>50</v>
@@ -7816,15 +7819,15 @@
       </c>
       <c r="K123" s="31">
         <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L123" s="30">
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>56349</v>
+        <v>56363</v>
       </c>
       <c r="N123" s="37">
         <f t="shared" si="7"/>
-        <v>-1.4999999999997654E-5</v>
+        <v>3.4694469519536142E-18</v>
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.2">
@@ -7845,14 +7848,14 @@
       </c>
       <c r="F124" s="33">
         <f>_xll.qlRateHelperQuoteValue($E124,Trigger)</f>
-        <v>2.4740000000000002E-2</v>
+        <v>2.4319999999999998E-2</v>
       </c>
       <c r="G124" s="33">
         <f>_xll.qlSwapRateHelperSpread($E124,Trigger)</f>
         <v>0</v>
       </c>
       <c r="H124" s="32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" s="32">
         <v>50</v>
@@ -7862,15 +7865,15 @@
       </c>
       <c r="K124" s="31">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L124" s="30">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
-        <v>60002</v>
+        <v>60016</v>
       </c>
       <c r="N124" s="37">
         <f t="shared" si="7"/>
-        <v>-1.9999999999999185E-5</v>
+        <v>-4.9999999999980616E-6</v>
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.2">
@@ -7891,14 +7894,14 @@
       </c>
       <c r="F125" s="26">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
-        <v>2.4910000000000002E-2</v>
+        <v>2.4489999999999998E-2</v>
       </c>
       <c r="G125" s="26">
         <f>_xll.qlSwapRateHelperSpread($E125,Trigger)</f>
         <v>0</v>
       </c>
       <c r="H125" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" s="25">
         <v>50</v>
@@ -7908,15 +7911,15 @@
       </c>
       <c r="K125" s="24">
         <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L125" s="23">
         <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
-        <v>63654</v>
+        <v>63668</v>
       </c>
       <c r="N125" s="37">
         <f t="shared" si="7"/>
-        <v>-1.3999999999996654E-5</v>
+        <v>-3.4694469519536142E-18</v>
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.2">
@@ -7937,7 +7940,7 @@
       </c>
       <c r="F126" s="33">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
-        <v>2.9849999999999998E-3</v>
+        <v>2.99E-3</v>
       </c>
       <c r="G126" s="33">
         <f>_xll.qlSwapRateHelperSpread($E126,Trigger)</f>
@@ -7954,11 +7957,11 @@
       </c>
       <c r="K126" s="31">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L126" s="30">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>42104</v>
+        <v>42118</v>
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.2">
@@ -7977,9 +7980,9 @@
         <f>SwapsFromBasis_3M!L7</f>
         <v>EUR_YC3MRH_AB3EBASIS15M#0001</v>
       </c>
-      <c r="F127" s="33">
+      <c r="F127" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
-        <v>2.7880000000000001E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="G127" s="33">
         <f>_xll.qlSwapRateHelperSpread($E127,Trigger)</f>
@@ -7996,11 +7999,11 @@
       </c>
       <c r="K127" s="31">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L127" s="30">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>42195</v>
+        <v>42209</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.2">
@@ -8021,7 +8024,7 @@
       </c>
       <c r="F128" s="33">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
-        <v>3.13E-3</v>
+        <v>3.1399999999999996E-3</v>
       </c>
       <c r="G128" s="33">
         <f>_xll.qlSwapRateHelperSpread($E128,Trigger)</f>
@@ -8038,11 +8041,11 @@
       </c>
       <c r="K128" s="31">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L128" s="30">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>42289</v>
+        <v>42303</v>
       </c>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.2">
@@ -8061,9 +8064,9 @@
         <f>SwapsFromBasis_3M!L9</f>
         <v>EUR_YC3MRH_AB3EBASIS21M#0001</v>
       </c>
-      <c r="F129" s="33">
+      <c r="F129" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
-        <v>3.1009999999999996E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="G129" s="33">
         <f>_xll.qlSwapRateHelperSpread($E129,Trigger)</f>
@@ -8080,11 +8083,11 @@
       </c>
       <c r="K129" s="31">
         <f>_xll.qlRateHelperEarliestDate($E129,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L129" s="30">
         <f>_xll.qlRateHelperLatestDate($E129,Trigger)</f>
-        <v>42380</v>
+        <v>42394</v>
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.2">
@@ -8105,7 +8108,7 @@
       </c>
       <c r="F130" s="33">
         <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
-        <v>3.4449999999999993E-3</v>
+        <v>3.47E-3</v>
       </c>
       <c r="G130" s="33">
         <f>_xll.qlSwapRateHelperSpread($E130,Trigger)</f>
@@ -8122,11 +8125,11 @@
       </c>
       <c r="K130" s="31">
         <f>_xll.qlRateHelperEarliestDate($E130,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L130" s="30">
         <f>_xll.qlRateHelperLatestDate($E130,Trigger)</f>
-        <v>42471</v>
+        <v>42485</v>
       </c>
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.2">
@@ -8147,7 +8150,7 @@
       </c>
       <c r="F131" s="33">
         <f>_xll.qlRateHelperQuoteValue($E131,Trigger)</f>
-        <v>4.5849999999999997E-3</v>
+        <v>4.6099999999999995E-3</v>
       </c>
       <c r="G131" s="33">
         <f>_xll.qlSwapRateHelperSpread($E131,Trigger)</f>
@@ -8164,11 +8167,11 @@
       </c>
       <c r="K131" s="31">
         <f>_xll.qlRateHelperEarliestDate($E131,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L131" s="30">
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
-        <v>42835</v>
+        <v>42849</v>
       </c>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.2">
@@ -8189,7 +8192,7 @@
       </c>
       <c r="F132" s="33">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
-        <v>6.1900000000000002E-3</v>
+        <v>6.3150000000000003E-3</v>
       </c>
       <c r="G132" s="33">
         <f>_xll.qlSwapRateHelperSpread($E132,Trigger)</f>
@@ -8206,11 +8209,11 @@
       </c>
       <c r="K132" s="31">
         <f>_xll.qlRateHelperEarliestDate($E132,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L132" s="30">
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>43200</v>
+        <v>43214</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.2">
@@ -8231,7 +8234,7 @@
       </c>
       <c r="F133" s="33">
         <f>_xll.qlRateHelperQuoteValue($E133,Trigger)</f>
-        <v>7.984999999999999E-3</v>
+        <v>8.1899999999999994E-3</v>
       </c>
       <c r="G133" s="33">
         <f>_xll.qlSwapRateHelperSpread($E133,Trigger)</f>
@@ -8248,11 +8251,11 @@
       </c>
       <c r="K133" s="31">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L133" s="30">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>43565</v>
+        <v>43579</v>
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.2">
@@ -8273,7 +8276,7 @@
       </c>
       <c r="F134" s="33">
         <f>_xll.qlRateHelperQuoteValue($E134,Trigger)</f>
-        <v>9.8500000000000011E-3</v>
+        <v>1.0024999999999999E-2</v>
       </c>
       <c r="G134" s="33">
         <f>_xll.qlSwapRateHelperSpread($E134,Trigger)</f>
@@ -8290,11 +8293,11 @@
       </c>
       <c r="K134" s="31">
         <f>_xll.qlRateHelperEarliestDate($E134,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L134" s="30">
         <f>_xll.qlRateHelperLatestDate($E134,Trigger)</f>
-        <v>43935</v>
+        <v>43945</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.2">
@@ -8315,7 +8318,7 @@
       </c>
       <c r="F135" s="33">
         <f>_xll.qlRateHelperQuoteValue($E135,Trigger)</f>
-        <v>1.1655E-2</v>
+        <v>1.1795E-2</v>
       </c>
       <c r="G135" s="33">
         <f>_xll.qlSwapRateHelperSpread($E135,Trigger)</f>
@@ -8332,11 +8335,11 @@
       </c>
       <c r="K135" s="31">
         <f>_xll.qlRateHelperEarliestDate($E135,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L135" s="30">
         <f>_xll.qlRateHelperLatestDate($E135,Trigger)</f>
-        <v>44298</v>
+        <v>44312</v>
       </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.2">
@@ -8357,7 +8360,7 @@
       </c>
       <c r="F136" s="33">
         <f>_xll.qlRateHelperQuoteValue($E136,Trigger)</f>
-        <v>1.337E-2</v>
+        <v>1.3470000000000001E-2</v>
       </c>
       <c r="G136" s="33">
         <f>_xll.qlSwapRateHelperSpread($E136,Trigger)</f>
@@ -8374,11 +8377,11 @@
       </c>
       <c r="K136" s="31">
         <f>_xll.qlRateHelperEarliestDate($E136,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L136" s="30">
         <f>_xll.qlRateHelperLatestDate($E136,Trigger)</f>
-        <v>44662</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.2">
@@ -8399,7 +8402,7 @@
       </c>
       <c r="F137" s="33">
         <f>_xll.qlRateHelperQuoteValue($E137,Trigger)</f>
-        <v>1.4935E-2</v>
+        <v>1.5015000000000001E-2</v>
       </c>
       <c r="G137" s="33">
         <f>_xll.qlSwapRateHelperSpread($E137,Trigger)</f>
@@ -8416,11 +8419,11 @@
       </c>
       <c r="K137" s="31">
         <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L137" s="30">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>45027</v>
+        <v>45040</v>
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.2">
@@ -8441,7 +8444,7 @@
       </c>
       <c r="F138" s="33">
         <f>_xll.qlRateHelperQuoteValue($E138,Trigger)</f>
-        <v>1.6344999999999998E-2</v>
+        <v>1.6410000000000001E-2</v>
       </c>
       <c r="G138" s="33">
         <f>_xll.qlSwapRateHelperSpread($E138,Trigger)</f>
@@ -8458,11 +8461,11 @@
       </c>
       <c r="K138" s="31">
         <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L138" s="30">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>45392</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.2">
@@ -8483,7 +8486,7 @@
       </c>
       <c r="F139" s="33">
         <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
-        <v>1.7614999999999999E-2</v>
+        <v>1.7635000000000001E-2</v>
       </c>
       <c r="G139" s="33">
         <f>_xll.qlSwapRateHelperSpread($E139,Trigger)</f>
@@ -8500,11 +8503,11 @@
       </c>
       <c r="K139" s="31">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L139" s="30">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>45757</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.2">
@@ -8525,7 +8528,7 @@
       </c>
       <c r="F140" s="33">
         <f>_xll.qlRateHelperQuoteValue($E140,Trigger)</f>
-        <v>1.8729999999999997E-2</v>
+        <v>1.8719999999999997E-2</v>
       </c>
       <c r="G140" s="33">
         <f>_xll.qlSwapRateHelperSpread($E140,Trigger)</f>
@@ -8542,11 +8545,11 @@
       </c>
       <c r="K140" s="31">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L140" s="30">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>46122</v>
+        <v>46136</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.2">
@@ -8565,9 +8568,9 @@
         <f>SwapsFromBasis_3M!L21</f>
         <v>EUR_YC3MRH_AB3EBASIS13Y#0001</v>
       </c>
-      <c r="F141" s="33">
+      <c r="F141" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E141,Trigger)</f>
-        <v>1.9695999999999998E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G141" s="33">
         <f>_xll.qlSwapRateHelperSpread($E141,Trigger)</f>
@@ -8584,11 +8587,11 @@
       </c>
       <c r="K141" s="31">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L141" s="30">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>46489</v>
+        <v>46503</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.2">
@@ -8607,9 +8610,9 @@
         <f>SwapsFromBasis_3M!L22</f>
         <v>EUR_YC3MRH_AB3EBASIS14Y#0001</v>
       </c>
-      <c r="F142" s="33">
+      <c r="F142" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
-        <v>2.053E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G142" s="33">
         <f>_xll.qlSwapRateHelperSpread($E142,Trigger)</f>
@@ -8626,11 +8629,11 @@
       </c>
       <c r="K142" s="31">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L142" s="30">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>46853</v>
+        <v>46867</v>
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.2">
@@ -8651,7 +8654,7 @@
       </c>
       <c r="F143" s="33">
         <f>_xll.qlRateHelperQuoteValue($E143,Trigger)</f>
-        <v>2.1219999999999999E-2</v>
+        <v>2.1125000000000001E-2</v>
       </c>
       <c r="G143" s="33">
         <f>_xll.qlSwapRateHelperSpread($E143,Trigger)</f>
@@ -8668,11 +8671,11 @@
       </c>
       <c r="K143" s="31">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L143" s="30">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>47218</v>
+        <v>47232</v>
       </c>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.2">
@@ -8691,9 +8694,9 @@
         <f>SwapsFromBasis_3M!L24</f>
         <v>EUR_YC3MRH_AB3EBASIS16Y#0001</v>
       </c>
-      <c r="F144" s="33">
+      <c r="F144" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E144,Trigger)</f>
-        <v>2.1793999999999997E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G144" s="33">
         <f>_xll.qlSwapRateHelperSpread($E144,Trigger)</f>
@@ -8710,11 +8713,11 @@
       </c>
       <c r="K144" s="31">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L144" s="30">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>47583</v>
+        <v>47597</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8733,9 +8736,9 @@
         <f>SwapsFromBasis_3M!L25</f>
         <v>EUR_YC3MRH_AB3EBASIS17Y#0001</v>
       </c>
-      <c r="F145" s="33">
+      <c r="F145" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E145,Trigger)</f>
-        <v>2.2251E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G145" s="33">
         <f>_xll.qlSwapRateHelperSpread($E145,Trigger)</f>
@@ -8752,11 +8755,11 @@
       </c>
       <c r="K145" s="31">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L145" s="30">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>47948</v>
+        <v>47962</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -8775,9 +8778,9 @@
         <f>SwapsFromBasis_3M!L26</f>
         <v>EUR_YC3MRH_AB3EBASIS18Y#0001</v>
       </c>
-      <c r="F146" s="33">
+      <c r="F146" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E146,Trigger)</f>
-        <v>2.2634000000000001E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G146" s="33">
         <f>_xll.qlSwapRateHelperSpread($E146,Trigger)</f>
@@ -8794,11 +8797,11 @@
       </c>
       <c r="K146" s="31">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L146" s="30">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>48316</v>
+        <v>48330</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8817,9 +8820,9 @@
         <f>SwapsFromBasis_3M!L27</f>
         <v>EUR_YC3MRH_AB3EBASIS19Y#0001</v>
       </c>
-      <c r="F147" s="33">
+      <c r="F147" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
-        <v>2.2934E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G147" s="33">
         <f>_xll.qlSwapRateHelperSpread($E147,Trigger)</f>
@@ -8836,11 +8839,11 @@
       </c>
       <c r="K147" s="31">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L147" s="30">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>48680</v>
+        <v>48694</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8861,7 +8864,7 @@
       </c>
       <c r="F148" s="33">
         <f>_xll.qlRateHelperQuoteValue($E148,Trigger)</f>
-        <v>2.3179999999999999E-2</v>
+        <v>2.2975000000000002E-2</v>
       </c>
       <c r="G148" s="33">
         <f>_xll.qlSwapRateHelperSpread($E148,Trigger)</f>
@@ -8878,11 +8881,11 @@
       </c>
       <c r="K148" s="31">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L148" s="30">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>49045</v>
+        <v>49058</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
@@ -8901,9 +8904,9 @@
         <f>SwapsFromBasis_3M!L29</f>
         <v>EUR_YC3MRH_AB3EBASIS21Y#0001</v>
       </c>
-      <c r="F149" s="33">
+      <c r="F149" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E149,Trigger)</f>
-        <v>2.3383999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G149" s="33">
         <f>_xll.qlSwapRateHelperSpread($E149,Trigger)</f>
@@ -8920,11 +8923,11 @@
       </c>
       <c r="K149" s="31">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L149" s="30">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>49409</v>
+        <v>49423</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -8943,9 +8946,9 @@
         <f>SwapsFromBasis_3M!L30</f>
         <v>EUR_YC3MRH_AB3EBASIS22Y#0001</v>
       </c>
-      <c r="F150" s="33">
+      <c r="F150" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E150,Trigger)</f>
-        <v>2.3557000000000002E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G150" s="33">
         <f>_xll.qlSwapRateHelperSpread($E150,Trigger)</f>
@@ -8962,11 +8965,11 @@
       </c>
       <c r="K150" s="31">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L150" s="30">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>49775</v>
+        <v>49789</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
@@ -8985,9 +8988,9 @@
         <f>SwapsFromBasis_3M!L31</f>
         <v>EUR_YC3MRH_AB3EBASIS23Y#0001</v>
       </c>
-      <c r="F151" s="33">
+      <c r="F151" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E151,Trigger)</f>
-        <v>2.3688000000000004E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G151" s="33">
         <f>_xll.qlSwapRateHelperSpread($E151,Trigger)</f>
@@ -9004,11 +9007,11 @@
       </c>
       <c r="K151" s="31">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L151" s="30">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>50140</v>
+        <v>50154</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -9027,9 +9030,9 @@
         <f>SwapsFromBasis_3M!L32</f>
         <v>EUR_YC3MRH_AB3EBASIS24Y#0001</v>
       </c>
-      <c r="F152" s="33">
+      <c r="F152" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E152,Trigger)</f>
-        <v>2.3797000000000002E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G152" s="33">
         <f>_xll.qlSwapRateHelperSpread($E152,Trigger)</f>
@@ -9046,11 +9049,11 @@
       </c>
       <c r="K152" s="31">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L152" s="30">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>50507</v>
+        <v>50522</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -9071,7 +9074,7 @@
       </c>
       <c r="F153" s="33">
         <f>_xll.qlRateHelperQuoteValue($E153,Trigger)</f>
-        <v>2.3885000000000003E-2</v>
+        <v>2.3605000000000001E-2</v>
       </c>
       <c r="G153" s="33">
         <f>_xll.qlSwapRateHelperSpread($E153,Trigger)</f>
@@ -9088,11 +9091,11 @@
       </c>
       <c r="K153" s="31">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L153" s="30">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>50872</v>
+        <v>50885</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
@@ -9111,9 +9114,9 @@
         <f>SwapsFromBasis_3M!L34</f>
         <v>EUR_YC3MRH_AB3EBASIS26Y#0001</v>
       </c>
-      <c r="F154" s="33">
+      <c r="F154" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E154,Trigger)</f>
-        <v>2.3951E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G154" s="33">
         <f>_xll.qlSwapRateHelperSpread($E154,Trigger)</f>
@@ -9130,11 +9133,11 @@
       </c>
       <c r="K154" s="31">
         <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L154" s="30">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>51236</v>
+        <v>51250</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -9153,9 +9156,9 @@
         <f>SwapsFromBasis_3M!L35</f>
         <v>EUR_YC3MRH_AB3EBASIS27Y#0001</v>
       </c>
-      <c r="F155" s="33">
+      <c r="F155" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E155,Trigger)</f>
-        <v>2.4006E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G155" s="33">
         <f>_xll.qlSwapRateHelperSpread($E155,Trigger)</f>
@@ -9172,11 +9175,11 @@
       </c>
       <c r="K155" s="31">
         <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L155" s="30">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>51601</v>
+        <v>51615</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -9195,9 +9198,9 @@
         <f>SwapsFromBasis_3M!L36</f>
         <v>EUR_YC3MRH_AB3EBASIS28Y#0001</v>
       </c>
-      <c r="F156" s="33">
+      <c r="F156" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E156,Trigger)</f>
-        <v>2.4050000000000002E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G156" s="33">
         <f>_xll.qlSwapRateHelperSpread($E156,Trigger)</f>
@@ -9214,11 +9217,11 @@
       </c>
       <c r="K156" s="31">
         <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L156" s="30">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>51966</v>
+        <v>51980</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
@@ -9237,9 +9240,9 @@
         <f>SwapsFromBasis_3M!L37</f>
         <v>EUR_YC3MRH_AB3EBASIS29Y#0001</v>
       </c>
-      <c r="F157" s="33">
+      <c r="F157" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E157,Trigger)</f>
-        <v>2.4093E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G157" s="33">
         <f>_xll.qlSwapRateHelperSpread($E157,Trigger)</f>
@@ -9256,11 +9259,11 @@
       </c>
       <c r="K157" s="31">
         <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L157" s="30">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>52331</v>
+        <v>52345</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
@@ -9281,7 +9284,7 @@
       </c>
       <c r="F158" s="33">
         <f>_xll.qlRateHelperQuoteValue($E158,Trigger)</f>
-        <v>2.4125000000000001E-2</v>
+        <v>2.3785000000000004E-2</v>
       </c>
       <c r="G158" s="33">
         <f>_xll.qlSwapRateHelperSpread($E158,Trigger)</f>
@@ -9298,11 +9301,11 @@
       </c>
       <c r="K158" s="31">
         <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L158" s="30">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>52698</v>
+        <v>52712</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
@@ -9321,16 +9324,16 @@
         <f>SwapsFromBasis_3M!L39</f>
         <v>EUR_YC3MRH_AB3EBASIS35Y#0001</v>
       </c>
-      <c r="F159" s="33">
+      <c r="F159" s="33" t="e">
         <f>_xll.qlRateHelperQuoteValue($E159,Trigger)</f>
-        <v>2.4325999999999997E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G159" s="33">
         <f>_xll.qlSwapRateHelperSpread($E159,Trigger)</f>
         <v>0</v>
       </c>
       <c r="H159" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" s="32">
         <v>40</v>
@@ -9340,11 +9343,11 @@
       </c>
       <c r="K159" s="31">
         <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L159" s="30">
         <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>54525</v>
+        <v>54539</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
@@ -9365,14 +9368,14 @@
       </c>
       <c r="F160" s="33">
         <f>_xll.qlRateHelperQuoteValue($E160,Trigger)</f>
-        <v>2.4545000000000001E-2</v>
+        <v>2.4149999999999998E-2</v>
       </c>
       <c r="G160" s="33">
         <f>_xll.qlSwapRateHelperSpread($E160,Trigger)</f>
         <v>0</v>
       </c>
       <c r="H160" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" s="32">
         <v>40</v>
@@ -9382,11 +9385,11 @@
       </c>
       <c r="K160" s="31">
         <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L160" s="30">
         <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>56349</v>
+        <v>56363</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
@@ -9407,14 +9410,14 @@
       </c>
       <c r="F161" s="33">
         <f>_xll.qlRateHelperQuoteValue($E161,Trigger)</f>
-        <v>2.4760000000000001E-2</v>
+        <v>2.4324999999999996E-2</v>
       </c>
       <c r="G161" s="33">
         <f>_xll.qlSwapRateHelperSpread($E161,Trigger)</f>
         <v>0</v>
       </c>
       <c r="H161" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" s="32">
         <v>40</v>
@@ -9424,11 +9427,11 @@
       </c>
       <c r="K161" s="31">
         <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L161" s="30">
         <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
-        <v>60002</v>
+        <v>60016</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.2">
@@ -9443,35 +9446,45 @@
       <c r="D162" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E162" s="27" t="str">
+      <c r="E162" s="34" t="str">
         <f>SwapsFromBasis_3M!L42</f>
         <v>EUR_YC3MRH_AB3EBASIS60Y#0001</v>
       </c>
-      <c r="F162" s="26">
+      <c r="F162" s="33">
         <f>_xll.qlRateHelperQuoteValue($E162,Trigger)</f>
-        <v>2.4923999999999998E-2</v>
-      </c>
-      <c r="G162" s="26">
+        <v>2.4490000000000001E-2</v>
+      </c>
+      <c r="G162" s="33">
         <f>_xll.qlSwapRateHelperSpread($E162,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="H162" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I162" s="25">
+      <c r="H162" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I162" s="32">
         <v>40</v>
       </c>
-      <c r="J162" s="25">
-        <v>1</v>
-      </c>
-      <c r="K162" s="24">
+      <c r="J162" s="32">
+        <v>1</v>
+      </c>
+      <c r="K162" s="31">
         <f>_xll.qlRateHelperEarliestDate($E162,Trigger)</f>
-        <v>41739</v>
-      </c>
-      <c r="L162" s="23">
+        <v>41753</v>
+      </c>
+      <c r="L162" s="30">
         <f>_xll.qlRateHelperLatestDate($E162,Trigger)</f>
-        <v>63654</v>
-      </c>
+        <v>63668</v>
+      </c>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E163" s="228"/>
+      <c r="F163" s="228"/>
+      <c r="G163" s="228"/>
+      <c r="H163" s="228"/>
+      <c r="I163" s="228"/>
+      <c r="J163" s="228"/>
+      <c r="K163" s="228"/>
+      <c r="L163" s="228"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9498,7 +9511,7 @@
     <col min="1" max="1" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -9542,7 +9555,7 @@
       </c>
       <c r="E2" s="10">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>3.4680000000000002E-3</v>
+        <v>3.6050000000000001E-3</v>
       </c>
       <c r="F2" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9550,14 +9563,14 @@
       </c>
       <c r="G2" s="9">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41753</v>
+        <v>41767</v>
       </c>
       <c r="I2" s="3">
-        <v>0.99986515151988298</v>
+        <v>0.9998495256300568</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -9572,7 +9585,7 @@
       </c>
       <c r="E3" s="10">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>3.4840000000000001E-3</v>
+        <v>3.5170000000000002E-3</v>
       </c>
       <c r="F3" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9580,14 +9593,14 @@
       </c>
       <c r="G3" s="9">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41761</v>
+        <v>41774</v>
       </c>
       <c r="I3" s="3">
-        <v>0.99978713421038012</v>
+        <v>0.99978458484016575</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -9602,7 +9615,7 @@
       </c>
       <c r="E4" s="10">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>3.3930000000000002E-3</v>
+        <v>3.4619999999999998E-3</v>
       </c>
       <c r="F4" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9610,14 +9623,14 @@
       </c>
       <c r="G4" s="9">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41771</v>
+        <v>41785</v>
       </c>
       <c r="I4" s="3">
-        <v>0.99969849093513385</v>
+        <v>0.99968206348535149</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -9632,7 +9645,7 @@
       </c>
       <c r="E5" s="10">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>3.3110000000000001E-3</v>
+        <v>3.3700000000000002E-3</v>
       </c>
       <c r="F5" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -9640,14 +9653,14 @@
       </c>
       <c r="G5" s="9">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41800</v>
+        <v>41814</v>
       </c>
       <c r="I5" s="3">
-        <v>0.99943928402324034</v>
+        <v>0.99941900296656772</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -9678,13 +9691,13 @@
         <v>41900</v>
       </c>
       <c r="I6" s="3">
-        <v>0.99862209887690434</v>
+        <v>0.9987255271383032</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="str">
         <f>_xll.ohGroup(,_xll.ohPack(D2:D126),Permanent,,ObjectOverwrite)</f>
-        <v>obj_004db#0001</v>
+        <v>obj_00500#0003</v>
       </c>
       <c r="B7" s="12" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -9710,7 +9723,7 @@
         <v>41990</v>
       </c>
       <c r="I7" s="3">
-        <v>0.99794235919919483</v>
+        <v>0.99804567113740561</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -9734,7 +9747,7 @@
         <v>42080</v>
       </c>
       <c r="I8" s="3">
-        <v>0.99723805981944735</v>
+        <v>0.99734129884446443</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -9743,7 +9756,7 @@
       </c>
       <c r="E9" s="10">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>3.0750000000000499E-3</v>
+        <v>3.0250000000000554E-3</v>
       </c>
       <c r="F9" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -9758,7 +9771,7 @@
         <v>42173</v>
       </c>
       <c r="I9" s="3">
-        <v>0.99644690461699659</v>
+        <v>0.99656286256652449</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -9767,7 +9780,7 @@
       </c>
       <c r="E10" s="10">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>3.4250000000000114E-3</v>
+        <v>3.3750000000000169E-3</v>
       </c>
       <c r="F10" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -9782,7 +9795,7 @@
         <v>42264</v>
       </c>
       <c r="I10" s="3">
-        <v>0.99558444061025497</v>
+        <v>0.99571287255712138</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -9791,7 +9804,7 @@
       </c>
       <c r="E11" s="10">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>3.8750000000000728E-3</v>
+        <v>3.7749999999999728E-3</v>
       </c>
       <c r="F11" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -9806,7 +9819,7 @@
         <v>42354</v>
       </c>
       <c r="I11" s="3">
-        <v>0.9946202270787935</v>
+        <v>0.99477345444510545</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -9815,7 +9828,7 @@
       </c>
       <c r="E12" s="10">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>4.4749999999998957E-3</v>
+        <v>4.3750000000000178E-3</v>
       </c>
       <c r="F12" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -9830,7 +9843,7 @@
         <v>42445</v>
       </c>
       <c r="I12" s="3">
-        <v>0.99349640326540523</v>
+        <v>0.99367454700372848</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -9839,7 +9852,7 @@
       </c>
       <c r="E13" s="10">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>5.1749999999999297E-3</v>
+        <v>5.0749999999999407E-3</v>
       </c>
       <c r="F13" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -9854,7 +9867,7 @@
         <v>42537</v>
       </c>
       <c r="I13" s="3">
-        <v>0.99218423960852309</v>
+        <v>0.99238747558100748</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -9863,7 +9876,7 @@
       </c>
       <c r="E14" s="10">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>4.5899999999999995E-3</v>
+        <v>4.6099999999999995E-3</v>
       </c>
       <c r="F14" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -9871,14 +9884,14 @@
       </c>
       <c r="G14" s="9">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H14" s="8">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42835</v>
+        <v>42849</v>
       </c>
       <c r="I14" s="3">
-        <v>0.98634215338159481</v>
+        <v>0.98626695953920152</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -9887,7 +9900,7 @@
       </c>
       <c r="E15" s="10">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>6.1900000000000002E-3</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F15" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -9895,14 +9908,14 @@
       </c>
       <c r="G15" s="9">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H15" s="8">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>43200</v>
+        <v>43214</v>
       </c>
       <c r="I15" s="3">
-        <v>0.97555192271131297</v>
+        <v>0.97502730172588425</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -9911,7 +9924,7 @@
       </c>
       <c r="E16" s="10">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>7.9899999999999988E-3</v>
+        <v>8.1899999999999994E-3</v>
       </c>
       <c r="F16" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -9919,14 +9932,14 @@
       </c>
       <c r="G16" s="9">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H16" s="8">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43565</v>
+        <v>43579</v>
       </c>
       <c r="I16" s="3">
-        <v>0.96078702719130782</v>
+        <v>0.95980432656362458</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.2">
@@ -9935,7 +9948,7 @@
       </c>
       <c r="E17" s="10">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>9.8499999999999994E-3</v>
+        <v>1.0030000000000001E-2</v>
       </c>
       <c r="F17" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -9943,14 +9956,14 @@
       </c>
       <c r="G17" s="9">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H17" s="8">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43935</v>
+        <v>43945</v>
       </c>
       <c r="I17" s="3">
-        <v>0.94230665837003724</v>
+        <v>0.94136838358059149</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.2">
@@ -9959,7 +9972,7 @@
       </c>
       <c r="E18" s="10">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.1659999999999998E-2</v>
+        <v>1.1800000000000001E-2</v>
       </c>
       <c r="F18" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -9967,14 +9980,14 @@
       </c>
       <c r="G18" s="9">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H18" s="8">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>44298</v>
+        <v>44312</v>
       </c>
       <c r="I18" s="3">
-        <v>0.92106936826692953</v>
+        <v>0.92015005292844521</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.2">
@@ -9983,7 +9996,7 @@
       </c>
       <c r="E19" s="10">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.3370000000000002E-2</v>
+        <v>1.3469999999999999E-2</v>
       </c>
       <c r="F19" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -9991,14 +10004,14 @@
       </c>
       <c r="G19" s="9">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H19" s="8">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44662</v>
+        <v>44676</v>
       </c>
       <c r="I19" s="3">
-        <v>0.8975808244896023</v>
+        <v>0.89685852470577654</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.2">
@@ -10007,7 +10020,7 @@
       </c>
       <c r="E20" s="10">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.494E-2</v>
+        <v>1.502E-2</v>
       </c>
       <c r="F20" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -10015,14 +10028,14 @@
       </c>
       <c r="G20" s="9">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H20" s="8">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="I20" s="3">
-        <v>0.87257895839993593</v>
+        <v>0.87199471772301185</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.2">
@@ -10031,7 +10044,7 @@
       </c>
       <c r="E21" s="10">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.635E-2</v>
+        <v>1.6410000000000001E-2</v>
       </c>
       <c r="F21" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10039,14 +10052,14 @@
       </c>
       <c r="G21" s="9">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H21" s="8">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>45392</v>
+        <v>45406</v>
       </c>
       <c r="I21" s="3">
-        <v>0.84681396157770294</v>
+        <v>0.84633267385927402</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.2">
@@ -10055,7 +10068,7 @@
       </c>
       <c r="E22" s="10">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.873E-2</v>
+        <v>1.8720000000000001E-2</v>
       </c>
       <c r="F22" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10063,14 +10076,14 @@
       </c>
       <c r="G22" s="9">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H22" s="8">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>46122</v>
+        <v>46136</v>
       </c>
       <c r="I22" s="3">
-        <v>0.79441067194374648</v>
+        <v>0.79462126265499711</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.2">
@@ -10079,7 +10092,7 @@
       </c>
       <c r="E23" s="10">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.1219999999999999E-2</v>
+        <v>2.1129999999999999E-2</v>
       </c>
       <c r="F23" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10087,14 +10100,14 @@
       </c>
       <c r="G23" s="9">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H23" s="8">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>47218</v>
+        <v>47232</v>
       </c>
       <c r="I23" s="3">
-        <v>0.7199037323698797</v>
+        <v>0.72115504985764822</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.2">
@@ -10103,7 +10116,7 @@
       </c>
       <c r="E24" s="10">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.3179999999999999E-2</v>
+        <v>2.298E-2</v>
       </c>
       <c r="F24" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10111,14 +10124,14 @@
       </c>
       <c r="G24" s="9">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H24" s="8">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>49045</v>
+        <v>49058</v>
       </c>
       <c r="I24" s="3">
-        <v>0.61807214902077223</v>
+        <v>0.62120658349086622</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.2">
@@ -10127,7 +10140,7 @@
       </c>
       <c r="E25" s="10">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.3890000000000002E-2</v>
+        <v>2.3609999999999999E-2</v>
       </c>
       <c r="F25" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10135,14 +10148,14 @@
       </c>
       <c r="G25" s="9">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H25" s="8">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>50872</v>
+        <v>50885</v>
       </c>
       <c r="I25" s="3">
-        <v>0.53847637735653264</v>
+        <v>0.54322876565183731</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.2">
@@ -10151,7 +10164,7 @@
       </c>
       <c r="E26" s="10">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.4109999999999999E-2</v>
+        <v>2.3789999999999999E-2</v>
       </c>
       <c r="F26" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10159,23 +10172,23 @@
       </c>
       <c r="G26" s="9">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H26" s="8">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>52698</v>
+        <v>52712</v>
       </c>
       <c r="I26" s="3">
-        <v>0.47412916351319567</v>
+        <v>0.47977122498173402</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D27" s="11" t="str">
-        <v>EUR_YC3MRH_AB3EBASIS35Y</v>
+        <v>EUR_YC3MRH_AB3E40Y</v>
       </c>
       <c r="E27" s="10">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.4325999999999997E-2</v>
+        <v>2.4150000000000001E-2</v>
       </c>
       <c r="F27" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10183,23 +10196,23 @@
       </c>
       <c r="G27" s="9">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H27" s="8">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>54525</v>
+        <v>56363</v>
       </c>
       <c r="I27" s="3">
-        <v>0.41603829314938223</v>
+        <v>0.37106178575518967</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D28" s="11" t="str">
-        <v>EUR_YC3MRH_AB3EBASIS40Y</v>
+        <v>EUR_YC3MRH_AB3E50Y</v>
       </c>
       <c r="E28" s="10">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.4545000000000001E-2</v>
+        <v>2.4319999999999998E-2</v>
       </c>
       <c r="F28" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10207,23 +10220,23 @@
       </c>
       <c r="G28" s="9">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H28" s="8">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>56349</v>
+        <v>60016</v>
       </c>
       <c r="I28" s="3">
-        <v>0.36373306306525227</v>
+        <v>0.28797103601958363</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D29" s="11" t="str">
-        <v>EUR_YC3MRH_AB3EBASIS50Y</v>
+        <v>EUR_YC3MRH_AB3E60Y</v>
       </c>
       <c r="E29" s="10">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.4760000000000001E-2</v>
+        <v>2.4489999999999998E-2</v>
       </c>
       <c r="F29" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -10231,38 +10244,38 @@
       </c>
       <c r="G29" s="9">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H29" s="8">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>60002</v>
+        <v>63668</v>
       </c>
       <c r="I29" s="3">
-        <v>0.28003511804121239</v>
+        <v>0.22173953767112972</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D30" s="11" t="str">
-        <v>EUR_YC3MRH_AB3EBASIS60Y</v>
-      </c>
-      <c r="E30" s="10">
+      <c r="D30" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E30" s="10" t="e">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.4923999999999998E-2</v>
-      </c>
-      <c r="F30" s="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F30" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="9">
+        <v>--</v>
+      </c>
+      <c r="G30" s="9" t="e">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41739</v>
-      </c>
-      <c r="H30" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H30" s="8" t="e">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>63654</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0.21478731757224265</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I30" s="3" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.2">
@@ -13477,7 +13490,7 @@
       </c>
       <c r="D3" s="203" t="str">
         <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C122)</f>
-        <v>J4</v>
+        <v>K4</v>
       </c>
       <c r="E3" s="155" t="str">
         <f t="shared" ref="E3:E34" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -13485,19 +13498,19 @@
       </c>
       <c r="F3" s="154" t="str">
         <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>EURFUT3MJ4_Quote</v>
+        <v>EURFUT3MK4_Quote</v>
       </c>
       <c r="G3" s="154" t="str">
         <f t="shared" ref="G3:G34" si="2">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MJ4ConvAdj_Quote</v>
+        <v>EURFUT3MK4ConvAdj_Quote</v>
       </c>
       <c r="H3" s="154" t="str">
         <f t="shared" ref="H3:H34" si="3">$H$1&amp;"_FUT"&amp;$E$1&amp;$D3</f>
-        <v>EUR_YC3MRH_FUT3MJ4</v>
+        <v>EUR_YC3MRH_FUT3MK4</v>
       </c>
       <c r="I3" s="160" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MJ4#0001</v>
+        <v>EUR_YC3MRH_FUT3MK4#0001</v>
       </c>
       <c r="J3" s="159" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -13507,7 +13520,7 @@
       <c r="L3" s="158"/>
       <c r="M3" s="86" t="str">
         <f>_xll.ohObjectCallerAddress(F3)</f>
-        <v>[EUR_Market.xlsx]Futures3M!R7C6</v>
+        <v>'C:\Projects\quantlib\QuantLibXL\Data2\XLS\[Copy of EUR_Market.xlsx]Futures3M'!R7C6</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -13519,7 +13532,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="204" t="str">
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E4" s="155" t="str">
         <f t="shared" si="0"/>
@@ -13527,19 +13540,19 @@
       </c>
       <c r="F4" s="154" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MK4_Quote</v>
+        <v>EURFUT3MM4_Quote</v>
       </c>
       <c r="G4" s="154" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MK4ConvAdj_Quote</v>
+        <v>EURFUT3MM4ConvAdj_Quote</v>
       </c>
       <c r="H4" s="154" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MK4</v>
+        <v>EUR_YC3MRH_FUT3MM4</v>
       </c>
       <c r="I4" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MK4#0001</v>
+        <v>EUR_YC3MRH_FUT3MM4#0001</v>
       </c>
       <c r="J4" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -13557,7 +13570,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="204" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E5" s="155" t="str">
         <f t="shared" si="0"/>
@@ -13565,19 +13578,19 @@
       </c>
       <c r="F5" s="154" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM4_Quote</v>
+        <v>EURFUT3MN4_Quote</v>
       </c>
       <c r="G5" s="154" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM4ConvAdj_Quote</v>
+        <v>EURFUT3MN4ConvAdj_Quote</v>
       </c>
       <c r="H5" s="154" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MM4</v>
+        <v>EUR_YC3MRH_FUT3MN4</v>
       </c>
       <c r="I5" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MM4#0001</v>
+        <v>EUR_YC3MRH_FUT3MN4#0001</v>
       </c>
       <c r="J5" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13595,7 +13608,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="204" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E6" s="155" t="str">
         <f t="shared" si="0"/>
@@ -13603,19 +13616,19 @@
       </c>
       <c r="F6" s="154" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MN4_Quote</v>
+        <v>EURFUT3MQ4_Quote</v>
       </c>
       <c r="G6" s="154" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MN4ConvAdj_Quote</v>
+        <v>EURFUT3MQ4ConvAdj_Quote</v>
       </c>
       <c r="H6" s="154" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MN4</v>
+        <v>EUR_YC3MRH_FUT3MQ4</v>
       </c>
       <c r="I6" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MN4#0001</v>
+        <v>EUR_YC3MRH_FUT3MQ4#0001</v>
       </c>
       <c r="J6" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -13633,7 +13646,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="204" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E7" s="155" t="str">
         <f t="shared" si="0"/>
@@ -13641,19 +13654,19 @@
       </c>
       <c r="F7" s="154" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MQ4_Quote</v>
+        <v>EURFUT3MU4_Quote</v>
       </c>
       <c r="G7" s="154" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MQ4ConvAdj_Quote</v>
+        <v>EURFUT3MU4ConvAdj_Quote</v>
       </c>
       <c r="H7" s="154" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MQ4</v>
+        <v>EUR_YC3MRH_FUT3MU4</v>
       </c>
       <c r="I7" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MQ4#0001</v>
+        <v>EUR_YC3MRH_FUT3MU4#0001</v>
       </c>
       <c r="J7" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -13671,7 +13684,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="204" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E8" s="155" t="str">
         <f t="shared" si="0"/>
@@ -13679,19 +13692,19 @@
       </c>
       <c r="F8" s="154" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU4_Quote</v>
+        <v>EURFUT3MV4_Quote</v>
       </c>
       <c r="G8" s="154" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU4ConvAdj_Quote</v>
+        <v>EURFUT3MV4ConvAdj_Quote</v>
       </c>
       <c r="H8" s="154" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MU4</v>
+        <v>EUR_YC3MRH_FUT3MV4</v>
       </c>
       <c r="I8" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MU4#0001</v>
+        <v>EUR_YC3MRH_FUT3MV4#0001</v>
       </c>
       <c r="J8" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -13709,7 +13722,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="204" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E9" s="155" t="str">
         <f t="shared" si="0"/>
@@ -13717,19 +13730,19 @@
       </c>
       <c r="F9" s="154" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MV4_Quote</v>
+        <v>EURFUT3MX4_Quote</v>
       </c>
       <c r="G9" s="154" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MV4ConvAdj_Quote</v>
+        <v>EURFUT3MX4ConvAdj_Quote</v>
       </c>
       <c r="H9" s="154" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MV4</v>
+        <v>EUR_YC3MRH_FUT3MX4</v>
       </c>
       <c r="I9" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MV4#0001</v>
+        <v>EUR_YC3MRH_FUT3MX4#0001</v>
       </c>
       <c r="J9" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -13747,7 +13760,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="204" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E10" s="155" t="str">
         <f t="shared" si="0"/>
@@ -13755,19 +13768,19 @@
       </c>
       <c r="F10" s="154" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MX4_Quote</v>
+        <v>EURFUT3MZ4_Quote</v>
       </c>
       <c r="G10" s="154" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MX4ConvAdj_Quote</v>
+        <v>EURFUT3MZ4ConvAdj_Quote</v>
       </c>
       <c r="H10" s="154" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MX4</v>
+        <v>EUR_YC3MRH_FUT3MZ4</v>
       </c>
       <c r="I10" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MX4#0001</v>
+        <v>EUR_YC3MRH_FUT3MZ4#0001</v>
       </c>
       <c r="J10" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -13785,7 +13798,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="204" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E11" s="155" t="str">
         <f t="shared" si="0"/>
@@ -13793,19 +13806,19 @@
       </c>
       <c r="F11" s="154" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ4_Quote</v>
+        <v>EURFUT3MF5_Quote</v>
       </c>
       <c r="G11" s="154" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ4ConvAdj_Quote</v>
+        <v>EURFUT3MF5ConvAdj_Quote</v>
       </c>
       <c r="H11" s="154" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MZ4</v>
+        <v>EUR_YC3MRH_FUT3MF5</v>
       </c>
       <c r="I11" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MZ4#0001</v>
+        <v>EUR_YC3MRH_FUT3MF5#0001</v>
       </c>
       <c r="J11" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -13823,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="204" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="E12" s="155" t="str">
         <f t="shared" si="0"/>
@@ -13831,19 +13844,19 @@
       </c>
       <c r="F12" s="154" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MF5_Quote</v>
+        <v>EURFUT3MG5_Quote</v>
       </c>
       <c r="G12" s="154" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MF5ConvAdj_Quote</v>
+        <v>EURFUT3MG5ConvAdj_Quote</v>
       </c>
       <c r="H12" s="154" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MF5</v>
+        <v>EUR_YC3MRH_FUT3MG5</v>
       </c>
       <c r="I12" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MF5#0001</v>
+        <v>EUR_YC3MRH_FUT3MG5#0001</v>
       </c>
       <c r="J12" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -13861,7 +13874,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="204" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="E13" s="155" t="str">
         <f t="shared" si="0"/>
@@ -13869,19 +13882,19 @@
       </c>
       <c r="F13" s="154" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MG5_Quote</v>
+        <v>EURFUT3MH5_Quote</v>
       </c>
       <c r="G13" s="154" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MG5ConvAdj_Quote</v>
+        <v>EURFUT3MH5ConvAdj_Quote</v>
       </c>
       <c r="H13" s="154" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MG5</v>
+        <v>EUR_YC3MRH_FUT3MH5</v>
       </c>
       <c r="I13" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MG5#0001</v>
+        <v>EUR_YC3MRH_FUT3MH5#0001</v>
       </c>
       <c r="J13" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -13899,7 +13912,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="204" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="E14" s="155" t="str">
         <f t="shared" si="0"/>
@@ -13907,19 +13920,19 @@
       </c>
       <c r="F14" s="154" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH5_Quote</v>
+        <v>EURFUT3MJ5_Quote</v>
       </c>
       <c r="G14" s="154" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH5ConvAdj_Quote</v>
+        <v>EURFUT3MJ5ConvAdj_Quote</v>
       </c>
       <c r="H14" s="154" t="str">
         <f t="shared" si="3"/>
-        <v>EUR_YC3MRH_FUT3MH5</v>
+        <v>EUR_YC3MRH_FUT3MJ5</v>
       </c>
       <c r="I14" s="153" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC3MRH_FUT3MH5#0001</v>
+        <v>EUR_YC3MRH_FUT3MJ5#0001</v>
       </c>
       <c r="J14" s="91" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
